--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -9,15 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
+    <workbookView xWindow="6000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
     <sheet name="Stammdaten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Aufgabe">Stammdaten!$D$3:$D$128</definedName>
     <definedName name="Benu1">Stammdaten!$U$3:$U$128</definedName>
@@ -2147,87 +2144,7 @@
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="127">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="74">
     <dxf>
       <fill>
         <patternFill>
@@ -2848,374 +2765,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF99D709"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF538235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF1A2501"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3227,297 +2776,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Einführung"/>
-      <sheetName val="Stammdaten"/>
-      <sheetName val="Projektplan_4M"/>
-      <sheetName val="Projektplan_12M"/>
-      <sheetName val="Projektplan_9M"/>
-      <sheetName val="Projektplan_24M"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="7">
-          <cell r="H7">
-            <v>41705</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="G16"/>
-          <cell r="I16" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="G17">
-            <v>41705</v>
-          </cell>
-          <cell r="I17" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="G18"/>
-          <cell r="I18" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="G19">
-            <v>41705</v>
-          </cell>
-          <cell r="I19">
-            <v>41726</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="G20">
-            <v>41705</v>
-          </cell>
-          <cell r="I20">
-            <v>41714</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="G21">
-            <v>41715</v>
-          </cell>
-          <cell r="I21">
-            <v>41723</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="G22">
-            <v>41724</v>
-          </cell>
-          <cell r="I22">
-            <v>41725</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="G23">
-            <v>41726</v>
-          </cell>
-          <cell r="I23" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="G24"/>
-          <cell r="I24" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="G25">
-            <v>41726</v>
-          </cell>
-          <cell r="I25">
-            <v>41752</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="G26">
-            <v>41726</v>
-          </cell>
-          <cell r="I26">
-            <v>41735</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="G27">
-            <v>41736</v>
-          </cell>
-          <cell r="I27">
-            <v>41745</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="G28">
-            <v>41752</v>
-          </cell>
-          <cell r="I28" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="G29"/>
-          <cell r="I29" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="G30">
-            <v>41757</v>
-          </cell>
-          <cell r="I30">
-            <v>41771</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="G31">
-            <v>41757</v>
-          </cell>
-          <cell r="I31">
-            <v>41766</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="G32">
-            <v>41771</v>
-          </cell>
-          <cell r="I32" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="G33"/>
-          <cell r="I33" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="G34">
-            <v>41772</v>
-          </cell>
-          <cell r="I34">
-            <v>41791</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="G35">
-            <v>41772</v>
-          </cell>
-          <cell r="I35">
-            <v>41781</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="G36">
-            <v>41782</v>
-          </cell>
-          <cell r="I36">
-            <v>41791</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="G37"/>
-          <cell r="I37" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="G38">
-            <v>41798</v>
-          </cell>
-          <cell r="I38" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="G39"/>
-          <cell r="I39" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="G40"/>
-          <cell r="I40" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="G41"/>
-          <cell r="I41" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="G42"/>
-          <cell r="I42" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="G43"/>
-          <cell r="I43" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="G44"/>
-          <cell r="I44" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="G45"/>
-          <cell r="I45" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="G46"/>
-          <cell r="I46" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="G47"/>
-          <cell r="I47" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="G48"/>
-          <cell r="I48" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="G49"/>
-          <cell r="I49" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="G50"/>
-          <cell r="I50" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="G51"/>
-          <cell r="I51" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="G52"/>
-          <cell r="I52" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="G53"/>
-          <cell r="I53" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3785,7 +3043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="I25" sqref="I25"/>
@@ -13471,7 +12729,7 @@
       </c>
       <c r="K19" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="228">
         <f t="shared" si="22"/>
@@ -13643,7 +12901,7 @@
       </c>
       <c r="K20" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="228">
         <f t="shared" si="22"/>
@@ -13816,7 +13074,7 @@
       </c>
       <c r="K21" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="228">
         <f t="shared" si="22"/>
@@ -14154,7 +13412,7 @@
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
@@ -14327,7 +13585,7 @@
       </c>
       <c r="K24" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L24" s="228">
         <f t="shared" si="22"/>
@@ -14500,7 +13758,7 @@
       </c>
       <c r="K25" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L25" s="228">
         <f t="shared" si="22"/>
@@ -14673,7 +13931,7 @@
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
@@ -15175,7 +14433,7 @@
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
@@ -15348,7 +14606,7 @@
       </c>
       <c r="K30" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L30" s="228">
         <f t="shared" si="22"/>
@@ -15521,7 +14779,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
@@ -16023,7 +15281,7 @@
       </c>
       <c r="K34" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L34" s="228">
         <f t="shared" si="22"/>
@@ -16196,7 +15454,7 @@
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
@@ -16369,7 +15627,7 @@
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
@@ -16542,7 +15800,7 @@
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
@@ -16714,7 +15972,7 @@
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L38" s="228" t="str">
         <f t="shared" si="22"/>
@@ -17051,7 +16309,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L40" s="228">
         <f t="shared" si="22"/>
@@ -17224,7 +16482,7 @@
       </c>
       <c r="K41" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L41" s="228">
         <f t="shared" si="22"/>
@@ -17397,7 +16655,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17899,7 +17157,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -18072,7 +17330,7 @@
       </c>
       <c r="K46" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L46" s="228">
         <f t="shared" si="22"/>
@@ -18245,7 +17503,7 @@
       </c>
       <c r="K47" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L47" s="228">
         <f t="shared" si="22"/>
@@ -18417,7 +17675,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L48" s="228" t="str">
         <f t="shared" si="22"/>
@@ -18918,7 +18176,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -20565,7 +19823,7 @@
         <v/>
       </c>
       <c r="M61" s="230" t="str">
-        <f t="shared" ref="M48:M61" si="27">IF(G61="","",IF(I61="","",G61+L61-1))</f>
+        <f t="shared" ref="M61" si="27">IF(G61="","",IF(I61="","",G61+L61-1))</f>
         <v/>
       </c>
       <c r="N61" s="207"/>
@@ -21372,97 +20630,97 @@
     <mergeCell ref="CM14:CQ14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H38:H61 H29:H36">
-    <cfRule type="expression" dxfId="83" priority="65">
+    <cfRule type="expression" dxfId="73" priority="65">
       <formula>$H16="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:K61 A16:EP21 A22:H27 J22:EP27 A29:EP32 J33:EP36 J38:EP44 A33:H36 A38:H60 K45:K61 J45:K60 L45:L62 M45:EP61">
-    <cfRule type="expression" dxfId="82" priority="63">
+    <cfRule type="expression" dxfId="72" priority="63">
       <formula>AND($A16&gt;=0,MOD($A16,1)=0,$A16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="64">
+    <cfRule type="expression" dxfId="71" priority="64">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:EP27 S29:EP32 S34:EP36 S38:EP61">
-    <cfRule type="expression" dxfId="80" priority="61">
+    <cfRule type="expression" dxfId="70" priority="61">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="62">
+    <cfRule type="expression" dxfId="69" priority="62">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:EP27 N29:EP36 N38:EP61">
-    <cfRule type="expression" dxfId="78" priority="56">
+    <cfRule type="expression" dxfId="68" priority="56">
       <formula>AND($H16="M",$G16=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="57">
+    <cfRule type="expression" dxfId="67" priority="57">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$M16,$M16&lt;&gt;"",$J16&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="58">
+    <cfRule type="expression" dxfId="66" priority="58">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$I16,$M16&lt;&gt;"",$A16&gt;=0,MOD($A16,1)=0,$A16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="59">
+    <cfRule type="expression" dxfId="65" priority="59">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$I16,$M16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="60">
+    <cfRule type="expression" dxfId="64" priority="60">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I27 I33:I36 I38:I60">
-    <cfRule type="expression" dxfId="73" priority="53">
+    <cfRule type="expression" dxfId="63" priority="53">
       <formula>AND($A22&gt;=0,MOD($A22,1)=0,$A22&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="54">
+    <cfRule type="expression" dxfId="62" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:EP33">
-    <cfRule type="expression" dxfId="71" priority="47">
+    <cfRule type="expression" dxfId="61" priority="47">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="48">
+    <cfRule type="expression" dxfId="60" priority="48">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 K28:EP28">
-    <cfRule type="expression" dxfId="69" priority="36">
+    <cfRule type="expression" dxfId="59" priority="36">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="37">
+    <cfRule type="expression" dxfId="58" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:EP28">
-    <cfRule type="expression" dxfId="67" priority="34">
+    <cfRule type="expression" dxfId="57" priority="34">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="35">
+    <cfRule type="expression" dxfId="56" priority="35">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:EP28">
-    <cfRule type="expression" dxfId="65" priority="29">
+    <cfRule type="expression" dxfId="55" priority="29">
       <formula>AND($H28="M",$G28=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="30">
+    <cfRule type="expression" dxfId="54" priority="30">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$M28,$M28&lt;&gt;"",$J28&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="31">
+    <cfRule type="expression" dxfId="53" priority="31">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$I28,$M28&lt;&gt;"",$A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="32">
+    <cfRule type="expression" dxfId="52" priority="32">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$I28,$M28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="33">
+    <cfRule type="expression" dxfId="51" priority="33">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="60" priority="27">
+    <cfRule type="expression" dxfId="50" priority="27">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="28">
+    <cfRule type="expression" dxfId="49" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21485,43 +20743,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:G37 K37:EP37">
-    <cfRule type="expression" dxfId="58" priority="23">
+    <cfRule type="expression" dxfId="48" priority="23">
       <formula>AND($A37&gt;=0,MOD($A37,1)=0,$A37&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="24">
+    <cfRule type="expression" dxfId="47" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S37:EP37">
-    <cfRule type="expression" dxfId="56" priority="21">
+    <cfRule type="expression" dxfId="46" priority="21">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="22">
+    <cfRule type="expression" dxfId="45" priority="22">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37:EP37">
-    <cfRule type="expression" dxfId="54" priority="16">
+    <cfRule type="expression" dxfId="44" priority="16">
       <formula>AND($H37="M",$G37=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="17">
+    <cfRule type="expression" dxfId="43" priority="17">
       <formula>AND(N$12&gt;=$G37,N$12&lt;=$M37,$M37&lt;&gt;"",$J37&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="18">
+    <cfRule type="expression" dxfId="42" priority="18">
       <formula>AND(N$12&gt;=$G37,N$12&lt;=$I37,$M37&lt;&gt;"",$A37&gt;=0,MOD($A37,1)=0,$A37&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="19">
+    <cfRule type="expression" dxfId="41" priority="19">
       <formula>AND(N$12&gt;=$G37,N$12&lt;=$I37,$M37&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="20">
+    <cfRule type="expression" dxfId="40" priority="20">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="49" priority="14">
+    <cfRule type="expression" dxfId="39" priority="14">
       <formula>AND($A37&gt;=0,MOD($A37,1)=0,$A37&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="15">
+    <cfRule type="expression" dxfId="38" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21535,44 +20793,44 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="expression" dxfId="47" priority="12">
+    <cfRule type="expression" dxfId="37" priority="12">
       <formula>AND($A37&gt;=0,MOD($A37,1)=0,$A37&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="13">
+    <cfRule type="expression" dxfId="36" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="45" priority="10">
+    <cfRule type="expression" dxfId="35" priority="10">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="11">
+    <cfRule type="expression" dxfId="34" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>$H28="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="42" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="40" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>$H37="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="39" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>AND($A37&gt;=0,MOD($A37,1)=0,$A37&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="5">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21887,7 +21145,6 @@
       <c r="K4" s="104"/>
       <c r="L4" s="104"/>
       <c r="N4" s="122">
-        <f>[1]Projektplan_4M!$H$7</f>
         <v>41705</v>
       </c>
       <c r="O4" s="104"/>
@@ -21948,7 +21205,6 @@
         <v>1</v>
       </c>
       <c r="N5" s="134">
-        <f>MAX([1]Projektplan_4M!$G$16:$G$53,[1]Projektplan_4M!$I$16:$I$53)</f>
         <v>41798</v>
       </c>
       <c r="O5" s="104"/>
@@ -21995,7 +21251,6 @@
         <v>2</v>
       </c>
       <c r="N6" s="141">
-        <f>MIN([1]Projektplan_4M!$G$16:$G$53,[1]Projektplan_4M!$I$16:$I$53)</f>
         <v>41705</v>
       </c>
       <c r="O6" s="104"/>
@@ -25421,15 +24676,15 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="AW2">
-    <cfRule type="expression" dxfId="37" priority="32">
+    <cfRule type="expression" dxfId="27" priority="32">
       <formula>$H2="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AW2 AY2:BB2">
-    <cfRule type="expression" dxfId="36" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25443,23 +24698,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX2">
-    <cfRule type="expression" dxfId="34" priority="27">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="28">
+    <cfRule type="expression" dxfId="23" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW7">
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$H7="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ7:AW7 AY7:BB7">
-    <cfRule type="expression" dxfId="31" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="25">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25473,23 +24728,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX7">
-    <cfRule type="expression" dxfId="29" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW12">
-    <cfRule type="expression" dxfId="27" priority="20">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>$H12="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ12:AW12 AY12:BB12">
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25503,23 +24758,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX12">
-    <cfRule type="expression" dxfId="24" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW17">
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$H17="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ17:AW17 AY17:BB17">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25533,42 +24788,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX17">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP7">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
+    <workbookView xWindow="7500" yWindow="0" windowWidth="27300" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -2087,27 +2087,6 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2133,6 +2112,27 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3043,10 +3043,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="I25" sqref="I25"/>
+      <selection pane="topRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7629,10 +7629,10 @@
       <c r="G7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="242">
+      <c r="H7" s="235">
         <v>42088</v>
       </c>
-      <c r="I7" s="242"/>
+      <c r="I7" s="235"/>
       <c r="K7" s="27"/>
       <c r="L7" s="217"/>
       <c r="M7" s="217"/>
@@ -9894,17 +9894,17 @@
       <c r="ACA9" s="34"/>
     </row>
     <row r="10" spans="1:755" s="22" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="243"/>
-      <c r="B10" s="243"/>
+      <c r="A10" s="236"/>
+      <c r="B10" s="236"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
       <c r="L10" s="220"/>
       <c r="M10" s="220"/>
       <c r="N10" s="201"/>
@@ -10651,19 +10651,19 @@
       <c r="ACA10" s="34"/>
     </row>
     <row r="11" spans="1:755" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="245" t="s">
+      <c r="A11" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="246"/>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="246"/>
-      <c r="K11" s="246"/>
+      <c r="B11" s="239"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="239"/>
+      <c r="I11" s="239"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
       <c r="L11" s="221"/>
       <c r="M11" s="221"/>
       <c r="N11" s="202"/>
@@ -10729,78 +10729,78 @@
       <c r="BV11" s="36"/>
       <c r="BW11" s="36"/>
       <c r="BX11" s="36"/>
-      <c r="BY11" s="247" t="s">
+      <c r="BY11" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="BZ11" s="247"/>
-      <c r="CA11" s="247"/>
-      <c r="CB11" s="247"/>
-      <c r="CC11" s="247"/>
-      <c r="CD11" s="247"/>
-      <c r="CE11" s="247"/>
-      <c r="CF11" s="247"/>
-      <c r="CG11" s="247"/>
-      <c r="CH11" s="247"/>
-      <c r="CI11" s="247"/>
-      <c r="CJ11" s="247"/>
-      <c r="CK11" s="247"/>
-      <c r="CL11" s="247"/>
-      <c r="CM11" s="247"/>
-      <c r="CN11" s="247"/>
-      <c r="CO11" s="247"/>
-      <c r="CP11" s="247"/>
-      <c r="CQ11" s="247"/>
-      <c r="CR11" s="247"/>
-      <c r="CS11" s="247"/>
-      <c r="CT11" s="247"/>
-      <c r="CU11" s="247"/>
-      <c r="CV11" s="247"/>
-      <c r="CW11" s="247"/>
-      <c r="CX11" s="247"/>
-      <c r="CY11" s="247"/>
-      <c r="CZ11" s="247"/>
-      <c r="DA11" s="247"/>
-      <c r="DB11" s="247"/>
-      <c r="DC11" s="247"/>
-      <c r="DD11" s="247"/>
-      <c r="DE11" s="247"/>
-      <c r="DF11" s="247"/>
-      <c r="DG11" s="247"/>
-      <c r="DH11" s="247"/>
-      <c r="DI11" s="247"/>
-      <c r="DJ11" s="247"/>
-      <c r="DK11" s="247"/>
-      <c r="DL11" s="247"/>
-      <c r="DM11" s="247"/>
-      <c r="DN11" s="247"/>
-      <c r="DO11" s="247"/>
-      <c r="DP11" s="247"/>
-      <c r="DQ11" s="247"/>
-      <c r="DR11" s="247"/>
-      <c r="DS11" s="247"/>
-      <c r="DT11" s="247"/>
-      <c r="DU11" s="247"/>
-      <c r="DV11" s="247"/>
-      <c r="DW11" s="247"/>
-      <c r="DX11" s="247"/>
-      <c r="DY11" s="247"/>
-      <c r="DZ11" s="247"/>
-      <c r="EA11" s="247"/>
-      <c r="EB11" s="247"/>
-      <c r="EC11" s="247"/>
-      <c r="ED11" s="247"/>
-      <c r="EE11" s="247"/>
-      <c r="EF11" s="247"/>
-      <c r="EG11" s="247"/>
-      <c r="EH11" s="247"/>
-      <c r="EI11" s="247"/>
-      <c r="EJ11" s="247"/>
-      <c r="EK11" s="247"/>
-      <c r="EL11" s="247"/>
-      <c r="EM11" s="247"/>
-      <c r="EN11" s="247"/>
-      <c r="EO11" s="247"/>
-      <c r="EP11" s="248"/>
+      <c r="BZ11" s="240"/>
+      <c r="CA11" s="240"/>
+      <c r="CB11" s="240"/>
+      <c r="CC11" s="240"/>
+      <c r="CD11" s="240"/>
+      <c r="CE11" s="240"/>
+      <c r="CF11" s="240"/>
+      <c r="CG11" s="240"/>
+      <c r="CH11" s="240"/>
+      <c r="CI11" s="240"/>
+      <c r="CJ11" s="240"/>
+      <c r="CK11" s="240"/>
+      <c r="CL11" s="240"/>
+      <c r="CM11" s="240"/>
+      <c r="CN11" s="240"/>
+      <c r="CO11" s="240"/>
+      <c r="CP11" s="240"/>
+      <c r="CQ11" s="240"/>
+      <c r="CR11" s="240"/>
+      <c r="CS11" s="240"/>
+      <c r="CT11" s="240"/>
+      <c r="CU11" s="240"/>
+      <c r="CV11" s="240"/>
+      <c r="CW11" s="240"/>
+      <c r="CX11" s="240"/>
+      <c r="CY11" s="240"/>
+      <c r="CZ11" s="240"/>
+      <c r="DA11" s="240"/>
+      <c r="DB11" s="240"/>
+      <c r="DC11" s="240"/>
+      <c r="DD11" s="240"/>
+      <c r="DE11" s="240"/>
+      <c r="DF11" s="240"/>
+      <c r="DG11" s="240"/>
+      <c r="DH11" s="240"/>
+      <c r="DI11" s="240"/>
+      <c r="DJ11" s="240"/>
+      <c r="DK11" s="240"/>
+      <c r="DL11" s="240"/>
+      <c r="DM11" s="240"/>
+      <c r="DN11" s="240"/>
+      <c r="DO11" s="240"/>
+      <c r="DP11" s="240"/>
+      <c r="DQ11" s="240"/>
+      <c r="DR11" s="240"/>
+      <c r="DS11" s="240"/>
+      <c r="DT11" s="240"/>
+      <c r="DU11" s="240"/>
+      <c r="DV11" s="240"/>
+      <c r="DW11" s="240"/>
+      <c r="DX11" s="240"/>
+      <c r="DY11" s="240"/>
+      <c r="DZ11" s="240"/>
+      <c r="EA11" s="240"/>
+      <c r="EB11" s="240"/>
+      <c r="EC11" s="240"/>
+      <c r="ED11" s="240"/>
+      <c r="EE11" s="240"/>
+      <c r="EF11" s="240"/>
+      <c r="EG11" s="240"/>
+      <c r="EH11" s="240"/>
+      <c r="EI11" s="240"/>
+      <c r="EJ11" s="240"/>
+      <c r="EK11" s="240"/>
+      <c r="EL11" s="240"/>
+      <c r="EM11" s="240"/>
+      <c r="EN11" s="240"/>
+      <c r="EO11" s="240"/>
+      <c r="EP11" s="241"/>
     </row>
     <row r="12" spans="1:755" s="37" customFormat="1" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -11363,194 +11363,194 @@
       <c r="K13" s="44"/>
       <c r="L13" s="223"/>
       <c r="M13" s="223"/>
-      <c r="N13" s="241" t="str">
+      <c r="N13" s="234" t="str">
         <f>"KW " &amp; TRUNC((N12-DATE(YEAR(N12+3-MOD(N12-2,7)),1,MOD(N12-2,7)-9))/7)</f>
         <v>KW 13</v>
       </c>
-      <c r="O13" s="241"/>
-      <c r="P13" s="241"/>
-      <c r="Q13" s="241"/>
-      <c r="R13" s="241"/>
+      <c r="O13" s="234"/>
+      <c r="P13" s="234"/>
+      <c r="Q13" s="234"/>
+      <c r="R13" s="234"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="241" t="str">
+      <c r="U13" s="234" t="str">
         <f t="shared" ref="U13" si="3">"KW " &amp; TRUNC((U12-DATE(YEAR(U12+3-MOD(U12-2,7)),1,MOD(U12-2,7)-9))/7)</f>
         <v>KW 14</v>
       </c>
-      <c r="V13" s="241"/>
-      <c r="W13" s="241"/>
-      <c r="X13" s="241"/>
-      <c r="Y13" s="241"/>
+      <c r="V13" s="234"/>
+      <c r="W13" s="234"/>
+      <c r="X13" s="234"/>
+      <c r="Y13" s="234"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="46"/>
-      <c r="AB13" s="241" t="str">
+      <c r="AB13" s="234" t="str">
         <f t="shared" ref="AB13" si="4">"KW " &amp; TRUNC((AB12-DATE(YEAR(AB12+3-MOD(AB12-2,7)),1,MOD(AB12-2,7)-9))/7)</f>
         <v>KW 15</v>
       </c>
-      <c r="AC13" s="241"/>
-      <c r="AD13" s="241"/>
-      <c r="AE13" s="241"/>
-      <c r="AF13" s="241"/>
+      <c r="AC13" s="234"/>
+      <c r="AD13" s="234"/>
+      <c r="AE13" s="234"/>
+      <c r="AF13" s="234"/>
       <c r="AG13" s="46"/>
       <c r="AH13" s="46"/>
-      <c r="AI13" s="241" t="str">
+      <c r="AI13" s="234" t="str">
         <f t="shared" ref="AI13" si="5">"KW " &amp; TRUNC((AI12-DATE(YEAR(AI12+3-MOD(AI12-2,7)),1,MOD(AI12-2,7)-9))/7)</f>
         <v>KW 16</v>
       </c>
-      <c r="AJ13" s="241"/>
-      <c r="AK13" s="241"/>
-      <c r="AL13" s="241"/>
-      <c r="AM13" s="241"/>
+      <c r="AJ13" s="234"/>
+      <c r="AK13" s="234"/>
+      <c r="AL13" s="234"/>
+      <c r="AM13" s="234"/>
       <c r="AN13" s="46"/>
       <c r="AO13" s="46"/>
-      <c r="AP13" s="241" t="str">
+      <c r="AP13" s="234" t="str">
         <f t="shared" ref="AP13" si="6">"KW " &amp; TRUNC((AP12-DATE(YEAR(AP12+3-MOD(AP12-2,7)),1,MOD(AP12-2,7)-9))/7)</f>
         <v>KW 17</v>
       </c>
-      <c r="AQ13" s="241"/>
-      <c r="AR13" s="241"/>
-      <c r="AS13" s="241"/>
-      <c r="AT13" s="241"/>
+      <c r="AQ13" s="234"/>
+      <c r="AR13" s="234"/>
+      <c r="AS13" s="234"/>
+      <c r="AT13" s="234"/>
       <c r="AU13" s="46"/>
       <c r="AV13" s="46"/>
-      <c r="AW13" s="241" t="str">
+      <c r="AW13" s="234" t="str">
         <f t="shared" ref="AW13" si="7">"KW " &amp; TRUNC((AW12-DATE(YEAR(AW12+3-MOD(AW12-2,7)),1,MOD(AW12-2,7)-9))/7)</f>
         <v>KW 18</v>
       </c>
-      <c r="AX13" s="241"/>
-      <c r="AY13" s="241"/>
-      <c r="AZ13" s="241"/>
-      <c r="BA13" s="241"/>
+      <c r="AX13" s="234"/>
+      <c r="AY13" s="234"/>
+      <c r="AZ13" s="234"/>
+      <c r="BA13" s="234"/>
       <c r="BB13" s="46"/>
       <c r="BC13" s="46"/>
-      <c r="BD13" s="241" t="str">
+      <c r="BD13" s="234" t="str">
         <f t="shared" ref="BD13" si="8">"KW " &amp; TRUNC((BD12-DATE(YEAR(BD12+3-MOD(BD12-2,7)),1,MOD(BD12-2,7)-9))/7)</f>
         <v>KW 19</v>
       </c>
-      <c r="BE13" s="241"/>
-      <c r="BF13" s="241"/>
-      <c r="BG13" s="241"/>
-      <c r="BH13" s="241"/>
+      <c r="BE13" s="234"/>
+      <c r="BF13" s="234"/>
+      <c r="BG13" s="234"/>
+      <c r="BH13" s="234"/>
       <c r="BI13" s="46"/>
       <c r="BJ13" s="46"/>
-      <c r="BK13" s="241" t="str">
+      <c r="BK13" s="234" t="str">
         <f t="shared" ref="BK13" si="9">"KW " &amp; TRUNC((BK12-DATE(YEAR(BK12+3-MOD(BK12-2,7)),1,MOD(BK12-2,7)-9))/7)</f>
         <v>KW 20</v>
       </c>
-      <c r="BL13" s="241"/>
-      <c r="BM13" s="241"/>
-      <c r="BN13" s="241"/>
-      <c r="BO13" s="241"/>
+      <c r="BL13" s="234"/>
+      <c r="BM13" s="234"/>
+      <c r="BN13" s="234"/>
+      <c r="BO13" s="234"/>
       <c r="BP13" s="46"/>
       <c r="BQ13" s="46"/>
-      <c r="BR13" s="241" t="str">
+      <c r="BR13" s="234" t="str">
         <f t="shared" ref="BR13" si="10">"KW " &amp; TRUNC((BR12-DATE(YEAR(BR12+3-MOD(BR12-2,7)),1,MOD(BR12-2,7)-9))/7)</f>
         <v>KW 21</v>
       </c>
-      <c r="BS13" s="241"/>
-      <c r="BT13" s="241"/>
-      <c r="BU13" s="241"/>
-      <c r="BV13" s="241"/>
+      <c r="BS13" s="234"/>
+      <c r="BT13" s="234"/>
+      <c r="BU13" s="234"/>
+      <c r="BV13" s="234"/>
       <c r="BW13" s="46"/>
       <c r="BX13" s="46"/>
-      <c r="BY13" s="241" t="str">
+      <c r="BY13" s="234" t="str">
         <f t="shared" ref="BY13" si="11">"KW " &amp; TRUNC((BY12-DATE(YEAR(BY12+3-MOD(BY12-2,7)),1,MOD(BY12-2,7)-9))/7)</f>
         <v>KW 22</v>
       </c>
-      <c r="BZ13" s="241"/>
-      <c r="CA13" s="241"/>
-      <c r="CB13" s="241"/>
-      <c r="CC13" s="241"/>
+      <c r="BZ13" s="234"/>
+      <c r="CA13" s="234"/>
+      <c r="CB13" s="234"/>
+      <c r="CC13" s="234"/>
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
-      <c r="CF13" s="241" t="str">
+      <c r="CF13" s="234" t="str">
         <f t="shared" ref="CF13" si="12">"KW " &amp; TRUNC((CF12-DATE(YEAR(CF12+3-MOD(CF12-2,7)),1,MOD(CF12-2,7)-9))/7)</f>
         <v>KW 23</v>
       </c>
-      <c r="CG13" s="241"/>
-      <c r="CH13" s="241"/>
-      <c r="CI13" s="241"/>
-      <c r="CJ13" s="241"/>
+      <c r="CG13" s="234"/>
+      <c r="CH13" s="234"/>
+      <c r="CI13" s="234"/>
+      <c r="CJ13" s="234"/>
       <c r="CK13" s="46"/>
       <c r="CL13" s="46"/>
-      <c r="CM13" s="241" t="str">
+      <c r="CM13" s="234" t="str">
         <f t="shared" ref="CM13" si="13">"KW " &amp; TRUNC((CM12-DATE(YEAR(CM12+3-MOD(CM12-2,7)),1,MOD(CM12-2,7)-9))/7)</f>
         <v>KW 24</v>
       </c>
-      <c r="CN13" s="241"/>
-      <c r="CO13" s="241"/>
-      <c r="CP13" s="241"/>
-      <c r="CQ13" s="241"/>
+      <c r="CN13" s="234"/>
+      <c r="CO13" s="234"/>
+      <c r="CP13" s="234"/>
+      <c r="CQ13" s="234"/>
       <c r="CR13" s="46"/>
       <c r="CS13" s="46"/>
-      <c r="CT13" s="241" t="str">
+      <c r="CT13" s="234" t="str">
         <f t="shared" ref="CT13" si="14">"KW " &amp; TRUNC((CT12-DATE(YEAR(CT12+3-MOD(CT12-2,7)),1,MOD(CT12-2,7)-9))/7)</f>
         <v>KW 25</v>
       </c>
-      <c r="CU13" s="241"/>
-      <c r="CV13" s="241"/>
-      <c r="CW13" s="241"/>
-      <c r="CX13" s="241"/>
+      <c r="CU13" s="234"/>
+      <c r="CV13" s="234"/>
+      <c r="CW13" s="234"/>
+      <c r="CX13" s="234"/>
       <c r="CY13" s="46"/>
       <c r="CZ13" s="46"/>
-      <c r="DA13" s="241" t="str">
+      <c r="DA13" s="234" t="str">
         <f t="shared" ref="DA13" si="15">"KW " &amp; TRUNC((DA12-DATE(YEAR(DA12+3-MOD(DA12-2,7)),1,MOD(DA12-2,7)-9))/7)</f>
         <v>KW 26</v>
       </c>
-      <c r="DB13" s="241"/>
-      <c r="DC13" s="241"/>
-      <c r="DD13" s="241"/>
-      <c r="DE13" s="241"/>
+      <c r="DB13" s="234"/>
+      <c r="DC13" s="234"/>
+      <c r="DD13" s="234"/>
+      <c r="DE13" s="234"/>
       <c r="DF13" s="46"/>
       <c r="DG13" s="46"/>
-      <c r="DH13" s="241" t="str">
+      <c r="DH13" s="234" t="str">
         <f t="shared" ref="DH13" si="16">"KW " &amp; TRUNC((DH12-DATE(YEAR(DH12+3-MOD(DH12-2,7)),1,MOD(DH12-2,7)-9))/7)</f>
         <v>KW 27</v>
       </c>
-      <c r="DI13" s="241"/>
-      <c r="DJ13" s="241"/>
-      <c r="DK13" s="241"/>
-      <c r="DL13" s="241"/>
+      <c r="DI13" s="234"/>
+      <c r="DJ13" s="234"/>
+      <c r="DK13" s="234"/>
+      <c r="DL13" s="234"/>
       <c r="DM13" s="46"/>
       <c r="DN13" s="46"/>
-      <c r="DO13" s="241" t="str">
+      <c r="DO13" s="234" t="str">
         <f t="shared" ref="DO13" si="17">"KW " &amp; TRUNC((DO12-DATE(YEAR(DO12+3-MOD(DO12-2,7)),1,MOD(DO12-2,7)-9))/7)</f>
         <v>KW 28</v>
       </c>
-      <c r="DP13" s="241"/>
-      <c r="DQ13" s="241"/>
-      <c r="DR13" s="241"/>
-      <c r="DS13" s="241"/>
+      <c r="DP13" s="234"/>
+      <c r="DQ13" s="234"/>
+      <c r="DR13" s="234"/>
+      <c r="DS13" s="234"/>
       <c r="DT13" s="46"/>
       <c r="DU13" s="46"/>
-      <c r="DV13" s="241" t="str">
+      <c r="DV13" s="234" t="str">
         <f t="shared" ref="DV13" si="18">"KW " &amp; TRUNC((DV12-DATE(YEAR(DV12+3-MOD(DV12-2,7)),1,MOD(DV12-2,7)-9))/7)</f>
         <v>KW 29</v>
       </c>
-      <c r="DW13" s="241"/>
-      <c r="DX13" s="241"/>
-      <c r="DY13" s="241"/>
-      <c r="DZ13" s="241"/>
+      <c r="DW13" s="234"/>
+      <c r="DX13" s="234"/>
+      <c r="DY13" s="234"/>
+      <c r="DZ13" s="234"/>
       <c r="EA13" s="46"/>
       <c r="EB13" s="46"/>
-      <c r="EC13" s="241" t="str">
+      <c r="EC13" s="234" t="str">
         <f t="shared" ref="EC13" si="19">"KW " &amp; TRUNC((EC12-DATE(YEAR(EC12+3-MOD(EC12-2,7)),1,MOD(EC12-2,7)-9))/7)</f>
         <v>KW 30</v>
       </c>
-      <c r="ED13" s="241"/>
-      <c r="EE13" s="241"/>
-      <c r="EF13" s="241"/>
-      <c r="EG13" s="241"/>
+      <c r="ED13" s="234"/>
+      <c r="EE13" s="234"/>
+      <c r="EF13" s="234"/>
+      <c r="EG13" s="234"/>
       <c r="EH13" s="46"/>
       <c r="EI13" s="46"/>
-      <c r="EJ13" s="241" t="str">
+      <c r="EJ13" s="234" t="str">
         <f t="shared" ref="EJ13" si="20">"KW " &amp; TRUNC((EJ12-DATE(YEAR(EJ12+3-MOD(EJ12-2,7)),1,MOD(EJ12-2,7)-9))/7)</f>
         <v>KW 31</v>
       </c>
-      <c r="EK13" s="241"/>
-      <c r="EL13" s="241"/>
-      <c r="EM13" s="241"/>
-      <c r="EN13" s="241"/>
+      <c r="EK13" s="234"/>
+      <c r="EL13" s="234"/>
+      <c r="EM13" s="234"/>
+      <c r="EN13" s="234"/>
       <c r="EO13" s="46"/>
       <c r="EP13" s="47"/>
     </row>
@@ -11592,196 +11592,196 @@
       <c r="M14" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="235">
+      <c r="N14" s="242">
         <f>N12</f>
         <v>42086</v>
       </c>
-      <c r="O14" s="235"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
+      <c r="O14" s="242"/>
+      <c r="P14" s="242"/>
+      <c r="Q14" s="242"/>
+      <c r="R14" s="242"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
-      <c r="U14" s="235">
+      <c r="U14" s="242">
         <f>U12</f>
         <v>42093</v>
       </c>
-      <c r="V14" s="235"/>
-      <c r="W14" s="235"/>
-      <c r="X14" s="235"/>
-      <c r="Y14" s="235"/>
-      <c r="Z14" s="235"/>
-      <c r="AA14" s="235"/>
-      <c r="AB14" s="235">
+      <c r="V14" s="242"/>
+      <c r="W14" s="242"/>
+      <c r="X14" s="242"/>
+      <c r="Y14" s="242"/>
+      <c r="Z14" s="242"/>
+      <c r="AA14" s="242"/>
+      <c r="AB14" s="242">
         <f>AB12</f>
         <v>42100</v>
       </c>
-      <c r="AC14" s="235"/>
-      <c r="AD14" s="235"/>
-      <c r="AE14" s="235"/>
-      <c r="AF14" s="235"/>
-      <c r="AG14" s="235"/>
-      <c r="AH14" s="235"/>
-      <c r="AI14" s="235">
+      <c r="AC14" s="242"/>
+      <c r="AD14" s="242"/>
+      <c r="AE14" s="242"/>
+      <c r="AF14" s="242"/>
+      <c r="AG14" s="242"/>
+      <c r="AH14" s="242"/>
+      <c r="AI14" s="242">
         <f>AI12</f>
         <v>42107</v>
       </c>
-      <c r="AJ14" s="235"/>
-      <c r="AK14" s="235"/>
-      <c r="AL14" s="235"/>
-      <c r="AM14" s="235"/>
-      <c r="AN14" s="235"/>
-      <c r="AO14" s="235"/>
-      <c r="AP14" s="235">
+      <c r="AJ14" s="242"/>
+      <c r="AK14" s="242"/>
+      <c r="AL14" s="242"/>
+      <c r="AM14" s="242"/>
+      <c r="AN14" s="242"/>
+      <c r="AO14" s="242"/>
+      <c r="AP14" s="242">
         <f>AP12</f>
         <v>42114</v>
       </c>
-      <c r="AQ14" s="235"/>
-      <c r="AR14" s="235"/>
-      <c r="AS14" s="235"/>
-      <c r="AT14" s="235"/>
-      <c r="AU14" s="235"/>
-      <c r="AV14" s="235"/>
-      <c r="AW14" s="235">
+      <c r="AQ14" s="242"/>
+      <c r="AR14" s="242"/>
+      <c r="AS14" s="242"/>
+      <c r="AT14" s="242"/>
+      <c r="AU14" s="242"/>
+      <c r="AV14" s="242"/>
+      <c r="AW14" s="242">
         <f>AW12</f>
         <v>42121</v>
       </c>
-      <c r="AX14" s="235"/>
-      <c r="AY14" s="235"/>
-      <c r="AZ14" s="235"/>
-      <c r="BA14" s="235"/>
-      <c r="BB14" s="235"/>
-      <c r="BC14" s="235"/>
-      <c r="BD14" s="235">
+      <c r="AX14" s="242"/>
+      <c r="AY14" s="242"/>
+      <c r="AZ14" s="242"/>
+      <c r="BA14" s="242"/>
+      <c r="BB14" s="242"/>
+      <c r="BC14" s="242"/>
+      <c r="BD14" s="242">
         <f>BD12</f>
         <v>42128</v>
       </c>
-      <c r="BE14" s="235"/>
-      <c r="BF14" s="235"/>
-      <c r="BG14" s="235"/>
-      <c r="BH14" s="235"/>
-      <c r="BI14" s="235"/>
-      <c r="BJ14" s="235"/>
-      <c r="BK14" s="235">
+      <c r="BE14" s="242"/>
+      <c r="BF14" s="242"/>
+      <c r="BG14" s="242"/>
+      <c r="BH14" s="242"/>
+      <c r="BI14" s="242"/>
+      <c r="BJ14" s="242"/>
+      <c r="BK14" s="242">
         <f>BK12</f>
         <v>42135</v>
       </c>
-      <c r="BL14" s="235"/>
-      <c r="BM14" s="235"/>
-      <c r="BN14" s="235"/>
-      <c r="BO14" s="235"/>
-      <c r="BP14" s="235"/>
-      <c r="BQ14" s="235"/>
-      <c r="BR14" s="235">
+      <c r="BL14" s="242"/>
+      <c r="BM14" s="242"/>
+      <c r="BN14" s="242"/>
+      <c r="BO14" s="242"/>
+      <c r="BP14" s="242"/>
+      <c r="BQ14" s="242"/>
+      <c r="BR14" s="242">
         <f>BR12</f>
         <v>42142</v>
       </c>
-      <c r="BS14" s="235"/>
-      <c r="BT14" s="235"/>
-      <c r="BU14" s="235"/>
-      <c r="BV14" s="235"/>
-      <c r="BW14" s="235"/>
-      <c r="BX14" s="235"/>
-      <c r="BY14" s="235">
+      <c r="BS14" s="242"/>
+      <c r="BT14" s="242"/>
+      <c r="BU14" s="242"/>
+      <c r="BV14" s="242"/>
+      <c r="BW14" s="242"/>
+      <c r="BX14" s="242"/>
+      <c r="BY14" s="242">
         <f>BY12</f>
         <v>42149</v>
       </c>
-      <c r="BZ14" s="235"/>
-      <c r="CA14" s="235"/>
-      <c r="CB14" s="235"/>
-      <c r="CC14" s="235"/>
-      <c r="CD14" s="235"/>
-      <c r="CE14" s="235"/>
-      <c r="CF14" s="235">
+      <c r="BZ14" s="242"/>
+      <c r="CA14" s="242"/>
+      <c r="CB14" s="242"/>
+      <c r="CC14" s="242"/>
+      <c r="CD14" s="242"/>
+      <c r="CE14" s="242"/>
+      <c r="CF14" s="242">
         <f>CF12</f>
         <v>42156</v>
       </c>
-      <c r="CG14" s="235"/>
-      <c r="CH14" s="235"/>
-      <c r="CI14" s="235"/>
-      <c r="CJ14" s="235"/>
-      <c r="CK14" s="235"/>
-      <c r="CL14" s="235"/>
-      <c r="CM14" s="235">
+      <c r="CG14" s="242"/>
+      <c r="CH14" s="242"/>
+      <c r="CI14" s="242"/>
+      <c r="CJ14" s="242"/>
+      <c r="CK14" s="242"/>
+      <c r="CL14" s="242"/>
+      <c r="CM14" s="242">
         <f>CM12</f>
         <v>42163</v>
       </c>
-      <c r="CN14" s="235"/>
-      <c r="CO14" s="235"/>
-      <c r="CP14" s="235"/>
-      <c r="CQ14" s="235"/>
-      <c r="CR14" s="235"/>
-      <c r="CS14" s="235"/>
-      <c r="CT14" s="235">
+      <c r="CN14" s="242"/>
+      <c r="CO14" s="242"/>
+      <c r="CP14" s="242"/>
+      <c r="CQ14" s="242"/>
+      <c r="CR14" s="242"/>
+      <c r="CS14" s="242"/>
+      <c r="CT14" s="242">
         <f>CT12</f>
         <v>42170</v>
       </c>
-      <c r="CU14" s="235"/>
-      <c r="CV14" s="235"/>
-      <c r="CW14" s="235"/>
-      <c r="CX14" s="235"/>
-      <c r="CY14" s="235"/>
-      <c r="CZ14" s="235"/>
-      <c r="DA14" s="235">
+      <c r="CU14" s="242"/>
+      <c r="CV14" s="242"/>
+      <c r="CW14" s="242"/>
+      <c r="CX14" s="242"/>
+      <c r="CY14" s="242"/>
+      <c r="CZ14" s="242"/>
+      <c r="DA14" s="242">
         <f>DA12</f>
         <v>42177</v>
       </c>
-      <c r="DB14" s="235"/>
-      <c r="DC14" s="235"/>
-      <c r="DD14" s="235"/>
-      <c r="DE14" s="235"/>
-      <c r="DF14" s="235"/>
-      <c r="DG14" s="235"/>
-      <c r="DH14" s="235">
+      <c r="DB14" s="242"/>
+      <c r="DC14" s="242"/>
+      <c r="DD14" s="242"/>
+      <c r="DE14" s="242"/>
+      <c r="DF14" s="242"/>
+      <c r="DG14" s="242"/>
+      <c r="DH14" s="242">
         <f>DH12</f>
         <v>42184</v>
       </c>
-      <c r="DI14" s="235"/>
-      <c r="DJ14" s="235"/>
-      <c r="DK14" s="235"/>
-      <c r="DL14" s="235"/>
-      <c r="DM14" s="235"/>
-      <c r="DN14" s="235"/>
-      <c r="DO14" s="235">
+      <c r="DI14" s="242"/>
+      <c r="DJ14" s="242"/>
+      <c r="DK14" s="242"/>
+      <c r="DL14" s="242"/>
+      <c r="DM14" s="242"/>
+      <c r="DN14" s="242"/>
+      <c r="DO14" s="242">
         <f>DO12</f>
         <v>42191</v>
       </c>
-      <c r="DP14" s="235"/>
-      <c r="DQ14" s="235"/>
-      <c r="DR14" s="235"/>
-      <c r="DS14" s="235"/>
-      <c r="DT14" s="235"/>
-      <c r="DU14" s="235"/>
-      <c r="DV14" s="235">
+      <c r="DP14" s="242"/>
+      <c r="DQ14" s="242"/>
+      <c r="DR14" s="242"/>
+      <c r="DS14" s="242"/>
+      <c r="DT14" s="242"/>
+      <c r="DU14" s="242"/>
+      <c r="DV14" s="242">
         <f>DV12</f>
         <v>42198</v>
       </c>
-      <c r="DW14" s="235"/>
-      <c r="DX14" s="235"/>
-      <c r="DY14" s="235"/>
-      <c r="DZ14" s="235"/>
-      <c r="EA14" s="235"/>
-      <c r="EB14" s="235"/>
-      <c r="EC14" s="235">
+      <c r="DW14" s="242"/>
+      <c r="DX14" s="242"/>
+      <c r="DY14" s="242"/>
+      <c r="DZ14" s="242"/>
+      <c r="EA14" s="242"/>
+      <c r="EB14" s="242"/>
+      <c r="EC14" s="242">
         <f>EC12</f>
         <v>42205</v>
       </c>
-      <c r="ED14" s="235"/>
-      <c r="EE14" s="235"/>
-      <c r="EF14" s="235"/>
-      <c r="EG14" s="235"/>
-      <c r="EH14" s="235"/>
-      <c r="EI14" s="235"/>
-      <c r="EJ14" s="235">
+      <c r="ED14" s="242"/>
+      <c r="EE14" s="242"/>
+      <c r="EF14" s="242"/>
+      <c r="EG14" s="242"/>
+      <c r="EH14" s="242"/>
+      <c r="EI14" s="242"/>
+      <c r="EJ14" s="242">
         <f>EJ12</f>
         <v>42212</v>
       </c>
-      <c r="EK14" s="235"/>
-      <c r="EL14" s="235"/>
-      <c r="EM14" s="235"/>
-      <c r="EN14" s="235"/>
-      <c r="EO14" s="235"/>
-      <c r="EP14" s="236"/>
+      <c r="EK14" s="242"/>
+      <c r="EL14" s="242"/>
+      <c r="EM14" s="242"/>
+      <c r="EN14" s="242"/>
+      <c r="EO14" s="242"/>
+      <c r="EP14" s="244"/>
       <c r="EQ14" s="48"/>
     </row>
     <row r="15" spans="1:755" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12725,11 +12725,11 @@
       </c>
       <c r="J19" s="80">
         <f>AVERAGE(J20:J21)</f>
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K19" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L19" s="228">
         <f t="shared" si="22"/>
@@ -12890,26 +12890,26 @@
         <v>42089</v>
       </c>
       <c r="H20" s="79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="68">
         <f t="shared" si="21"/>
-        <v>42091</v>
+        <v>42090</v>
       </c>
       <c r="J20" s="80">
         <v>0.9</v>
       </c>
       <c r="K20" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L20" s="228">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20" s="227">
         <f t="shared" si="24"/>
-        <v>42091</v>
+        <v>42090</v>
       </c>
       <c r="N20" s="206"/>
       <c r="O20" s="83"/>
@@ -13060,25 +13060,25 @@
       <c r="F21" s="77"/>
       <c r="G21" s="78">
         <f>I20+1</f>
-        <v>42092</v>
+        <v>42091</v>
       </c>
       <c r="H21" s="79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="68">
         <f t="shared" si="21"/>
         <v>42096</v>
       </c>
       <c r="J21" s="80">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K21" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L21" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="227">
         <f t="shared" si="24"/>
@@ -13408,19 +13408,19 @@
       </c>
       <c r="J23" s="80">
         <f>AVERAGE(J24:J28)</f>
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="229">
         <f t="shared" si="24"/>
-        <v>42096</v>
+        <v>42097</v>
       </c>
       <c r="N23" s="206"/>
       <c r="O23" s="83"/>
@@ -13585,7 +13585,7 @@
       </c>
       <c r="K24" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L24" s="228">
         <f t="shared" si="22"/>
@@ -13758,7 +13758,7 @@
       </c>
       <c r="K25" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L25" s="228">
         <f t="shared" si="22"/>
@@ -13927,19 +13927,19 @@
         <v>42114</v>
       </c>
       <c r="J26" s="80">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="229">
         <f t="shared" si="24"/>
-        <v>42107</v>
+        <v>42108</v>
       </c>
       <c r="N26" s="206"/>
       <c r="O26" s="83"/>
@@ -14433,7 +14433,7 @@
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
@@ -14606,7 +14606,7 @@
       </c>
       <c r="K30" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L30" s="228">
         <f t="shared" si="22"/>
@@ -14779,7 +14779,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="K34" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L34" s="228">
         <f t="shared" si="22"/>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
@@ -15627,7 +15627,7 @@
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
@@ -15800,7 +15800,7 @@
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L38" s="228" t="str">
         <f t="shared" si="22"/>
@@ -16309,7 +16309,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L40" s="228">
         <f t="shared" si="22"/>
@@ -16482,7 +16482,7 @@
       </c>
       <c r="K41" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L41" s="228">
         <f t="shared" si="22"/>
@@ -16655,7 +16655,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -17330,7 +17330,7 @@
       </c>
       <c r="K46" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L46" s="228">
         <f t="shared" si="22"/>
@@ -17503,7 +17503,7 @@
       </c>
       <c r="K47" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L47" s="228">
         <f t="shared" si="22"/>
@@ -17675,7 +17675,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L48" s="228" t="str">
         <f t="shared" si="22"/>
@@ -18176,7 +18176,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -20116,45 +20116,45 @@
       <c r="EQ62" s="37"/>
     </row>
     <row r="63" spans="1:147" s="3" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="237"/>
-      <c r="B63" s="238"/>
-      <c r="C63" s="238"/>
-      <c r="D63" s="238"/>
-      <c r="E63" s="238"/>
-      <c r="F63" s="238"/>
-      <c r="G63" s="238"/>
-      <c r="H63" s="238"/>
-      <c r="I63" s="238"/>
-      <c r="J63" s="238"/>
-      <c r="K63" s="238"/>
-      <c r="L63" s="238"/>
-      <c r="M63" s="238"/>
-      <c r="N63" s="238"/>
-      <c r="O63" s="238"/>
-      <c r="P63" s="238"/>
-      <c r="Q63" s="238"/>
-      <c r="R63" s="238"/>
-      <c r="S63" s="238"/>
-      <c r="T63" s="238"/>
-      <c r="U63" s="238"/>
-      <c r="V63" s="238"/>
-      <c r="W63" s="238"/>
-      <c r="X63" s="238"/>
-      <c r="Y63" s="238"/>
-      <c r="Z63" s="238"/>
-      <c r="AA63" s="238"/>
-      <c r="AB63" s="238"/>
-      <c r="AC63" s="238"/>
-      <c r="AD63" s="238"/>
-      <c r="AE63" s="238"/>
-      <c r="AF63" s="238"/>
-      <c r="AG63" s="238"/>
-      <c r="AH63" s="238"/>
-      <c r="AI63" s="238"/>
-      <c r="AJ63" s="238"/>
-      <c r="AK63" s="238"/>
-      <c r="AL63" s="238"/>
-      <c r="AM63" s="238"/>
+      <c r="A63" s="245"/>
+      <c r="B63" s="246"/>
+      <c r="C63" s="246"/>
+      <c r="D63" s="246"/>
+      <c r="E63" s="246"/>
+      <c r="F63" s="246"/>
+      <c r="G63" s="246"/>
+      <c r="H63" s="246"/>
+      <c r="I63" s="246"/>
+      <c r="J63" s="246"/>
+      <c r="K63" s="246"/>
+      <c r="L63" s="246"/>
+      <c r="M63" s="246"/>
+      <c r="N63" s="246"/>
+      <c r="O63" s="246"/>
+      <c r="P63" s="246"/>
+      <c r="Q63" s="246"/>
+      <c r="R63" s="246"/>
+      <c r="S63" s="246"/>
+      <c r="T63" s="246"/>
+      <c r="U63" s="246"/>
+      <c r="V63" s="246"/>
+      <c r="W63" s="246"/>
+      <c r="X63" s="246"/>
+      <c r="Y63" s="246"/>
+      <c r="Z63" s="246"/>
+      <c r="AA63" s="246"/>
+      <c r="AB63" s="246"/>
+      <c r="AC63" s="246"/>
+      <c r="AD63" s="246"/>
+      <c r="AE63" s="246"/>
+      <c r="AF63" s="246"/>
+      <c r="AG63" s="246"/>
+      <c r="AH63" s="246"/>
+      <c r="AI63" s="246"/>
+      <c r="AJ63" s="246"/>
+      <c r="AK63" s="246"/>
+      <c r="AL63" s="246"/>
+      <c r="AM63" s="246"/>
       <c r="AN63" s="100"/>
       <c r="AO63" s="100"/>
       <c r="AP63" s="100"/>
@@ -20185,85 +20185,85 @@
       <c r="BO63" s="100"/>
       <c r="BP63" s="100"/>
       <c r="BQ63" s="100"/>
-      <c r="BR63" s="239" t="s">
+      <c r="BR63" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="BS63" s="239"/>
-      <c r="BT63" s="239"/>
-      <c r="BU63" s="239"/>
-      <c r="BV63" s="239"/>
-      <c r="BW63" s="239"/>
-      <c r="BX63" s="239"/>
-      <c r="BY63" s="239"/>
-      <c r="BZ63" s="239"/>
-      <c r="CA63" s="239"/>
-      <c r="CB63" s="239"/>
-      <c r="CC63" s="239"/>
-      <c r="CD63" s="239"/>
-      <c r="CE63" s="239"/>
-      <c r="CF63" s="239"/>
-      <c r="CG63" s="239"/>
-      <c r="CH63" s="239"/>
-      <c r="CI63" s="239"/>
-      <c r="CJ63" s="239"/>
-      <c r="CK63" s="239"/>
-      <c r="CL63" s="239"/>
-      <c r="CM63" s="239"/>
-      <c r="CN63" s="239"/>
-      <c r="CO63" s="239"/>
-      <c r="CP63" s="239"/>
-      <c r="CQ63" s="239"/>
-      <c r="CR63" s="239"/>
-      <c r="CS63" s="239"/>
-      <c r="CT63" s="239"/>
-      <c r="CU63" s="239"/>
-      <c r="CV63" s="239"/>
-      <c r="CW63" s="239"/>
-      <c r="CX63" s="239"/>
-      <c r="CY63" s="239"/>
-      <c r="CZ63" s="239"/>
-      <c r="DA63" s="239"/>
-      <c r="DB63" s="239"/>
-      <c r="DC63" s="239"/>
-      <c r="DD63" s="239"/>
-      <c r="DE63" s="239"/>
-      <c r="DF63" s="239"/>
-      <c r="DG63" s="239"/>
-      <c r="DH63" s="239"/>
-      <c r="DI63" s="239"/>
-      <c r="DJ63" s="239"/>
-      <c r="DK63" s="239"/>
-      <c r="DL63" s="239"/>
-      <c r="DM63" s="239"/>
-      <c r="DN63" s="239"/>
-      <c r="DO63" s="239"/>
-      <c r="DP63" s="239"/>
-      <c r="DQ63" s="239"/>
-      <c r="DR63" s="239"/>
-      <c r="DS63" s="239"/>
-      <c r="DT63" s="239"/>
-      <c r="DU63" s="239"/>
-      <c r="DV63" s="239"/>
-      <c r="DW63" s="239"/>
-      <c r="DX63" s="239"/>
-      <c r="DY63" s="239"/>
-      <c r="DZ63" s="239"/>
-      <c r="EA63" s="239"/>
-      <c r="EB63" s="239"/>
-      <c r="EC63" s="239"/>
-      <c r="ED63" s="239"/>
-      <c r="EE63" s="239"/>
-      <c r="EF63" s="239"/>
-      <c r="EG63" s="239"/>
-      <c r="EH63" s="239"/>
-      <c r="EI63" s="239"/>
-      <c r="EJ63" s="239"/>
-      <c r="EK63" s="239"/>
-      <c r="EL63" s="239"/>
-      <c r="EM63" s="239"/>
-      <c r="EN63" s="239"/>
-      <c r="EO63" s="239"/>
-      <c r="EP63" s="240"/>
+      <c r="BS63" s="247"/>
+      <c r="BT63" s="247"/>
+      <c r="BU63" s="247"/>
+      <c r="BV63" s="247"/>
+      <c r="BW63" s="247"/>
+      <c r="BX63" s="247"/>
+      <c r="BY63" s="247"/>
+      <c r="BZ63" s="247"/>
+      <c r="CA63" s="247"/>
+      <c r="CB63" s="247"/>
+      <c r="CC63" s="247"/>
+      <c r="CD63" s="247"/>
+      <c r="CE63" s="247"/>
+      <c r="CF63" s="247"/>
+      <c r="CG63" s="247"/>
+      <c r="CH63" s="247"/>
+      <c r="CI63" s="247"/>
+      <c r="CJ63" s="247"/>
+      <c r="CK63" s="247"/>
+      <c r="CL63" s="247"/>
+      <c r="CM63" s="247"/>
+      <c r="CN63" s="247"/>
+      <c r="CO63" s="247"/>
+      <c r="CP63" s="247"/>
+      <c r="CQ63" s="247"/>
+      <c r="CR63" s="247"/>
+      <c r="CS63" s="247"/>
+      <c r="CT63" s="247"/>
+      <c r="CU63" s="247"/>
+      <c r="CV63" s="247"/>
+      <c r="CW63" s="247"/>
+      <c r="CX63" s="247"/>
+      <c r="CY63" s="247"/>
+      <c r="CZ63" s="247"/>
+      <c r="DA63" s="247"/>
+      <c r="DB63" s="247"/>
+      <c r="DC63" s="247"/>
+      <c r="DD63" s="247"/>
+      <c r="DE63" s="247"/>
+      <c r="DF63" s="247"/>
+      <c r="DG63" s="247"/>
+      <c r="DH63" s="247"/>
+      <c r="DI63" s="247"/>
+      <c r="DJ63" s="247"/>
+      <c r="DK63" s="247"/>
+      <c r="DL63" s="247"/>
+      <c r="DM63" s="247"/>
+      <c r="DN63" s="247"/>
+      <c r="DO63" s="247"/>
+      <c r="DP63" s="247"/>
+      <c r="DQ63" s="247"/>
+      <c r="DR63" s="247"/>
+      <c r="DS63" s="247"/>
+      <c r="DT63" s="247"/>
+      <c r="DU63" s="247"/>
+      <c r="DV63" s="247"/>
+      <c r="DW63" s="247"/>
+      <c r="DX63" s="247"/>
+      <c r="DY63" s="247"/>
+      <c r="DZ63" s="247"/>
+      <c r="EA63" s="247"/>
+      <c r="EB63" s="247"/>
+      <c r="EC63" s="247"/>
+      <c r="ED63" s="247"/>
+      <c r="EE63" s="247"/>
+      <c r="EF63" s="247"/>
+      <c r="EG63" s="247"/>
+      <c r="EH63" s="247"/>
+      <c r="EI63" s="247"/>
+      <c r="EJ63" s="247"/>
+      <c r="EK63" s="247"/>
+      <c r="EL63" s="247"/>
+      <c r="EM63" s="247"/>
+      <c r="EN63" s="247"/>
+      <c r="EO63" s="247"/>
+      <c r="EP63" s="248"/>
       <c r="EQ63" s="48"/>
     </row>
     <row r="64" spans="1:147" x14ac:dyDescent="0.25">
@@ -20415,172 +20415,186 @@
       <c r="EQ64" s="37"/>
     </row>
     <row r="65" spans="1:146" x14ac:dyDescent="0.25">
-      <c r="A65" s="234"/>
-      <c r="B65" s="234"/>
-      <c r="C65" s="234"/>
-      <c r="D65" s="234"/>
-      <c r="E65" s="234"/>
-      <c r="F65" s="234"/>
-      <c r="G65" s="234"/>
-      <c r="H65" s="234"/>
-      <c r="I65" s="234"/>
-      <c r="J65" s="234"/>
-      <c r="K65" s="234"/>
-      <c r="L65" s="234"/>
-      <c r="M65" s="234"/>
-      <c r="N65" s="234"/>
-      <c r="O65" s="234"/>
-      <c r="P65" s="234"/>
-      <c r="Q65" s="234"/>
-      <c r="R65" s="234"/>
-      <c r="S65" s="234"/>
-      <c r="T65" s="234"/>
-      <c r="U65" s="234"/>
-      <c r="V65" s="234"/>
-      <c r="W65" s="234"/>
-      <c r="X65" s="234"/>
-      <c r="Y65" s="234"/>
-      <c r="Z65" s="234"/>
-      <c r="AA65" s="234"/>
-      <c r="AB65" s="234"/>
-      <c r="AC65" s="234"/>
-      <c r="AD65" s="234"/>
-      <c r="AE65" s="234"/>
-      <c r="AF65" s="234"/>
-      <c r="AG65" s="234"/>
-      <c r="AH65" s="234"/>
-      <c r="AI65" s="234"/>
-      <c r="AJ65" s="234"/>
-      <c r="AK65" s="234"/>
-      <c r="AL65" s="234"/>
-      <c r="AM65" s="234"/>
-      <c r="AN65" s="234"/>
-      <c r="AO65" s="234"/>
-      <c r="AP65" s="234"/>
-      <c r="AQ65" s="234"/>
-      <c r="AR65" s="234"/>
-      <c r="AS65" s="234"/>
-      <c r="AT65" s="234"/>
-      <c r="AU65" s="234"/>
-      <c r="AV65" s="234"/>
-      <c r="AW65" s="234"/>
-      <c r="AX65" s="234"/>
-      <c r="AY65" s="234"/>
-      <c r="AZ65" s="234"/>
-      <c r="BA65" s="234"/>
-      <c r="BB65" s="234"/>
-      <c r="BC65" s="234"/>
-      <c r="BD65" s="234"/>
-      <c r="BE65" s="234"/>
-      <c r="BF65" s="234"/>
-      <c r="BG65" s="234"/>
-      <c r="BH65" s="234"/>
-      <c r="BI65" s="234"/>
-      <c r="BJ65" s="234"/>
-      <c r="BK65" s="234"/>
-      <c r="BL65" s="234"/>
-      <c r="BM65" s="234"/>
-      <c r="BN65" s="234"/>
-      <c r="BO65" s="234"/>
-      <c r="BP65" s="234"/>
-      <c r="BQ65" s="234"/>
-      <c r="BR65" s="234"/>
-      <c r="BS65" s="234"/>
-      <c r="BT65" s="234"/>
-      <c r="BU65" s="234"/>
-      <c r="BV65" s="234"/>
-      <c r="BW65" s="234"/>
-      <c r="BX65" s="234"/>
-      <c r="BY65" s="234"/>
-      <c r="BZ65" s="234"/>
-      <c r="CA65" s="234"/>
-      <c r="CB65" s="234"/>
-      <c r="CC65" s="234"/>
-      <c r="CD65" s="234"/>
-      <c r="CE65" s="234"/>
-      <c r="CF65" s="234"/>
-      <c r="CG65" s="234"/>
-      <c r="CH65" s="234"/>
-      <c r="CI65" s="234"/>
-      <c r="CJ65" s="234"/>
-      <c r="CK65" s="234"/>
-      <c r="CL65" s="234"/>
-      <c r="CM65" s="234"/>
-      <c r="CN65" s="234"/>
-      <c r="CO65" s="234"/>
-      <c r="CP65" s="234"/>
-      <c r="CQ65" s="234"/>
-      <c r="CR65" s="234"/>
-      <c r="CS65" s="234"/>
-      <c r="CT65" s="234"/>
-      <c r="CU65" s="234"/>
-      <c r="CV65" s="234"/>
-      <c r="CW65" s="234"/>
-      <c r="CX65" s="234"/>
-      <c r="CY65" s="234"/>
-      <c r="CZ65" s="234"/>
-      <c r="DA65" s="234"/>
-      <c r="DB65" s="234"/>
-      <c r="DC65" s="234"/>
-      <c r="DD65" s="234"/>
-      <c r="DE65" s="234"/>
-      <c r="DF65" s="234"/>
-      <c r="DG65" s="234"/>
-      <c r="DH65" s="234"/>
-      <c r="DI65" s="234"/>
-      <c r="DJ65" s="234"/>
-      <c r="DK65" s="234"/>
-      <c r="DL65" s="234"/>
-      <c r="DM65" s="234"/>
-      <c r="DN65" s="234"/>
-      <c r="DO65" s="234"/>
-      <c r="DP65" s="234"/>
-      <c r="DQ65" s="234"/>
-      <c r="DR65" s="234"/>
-      <c r="DS65" s="234"/>
-      <c r="DT65" s="234"/>
-      <c r="DU65" s="234"/>
-      <c r="DV65" s="234"/>
-      <c r="DW65" s="234"/>
-      <c r="DX65" s="234"/>
-      <c r="DY65" s="234"/>
-      <c r="DZ65" s="234"/>
-      <c r="EA65" s="234"/>
-      <c r="EB65" s="234"/>
-      <c r="EC65" s="234"/>
-      <c r="ED65" s="234"/>
-      <c r="EE65" s="234"/>
-      <c r="EF65" s="234"/>
-      <c r="EG65" s="234"/>
-      <c r="EH65" s="234"/>
-      <c r="EI65" s="234"/>
-      <c r="EJ65" s="234"/>
-      <c r="EK65" s="234"/>
-      <c r="EL65" s="234"/>
-      <c r="EM65" s="234"/>
-      <c r="EN65" s="234"/>
-      <c r="EO65" s="234"/>
-      <c r="EP65" s="234"/>
+      <c r="A65" s="243"/>
+      <c r="B65" s="243"/>
+      <c r="C65" s="243"/>
+      <c r="D65" s="243"/>
+      <c r="E65" s="243"/>
+      <c r="F65" s="243"/>
+      <c r="G65" s="243"/>
+      <c r="H65" s="243"/>
+      <c r="I65" s="243"/>
+      <c r="J65" s="243"/>
+      <c r="K65" s="243"/>
+      <c r="L65" s="243"/>
+      <c r="M65" s="243"/>
+      <c r="N65" s="243"/>
+      <c r="O65" s="243"/>
+      <c r="P65" s="243"/>
+      <c r="Q65" s="243"/>
+      <c r="R65" s="243"/>
+      <c r="S65" s="243"/>
+      <c r="T65" s="243"/>
+      <c r="U65" s="243"/>
+      <c r="V65" s="243"/>
+      <c r="W65" s="243"/>
+      <c r="X65" s="243"/>
+      <c r="Y65" s="243"/>
+      <c r="Z65" s="243"/>
+      <c r="AA65" s="243"/>
+      <c r="AB65" s="243"/>
+      <c r="AC65" s="243"/>
+      <c r="AD65" s="243"/>
+      <c r="AE65" s="243"/>
+      <c r="AF65" s="243"/>
+      <c r="AG65" s="243"/>
+      <c r="AH65" s="243"/>
+      <c r="AI65" s="243"/>
+      <c r="AJ65" s="243"/>
+      <c r="AK65" s="243"/>
+      <c r="AL65" s="243"/>
+      <c r="AM65" s="243"/>
+      <c r="AN65" s="243"/>
+      <c r="AO65" s="243"/>
+      <c r="AP65" s="243"/>
+      <c r="AQ65" s="243"/>
+      <c r="AR65" s="243"/>
+      <c r="AS65" s="243"/>
+      <c r="AT65" s="243"/>
+      <c r="AU65" s="243"/>
+      <c r="AV65" s="243"/>
+      <c r="AW65" s="243"/>
+      <c r="AX65" s="243"/>
+      <c r="AY65" s="243"/>
+      <c r="AZ65" s="243"/>
+      <c r="BA65" s="243"/>
+      <c r="BB65" s="243"/>
+      <c r="BC65" s="243"/>
+      <c r="BD65" s="243"/>
+      <c r="BE65" s="243"/>
+      <c r="BF65" s="243"/>
+      <c r="BG65" s="243"/>
+      <c r="BH65" s="243"/>
+      <c r="BI65" s="243"/>
+      <c r="BJ65" s="243"/>
+      <c r="BK65" s="243"/>
+      <c r="BL65" s="243"/>
+      <c r="BM65" s="243"/>
+      <c r="BN65" s="243"/>
+      <c r="BO65" s="243"/>
+      <c r="BP65" s="243"/>
+      <c r="BQ65" s="243"/>
+      <c r="BR65" s="243"/>
+      <c r="BS65" s="243"/>
+      <c r="BT65" s="243"/>
+      <c r="BU65" s="243"/>
+      <c r="BV65" s="243"/>
+      <c r="BW65" s="243"/>
+      <c r="BX65" s="243"/>
+      <c r="BY65" s="243"/>
+      <c r="BZ65" s="243"/>
+      <c r="CA65" s="243"/>
+      <c r="CB65" s="243"/>
+      <c r="CC65" s="243"/>
+      <c r="CD65" s="243"/>
+      <c r="CE65" s="243"/>
+      <c r="CF65" s="243"/>
+      <c r="CG65" s="243"/>
+      <c r="CH65" s="243"/>
+      <c r="CI65" s="243"/>
+      <c r="CJ65" s="243"/>
+      <c r="CK65" s="243"/>
+      <c r="CL65" s="243"/>
+      <c r="CM65" s="243"/>
+      <c r="CN65" s="243"/>
+      <c r="CO65" s="243"/>
+      <c r="CP65" s="243"/>
+      <c r="CQ65" s="243"/>
+      <c r="CR65" s="243"/>
+      <c r="CS65" s="243"/>
+      <c r="CT65" s="243"/>
+      <c r="CU65" s="243"/>
+      <c r="CV65" s="243"/>
+      <c r="CW65" s="243"/>
+      <c r="CX65" s="243"/>
+      <c r="CY65" s="243"/>
+      <c r="CZ65" s="243"/>
+      <c r="DA65" s="243"/>
+      <c r="DB65" s="243"/>
+      <c r="DC65" s="243"/>
+      <c r="DD65" s="243"/>
+      <c r="DE65" s="243"/>
+      <c r="DF65" s="243"/>
+      <c r="DG65" s="243"/>
+      <c r="DH65" s="243"/>
+      <c r="DI65" s="243"/>
+      <c r="DJ65" s="243"/>
+      <c r="DK65" s="243"/>
+      <c r="DL65" s="243"/>
+      <c r="DM65" s="243"/>
+      <c r="DN65" s="243"/>
+      <c r="DO65" s="243"/>
+      <c r="DP65" s="243"/>
+      <c r="DQ65" s="243"/>
+      <c r="DR65" s="243"/>
+      <c r="DS65" s="243"/>
+      <c r="DT65" s="243"/>
+      <c r="DU65" s="243"/>
+      <c r="DV65" s="243"/>
+      <c r="DW65" s="243"/>
+      <c r="DX65" s="243"/>
+      <c r="DY65" s="243"/>
+      <c r="DZ65" s="243"/>
+      <c r="EA65" s="243"/>
+      <c r="EB65" s="243"/>
+      <c r="EC65" s="243"/>
+      <c r="ED65" s="243"/>
+      <c r="EE65" s="243"/>
+      <c r="EF65" s="243"/>
+      <c r="EG65" s="243"/>
+      <c r="EH65" s="243"/>
+      <c r="EI65" s="243"/>
+      <c r="EJ65" s="243"/>
+      <c r="EK65" s="243"/>
+      <c r="EL65" s="243"/>
+      <c r="EM65" s="243"/>
+      <c r="EN65" s="243"/>
+      <c r="EO65" s="243"/>
+      <c r="EP65" s="243"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AI13:AM13"/>
-    <mergeCell ref="AP13:AT13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="BY11:EP11"/>
-    <mergeCell ref="DV13:DZ13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="BD13:BH13"/>
-    <mergeCell ref="BK13:BO13"/>
-    <mergeCell ref="BR13:BV13"/>
-    <mergeCell ref="BY13:CC13"/>
-    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="A65:EP65"/>
+    <mergeCell ref="EA14:EB14"/>
+    <mergeCell ref="EC14:EG14"/>
+    <mergeCell ref="EH14:EI14"/>
+    <mergeCell ref="EJ14:EN14"/>
+    <mergeCell ref="EO14:EP14"/>
+    <mergeCell ref="A63:AM63"/>
+    <mergeCell ref="BR63:EP63"/>
+    <mergeCell ref="DF14:DG14"/>
+    <mergeCell ref="DH14:DL14"/>
+    <mergeCell ref="DM14:DN14"/>
+    <mergeCell ref="DO14:DS14"/>
+    <mergeCell ref="DT14:DU14"/>
+    <mergeCell ref="DV14:DZ14"/>
+    <mergeCell ref="CK14:CL14"/>
+    <mergeCell ref="CM14:CQ14"/>
+    <mergeCell ref="CR14:CS14"/>
+    <mergeCell ref="CT14:CX14"/>
+    <mergeCell ref="CY14:CZ14"/>
+    <mergeCell ref="DA14:DE14"/>
+    <mergeCell ref="BP14:BQ14"/>
+    <mergeCell ref="BR14:BV14"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BY14:CC14"/>
+    <mergeCell ref="CD14:CE14"/>
+    <mergeCell ref="CF14:CJ14"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BD14:BH14"/>
+    <mergeCell ref="BI14:BJ14"/>
     <mergeCell ref="BK14:BO14"/>
     <mergeCell ref="EC13:EG13"/>
     <mergeCell ref="EJ13:EN13"/>
@@ -20597,37 +20611,23 @@
     <mergeCell ref="DA13:DE13"/>
     <mergeCell ref="DH13:DL13"/>
     <mergeCell ref="DO13:DS13"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BD14:BH14"/>
-    <mergeCell ref="BI14:BJ14"/>
-    <mergeCell ref="CR14:CS14"/>
-    <mergeCell ref="CT14:CX14"/>
-    <mergeCell ref="CY14:CZ14"/>
-    <mergeCell ref="DA14:DE14"/>
-    <mergeCell ref="BP14:BQ14"/>
-    <mergeCell ref="BR14:BV14"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BY14:CC14"/>
-    <mergeCell ref="CD14:CE14"/>
-    <mergeCell ref="CF14:CJ14"/>
-    <mergeCell ref="A65:EP65"/>
-    <mergeCell ref="EA14:EB14"/>
-    <mergeCell ref="EC14:EG14"/>
-    <mergeCell ref="EH14:EI14"/>
-    <mergeCell ref="EJ14:EN14"/>
-    <mergeCell ref="EO14:EP14"/>
-    <mergeCell ref="A63:AM63"/>
-    <mergeCell ref="BR63:EP63"/>
-    <mergeCell ref="DF14:DG14"/>
-    <mergeCell ref="DH14:DL14"/>
-    <mergeCell ref="DM14:DN14"/>
-    <mergeCell ref="DO14:DS14"/>
-    <mergeCell ref="DT14:DU14"/>
-    <mergeCell ref="DV14:DZ14"/>
-    <mergeCell ref="CK14:CL14"/>
-    <mergeCell ref="CM14:CQ14"/>
+    <mergeCell ref="DV13:DZ13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="BD13:BH13"/>
+    <mergeCell ref="BK13:BO13"/>
+    <mergeCell ref="BR13:BV13"/>
+    <mergeCell ref="BY13:CC13"/>
+    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="BY11:EP11"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AI13:AM13"/>
+    <mergeCell ref="AP13:AT13"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H38:H61 H29:H36">
     <cfRule type="expression" dxfId="73" priority="65">

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="0" windowWidth="27300" windowHeight="12420"/>
+    <workbookView xWindow="9000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -2087,6 +2087,27 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2112,27 +2133,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3043,10 +3043,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="J21" sqref="J21"/>
+      <selection pane="topRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7629,10 +7629,10 @@
       <c r="G7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="235">
+      <c r="H7" s="242">
         <v>42088</v>
       </c>
-      <c r="I7" s="235"/>
+      <c r="I7" s="242"/>
       <c r="K7" s="27"/>
       <c r="L7" s="217"/>
       <c r="M7" s="217"/>
@@ -9894,17 +9894,17 @@
       <c r="ACA9" s="34"/>
     </row>
     <row r="10" spans="1:755" s="22" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
-      <c r="B10" s="236"/>
+      <c r="A10" s="243"/>
+      <c r="B10" s="243"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="237"/>
-      <c r="G10" s="237"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
       <c r="L10" s="220"/>
       <c r="M10" s="220"/>
       <c r="N10" s="201"/>
@@ -10651,19 +10651,19 @@
       <c r="ACA10" s="34"/>
     </row>
     <row r="11" spans="1:755" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="238" t="s">
+      <c r="A11" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="239"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="239"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
+      <c r="B11" s="246"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="246"/>
       <c r="L11" s="221"/>
       <c r="M11" s="221"/>
       <c r="N11" s="202"/>
@@ -10729,78 +10729,78 @@
       <c r="BV11" s="36"/>
       <c r="BW11" s="36"/>
       <c r="BX11" s="36"/>
-      <c r="BY11" s="240" t="s">
+      <c r="BY11" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="BZ11" s="240"/>
-      <c r="CA11" s="240"/>
-      <c r="CB11" s="240"/>
-      <c r="CC11" s="240"/>
-      <c r="CD11" s="240"/>
-      <c r="CE11" s="240"/>
-      <c r="CF11" s="240"/>
-      <c r="CG11" s="240"/>
-      <c r="CH11" s="240"/>
-      <c r="CI11" s="240"/>
-      <c r="CJ11" s="240"/>
-      <c r="CK11" s="240"/>
-      <c r="CL11" s="240"/>
-      <c r="CM11" s="240"/>
-      <c r="CN11" s="240"/>
-      <c r="CO11" s="240"/>
-      <c r="CP11" s="240"/>
-      <c r="CQ11" s="240"/>
-      <c r="CR11" s="240"/>
-      <c r="CS11" s="240"/>
-      <c r="CT11" s="240"/>
-      <c r="CU11" s="240"/>
-      <c r="CV11" s="240"/>
-      <c r="CW11" s="240"/>
-      <c r="CX11" s="240"/>
-      <c r="CY11" s="240"/>
-      <c r="CZ11" s="240"/>
-      <c r="DA11" s="240"/>
-      <c r="DB11" s="240"/>
-      <c r="DC11" s="240"/>
-      <c r="DD11" s="240"/>
-      <c r="DE11" s="240"/>
-      <c r="DF11" s="240"/>
-      <c r="DG11" s="240"/>
-      <c r="DH11" s="240"/>
-      <c r="DI11" s="240"/>
-      <c r="DJ11" s="240"/>
-      <c r="DK11" s="240"/>
-      <c r="DL11" s="240"/>
-      <c r="DM11" s="240"/>
-      <c r="DN11" s="240"/>
-      <c r="DO11" s="240"/>
-      <c r="DP11" s="240"/>
-      <c r="DQ11" s="240"/>
-      <c r="DR11" s="240"/>
-      <c r="DS11" s="240"/>
-      <c r="DT11" s="240"/>
-      <c r="DU11" s="240"/>
-      <c r="DV11" s="240"/>
-      <c r="DW11" s="240"/>
-      <c r="DX11" s="240"/>
-      <c r="DY11" s="240"/>
-      <c r="DZ11" s="240"/>
-      <c r="EA11" s="240"/>
-      <c r="EB11" s="240"/>
-      <c r="EC11" s="240"/>
-      <c r="ED11" s="240"/>
-      <c r="EE11" s="240"/>
-      <c r="EF11" s="240"/>
-      <c r="EG11" s="240"/>
-      <c r="EH11" s="240"/>
-      <c r="EI11" s="240"/>
-      <c r="EJ11" s="240"/>
-      <c r="EK11" s="240"/>
-      <c r="EL11" s="240"/>
-      <c r="EM11" s="240"/>
-      <c r="EN11" s="240"/>
-      <c r="EO11" s="240"/>
-      <c r="EP11" s="241"/>
+      <c r="BZ11" s="247"/>
+      <c r="CA11" s="247"/>
+      <c r="CB11" s="247"/>
+      <c r="CC11" s="247"/>
+      <c r="CD11" s="247"/>
+      <c r="CE11" s="247"/>
+      <c r="CF11" s="247"/>
+      <c r="CG11" s="247"/>
+      <c r="CH11" s="247"/>
+      <c r="CI11" s="247"/>
+      <c r="CJ11" s="247"/>
+      <c r="CK11" s="247"/>
+      <c r="CL11" s="247"/>
+      <c r="CM11" s="247"/>
+      <c r="CN11" s="247"/>
+      <c r="CO11" s="247"/>
+      <c r="CP11" s="247"/>
+      <c r="CQ11" s="247"/>
+      <c r="CR11" s="247"/>
+      <c r="CS11" s="247"/>
+      <c r="CT11" s="247"/>
+      <c r="CU11" s="247"/>
+      <c r="CV11" s="247"/>
+      <c r="CW11" s="247"/>
+      <c r="CX11" s="247"/>
+      <c r="CY11" s="247"/>
+      <c r="CZ11" s="247"/>
+      <c r="DA11" s="247"/>
+      <c r="DB11" s="247"/>
+      <c r="DC11" s="247"/>
+      <c r="DD11" s="247"/>
+      <c r="DE11" s="247"/>
+      <c r="DF11" s="247"/>
+      <c r="DG11" s="247"/>
+      <c r="DH11" s="247"/>
+      <c r="DI11" s="247"/>
+      <c r="DJ11" s="247"/>
+      <c r="DK11" s="247"/>
+      <c r="DL11" s="247"/>
+      <c r="DM11" s="247"/>
+      <c r="DN11" s="247"/>
+      <c r="DO11" s="247"/>
+      <c r="DP11" s="247"/>
+      <c r="DQ11" s="247"/>
+      <c r="DR11" s="247"/>
+      <c r="DS11" s="247"/>
+      <c r="DT11" s="247"/>
+      <c r="DU11" s="247"/>
+      <c r="DV11" s="247"/>
+      <c r="DW11" s="247"/>
+      <c r="DX11" s="247"/>
+      <c r="DY11" s="247"/>
+      <c r="DZ11" s="247"/>
+      <c r="EA11" s="247"/>
+      <c r="EB11" s="247"/>
+      <c r="EC11" s="247"/>
+      <c r="ED11" s="247"/>
+      <c r="EE11" s="247"/>
+      <c r="EF11" s="247"/>
+      <c r="EG11" s="247"/>
+      <c r="EH11" s="247"/>
+      <c r="EI11" s="247"/>
+      <c r="EJ11" s="247"/>
+      <c r="EK11" s="247"/>
+      <c r="EL11" s="247"/>
+      <c r="EM11" s="247"/>
+      <c r="EN11" s="247"/>
+      <c r="EO11" s="247"/>
+      <c r="EP11" s="248"/>
     </row>
     <row r="12" spans="1:755" s="37" customFormat="1" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -11363,194 +11363,194 @@
       <c r="K13" s="44"/>
       <c r="L13" s="223"/>
       <c r="M13" s="223"/>
-      <c r="N13" s="234" t="str">
+      <c r="N13" s="241" t="str">
         <f>"KW " &amp; TRUNC((N12-DATE(YEAR(N12+3-MOD(N12-2,7)),1,MOD(N12-2,7)-9))/7)</f>
         <v>KW 13</v>
       </c>
-      <c r="O13" s="234"/>
-      <c r="P13" s="234"/>
-      <c r="Q13" s="234"/>
-      <c r="R13" s="234"/>
+      <c r="O13" s="241"/>
+      <c r="P13" s="241"/>
+      <c r="Q13" s="241"/>
+      <c r="R13" s="241"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="234" t="str">
+      <c r="U13" s="241" t="str">
         <f t="shared" ref="U13" si="3">"KW " &amp; TRUNC((U12-DATE(YEAR(U12+3-MOD(U12-2,7)),1,MOD(U12-2,7)-9))/7)</f>
         <v>KW 14</v>
       </c>
-      <c r="V13" s="234"/>
-      <c r="W13" s="234"/>
-      <c r="X13" s="234"/>
-      <c r="Y13" s="234"/>
+      <c r="V13" s="241"/>
+      <c r="W13" s="241"/>
+      <c r="X13" s="241"/>
+      <c r="Y13" s="241"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="46"/>
-      <c r="AB13" s="234" t="str">
+      <c r="AB13" s="241" t="str">
         <f t="shared" ref="AB13" si="4">"KW " &amp; TRUNC((AB12-DATE(YEAR(AB12+3-MOD(AB12-2,7)),1,MOD(AB12-2,7)-9))/7)</f>
         <v>KW 15</v>
       </c>
-      <c r="AC13" s="234"/>
-      <c r="AD13" s="234"/>
-      <c r="AE13" s="234"/>
-      <c r="AF13" s="234"/>
+      <c r="AC13" s="241"/>
+      <c r="AD13" s="241"/>
+      <c r="AE13" s="241"/>
+      <c r="AF13" s="241"/>
       <c r="AG13" s="46"/>
       <c r="AH13" s="46"/>
-      <c r="AI13" s="234" t="str">
+      <c r="AI13" s="241" t="str">
         <f t="shared" ref="AI13" si="5">"KW " &amp; TRUNC((AI12-DATE(YEAR(AI12+3-MOD(AI12-2,7)),1,MOD(AI12-2,7)-9))/7)</f>
         <v>KW 16</v>
       </c>
-      <c r="AJ13" s="234"/>
-      <c r="AK13" s="234"/>
-      <c r="AL13" s="234"/>
-      <c r="AM13" s="234"/>
+      <c r="AJ13" s="241"/>
+      <c r="AK13" s="241"/>
+      <c r="AL13" s="241"/>
+      <c r="AM13" s="241"/>
       <c r="AN13" s="46"/>
       <c r="AO13" s="46"/>
-      <c r="AP13" s="234" t="str">
+      <c r="AP13" s="241" t="str">
         <f t="shared" ref="AP13" si="6">"KW " &amp; TRUNC((AP12-DATE(YEAR(AP12+3-MOD(AP12-2,7)),1,MOD(AP12-2,7)-9))/7)</f>
         <v>KW 17</v>
       </c>
-      <c r="AQ13" s="234"/>
-      <c r="AR13" s="234"/>
-      <c r="AS13" s="234"/>
-      <c r="AT13" s="234"/>
+      <c r="AQ13" s="241"/>
+      <c r="AR13" s="241"/>
+      <c r="AS13" s="241"/>
+      <c r="AT13" s="241"/>
       <c r="AU13" s="46"/>
       <c r="AV13" s="46"/>
-      <c r="AW13" s="234" t="str">
+      <c r="AW13" s="241" t="str">
         <f t="shared" ref="AW13" si="7">"KW " &amp; TRUNC((AW12-DATE(YEAR(AW12+3-MOD(AW12-2,7)),1,MOD(AW12-2,7)-9))/7)</f>
         <v>KW 18</v>
       </c>
-      <c r="AX13" s="234"/>
-      <c r="AY13" s="234"/>
-      <c r="AZ13" s="234"/>
-      <c r="BA13" s="234"/>
+      <c r="AX13" s="241"/>
+      <c r="AY13" s="241"/>
+      <c r="AZ13" s="241"/>
+      <c r="BA13" s="241"/>
       <c r="BB13" s="46"/>
       <c r="BC13" s="46"/>
-      <c r="BD13" s="234" t="str">
+      <c r="BD13" s="241" t="str">
         <f t="shared" ref="BD13" si="8">"KW " &amp; TRUNC((BD12-DATE(YEAR(BD12+3-MOD(BD12-2,7)),1,MOD(BD12-2,7)-9))/7)</f>
         <v>KW 19</v>
       </c>
-      <c r="BE13" s="234"/>
-      <c r="BF13" s="234"/>
-      <c r="BG13" s="234"/>
-      <c r="BH13" s="234"/>
+      <c r="BE13" s="241"/>
+      <c r="BF13" s="241"/>
+      <c r="BG13" s="241"/>
+      <c r="BH13" s="241"/>
       <c r="BI13" s="46"/>
       <c r="BJ13" s="46"/>
-      <c r="BK13" s="234" t="str">
+      <c r="BK13" s="241" t="str">
         <f t="shared" ref="BK13" si="9">"KW " &amp; TRUNC((BK12-DATE(YEAR(BK12+3-MOD(BK12-2,7)),1,MOD(BK12-2,7)-9))/7)</f>
         <v>KW 20</v>
       </c>
-      <c r="BL13" s="234"/>
-      <c r="BM13" s="234"/>
-      <c r="BN13" s="234"/>
-      <c r="BO13" s="234"/>
+      <c r="BL13" s="241"/>
+      <c r="BM13" s="241"/>
+      <c r="BN13" s="241"/>
+      <c r="BO13" s="241"/>
       <c r="BP13" s="46"/>
       <c r="BQ13" s="46"/>
-      <c r="BR13" s="234" t="str">
+      <c r="BR13" s="241" t="str">
         <f t="shared" ref="BR13" si="10">"KW " &amp; TRUNC((BR12-DATE(YEAR(BR12+3-MOD(BR12-2,7)),1,MOD(BR12-2,7)-9))/7)</f>
         <v>KW 21</v>
       </c>
-      <c r="BS13" s="234"/>
-      <c r="BT13" s="234"/>
-      <c r="BU13" s="234"/>
-      <c r="BV13" s="234"/>
+      <c r="BS13" s="241"/>
+      <c r="BT13" s="241"/>
+      <c r="BU13" s="241"/>
+      <c r="BV13" s="241"/>
       <c r="BW13" s="46"/>
       <c r="BX13" s="46"/>
-      <c r="BY13" s="234" t="str">
+      <c r="BY13" s="241" t="str">
         <f t="shared" ref="BY13" si="11">"KW " &amp; TRUNC((BY12-DATE(YEAR(BY12+3-MOD(BY12-2,7)),1,MOD(BY12-2,7)-9))/7)</f>
         <v>KW 22</v>
       </c>
-      <c r="BZ13" s="234"/>
-      <c r="CA13" s="234"/>
-      <c r="CB13" s="234"/>
-      <c r="CC13" s="234"/>
+      <c r="BZ13" s="241"/>
+      <c r="CA13" s="241"/>
+      <c r="CB13" s="241"/>
+      <c r="CC13" s="241"/>
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
-      <c r="CF13" s="234" t="str">
+      <c r="CF13" s="241" t="str">
         <f t="shared" ref="CF13" si="12">"KW " &amp; TRUNC((CF12-DATE(YEAR(CF12+3-MOD(CF12-2,7)),1,MOD(CF12-2,7)-9))/7)</f>
         <v>KW 23</v>
       </c>
-      <c r="CG13" s="234"/>
-      <c r="CH13" s="234"/>
-      <c r="CI13" s="234"/>
-      <c r="CJ13" s="234"/>
+      <c r="CG13" s="241"/>
+      <c r="CH13" s="241"/>
+      <c r="CI13" s="241"/>
+      <c r="CJ13" s="241"/>
       <c r="CK13" s="46"/>
       <c r="CL13" s="46"/>
-      <c r="CM13" s="234" t="str">
+      <c r="CM13" s="241" t="str">
         <f t="shared" ref="CM13" si="13">"KW " &amp; TRUNC((CM12-DATE(YEAR(CM12+3-MOD(CM12-2,7)),1,MOD(CM12-2,7)-9))/7)</f>
         <v>KW 24</v>
       </c>
-      <c r="CN13" s="234"/>
-      <c r="CO13" s="234"/>
-      <c r="CP13" s="234"/>
-      <c r="CQ13" s="234"/>
+      <c r="CN13" s="241"/>
+      <c r="CO13" s="241"/>
+      <c r="CP13" s="241"/>
+      <c r="CQ13" s="241"/>
       <c r="CR13" s="46"/>
       <c r="CS13" s="46"/>
-      <c r="CT13" s="234" t="str">
+      <c r="CT13" s="241" t="str">
         <f t="shared" ref="CT13" si="14">"KW " &amp; TRUNC((CT12-DATE(YEAR(CT12+3-MOD(CT12-2,7)),1,MOD(CT12-2,7)-9))/7)</f>
         <v>KW 25</v>
       </c>
-      <c r="CU13" s="234"/>
-      <c r="CV13" s="234"/>
-      <c r="CW13" s="234"/>
-      <c r="CX13" s="234"/>
+      <c r="CU13" s="241"/>
+      <c r="CV13" s="241"/>
+      <c r="CW13" s="241"/>
+      <c r="CX13" s="241"/>
       <c r="CY13" s="46"/>
       <c r="CZ13" s="46"/>
-      <c r="DA13" s="234" t="str">
+      <c r="DA13" s="241" t="str">
         <f t="shared" ref="DA13" si="15">"KW " &amp; TRUNC((DA12-DATE(YEAR(DA12+3-MOD(DA12-2,7)),1,MOD(DA12-2,7)-9))/7)</f>
         <v>KW 26</v>
       </c>
-      <c r="DB13" s="234"/>
-      <c r="DC13" s="234"/>
-      <c r="DD13" s="234"/>
-      <c r="DE13" s="234"/>
+      <c r="DB13" s="241"/>
+      <c r="DC13" s="241"/>
+      <c r="DD13" s="241"/>
+      <c r="DE13" s="241"/>
       <c r="DF13" s="46"/>
       <c r="DG13" s="46"/>
-      <c r="DH13" s="234" t="str">
+      <c r="DH13" s="241" t="str">
         <f t="shared" ref="DH13" si="16">"KW " &amp; TRUNC((DH12-DATE(YEAR(DH12+3-MOD(DH12-2,7)),1,MOD(DH12-2,7)-9))/7)</f>
         <v>KW 27</v>
       </c>
-      <c r="DI13" s="234"/>
-      <c r="DJ13" s="234"/>
-      <c r="DK13" s="234"/>
-      <c r="DL13" s="234"/>
+      <c r="DI13" s="241"/>
+      <c r="DJ13" s="241"/>
+      <c r="DK13" s="241"/>
+      <c r="DL13" s="241"/>
       <c r="DM13" s="46"/>
       <c r="DN13" s="46"/>
-      <c r="DO13" s="234" t="str">
+      <c r="DO13" s="241" t="str">
         <f t="shared" ref="DO13" si="17">"KW " &amp; TRUNC((DO12-DATE(YEAR(DO12+3-MOD(DO12-2,7)),1,MOD(DO12-2,7)-9))/7)</f>
         <v>KW 28</v>
       </c>
-      <c r="DP13" s="234"/>
-      <c r="DQ13" s="234"/>
-      <c r="DR13" s="234"/>
-      <c r="DS13" s="234"/>
+      <c r="DP13" s="241"/>
+      <c r="DQ13" s="241"/>
+      <c r="DR13" s="241"/>
+      <c r="DS13" s="241"/>
       <c r="DT13" s="46"/>
       <c r="DU13" s="46"/>
-      <c r="DV13" s="234" t="str">
+      <c r="DV13" s="241" t="str">
         <f t="shared" ref="DV13" si="18">"KW " &amp; TRUNC((DV12-DATE(YEAR(DV12+3-MOD(DV12-2,7)),1,MOD(DV12-2,7)-9))/7)</f>
         <v>KW 29</v>
       </c>
-      <c r="DW13" s="234"/>
-      <c r="DX13" s="234"/>
-      <c r="DY13" s="234"/>
-      <c r="DZ13" s="234"/>
+      <c r="DW13" s="241"/>
+      <c r="DX13" s="241"/>
+      <c r="DY13" s="241"/>
+      <c r="DZ13" s="241"/>
       <c r="EA13" s="46"/>
       <c r="EB13" s="46"/>
-      <c r="EC13" s="234" t="str">
+      <c r="EC13" s="241" t="str">
         <f t="shared" ref="EC13" si="19">"KW " &amp; TRUNC((EC12-DATE(YEAR(EC12+3-MOD(EC12-2,7)),1,MOD(EC12-2,7)-9))/7)</f>
         <v>KW 30</v>
       </c>
-      <c r="ED13" s="234"/>
-      <c r="EE13" s="234"/>
-      <c r="EF13" s="234"/>
-      <c r="EG13" s="234"/>
+      <c r="ED13" s="241"/>
+      <c r="EE13" s="241"/>
+      <c r="EF13" s="241"/>
+      <c r="EG13" s="241"/>
       <c r="EH13" s="46"/>
       <c r="EI13" s="46"/>
-      <c r="EJ13" s="234" t="str">
+      <c r="EJ13" s="241" t="str">
         <f t="shared" ref="EJ13" si="20">"KW " &amp; TRUNC((EJ12-DATE(YEAR(EJ12+3-MOD(EJ12-2,7)),1,MOD(EJ12-2,7)-9))/7)</f>
         <v>KW 31</v>
       </c>
-      <c r="EK13" s="234"/>
-      <c r="EL13" s="234"/>
-      <c r="EM13" s="234"/>
-      <c r="EN13" s="234"/>
+      <c r="EK13" s="241"/>
+      <c r="EL13" s="241"/>
+      <c r="EM13" s="241"/>
+      <c r="EN13" s="241"/>
       <c r="EO13" s="46"/>
       <c r="EP13" s="47"/>
     </row>
@@ -11592,196 +11592,196 @@
       <c r="M14" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="242">
+      <c r="N14" s="235">
         <f>N12</f>
         <v>42086</v>
       </c>
-      <c r="O14" s="242"/>
-      <c r="P14" s="242"/>
-      <c r="Q14" s="242"/>
-      <c r="R14" s="242"/>
+      <c r="O14" s="235"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="235"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
-      <c r="U14" s="242">
+      <c r="U14" s="235">
         <f>U12</f>
         <v>42093</v>
       </c>
-      <c r="V14" s="242"/>
-      <c r="W14" s="242"/>
-      <c r="X14" s="242"/>
-      <c r="Y14" s="242"/>
-      <c r="Z14" s="242"/>
-      <c r="AA14" s="242"/>
-      <c r="AB14" s="242">
+      <c r="V14" s="235"/>
+      <c r="W14" s="235"/>
+      <c r="X14" s="235"/>
+      <c r="Y14" s="235"/>
+      <c r="Z14" s="235"/>
+      <c r="AA14" s="235"/>
+      <c r="AB14" s="235">
         <f>AB12</f>
         <v>42100</v>
       </c>
-      <c r="AC14" s="242"/>
-      <c r="AD14" s="242"/>
-      <c r="AE14" s="242"/>
-      <c r="AF14" s="242"/>
-      <c r="AG14" s="242"/>
-      <c r="AH14" s="242"/>
-      <c r="AI14" s="242">
+      <c r="AC14" s="235"/>
+      <c r="AD14" s="235"/>
+      <c r="AE14" s="235"/>
+      <c r="AF14" s="235"/>
+      <c r="AG14" s="235"/>
+      <c r="AH14" s="235"/>
+      <c r="AI14" s="235">
         <f>AI12</f>
         <v>42107</v>
       </c>
-      <c r="AJ14" s="242"/>
-      <c r="AK14" s="242"/>
-      <c r="AL14" s="242"/>
-      <c r="AM14" s="242"/>
-      <c r="AN14" s="242"/>
-      <c r="AO14" s="242"/>
-      <c r="AP14" s="242">
+      <c r="AJ14" s="235"/>
+      <c r="AK14" s="235"/>
+      <c r="AL14" s="235"/>
+      <c r="AM14" s="235"/>
+      <c r="AN14" s="235"/>
+      <c r="AO14" s="235"/>
+      <c r="AP14" s="235">
         <f>AP12</f>
         <v>42114</v>
       </c>
-      <c r="AQ14" s="242"/>
-      <c r="AR14" s="242"/>
-      <c r="AS14" s="242"/>
-      <c r="AT14" s="242"/>
-      <c r="AU14" s="242"/>
-      <c r="AV14" s="242"/>
-      <c r="AW14" s="242">
+      <c r="AQ14" s="235"/>
+      <c r="AR14" s="235"/>
+      <c r="AS14" s="235"/>
+      <c r="AT14" s="235"/>
+      <c r="AU14" s="235"/>
+      <c r="AV14" s="235"/>
+      <c r="AW14" s="235">
         <f>AW12</f>
         <v>42121</v>
       </c>
-      <c r="AX14" s="242"/>
-      <c r="AY14" s="242"/>
-      <c r="AZ14" s="242"/>
-      <c r="BA14" s="242"/>
-      <c r="BB14" s="242"/>
-      <c r="BC14" s="242"/>
-      <c r="BD14" s="242">
+      <c r="AX14" s="235"/>
+      <c r="AY14" s="235"/>
+      <c r="AZ14" s="235"/>
+      <c r="BA14" s="235"/>
+      <c r="BB14" s="235"/>
+      <c r="BC14" s="235"/>
+      <c r="BD14" s="235">
         <f>BD12</f>
         <v>42128</v>
       </c>
-      <c r="BE14" s="242"/>
-      <c r="BF14" s="242"/>
-      <c r="BG14" s="242"/>
-      <c r="BH14" s="242"/>
-      <c r="BI14" s="242"/>
-      <c r="BJ14" s="242"/>
-      <c r="BK14" s="242">
+      <c r="BE14" s="235"/>
+      <c r="BF14" s="235"/>
+      <c r="BG14" s="235"/>
+      <c r="BH14" s="235"/>
+      <c r="BI14" s="235"/>
+      <c r="BJ14" s="235"/>
+      <c r="BK14" s="235">
         <f>BK12</f>
         <v>42135</v>
       </c>
-      <c r="BL14" s="242"/>
-      <c r="BM14" s="242"/>
-      <c r="BN14" s="242"/>
-      <c r="BO14" s="242"/>
-      <c r="BP14" s="242"/>
-      <c r="BQ14" s="242"/>
-      <c r="BR14" s="242">
+      <c r="BL14" s="235"/>
+      <c r="BM14" s="235"/>
+      <c r="BN14" s="235"/>
+      <c r="BO14" s="235"/>
+      <c r="BP14" s="235"/>
+      <c r="BQ14" s="235"/>
+      <c r="BR14" s="235">
         <f>BR12</f>
         <v>42142</v>
       </c>
-      <c r="BS14" s="242"/>
-      <c r="BT14" s="242"/>
-      <c r="BU14" s="242"/>
-      <c r="BV14" s="242"/>
-      <c r="BW14" s="242"/>
-      <c r="BX14" s="242"/>
-      <c r="BY14" s="242">
+      <c r="BS14" s="235"/>
+      <c r="BT14" s="235"/>
+      <c r="BU14" s="235"/>
+      <c r="BV14" s="235"/>
+      <c r="BW14" s="235"/>
+      <c r="BX14" s="235"/>
+      <c r="BY14" s="235">
         <f>BY12</f>
         <v>42149</v>
       </c>
-      <c r="BZ14" s="242"/>
-      <c r="CA14" s="242"/>
-      <c r="CB14" s="242"/>
-      <c r="CC14" s="242"/>
-      <c r="CD14" s="242"/>
-      <c r="CE14" s="242"/>
-      <c r="CF14" s="242">
+      <c r="BZ14" s="235"/>
+      <c r="CA14" s="235"/>
+      <c r="CB14" s="235"/>
+      <c r="CC14" s="235"/>
+      <c r="CD14" s="235"/>
+      <c r="CE14" s="235"/>
+      <c r="CF14" s="235">
         <f>CF12</f>
         <v>42156</v>
       </c>
-      <c r="CG14" s="242"/>
-      <c r="CH14" s="242"/>
-      <c r="CI14" s="242"/>
-      <c r="CJ14" s="242"/>
-      <c r="CK14" s="242"/>
-      <c r="CL14" s="242"/>
-      <c r="CM14" s="242">
+      <c r="CG14" s="235"/>
+      <c r="CH14" s="235"/>
+      <c r="CI14" s="235"/>
+      <c r="CJ14" s="235"/>
+      <c r="CK14" s="235"/>
+      <c r="CL14" s="235"/>
+      <c r="CM14" s="235">
         <f>CM12</f>
         <v>42163</v>
       </c>
-      <c r="CN14" s="242"/>
-      <c r="CO14" s="242"/>
-      <c r="CP14" s="242"/>
-      <c r="CQ14" s="242"/>
-      <c r="CR14" s="242"/>
-      <c r="CS14" s="242"/>
-      <c r="CT14" s="242">
+      <c r="CN14" s="235"/>
+      <c r="CO14" s="235"/>
+      <c r="CP14" s="235"/>
+      <c r="CQ14" s="235"/>
+      <c r="CR14" s="235"/>
+      <c r="CS14" s="235"/>
+      <c r="CT14" s="235">
         <f>CT12</f>
         <v>42170</v>
       </c>
-      <c r="CU14" s="242"/>
-      <c r="CV14" s="242"/>
-      <c r="CW14" s="242"/>
-      <c r="CX14" s="242"/>
-      <c r="CY14" s="242"/>
-      <c r="CZ14" s="242"/>
-      <c r="DA14" s="242">
+      <c r="CU14" s="235"/>
+      <c r="CV14" s="235"/>
+      <c r="CW14" s="235"/>
+      <c r="CX14" s="235"/>
+      <c r="CY14" s="235"/>
+      <c r="CZ14" s="235"/>
+      <c r="DA14" s="235">
         <f>DA12</f>
         <v>42177</v>
       </c>
-      <c r="DB14" s="242"/>
-      <c r="DC14" s="242"/>
-      <c r="DD14" s="242"/>
-      <c r="DE14" s="242"/>
-      <c r="DF14" s="242"/>
-      <c r="DG14" s="242"/>
-      <c r="DH14" s="242">
+      <c r="DB14" s="235"/>
+      <c r="DC14" s="235"/>
+      <c r="DD14" s="235"/>
+      <c r="DE14" s="235"/>
+      <c r="DF14" s="235"/>
+      <c r="DG14" s="235"/>
+      <c r="DH14" s="235">
         <f>DH12</f>
         <v>42184</v>
       </c>
-      <c r="DI14" s="242"/>
-      <c r="DJ14" s="242"/>
-      <c r="DK14" s="242"/>
-      <c r="DL14" s="242"/>
-      <c r="DM14" s="242"/>
-      <c r="DN14" s="242"/>
-      <c r="DO14" s="242">
+      <c r="DI14" s="235"/>
+      <c r="DJ14" s="235"/>
+      <c r="DK14" s="235"/>
+      <c r="DL14" s="235"/>
+      <c r="DM14" s="235"/>
+      <c r="DN14" s="235"/>
+      <c r="DO14" s="235">
         <f>DO12</f>
         <v>42191</v>
       </c>
-      <c r="DP14" s="242"/>
-      <c r="DQ14" s="242"/>
-      <c r="DR14" s="242"/>
-      <c r="DS14" s="242"/>
-      <c r="DT14" s="242"/>
-      <c r="DU14" s="242"/>
-      <c r="DV14" s="242">
+      <c r="DP14" s="235"/>
+      <c r="DQ14" s="235"/>
+      <c r="DR14" s="235"/>
+      <c r="DS14" s="235"/>
+      <c r="DT14" s="235"/>
+      <c r="DU14" s="235"/>
+      <c r="DV14" s="235">
         <f>DV12</f>
         <v>42198</v>
       </c>
-      <c r="DW14" s="242"/>
-      <c r="DX14" s="242"/>
-      <c r="DY14" s="242"/>
-      <c r="DZ14" s="242"/>
-      <c r="EA14" s="242"/>
-      <c r="EB14" s="242"/>
-      <c r="EC14" s="242">
+      <c r="DW14" s="235"/>
+      <c r="DX14" s="235"/>
+      <c r="DY14" s="235"/>
+      <c r="DZ14" s="235"/>
+      <c r="EA14" s="235"/>
+      <c r="EB14" s="235"/>
+      <c r="EC14" s="235">
         <f>EC12</f>
         <v>42205</v>
       </c>
-      <c r="ED14" s="242"/>
-      <c r="EE14" s="242"/>
-      <c r="EF14" s="242"/>
-      <c r="EG14" s="242"/>
-      <c r="EH14" s="242"/>
-      <c r="EI14" s="242"/>
-      <c r="EJ14" s="242">
+      <c r="ED14" s="235"/>
+      <c r="EE14" s="235"/>
+      <c r="EF14" s="235"/>
+      <c r="EG14" s="235"/>
+      <c r="EH14" s="235"/>
+      <c r="EI14" s="235"/>
+      <c r="EJ14" s="235">
         <f>EJ12</f>
         <v>42212</v>
       </c>
-      <c r="EK14" s="242"/>
-      <c r="EL14" s="242"/>
-      <c r="EM14" s="242"/>
-      <c r="EN14" s="242"/>
-      <c r="EO14" s="242"/>
-      <c r="EP14" s="244"/>
+      <c r="EK14" s="235"/>
+      <c r="EL14" s="235"/>
+      <c r="EM14" s="235"/>
+      <c r="EN14" s="235"/>
+      <c r="EO14" s="235"/>
+      <c r="EP14" s="236"/>
       <c r="EQ14" s="48"/>
     </row>
     <row r="15" spans="1:755" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13063,11 +13063,11 @@
         <v>42091</v>
       </c>
       <c r="H21" s="79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I21" s="68">
         <f t="shared" si="21"/>
-        <v>42096</v>
+        <v>42094</v>
       </c>
       <c r="J21" s="80">
         <v>0.2</v>
@@ -20116,45 +20116,45 @@
       <c r="EQ62" s="37"/>
     </row>
     <row r="63" spans="1:147" s="3" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="245"/>
-      <c r="B63" s="246"/>
-      <c r="C63" s="246"/>
-      <c r="D63" s="246"/>
-      <c r="E63" s="246"/>
-      <c r="F63" s="246"/>
-      <c r="G63" s="246"/>
-      <c r="H63" s="246"/>
-      <c r="I63" s="246"/>
-      <c r="J63" s="246"/>
-      <c r="K63" s="246"/>
-      <c r="L63" s="246"/>
-      <c r="M63" s="246"/>
-      <c r="N63" s="246"/>
-      <c r="O63" s="246"/>
-      <c r="P63" s="246"/>
-      <c r="Q63" s="246"/>
-      <c r="R63" s="246"/>
-      <c r="S63" s="246"/>
-      <c r="T63" s="246"/>
-      <c r="U63" s="246"/>
-      <c r="V63" s="246"/>
-      <c r="W63" s="246"/>
-      <c r="X63" s="246"/>
-      <c r="Y63" s="246"/>
-      <c r="Z63" s="246"/>
-      <c r="AA63" s="246"/>
-      <c r="AB63" s="246"/>
-      <c r="AC63" s="246"/>
-      <c r="AD63" s="246"/>
-      <c r="AE63" s="246"/>
-      <c r="AF63" s="246"/>
-      <c r="AG63" s="246"/>
-      <c r="AH63" s="246"/>
-      <c r="AI63" s="246"/>
-      <c r="AJ63" s="246"/>
-      <c r="AK63" s="246"/>
-      <c r="AL63" s="246"/>
-      <c r="AM63" s="246"/>
+      <c r="A63" s="237"/>
+      <c r="B63" s="238"/>
+      <c r="C63" s="238"/>
+      <c r="D63" s="238"/>
+      <c r="E63" s="238"/>
+      <c r="F63" s="238"/>
+      <c r="G63" s="238"/>
+      <c r="H63" s="238"/>
+      <c r="I63" s="238"/>
+      <c r="J63" s="238"/>
+      <c r="K63" s="238"/>
+      <c r="L63" s="238"/>
+      <c r="M63" s="238"/>
+      <c r="N63" s="238"/>
+      <c r="O63" s="238"/>
+      <c r="P63" s="238"/>
+      <c r="Q63" s="238"/>
+      <c r="R63" s="238"/>
+      <c r="S63" s="238"/>
+      <c r="T63" s="238"/>
+      <c r="U63" s="238"/>
+      <c r="V63" s="238"/>
+      <c r="W63" s="238"/>
+      <c r="X63" s="238"/>
+      <c r="Y63" s="238"/>
+      <c r="Z63" s="238"/>
+      <c r="AA63" s="238"/>
+      <c r="AB63" s="238"/>
+      <c r="AC63" s="238"/>
+      <c r="AD63" s="238"/>
+      <c r="AE63" s="238"/>
+      <c r="AF63" s="238"/>
+      <c r="AG63" s="238"/>
+      <c r="AH63" s="238"/>
+      <c r="AI63" s="238"/>
+      <c r="AJ63" s="238"/>
+      <c r="AK63" s="238"/>
+      <c r="AL63" s="238"/>
+      <c r="AM63" s="238"/>
       <c r="AN63" s="100"/>
       <c r="AO63" s="100"/>
       <c r="AP63" s="100"/>
@@ -20185,85 +20185,85 @@
       <c r="BO63" s="100"/>
       <c r="BP63" s="100"/>
       <c r="BQ63" s="100"/>
-      <c r="BR63" s="247" t="s">
+      <c r="BR63" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="BS63" s="247"/>
-      <c r="BT63" s="247"/>
-      <c r="BU63" s="247"/>
-      <c r="BV63" s="247"/>
-      <c r="BW63" s="247"/>
-      <c r="BX63" s="247"/>
-      <c r="BY63" s="247"/>
-      <c r="BZ63" s="247"/>
-      <c r="CA63" s="247"/>
-      <c r="CB63" s="247"/>
-      <c r="CC63" s="247"/>
-      <c r="CD63" s="247"/>
-      <c r="CE63" s="247"/>
-      <c r="CF63" s="247"/>
-      <c r="CG63" s="247"/>
-      <c r="CH63" s="247"/>
-      <c r="CI63" s="247"/>
-      <c r="CJ63" s="247"/>
-      <c r="CK63" s="247"/>
-      <c r="CL63" s="247"/>
-      <c r="CM63" s="247"/>
-      <c r="CN63" s="247"/>
-      <c r="CO63" s="247"/>
-      <c r="CP63" s="247"/>
-      <c r="CQ63" s="247"/>
-      <c r="CR63" s="247"/>
-      <c r="CS63" s="247"/>
-      <c r="CT63" s="247"/>
-      <c r="CU63" s="247"/>
-      <c r="CV63" s="247"/>
-      <c r="CW63" s="247"/>
-      <c r="CX63" s="247"/>
-      <c r="CY63" s="247"/>
-      <c r="CZ63" s="247"/>
-      <c r="DA63" s="247"/>
-      <c r="DB63" s="247"/>
-      <c r="DC63" s="247"/>
-      <c r="DD63" s="247"/>
-      <c r="DE63" s="247"/>
-      <c r="DF63" s="247"/>
-      <c r="DG63" s="247"/>
-      <c r="DH63" s="247"/>
-      <c r="DI63" s="247"/>
-      <c r="DJ63" s="247"/>
-      <c r="DK63" s="247"/>
-      <c r="DL63" s="247"/>
-      <c r="DM63" s="247"/>
-      <c r="DN63" s="247"/>
-      <c r="DO63" s="247"/>
-      <c r="DP63" s="247"/>
-      <c r="DQ63" s="247"/>
-      <c r="DR63" s="247"/>
-      <c r="DS63" s="247"/>
-      <c r="DT63" s="247"/>
-      <c r="DU63" s="247"/>
-      <c r="DV63" s="247"/>
-      <c r="DW63" s="247"/>
-      <c r="DX63" s="247"/>
-      <c r="DY63" s="247"/>
-      <c r="DZ63" s="247"/>
-      <c r="EA63" s="247"/>
-      <c r="EB63" s="247"/>
-      <c r="EC63" s="247"/>
-      <c r="ED63" s="247"/>
-      <c r="EE63" s="247"/>
-      <c r="EF63" s="247"/>
-      <c r="EG63" s="247"/>
-      <c r="EH63" s="247"/>
-      <c r="EI63" s="247"/>
-      <c r="EJ63" s="247"/>
-      <c r="EK63" s="247"/>
-      <c r="EL63" s="247"/>
-      <c r="EM63" s="247"/>
-      <c r="EN63" s="247"/>
-      <c r="EO63" s="247"/>
-      <c r="EP63" s="248"/>
+      <c r="BS63" s="239"/>
+      <c r="BT63" s="239"/>
+      <c r="BU63" s="239"/>
+      <c r="BV63" s="239"/>
+      <c r="BW63" s="239"/>
+      <c r="BX63" s="239"/>
+      <c r="BY63" s="239"/>
+      <c r="BZ63" s="239"/>
+      <c r="CA63" s="239"/>
+      <c r="CB63" s="239"/>
+      <c r="CC63" s="239"/>
+      <c r="CD63" s="239"/>
+      <c r="CE63" s="239"/>
+      <c r="CF63" s="239"/>
+      <c r="CG63" s="239"/>
+      <c r="CH63" s="239"/>
+      <c r="CI63" s="239"/>
+      <c r="CJ63" s="239"/>
+      <c r="CK63" s="239"/>
+      <c r="CL63" s="239"/>
+      <c r="CM63" s="239"/>
+      <c r="CN63" s="239"/>
+      <c r="CO63" s="239"/>
+      <c r="CP63" s="239"/>
+      <c r="CQ63" s="239"/>
+      <c r="CR63" s="239"/>
+      <c r="CS63" s="239"/>
+      <c r="CT63" s="239"/>
+      <c r="CU63" s="239"/>
+      <c r="CV63" s="239"/>
+      <c r="CW63" s="239"/>
+      <c r="CX63" s="239"/>
+      <c r="CY63" s="239"/>
+      <c r="CZ63" s="239"/>
+      <c r="DA63" s="239"/>
+      <c r="DB63" s="239"/>
+      <c r="DC63" s="239"/>
+      <c r="DD63" s="239"/>
+      <c r="DE63" s="239"/>
+      <c r="DF63" s="239"/>
+      <c r="DG63" s="239"/>
+      <c r="DH63" s="239"/>
+      <c r="DI63" s="239"/>
+      <c r="DJ63" s="239"/>
+      <c r="DK63" s="239"/>
+      <c r="DL63" s="239"/>
+      <c r="DM63" s="239"/>
+      <c r="DN63" s="239"/>
+      <c r="DO63" s="239"/>
+      <c r="DP63" s="239"/>
+      <c r="DQ63" s="239"/>
+      <c r="DR63" s="239"/>
+      <c r="DS63" s="239"/>
+      <c r="DT63" s="239"/>
+      <c r="DU63" s="239"/>
+      <c r="DV63" s="239"/>
+      <c r="DW63" s="239"/>
+      <c r="DX63" s="239"/>
+      <c r="DY63" s="239"/>
+      <c r="DZ63" s="239"/>
+      <c r="EA63" s="239"/>
+      <c r="EB63" s="239"/>
+      <c r="EC63" s="239"/>
+      <c r="ED63" s="239"/>
+      <c r="EE63" s="239"/>
+      <c r="EF63" s="239"/>
+      <c r="EG63" s="239"/>
+      <c r="EH63" s="239"/>
+      <c r="EI63" s="239"/>
+      <c r="EJ63" s="239"/>
+      <c r="EK63" s="239"/>
+      <c r="EL63" s="239"/>
+      <c r="EM63" s="239"/>
+      <c r="EN63" s="239"/>
+      <c r="EO63" s="239"/>
+      <c r="EP63" s="240"/>
       <c r="EQ63" s="48"/>
     </row>
     <row r="64" spans="1:147" x14ac:dyDescent="0.25">
@@ -20415,155 +20415,203 @@
       <c r="EQ64" s="37"/>
     </row>
     <row r="65" spans="1:146" x14ac:dyDescent="0.25">
-      <c r="A65" s="243"/>
-      <c r="B65" s="243"/>
-      <c r="C65" s="243"/>
-      <c r="D65" s="243"/>
-      <c r="E65" s="243"/>
-      <c r="F65" s="243"/>
-      <c r="G65" s="243"/>
-      <c r="H65" s="243"/>
-      <c r="I65" s="243"/>
-      <c r="J65" s="243"/>
-      <c r="K65" s="243"/>
-      <c r="L65" s="243"/>
-      <c r="M65" s="243"/>
-      <c r="N65" s="243"/>
-      <c r="O65" s="243"/>
-      <c r="P65" s="243"/>
-      <c r="Q65" s="243"/>
-      <c r="R65" s="243"/>
-      <c r="S65" s="243"/>
-      <c r="T65" s="243"/>
-      <c r="U65" s="243"/>
-      <c r="V65" s="243"/>
-      <c r="W65" s="243"/>
-      <c r="X65" s="243"/>
-      <c r="Y65" s="243"/>
-      <c r="Z65" s="243"/>
-      <c r="AA65" s="243"/>
-      <c r="AB65" s="243"/>
-      <c r="AC65" s="243"/>
-      <c r="AD65" s="243"/>
-      <c r="AE65" s="243"/>
-      <c r="AF65" s="243"/>
-      <c r="AG65" s="243"/>
-      <c r="AH65" s="243"/>
-      <c r="AI65" s="243"/>
-      <c r="AJ65" s="243"/>
-      <c r="AK65" s="243"/>
-      <c r="AL65" s="243"/>
-      <c r="AM65" s="243"/>
-      <c r="AN65" s="243"/>
-      <c r="AO65" s="243"/>
-      <c r="AP65" s="243"/>
-      <c r="AQ65" s="243"/>
-      <c r="AR65" s="243"/>
-      <c r="AS65" s="243"/>
-      <c r="AT65" s="243"/>
-      <c r="AU65" s="243"/>
-      <c r="AV65" s="243"/>
-      <c r="AW65" s="243"/>
-      <c r="AX65" s="243"/>
-      <c r="AY65" s="243"/>
-      <c r="AZ65" s="243"/>
-      <c r="BA65" s="243"/>
-      <c r="BB65" s="243"/>
-      <c r="BC65" s="243"/>
-      <c r="BD65" s="243"/>
-      <c r="BE65" s="243"/>
-      <c r="BF65" s="243"/>
-      <c r="BG65" s="243"/>
-      <c r="BH65" s="243"/>
-      <c r="BI65" s="243"/>
-      <c r="BJ65" s="243"/>
-      <c r="BK65" s="243"/>
-      <c r="BL65" s="243"/>
-      <c r="BM65" s="243"/>
-      <c r="BN65" s="243"/>
-      <c r="BO65" s="243"/>
-      <c r="BP65" s="243"/>
-      <c r="BQ65" s="243"/>
-      <c r="BR65" s="243"/>
-      <c r="BS65" s="243"/>
-      <c r="BT65" s="243"/>
-      <c r="BU65" s="243"/>
-      <c r="BV65" s="243"/>
-      <c r="BW65" s="243"/>
-      <c r="BX65" s="243"/>
-      <c r="BY65" s="243"/>
-      <c r="BZ65" s="243"/>
-      <c r="CA65" s="243"/>
-      <c r="CB65" s="243"/>
-      <c r="CC65" s="243"/>
-      <c r="CD65" s="243"/>
-      <c r="CE65" s="243"/>
-      <c r="CF65" s="243"/>
-      <c r="CG65" s="243"/>
-      <c r="CH65" s="243"/>
-      <c r="CI65" s="243"/>
-      <c r="CJ65" s="243"/>
-      <c r="CK65" s="243"/>
-      <c r="CL65" s="243"/>
-      <c r="CM65" s="243"/>
-      <c r="CN65" s="243"/>
-      <c r="CO65" s="243"/>
-      <c r="CP65" s="243"/>
-      <c r="CQ65" s="243"/>
-      <c r="CR65" s="243"/>
-      <c r="CS65" s="243"/>
-      <c r="CT65" s="243"/>
-      <c r="CU65" s="243"/>
-      <c r="CV65" s="243"/>
-      <c r="CW65" s="243"/>
-      <c r="CX65" s="243"/>
-      <c r="CY65" s="243"/>
-      <c r="CZ65" s="243"/>
-      <c r="DA65" s="243"/>
-      <c r="DB65" s="243"/>
-      <c r="DC65" s="243"/>
-      <c r="DD65" s="243"/>
-      <c r="DE65" s="243"/>
-      <c r="DF65" s="243"/>
-      <c r="DG65" s="243"/>
-      <c r="DH65" s="243"/>
-      <c r="DI65" s="243"/>
-      <c r="DJ65" s="243"/>
-      <c r="DK65" s="243"/>
-      <c r="DL65" s="243"/>
-      <c r="DM65" s="243"/>
-      <c r="DN65" s="243"/>
-      <c r="DO65" s="243"/>
-      <c r="DP65" s="243"/>
-      <c r="DQ65" s="243"/>
-      <c r="DR65" s="243"/>
-      <c r="DS65" s="243"/>
-      <c r="DT65" s="243"/>
-      <c r="DU65" s="243"/>
-      <c r="DV65" s="243"/>
-      <c r="DW65" s="243"/>
-      <c r="DX65" s="243"/>
-      <c r="DY65" s="243"/>
-      <c r="DZ65" s="243"/>
-      <c r="EA65" s="243"/>
-      <c r="EB65" s="243"/>
-      <c r="EC65" s="243"/>
-      <c r="ED65" s="243"/>
-      <c r="EE65" s="243"/>
-      <c r="EF65" s="243"/>
-      <c r="EG65" s="243"/>
-      <c r="EH65" s="243"/>
-      <c r="EI65" s="243"/>
-      <c r="EJ65" s="243"/>
-      <c r="EK65" s="243"/>
-      <c r="EL65" s="243"/>
-      <c r="EM65" s="243"/>
-      <c r="EN65" s="243"/>
-      <c r="EO65" s="243"/>
-      <c r="EP65" s="243"/>
+      <c r="A65" s="234"/>
+      <c r="B65" s="234"/>
+      <c r="C65" s="234"/>
+      <c r="D65" s="234"/>
+      <c r="E65" s="234"/>
+      <c r="F65" s="234"/>
+      <c r="G65" s="234"/>
+      <c r="H65" s="234"/>
+      <c r="I65" s="234"/>
+      <c r="J65" s="234"/>
+      <c r="K65" s="234"/>
+      <c r="L65" s="234"/>
+      <c r="M65" s="234"/>
+      <c r="N65" s="234"/>
+      <c r="O65" s="234"/>
+      <c r="P65" s="234"/>
+      <c r="Q65" s="234"/>
+      <c r="R65" s="234"/>
+      <c r="S65" s="234"/>
+      <c r="T65" s="234"/>
+      <c r="U65" s="234"/>
+      <c r="V65" s="234"/>
+      <c r="W65" s="234"/>
+      <c r="X65" s="234"/>
+      <c r="Y65" s="234"/>
+      <c r="Z65" s="234"/>
+      <c r="AA65" s="234"/>
+      <c r="AB65" s="234"/>
+      <c r="AC65" s="234"/>
+      <c r="AD65" s="234"/>
+      <c r="AE65" s="234"/>
+      <c r="AF65" s="234"/>
+      <c r="AG65" s="234"/>
+      <c r="AH65" s="234"/>
+      <c r="AI65" s="234"/>
+      <c r="AJ65" s="234"/>
+      <c r="AK65" s="234"/>
+      <c r="AL65" s="234"/>
+      <c r="AM65" s="234"/>
+      <c r="AN65" s="234"/>
+      <c r="AO65" s="234"/>
+      <c r="AP65" s="234"/>
+      <c r="AQ65" s="234"/>
+      <c r="AR65" s="234"/>
+      <c r="AS65" s="234"/>
+      <c r="AT65" s="234"/>
+      <c r="AU65" s="234"/>
+      <c r="AV65" s="234"/>
+      <c r="AW65" s="234"/>
+      <c r="AX65" s="234"/>
+      <c r="AY65" s="234"/>
+      <c r="AZ65" s="234"/>
+      <c r="BA65" s="234"/>
+      <c r="BB65" s="234"/>
+      <c r="BC65" s="234"/>
+      <c r="BD65" s="234"/>
+      <c r="BE65" s="234"/>
+      <c r="BF65" s="234"/>
+      <c r="BG65" s="234"/>
+      <c r="BH65" s="234"/>
+      <c r="BI65" s="234"/>
+      <c r="BJ65" s="234"/>
+      <c r="BK65" s="234"/>
+      <c r="BL65" s="234"/>
+      <c r="BM65" s="234"/>
+      <c r="BN65" s="234"/>
+      <c r="BO65" s="234"/>
+      <c r="BP65" s="234"/>
+      <c r="BQ65" s="234"/>
+      <c r="BR65" s="234"/>
+      <c r="BS65" s="234"/>
+      <c r="BT65" s="234"/>
+      <c r="BU65" s="234"/>
+      <c r="BV65" s="234"/>
+      <c r="BW65" s="234"/>
+      <c r="BX65" s="234"/>
+      <c r="BY65" s="234"/>
+      <c r="BZ65" s="234"/>
+      <c r="CA65" s="234"/>
+      <c r="CB65" s="234"/>
+      <c r="CC65" s="234"/>
+      <c r="CD65" s="234"/>
+      <c r="CE65" s="234"/>
+      <c r="CF65" s="234"/>
+      <c r="CG65" s="234"/>
+      <c r="CH65" s="234"/>
+      <c r="CI65" s="234"/>
+      <c r="CJ65" s="234"/>
+      <c r="CK65" s="234"/>
+      <c r="CL65" s="234"/>
+      <c r="CM65" s="234"/>
+      <c r="CN65" s="234"/>
+      <c r="CO65" s="234"/>
+      <c r="CP65" s="234"/>
+      <c r="CQ65" s="234"/>
+      <c r="CR65" s="234"/>
+      <c r="CS65" s="234"/>
+      <c r="CT65" s="234"/>
+      <c r="CU65" s="234"/>
+      <c r="CV65" s="234"/>
+      <c r="CW65" s="234"/>
+      <c r="CX65" s="234"/>
+      <c r="CY65" s="234"/>
+      <c r="CZ65" s="234"/>
+      <c r="DA65" s="234"/>
+      <c r="DB65" s="234"/>
+      <c r="DC65" s="234"/>
+      <c r="DD65" s="234"/>
+      <c r="DE65" s="234"/>
+      <c r="DF65" s="234"/>
+      <c r="DG65" s="234"/>
+      <c r="DH65" s="234"/>
+      <c r="DI65" s="234"/>
+      <c r="DJ65" s="234"/>
+      <c r="DK65" s="234"/>
+      <c r="DL65" s="234"/>
+      <c r="DM65" s="234"/>
+      <c r="DN65" s="234"/>
+      <c r="DO65" s="234"/>
+      <c r="DP65" s="234"/>
+      <c r="DQ65" s="234"/>
+      <c r="DR65" s="234"/>
+      <c r="DS65" s="234"/>
+      <c r="DT65" s="234"/>
+      <c r="DU65" s="234"/>
+      <c r="DV65" s="234"/>
+      <c r="DW65" s="234"/>
+      <c r="DX65" s="234"/>
+      <c r="DY65" s="234"/>
+      <c r="DZ65" s="234"/>
+      <c r="EA65" s="234"/>
+      <c r="EB65" s="234"/>
+      <c r="EC65" s="234"/>
+      <c r="ED65" s="234"/>
+      <c r="EE65" s="234"/>
+      <c r="EF65" s="234"/>
+      <c r="EG65" s="234"/>
+      <c r="EH65" s="234"/>
+      <c r="EI65" s="234"/>
+      <c r="EJ65" s="234"/>
+      <c r="EK65" s="234"/>
+      <c r="EL65" s="234"/>
+      <c r="EM65" s="234"/>
+      <c r="EN65" s="234"/>
+      <c r="EO65" s="234"/>
+      <c r="EP65" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AI13:AM13"/>
+    <mergeCell ref="AP13:AT13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="BY11:EP11"/>
+    <mergeCell ref="DV13:DZ13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="BD13:BH13"/>
+    <mergeCell ref="BK13:BO13"/>
+    <mergeCell ref="BR13:BV13"/>
+    <mergeCell ref="BY13:CC13"/>
+    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="BK14:BO14"/>
+    <mergeCell ref="EC13:EG13"/>
+    <mergeCell ref="EJ13:EN13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AT14"/>
+    <mergeCell ref="CM13:CQ13"/>
+    <mergeCell ref="CT13:CX13"/>
+    <mergeCell ref="DA13:DE13"/>
+    <mergeCell ref="DH13:DL13"/>
+    <mergeCell ref="DO13:DS13"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BD14:BH14"/>
+    <mergeCell ref="BI14:BJ14"/>
+    <mergeCell ref="CR14:CS14"/>
+    <mergeCell ref="CT14:CX14"/>
+    <mergeCell ref="CY14:CZ14"/>
+    <mergeCell ref="DA14:DE14"/>
+    <mergeCell ref="BP14:BQ14"/>
+    <mergeCell ref="BR14:BV14"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BY14:CC14"/>
+    <mergeCell ref="CD14:CE14"/>
+    <mergeCell ref="CF14:CJ14"/>
     <mergeCell ref="A65:EP65"/>
     <mergeCell ref="EA14:EB14"/>
     <mergeCell ref="EC14:EG14"/>
@@ -20580,54 +20628,6 @@
     <mergeCell ref="DV14:DZ14"/>
     <mergeCell ref="CK14:CL14"/>
     <mergeCell ref="CM14:CQ14"/>
-    <mergeCell ref="CR14:CS14"/>
-    <mergeCell ref="CT14:CX14"/>
-    <mergeCell ref="CY14:CZ14"/>
-    <mergeCell ref="DA14:DE14"/>
-    <mergeCell ref="BP14:BQ14"/>
-    <mergeCell ref="BR14:BV14"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BY14:CC14"/>
-    <mergeCell ref="CD14:CE14"/>
-    <mergeCell ref="CF14:CJ14"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BD14:BH14"/>
-    <mergeCell ref="BI14:BJ14"/>
-    <mergeCell ref="BK14:BO14"/>
-    <mergeCell ref="EC13:EG13"/>
-    <mergeCell ref="EJ13:EN13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AT14"/>
-    <mergeCell ref="CM13:CQ13"/>
-    <mergeCell ref="CT13:CX13"/>
-    <mergeCell ref="DA13:DE13"/>
-    <mergeCell ref="DH13:DL13"/>
-    <mergeCell ref="DO13:DS13"/>
-    <mergeCell ref="DV13:DZ13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="BD13:BH13"/>
-    <mergeCell ref="BK13:BO13"/>
-    <mergeCell ref="BR13:BV13"/>
-    <mergeCell ref="BY13:CC13"/>
-    <mergeCell ref="CF13:CJ13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="BY11:EP11"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AI13:AM13"/>
-    <mergeCell ref="AP13:AT13"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H38:H61 H29:H36">
     <cfRule type="expression" dxfId="73" priority="65">

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="96">
   <si>
     <t>Zeitfenster</t>
   </si>
@@ -543,9 +543,6 @@
     <t>Testdaten erstellen</t>
   </si>
   <si>
-    <t>Vergleich Korpi</t>
-  </si>
-  <si>
     <t>Implementierung Tests</t>
   </si>
   <si>
@@ -568,6 +565,15 @@
   </si>
   <si>
     <t>Thesis vervollständigen</t>
+  </si>
+  <si>
+    <t>Analyse semantische Beziehungen</t>
+  </si>
+  <si>
+    <t>Aufbau Thesis</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -2144,7 +2150,119 @@
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="196">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2402,6 +2520,278 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF99D709"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF538235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF1A2501"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF99D709"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF538235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF1A2501"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF99D709"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF538235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF1A2501"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2454,6 +2844,18 @@
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2662,6 +3064,610 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF99D709"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF538235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF1A2501"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF99D709"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF538235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF1A2501"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF99D709"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF538235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF1A2501"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3041,12 +4047,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ACA65"/>
+  <dimension ref="A1:ACA69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="G23" sqref="G23"/>
+      <selection pane="topRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3056,7 +4062,7 @@
     <col min="3" max="3" width="7.42578125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="104" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="8.5703125" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="9.42578125" style="104" customWidth="1" outlineLevel="1"/>
@@ -12213,7 +13219,7 @@
       <c r="G16" s="66"/>
       <c r="H16" s="67"/>
       <c r="I16" s="68" t="str">
-        <f t="shared" ref="I16:I60" si="21">IF(G16="","",IF(H16="M","",IF(H16="","",G16+H16-1)))</f>
+        <f t="shared" ref="I16:I64" si="21">IF(G16="","",IF(H16="M","",IF(H16="","",G16+H16-1)))</f>
         <v/>
       </c>
       <c r="J16" s="69"/>
@@ -12222,7 +13228,7 @@
         <v/>
       </c>
       <c r="L16" s="226" t="str">
-        <f t="shared" ref="L16:L62" si="22">IF(G16="","",IF(H16="M","",ROUND(J16*SUM(I16-G16+1),0)))</f>
+        <f t="shared" ref="L16:L66" si="22">IF(G16="","",IF(H16="M","",ROUND(J16*SUM(I16-G16+1),0)))</f>
         <v/>
       </c>
       <c r="M16" s="227" t="str">
@@ -12391,7 +13397,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="70">
-        <f t="shared" ref="K17:K61" ca="1" si="23">IF(G17="","",IF(H17="","",IF(J17=1,999,IF(H17="M",G17-TODAY(),M17-TODAY()))))</f>
+        <f t="shared" ref="K17:K65" ca="1" si="23">IF(G17="","",IF(H17="","",IF(J17=1,999,IF(H17="M",G17-TODAY(),M17-TODAY()))))</f>
         <v>999</v>
       </c>
       <c r="L17" s="228" t="str">
@@ -12399,7 +13405,7 @@
         <v/>
       </c>
       <c r="M17" s="227" t="str">
-        <f t="shared" ref="M17:M60" si="24">IF(G17="","",IF(I17="","",G17+L17-1))</f>
+        <f t="shared" ref="M17:M64" si="24">IF(G17="","",IF(I17="","",G17+L17-1))</f>
         <v/>
       </c>
       <c r="N17" s="206"/>
@@ -12725,19 +13731,19 @@
       </c>
       <c r="J19" s="80">
         <f>AVERAGE(J20:J21)</f>
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="K19" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-1</v>
+        <v>999</v>
       </c>
       <c r="L19" s="228">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M19" s="227">
         <f t="shared" si="24"/>
-        <v>42092</v>
+        <v>42096</v>
       </c>
       <c r="N19" s="206"/>
       <c r="O19" s="83"/>
@@ -12897,11 +13903,11 @@
         <v>42090</v>
       </c>
       <c r="J20" s="80">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K20" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-3</v>
+        <v>999</v>
       </c>
       <c r="L20" s="228">
         <f t="shared" si="22"/>
@@ -13070,19 +14076,19 @@
         <v>42094</v>
       </c>
       <c r="J21" s="80">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K21" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-2</v>
+        <v>999</v>
       </c>
       <c r="L21" s="228">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" s="227">
         <f t="shared" si="24"/>
-        <v>42091</v>
+        <v>42094</v>
       </c>
       <c r="N21" s="206"/>
       <c r="O21" s="83"/>
@@ -13396,7 +14402,6 @@
       <c r="E23" s="76"/>
       <c r="F23" s="77"/>
       <c r="G23" s="78">
-        <f>I19+1</f>
         <v>42097</v>
       </c>
       <c r="H23" s="79">
@@ -13408,11 +14413,11 @@
       </c>
       <c r="J23" s="80">
         <f>AVERAGE(J24:J28)</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
@@ -13585,7 +14590,7 @@
       </c>
       <c r="K24" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24" s="228">
         <f t="shared" si="22"/>
@@ -13758,7 +14763,7 @@
       </c>
       <c r="K25" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L25" s="228">
         <f t="shared" si="22"/>
@@ -13920,18 +14925,18 @@
         <v>42108</v>
       </c>
       <c r="H26" s="79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" s="68">
         <f t="shared" si="21"/>
-        <v>42114</v>
+        <v>42113</v>
       </c>
       <c r="J26" s="80">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
@@ -14077,33 +15082,42 @@
       <c r="EQ26" s="85"/>
     </row>
     <row r="27" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="63" t="str">
+      <c r="A27" s="63">
         <f>IF(B27="","",IF(A26="",IF(MAX($A$16:A26)=0,1,ROUNDDOWN(MAX($A$16:A26)+1,0)),A26+0.01))</f>
-        <v/>
-      </c>
-      <c r="B27" s="76"/>
+        <v>3.0399999999999991</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>94</v>
+      </c>
       <c r="C27" s="76"/>
       <c r="D27" s="76"/>
       <c r="E27" s="76"/>
       <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="68" t="str">
+      <c r="G27" s="78">
+        <f>I26+1</f>
+        <v>42114</v>
+      </c>
+      <c r="H27" s="79">
+        <v>2</v>
+      </c>
+      <c r="I27" s="68">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="J27" s="80"/>
-      <c r="K27" s="70" t="str">
+        <v>42115</v>
+      </c>
+      <c r="J27" s="80">
+        <v>0</v>
+      </c>
+      <c r="K27" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="L27" s="228" t="str">
+        <v>18</v>
+      </c>
+      <c r="L27" s="228">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M27" s="229" t="str">
+        <v>0</v>
+      </c>
+      <c r="M27" s="229">
         <f t="shared" si="24"/>
-        <v/>
+        <v>42113</v>
       </c>
       <c r="N27" s="206"/>
       <c r="O27" s="83"/>
@@ -14428,12 +15442,12 @@
         <v>42131</v>
       </c>
       <c r="J29" s="80">
-        <f>AVERAGE(J30:J33)</f>
+        <f>AVERAGE(J30:J34)</f>
         <v>0</v>
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
@@ -14606,7 +15620,7 @@
       </c>
       <c r="K30" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L30" s="228">
         <f t="shared" si="22"/>
@@ -14757,7 +15771,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="76"/>
       <c r="D31" s="76"/>
@@ -14779,7 +15793,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
@@ -14925,33 +15939,42 @@
       <c r="EQ31" s="85"/>
     </row>
     <row r="32" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="str">
+      <c r="A32" s="63">
         <f>IF(B32="","",IF(A31="",IF(MAX($A$16:A31)=0,1,ROUNDDOWN(MAX($A$16:A31)+1,0)),A31+0.01))</f>
-        <v/>
-      </c>
-      <c r="B32" s="76"/>
+        <v>4.0299999999999994</v>
+      </c>
+      <c r="B32" s="76" t="s">
+        <v>95</v>
+      </c>
       <c r="C32" s="76"/>
       <c r="D32" s="76"/>
       <c r="E32" s="76"/>
       <c r="F32" s="77"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="68" t="str">
+      <c r="G32" s="78">
+        <f>G29</f>
+        <v>42118</v>
+      </c>
+      <c r="H32" s="79">
+        <v>14</v>
+      </c>
+      <c r="I32" s="68">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="J32" s="80"/>
-      <c r="K32" s="70" t="str">
+        <v>42131</v>
+      </c>
+      <c r="J32" s="80">
+        <v>0</v>
+      </c>
+      <c r="K32" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="L32" s="228" t="str">
+        <v>22</v>
+      </c>
+      <c r="L32" s="228">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M32" s="229" t="str">
+        <v>0</v>
+      </c>
+      <c r="M32" s="229">
         <f t="shared" si="24"/>
-        <v/>
+        <v>42117</v>
       </c>
       <c r="N32" s="206"/>
       <c r="O32" s="83"/>
@@ -15090,7 +16113,7 @@
     </row>
     <row r="33" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="63" t="str">
-        <f>IF(B33="","",IF(A32="",IF(MAX($A$16:A32)=0,1,ROUNDDOWN(MAX($A$16:A32)+1,0)),A32+0.01))</f>
+        <f>IF(B33="","",IF(A31="",IF(MAX($A$16:A31)=0,1,ROUNDDOWN(MAX($A$16:A31)+1,0)),A31+0.01))</f>
         <v/>
       </c>
       <c r="B33" s="76"/>
@@ -15253,43 +16276,33 @@
       <c r="EQ33" s="85"/>
     </row>
     <row r="34" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="63">
+      <c r="A34" s="63" t="str">
         <f>IF(B34="","",IF(A33="",IF(MAX($A$16:A33)=0,1,ROUNDDOWN(MAX($A$16:A33)+1,0)),A33+0.01))</f>
-        <v>5</v>
-      </c>
-      <c r="B34" s="76" t="s">
-        <v>85</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B34" s="76"/>
       <c r="C34" s="76"/>
       <c r="D34" s="76"/>
       <c r="E34" s="76"/>
       <c r="F34" s="77"/>
-      <c r="G34" s="78">
-        <f>I29+1</f>
-        <v>42132</v>
-      </c>
-      <c r="H34" s="79">
-        <v>15</v>
-      </c>
-      <c r="I34" s="68">
+      <c r="G34" s="78"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="68" t="str">
         <f t="shared" si="21"/>
-        <v>42146</v>
-      </c>
-      <c r="J34" s="80">
-        <f>AVERAGE(J35:J39)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="70">
+        <v/>
+      </c>
+      <c r="J34" s="80"/>
+      <c r="K34" s="70" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>38</v>
-      </c>
-      <c r="L34" s="228">
+        <v/>
+      </c>
+      <c r="L34" s="228" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="229">
+        <v/>
+      </c>
+      <c r="M34" s="229" t="str">
         <f t="shared" si="24"/>
-        <v>42131</v>
+        <v/>
       </c>
       <c r="N34" s="206"/>
       <c r="O34" s="83"/>
@@ -15429,32 +16442,33 @@
     <row r="35" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="63">
         <f>IF(B35="","",IF(A34="",IF(MAX($A$16:A34)=0,1,ROUNDDOWN(MAX($A$16:A34)+1,0)),A34+0.01))</f>
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76"/>
       <c r="E35" s="76"/>
       <c r="F35" s="77"/>
       <c r="G35" s="78">
-        <f>G34</f>
+        <f>I29+1</f>
         <v>42132</v>
       </c>
       <c r="H35" s="79">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I35" s="68">
         <f t="shared" si="21"/>
-        <v>42136</v>
+        <v>42146</v>
       </c>
       <c r="J35" s="80">
+        <f>AVERAGE(J36:J41)</f>
         <v>0</v>
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
@@ -15602,32 +16616,32 @@
     <row r="36" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="63">
         <f>IF(B36="","",IF(A35="",IF(MAX($A$16:A35)=0,1,ROUNDDOWN(MAX($A$16:A35)+1,0)),A35+0.01))</f>
-        <v>5.0199999999999996</v>
+        <v>5.01</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76"/>
       <c r="E36" s="76"/>
       <c r="F36" s="77"/>
       <c r="G36" s="78">
-        <f>I35+1</f>
-        <v>42137</v>
+        <f>G35</f>
+        <v>42132</v>
       </c>
       <c r="H36" s="79">
         <v>5</v>
       </c>
       <c r="I36" s="68">
         <f t="shared" si="21"/>
-        <v>42141</v>
+        <v>42136</v>
       </c>
       <c r="J36" s="80">
         <v>0</v>
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
@@ -15635,7 +16649,7 @@
       </c>
       <c r="M36" s="229">
         <f t="shared" si="24"/>
-        <v>42136</v>
+        <v>42131</v>
       </c>
       <c r="N36" s="206"/>
       <c r="O36" s="83"/>
@@ -15775,10 +16789,10 @@
     <row r="37" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="63">
         <f>IF(B37="","",IF(A36="",IF(MAX($A$16:A36)=0,1,ROUNDDOWN(MAX($A$16:A36)+1,0)),A36+0.01))</f>
-        <v>5.0299999999999994</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="B37" s="76" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C37" s="76"/>
       <c r="D37" s="76"/>
@@ -15786,21 +16800,21 @@
       <c r="F37" s="77"/>
       <c r="G37" s="78">
         <f>I36+1</f>
-        <v>42142</v>
+        <v>42137</v>
       </c>
       <c r="H37" s="79">
         <v>5</v>
       </c>
       <c r="I37" s="68">
         <f t="shared" si="21"/>
-        <v>42146</v>
+        <v>42141</v>
       </c>
       <c r="J37" s="80">
         <v>0</v>
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
@@ -15808,7 +16822,7 @@
       </c>
       <c r="M37" s="229">
         <f t="shared" si="24"/>
-        <v>42141</v>
+        <v>42136</v>
       </c>
       <c r="N37" s="206"/>
       <c r="O37" s="83"/>
@@ -15945,42 +16959,43 @@
       <c r="EP37" s="84"/>
       <c r="EQ37" s="85"/>
     </row>
-    <row r="38" spans="1:147" s="86" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="63">
         <f>IF(B38="","",IF(A37="",IF(MAX($A$16:A37)=0,1,ROUNDDOWN(MAX($A$16:A37)+1,0)),A37+0.01))</f>
-        <v>5.0399999999999991</v>
+        <v>5.0299999999999994</v>
       </c>
       <c r="B38" s="76" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C38" s="76"/>
       <c r="D38" s="76"/>
       <c r="E38" s="76"/>
       <c r="F38" s="77"/>
       <c r="G38" s="78">
+        <f>I37+1</f>
+        <v>42142</v>
+      </c>
+      <c r="H38" s="79">
+        <v>5</v>
+      </c>
+      <c r="I38" s="68">
+        <f t="shared" si="21"/>
         <v>42146</v>
-      </c>
-      <c r="H38" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="68" t="str">
-        <f t="shared" si="21"/>
-        <v/>
       </c>
       <c r="J38" s="80">
         <v>0</v>
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>53</v>
-      </c>
-      <c r="L38" s="228" t="str">
+        <v>46</v>
+      </c>
+      <c r="L38" s="228">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M38" s="229" t="str">
+        <v>0</v>
+      </c>
+      <c r="M38" s="229">
         <f t="shared" si="24"/>
-        <v/>
+        <v>42141</v>
       </c>
       <c r="N38" s="206"/>
       <c r="O38" s="83"/>
@@ -16117,34 +17132,41 @@
       <c r="EP38" s="84"/>
       <c r="EQ38" s="85"/>
     </row>
-    <row r="39" spans="1:147" s="86" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="63" t="str">
+    <row r="39" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="63">
         <f>IF(B39="","",IF(A38="",IF(MAX($A$16:A38)=0,1,ROUNDDOWN(MAX($A$16:A38)+1,0)),A38+0.01))</f>
-        <v/>
-      </c>
-      <c r="B39" s="76"/>
+        <v>5.0399999999999991</v>
+      </c>
+      <c r="B39" s="76" t="s">
+        <v>95</v>
+      </c>
       <c r="C39" s="76"/>
       <c r="D39" s="76"/>
       <c r="E39" s="76"/>
       <c r="F39" s="77"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="68" t="str">
+      <c r="G39" s="78">
+        <f>G35</f>
+        <v>42132</v>
+      </c>
+      <c r="H39" s="79">
+        <v>15</v>
+      </c>
+      <c r="I39" s="68">
         <f t="shared" si="21"/>
-        <v/>
+        <v>42146</v>
       </c>
       <c r="J39" s="80"/>
-      <c r="K39" s="70" t="str">
+      <c r="K39" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="L39" s="228" t="str">
+        <v>36</v>
+      </c>
+      <c r="L39" s="228">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M39" s="229" t="str">
+        <v>0</v>
+      </c>
+      <c r="M39" s="229">
         <f t="shared" si="24"/>
-        <v/>
+        <v>42131</v>
       </c>
       <c r="N39" s="206"/>
       <c r="O39" s="83"/>
@@ -16284,40 +17306,39 @@
     <row r="40" spans="1:147" s="86" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="63">
         <f>IF(B40="","",IF(A39="",IF(MAX($A$16:A39)=0,1,ROUNDDOWN(MAX($A$16:A39)+1,0)),A39+0.01))</f>
-        <v>6</v>
+        <v>5.0499999999999989</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C40" s="76"/>
       <c r="D40" s="76"/>
       <c r="E40" s="76"/>
       <c r="F40" s="77"/>
       <c r="G40" s="78">
-        <v>42156</v>
-      </c>
-      <c r="H40" s="79">
-        <v>14</v>
-      </c>
-      <c r="I40" s="68">
+        <v>42146</v>
+      </c>
+      <c r="H40" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="68" t="str">
         <f t="shared" si="21"/>
-        <v>42169</v>
+        <v/>
       </c>
       <c r="J40" s="80">
-        <f>AVERAGE(J41:J44)</f>
         <v>0</v>
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>62</v>
-      </c>
-      <c r="L40" s="228">
+        <v>51</v>
+      </c>
+      <c r="L40" s="228" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="229">
+        <v/>
+      </c>
+      <c r="M40" s="229" t="str">
         <f t="shared" si="24"/>
-        <v>42155</v>
+        <v/>
       </c>
       <c r="N40" s="206"/>
       <c r="O40" s="83"/>
@@ -16455,42 +17476,33 @@
       <c r="EQ40" s="85"/>
     </row>
     <row r="41" spans="1:147" s="86" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="63">
+      <c r="A41" s="63" t="str">
         <f>IF(B41="","",IF(A40="",IF(MAX($A$16:A40)=0,1,ROUNDDOWN(MAX($A$16:A40)+1,0)),A40+0.01))</f>
-        <v>6.01</v>
-      </c>
-      <c r="B41" s="76" t="s">
-        <v>90</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B41" s="76"/>
       <c r="C41" s="76"/>
       <c r="D41" s="76"/>
       <c r="E41" s="76"/>
       <c r="F41" s="77"/>
-      <c r="G41" s="78">
-        <f>G40</f>
-        <v>42156</v>
-      </c>
-      <c r="H41" s="79">
-        <v>6</v>
-      </c>
-      <c r="I41" s="68">
+      <c r="G41" s="78"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="68" t="str">
         <f t="shared" si="21"/>
-        <v>42161</v>
-      </c>
-      <c r="J41" s="80">
-        <v>0</v>
-      </c>
-      <c r="K41" s="70">
+        <v/>
+      </c>
+      <c r="J41" s="80"/>
+      <c r="K41" s="70" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>62</v>
-      </c>
-      <c r="L41" s="228">
+        <v/>
+      </c>
+      <c r="L41" s="228" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="229">
+        <v/>
+      </c>
+      <c r="M41" s="229" t="str">
         <f t="shared" si="24"/>
-        <v>42155</v>
+        <v/>
       </c>
       <c r="N41" s="206"/>
       <c r="O41" s="83"/>
@@ -16630,32 +17642,32 @@
     <row r="42" spans="1:147" s="86" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="63">
         <f>IF(B42="","",IF(A41="",IF(MAX($A$16:A41)=0,1,ROUNDDOWN(MAX($A$16:A41)+1,0)),A41+0.01))</f>
-        <v>6.02</v>
+        <v>6</v>
       </c>
       <c r="B42" s="76" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C42" s="76"/>
       <c r="D42" s="76"/>
       <c r="E42" s="76"/>
       <c r="F42" s="77"/>
       <c r="G42" s="78">
-        <f>I41+1</f>
-        <v>42162</v>
+        <v>42156</v>
       </c>
       <c r="H42" s="79">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I42" s="68">
         <f t="shared" si="21"/>
-        <v>42164</v>
+        <v>42169</v>
       </c>
       <c r="J42" s="80">
+        <f>AVERAGE(J43:J47)</f>
         <v>0</v>
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -16663,7 +17675,7 @@
       </c>
       <c r="M42" s="229">
         <f t="shared" si="24"/>
-        <v>42161</v>
+        <v>42155</v>
       </c>
       <c r="N42" s="206"/>
       <c r="O42" s="83"/>
@@ -16801,33 +17813,42 @@
       <c r="EQ42" s="85"/>
     </row>
     <row r="43" spans="1:147" s="86" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="63" t="str">
+      <c r="A43" s="63">
         <f>IF(B43="","",IF(A42="",IF(MAX($A$16:A42)=0,1,ROUNDDOWN(MAX($A$16:A42)+1,0)),A42+0.01))</f>
-        <v/>
-      </c>
-      <c r="B43" s="76"/>
+        <v>6.01</v>
+      </c>
+      <c r="B43" s="76" t="s">
+        <v>89</v>
+      </c>
       <c r="C43" s="76"/>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
       <c r="F43" s="77"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="68" t="str">
+      <c r="G43" s="78">
+        <f>G42</f>
+        <v>42156</v>
+      </c>
+      <c r="H43" s="79">
+        <v>6</v>
+      </c>
+      <c r="I43" s="68">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="J43" s="80"/>
-      <c r="K43" s="70" t="str">
+        <v>42161</v>
+      </c>
+      <c r="J43" s="80">
+        <v>0</v>
+      </c>
+      <c r="K43" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="L43" s="228" t="str">
+        <v>60</v>
+      </c>
+      <c r="L43" s="228">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M43" s="229" t="str">
+        <v>0</v>
+      </c>
+      <c r="M43" s="229">
         <f t="shared" si="24"/>
-        <v/>
+        <v>42155</v>
       </c>
       <c r="N43" s="206"/>
       <c r="O43" s="83"/>
@@ -16965,33 +17986,42 @@
       <c r="EQ43" s="85"/>
     </row>
     <row r="44" spans="1:147" s="86" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="63" t="str">
+      <c r="A44" s="63">
         <f>IF(B44="","",IF(A43="",IF(MAX($A$16:A43)=0,1,ROUNDDOWN(MAX($A$16:A43)+1,0)),A43+0.01))</f>
-        <v/>
-      </c>
-      <c r="B44" s="76"/>
+        <v>6.02</v>
+      </c>
+      <c r="B44" s="76" t="s">
+        <v>84</v>
+      </c>
       <c r="C44" s="76"/>
       <c r="D44" s="76"/>
       <c r="E44" s="76"/>
       <c r="F44" s="77"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="68" t="str">
+      <c r="G44" s="78">
+        <f>I43+1</f>
+        <v>42162</v>
+      </c>
+      <c r="H44" s="79">
+        <v>3</v>
+      </c>
+      <c r="I44" s="68">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="J44" s="80"/>
-      <c r="K44" s="70" t="str">
+        <v>42164</v>
+      </c>
+      <c r="J44" s="80">
+        <v>0</v>
+      </c>
+      <c r="K44" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="L44" s="228" t="str">
+        <v>66</v>
+      </c>
+      <c r="L44" s="228">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M44" s="229" t="str">
+        <v>0</v>
+      </c>
+      <c r="M44" s="229">
         <f t="shared" si="24"/>
-        <v/>
+        <v>42161</v>
       </c>
       <c r="N44" s="206"/>
       <c r="O44" s="83"/>
@@ -17131,33 +18161,32 @@
     <row r="45" spans="1:147" s="86" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="63">
         <f>IF(B45="","",IF(A44="",IF(MAX($A$16:A44)=0,1,ROUNDDOWN(MAX($A$16:A44)+1,0)),A44+0.01))</f>
-        <v>7</v>
+        <v>6.0299999999999994</v>
       </c>
       <c r="B45" s="76" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C45" s="76"/>
       <c r="D45" s="76"/>
       <c r="E45" s="76"/>
       <c r="F45" s="77"/>
       <c r="G45" s="78">
-        <f>I40+1</f>
-        <v>42170</v>
+        <f>G42</f>
+        <v>42156</v>
       </c>
       <c r="H45" s="79">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I45" s="68">
         <f t="shared" si="21"/>
-        <v>42181</v>
+        <v>42169</v>
       </c>
       <c r="J45" s="80">
-        <f>AVERAGE(J46:J48)</f>
         <v>0</v>
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -17165,7 +18194,7 @@
       </c>
       <c r="M45" s="229">
         <f t="shared" si="24"/>
-        <v>42169</v>
+        <v>42155</v>
       </c>
       <c r="N45" s="206"/>
       <c r="O45" s="83"/>
@@ -17303,42 +18332,33 @@
       <c r="EQ45" s="85"/>
     </row>
     <row r="46" spans="1:147" s="86" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="63">
+      <c r="A46" s="63" t="str">
         <f>IF(B46="","",IF(A45="",IF(MAX($A$16:A45)=0,1,ROUNDDOWN(MAX($A$16:A45)+1,0)),A45+0.01))</f>
-        <v>7.01</v>
-      </c>
-      <c r="B46" s="76" t="s">
-        <v>86</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B46" s="76"/>
       <c r="C46" s="76"/>
       <c r="D46" s="76"/>
       <c r="E46" s="76"/>
       <c r="F46" s="77"/>
-      <c r="G46" s="78">
-        <f>G45</f>
-        <v>42170</v>
-      </c>
-      <c r="H46" s="79">
-        <v>4</v>
-      </c>
-      <c r="I46" s="68">
+      <c r="G46" s="78"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="68" t="str">
         <f t="shared" si="21"/>
-        <v>42173</v>
-      </c>
-      <c r="J46" s="80">
-        <v>0</v>
-      </c>
-      <c r="K46" s="70">
+        <v/>
+      </c>
+      <c r="J46" s="80"/>
+      <c r="K46" s="70" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>76</v>
-      </c>
-      <c r="L46" s="228">
+        <v/>
+      </c>
+      <c r="L46" s="228" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="229">
+        <v/>
+      </c>
+      <c r="M46" s="229" t="str">
         <f t="shared" si="24"/>
-        <v>42169</v>
+        <v/>
       </c>
       <c r="N46" s="206"/>
       <c r="O46" s="83"/>
@@ -17476,42 +18496,33 @@
       <c r="EQ46" s="85"/>
     </row>
     <row r="47" spans="1:147" s="86" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="63">
+      <c r="A47" s="63" t="str">
         <f>IF(B47="","",IF(A46="",IF(MAX($A$16:A46)=0,1,ROUNDDOWN(MAX($A$16:A46)+1,0)),A46+0.01))</f>
-        <v>7.02</v>
-      </c>
-      <c r="B47" s="76" t="s">
-        <v>92</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B47" s="76"/>
       <c r="C47" s="76"/>
       <c r="D47" s="76"/>
       <c r="E47" s="76"/>
       <c r="F47" s="77"/>
-      <c r="G47" s="78">
-        <f>I46+1</f>
-        <v>42174</v>
-      </c>
-      <c r="H47" s="79">
-        <v>5</v>
-      </c>
-      <c r="I47" s="68">
+      <c r="G47" s="78"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="68" t="str">
         <f t="shared" si="21"/>
-        <v>42178</v>
-      </c>
-      <c r="J47" s="80">
-        <v>0</v>
-      </c>
-      <c r="K47" s="70">
+        <v/>
+      </c>
+      <c r="J47" s="80"/>
+      <c r="K47" s="70" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>80</v>
-      </c>
-      <c r="L47" s="228">
+        <v/>
+      </c>
+      <c r="L47" s="228" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="229">
+        <v/>
+      </c>
+      <c r="M47" s="229" t="str">
         <f t="shared" si="24"/>
-        <v>42173</v>
+        <v/>
       </c>
       <c r="N47" s="206"/>
       <c r="O47" s="83"/>
@@ -17648,42 +18659,44 @@
       <c r="EP47" s="84"/>
       <c r="EQ47" s="85"/>
     </row>
-    <row r="48" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:147" s="86" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="63">
         <f>IF(B48="","",IF(A47="",IF(MAX($A$16:A47)=0,1,ROUNDDOWN(MAX($A$16:A47)+1,0)),A47+0.01))</f>
-        <v>7.0299999999999994</v>
+        <v>7</v>
       </c>
       <c r="B48" s="76" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C48" s="76"/>
       <c r="D48" s="76"/>
       <c r="E48" s="76"/>
       <c r="F48" s="77"/>
       <c r="G48" s="78">
+        <f>I42+1</f>
+        <v>42170</v>
+      </c>
+      <c r="H48" s="79">
+        <v>12</v>
+      </c>
+      <c r="I48" s="68">
+        <f t="shared" si="21"/>
         <v>42181</v>
       </c>
-      <c r="H48" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="68" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
       <c r="J48" s="80">
+        <f>AVERAGE(J49:J52)</f>
         <v>0</v>
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>88</v>
-      </c>
-      <c r="L48" s="228" t="str">
+        <v>74</v>
+      </c>
+      <c r="L48" s="228">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M48" s="229" t="str">
+        <v>0</v>
+      </c>
+      <c r="M48" s="229">
         <f t="shared" si="24"/>
-        <v/>
+        <v>42169</v>
       </c>
       <c r="N48" s="206"/>
       <c r="O48" s="83"/>
@@ -17820,34 +18833,43 @@
       <c r="EP48" s="84"/>
       <c r="EQ48" s="85"/>
     </row>
-    <row r="49" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="63" t="str">
+    <row r="49" spans="1:147" s="86" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="63">
         <f>IF(B49="","",IF(A48="",IF(MAX($A$16:A48)=0,1,ROUNDDOWN(MAX($A$16:A48)+1,0)),A48+0.01))</f>
-        <v/>
-      </c>
-      <c r="B49" s="76"/>
+        <v>7.01</v>
+      </c>
+      <c r="B49" s="76" t="s">
+        <v>85</v>
+      </c>
       <c r="C49" s="76"/>
       <c r="D49" s="76"/>
       <c r="E49" s="76"/>
       <c r="F49" s="77"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="68" t="str">
+      <c r="G49" s="78">
+        <f>G48</f>
+        <v>42170</v>
+      </c>
+      <c r="H49" s="79">
+        <v>4</v>
+      </c>
+      <c r="I49" s="68">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="J49" s="80"/>
-      <c r="K49" s="70" t="str">
+        <v>42173</v>
+      </c>
+      <c r="J49" s="80">
+        <v>0</v>
+      </c>
+      <c r="K49" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="L49" s="228" t="str">
+        <v>74</v>
+      </c>
+      <c r="L49" s="228">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M49" s="229" t="str">
+        <v>0</v>
+      </c>
+      <c r="M49" s="229">
         <f t="shared" si="24"/>
-        <v/>
+        <v>42169</v>
       </c>
       <c r="N49" s="206"/>
       <c r="O49" s="83"/>
@@ -17984,34 +19006,43 @@
       <c r="EP49" s="84"/>
       <c r="EQ49" s="85"/>
     </row>
-    <row r="50" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="63" t="str">
+    <row r="50" spans="1:147" s="86" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="63">
         <f>IF(B50="","",IF(A49="",IF(MAX($A$16:A49)=0,1,ROUNDDOWN(MAX($A$16:A49)+1,0)),A49+0.01))</f>
-        <v/>
-      </c>
-      <c r="B50" s="76"/>
+        <v>7.02</v>
+      </c>
+      <c r="B50" s="76" t="s">
+        <v>91</v>
+      </c>
       <c r="C50" s="76"/>
       <c r="D50" s="76"/>
       <c r="E50" s="76"/>
       <c r="F50" s="77"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="68" t="str">
+      <c r="G50" s="78">
+        <f>I49+1</f>
+        <v>42174</v>
+      </c>
+      <c r="H50" s="79">
+        <v>5</v>
+      </c>
+      <c r="I50" s="68">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="J50" s="80"/>
-      <c r="K50" s="70" t="str">
+        <v>42178</v>
+      </c>
+      <c r="J50" s="80">
+        <v>0</v>
+      </c>
+      <c r="K50" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="L50" s="228" t="str">
+        <v>78</v>
+      </c>
+      <c r="L50" s="228">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M50" s="229" t="str">
+        <v>0</v>
+      </c>
+      <c r="M50" s="229">
         <f t="shared" si="24"/>
-        <v/>
+        <v>42173</v>
       </c>
       <c r="N50" s="206"/>
       <c r="O50" s="83"/>
@@ -18148,35 +19179,35 @@
       <c r="EP50" s="84"/>
       <c r="EQ50" s="85"/>
     </row>
-    <row r="51" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:147" s="86" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="63">
         <f>IF(B51="","",IF(A50="",IF(MAX($A$16:A50)=0,1,ROUNDDOWN(MAX($A$16:A50)+1,0)),A50+0.01))</f>
-        <v>8</v>
+        <v>7.0299999999999994</v>
       </c>
       <c r="B51" s="76" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C51" s="76"/>
       <c r="D51" s="76"/>
       <c r="E51" s="76"/>
       <c r="F51" s="77"/>
       <c r="G51" s="78">
-        <f>I45+1</f>
-        <v>42182</v>
+        <f>G48</f>
+        <v>42170</v>
       </c>
       <c r="H51" s="79">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I51" s="68">
         <f t="shared" si="21"/>
-        <v>42209</v>
+        <v>42183</v>
       </c>
       <c r="J51" s="80">
         <v>0</v>
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -18184,7 +19215,7 @@
       </c>
       <c r="M51" s="229">
         <f t="shared" si="24"/>
-        <v>42181</v>
+        <v>42169</v>
       </c>
       <c r="N51" s="206"/>
       <c r="O51" s="83"/>
@@ -18322,25 +19353,33 @@
       <c r="EQ51" s="85"/>
     </row>
     <row r="52" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="63" t="str">
+      <c r="A52" s="63">
         <f>IF(B52="","",IF(A51="",IF(MAX($A$16:A51)=0,1,ROUNDDOWN(MAX($A$16:A51)+1,0)),A51+0.01))</f>
-        <v/>
-      </c>
-      <c r="B52" s="76"/>
+        <v>7.0399999999999991</v>
+      </c>
+      <c r="B52" s="76" t="s">
+        <v>86</v>
+      </c>
       <c r="C52" s="76"/>
       <c r="D52" s="76"/>
       <c r="E52" s="76"/>
       <c r="F52" s="77"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="79"/>
+      <c r="G52" s="78">
+        <v>42181</v>
+      </c>
+      <c r="H52" s="79" t="s">
+        <v>16</v>
+      </c>
       <c r="I52" s="68" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J52" s="80"/>
-      <c r="K52" s="70" t="str">
+      <c r="J52" s="80">
+        <v>0</v>
+      </c>
+      <c r="K52" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v/>
+        <v>86</v>
       </c>
       <c r="L52" s="228" t="str">
         <f t="shared" si="22"/>
@@ -18814,33 +19853,42 @@
       <c r="EQ54" s="85"/>
     </row>
     <row r="55" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="63" t="str">
+      <c r="A55" s="63">
         <f>IF(B55="","",IF(A54="",IF(MAX($A$16:A54)=0,1,ROUNDDOWN(MAX($A$16:A54)+1,0)),A54+0.01))</f>
-        <v/>
-      </c>
-      <c r="B55" s="76"/>
+        <v>8</v>
+      </c>
+      <c r="B55" s="76" t="s">
+        <v>92</v>
+      </c>
       <c r="C55" s="76"/>
       <c r="D55" s="76"/>
       <c r="E55" s="76"/>
       <c r="F55" s="77"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="68" t="str">
+      <c r="G55" s="78">
+        <f>I48+1</f>
+        <v>42182</v>
+      </c>
+      <c r="H55" s="79">
+        <v>28</v>
+      </c>
+      <c r="I55" s="68">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="J55" s="80"/>
-      <c r="K55" s="70" t="str">
+        <v>42209</v>
+      </c>
+      <c r="J55" s="80">
+        <v>0</v>
+      </c>
+      <c r="K55" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="L55" s="228" t="str">
+        <v>86</v>
+      </c>
+      <c r="L55" s="228">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M55" s="229" t="str">
+        <v>0</v>
+      </c>
+      <c r="M55" s="229">
         <f t="shared" si="24"/>
-        <v/>
+        <v>42181</v>
       </c>
       <c r="N55" s="206"/>
       <c r="O55" s="83"/>
@@ -19797,23 +20845,23 @@
       <c r="EP60" s="84"/>
       <c r="EQ60" s="85"/>
     </row>
-    <row r="61" spans="1:147" s="86" customFormat="1" ht="1.1499999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="87" t="str">
+    <row r="61" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="63" t="str">
         <f>IF(B61="","",IF(A60="",IF(MAX($A$16:A60)=0,1,ROUNDDOWN(MAX($A$16:A60)+1,0)),A60+0.01))</f>
         <v/>
       </c>
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="92" t="str">
-        <f t="shared" ref="I61" si="26">IF(G61="","",IF(H61="M","",IF(H61="","",WORKDAY(G61,H61-1,Feiertage))))</f>
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="68" t="str">
+        <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J61" s="93"/>
+      <c r="J61" s="80"/>
       <c r="K61" s="70" t="str">
         <f t="shared" ca="1" si="23"/>
         <v/>
@@ -19822,745 +20870,1401 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="M61" s="230" t="str">
-        <f t="shared" ref="M61" si="27">IF(G61="","",IF(I61="","",G61+L61-1))</f>
+      <c r="M61" s="229" t="str">
+        <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N61" s="207"/>
-      <c r="O61" s="94"/>
-      <c r="P61" s="94"/>
-      <c r="Q61" s="94"/>
-      <c r="R61" s="94"/>
-      <c r="S61" s="94"/>
-      <c r="T61" s="94"/>
-      <c r="U61" s="94"/>
-      <c r="V61" s="94"/>
-      <c r="W61" s="94"/>
-      <c r="X61" s="94"/>
-      <c r="Y61" s="94"/>
-      <c r="Z61" s="94"/>
-      <c r="AA61" s="94"/>
-      <c r="AB61" s="94"/>
-      <c r="AC61" s="94"/>
-      <c r="AD61" s="94"/>
-      <c r="AE61" s="94"/>
-      <c r="AF61" s="94"/>
-      <c r="AG61" s="94"/>
-      <c r="AH61" s="94"/>
-      <c r="AI61" s="94"/>
-      <c r="AJ61" s="94"/>
-      <c r="AK61" s="94"/>
-      <c r="AL61" s="94"/>
-      <c r="AM61" s="94"/>
-      <c r="AN61" s="94"/>
-      <c r="AO61" s="94"/>
-      <c r="AP61" s="94"/>
-      <c r="AQ61" s="94"/>
-      <c r="AR61" s="94"/>
-      <c r="AS61" s="94"/>
-      <c r="AT61" s="94"/>
-      <c r="AU61" s="94"/>
-      <c r="AV61" s="94"/>
-      <c r="AW61" s="94"/>
-      <c r="AX61" s="94"/>
-      <c r="AY61" s="94"/>
-      <c r="AZ61" s="94"/>
-      <c r="BA61" s="94"/>
-      <c r="BB61" s="94"/>
-      <c r="BC61" s="94"/>
-      <c r="BD61" s="94"/>
-      <c r="BE61" s="94"/>
-      <c r="BF61" s="94"/>
-      <c r="BG61" s="94"/>
-      <c r="BH61" s="94"/>
-      <c r="BI61" s="94"/>
-      <c r="BJ61" s="94"/>
-      <c r="BK61" s="94"/>
-      <c r="BL61" s="94"/>
-      <c r="BM61" s="94"/>
-      <c r="BN61" s="94"/>
-      <c r="BO61" s="94"/>
-      <c r="BP61" s="94"/>
-      <c r="BQ61" s="94"/>
-      <c r="BR61" s="94"/>
-      <c r="BS61" s="94"/>
-      <c r="BT61" s="94"/>
-      <c r="BU61" s="94"/>
-      <c r="BV61" s="94"/>
-      <c r="BW61" s="94"/>
-      <c r="BX61" s="94"/>
-      <c r="BY61" s="94"/>
-      <c r="BZ61" s="94"/>
-      <c r="CA61" s="94"/>
-      <c r="CB61" s="94"/>
-      <c r="CC61" s="94"/>
-      <c r="CD61" s="94"/>
-      <c r="CE61" s="94"/>
-      <c r="CF61" s="94"/>
-      <c r="CG61" s="94"/>
-      <c r="CH61" s="94"/>
-      <c r="CI61" s="94"/>
-      <c r="CJ61" s="94"/>
-      <c r="CK61" s="94"/>
-      <c r="CL61" s="94"/>
-      <c r="CM61" s="94"/>
-      <c r="CN61" s="94"/>
-      <c r="CO61" s="94"/>
-      <c r="CP61" s="94"/>
-      <c r="CQ61" s="94"/>
-      <c r="CR61" s="94"/>
-      <c r="CS61" s="94"/>
-      <c r="CT61" s="94"/>
-      <c r="CU61" s="94"/>
-      <c r="CV61" s="94"/>
-      <c r="CW61" s="94"/>
-      <c r="CX61" s="94"/>
-      <c r="CY61" s="94"/>
-      <c r="CZ61" s="94"/>
-      <c r="DA61" s="94"/>
-      <c r="DB61" s="94"/>
-      <c r="DC61" s="94"/>
-      <c r="DD61" s="94"/>
-      <c r="DE61" s="94"/>
-      <c r="DF61" s="94"/>
-      <c r="DG61" s="94"/>
-      <c r="DH61" s="94"/>
-      <c r="DI61" s="94"/>
-      <c r="DJ61" s="94"/>
-      <c r="DK61" s="94"/>
-      <c r="DL61" s="94"/>
-      <c r="DM61" s="94"/>
-      <c r="DN61" s="94"/>
-      <c r="DO61" s="94"/>
-      <c r="DP61" s="94"/>
-      <c r="DQ61" s="94"/>
-      <c r="DR61" s="94"/>
-      <c r="DS61" s="94"/>
-      <c r="DT61" s="94"/>
-      <c r="DU61" s="94"/>
-      <c r="DV61" s="94"/>
-      <c r="DW61" s="94"/>
-      <c r="DX61" s="94"/>
-      <c r="DY61" s="94"/>
-      <c r="DZ61" s="94"/>
-      <c r="EA61" s="94"/>
-      <c r="EB61" s="94"/>
-      <c r="EC61" s="94"/>
-      <c r="ED61" s="94"/>
-      <c r="EE61" s="94"/>
-      <c r="EF61" s="94"/>
-      <c r="EG61" s="94"/>
-      <c r="EH61" s="94"/>
-      <c r="EI61" s="94"/>
-      <c r="EJ61" s="94"/>
-      <c r="EK61" s="94"/>
-      <c r="EL61" s="94"/>
-      <c r="EM61" s="94"/>
-      <c r="EN61" s="94"/>
-      <c r="EO61" s="94"/>
-      <c r="EP61" s="95"/>
+      <c r="N61" s="206"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="83"/>
+      <c r="R61" s="83"/>
+      <c r="S61" s="83"/>
+      <c r="T61" s="83"/>
+      <c r="U61" s="83"/>
+      <c r="V61" s="83"/>
+      <c r="W61" s="83"/>
+      <c r="X61" s="83"/>
+      <c r="Y61" s="83"/>
+      <c r="Z61" s="83"/>
+      <c r="AA61" s="83"/>
+      <c r="AB61" s="83"/>
+      <c r="AC61" s="83"/>
+      <c r="AD61" s="83"/>
+      <c r="AE61" s="83"/>
+      <c r="AF61" s="83"/>
+      <c r="AG61" s="83"/>
+      <c r="AH61" s="83"/>
+      <c r="AI61" s="83"/>
+      <c r="AJ61" s="83"/>
+      <c r="AK61" s="83"/>
+      <c r="AL61" s="83"/>
+      <c r="AM61" s="83"/>
+      <c r="AN61" s="83"/>
+      <c r="AO61" s="83"/>
+      <c r="AP61" s="83"/>
+      <c r="AQ61" s="83"/>
+      <c r="AR61" s="83"/>
+      <c r="AS61" s="83"/>
+      <c r="AT61" s="83"/>
+      <c r="AU61" s="83"/>
+      <c r="AV61" s="83"/>
+      <c r="AW61" s="83"/>
+      <c r="AX61" s="83"/>
+      <c r="AY61" s="83"/>
+      <c r="AZ61" s="83"/>
+      <c r="BA61" s="83"/>
+      <c r="BB61" s="83"/>
+      <c r="BC61" s="83"/>
+      <c r="BD61" s="83"/>
+      <c r="BE61" s="83"/>
+      <c r="BF61" s="83"/>
+      <c r="BG61" s="83"/>
+      <c r="BH61" s="83"/>
+      <c r="BI61" s="83"/>
+      <c r="BJ61" s="83"/>
+      <c r="BK61" s="83"/>
+      <c r="BL61" s="83"/>
+      <c r="BM61" s="83"/>
+      <c r="BN61" s="83"/>
+      <c r="BO61" s="83"/>
+      <c r="BP61" s="83"/>
+      <c r="BQ61" s="83"/>
+      <c r="BR61" s="83"/>
+      <c r="BS61" s="83"/>
+      <c r="BT61" s="83"/>
+      <c r="BU61" s="83"/>
+      <c r="BV61" s="83"/>
+      <c r="BW61" s="83"/>
+      <c r="BX61" s="83"/>
+      <c r="BY61" s="83"/>
+      <c r="BZ61" s="83"/>
+      <c r="CA61" s="83"/>
+      <c r="CB61" s="83"/>
+      <c r="CC61" s="83"/>
+      <c r="CD61" s="83"/>
+      <c r="CE61" s="83"/>
+      <c r="CF61" s="83"/>
+      <c r="CG61" s="83"/>
+      <c r="CH61" s="83"/>
+      <c r="CI61" s="83"/>
+      <c r="CJ61" s="83"/>
+      <c r="CK61" s="83"/>
+      <c r="CL61" s="83"/>
+      <c r="CM61" s="83"/>
+      <c r="CN61" s="83"/>
+      <c r="CO61" s="83"/>
+      <c r="CP61" s="83"/>
+      <c r="CQ61" s="83"/>
+      <c r="CR61" s="83"/>
+      <c r="CS61" s="83"/>
+      <c r="CT61" s="83"/>
+      <c r="CU61" s="83"/>
+      <c r="CV61" s="83"/>
+      <c r="CW61" s="83"/>
+      <c r="CX61" s="83"/>
+      <c r="CY61" s="83"/>
+      <c r="CZ61" s="83"/>
+      <c r="DA61" s="83"/>
+      <c r="DB61" s="83"/>
+      <c r="DC61" s="83"/>
+      <c r="DD61" s="83"/>
+      <c r="DE61" s="83"/>
+      <c r="DF61" s="83"/>
+      <c r="DG61" s="83"/>
+      <c r="DH61" s="83"/>
+      <c r="DI61" s="83"/>
+      <c r="DJ61" s="83"/>
+      <c r="DK61" s="83"/>
+      <c r="DL61" s="83"/>
+      <c r="DM61" s="83"/>
+      <c r="DN61" s="83"/>
+      <c r="DO61" s="83"/>
+      <c r="DP61" s="83"/>
+      <c r="DQ61" s="83"/>
+      <c r="DR61" s="83"/>
+      <c r="DS61" s="83"/>
+      <c r="DT61" s="83"/>
+      <c r="DU61" s="83"/>
+      <c r="DV61" s="83"/>
+      <c r="DW61" s="83"/>
+      <c r="DX61" s="83"/>
+      <c r="DY61" s="83"/>
+      <c r="DZ61" s="83"/>
+      <c r="EA61" s="83"/>
+      <c r="EB61" s="83"/>
+      <c r="EC61" s="83"/>
+      <c r="ED61" s="83"/>
+      <c r="EE61" s="83"/>
+      <c r="EF61" s="83"/>
+      <c r="EG61" s="83"/>
+      <c r="EH61" s="83"/>
+      <c r="EI61" s="83"/>
+      <c r="EJ61" s="83"/>
+      <c r="EK61" s="83"/>
+      <c r="EL61" s="83"/>
+      <c r="EM61" s="83"/>
+      <c r="EN61" s="83"/>
+      <c r="EO61" s="83"/>
+      <c r="EP61" s="84"/>
       <c r="EQ61" s="85"/>
     </row>
-    <row r="62" spans="1:147" ht="2.4500000000000002" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
+    <row r="62" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="63" t="str">
+        <f>IF(B62="","",IF(A61="",IF(MAX($A$16:A61)=0,1,ROUNDDOWN(MAX($A$16:A61)+1,0)),A61+0.01))</f>
+        <v/>
+      </c>
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="68" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J62" s="80"/>
+      <c r="K62" s="70" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
       <c r="L62" s="228" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="M62" s="231"/>
-      <c r="N62" s="208"/>
-      <c r="O62" s="97"/>
-      <c r="P62" s="97"/>
-      <c r="Q62" s="97"/>
-      <c r="R62" s="97"/>
-      <c r="S62" s="97"/>
-      <c r="T62" s="97"/>
-      <c r="U62" s="97"/>
-      <c r="V62" s="97"/>
-      <c r="W62" s="97"/>
-      <c r="X62" s="97"/>
-      <c r="Y62" s="97"/>
-      <c r="Z62" s="97"/>
-      <c r="AA62" s="97"/>
-      <c r="AB62" s="97"/>
-      <c r="AC62" s="97"/>
-      <c r="AD62" s="97"/>
-      <c r="AE62" s="97"/>
-      <c r="AF62" s="97"/>
-      <c r="AG62" s="97"/>
-      <c r="AH62" s="97"/>
-      <c r="AI62" s="97"/>
-      <c r="AJ62" s="97"/>
-      <c r="AK62" s="97"/>
-      <c r="AL62" s="97"/>
-      <c r="AM62" s="97"/>
-      <c r="AN62" s="97"/>
-      <c r="AO62" s="97"/>
-      <c r="AP62" s="97"/>
-      <c r="AQ62" s="97"/>
-      <c r="AR62" s="97"/>
-      <c r="AS62" s="97"/>
-      <c r="AT62" s="97"/>
-      <c r="AU62" s="97"/>
-      <c r="AV62" s="97"/>
-      <c r="AW62" s="97"/>
-      <c r="AX62" s="97"/>
-      <c r="AY62" s="97"/>
-      <c r="AZ62" s="97"/>
-      <c r="BA62" s="97"/>
-      <c r="BB62" s="97"/>
-      <c r="BC62" s="97"/>
-      <c r="BD62" s="97"/>
-      <c r="BE62" s="97"/>
-      <c r="BF62" s="97"/>
-      <c r="BG62" s="97"/>
-      <c r="BH62" s="97"/>
-      <c r="BI62" s="97"/>
-      <c r="BJ62" s="97"/>
-      <c r="BK62" s="97"/>
-      <c r="BL62" s="97"/>
-      <c r="BM62" s="97"/>
-      <c r="BN62" s="97"/>
-      <c r="BO62" s="97"/>
-      <c r="BP62" s="97"/>
-      <c r="BQ62" s="97"/>
-      <c r="BR62" s="98"/>
-      <c r="BS62" s="98"/>
-      <c r="BT62" s="98"/>
-      <c r="BU62" s="98"/>
-      <c r="BV62" s="98"/>
-      <c r="BW62" s="98"/>
-      <c r="BX62" s="98"/>
-      <c r="BY62" s="98"/>
-      <c r="BZ62" s="98"/>
-      <c r="CA62" s="98"/>
-      <c r="CB62" s="98"/>
-      <c r="CC62" s="98"/>
-      <c r="CD62" s="98"/>
-      <c r="CE62" s="98"/>
-      <c r="CF62" s="98"/>
-      <c r="CG62" s="98"/>
-      <c r="CH62" s="98"/>
-      <c r="CI62" s="98"/>
-      <c r="CJ62" s="98"/>
-      <c r="CK62" s="98"/>
-      <c r="CL62" s="98"/>
-      <c r="CM62" s="98"/>
-      <c r="CN62" s="98"/>
-      <c r="CO62" s="98"/>
-      <c r="CP62" s="98"/>
-      <c r="CQ62" s="98"/>
-      <c r="CR62" s="98"/>
-      <c r="CS62" s="98"/>
-      <c r="CT62" s="98"/>
-      <c r="CU62" s="98"/>
-      <c r="CV62" s="98"/>
-      <c r="CW62" s="98"/>
-      <c r="CX62" s="98"/>
-      <c r="CY62" s="98"/>
-      <c r="CZ62" s="98"/>
-      <c r="DA62" s="98"/>
-      <c r="DB62" s="98"/>
-      <c r="DC62" s="98"/>
-      <c r="DD62" s="98"/>
-      <c r="DE62" s="98"/>
-      <c r="DF62" s="98"/>
-      <c r="DG62" s="98"/>
-      <c r="DH62" s="98"/>
-      <c r="DI62" s="98"/>
-      <c r="DJ62" s="98"/>
-      <c r="DK62" s="98"/>
-      <c r="DL62" s="98"/>
-      <c r="DM62" s="98"/>
-      <c r="DN62" s="98"/>
-      <c r="DO62" s="98"/>
-      <c r="DP62" s="98"/>
-      <c r="DQ62" s="98"/>
-      <c r="DR62" s="98"/>
-      <c r="DS62" s="98"/>
-      <c r="DT62" s="98"/>
-      <c r="DU62" s="98"/>
-      <c r="DV62" s="98"/>
-      <c r="DW62" s="98"/>
-      <c r="DX62" s="98"/>
-      <c r="DY62" s="98"/>
-      <c r="DZ62" s="98"/>
-      <c r="EA62" s="98"/>
-      <c r="EB62" s="98"/>
-      <c r="EC62" s="98"/>
-      <c r="ED62" s="98"/>
-      <c r="EE62" s="98"/>
-      <c r="EF62" s="98"/>
-      <c r="EG62" s="98"/>
-      <c r="EH62" s="98"/>
-      <c r="EI62" s="98"/>
-      <c r="EJ62" s="98"/>
-      <c r="EK62" s="98"/>
-      <c r="EL62" s="98"/>
-      <c r="EM62" s="98"/>
-      <c r="EN62" s="98"/>
-      <c r="EO62" s="98"/>
-      <c r="EP62" s="99"/>
-      <c r="EQ62" s="37"/>
-    </row>
-    <row r="63" spans="1:147" s="3" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="237"/>
-      <c r="B63" s="238"/>
-      <c r="C63" s="238"/>
-      <c r="D63" s="238"/>
-      <c r="E63" s="238"/>
-      <c r="F63" s="238"/>
-      <c r="G63" s="238"/>
-      <c r="H63" s="238"/>
-      <c r="I63" s="238"/>
-      <c r="J63" s="238"/>
-      <c r="K63" s="238"/>
-      <c r="L63" s="238"/>
-      <c r="M63" s="238"/>
-      <c r="N63" s="238"/>
-      <c r="O63" s="238"/>
-      <c r="P63" s="238"/>
-      <c r="Q63" s="238"/>
-      <c r="R63" s="238"/>
-      <c r="S63" s="238"/>
-      <c r="T63" s="238"/>
-      <c r="U63" s="238"/>
-      <c r="V63" s="238"/>
-      <c r="W63" s="238"/>
-      <c r="X63" s="238"/>
-      <c r="Y63" s="238"/>
-      <c r="Z63" s="238"/>
-      <c r="AA63" s="238"/>
-      <c r="AB63" s="238"/>
-      <c r="AC63" s="238"/>
-      <c r="AD63" s="238"/>
-      <c r="AE63" s="238"/>
-      <c r="AF63" s="238"/>
-      <c r="AG63" s="238"/>
-      <c r="AH63" s="238"/>
-      <c r="AI63" s="238"/>
-      <c r="AJ63" s="238"/>
-      <c r="AK63" s="238"/>
-      <c r="AL63" s="238"/>
-      <c r="AM63" s="238"/>
-      <c r="AN63" s="100"/>
-      <c r="AO63" s="100"/>
-      <c r="AP63" s="100"/>
-      <c r="AQ63" s="100"/>
-      <c r="AR63" s="100"/>
-      <c r="AS63" s="100"/>
-      <c r="AT63" s="100"/>
-      <c r="AU63" s="100"/>
-      <c r="AV63" s="100"/>
-      <c r="AW63" s="100"/>
-      <c r="AX63" s="100"/>
-      <c r="AY63" s="100"/>
-      <c r="AZ63" s="100"/>
-      <c r="BA63" s="100"/>
-      <c r="BB63" s="100"/>
-      <c r="BC63" s="100"/>
-      <c r="BD63" s="100"/>
-      <c r="BE63" s="100"/>
-      <c r="BF63" s="100"/>
-      <c r="BG63" s="100"/>
-      <c r="BH63" s="100"/>
-      <c r="BI63" s="100"/>
-      <c r="BJ63" s="100"/>
-      <c r="BK63" s="100"/>
-      <c r="BL63" s="100"/>
-      <c r="BM63" s="100"/>
-      <c r="BN63" s="100"/>
-      <c r="BO63" s="100"/>
-      <c r="BP63" s="100"/>
-      <c r="BQ63" s="100"/>
-      <c r="BR63" s="239" t="s">
+      <c r="M62" s="229" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="N62" s="206"/>
+      <c r="O62" s="83"/>
+      <c r="P62" s="83"/>
+      <c r="Q62" s="83"/>
+      <c r="R62" s="83"/>
+      <c r="S62" s="83"/>
+      <c r="T62" s="83"/>
+      <c r="U62" s="83"/>
+      <c r="V62" s="83"/>
+      <c r="W62" s="83"/>
+      <c r="X62" s="83"/>
+      <c r="Y62" s="83"/>
+      <c r="Z62" s="83"/>
+      <c r="AA62" s="83"/>
+      <c r="AB62" s="83"/>
+      <c r="AC62" s="83"/>
+      <c r="AD62" s="83"/>
+      <c r="AE62" s="83"/>
+      <c r="AF62" s="83"/>
+      <c r="AG62" s="83"/>
+      <c r="AH62" s="83"/>
+      <c r="AI62" s="83"/>
+      <c r="AJ62" s="83"/>
+      <c r="AK62" s="83"/>
+      <c r="AL62" s="83"/>
+      <c r="AM62" s="83"/>
+      <c r="AN62" s="83"/>
+      <c r="AO62" s="83"/>
+      <c r="AP62" s="83"/>
+      <c r="AQ62" s="83"/>
+      <c r="AR62" s="83"/>
+      <c r="AS62" s="83"/>
+      <c r="AT62" s="83"/>
+      <c r="AU62" s="83"/>
+      <c r="AV62" s="83"/>
+      <c r="AW62" s="83"/>
+      <c r="AX62" s="83"/>
+      <c r="AY62" s="83"/>
+      <c r="AZ62" s="83"/>
+      <c r="BA62" s="83"/>
+      <c r="BB62" s="83"/>
+      <c r="BC62" s="83"/>
+      <c r="BD62" s="83"/>
+      <c r="BE62" s="83"/>
+      <c r="BF62" s="83"/>
+      <c r="BG62" s="83"/>
+      <c r="BH62" s="83"/>
+      <c r="BI62" s="83"/>
+      <c r="BJ62" s="83"/>
+      <c r="BK62" s="83"/>
+      <c r="BL62" s="83"/>
+      <c r="BM62" s="83"/>
+      <c r="BN62" s="83"/>
+      <c r="BO62" s="83"/>
+      <c r="BP62" s="83"/>
+      <c r="BQ62" s="83"/>
+      <c r="BR62" s="83"/>
+      <c r="BS62" s="83"/>
+      <c r="BT62" s="83"/>
+      <c r="BU62" s="83"/>
+      <c r="BV62" s="83"/>
+      <c r="BW62" s="83"/>
+      <c r="BX62" s="83"/>
+      <c r="BY62" s="83"/>
+      <c r="BZ62" s="83"/>
+      <c r="CA62" s="83"/>
+      <c r="CB62" s="83"/>
+      <c r="CC62" s="83"/>
+      <c r="CD62" s="83"/>
+      <c r="CE62" s="83"/>
+      <c r="CF62" s="83"/>
+      <c r="CG62" s="83"/>
+      <c r="CH62" s="83"/>
+      <c r="CI62" s="83"/>
+      <c r="CJ62" s="83"/>
+      <c r="CK62" s="83"/>
+      <c r="CL62" s="83"/>
+      <c r="CM62" s="83"/>
+      <c r="CN62" s="83"/>
+      <c r="CO62" s="83"/>
+      <c r="CP62" s="83"/>
+      <c r="CQ62" s="83"/>
+      <c r="CR62" s="83"/>
+      <c r="CS62" s="83"/>
+      <c r="CT62" s="83"/>
+      <c r="CU62" s="83"/>
+      <c r="CV62" s="83"/>
+      <c r="CW62" s="83"/>
+      <c r="CX62" s="83"/>
+      <c r="CY62" s="83"/>
+      <c r="CZ62" s="83"/>
+      <c r="DA62" s="83"/>
+      <c r="DB62" s="83"/>
+      <c r="DC62" s="83"/>
+      <c r="DD62" s="83"/>
+      <c r="DE62" s="83"/>
+      <c r="DF62" s="83"/>
+      <c r="DG62" s="83"/>
+      <c r="DH62" s="83"/>
+      <c r="DI62" s="83"/>
+      <c r="DJ62" s="83"/>
+      <c r="DK62" s="83"/>
+      <c r="DL62" s="83"/>
+      <c r="DM62" s="83"/>
+      <c r="DN62" s="83"/>
+      <c r="DO62" s="83"/>
+      <c r="DP62" s="83"/>
+      <c r="DQ62" s="83"/>
+      <c r="DR62" s="83"/>
+      <c r="DS62" s="83"/>
+      <c r="DT62" s="83"/>
+      <c r="DU62" s="83"/>
+      <c r="DV62" s="83"/>
+      <c r="DW62" s="83"/>
+      <c r="DX62" s="83"/>
+      <c r="DY62" s="83"/>
+      <c r="DZ62" s="83"/>
+      <c r="EA62" s="83"/>
+      <c r="EB62" s="83"/>
+      <c r="EC62" s="83"/>
+      <c r="ED62" s="83"/>
+      <c r="EE62" s="83"/>
+      <c r="EF62" s="83"/>
+      <c r="EG62" s="83"/>
+      <c r="EH62" s="83"/>
+      <c r="EI62" s="83"/>
+      <c r="EJ62" s="83"/>
+      <c r="EK62" s="83"/>
+      <c r="EL62" s="83"/>
+      <c r="EM62" s="83"/>
+      <c r="EN62" s="83"/>
+      <c r="EO62" s="83"/>
+      <c r="EP62" s="84"/>
+      <c r="EQ62" s="85"/>
+    </row>
+    <row r="63" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="63" t="str">
+        <f>IF(B63="","",IF(A62="",IF(MAX($A$16:A62)=0,1,ROUNDDOWN(MAX($A$16:A62)+1,0)),A62+0.01))</f>
+        <v/>
+      </c>
+      <c r="B63" s="76"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="68" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J63" s="80"/>
+      <c r="K63" s="70" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="L63" s="228" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="M63" s="229" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="N63" s="206"/>
+      <c r="O63" s="83"/>
+      <c r="P63" s="83"/>
+      <c r="Q63" s="83"/>
+      <c r="R63" s="83"/>
+      <c r="S63" s="83"/>
+      <c r="T63" s="83"/>
+      <c r="U63" s="83"/>
+      <c r="V63" s="83"/>
+      <c r="W63" s="83"/>
+      <c r="X63" s="83"/>
+      <c r="Y63" s="83"/>
+      <c r="Z63" s="83"/>
+      <c r="AA63" s="83"/>
+      <c r="AB63" s="83"/>
+      <c r="AC63" s="83"/>
+      <c r="AD63" s="83"/>
+      <c r="AE63" s="83"/>
+      <c r="AF63" s="83"/>
+      <c r="AG63" s="83"/>
+      <c r="AH63" s="83"/>
+      <c r="AI63" s="83"/>
+      <c r="AJ63" s="83"/>
+      <c r="AK63" s="83"/>
+      <c r="AL63" s="83"/>
+      <c r="AM63" s="83"/>
+      <c r="AN63" s="83"/>
+      <c r="AO63" s="83"/>
+      <c r="AP63" s="83"/>
+      <c r="AQ63" s="83"/>
+      <c r="AR63" s="83"/>
+      <c r="AS63" s="83"/>
+      <c r="AT63" s="83"/>
+      <c r="AU63" s="83"/>
+      <c r="AV63" s="83"/>
+      <c r="AW63" s="83"/>
+      <c r="AX63" s="83"/>
+      <c r="AY63" s="83"/>
+      <c r="AZ63" s="83"/>
+      <c r="BA63" s="83"/>
+      <c r="BB63" s="83"/>
+      <c r="BC63" s="83"/>
+      <c r="BD63" s="83"/>
+      <c r="BE63" s="83"/>
+      <c r="BF63" s="83"/>
+      <c r="BG63" s="83"/>
+      <c r="BH63" s="83"/>
+      <c r="BI63" s="83"/>
+      <c r="BJ63" s="83"/>
+      <c r="BK63" s="83"/>
+      <c r="BL63" s="83"/>
+      <c r="BM63" s="83"/>
+      <c r="BN63" s="83"/>
+      <c r="BO63" s="83"/>
+      <c r="BP63" s="83"/>
+      <c r="BQ63" s="83"/>
+      <c r="BR63" s="83"/>
+      <c r="BS63" s="83"/>
+      <c r="BT63" s="83"/>
+      <c r="BU63" s="83"/>
+      <c r="BV63" s="83"/>
+      <c r="BW63" s="83"/>
+      <c r="BX63" s="83"/>
+      <c r="BY63" s="83"/>
+      <c r="BZ63" s="83"/>
+      <c r="CA63" s="83"/>
+      <c r="CB63" s="83"/>
+      <c r="CC63" s="83"/>
+      <c r="CD63" s="83"/>
+      <c r="CE63" s="83"/>
+      <c r="CF63" s="83"/>
+      <c r="CG63" s="83"/>
+      <c r="CH63" s="83"/>
+      <c r="CI63" s="83"/>
+      <c r="CJ63" s="83"/>
+      <c r="CK63" s="83"/>
+      <c r="CL63" s="83"/>
+      <c r="CM63" s="83"/>
+      <c r="CN63" s="83"/>
+      <c r="CO63" s="83"/>
+      <c r="CP63" s="83"/>
+      <c r="CQ63" s="83"/>
+      <c r="CR63" s="83"/>
+      <c r="CS63" s="83"/>
+      <c r="CT63" s="83"/>
+      <c r="CU63" s="83"/>
+      <c r="CV63" s="83"/>
+      <c r="CW63" s="83"/>
+      <c r="CX63" s="83"/>
+      <c r="CY63" s="83"/>
+      <c r="CZ63" s="83"/>
+      <c r="DA63" s="83"/>
+      <c r="DB63" s="83"/>
+      <c r="DC63" s="83"/>
+      <c r="DD63" s="83"/>
+      <c r="DE63" s="83"/>
+      <c r="DF63" s="83"/>
+      <c r="DG63" s="83"/>
+      <c r="DH63" s="83"/>
+      <c r="DI63" s="83"/>
+      <c r="DJ63" s="83"/>
+      <c r="DK63" s="83"/>
+      <c r="DL63" s="83"/>
+      <c r="DM63" s="83"/>
+      <c r="DN63" s="83"/>
+      <c r="DO63" s="83"/>
+      <c r="DP63" s="83"/>
+      <c r="DQ63" s="83"/>
+      <c r="DR63" s="83"/>
+      <c r="DS63" s="83"/>
+      <c r="DT63" s="83"/>
+      <c r="DU63" s="83"/>
+      <c r="DV63" s="83"/>
+      <c r="DW63" s="83"/>
+      <c r="DX63" s="83"/>
+      <c r="DY63" s="83"/>
+      <c r="DZ63" s="83"/>
+      <c r="EA63" s="83"/>
+      <c r="EB63" s="83"/>
+      <c r="EC63" s="83"/>
+      <c r="ED63" s="83"/>
+      <c r="EE63" s="83"/>
+      <c r="EF63" s="83"/>
+      <c r="EG63" s="83"/>
+      <c r="EH63" s="83"/>
+      <c r="EI63" s="83"/>
+      <c r="EJ63" s="83"/>
+      <c r="EK63" s="83"/>
+      <c r="EL63" s="83"/>
+      <c r="EM63" s="83"/>
+      <c r="EN63" s="83"/>
+      <c r="EO63" s="83"/>
+      <c r="EP63" s="84"/>
+      <c r="EQ63" s="85"/>
+    </row>
+    <row r="64" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="63" t="str">
+        <f>IF(B64="","",IF(A63="",IF(MAX($A$16:A63)=0,1,ROUNDDOWN(MAX($A$16:A63)+1,0)),A63+0.01))</f>
+        <v/>
+      </c>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="68" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J64" s="80"/>
+      <c r="K64" s="70" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="L64" s="228" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="M64" s="229" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="N64" s="206"/>
+      <c r="O64" s="83"/>
+      <c r="P64" s="83"/>
+      <c r="Q64" s="83"/>
+      <c r="R64" s="83"/>
+      <c r="S64" s="83"/>
+      <c r="T64" s="83"/>
+      <c r="U64" s="83"/>
+      <c r="V64" s="83"/>
+      <c r="W64" s="83"/>
+      <c r="X64" s="83"/>
+      <c r="Y64" s="83"/>
+      <c r="Z64" s="83"/>
+      <c r="AA64" s="83"/>
+      <c r="AB64" s="83"/>
+      <c r="AC64" s="83"/>
+      <c r="AD64" s="83"/>
+      <c r="AE64" s="83"/>
+      <c r="AF64" s="83"/>
+      <c r="AG64" s="83"/>
+      <c r="AH64" s="83"/>
+      <c r="AI64" s="83"/>
+      <c r="AJ64" s="83"/>
+      <c r="AK64" s="83"/>
+      <c r="AL64" s="83"/>
+      <c r="AM64" s="83"/>
+      <c r="AN64" s="83"/>
+      <c r="AO64" s="83"/>
+      <c r="AP64" s="83"/>
+      <c r="AQ64" s="83"/>
+      <c r="AR64" s="83"/>
+      <c r="AS64" s="83"/>
+      <c r="AT64" s="83"/>
+      <c r="AU64" s="83"/>
+      <c r="AV64" s="83"/>
+      <c r="AW64" s="83"/>
+      <c r="AX64" s="83"/>
+      <c r="AY64" s="83"/>
+      <c r="AZ64" s="83"/>
+      <c r="BA64" s="83"/>
+      <c r="BB64" s="83"/>
+      <c r="BC64" s="83"/>
+      <c r="BD64" s="83"/>
+      <c r="BE64" s="83"/>
+      <c r="BF64" s="83"/>
+      <c r="BG64" s="83"/>
+      <c r="BH64" s="83"/>
+      <c r="BI64" s="83"/>
+      <c r="BJ64" s="83"/>
+      <c r="BK64" s="83"/>
+      <c r="BL64" s="83"/>
+      <c r="BM64" s="83"/>
+      <c r="BN64" s="83"/>
+      <c r="BO64" s="83"/>
+      <c r="BP64" s="83"/>
+      <c r="BQ64" s="83"/>
+      <c r="BR64" s="83"/>
+      <c r="BS64" s="83"/>
+      <c r="BT64" s="83"/>
+      <c r="BU64" s="83"/>
+      <c r="BV64" s="83"/>
+      <c r="BW64" s="83"/>
+      <c r="BX64" s="83"/>
+      <c r="BY64" s="83"/>
+      <c r="BZ64" s="83"/>
+      <c r="CA64" s="83"/>
+      <c r="CB64" s="83"/>
+      <c r="CC64" s="83"/>
+      <c r="CD64" s="83"/>
+      <c r="CE64" s="83"/>
+      <c r="CF64" s="83"/>
+      <c r="CG64" s="83"/>
+      <c r="CH64" s="83"/>
+      <c r="CI64" s="83"/>
+      <c r="CJ64" s="83"/>
+      <c r="CK64" s="83"/>
+      <c r="CL64" s="83"/>
+      <c r="CM64" s="83"/>
+      <c r="CN64" s="83"/>
+      <c r="CO64" s="83"/>
+      <c r="CP64" s="83"/>
+      <c r="CQ64" s="83"/>
+      <c r="CR64" s="83"/>
+      <c r="CS64" s="83"/>
+      <c r="CT64" s="83"/>
+      <c r="CU64" s="83"/>
+      <c r="CV64" s="83"/>
+      <c r="CW64" s="83"/>
+      <c r="CX64" s="83"/>
+      <c r="CY64" s="83"/>
+      <c r="CZ64" s="83"/>
+      <c r="DA64" s="83"/>
+      <c r="DB64" s="83"/>
+      <c r="DC64" s="83"/>
+      <c r="DD64" s="83"/>
+      <c r="DE64" s="83"/>
+      <c r="DF64" s="83"/>
+      <c r="DG64" s="83"/>
+      <c r="DH64" s="83"/>
+      <c r="DI64" s="83"/>
+      <c r="DJ64" s="83"/>
+      <c r="DK64" s="83"/>
+      <c r="DL64" s="83"/>
+      <c r="DM64" s="83"/>
+      <c r="DN64" s="83"/>
+      <c r="DO64" s="83"/>
+      <c r="DP64" s="83"/>
+      <c r="DQ64" s="83"/>
+      <c r="DR64" s="83"/>
+      <c r="DS64" s="83"/>
+      <c r="DT64" s="83"/>
+      <c r="DU64" s="83"/>
+      <c r="DV64" s="83"/>
+      <c r="DW64" s="83"/>
+      <c r="DX64" s="83"/>
+      <c r="DY64" s="83"/>
+      <c r="DZ64" s="83"/>
+      <c r="EA64" s="83"/>
+      <c r="EB64" s="83"/>
+      <c r="EC64" s="83"/>
+      <c r="ED64" s="83"/>
+      <c r="EE64" s="83"/>
+      <c r="EF64" s="83"/>
+      <c r="EG64" s="83"/>
+      <c r="EH64" s="83"/>
+      <c r="EI64" s="83"/>
+      <c r="EJ64" s="83"/>
+      <c r="EK64" s="83"/>
+      <c r="EL64" s="83"/>
+      <c r="EM64" s="83"/>
+      <c r="EN64" s="83"/>
+      <c r="EO64" s="83"/>
+      <c r="EP64" s="84"/>
+      <c r="EQ64" s="85"/>
+    </row>
+    <row r="65" spans="1:147" s="86" customFormat="1" ht="1.1499999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="87" t="str">
+        <f>IF(B65="","",IF(A64="",IF(MAX($A$16:A64)=0,1,ROUNDDOWN(MAX($A$16:A64)+1,0)),A64+0.01))</f>
+        <v/>
+      </c>
+      <c r="B65" s="88"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="92" t="str">
+        <f t="shared" ref="I65" si="26">IF(G65="","",IF(H65="M","",IF(H65="","",WORKDAY(G65,H65-1,Feiertage))))</f>
+        <v/>
+      </c>
+      <c r="J65" s="93"/>
+      <c r="K65" s="70" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="L65" s="228" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="M65" s="230" t="str">
+        <f t="shared" ref="M65" si="27">IF(G65="","",IF(I65="","",G65+L65-1))</f>
+        <v/>
+      </c>
+      <c r="N65" s="207"/>
+      <c r="O65" s="94"/>
+      <c r="P65" s="94"/>
+      <c r="Q65" s="94"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="94"/>
+      <c r="T65" s="94"/>
+      <c r="U65" s="94"/>
+      <c r="V65" s="94"/>
+      <c r="W65" s="94"/>
+      <c r="X65" s="94"/>
+      <c r="Y65" s="94"/>
+      <c r="Z65" s="94"/>
+      <c r="AA65" s="94"/>
+      <c r="AB65" s="94"/>
+      <c r="AC65" s="94"/>
+      <c r="AD65" s="94"/>
+      <c r="AE65" s="94"/>
+      <c r="AF65" s="94"/>
+      <c r="AG65" s="94"/>
+      <c r="AH65" s="94"/>
+      <c r="AI65" s="94"/>
+      <c r="AJ65" s="94"/>
+      <c r="AK65" s="94"/>
+      <c r="AL65" s="94"/>
+      <c r="AM65" s="94"/>
+      <c r="AN65" s="94"/>
+      <c r="AO65" s="94"/>
+      <c r="AP65" s="94"/>
+      <c r="AQ65" s="94"/>
+      <c r="AR65" s="94"/>
+      <c r="AS65" s="94"/>
+      <c r="AT65" s="94"/>
+      <c r="AU65" s="94"/>
+      <c r="AV65" s="94"/>
+      <c r="AW65" s="94"/>
+      <c r="AX65" s="94"/>
+      <c r="AY65" s="94"/>
+      <c r="AZ65" s="94"/>
+      <c r="BA65" s="94"/>
+      <c r="BB65" s="94"/>
+      <c r="BC65" s="94"/>
+      <c r="BD65" s="94"/>
+      <c r="BE65" s="94"/>
+      <c r="BF65" s="94"/>
+      <c r="BG65" s="94"/>
+      <c r="BH65" s="94"/>
+      <c r="BI65" s="94"/>
+      <c r="BJ65" s="94"/>
+      <c r="BK65" s="94"/>
+      <c r="BL65" s="94"/>
+      <c r="BM65" s="94"/>
+      <c r="BN65" s="94"/>
+      <c r="BO65" s="94"/>
+      <c r="BP65" s="94"/>
+      <c r="BQ65" s="94"/>
+      <c r="BR65" s="94"/>
+      <c r="BS65" s="94"/>
+      <c r="BT65" s="94"/>
+      <c r="BU65" s="94"/>
+      <c r="BV65" s="94"/>
+      <c r="BW65" s="94"/>
+      <c r="BX65" s="94"/>
+      <c r="BY65" s="94"/>
+      <c r="BZ65" s="94"/>
+      <c r="CA65" s="94"/>
+      <c r="CB65" s="94"/>
+      <c r="CC65" s="94"/>
+      <c r="CD65" s="94"/>
+      <c r="CE65" s="94"/>
+      <c r="CF65" s="94"/>
+      <c r="CG65" s="94"/>
+      <c r="CH65" s="94"/>
+      <c r="CI65" s="94"/>
+      <c r="CJ65" s="94"/>
+      <c r="CK65" s="94"/>
+      <c r="CL65" s="94"/>
+      <c r="CM65" s="94"/>
+      <c r="CN65" s="94"/>
+      <c r="CO65" s="94"/>
+      <c r="CP65" s="94"/>
+      <c r="CQ65" s="94"/>
+      <c r="CR65" s="94"/>
+      <c r="CS65" s="94"/>
+      <c r="CT65" s="94"/>
+      <c r="CU65" s="94"/>
+      <c r="CV65" s="94"/>
+      <c r="CW65" s="94"/>
+      <c r="CX65" s="94"/>
+      <c r="CY65" s="94"/>
+      <c r="CZ65" s="94"/>
+      <c r="DA65" s="94"/>
+      <c r="DB65" s="94"/>
+      <c r="DC65" s="94"/>
+      <c r="DD65" s="94"/>
+      <c r="DE65" s="94"/>
+      <c r="DF65" s="94"/>
+      <c r="DG65" s="94"/>
+      <c r="DH65" s="94"/>
+      <c r="DI65" s="94"/>
+      <c r="DJ65" s="94"/>
+      <c r="DK65" s="94"/>
+      <c r="DL65" s="94"/>
+      <c r="DM65" s="94"/>
+      <c r="DN65" s="94"/>
+      <c r="DO65" s="94"/>
+      <c r="DP65" s="94"/>
+      <c r="DQ65" s="94"/>
+      <c r="DR65" s="94"/>
+      <c r="DS65" s="94"/>
+      <c r="DT65" s="94"/>
+      <c r="DU65" s="94"/>
+      <c r="DV65" s="94"/>
+      <c r="DW65" s="94"/>
+      <c r="DX65" s="94"/>
+      <c r="DY65" s="94"/>
+      <c r="DZ65" s="94"/>
+      <c r="EA65" s="94"/>
+      <c r="EB65" s="94"/>
+      <c r="EC65" s="94"/>
+      <c r="ED65" s="94"/>
+      <c r="EE65" s="94"/>
+      <c r="EF65" s="94"/>
+      <c r="EG65" s="94"/>
+      <c r="EH65" s="94"/>
+      <c r="EI65" s="94"/>
+      <c r="EJ65" s="94"/>
+      <c r="EK65" s="94"/>
+      <c r="EL65" s="94"/>
+      <c r="EM65" s="94"/>
+      <c r="EN65" s="94"/>
+      <c r="EO65" s="94"/>
+      <c r="EP65" s="95"/>
+      <c r="EQ65" s="85"/>
+    </row>
+    <row r="66" spans="1:147" ht="2.4500000000000002" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="97"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="97"/>
+      <c r="K66" s="97"/>
+      <c r="L66" s="228" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="M66" s="231"/>
+      <c r="N66" s="208"/>
+      <c r="O66" s="97"/>
+      <c r="P66" s="97"/>
+      <c r="Q66" s="97"/>
+      <c r="R66" s="97"/>
+      <c r="S66" s="97"/>
+      <c r="T66" s="97"/>
+      <c r="U66" s="97"/>
+      <c r="V66" s="97"/>
+      <c r="W66" s="97"/>
+      <c r="X66" s="97"/>
+      <c r="Y66" s="97"/>
+      <c r="Z66" s="97"/>
+      <c r="AA66" s="97"/>
+      <c r="AB66" s="97"/>
+      <c r="AC66" s="97"/>
+      <c r="AD66" s="97"/>
+      <c r="AE66" s="97"/>
+      <c r="AF66" s="97"/>
+      <c r="AG66" s="97"/>
+      <c r="AH66" s="97"/>
+      <c r="AI66" s="97"/>
+      <c r="AJ66" s="97"/>
+      <c r="AK66" s="97"/>
+      <c r="AL66" s="97"/>
+      <c r="AM66" s="97"/>
+      <c r="AN66" s="97"/>
+      <c r="AO66" s="97"/>
+      <c r="AP66" s="97"/>
+      <c r="AQ66" s="97"/>
+      <c r="AR66" s="97"/>
+      <c r="AS66" s="97"/>
+      <c r="AT66" s="97"/>
+      <c r="AU66" s="97"/>
+      <c r="AV66" s="97"/>
+      <c r="AW66" s="97"/>
+      <c r="AX66" s="97"/>
+      <c r="AY66" s="97"/>
+      <c r="AZ66" s="97"/>
+      <c r="BA66" s="97"/>
+      <c r="BB66" s="97"/>
+      <c r="BC66" s="97"/>
+      <c r="BD66" s="97"/>
+      <c r="BE66" s="97"/>
+      <c r="BF66" s="97"/>
+      <c r="BG66" s="97"/>
+      <c r="BH66" s="97"/>
+      <c r="BI66" s="97"/>
+      <c r="BJ66" s="97"/>
+      <c r="BK66" s="97"/>
+      <c r="BL66" s="97"/>
+      <c r="BM66" s="97"/>
+      <c r="BN66" s="97"/>
+      <c r="BO66" s="97"/>
+      <c r="BP66" s="97"/>
+      <c r="BQ66" s="97"/>
+      <c r="BR66" s="98"/>
+      <c r="BS66" s="98"/>
+      <c r="BT66" s="98"/>
+      <c r="BU66" s="98"/>
+      <c r="BV66" s="98"/>
+      <c r="BW66" s="98"/>
+      <c r="BX66" s="98"/>
+      <c r="BY66" s="98"/>
+      <c r="BZ66" s="98"/>
+      <c r="CA66" s="98"/>
+      <c r="CB66" s="98"/>
+      <c r="CC66" s="98"/>
+      <c r="CD66" s="98"/>
+      <c r="CE66" s="98"/>
+      <c r="CF66" s="98"/>
+      <c r="CG66" s="98"/>
+      <c r="CH66" s="98"/>
+      <c r="CI66" s="98"/>
+      <c r="CJ66" s="98"/>
+      <c r="CK66" s="98"/>
+      <c r="CL66" s="98"/>
+      <c r="CM66" s="98"/>
+      <c r="CN66" s="98"/>
+      <c r="CO66" s="98"/>
+      <c r="CP66" s="98"/>
+      <c r="CQ66" s="98"/>
+      <c r="CR66" s="98"/>
+      <c r="CS66" s="98"/>
+      <c r="CT66" s="98"/>
+      <c r="CU66" s="98"/>
+      <c r="CV66" s="98"/>
+      <c r="CW66" s="98"/>
+      <c r="CX66" s="98"/>
+      <c r="CY66" s="98"/>
+      <c r="CZ66" s="98"/>
+      <c r="DA66" s="98"/>
+      <c r="DB66" s="98"/>
+      <c r="DC66" s="98"/>
+      <c r="DD66" s="98"/>
+      <c r="DE66" s="98"/>
+      <c r="DF66" s="98"/>
+      <c r="DG66" s="98"/>
+      <c r="DH66" s="98"/>
+      <c r="DI66" s="98"/>
+      <c r="DJ66" s="98"/>
+      <c r="DK66" s="98"/>
+      <c r="DL66" s="98"/>
+      <c r="DM66" s="98"/>
+      <c r="DN66" s="98"/>
+      <c r="DO66" s="98"/>
+      <c r="DP66" s="98"/>
+      <c r="DQ66" s="98"/>
+      <c r="DR66" s="98"/>
+      <c r="DS66" s="98"/>
+      <c r="DT66" s="98"/>
+      <c r="DU66" s="98"/>
+      <c r="DV66" s="98"/>
+      <c r="DW66" s="98"/>
+      <c r="DX66" s="98"/>
+      <c r="DY66" s="98"/>
+      <c r="DZ66" s="98"/>
+      <c r="EA66" s="98"/>
+      <c r="EB66" s="98"/>
+      <c r="EC66" s="98"/>
+      <c r="ED66" s="98"/>
+      <c r="EE66" s="98"/>
+      <c r="EF66" s="98"/>
+      <c r="EG66" s="98"/>
+      <c r="EH66" s="98"/>
+      <c r="EI66" s="98"/>
+      <c r="EJ66" s="98"/>
+      <c r="EK66" s="98"/>
+      <c r="EL66" s="98"/>
+      <c r="EM66" s="98"/>
+      <c r="EN66" s="98"/>
+      <c r="EO66" s="98"/>
+      <c r="EP66" s="99"/>
+      <c r="EQ66" s="37"/>
+    </row>
+    <row r="67" spans="1:147" s="3" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="237"/>
+      <c r="B67" s="238"/>
+      <c r="C67" s="238"/>
+      <c r="D67" s="238"/>
+      <c r="E67" s="238"/>
+      <c r="F67" s="238"/>
+      <c r="G67" s="238"/>
+      <c r="H67" s="238"/>
+      <c r="I67" s="238"/>
+      <c r="J67" s="238"/>
+      <c r="K67" s="238"/>
+      <c r="L67" s="238"/>
+      <c r="M67" s="238"/>
+      <c r="N67" s="238"/>
+      <c r="O67" s="238"/>
+      <c r="P67" s="238"/>
+      <c r="Q67" s="238"/>
+      <c r="R67" s="238"/>
+      <c r="S67" s="238"/>
+      <c r="T67" s="238"/>
+      <c r="U67" s="238"/>
+      <c r="V67" s="238"/>
+      <c r="W67" s="238"/>
+      <c r="X67" s="238"/>
+      <c r="Y67" s="238"/>
+      <c r="Z67" s="238"/>
+      <c r="AA67" s="238"/>
+      <c r="AB67" s="238"/>
+      <c r="AC67" s="238"/>
+      <c r="AD67" s="238"/>
+      <c r="AE67" s="238"/>
+      <c r="AF67" s="238"/>
+      <c r="AG67" s="238"/>
+      <c r="AH67" s="238"/>
+      <c r="AI67" s="238"/>
+      <c r="AJ67" s="238"/>
+      <c r="AK67" s="238"/>
+      <c r="AL67" s="238"/>
+      <c r="AM67" s="238"/>
+      <c r="AN67" s="100"/>
+      <c r="AO67" s="100"/>
+      <c r="AP67" s="100"/>
+      <c r="AQ67" s="100"/>
+      <c r="AR67" s="100"/>
+      <c r="AS67" s="100"/>
+      <c r="AT67" s="100"/>
+      <c r="AU67" s="100"/>
+      <c r="AV67" s="100"/>
+      <c r="AW67" s="100"/>
+      <c r="AX67" s="100"/>
+      <c r="AY67" s="100"/>
+      <c r="AZ67" s="100"/>
+      <c r="BA67" s="100"/>
+      <c r="BB67" s="100"/>
+      <c r="BC67" s="100"/>
+      <c r="BD67" s="100"/>
+      <c r="BE67" s="100"/>
+      <c r="BF67" s="100"/>
+      <c r="BG67" s="100"/>
+      <c r="BH67" s="100"/>
+      <c r="BI67" s="100"/>
+      <c r="BJ67" s="100"/>
+      <c r="BK67" s="100"/>
+      <c r="BL67" s="100"/>
+      <c r="BM67" s="100"/>
+      <c r="BN67" s="100"/>
+      <c r="BO67" s="100"/>
+      <c r="BP67" s="100"/>
+      <c r="BQ67" s="100"/>
+      <c r="BR67" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="BS63" s="239"/>
-      <c r="BT63" s="239"/>
-      <c r="BU63" s="239"/>
-      <c r="BV63" s="239"/>
-      <c r="BW63" s="239"/>
-      <c r="BX63" s="239"/>
-      <c r="BY63" s="239"/>
-      <c r="BZ63" s="239"/>
-      <c r="CA63" s="239"/>
-      <c r="CB63" s="239"/>
-      <c r="CC63" s="239"/>
-      <c r="CD63" s="239"/>
-      <c r="CE63" s="239"/>
-      <c r="CF63" s="239"/>
-      <c r="CG63" s="239"/>
-      <c r="CH63" s="239"/>
-      <c r="CI63" s="239"/>
-      <c r="CJ63" s="239"/>
-      <c r="CK63" s="239"/>
-      <c r="CL63" s="239"/>
-      <c r="CM63" s="239"/>
-      <c r="CN63" s="239"/>
-      <c r="CO63" s="239"/>
-      <c r="CP63" s="239"/>
-      <c r="CQ63" s="239"/>
-      <c r="CR63" s="239"/>
-      <c r="CS63" s="239"/>
-      <c r="CT63" s="239"/>
-      <c r="CU63" s="239"/>
-      <c r="CV63" s="239"/>
-      <c r="CW63" s="239"/>
-      <c r="CX63" s="239"/>
-      <c r="CY63" s="239"/>
-      <c r="CZ63" s="239"/>
-      <c r="DA63" s="239"/>
-      <c r="DB63" s="239"/>
-      <c r="DC63" s="239"/>
-      <c r="DD63" s="239"/>
-      <c r="DE63" s="239"/>
-      <c r="DF63" s="239"/>
-      <c r="DG63" s="239"/>
-      <c r="DH63" s="239"/>
-      <c r="DI63" s="239"/>
-      <c r="DJ63" s="239"/>
-      <c r="DK63" s="239"/>
-      <c r="DL63" s="239"/>
-      <c r="DM63" s="239"/>
-      <c r="DN63" s="239"/>
-      <c r="DO63" s="239"/>
-      <c r="DP63" s="239"/>
-      <c r="DQ63" s="239"/>
-      <c r="DR63" s="239"/>
-      <c r="DS63" s="239"/>
-      <c r="DT63" s="239"/>
-      <c r="DU63" s="239"/>
-      <c r="DV63" s="239"/>
-      <c r="DW63" s="239"/>
-      <c r="DX63" s="239"/>
-      <c r="DY63" s="239"/>
-      <c r="DZ63" s="239"/>
-      <c r="EA63" s="239"/>
-      <c r="EB63" s="239"/>
-      <c r="EC63" s="239"/>
-      <c r="ED63" s="239"/>
-      <c r="EE63" s="239"/>
-      <c r="EF63" s="239"/>
-      <c r="EG63" s="239"/>
-      <c r="EH63" s="239"/>
-      <c r="EI63" s="239"/>
-      <c r="EJ63" s="239"/>
-      <c r="EK63" s="239"/>
-      <c r="EL63" s="239"/>
-      <c r="EM63" s="239"/>
-      <c r="EN63" s="239"/>
-      <c r="EO63" s="239"/>
-      <c r="EP63" s="240"/>
-      <c r="EQ63" s="48"/>
-    </row>
-    <row r="64" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A64" s="101"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="102"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="232"/>
-      <c r="M64" s="232"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
-      <c r="Z64" s="37"/>
-      <c r="AA64" s="37"/>
-      <c r="AB64" s="37"/>
-      <c r="AC64" s="37"/>
-      <c r="AD64" s="37"/>
-      <c r="AE64" s="37"/>
-      <c r="AF64" s="37"/>
-      <c r="AG64" s="37"/>
-      <c r="AH64" s="37"/>
-      <c r="AI64" s="37"/>
-      <c r="AJ64" s="37"/>
-      <c r="AK64" s="37"/>
-      <c r="AL64" s="37"/>
-      <c r="AM64" s="37"/>
-      <c r="AN64" s="37"/>
-      <c r="AO64" s="37"/>
-      <c r="AP64" s="37"/>
-      <c r="AQ64" s="37"/>
-      <c r="AR64" s="37"/>
-      <c r="AS64" s="37"/>
-      <c r="AT64" s="37"/>
-      <c r="AU64" s="37"/>
-      <c r="AV64" s="37"/>
-      <c r="AW64" s="37"/>
-      <c r="AX64" s="37"/>
-      <c r="AY64" s="37"/>
-      <c r="AZ64" s="37"/>
-      <c r="BA64" s="37"/>
-      <c r="BB64" s="37"/>
-      <c r="BC64" s="37"/>
-      <c r="BD64" s="37"/>
-      <c r="BE64" s="37"/>
-      <c r="BF64" s="37"/>
-      <c r="BG64" s="37"/>
-      <c r="BH64" s="37"/>
-      <c r="BI64" s="37"/>
-      <c r="BJ64" s="37"/>
-      <c r="BK64" s="37"/>
-      <c r="BL64" s="37"/>
-      <c r="BM64" s="37"/>
-      <c r="BN64" s="37"/>
-      <c r="BO64" s="37"/>
-      <c r="BP64" s="37"/>
-      <c r="BQ64" s="37"/>
-      <c r="BR64" s="37"/>
-      <c r="BS64" s="37"/>
-      <c r="BT64" s="37"/>
-      <c r="BU64" s="37"/>
-      <c r="BV64" s="37"/>
-      <c r="BW64" s="37"/>
-      <c r="BX64" s="37"/>
-      <c r="BY64" s="37"/>
-      <c r="BZ64" s="37"/>
-      <c r="CA64" s="37"/>
-      <c r="CB64" s="37"/>
-      <c r="CC64" s="37"/>
-      <c r="CD64" s="37"/>
-      <c r="CE64" s="37"/>
-      <c r="CF64" s="37"/>
-      <c r="CG64" s="37"/>
-      <c r="CH64" s="37"/>
-      <c r="CI64" s="37"/>
-      <c r="CJ64" s="37"/>
-      <c r="CK64" s="37"/>
-      <c r="CL64" s="37"/>
-      <c r="CM64" s="37"/>
-      <c r="CN64" s="37"/>
-      <c r="CO64" s="37"/>
-      <c r="CP64" s="37"/>
-      <c r="CQ64" s="37"/>
-      <c r="CR64" s="37"/>
-      <c r="CS64" s="37"/>
-      <c r="CT64" s="37"/>
-      <c r="CU64" s="37"/>
-      <c r="CV64" s="37"/>
-      <c r="CW64" s="37"/>
-      <c r="CX64" s="37"/>
-      <c r="CY64" s="37"/>
-      <c r="CZ64" s="37"/>
-      <c r="DA64" s="37"/>
-      <c r="DB64" s="37"/>
-      <c r="DC64" s="37"/>
-      <c r="DD64" s="37"/>
-      <c r="DE64" s="37"/>
-      <c r="DF64" s="37"/>
-      <c r="DG64" s="37"/>
-      <c r="DH64" s="37"/>
-      <c r="DI64" s="37"/>
-      <c r="DJ64" s="37"/>
-      <c r="DK64" s="37"/>
-      <c r="DL64" s="37"/>
-      <c r="DM64" s="37"/>
-      <c r="DN64" s="37"/>
-      <c r="DO64" s="37"/>
-      <c r="DP64" s="37"/>
-      <c r="DQ64" s="37"/>
-      <c r="DR64" s="37"/>
-      <c r="DS64" s="37"/>
-      <c r="DT64" s="37"/>
-      <c r="DU64" s="37"/>
-      <c r="DV64" s="37"/>
-      <c r="DW64" s="37"/>
-      <c r="DX64" s="37"/>
-      <c r="DY64" s="37"/>
-      <c r="DZ64" s="37"/>
-      <c r="EA64" s="37"/>
-      <c r="EB64" s="37"/>
-      <c r="EC64" s="37"/>
-      <c r="ED64" s="37"/>
-      <c r="EE64" s="37"/>
-      <c r="EF64" s="37"/>
-      <c r="EG64" s="37"/>
-      <c r="EH64" s="37"/>
-      <c r="EI64" s="37"/>
-      <c r="EJ64" s="37"/>
-      <c r="EK64" s="37"/>
-      <c r="EL64" s="37"/>
-      <c r="EM64" s="37"/>
-      <c r="EN64" s="37"/>
-      <c r="EO64" s="37"/>
-      <c r="EP64" s="37"/>
-      <c r="EQ64" s="37"/>
-    </row>
-    <row r="65" spans="1:146" x14ac:dyDescent="0.25">
-      <c r="A65" s="234"/>
-      <c r="B65" s="234"/>
-      <c r="C65" s="234"/>
-      <c r="D65" s="234"/>
-      <c r="E65" s="234"/>
-      <c r="F65" s="234"/>
-      <c r="G65" s="234"/>
-      <c r="H65" s="234"/>
-      <c r="I65" s="234"/>
-      <c r="J65" s="234"/>
-      <c r="K65" s="234"/>
-      <c r="L65" s="234"/>
-      <c r="M65" s="234"/>
-      <c r="N65" s="234"/>
-      <c r="O65" s="234"/>
-      <c r="P65" s="234"/>
-      <c r="Q65" s="234"/>
-      <c r="R65" s="234"/>
-      <c r="S65" s="234"/>
-      <c r="T65" s="234"/>
-      <c r="U65" s="234"/>
-      <c r="V65" s="234"/>
-      <c r="W65" s="234"/>
-      <c r="X65" s="234"/>
-      <c r="Y65" s="234"/>
-      <c r="Z65" s="234"/>
-      <c r="AA65" s="234"/>
-      <c r="AB65" s="234"/>
-      <c r="AC65" s="234"/>
-      <c r="AD65" s="234"/>
-      <c r="AE65" s="234"/>
-      <c r="AF65" s="234"/>
-      <c r="AG65" s="234"/>
-      <c r="AH65" s="234"/>
-      <c r="AI65" s="234"/>
-      <c r="AJ65" s="234"/>
-      <c r="AK65" s="234"/>
-      <c r="AL65" s="234"/>
-      <c r="AM65" s="234"/>
-      <c r="AN65" s="234"/>
-      <c r="AO65" s="234"/>
-      <c r="AP65" s="234"/>
-      <c r="AQ65" s="234"/>
-      <c r="AR65" s="234"/>
-      <c r="AS65" s="234"/>
-      <c r="AT65" s="234"/>
-      <c r="AU65" s="234"/>
-      <c r="AV65" s="234"/>
-      <c r="AW65" s="234"/>
-      <c r="AX65" s="234"/>
-      <c r="AY65" s="234"/>
-      <c r="AZ65" s="234"/>
-      <c r="BA65" s="234"/>
-      <c r="BB65" s="234"/>
-      <c r="BC65" s="234"/>
-      <c r="BD65" s="234"/>
-      <c r="BE65" s="234"/>
-      <c r="BF65" s="234"/>
-      <c r="BG65" s="234"/>
-      <c r="BH65" s="234"/>
-      <c r="BI65" s="234"/>
-      <c r="BJ65" s="234"/>
-      <c r="BK65" s="234"/>
-      <c r="BL65" s="234"/>
-      <c r="BM65" s="234"/>
-      <c r="BN65" s="234"/>
-      <c r="BO65" s="234"/>
-      <c r="BP65" s="234"/>
-      <c r="BQ65" s="234"/>
-      <c r="BR65" s="234"/>
-      <c r="BS65" s="234"/>
-      <c r="BT65" s="234"/>
-      <c r="BU65" s="234"/>
-      <c r="BV65" s="234"/>
-      <c r="BW65" s="234"/>
-      <c r="BX65" s="234"/>
-      <c r="BY65" s="234"/>
-      <c r="BZ65" s="234"/>
-      <c r="CA65" s="234"/>
-      <c r="CB65" s="234"/>
-      <c r="CC65" s="234"/>
-      <c r="CD65" s="234"/>
-      <c r="CE65" s="234"/>
-      <c r="CF65" s="234"/>
-      <c r="CG65" s="234"/>
-      <c r="CH65" s="234"/>
-      <c r="CI65" s="234"/>
-      <c r="CJ65" s="234"/>
-      <c r="CK65" s="234"/>
-      <c r="CL65" s="234"/>
-      <c r="CM65" s="234"/>
-      <c r="CN65" s="234"/>
-      <c r="CO65" s="234"/>
-      <c r="CP65" s="234"/>
-      <c r="CQ65" s="234"/>
-      <c r="CR65" s="234"/>
-      <c r="CS65" s="234"/>
-      <c r="CT65" s="234"/>
-      <c r="CU65" s="234"/>
-      <c r="CV65" s="234"/>
-      <c r="CW65" s="234"/>
-      <c r="CX65" s="234"/>
-      <c r="CY65" s="234"/>
-      <c r="CZ65" s="234"/>
-      <c r="DA65" s="234"/>
-      <c r="DB65" s="234"/>
-      <c r="DC65" s="234"/>
-      <c r="DD65" s="234"/>
-      <c r="DE65" s="234"/>
-      <c r="DF65" s="234"/>
-      <c r="DG65" s="234"/>
-      <c r="DH65" s="234"/>
-      <c r="DI65" s="234"/>
-      <c r="DJ65" s="234"/>
-      <c r="DK65" s="234"/>
-      <c r="DL65" s="234"/>
-      <c r="DM65" s="234"/>
-      <c r="DN65" s="234"/>
-      <c r="DO65" s="234"/>
-      <c r="DP65" s="234"/>
-      <c r="DQ65" s="234"/>
-      <c r="DR65" s="234"/>
-      <c r="DS65" s="234"/>
-      <c r="DT65" s="234"/>
-      <c r="DU65" s="234"/>
-      <c r="DV65" s="234"/>
-      <c r="DW65" s="234"/>
-      <c r="DX65" s="234"/>
-      <c r="DY65" s="234"/>
-      <c r="DZ65" s="234"/>
-      <c r="EA65" s="234"/>
-      <c r="EB65" s="234"/>
-      <c r="EC65" s="234"/>
-      <c r="ED65" s="234"/>
-      <c r="EE65" s="234"/>
-      <c r="EF65" s="234"/>
-      <c r="EG65" s="234"/>
-      <c r="EH65" s="234"/>
-      <c r="EI65" s="234"/>
-      <c r="EJ65" s="234"/>
-      <c r="EK65" s="234"/>
-      <c r="EL65" s="234"/>
-      <c r="EM65" s="234"/>
-      <c r="EN65" s="234"/>
-      <c r="EO65" s="234"/>
-      <c r="EP65" s="234"/>
+      <c r="BS67" s="239"/>
+      <c r="BT67" s="239"/>
+      <c r="BU67" s="239"/>
+      <c r="BV67" s="239"/>
+      <c r="BW67" s="239"/>
+      <c r="BX67" s="239"/>
+      <c r="BY67" s="239"/>
+      <c r="BZ67" s="239"/>
+      <c r="CA67" s="239"/>
+      <c r="CB67" s="239"/>
+      <c r="CC67" s="239"/>
+      <c r="CD67" s="239"/>
+      <c r="CE67" s="239"/>
+      <c r="CF67" s="239"/>
+      <c r="CG67" s="239"/>
+      <c r="CH67" s="239"/>
+      <c r="CI67" s="239"/>
+      <c r="CJ67" s="239"/>
+      <c r="CK67" s="239"/>
+      <c r="CL67" s="239"/>
+      <c r="CM67" s="239"/>
+      <c r="CN67" s="239"/>
+      <c r="CO67" s="239"/>
+      <c r="CP67" s="239"/>
+      <c r="CQ67" s="239"/>
+      <c r="CR67" s="239"/>
+      <c r="CS67" s="239"/>
+      <c r="CT67" s="239"/>
+      <c r="CU67" s="239"/>
+      <c r="CV67" s="239"/>
+      <c r="CW67" s="239"/>
+      <c r="CX67" s="239"/>
+      <c r="CY67" s="239"/>
+      <c r="CZ67" s="239"/>
+      <c r="DA67" s="239"/>
+      <c r="DB67" s="239"/>
+      <c r="DC67" s="239"/>
+      <c r="DD67" s="239"/>
+      <c r="DE67" s="239"/>
+      <c r="DF67" s="239"/>
+      <c r="DG67" s="239"/>
+      <c r="DH67" s="239"/>
+      <c r="DI67" s="239"/>
+      <c r="DJ67" s="239"/>
+      <c r="DK67" s="239"/>
+      <c r="DL67" s="239"/>
+      <c r="DM67" s="239"/>
+      <c r="DN67" s="239"/>
+      <c r="DO67" s="239"/>
+      <c r="DP67" s="239"/>
+      <c r="DQ67" s="239"/>
+      <c r="DR67" s="239"/>
+      <c r="DS67" s="239"/>
+      <c r="DT67" s="239"/>
+      <c r="DU67" s="239"/>
+      <c r="DV67" s="239"/>
+      <c r="DW67" s="239"/>
+      <c r="DX67" s="239"/>
+      <c r="DY67" s="239"/>
+      <c r="DZ67" s="239"/>
+      <c r="EA67" s="239"/>
+      <c r="EB67" s="239"/>
+      <c r="EC67" s="239"/>
+      <c r="ED67" s="239"/>
+      <c r="EE67" s="239"/>
+      <c r="EF67" s="239"/>
+      <c r="EG67" s="239"/>
+      <c r="EH67" s="239"/>
+      <c r="EI67" s="239"/>
+      <c r="EJ67" s="239"/>
+      <c r="EK67" s="239"/>
+      <c r="EL67" s="239"/>
+      <c r="EM67" s="239"/>
+      <c r="EN67" s="239"/>
+      <c r="EO67" s="239"/>
+      <c r="EP67" s="240"/>
+      <c r="EQ67" s="48"/>
+    </row>
+    <row r="68" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="A68" s="101"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="102"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="232"/>
+      <c r="M68" s="232"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="37"/>
+      <c r="Z68" s="37"/>
+      <c r="AA68" s="37"/>
+      <c r="AB68" s="37"/>
+      <c r="AC68" s="37"/>
+      <c r="AD68" s="37"/>
+      <c r="AE68" s="37"/>
+      <c r="AF68" s="37"/>
+      <c r="AG68" s="37"/>
+      <c r="AH68" s="37"/>
+      <c r="AI68" s="37"/>
+      <c r="AJ68" s="37"/>
+      <c r="AK68" s="37"/>
+      <c r="AL68" s="37"/>
+      <c r="AM68" s="37"/>
+      <c r="AN68" s="37"/>
+      <c r="AO68" s="37"/>
+      <c r="AP68" s="37"/>
+      <c r="AQ68" s="37"/>
+      <c r="AR68" s="37"/>
+      <c r="AS68" s="37"/>
+      <c r="AT68" s="37"/>
+      <c r="AU68" s="37"/>
+      <c r="AV68" s="37"/>
+      <c r="AW68" s="37"/>
+      <c r="AX68" s="37"/>
+      <c r="AY68" s="37"/>
+      <c r="AZ68" s="37"/>
+      <c r="BA68" s="37"/>
+      <c r="BB68" s="37"/>
+      <c r="BC68" s="37"/>
+      <c r="BD68" s="37"/>
+      <c r="BE68" s="37"/>
+      <c r="BF68" s="37"/>
+      <c r="BG68" s="37"/>
+      <c r="BH68" s="37"/>
+      <c r="BI68" s="37"/>
+      <c r="BJ68" s="37"/>
+      <c r="BK68" s="37"/>
+      <c r="BL68" s="37"/>
+      <c r="BM68" s="37"/>
+      <c r="BN68" s="37"/>
+      <c r="BO68" s="37"/>
+      <c r="BP68" s="37"/>
+      <c r="BQ68" s="37"/>
+      <c r="BR68" s="37"/>
+      <c r="BS68" s="37"/>
+      <c r="BT68" s="37"/>
+      <c r="BU68" s="37"/>
+      <c r="BV68" s="37"/>
+      <c r="BW68" s="37"/>
+      <c r="BX68" s="37"/>
+      <c r="BY68" s="37"/>
+      <c r="BZ68" s="37"/>
+      <c r="CA68" s="37"/>
+      <c r="CB68" s="37"/>
+      <c r="CC68" s="37"/>
+      <c r="CD68" s="37"/>
+      <c r="CE68" s="37"/>
+      <c r="CF68" s="37"/>
+      <c r="CG68" s="37"/>
+      <c r="CH68" s="37"/>
+      <c r="CI68" s="37"/>
+      <c r="CJ68" s="37"/>
+      <c r="CK68" s="37"/>
+      <c r="CL68" s="37"/>
+      <c r="CM68" s="37"/>
+      <c r="CN68" s="37"/>
+      <c r="CO68" s="37"/>
+      <c r="CP68" s="37"/>
+      <c r="CQ68" s="37"/>
+      <c r="CR68" s="37"/>
+      <c r="CS68" s="37"/>
+      <c r="CT68" s="37"/>
+      <c r="CU68" s="37"/>
+      <c r="CV68" s="37"/>
+      <c r="CW68" s="37"/>
+      <c r="CX68" s="37"/>
+      <c r="CY68" s="37"/>
+      <c r="CZ68" s="37"/>
+      <c r="DA68" s="37"/>
+      <c r="DB68" s="37"/>
+      <c r="DC68" s="37"/>
+      <c r="DD68" s="37"/>
+      <c r="DE68" s="37"/>
+      <c r="DF68" s="37"/>
+      <c r="DG68" s="37"/>
+      <c r="DH68" s="37"/>
+      <c r="DI68" s="37"/>
+      <c r="DJ68" s="37"/>
+      <c r="DK68" s="37"/>
+      <c r="DL68" s="37"/>
+      <c r="DM68" s="37"/>
+      <c r="DN68" s="37"/>
+      <c r="DO68" s="37"/>
+      <c r="DP68" s="37"/>
+      <c r="DQ68" s="37"/>
+      <c r="DR68" s="37"/>
+      <c r="DS68" s="37"/>
+      <c r="DT68" s="37"/>
+      <c r="DU68" s="37"/>
+      <c r="DV68" s="37"/>
+      <c r="DW68" s="37"/>
+      <c r="DX68" s="37"/>
+      <c r="DY68" s="37"/>
+      <c r="DZ68" s="37"/>
+      <c r="EA68" s="37"/>
+      <c r="EB68" s="37"/>
+      <c r="EC68" s="37"/>
+      <c r="ED68" s="37"/>
+      <c r="EE68" s="37"/>
+      <c r="EF68" s="37"/>
+      <c r="EG68" s="37"/>
+      <c r="EH68" s="37"/>
+      <c r="EI68" s="37"/>
+      <c r="EJ68" s="37"/>
+      <c r="EK68" s="37"/>
+      <c r="EL68" s="37"/>
+      <c r="EM68" s="37"/>
+      <c r="EN68" s="37"/>
+      <c r="EO68" s="37"/>
+      <c r="EP68" s="37"/>
+      <c r="EQ68" s="37"/>
+    </row>
+    <row r="69" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="A69" s="234"/>
+      <c r="B69" s="234"/>
+      <c r="C69" s="234"/>
+      <c r="D69" s="234"/>
+      <c r="E69" s="234"/>
+      <c r="F69" s="234"/>
+      <c r="G69" s="234"/>
+      <c r="H69" s="234"/>
+      <c r="I69" s="234"/>
+      <c r="J69" s="234"/>
+      <c r="K69" s="234"/>
+      <c r="L69" s="234"/>
+      <c r="M69" s="234"/>
+      <c r="N69" s="234"/>
+      <c r="O69" s="234"/>
+      <c r="P69" s="234"/>
+      <c r="Q69" s="234"/>
+      <c r="R69" s="234"/>
+      <c r="S69" s="234"/>
+      <c r="T69" s="234"/>
+      <c r="U69" s="234"/>
+      <c r="V69" s="234"/>
+      <c r="W69" s="234"/>
+      <c r="X69" s="234"/>
+      <c r="Y69" s="234"/>
+      <c r="Z69" s="234"/>
+      <c r="AA69" s="234"/>
+      <c r="AB69" s="234"/>
+      <c r="AC69" s="234"/>
+      <c r="AD69" s="234"/>
+      <c r="AE69" s="234"/>
+      <c r="AF69" s="234"/>
+      <c r="AG69" s="234"/>
+      <c r="AH69" s="234"/>
+      <c r="AI69" s="234"/>
+      <c r="AJ69" s="234"/>
+      <c r="AK69" s="234"/>
+      <c r="AL69" s="234"/>
+      <c r="AM69" s="234"/>
+      <c r="AN69" s="234"/>
+      <c r="AO69" s="234"/>
+      <c r="AP69" s="234"/>
+      <c r="AQ69" s="234"/>
+      <c r="AR69" s="234"/>
+      <c r="AS69" s="234"/>
+      <c r="AT69" s="234"/>
+      <c r="AU69" s="234"/>
+      <c r="AV69" s="234"/>
+      <c r="AW69" s="234"/>
+      <c r="AX69" s="234"/>
+      <c r="AY69" s="234"/>
+      <c r="AZ69" s="234"/>
+      <c r="BA69" s="234"/>
+      <c r="BB69" s="234"/>
+      <c r="BC69" s="234"/>
+      <c r="BD69" s="234"/>
+      <c r="BE69" s="234"/>
+      <c r="BF69" s="234"/>
+      <c r="BG69" s="234"/>
+      <c r="BH69" s="234"/>
+      <c r="BI69" s="234"/>
+      <c r="BJ69" s="234"/>
+      <c r="BK69" s="234"/>
+      <c r="BL69" s="234"/>
+      <c r="BM69" s="234"/>
+      <c r="BN69" s="234"/>
+      <c r="BO69" s="234"/>
+      <c r="BP69" s="234"/>
+      <c r="BQ69" s="234"/>
+      <c r="BR69" s="234"/>
+      <c r="BS69" s="234"/>
+      <c r="BT69" s="234"/>
+      <c r="BU69" s="234"/>
+      <c r="BV69" s="234"/>
+      <c r="BW69" s="234"/>
+      <c r="BX69" s="234"/>
+      <c r="BY69" s="234"/>
+      <c r="BZ69" s="234"/>
+      <c r="CA69" s="234"/>
+      <c r="CB69" s="234"/>
+      <c r="CC69" s="234"/>
+      <c r="CD69" s="234"/>
+      <c r="CE69" s="234"/>
+      <c r="CF69" s="234"/>
+      <c r="CG69" s="234"/>
+      <c r="CH69" s="234"/>
+      <c r="CI69" s="234"/>
+      <c r="CJ69" s="234"/>
+      <c r="CK69" s="234"/>
+      <c r="CL69" s="234"/>
+      <c r="CM69" s="234"/>
+      <c r="CN69" s="234"/>
+      <c r="CO69" s="234"/>
+      <c r="CP69" s="234"/>
+      <c r="CQ69" s="234"/>
+      <c r="CR69" s="234"/>
+      <c r="CS69" s="234"/>
+      <c r="CT69" s="234"/>
+      <c r="CU69" s="234"/>
+      <c r="CV69" s="234"/>
+      <c r="CW69" s="234"/>
+      <c r="CX69" s="234"/>
+      <c r="CY69" s="234"/>
+      <c r="CZ69" s="234"/>
+      <c r="DA69" s="234"/>
+      <c r="DB69" s="234"/>
+      <c r="DC69" s="234"/>
+      <c r="DD69" s="234"/>
+      <c r="DE69" s="234"/>
+      <c r="DF69" s="234"/>
+      <c r="DG69" s="234"/>
+      <c r="DH69" s="234"/>
+      <c r="DI69" s="234"/>
+      <c r="DJ69" s="234"/>
+      <c r="DK69" s="234"/>
+      <c r="DL69" s="234"/>
+      <c r="DM69" s="234"/>
+      <c r="DN69" s="234"/>
+      <c r="DO69" s="234"/>
+      <c r="DP69" s="234"/>
+      <c r="DQ69" s="234"/>
+      <c r="DR69" s="234"/>
+      <c r="DS69" s="234"/>
+      <c r="DT69" s="234"/>
+      <c r="DU69" s="234"/>
+      <c r="DV69" s="234"/>
+      <c r="DW69" s="234"/>
+      <c r="DX69" s="234"/>
+      <c r="DY69" s="234"/>
+      <c r="DZ69" s="234"/>
+      <c r="EA69" s="234"/>
+      <c r="EB69" s="234"/>
+      <c r="EC69" s="234"/>
+      <c r="ED69" s="234"/>
+      <c r="EE69" s="234"/>
+      <c r="EF69" s="234"/>
+      <c r="EG69" s="234"/>
+      <c r="EH69" s="234"/>
+      <c r="EI69" s="234"/>
+      <c r="EJ69" s="234"/>
+      <c r="EK69" s="234"/>
+      <c r="EL69" s="234"/>
+      <c r="EM69" s="234"/>
+      <c r="EN69" s="234"/>
+      <c r="EO69" s="234"/>
+      <c r="EP69" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -20612,14 +22316,14 @@
     <mergeCell ref="BY14:CC14"/>
     <mergeCell ref="CD14:CE14"/>
     <mergeCell ref="CF14:CJ14"/>
-    <mergeCell ref="A65:EP65"/>
+    <mergeCell ref="A69:EP69"/>
     <mergeCell ref="EA14:EB14"/>
     <mergeCell ref="EC14:EG14"/>
     <mergeCell ref="EH14:EI14"/>
     <mergeCell ref="EJ14:EN14"/>
     <mergeCell ref="EO14:EP14"/>
-    <mergeCell ref="A63:AM63"/>
-    <mergeCell ref="BR63:EP63"/>
+    <mergeCell ref="A67:AM67"/>
+    <mergeCell ref="BR67:EP67"/>
     <mergeCell ref="DF14:DG14"/>
     <mergeCell ref="DH14:DL14"/>
     <mergeCell ref="DM14:DN14"/>
@@ -20629,103 +22333,103 @@
     <mergeCell ref="CK14:CL14"/>
     <mergeCell ref="CM14:CQ14"/>
   </mergeCells>
-  <conditionalFormatting sqref="H16:H27 H38:H61 H29:H36">
-    <cfRule type="expression" dxfId="73" priority="65">
+  <conditionalFormatting sqref="H16:H27 H40:H44 H29:H31 H33:H37 H46:H65">
+    <cfRule type="expression" dxfId="121" priority="112">
       <formula>$H16="M"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:K61 A16:EP21 A22:H27 J22:EP27 A29:EP32 J33:EP36 J38:EP44 A33:H36 A38:H60 K45:K61 J45:K60 L45:L62 M45:EP61">
-    <cfRule type="expression" dxfId="72" priority="63">
+  <conditionalFormatting sqref="A65:K65 A16:EP21 A22:H27 J22:EP27 B29:H31 J41:EP41 A41:H41 K48:K65 A33:H34 G32 J34:EP34 J29:J31 N29:EP31 J33 L33:EP33 B35:H37 B40:H40 A35:A40 J35:J37 N35:EP37 J40 N40:EP40 K35:M40 A47:H47 J47:EP47 B46:H46 B42:H44 A42:A46 J46 N46:EP46 J42:J44 N42:EP44 K42:M46 A53:H64 C51:H51 B52:H52 B48:H50 A48:A52 J48:K64 L48:L66 M48:EP65">
+    <cfRule type="expression" dxfId="120" priority="110">
       <formula>AND($A16&gt;=0,MOD($A16,1)=0,$A16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="64">
+    <cfRule type="expression" dxfId="119" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S13:EP27 S29:EP32 S34:EP36 S38:EP61">
-    <cfRule type="expression" dxfId="70" priority="61">
+  <conditionalFormatting sqref="S13:EP27 S29:EP31 S35:EP37 S40:EP44 S33:EP33 S46:EP65">
+    <cfRule type="expression" dxfId="118" priority="108">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="62">
+    <cfRule type="expression" dxfId="117" priority="109">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16:EP27 N29:EP36 N38:EP61">
-    <cfRule type="expression" dxfId="68" priority="56">
+  <conditionalFormatting sqref="N16:EP27 N29:EP31 N40:EP44 N33:EP37 N46:EP65">
+    <cfRule type="expression" dxfId="116" priority="103">
       <formula>AND($H16="M",$G16=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="57">
+    <cfRule type="expression" dxfId="115" priority="104">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$M16,$M16&lt;&gt;"",$J16&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="58">
+    <cfRule type="expression" dxfId="114" priority="105">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$I16,$M16&lt;&gt;"",$A16&gt;=0,MOD($A16,1)=0,$A16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="59">
+    <cfRule type="expression" dxfId="113" priority="106">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$I16,$M16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="60">
+    <cfRule type="expression" dxfId="112" priority="107">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I27 I33:I36 I38:I60">
-    <cfRule type="expression" dxfId="63" priority="53">
+  <conditionalFormatting sqref="I22:I27 I34:I64">
+    <cfRule type="expression" dxfId="111" priority="100">
       <formula>AND($A22&gt;=0,MOD($A22,1)=0,$A22&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="54">
+    <cfRule type="expression" dxfId="110" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S33:EP33">
-    <cfRule type="expression" dxfId="61" priority="47">
+  <conditionalFormatting sqref="S34:EP34">
+    <cfRule type="expression" dxfId="109" priority="94">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="48">
+    <cfRule type="expression" dxfId="108" priority="95">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:G28 K28:EP28">
-    <cfRule type="expression" dxfId="59" priority="36">
+  <conditionalFormatting sqref="A28:G28 K28:EP28 A29:A32 K29:K33 L29:M32">
+    <cfRule type="expression" dxfId="107" priority="83">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="37">
+    <cfRule type="expression" dxfId="106" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:EP28">
-    <cfRule type="expression" dxfId="57" priority="34">
+    <cfRule type="expression" dxfId="105" priority="81">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="35">
+    <cfRule type="expression" dxfId="104" priority="82">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:EP28">
-    <cfRule type="expression" dxfId="55" priority="29">
+    <cfRule type="expression" dxfId="103" priority="76">
       <formula>AND($H28="M",$G28=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="30">
+    <cfRule type="expression" dxfId="102" priority="77">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$M28,$M28&lt;&gt;"",$J28&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="31">
+    <cfRule type="expression" dxfId="101" priority="78">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$I28,$M28&lt;&gt;"",$A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="32">
+    <cfRule type="expression" dxfId="100" priority="79">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$I28,$M28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="33">
+    <cfRule type="expression" dxfId="99" priority="80">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="50" priority="27">
+  <conditionalFormatting sqref="I28:I33">
+    <cfRule type="expression" dxfId="98" priority="74">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="28">
+    <cfRule type="expression" dxfId="97" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="iconSet" priority="39">
+  <conditionalFormatting sqref="K28:K33">
+    <cfRule type="iconSet" priority="86">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -20733,8 +22437,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K27 K29:K36 K38:K61">
-    <cfRule type="iconSet" priority="160">
+  <conditionalFormatting sqref="K16:K27 K34:K65">
+    <cfRule type="iconSet" priority="207">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -20742,121 +22446,250 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:G37 K37:EP37">
-    <cfRule type="expression" dxfId="48" priority="23">
-      <formula>AND($A37&gt;=0,MOD($A37,1)=0,$A37&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="B38:G38 N38:EP38">
+    <cfRule type="expression" dxfId="96" priority="70">
+      <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="24">
+    <cfRule type="expression" dxfId="95" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S37:EP37">
-    <cfRule type="expression" dxfId="46" priority="21">
+  <conditionalFormatting sqref="S38:EP38">
+    <cfRule type="expression" dxfId="94" priority="68">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="22">
+    <cfRule type="expression" dxfId="93" priority="69">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N37:EP37">
-    <cfRule type="expression" dxfId="44" priority="16">
-      <formula>AND($H37="M",$G37=N$12)</formula>
+  <conditionalFormatting sqref="N38:EP38">
+    <cfRule type="expression" dxfId="92" priority="63">
+      <formula>AND($H38="M",$G38=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="17">
-      <formula>AND(N$12&gt;=$G37,N$12&lt;=$M37,$M37&lt;&gt;"",$J37&lt;&gt;0)</formula>
+    <cfRule type="expression" dxfId="91" priority="64">
+      <formula>AND(N$12&gt;=$G38,N$12&lt;=$M38,$M38&lt;&gt;"",$J38&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="18">
-      <formula>AND(N$12&gt;=$G37,N$12&lt;=$I37,$M37&lt;&gt;"",$A37&gt;=0,MOD($A37,1)=0,$A37&lt;&gt;"")</formula>
+    <cfRule type="expression" dxfId="90" priority="65">
+      <formula>AND(N$12&gt;=$G38,N$12&lt;=$I38,$M38&lt;&gt;"",$A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="19">
-      <formula>AND(N$12&gt;=$G37,N$12&lt;=$I37,$M37&lt;&gt;"")</formula>
+    <cfRule type="expression" dxfId="89" priority="66">
+      <formula>AND(N$12&gt;=$G38,N$12&lt;=$I38,$M38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="20">
+    <cfRule type="expression" dxfId="88" priority="67">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="39" priority="14">
-      <formula>AND($A37&gt;=0,MOD($A37,1)=0,$A37&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="expression" dxfId="87" priority="59">
+      <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="15">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
-    <cfRule type="iconSet" priority="26">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="expression" dxfId="37" priority="12">
-      <formula>AND($A37&gt;=0,MOD($A37,1)=0,$A37&lt;&gt;"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="13">
+    <cfRule type="expression" dxfId="86" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="35" priority="10">
+    <cfRule type="expression" dxfId="85" priority="57">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="84" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="83" priority="50">
       <formula>$H28="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="82" priority="48">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="81" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="30" priority="6">
-      <formula>$H37="M"</formula>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="expression" dxfId="80" priority="53">
+      <formula>$H38="M"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="29" priority="4">
-      <formula>AND($A37&gt;=0,MOD($A37,1)=0,$A37&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="expression" dxfId="79" priority="51">
+      <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="78" priority="52">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="expression" dxfId="77" priority="46">
+      <formula>$H32="M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F32 H32 J32 N32:EP32">
+    <cfRule type="expression" dxfId="76" priority="44">
+      <formula>AND($A32&gt;=0,MOD($A32,1)=0,$A32&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="45">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32:EP32">
+    <cfRule type="expression" dxfId="74" priority="42">
+      <formula>WEEKDAY(S$12,2)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="43">
+      <formula>WEEKDAY(S$12,2)=6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32:EP32">
+    <cfRule type="expression" dxfId="72" priority="37">
+      <formula>AND($H32="M",$G32=N$12)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="38">
+      <formula>AND(N$12&gt;=$G32,N$12&lt;=$M32,$M32&lt;&gt;"",$J32&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="39">
+      <formula>AND(N$12&gt;=$G32,N$12&lt;=$I32,$M32&lt;&gt;"",$A32&gt;=0,MOD($A32,1)=0,$A32&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="40">
+      <formula>AND(N$12&gt;=$G32,N$12&lt;=$I32,$M32&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="41">
+      <formula>N$12=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="expression" dxfId="67" priority="18">
+      <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:G39 N39:EP39">
+    <cfRule type="expression" dxfId="65" priority="32">
+      <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="33">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S39:EP39">
+    <cfRule type="expression" dxfId="63" priority="30">
+      <formula>WEEKDAY(S$12,2)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="31">
+      <formula>WEEKDAY(S$12,2)=6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N39:EP39">
+    <cfRule type="expression" dxfId="61" priority="25">
+      <formula>AND($H39="M",$G39=N$12)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="26">
+      <formula>AND(N$12&gt;=$G39,N$12&lt;=$M39,$M39&lt;&gt;"",$J39&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="27">
+      <formula>AND(N$12&gt;=$G39,N$12&lt;=$I39,$M39&lt;&gt;"",$A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="28">
+      <formula>AND(N$12&gt;=$G39,N$12&lt;=$I39,$M39&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="29">
+      <formula>N$12=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="expression" dxfId="56" priority="21">
+      <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="expression" dxfId="54" priority="20">
+      <formula>$H39="M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="expression" dxfId="53" priority="16">
+      <formula>$H45="M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45 C45:H45 N45:EP45">
+    <cfRule type="expression" dxfId="52" priority="14">
+      <formula>AND($A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S45:EP45">
+    <cfRule type="expression" dxfId="50" priority="12">
+      <formula>WEEKDAY(S$12,2)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="13">
+      <formula>WEEKDAY(S$12,2)=6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N45:EP45">
+    <cfRule type="expression" dxfId="48" priority="7">
+      <formula>AND($H45="M",$G45=N$12)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="8">
+      <formula>AND(N$12&gt;=$G45,N$12&lt;=$M45,$M45&lt;&gt;"",$J45&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="9">
+      <formula>AND(N$12&gt;=$G45,N$12&lt;=$I45,$M45&lt;&gt;"",$A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="10">
+      <formula>AND(N$12&gt;=$G45,N$12&lt;=$I45,$M45&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="11">
+      <formula>N$12=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="43" priority="3">
+      <formula>AND($A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>AND($A51&gt;=0,MOD($A51,1)=0,$A51&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E27 E29:E32 E38:E61 E34:E36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E27 E29:E33 E40:E65 E35:E37">
       <formula1>Benu3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D27 D29:D32 D38:D61 D34:D36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D27 D29:D33 D40:D65 D35:D37">
       <formula1>Benu2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C27 C29:C32 C38:C61 C34:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C27 C29:C33 C40:C65 C35:C37">
       <formula1>Benu1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J32 J34:J61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J33 J35:J65">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H65">
       <formula1>Dauer</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G27 G29:G32 G38:G61 G34:G36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G27 G35:G37 G40:G65 G29:G33">
       <formula1>Datum1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F27 F29:F32 F38:F61 F34:F36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F27 F29:F33 F40:F65 F35:F37">
       <formula1>Wer</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B27 B29:B32 B38:B61 B34:B36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B27 B29:B33 B35:B37 B39:B65">
       <formula1>Aufgabe</formula1>
     </dataValidation>
   </dataValidations>
@@ -20871,7 +22704,7 @@
   <dimension ref="A1:BC438"/>
   <sheetViews>
     <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24676,15 +26509,15 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="AW2">
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="41" priority="32">
       <formula>$H2="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AW2 AY2:BB2">
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="40" priority="30">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="39" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24698,23 +26531,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX2">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="38" priority="27">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="28">
+    <cfRule type="expression" dxfId="37" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW7">
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="36" priority="26">
       <formula>$H7="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ7:AW7 AY7:BB7">
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="35" priority="24">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="34" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24728,23 +26561,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX7">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="33" priority="21">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="32" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW12">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="31" priority="20">
       <formula>$H12="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ12:AW12 AY12:BB12">
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="29" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24758,23 +26591,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX12">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="28" priority="15">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="27" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW17">
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="26" priority="14">
       <formula>$H17="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ17:AW17 AY17:BB17">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="25" priority="12">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="24" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24788,42 +26621,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX17">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP7">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
+    <workbookView xWindow="15000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -2150,119 +2150,7 @@
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="196">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="110">
     <dxf>
       <fill>
         <patternFill>
@@ -2500,6 +2388,22 @@
       <fill>
         <patternFill patternType="none">
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3167,610 +3071,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF99D709"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF538235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF1A2501"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF99D709"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF538235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF1A2501"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF99D709"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF538235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF1A2501"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4049,10 +3349,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="J26" sqref="J26"/>
+      <selection pane="topRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -14413,7 +13713,7 @@
       </c>
       <c r="J23" s="80">
         <f>AVERAGE(J24:J28)</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
@@ -14421,11 +13721,11 @@
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" s="229">
         <f t="shared" si="24"/>
-        <v>42097</v>
+        <v>42098</v>
       </c>
       <c r="N23" s="206"/>
       <c r="O23" s="83"/>
@@ -14586,7 +13886,7 @@
         <v>42103</v>
       </c>
       <c r="J24" s="80">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K24" s="70">
         <f t="shared" ca="1" si="23"/>
@@ -14594,11 +13894,11 @@
       </c>
       <c r="L24" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="229">
         <f t="shared" si="24"/>
-        <v>42096</v>
+        <v>42097</v>
       </c>
       <c r="N24" s="206"/>
       <c r="O24" s="83"/>
@@ -14759,11 +14059,11 @@
         <v>42107</v>
       </c>
       <c r="J25" s="80">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K25" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L25" s="228">
         <f t="shared" si="22"/>
@@ -14936,7 +14236,7 @@
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
@@ -15109,7 +14409,7 @@
       </c>
       <c r="K27" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L27" s="228">
         <f t="shared" si="22"/>
@@ -15447,7 +14747,7 @@
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
@@ -15620,7 +14920,7 @@
       </c>
       <c r="K30" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L30" s="228">
         <f t="shared" si="22"/>
@@ -15793,7 +15093,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
@@ -15966,7 +15266,7 @@
       </c>
       <c r="K32" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L32" s="228">
         <f t="shared" si="22"/>
@@ -16468,7 +15768,7 @@
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
@@ -16641,7 +15941,7 @@
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
@@ -16814,7 +16114,7 @@
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
@@ -16987,7 +16287,7 @@
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L38" s="228">
         <f t="shared" si="22"/>
@@ -17158,7 +16458,7 @@
       <c r="J39" s="80"/>
       <c r="K39" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L39" s="228">
         <f t="shared" si="22"/>
@@ -17330,7 +16630,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L40" s="228" t="str">
         <f t="shared" si="22"/>
@@ -17667,7 +16967,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17840,7 +17140,7 @@
       </c>
       <c r="K43" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L43" s="228">
         <f t="shared" si="22"/>
@@ -18013,7 +17313,7 @@
       </c>
       <c r="K44" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L44" s="228">
         <f t="shared" si="22"/>
@@ -18186,7 +17486,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -18688,7 +17988,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L48" s="228">
         <f t="shared" si="22"/>
@@ -18861,7 +18161,7 @@
       </c>
       <c r="K49" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L49" s="228">
         <f t="shared" si="22"/>
@@ -19034,7 +18334,7 @@
       </c>
       <c r="K50" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L50" s="228">
         <f t="shared" si="22"/>
@@ -19207,7 +18507,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -19379,7 +18679,7 @@
       </c>
       <c r="K52" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L52" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19880,7 +19180,7 @@
       </c>
       <c r="K55" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L55" s="228">
         <f t="shared" si="22"/>
@@ -22334,97 +21634,97 @@
     <mergeCell ref="CM14:CQ14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H40:H44 H29:H31 H33:H37 H46:H65">
-    <cfRule type="expression" dxfId="121" priority="112">
+    <cfRule type="expression" dxfId="109" priority="112">
       <formula>$H16="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:K65 A16:EP21 A22:H27 J22:EP27 B29:H31 J41:EP41 A41:H41 K48:K65 A33:H34 G32 J34:EP34 J29:J31 N29:EP31 J33 L33:EP33 B35:H37 B40:H40 A35:A40 J35:J37 N35:EP37 J40 N40:EP40 K35:M40 A47:H47 J47:EP47 B46:H46 B42:H44 A42:A46 J46 N46:EP46 J42:J44 N42:EP44 K42:M46 A53:H64 C51:H51 B52:H52 B48:H50 A48:A52 J48:K64 L48:L66 M48:EP65">
-    <cfRule type="expression" dxfId="120" priority="110">
+    <cfRule type="expression" dxfId="108" priority="110">
       <formula>AND($A16&gt;=0,MOD($A16,1)=0,$A16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="111">
+    <cfRule type="expression" dxfId="107" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:EP27 S29:EP31 S35:EP37 S40:EP44 S33:EP33 S46:EP65">
-    <cfRule type="expression" dxfId="118" priority="108">
+    <cfRule type="expression" dxfId="106" priority="108">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="109">
+    <cfRule type="expression" dxfId="105" priority="109">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:EP27 N29:EP31 N40:EP44 N33:EP37 N46:EP65">
-    <cfRule type="expression" dxfId="116" priority="103">
+    <cfRule type="expression" dxfId="104" priority="103">
       <formula>AND($H16="M",$G16=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="104">
+    <cfRule type="expression" dxfId="103" priority="104">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$M16,$M16&lt;&gt;"",$J16&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="105">
+    <cfRule type="expression" dxfId="102" priority="105">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$I16,$M16&lt;&gt;"",$A16&gt;=0,MOD($A16,1)=0,$A16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="106">
+    <cfRule type="expression" dxfId="101" priority="106">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$I16,$M16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="107">
+    <cfRule type="expression" dxfId="100" priority="107">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I27 I34:I64">
-    <cfRule type="expression" dxfId="111" priority="100">
+    <cfRule type="expression" dxfId="99" priority="100">
       <formula>AND($A22&gt;=0,MOD($A22,1)=0,$A22&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="101">
+    <cfRule type="expression" dxfId="98" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34:EP34">
-    <cfRule type="expression" dxfId="109" priority="94">
+    <cfRule type="expression" dxfId="97" priority="94">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="95">
+    <cfRule type="expression" dxfId="96" priority="95">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 K28:EP28 A29:A32 K29:K33 L29:M32">
-    <cfRule type="expression" dxfId="107" priority="83">
+    <cfRule type="expression" dxfId="95" priority="83">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="84">
+    <cfRule type="expression" dxfId="94" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:EP28">
-    <cfRule type="expression" dxfId="105" priority="81">
+    <cfRule type="expression" dxfId="93" priority="81">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="82">
+    <cfRule type="expression" dxfId="92" priority="82">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:EP28">
-    <cfRule type="expression" dxfId="103" priority="76">
+    <cfRule type="expression" dxfId="91" priority="76">
       <formula>AND($H28="M",$G28=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="77">
+    <cfRule type="expression" dxfId="90" priority="77">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$M28,$M28&lt;&gt;"",$J28&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="78">
+    <cfRule type="expression" dxfId="89" priority="78">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$I28,$M28&lt;&gt;"",$A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="79">
+    <cfRule type="expression" dxfId="88" priority="79">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$I28,$M28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="80">
+    <cfRule type="expression" dxfId="87" priority="80">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I33">
-    <cfRule type="expression" dxfId="98" priority="74">
+    <cfRule type="expression" dxfId="86" priority="74">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="75">
+    <cfRule type="expression" dxfId="85" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22447,223 +21747,223 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:G38 N38:EP38">
-    <cfRule type="expression" dxfId="96" priority="70">
+    <cfRule type="expression" dxfId="84" priority="70">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="71">
+    <cfRule type="expression" dxfId="83" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S38:EP38">
-    <cfRule type="expression" dxfId="94" priority="68">
+    <cfRule type="expression" dxfId="82" priority="68">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="69">
+    <cfRule type="expression" dxfId="81" priority="69">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:EP38">
-    <cfRule type="expression" dxfId="92" priority="63">
+    <cfRule type="expression" dxfId="80" priority="63">
       <formula>AND($H38="M",$G38=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="64">
+    <cfRule type="expression" dxfId="79" priority="64">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$M38,$M38&lt;&gt;"",$J38&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="65">
+    <cfRule type="expression" dxfId="78" priority="65">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$I38,$M38&lt;&gt;"",$A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="66">
+    <cfRule type="expression" dxfId="77" priority="66">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$I38,$M38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="67">
+    <cfRule type="expression" dxfId="76" priority="67">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="expression" dxfId="87" priority="59">
+    <cfRule type="expression" dxfId="75" priority="59">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="60">
+    <cfRule type="expression" dxfId="74" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="85" priority="57">
+    <cfRule type="expression" dxfId="73" priority="57">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="58">
+    <cfRule type="expression" dxfId="72" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="83" priority="50">
+    <cfRule type="expression" dxfId="71" priority="50">
       <formula>$H28="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="82" priority="48">
+    <cfRule type="expression" dxfId="70" priority="48">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="49">
+    <cfRule type="expression" dxfId="69" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="80" priority="53">
+    <cfRule type="expression" dxfId="68" priority="53">
       <formula>$H38="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="79" priority="51">
+    <cfRule type="expression" dxfId="67" priority="51">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="52">
+    <cfRule type="expression" dxfId="66" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="77" priority="46">
+    <cfRule type="expression" dxfId="65" priority="46">
       <formula>$H32="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:F32 H32 J32 N32:EP32">
-    <cfRule type="expression" dxfId="76" priority="44">
+    <cfRule type="expression" dxfId="64" priority="44">
       <formula>AND($A32&gt;=0,MOD($A32,1)=0,$A32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="45">
+    <cfRule type="expression" dxfId="63" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:EP32">
-    <cfRule type="expression" dxfId="74" priority="42">
+    <cfRule type="expression" dxfId="62" priority="42">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="43">
+    <cfRule type="expression" dxfId="61" priority="43">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:EP32">
-    <cfRule type="expression" dxfId="72" priority="37">
+    <cfRule type="expression" dxfId="60" priority="37">
       <formula>AND($H32="M",$G32=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="38">
+    <cfRule type="expression" dxfId="59" priority="38">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$M32,$M32&lt;&gt;"",$J32&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="39">
+    <cfRule type="expression" dxfId="58" priority="39">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$I32,$M32&lt;&gt;"",$A32&gt;=0,MOD($A32,1)=0,$A32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="40">
+    <cfRule type="expression" dxfId="57" priority="40">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$I32,$M32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="41">
+    <cfRule type="expression" dxfId="56" priority="41">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="67" priority="18">
+    <cfRule type="expression" dxfId="55" priority="18">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="19">
+    <cfRule type="expression" dxfId="54" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:G39 N39:EP39">
-    <cfRule type="expression" dxfId="65" priority="32">
+    <cfRule type="expression" dxfId="53" priority="32">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="33">
+    <cfRule type="expression" dxfId="52" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S39:EP39">
-    <cfRule type="expression" dxfId="63" priority="30">
+    <cfRule type="expression" dxfId="51" priority="30">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="31">
+    <cfRule type="expression" dxfId="50" priority="31">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:EP39">
-    <cfRule type="expression" dxfId="61" priority="25">
+    <cfRule type="expression" dxfId="49" priority="25">
       <formula>AND($H39="M",$G39=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="26">
+    <cfRule type="expression" dxfId="48" priority="26">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$M39,$M39&lt;&gt;"",$J39&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="27">
+    <cfRule type="expression" dxfId="47" priority="27">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$I39,$M39&lt;&gt;"",$A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="28">
+    <cfRule type="expression" dxfId="46" priority="28">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$I39,$M39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="29">
+    <cfRule type="expression" dxfId="45" priority="29">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="56" priority="21">
+    <cfRule type="expression" dxfId="44" priority="21">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="22">
+    <cfRule type="expression" dxfId="43" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="54" priority="20">
+    <cfRule type="expression" dxfId="42" priority="20">
       <formula>$H39="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="53" priority="16">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>$H45="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45 C45:H45 N45:EP45">
-    <cfRule type="expression" dxfId="52" priority="14">
+    <cfRule type="expression" dxfId="40" priority="14">
       <formula>AND($A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="15">
+    <cfRule type="expression" dxfId="39" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S45:EP45">
-    <cfRule type="expression" dxfId="50" priority="12">
+    <cfRule type="expression" dxfId="38" priority="12">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="13">
+    <cfRule type="expression" dxfId="37" priority="13">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45:EP45">
-    <cfRule type="expression" dxfId="48" priority="7">
+    <cfRule type="expression" dxfId="36" priority="7">
       <formula>AND($H45="M",$G45=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="8">
+    <cfRule type="expression" dxfId="35" priority="8">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$M45,$M45&lt;&gt;"",$J45&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="9">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$I45,$M45&lt;&gt;"",$A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="10">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$I45,$M45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="11">
+    <cfRule type="expression" dxfId="32" priority="11">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>AND($A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>AND($A51&gt;=0,MOD($A51,1)=0,$A51&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26509,15 +25809,15 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="AW2">
-    <cfRule type="expression" dxfId="41" priority="32">
+    <cfRule type="expression" dxfId="27" priority="32">
       <formula>$H2="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AW2 AY2:BB2">
-    <cfRule type="expression" dxfId="40" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="31">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26531,23 +25831,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX2">
-    <cfRule type="expression" dxfId="38" priority="27">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="28">
+    <cfRule type="expression" dxfId="23" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW7">
-    <cfRule type="expression" dxfId="36" priority="26">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$H7="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ7:AW7 AY7:BB7">
-    <cfRule type="expression" dxfId="35" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="25">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26561,23 +25861,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX7">
-    <cfRule type="expression" dxfId="33" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW12">
-    <cfRule type="expression" dxfId="31" priority="20">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>$H12="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ12:AW12 AY12:BB12">
-    <cfRule type="expression" dxfId="30" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26591,23 +25891,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX12">
-    <cfRule type="expression" dxfId="28" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW17">
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$H17="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ17:AW17 AY17:BB17">
-    <cfRule type="expression" dxfId="25" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26621,42 +25921,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX17">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2">
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP7">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
+    <workbookView xWindow="16500" yWindow="0" windowWidth="27300" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -2093,27 +2093,6 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2139,6 +2118,27 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3352,7 +3352,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="J25" sqref="J25"/>
+      <selection pane="topRight" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7935,10 +7935,10 @@
       <c r="G7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="242">
+      <c r="H7" s="235">
         <v>42088</v>
       </c>
-      <c r="I7" s="242"/>
+      <c r="I7" s="235"/>
       <c r="K7" s="27"/>
       <c r="L7" s="217"/>
       <c r="M7" s="217"/>
@@ -10200,17 +10200,17 @@
       <c r="ACA9" s="34"/>
     </row>
     <row r="10" spans="1:755" s="22" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="243"/>
-      <c r="B10" s="243"/>
+      <c r="A10" s="236"/>
+      <c r="B10" s="236"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
       <c r="L10" s="220"/>
       <c r="M10" s="220"/>
       <c r="N10" s="201"/>
@@ -10957,19 +10957,19 @@
       <c r="ACA10" s="34"/>
     </row>
     <row r="11" spans="1:755" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="245" t="s">
+      <c r="A11" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="246"/>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="246"/>
-      <c r="K11" s="246"/>
+      <c r="B11" s="239"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="239"/>
+      <c r="I11" s="239"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
       <c r="L11" s="221"/>
       <c r="M11" s="221"/>
       <c r="N11" s="202"/>
@@ -11035,78 +11035,78 @@
       <c r="BV11" s="36"/>
       <c r="BW11" s="36"/>
       <c r="BX11" s="36"/>
-      <c r="BY11" s="247" t="s">
+      <c r="BY11" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="BZ11" s="247"/>
-      <c r="CA11" s="247"/>
-      <c r="CB11" s="247"/>
-      <c r="CC11" s="247"/>
-      <c r="CD11" s="247"/>
-      <c r="CE11" s="247"/>
-      <c r="CF11" s="247"/>
-      <c r="CG11" s="247"/>
-      <c r="CH11" s="247"/>
-      <c r="CI11" s="247"/>
-      <c r="CJ11" s="247"/>
-      <c r="CK11" s="247"/>
-      <c r="CL11" s="247"/>
-      <c r="CM11" s="247"/>
-      <c r="CN11" s="247"/>
-      <c r="CO11" s="247"/>
-      <c r="CP11" s="247"/>
-      <c r="CQ11" s="247"/>
-      <c r="CR11" s="247"/>
-      <c r="CS11" s="247"/>
-      <c r="CT11" s="247"/>
-      <c r="CU11" s="247"/>
-      <c r="CV11" s="247"/>
-      <c r="CW11" s="247"/>
-      <c r="CX11" s="247"/>
-      <c r="CY11" s="247"/>
-      <c r="CZ11" s="247"/>
-      <c r="DA11" s="247"/>
-      <c r="DB11" s="247"/>
-      <c r="DC11" s="247"/>
-      <c r="DD11" s="247"/>
-      <c r="DE11" s="247"/>
-      <c r="DF11" s="247"/>
-      <c r="DG11" s="247"/>
-      <c r="DH11" s="247"/>
-      <c r="DI11" s="247"/>
-      <c r="DJ11" s="247"/>
-      <c r="DK11" s="247"/>
-      <c r="DL11" s="247"/>
-      <c r="DM11" s="247"/>
-      <c r="DN11" s="247"/>
-      <c r="DO11" s="247"/>
-      <c r="DP11" s="247"/>
-      <c r="DQ11" s="247"/>
-      <c r="DR11" s="247"/>
-      <c r="DS11" s="247"/>
-      <c r="DT11" s="247"/>
-      <c r="DU11" s="247"/>
-      <c r="DV11" s="247"/>
-      <c r="DW11" s="247"/>
-      <c r="DX11" s="247"/>
-      <c r="DY11" s="247"/>
-      <c r="DZ11" s="247"/>
-      <c r="EA11" s="247"/>
-      <c r="EB11" s="247"/>
-      <c r="EC11" s="247"/>
-      <c r="ED11" s="247"/>
-      <c r="EE11" s="247"/>
-      <c r="EF11" s="247"/>
-      <c r="EG11" s="247"/>
-      <c r="EH11" s="247"/>
-      <c r="EI11" s="247"/>
-      <c r="EJ11" s="247"/>
-      <c r="EK11" s="247"/>
-      <c r="EL11" s="247"/>
-      <c r="EM11" s="247"/>
-      <c r="EN11" s="247"/>
-      <c r="EO11" s="247"/>
-      <c r="EP11" s="248"/>
+      <c r="BZ11" s="240"/>
+      <c r="CA11" s="240"/>
+      <c r="CB11" s="240"/>
+      <c r="CC11" s="240"/>
+      <c r="CD11" s="240"/>
+      <c r="CE11" s="240"/>
+      <c r="CF11" s="240"/>
+      <c r="CG11" s="240"/>
+      <c r="CH11" s="240"/>
+      <c r="CI11" s="240"/>
+      <c r="CJ11" s="240"/>
+      <c r="CK11" s="240"/>
+      <c r="CL11" s="240"/>
+      <c r="CM11" s="240"/>
+      <c r="CN11" s="240"/>
+      <c r="CO11" s="240"/>
+      <c r="CP11" s="240"/>
+      <c r="CQ11" s="240"/>
+      <c r="CR11" s="240"/>
+      <c r="CS11" s="240"/>
+      <c r="CT11" s="240"/>
+      <c r="CU11" s="240"/>
+      <c r="CV11" s="240"/>
+      <c r="CW11" s="240"/>
+      <c r="CX11" s="240"/>
+      <c r="CY11" s="240"/>
+      <c r="CZ11" s="240"/>
+      <c r="DA11" s="240"/>
+      <c r="DB11" s="240"/>
+      <c r="DC11" s="240"/>
+      <c r="DD11" s="240"/>
+      <c r="DE11" s="240"/>
+      <c r="DF11" s="240"/>
+      <c r="DG11" s="240"/>
+      <c r="DH11" s="240"/>
+      <c r="DI11" s="240"/>
+      <c r="DJ11" s="240"/>
+      <c r="DK11" s="240"/>
+      <c r="DL11" s="240"/>
+      <c r="DM11" s="240"/>
+      <c r="DN11" s="240"/>
+      <c r="DO11" s="240"/>
+      <c r="DP11" s="240"/>
+      <c r="DQ11" s="240"/>
+      <c r="DR11" s="240"/>
+      <c r="DS11" s="240"/>
+      <c r="DT11" s="240"/>
+      <c r="DU11" s="240"/>
+      <c r="DV11" s="240"/>
+      <c r="DW11" s="240"/>
+      <c r="DX11" s="240"/>
+      <c r="DY11" s="240"/>
+      <c r="DZ11" s="240"/>
+      <c r="EA11" s="240"/>
+      <c r="EB11" s="240"/>
+      <c r="EC11" s="240"/>
+      <c r="ED11" s="240"/>
+      <c r="EE11" s="240"/>
+      <c r="EF11" s="240"/>
+      <c r="EG11" s="240"/>
+      <c r="EH11" s="240"/>
+      <c r="EI11" s="240"/>
+      <c r="EJ11" s="240"/>
+      <c r="EK11" s="240"/>
+      <c r="EL11" s="240"/>
+      <c r="EM11" s="240"/>
+      <c r="EN11" s="240"/>
+      <c r="EO11" s="240"/>
+      <c r="EP11" s="241"/>
     </row>
     <row r="12" spans="1:755" s="37" customFormat="1" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -11669,194 +11669,194 @@
       <c r="K13" s="44"/>
       <c r="L13" s="223"/>
       <c r="M13" s="223"/>
-      <c r="N13" s="241" t="str">
+      <c r="N13" s="234" t="str">
         <f>"KW " &amp; TRUNC((N12-DATE(YEAR(N12+3-MOD(N12-2,7)),1,MOD(N12-2,7)-9))/7)</f>
         <v>KW 13</v>
       </c>
-      <c r="O13" s="241"/>
-      <c r="P13" s="241"/>
-      <c r="Q13" s="241"/>
-      <c r="R13" s="241"/>
+      <c r="O13" s="234"/>
+      <c r="P13" s="234"/>
+      <c r="Q13" s="234"/>
+      <c r="R13" s="234"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="241" t="str">
+      <c r="U13" s="234" t="str">
         <f t="shared" ref="U13" si="3">"KW " &amp; TRUNC((U12-DATE(YEAR(U12+3-MOD(U12-2,7)),1,MOD(U12-2,7)-9))/7)</f>
         <v>KW 14</v>
       </c>
-      <c r="V13" s="241"/>
-      <c r="W13" s="241"/>
-      <c r="X13" s="241"/>
-      <c r="Y13" s="241"/>
+      <c r="V13" s="234"/>
+      <c r="W13" s="234"/>
+      <c r="X13" s="234"/>
+      <c r="Y13" s="234"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="46"/>
-      <c r="AB13" s="241" t="str">
+      <c r="AB13" s="234" t="str">
         <f t="shared" ref="AB13" si="4">"KW " &amp; TRUNC((AB12-DATE(YEAR(AB12+3-MOD(AB12-2,7)),1,MOD(AB12-2,7)-9))/7)</f>
         <v>KW 15</v>
       </c>
-      <c r="AC13" s="241"/>
-      <c r="AD13" s="241"/>
-      <c r="AE13" s="241"/>
-      <c r="AF13" s="241"/>
+      <c r="AC13" s="234"/>
+      <c r="AD13" s="234"/>
+      <c r="AE13" s="234"/>
+      <c r="AF13" s="234"/>
       <c r="AG13" s="46"/>
       <c r="AH13" s="46"/>
-      <c r="AI13" s="241" t="str">
+      <c r="AI13" s="234" t="str">
         <f t="shared" ref="AI13" si="5">"KW " &amp; TRUNC((AI12-DATE(YEAR(AI12+3-MOD(AI12-2,7)),1,MOD(AI12-2,7)-9))/7)</f>
         <v>KW 16</v>
       </c>
-      <c r="AJ13" s="241"/>
-      <c r="AK13" s="241"/>
-      <c r="AL13" s="241"/>
-      <c r="AM13" s="241"/>
+      <c r="AJ13" s="234"/>
+      <c r="AK13" s="234"/>
+      <c r="AL13" s="234"/>
+      <c r="AM13" s="234"/>
       <c r="AN13" s="46"/>
       <c r="AO13" s="46"/>
-      <c r="AP13" s="241" t="str">
+      <c r="AP13" s="234" t="str">
         <f t="shared" ref="AP13" si="6">"KW " &amp; TRUNC((AP12-DATE(YEAR(AP12+3-MOD(AP12-2,7)),1,MOD(AP12-2,7)-9))/7)</f>
         <v>KW 17</v>
       </c>
-      <c r="AQ13" s="241"/>
-      <c r="AR13" s="241"/>
-      <c r="AS13" s="241"/>
-      <c r="AT13" s="241"/>
+      <c r="AQ13" s="234"/>
+      <c r="AR13" s="234"/>
+      <c r="AS13" s="234"/>
+      <c r="AT13" s="234"/>
       <c r="AU13" s="46"/>
       <c r="AV13" s="46"/>
-      <c r="AW13" s="241" t="str">
+      <c r="AW13" s="234" t="str">
         <f t="shared" ref="AW13" si="7">"KW " &amp; TRUNC((AW12-DATE(YEAR(AW12+3-MOD(AW12-2,7)),1,MOD(AW12-2,7)-9))/7)</f>
         <v>KW 18</v>
       </c>
-      <c r="AX13" s="241"/>
-      <c r="AY13" s="241"/>
-      <c r="AZ13" s="241"/>
-      <c r="BA13" s="241"/>
+      <c r="AX13" s="234"/>
+      <c r="AY13" s="234"/>
+      <c r="AZ13" s="234"/>
+      <c r="BA13" s="234"/>
       <c r="BB13" s="46"/>
       <c r="BC13" s="46"/>
-      <c r="BD13" s="241" t="str">
+      <c r="BD13" s="234" t="str">
         <f t="shared" ref="BD13" si="8">"KW " &amp; TRUNC((BD12-DATE(YEAR(BD12+3-MOD(BD12-2,7)),1,MOD(BD12-2,7)-9))/7)</f>
         <v>KW 19</v>
       </c>
-      <c r="BE13" s="241"/>
-      <c r="BF13" s="241"/>
-      <c r="BG13" s="241"/>
-      <c r="BH13" s="241"/>
+      <c r="BE13" s="234"/>
+      <c r="BF13" s="234"/>
+      <c r="BG13" s="234"/>
+      <c r="BH13" s="234"/>
       <c r="BI13" s="46"/>
       <c r="BJ13" s="46"/>
-      <c r="BK13" s="241" t="str">
+      <c r="BK13" s="234" t="str">
         <f t="shared" ref="BK13" si="9">"KW " &amp; TRUNC((BK12-DATE(YEAR(BK12+3-MOD(BK12-2,7)),1,MOD(BK12-2,7)-9))/7)</f>
         <v>KW 20</v>
       </c>
-      <c r="BL13" s="241"/>
-      <c r="BM13" s="241"/>
-      <c r="BN13" s="241"/>
-      <c r="BO13" s="241"/>
+      <c r="BL13" s="234"/>
+      <c r="BM13" s="234"/>
+      <c r="BN13" s="234"/>
+      <c r="BO13" s="234"/>
       <c r="BP13" s="46"/>
       <c r="BQ13" s="46"/>
-      <c r="BR13" s="241" t="str">
+      <c r="BR13" s="234" t="str">
         <f t="shared" ref="BR13" si="10">"KW " &amp; TRUNC((BR12-DATE(YEAR(BR12+3-MOD(BR12-2,7)),1,MOD(BR12-2,7)-9))/7)</f>
         <v>KW 21</v>
       </c>
-      <c r="BS13" s="241"/>
-      <c r="BT13" s="241"/>
-      <c r="BU13" s="241"/>
-      <c r="BV13" s="241"/>
+      <c r="BS13" s="234"/>
+      <c r="BT13" s="234"/>
+      <c r="BU13" s="234"/>
+      <c r="BV13" s="234"/>
       <c r="BW13" s="46"/>
       <c r="BX13" s="46"/>
-      <c r="BY13" s="241" t="str">
+      <c r="BY13" s="234" t="str">
         <f t="shared" ref="BY13" si="11">"KW " &amp; TRUNC((BY12-DATE(YEAR(BY12+3-MOD(BY12-2,7)),1,MOD(BY12-2,7)-9))/7)</f>
         <v>KW 22</v>
       </c>
-      <c r="BZ13" s="241"/>
-      <c r="CA13" s="241"/>
-      <c r="CB13" s="241"/>
-      <c r="CC13" s="241"/>
+      <c r="BZ13" s="234"/>
+      <c r="CA13" s="234"/>
+      <c r="CB13" s="234"/>
+      <c r="CC13" s="234"/>
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
-      <c r="CF13" s="241" t="str">
+      <c r="CF13" s="234" t="str">
         <f t="shared" ref="CF13" si="12">"KW " &amp; TRUNC((CF12-DATE(YEAR(CF12+3-MOD(CF12-2,7)),1,MOD(CF12-2,7)-9))/7)</f>
         <v>KW 23</v>
       </c>
-      <c r="CG13" s="241"/>
-      <c r="CH13" s="241"/>
-      <c r="CI13" s="241"/>
-      <c r="CJ13" s="241"/>
+      <c r="CG13" s="234"/>
+      <c r="CH13" s="234"/>
+      <c r="CI13" s="234"/>
+      <c r="CJ13" s="234"/>
       <c r="CK13" s="46"/>
       <c r="CL13" s="46"/>
-      <c r="CM13" s="241" t="str">
+      <c r="CM13" s="234" t="str">
         <f t="shared" ref="CM13" si="13">"KW " &amp; TRUNC((CM12-DATE(YEAR(CM12+3-MOD(CM12-2,7)),1,MOD(CM12-2,7)-9))/7)</f>
         <v>KW 24</v>
       </c>
-      <c r="CN13" s="241"/>
-      <c r="CO13" s="241"/>
-      <c r="CP13" s="241"/>
-      <c r="CQ13" s="241"/>
+      <c r="CN13" s="234"/>
+      <c r="CO13" s="234"/>
+      <c r="CP13" s="234"/>
+      <c r="CQ13" s="234"/>
       <c r="CR13" s="46"/>
       <c r="CS13" s="46"/>
-      <c r="CT13" s="241" t="str">
+      <c r="CT13" s="234" t="str">
         <f t="shared" ref="CT13" si="14">"KW " &amp; TRUNC((CT12-DATE(YEAR(CT12+3-MOD(CT12-2,7)),1,MOD(CT12-2,7)-9))/7)</f>
         <v>KW 25</v>
       </c>
-      <c r="CU13" s="241"/>
-      <c r="CV13" s="241"/>
-      <c r="CW13" s="241"/>
-      <c r="CX13" s="241"/>
+      <c r="CU13" s="234"/>
+      <c r="CV13" s="234"/>
+      <c r="CW13" s="234"/>
+      <c r="CX13" s="234"/>
       <c r="CY13" s="46"/>
       <c r="CZ13" s="46"/>
-      <c r="DA13" s="241" t="str">
+      <c r="DA13" s="234" t="str">
         <f t="shared" ref="DA13" si="15">"KW " &amp; TRUNC((DA12-DATE(YEAR(DA12+3-MOD(DA12-2,7)),1,MOD(DA12-2,7)-9))/7)</f>
         <v>KW 26</v>
       </c>
-      <c r="DB13" s="241"/>
-      <c r="DC13" s="241"/>
-      <c r="DD13" s="241"/>
-      <c r="DE13" s="241"/>
+      <c r="DB13" s="234"/>
+      <c r="DC13" s="234"/>
+      <c r="DD13" s="234"/>
+      <c r="DE13" s="234"/>
       <c r="DF13" s="46"/>
       <c r="DG13" s="46"/>
-      <c r="DH13" s="241" t="str">
+      <c r="DH13" s="234" t="str">
         <f t="shared" ref="DH13" si="16">"KW " &amp; TRUNC((DH12-DATE(YEAR(DH12+3-MOD(DH12-2,7)),1,MOD(DH12-2,7)-9))/7)</f>
         <v>KW 27</v>
       </c>
-      <c r="DI13" s="241"/>
-      <c r="DJ13" s="241"/>
-      <c r="DK13" s="241"/>
-      <c r="DL13" s="241"/>
+      <c r="DI13" s="234"/>
+      <c r="DJ13" s="234"/>
+      <c r="DK13" s="234"/>
+      <c r="DL13" s="234"/>
       <c r="DM13" s="46"/>
       <c r="DN13" s="46"/>
-      <c r="DO13" s="241" t="str">
+      <c r="DO13" s="234" t="str">
         <f t="shared" ref="DO13" si="17">"KW " &amp; TRUNC((DO12-DATE(YEAR(DO12+3-MOD(DO12-2,7)),1,MOD(DO12-2,7)-9))/7)</f>
         <v>KW 28</v>
       </c>
-      <c r="DP13" s="241"/>
-      <c r="DQ13" s="241"/>
-      <c r="DR13" s="241"/>
-      <c r="DS13" s="241"/>
+      <c r="DP13" s="234"/>
+      <c r="DQ13" s="234"/>
+      <c r="DR13" s="234"/>
+      <c r="DS13" s="234"/>
       <c r="DT13" s="46"/>
       <c r="DU13" s="46"/>
-      <c r="DV13" s="241" t="str">
+      <c r="DV13" s="234" t="str">
         <f t="shared" ref="DV13" si="18">"KW " &amp; TRUNC((DV12-DATE(YEAR(DV12+3-MOD(DV12-2,7)),1,MOD(DV12-2,7)-9))/7)</f>
         <v>KW 29</v>
       </c>
-      <c r="DW13" s="241"/>
-      <c r="DX13" s="241"/>
-      <c r="DY13" s="241"/>
-      <c r="DZ13" s="241"/>
+      <c r="DW13" s="234"/>
+      <c r="DX13" s="234"/>
+      <c r="DY13" s="234"/>
+      <c r="DZ13" s="234"/>
       <c r="EA13" s="46"/>
       <c r="EB13" s="46"/>
-      <c r="EC13" s="241" t="str">
+      <c r="EC13" s="234" t="str">
         <f t="shared" ref="EC13" si="19">"KW " &amp; TRUNC((EC12-DATE(YEAR(EC12+3-MOD(EC12-2,7)),1,MOD(EC12-2,7)-9))/7)</f>
         <v>KW 30</v>
       </c>
-      <c r="ED13" s="241"/>
-      <c r="EE13" s="241"/>
-      <c r="EF13" s="241"/>
-      <c r="EG13" s="241"/>
+      <c r="ED13" s="234"/>
+      <c r="EE13" s="234"/>
+      <c r="EF13" s="234"/>
+      <c r="EG13" s="234"/>
       <c r="EH13" s="46"/>
       <c r="EI13" s="46"/>
-      <c r="EJ13" s="241" t="str">
+      <c r="EJ13" s="234" t="str">
         <f t="shared" ref="EJ13" si="20">"KW " &amp; TRUNC((EJ12-DATE(YEAR(EJ12+3-MOD(EJ12-2,7)),1,MOD(EJ12-2,7)-9))/7)</f>
         <v>KW 31</v>
       </c>
-      <c r="EK13" s="241"/>
-      <c r="EL13" s="241"/>
-      <c r="EM13" s="241"/>
-      <c r="EN13" s="241"/>
+      <c r="EK13" s="234"/>
+      <c r="EL13" s="234"/>
+      <c r="EM13" s="234"/>
+      <c r="EN13" s="234"/>
       <c r="EO13" s="46"/>
       <c r="EP13" s="47"/>
     </row>
@@ -11898,196 +11898,196 @@
       <c r="M14" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="235">
+      <c r="N14" s="242">
         <f>N12</f>
         <v>42086</v>
       </c>
-      <c r="O14" s="235"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
+      <c r="O14" s="242"/>
+      <c r="P14" s="242"/>
+      <c r="Q14" s="242"/>
+      <c r="R14" s="242"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
-      <c r="U14" s="235">
+      <c r="U14" s="242">
         <f>U12</f>
         <v>42093</v>
       </c>
-      <c r="V14" s="235"/>
-      <c r="W14" s="235"/>
-      <c r="X14" s="235"/>
-      <c r="Y14" s="235"/>
-      <c r="Z14" s="235"/>
-      <c r="AA14" s="235"/>
-      <c r="AB14" s="235">
+      <c r="V14" s="242"/>
+      <c r="W14" s="242"/>
+      <c r="X14" s="242"/>
+      <c r="Y14" s="242"/>
+      <c r="Z14" s="242"/>
+      <c r="AA14" s="242"/>
+      <c r="AB14" s="242">
         <f>AB12</f>
         <v>42100</v>
       </c>
-      <c r="AC14" s="235"/>
-      <c r="AD14" s="235"/>
-      <c r="AE14" s="235"/>
-      <c r="AF14" s="235"/>
-      <c r="AG14" s="235"/>
-      <c r="AH14" s="235"/>
-      <c r="AI14" s="235">
+      <c r="AC14" s="242"/>
+      <c r="AD14" s="242"/>
+      <c r="AE14" s="242"/>
+      <c r="AF14" s="242"/>
+      <c r="AG14" s="242"/>
+      <c r="AH14" s="242"/>
+      <c r="AI14" s="242">
         <f>AI12</f>
         <v>42107</v>
       </c>
-      <c r="AJ14" s="235"/>
-      <c r="AK14" s="235"/>
-      <c r="AL14" s="235"/>
-      <c r="AM14" s="235"/>
-      <c r="AN14" s="235"/>
-      <c r="AO14" s="235"/>
-      <c r="AP14" s="235">
+      <c r="AJ14" s="242"/>
+      <c r="AK14" s="242"/>
+      <c r="AL14" s="242"/>
+      <c r="AM14" s="242"/>
+      <c r="AN14" s="242"/>
+      <c r="AO14" s="242"/>
+      <c r="AP14" s="242">
         <f>AP12</f>
         <v>42114</v>
       </c>
-      <c r="AQ14" s="235"/>
-      <c r="AR14" s="235"/>
-      <c r="AS14" s="235"/>
-      <c r="AT14" s="235"/>
-      <c r="AU14" s="235"/>
-      <c r="AV14" s="235"/>
-      <c r="AW14" s="235">
+      <c r="AQ14" s="242"/>
+      <c r="AR14" s="242"/>
+      <c r="AS14" s="242"/>
+      <c r="AT14" s="242"/>
+      <c r="AU14" s="242"/>
+      <c r="AV14" s="242"/>
+      <c r="AW14" s="242">
         <f>AW12</f>
         <v>42121</v>
       </c>
-      <c r="AX14" s="235"/>
-      <c r="AY14" s="235"/>
-      <c r="AZ14" s="235"/>
-      <c r="BA14" s="235"/>
-      <c r="BB14" s="235"/>
-      <c r="BC14" s="235"/>
-      <c r="BD14" s="235">
+      <c r="AX14" s="242"/>
+      <c r="AY14" s="242"/>
+      <c r="AZ14" s="242"/>
+      <c r="BA14" s="242"/>
+      <c r="BB14" s="242"/>
+      <c r="BC14" s="242"/>
+      <c r="BD14" s="242">
         <f>BD12</f>
         <v>42128</v>
       </c>
-      <c r="BE14" s="235"/>
-      <c r="BF14" s="235"/>
-      <c r="BG14" s="235"/>
-      <c r="BH14" s="235"/>
-      <c r="BI14" s="235"/>
-      <c r="BJ14" s="235"/>
-      <c r="BK14" s="235">
+      <c r="BE14" s="242"/>
+      <c r="BF14" s="242"/>
+      <c r="BG14" s="242"/>
+      <c r="BH14" s="242"/>
+      <c r="BI14" s="242"/>
+      <c r="BJ14" s="242"/>
+      <c r="BK14" s="242">
         <f>BK12</f>
         <v>42135</v>
       </c>
-      <c r="BL14" s="235"/>
-      <c r="BM14" s="235"/>
-      <c r="BN14" s="235"/>
-      <c r="BO14" s="235"/>
-      <c r="BP14" s="235"/>
-      <c r="BQ14" s="235"/>
-      <c r="BR14" s="235">
+      <c r="BL14" s="242"/>
+      <c r="BM14" s="242"/>
+      <c r="BN14" s="242"/>
+      <c r="BO14" s="242"/>
+      <c r="BP14" s="242"/>
+      <c r="BQ14" s="242"/>
+      <c r="BR14" s="242">
         <f>BR12</f>
         <v>42142</v>
       </c>
-      <c r="BS14" s="235"/>
-      <c r="BT14" s="235"/>
-      <c r="BU14" s="235"/>
-      <c r="BV14" s="235"/>
-      <c r="BW14" s="235"/>
-      <c r="BX14" s="235"/>
-      <c r="BY14" s="235">
+      <c r="BS14" s="242"/>
+      <c r="BT14" s="242"/>
+      <c r="BU14" s="242"/>
+      <c r="BV14" s="242"/>
+      <c r="BW14" s="242"/>
+      <c r="BX14" s="242"/>
+      <c r="BY14" s="242">
         <f>BY12</f>
         <v>42149</v>
       </c>
-      <c r="BZ14" s="235"/>
-      <c r="CA14" s="235"/>
-      <c r="CB14" s="235"/>
-      <c r="CC14" s="235"/>
-      <c r="CD14" s="235"/>
-      <c r="CE14" s="235"/>
-      <c r="CF14" s="235">
+      <c r="BZ14" s="242"/>
+      <c r="CA14" s="242"/>
+      <c r="CB14" s="242"/>
+      <c r="CC14" s="242"/>
+      <c r="CD14" s="242"/>
+      <c r="CE14" s="242"/>
+      <c r="CF14" s="242">
         <f>CF12</f>
         <v>42156</v>
       </c>
-      <c r="CG14" s="235"/>
-      <c r="CH14" s="235"/>
-      <c r="CI14" s="235"/>
-      <c r="CJ14" s="235"/>
-      <c r="CK14" s="235"/>
-      <c r="CL14" s="235"/>
-      <c r="CM14" s="235">
+      <c r="CG14" s="242"/>
+      <c r="CH14" s="242"/>
+      <c r="CI14" s="242"/>
+      <c r="CJ14" s="242"/>
+      <c r="CK14" s="242"/>
+      <c r="CL14" s="242"/>
+      <c r="CM14" s="242">
         <f>CM12</f>
         <v>42163</v>
       </c>
-      <c r="CN14" s="235"/>
-      <c r="CO14" s="235"/>
-      <c r="CP14" s="235"/>
-      <c r="CQ14" s="235"/>
-      <c r="CR14" s="235"/>
-      <c r="CS14" s="235"/>
-      <c r="CT14" s="235">
+      <c r="CN14" s="242"/>
+      <c r="CO14" s="242"/>
+      <c r="CP14" s="242"/>
+      <c r="CQ14" s="242"/>
+      <c r="CR14" s="242"/>
+      <c r="CS14" s="242"/>
+      <c r="CT14" s="242">
         <f>CT12</f>
         <v>42170</v>
       </c>
-      <c r="CU14" s="235"/>
-      <c r="CV14" s="235"/>
-      <c r="CW14" s="235"/>
-      <c r="CX14" s="235"/>
-      <c r="CY14" s="235"/>
-      <c r="CZ14" s="235"/>
-      <c r="DA14" s="235">
+      <c r="CU14" s="242"/>
+      <c r="CV14" s="242"/>
+      <c r="CW14" s="242"/>
+      <c r="CX14" s="242"/>
+      <c r="CY14" s="242"/>
+      <c r="CZ14" s="242"/>
+      <c r="DA14" s="242">
         <f>DA12</f>
         <v>42177</v>
       </c>
-      <c r="DB14" s="235"/>
-      <c r="DC14" s="235"/>
-      <c r="DD14" s="235"/>
-      <c r="DE14" s="235"/>
-      <c r="DF14" s="235"/>
-      <c r="DG14" s="235"/>
-      <c r="DH14" s="235">
+      <c r="DB14" s="242"/>
+      <c r="DC14" s="242"/>
+      <c r="DD14" s="242"/>
+      <c r="DE14" s="242"/>
+      <c r="DF14" s="242"/>
+      <c r="DG14" s="242"/>
+      <c r="DH14" s="242">
         <f>DH12</f>
         <v>42184</v>
       </c>
-      <c r="DI14" s="235"/>
-      <c r="DJ14" s="235"/>
-      <c r="DK14" s="235"/>
-      <c r="DL14" s="235"/>
-      <c r="DM14" s="235"/>
-      <c r="DN14" s="235"/>
-      <c r="DO14" s="235">
+      <c r="DI14" s="242"/>
+      <c r="DJ14" s="242"/>
+      <c r="DK14" s="242"/>
+      <c r="DL14" s="242"/>
+      <c r="DM14" s="242"/>
+      <c r="DN14" s="242"/>
+      <c r="DO14" s="242">
         <f>DO12</f>
         <v>42191</v>
       </c>
-      <c r="DP14" s="235"/>
-      <c r="DQ14" s="235"/>
-      <c r="DR14" s="235"/>
-      <c r="DS14" s="235"/>
-      <c r="DT14" s="235"/>
-      <c r="DU14" s="235"/>
-      <c r="DV14" s="235">
+      <c r="DP14" s="242"/>
+      <c r="DQ14" s="242"/>
+      <c r="DR14" s="242"/>
+      <c r="DS14" s="242"/>
+      <c r="DT14" s="242"/>
+      <c r="DU14" s="242"/>
+      <c r="DV14" s="242">
         <f>DV12</f>
         <v>42198</v>
       </c>
-      <c r="DW14" s="235"/>
-      <c r="DX14" s="235"/>
-      <c r="DY14" s="235"/>
-      <c r="DZ14" s="235"/>
-      <c r="EA14" s="235"/>
-      <c r="EB14" s="235"/>
-      <c r="EC14" s="235">
+      <c r="DW14" s="242"/>
+      <c r="DX14" s="242"/>
+      <c r="DY14" s="242"/>
+      <c r="DZ14" s="242"/>
+      <c r="EA14" s="242"/>
+      <c r="EB14" s="242"/>
+      <c r="EC14" s="242">
         <f>EC12</f>
         <v>42205</v>
       </c>
-      <c r="ED14" s="235"/>
-      <c r="EE14" s="235"/>
-      <c r="EF14" s="235"/>
-      <c r="EG14" s="235"/>
-      <c r="EH14" s="235"/>
-      <c r="EI14" s="235"/>
-      <c r="EJ14" s="235">
+      <c r="ED14" s="242"/>
+      <c r="EE14" s="242"/>
+      <c r="EF14" s="242"/>
+      <c r="EG14" s="242"/>
+      <c r="EH14" s="242"/>
+      <c r="EI14" s="242"/>
+      <c r="EJ14" s="242">
         <f>EJ12</f>
         <v>42212</v>
       </c>
-      <c r="EK14" s="235"/>
-      <c r="EL14" s="235"/>
-      <c r="EM14" s="235"/>
-      <c r="EN14" s="235"/>
-      <c r="EO14" s="235"/>
-      <c r="EP14" s="236"/>
+      <c r="EK14" s="242"/>
+      <c r="EL14" s="242"/>
+      <c r="EM14" s="242"/>
+      <c r="EN14" s="242"/>
+      <c r="EO14" s="242"/>
+      <c r="EP14" s="244"/>
       <c r="EQ14" s="48"/>
     </row>
     <row r="15" spans="1:755" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13713,19 +13713,19 @@
       </c>
       <c r="J23" s="80">
         <f>AVERAGE(J24:J28)</f>
-        <v>0.1</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23" s="229">
         <f t="shared" si="24"/>
-        <v>42098</v>
+        <v>42100</v>
       </c>
       <c r="N23" s="206"/>
       <c r="O23" s="83"/>
@@ -13886,11 +13886,11 @@
         <v>42103</v>
       </c>
       <c r="J24" s="80">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K24" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="L24" s="228">
         <f t="shared" si="22"/>
@@ -14059,19 +14059,19 @@
         <v>42107</v>
       </c>
       <c r="J25" s="80">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K25" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L25" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="229">
         <f t="shared" si="24"/>
-        <v>42103</v>
+        <v>42104</v>
       </c>
       <c r="N25" s="206"/>
       <c r="O25" s="83"/>
@@ -14236,7 +14236,7 @@
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="K27" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L27" s="228">
         <f t="shared" si="22"/>
@@ -14747,7 +14747,7 @@
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="K30" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L30" s="228">
         <f t="shared" si="22"/>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
@@ -15266,7 +15266,7 @@
       </c>
       <c r="K32" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L32" s="228">
         <f t="shared" si="22"/>
@@ -15768,7 +15768,7 @@
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
@@ -15941,7 +15941,7 @@
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
@@ -16114,7 +16114,7 @@
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
@@ -16287,7 +16287,7 @@
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L38" s="228">
         <f t="shared" si="22"/>
@@ -16458,7 +16458,7 @@
       <c r="J39" s="80"/>
       <c r="K39" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L39" s="228">
         <f t="shared" si="22"/>
@@ -16630,7 +16630,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L40" s="228" t="str">
         <f t="shared" si="22"/>
@@ -16967,7 +16967,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17140,7 +17140,7 @@
       </c>
       <c r="K43" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L43" s="228">
         <f t="shared" si="22"/>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="K44" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L44" s="228">
         <f t="shared" si="22"/>
@@ -17486,7 +17486,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L48" s="228">
         <f t="shared" si="22"/>
@@ -18161,7 +18161,7 @@
       </c>
       <c r="K49" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L49" s="228">
         <f t="shared" si="22"/>
@@ -18334,7 +18334,7 @@
       </c>
       <c r="K50" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L50" s="228">
         <f t="shared" si="22"/>
@@ -18507,7 +18507,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -18679,7 +18679,7 @@
       </c>
       <c r="K52" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L52" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19180,7 +19180,7 @@
       </c>
       <c r="K55" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L55" s="228">
         <f t="shared" si="22"/>
@@ -21120,45 +21120,45 @@
       <c r="EQ66" s="37"/>
     </row>
     <row r="67" spans="1:147" s="3" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="237"/>
-      <c r="B67" s="238"/>
-      <c r="C67" s="238"/>
-      <c r="D67" s="238"/>
-      <c r="E67" s="238"/>
-      <c r="F67" s="238"/>
-      <c r="G67" s="238"/>
-      <c r="H67" s="238"/>
-      <c r="I67" s="238"/>
-      <c r="J67" s="238"/>
-      <c r="K67" s="238"/>
-      <c r="L67" s="238"/>
-      <c r="M67" s="238"/>
-      <c r="N67" s="238"/>
-      <c r="O67" s="238"/>
-      <c r="P67" s="238"/>
-      <c r="Q67" s="238"/>
-      <c r="R67" s="238"/>
-      <c r="S67" s="238"/>
-      <c r="T67" s="238"/>
-      <c r="U67" s="238"/>
-      <c r="V67" s="238"/>
-      <c r="W67" s="238"/>
-      <c r="X67" s="238"/>
-      <c r="Y67" s="238"/>
-      <c r="Z67" s="238"/>
-      <c r="AA67" s="238"/>
-      <c r="AB67" s="238"/>
-      <c r="AC67" s="238"/>
-      <c r="AD67" s="238"/>
-      <c r="AE67" s="238"/>
-      <c r="AF67" s="238"/>
-      <c r="AG67" s="238"/>
-      <c r="AH67" s="238"/>
-      <c r="AI67" s="238"/>
-      <c r="AJ67" s="238"/>
-      <c r="AK67" s="238"/>
-      <c r="AL67" s="238"/>
-      <c r="AM67" s="238"/>
+      <c r="A67" s="245"/>
+      <c r="B67" s="246"/>
+      <c r="C67" s="246"/>
+      <c r="D67" s="246"/>
+      <c r="E67" s="246"/>
+      <c r="F67" s="246"/>
+      <c r="G67" s="246"/>
+      <c r="H67" s="246"/>
+      <c r="I67" s="246"/>
+      <c r="J67" s="246"/>
+      <c r="K67" s="246"/>
+      <c r="L67" s="246"/>
+      <c r="M67" s="246"/>
+      <c r="N67" s="246"/>
+      <c r="O67" s="246"/>
+      <c r="P67" s="246"/>
+      <c r="Q67" s="246"/>
+      <c r="R67" s="246"/>
+      <c r="S67" s="246"/>
+      <c r="T67" s="246"/>
+      <c r="U67" s="246"/>
+      <c r="V67" s="246"/>
+      <c r="W67" s="246"/>
+      <c r="X67" s="246"/>
+      <c r="Y67" s="246"/>
+      <c r="Z67" s="246"/>
+      <c r="AA67" s="246"/>
+      <c r="AB67" s="246"/>
+      <c r="AC67" s="246"/>
+      <c r="AD67" s="246"/>
+      <c r="AE67" s="246"/>
+      <c r="AF67" s="246"/>
+      <c r="AG67" s="246"/>
+      <c r="AH67" s="246"/>
+      <c r="AI67" s="246"/>
+      <c r="AJ67" s="246"/>
+      <c r="AK67" s="246"/>
+      <c r="AL67" s="246"/>
+      <c r="AM67" s="246"/>
       <c r="AN67" s="100"/>
       <c r="AO67" s="100"/>
       <c r="AP67" s="100"/>
@@ -21189,85 +21189,85 @@
       <c r="BO67" s="100"/>
       <c r="BP67" s="100"/>
       <c r="BQ67" s="100"/>
-      <c r="BR67" s="239" t="s">
+      <c r="BR67" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="BS67" s="239"/>
-      <c r="BT67" s="239"/>
-      <c r="BU67" s="239"/>
-      <c r="BV67" s="239"/>
-      <c r="BW67" s="239"/>
-      <c r="BX67" s="239"/>
-      <c r="BY67" s="239"/>
-      <c r="BZ67" s="239"/>
-      <c r="CA67" s="239"/>
-      <c r="CB67" s="239"/>
-      <c r="CC67" s="239"/>
-      <c r="CD67" s="239"/>
-      <c r="CE67" s="239"/>
-      <c r="CF67" s="239"/>
-      <c r="CG67" s="239"/>
-      <c r="CH67" s="239"/>
-      <c r="CI67" s="239"/>
-      <c r="CJ67" s="239"/>
-      <c r="CK67" s="239"/>
-      <c r="CL67" s="239"/>
-      <c r="CM67" s="239"/>
-      <c r="CN67" s="239"/>
-      <c r="CO67" s="239"/>
-      <c r="CP67" s="239"/>
-      <c r="CQ67" s="239"/>
-      <c r="CR67" s="239"/>
-      <c r="CS67" s="239"/>
-      <c r="CT67" s="239"/>
-      <c r="CU67" s="239"/>
-      <c r="CV67" s="239"/>
-      <c r="CW67" s="239"/>
-      <c r="CX67" s="239"/>
-      <c r="CY67" s="239"/>
-      <c r="CZ67" s="239"/>
-      <c r="DA67" s="239"/>
-      <c r="DB67" s="239"/>
-      <c r="DC67" s="239"/>
-      <c r="DD67" s="239"/>
-      <c r="DE67" s="239"/>
-      <c r="DF67" s="239"/>
-      <c r="DG67" s="239"/>
-      <c r="DH67" s="239"/>
-      <c r="DI67" s="239"/>
-      <c r="DJ67" s="239"/>
-      <c r="DK67" s="239"/>
-      <c r="DL67" s="239"/>
-      <c r="DM67" s="239"/>
-      <c r="DN67" s="239"/>
-      <c r="DO67" s="239"/>
-      <c r="DP67" s="239"/>
-      <c r="DQ67" s="239"/>
-      <c r="DR67" s="239"/>
-      <c r="DS67" s="239"/>
-      <c r="DT67" s="239"/>
-      <c r="DU67" s="239"/>
-      <c r="DV67" s="239"/>
-      <c r="DW67" s="239"/>
-      <c r="DX67" s="239"/>
-      <c r="DY67" s="239"/>
-      <c r="DZ67" s="239"/>
-      <c r="EA67" s="239"/>
-      <c r="EB67" s="239"/>
-      <c r="EC67" s="239"/>
-      <c r="ED67" s="239"/>
-      <c r="EE67" s="239"/>
-      <c r="EF67" s="239"/>
-      <c r="EG67" s="239"/>
-      <c r="EH67" s="239"/>
-      <c r="EI67" s="239"/>
-      <c r="EJ67" s="239"/>
-      <c r="EK67" s="239"/>
-      <c r="EL67" s="239"/>
-      <c r="EM67" s="239"/>
-      <c r="EN67" s="239"/>
-      <c r="EO67" s="239"/>
-      <c r="EP67" s="240"/>
+      <c r="BS67" s="247"/>
+      <c r="BT67" s="247"/>
+      <c r="BU67" s="247"/>
+      <c r="BV67" s="247"/>
+      <c r="BW67" s="247"/>
+      <c r="BX67" s="247"/>
+      <c r="BY67" s="247"/>
+      <c r="BZ67" s="247"/>
+      <c r="CA67" s="247"/>
+      <c r="CB67" s="247"/>
+      <c r="CC67" s="247"/>
+      <c r="CD67" s="247"/>
+      <c r="CE67" s="247"/>
+      <c r="CF67" s="247"/>
+      <c r="CG67" s="247"/>
+      <c r="CH67" s="247"/>
+      <c r="CI67" s="247"/>
+      <c r="CJ67" s="247"/>
+      <c r="CK67" s="247"/>
+      <c r="CL67" s="247"/>
+      <c r="CM67" s="247"/>
+      <c r="CN67" s="247"/>
+      <c r="CO67" s="247"/>
+      <c r="CP67" s="247"/>
+      <c r="CQ67" s="247"/>
+      <c r="CR67" s="247"/>
+      <c r="CS67" s="247"/>
+      <c r="CT67" s="247"/>
+      <c r="CU67" s="247"/>
+      <c r="CV67" s="247"/>
+      <c r="CW67" s="247"/>
+      <c r="CX67" s="247"/>
+      <c r="CY67" s="247"/>
+      <c r="CZ67" s="247"/>
+      <c r="DA67" s="247"/>
+      <c r="DB67" s="247"/>
+      <c r="DC67" s="247"/>
+      <c r="DD67" s="247"/>
+      <c r="DE67" s="247"/>
+      <c r="DF67" s="247"/>
+      <c r="DG67" s="247"/>
+      <c r="DH67" s="247"/>
+      <c r="DI67" s="247"/>
+      <c r="DJ67" s="247"/>
+      <c r="DK67" s="247"/>
+      <c r="DL67" s="247"/>
+      <c r="DM67" s="247"/>
+      <c r="DN67" s="247"/>
+      <c r="DO67" s="247"/>
+      <c r="DP67" s="247"/>
+      <c r="DQ67" s="247"/>
+      <c r="DR67" s="247"/>
+      <c r="DS67" s="247"/>
+      <c r="DT67" s="247"/>
+      <c r="DU67" s="247"/>
+      <c r="DV67" s="247"/>
+      <c r="DW67" s="247"/>
+      <c r="DX67" s="247"/>
+      <c r="DY67" s="247"/>
+      <c r="DZ67" s="247"/>
+      <c r="EA67" s="247"/>
+      <c r="EB67" s="247"/>
+      <c r="EC67" s="247"/>
+      <c r="ED67" s="247"/>
+      <c r="EE67" s="247"/>
+      <c r="EF67" s="247"/>
+      <c r="EG67" s="247"/>
+      <c r="EH67" s="247"/>
+      <c r="EI67" s="247"/>
+      <c r="EJ67" s="247"/>
+      <c r="EK67" s="247"/>
+      <c r="EL67" s="247"/>
+      <c r="EM67" s="247"/>
+      <c r="EN67" s="247"/>
+      <c r="EO67" s="247"/>
+      <c r="EP67" s="248"/>
       <c r="EQ67" s="48"/>
     </row>
     <row r="68" spans="1:147" x14ac:dyDescent="0.25">
@@ -21419,172 +21419,186 @@
       <c r="EQ68" s="37"/>
     </row>
     <row r="69" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A69" s="234"/>
-      <c r="B69" s="234"/>
-      <c r="C69" s="234"/>
-      <c r="D69" s="234"/>
-      <c r="E69" s="234"/>
-      <c r="F69" s="234"/>
-      <c r="G69" s="234"/>
-      <c r="H69" s="234"/>
-      <c r="I69" s="234"/>
-      <c r="J69" s="234"/>
-      <c r="K69" s="234"/>
-      <c r="L69" s="234"/>
-      <c r="M69" s="234"/>
-      <c r="N69" s="234"/>
-      <c r="O69" s="234"/>
-      <c r="P69" s="234"/>
-      <c r="Q69" s="234"/>
-      <c r="R69" s="234"/>
-      <c r="S69" s="234"/>
-      <c r="T69" s="234"/>
-      <c r="U69" s="234"/>
-      <c r="V69" s="234"/>
-      <c r="W69" s="234"/>
-      <c r="X69" s="234"/>
-      <c r="Y69" s="234"/>
-      <c r="Z69" s="234"/>
-      <c r="AA69" s="234"/>
-      <c r="AB69" s="234"/>
-      <c r="AC69" s="234"/>
-      <c r="AD69" s="234"/>
-      <c r="AE69" s="234"/>
-      <c r="AF69" s="234"/>
-      <c r="AG69" s="234"/>
-      <c r="AH69" s="234"/>
-      <c r="AI69" s="234"/>
-      <c r="AJ69" s="234"/>
-      <c r="AK69" s="234"/>
-      <c r="AL69" s="234"/>
-      <c r="AM69" s="234"/>
-      <c r="AN69" s="234"/>
-      <c r="AO69" s="234"/>
-      <c r="AP69" s="234"/>
-      <c r="AQ69" s="234"/>
-      <c r="AR69" s="234"/>
-      <c r="AS69" s="234"/>
-      <c r="AT69" s="234"/>
-      <c r="AU69" s="234"/>
-      <c r="AV69" s="234"/>
-      <c r="AW69" s="234"/>
-      <c r="AX69" s="234"/>
-      <c r="AY69" s="234"/>
-      <c r="AZ69" s="234"/>
-      <c r="BA69" s="234"/>
-      <c r="BB69" s="234"/>
-      <c r="BC69" s="234"/>
-      <c r="BD69" s="234"/>
-      <c r="BE69" s="234"/>
-      <c r="BF69" s="234"/>
-      <c r="BG69" s="234"/>
-      <c r="BH69" s="234"/>
-      <c r="BI69" s="234"/>
-      <c r="BJ69" s="234"/>
-      <c r="BK69" s="234"/>
-      <c r="BL69" s="234"/>
-      <c r="BM69" s="234"/>
-      <c r="BN69" s="234"/>
-      <c r="BO69" s="234"/>
-      <c r="BP69" s="234"/>
-      <c r="BQ69" s="234"/>
-      <c r="BR69" s="234"/>
-      <c r="BS69" s="234"/>
-      <c r="BT69" s="234"/>
-      <c r="BU69" s="234"/>
-      <c r="BV69" s="234"/>
-      <c r="BW69" s="234"/>
-      <c r="BX69" s="234"/>
-      <c r="BY69" s="234"/>
-      <c r="BZ69" s="234"/>
-      <c r="CA69" s="234"/>
-      <c r="CB69" s="234"/>
-      <c r="CC69" s="234"/>
-      <c r="CD69" s="234"/>
-      <c r="CE69" s="234"/>
-      <c r="CF69" s="234"/>
-      <c r="CG69" s="234"/>
-      <c r="CH69" s="234"/>
-      <c r="CI69" s="234"/>
-      <c r="CJ69" s="234"/>
-      <c r="CK69" s="234"/>
-      <c r="CL69" s="234"/>
-      <c r="CM69" s="234"/>
-      <c r="CN69" s="234"/>
-      <c r="CO69" s="234"/>
-      <c r="CP69" s="234"/>
-      <c r="CQ69" s="234"/>
-      <c r="CR69" s="234"/>
-      <c r="CS69" s="234"/>
-      <c r="CT69" s="234"/>
-      <c r="CU69" s="234"/>
-      <c r="CV69" s="234"/>
-      <c r="CW69" s="234"/>
-      <c r="CX69" s="234"/>
-      <c r="CY69" s="234"/>
-      <c r="CZ69" s="234"/>
-      <c r="DA69" s="234"/>
-      <c r="DB69" s="234"/>
-      <c r="DC69" s="234"/>
-      <c r="DD69" s="234"/>
-      <c r="DE69" s="234"/>
-      <c r="DF69" s="234"/>
-      <c r="DG69" s="234"/>
-      <c r="DH69" s="234"/>
-      <c r="DI69" s="234"/>
-      <c r="DJ69" s="234"/>
-      <c r="DK69" s="234"/>
-      <c r="DL69" s="234"/>
-      <c r="DM69" s="234"/>
-      <c r="DN69" s="234"/>
-      <c r="DO69" s="234"/>
-      <c r="DP69" s="234"/>
-      <c r="DQ69" s="234"/>
-      <c r="DR69" s="234"/>
-      <c r="DS69" s="234"/>
-      <c r="DT69" s="234"/>
-      <c r="DU69" s="234"/>
-      <c r="DV69" s="234"/>
-      <c r="DW69" s="234"/>
-      <c r="DX69" s="234"/>
-      <c r="DY69" s="234"/>
-      <c r="DZ69" s="234"/>
-      <c r="EA69" s="234"/>
-      <c r="EB69" s="234"/>
-      <c r="EC69" s="234"/>
-      <c r="ED69" s="234"/>
-      <c r="EE69" s="234"/>
-      <c r="EF69" s="234"/>
-      <c r="EG69" s="234"/>
-      <c r="EH69" s="234"/>
-      <c r="EI69" s="234"/>
-      <c r="EJ69" s="234"/>
-      <c r="EK69" s="234"/>
-      <c r="EL69" s="234"/>
-      <c r="EM69" s="234"/>
-      <c r="EN69" s="234"/>
-      <c r="EO69" s="234"/>
-      <c r="EP69" s="234"/>
+      <c r="A69" s="243"/>
+      <c r="B69" s="243"/>
+      <c r="C69" s="243"/>
+      <c r="D69" s="243"/>
+      <c r="E69" s="243"/>
+      <c r="F69" s="243"/>
+      <c r="G69" s="243"/>
+      <c r="H69" s="243"/>
+      <c r="I69" s="243"/>
+      <c r="J69" s="243"/>
+      <c r="K69" s="243"/>
+      <c r="L69" s="243"/>
+      <c r="M69" s="243"/>
+      <c r="N69" s="243"/>
+      <c r="O69" s="243"/>
+      <c r="P69" s="243"/>
+      <c r="Q69" s="243"/>
+      <c r="R69" s="243"/>
+      <c r="S69" s="243"/>
+      <c r="T69" s="243"/>
+      <c r="U69" s="243"/>
+      <c r="V69" s="243"/>
+      <c r="W69" s="243"/>
+      <c r="X69" s="243"/>
+      <c r="Y69" s="243"/>
+      <c r="Z69" s="243"/>
+      <c r="AA69" s="243"/>
+      <c r="AB69" s="243"/>
+      <c r="AC69" s="243"/>
+      <c r="AD69" s="243"/>
+      <c r="AE69" s="243"/>
+      <c r="AF69" s="243"/>
+      <c r="AG69" s="243"/>
+      <c r="AH69" s="243"/>
+      <c r="AI69" s="243"/>
+      <c r="AJ69" s="243"/>
+      <c r="AK69" s="243"/>
+      <c r="AL69" s="243"/>
+      <c r="AM69" s="243"/>
+      <c r="AN69" s="243"/>
+      <c r="AO69" s="243"/>
+      <c r="AP69" s="243"/>
+      <c r="AQ69" s="243"/>
+      <c r="AR69" s="243"/>
+      <c r="AS69" s="243"/>
+      <c r="AT69" s="243"/>
+      <c r="AU69" s="243"/>
+      <c r="AV69" s="243"/>
+      <c r="AW69" s="243"/>
+      <c r="AX69" s="243"/>
+      <c r="AY69" s="243"/>
+      <c r="AZ69" s="243"/>
+      <c r="BA69" s="243"/>
+      <c r="BB69" s="243"/>
+      <c r="BC69" s="243"/>
+      <c r="BD69" s="243"/>
+      <c r="BE69" s="243"/>
+      <c r="BF69" s="243"/>
+      <c r="BG69" s="243"/>
+      <c r="BH69" s="243"/>
+      <c r="BI69" s="243"/>
+      <c r="BJ69" s="243"/>
+      <c r="BK69" s="243"/>
+      <c r="BL69" s="243"/>
+      <c r="BM69" s="243"/>
+      <c r="BN69" s="243"/>
+      <c r="BO69" s="243"/>
+      <c r="BP69" s="243"/>
+      <c r="BQ69" s="243"/>
+      <c r="BR69" s="243"/>
+      <c r="BS69" s="243"/>
+      <c r="BT69" s="243"/>
+      <c r="BU69" s="243"/>
+      <c r="BV69" s="243"/>
+      <c r="BW69" s="243"/>
+      <c r="BX69" s="243"/>
+      <c r="BY69" s="243"/>
+      <c r="BZ69" s="243"/>
+      <c r="CA69" s="243"/>
+      <c r="CB69" s="243"/>
+      <c r="CC69" s="243"/>
+      <c r="CD69" s="243"/>
+      <c r="CE69" s="243"/>
+      <c r="CF69" s="243"/>
+      <c r="CG69" s="243"/>
+      <c r="CH69" s="243"/>
+      <c r="CI69" s="243"/>
+      <c r="CJ69" s="243"/>
+      <c r="CK69" s="243"/>
+      <c r="CL69" s="243"/>
+      <c r="CM69" s="243"/>
+      <c r="CN69" s="243"/>
+      <c r="CO69" s="243"/>
+      <c r="CP69" s="243"/>
+      <c r="CQ69" s="243"/>
+      <c r="CR69" s="243"/>
+      <c r="CS69" s="243"/>
+      <c r="CT69" s="243"/>
+      <c r="CU69" s="243"/>
+      <c r="CV69" s="243"/>
+      <c r="CW69" s="243"/>
+      <c r="CX69" s="243"/>
+      <c r="CY69" s="243"/>
+      <c r="CZ69" s="243"/>
+      <c r="DA69" s="243"/>
+      <c r="DB69" s="243"/>
+      <c r="DC69" s="243"/>
+      <c r="DD69" s="243"/>
+      <c r="DE69" s="243"/>
+      <c r="DF69" s="243"/>
+      <c r="DG69" s="243"/>
+      <c r="DH69" s="243"/>
+      <c r="DI69" s="243"/>
+      <c r="DJ69" s="243"/>
+      <c r="DK69" s="243"/>
+      <c r="DL69" s="243"/>
+      <c r="DM69" s="243"/>
+      <c r="DN69" s="243"/>
+      <c r="DO69" s="243"/>
+      <c r="DP69" s="243"/>
+      <c r="DQ69" s="243"/>
+      <c r="DR69" s="243"/>
+      <c r="DS69" s="243"/>
+      <c r="DT69" s="243"/>
+      <c r="DU69" s="243"/>
+      <c r="DV69" s="243"/>
+      <c r="DW69" s="243"/>
+      <c r="DX69" s="243"/>
+      <c r="DY69" s="243"/>
+      <c r="DZ69" s="243"/>
+      <c r="EA69" s="243"/>
+      <c r="EB69" s="243"/>
+      <c r="EC69" s="243"/>
+      <c r="ED69" s="243"/>
+      <c r="EE69" s="243"/>
+      <c r="EF69" s="243"/>
+      <c r="EG69" s="243"/>
+      <c r="EH69" s="243"/>
+      <c r="EI69" s="243"/>
+      <c r="EJ69" s="243"/>
+      <c r="EK69" s="243"/>
+      <c r="EL69" s="243"/>
+      <c r="EM69" s="243"/>
+      <c r="EN69" s="243"/>
+      <c r="EO69" s="243"/>
+      <c r="EP69" s="243"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AI13:AM13"/>
-    <mergeCell ref="AP13:AT13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="BY11:EP11"/>
-    <mergeCell ref="DV13:DZ13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="BD13:BH13"/>
-    <mergeCell ref="BK13:BO13"/>
-    <mergeCell ref="BR13:BV13"/>
-    <mergeCell ref="BY13:CC13"/>
-    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="A69:EP69"/>
+    <mergeCell ref="EA14:EB14"/>
+    <mergeCell ref="EC14:EG14"/>
+    <mergeCell ref="EH14:EI14"/>
+    <mergeCell ref="EJ14:EN14"/>
+    <mergeCell ref="EO14:EP14"/>
+    <mergeCell ref="A67:AM67"/>
+    <mergeCell ref="BR67:EP67"/>
+    <mergeCell ref="DF14:DG14"/>
+    <mergeCell ref="DH14:DL14"/>
+    <mergeCell ref="DM14:DN14"/>
+    <mergeCell ref="DO14:DS14"/>
+    <mergeCell ref="DT14:DU14"/>
+    <mergeCell ref="DV14:DZ14"/>
+    <mergeCell ref="CK14:CL14"/>
+    <mergeCell ref="CM14:CQ14"/>
+    <mergeCell ref="CR14:CS14"/>
+    <mergeCell ref="CT14:CX14"/>
+    <mergeCell ref="CY14:CZ14"/>
+    <mergeCell ref="DA14:DE14"/>
+    <mergeCell ref="BP14:BQ14"/>
+    <mergeCell ref="BR14:BV14"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BY14:CC14"/>
+    <mergeCell ref="CD14:CE14"/>
+    <mergeCell ref="CF14:CJ14"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BD14:BH14"/>
+    <mergeCell ref="BI14:BJ14"/>
     <mergeCell ref="BK14:BO14"/>
     <mergeCell ref="EC13:EG13"/>
     <mergeCell ref="EJ13:EN13"/>
@@ -21601,37 +21615,23 @@
     <mergeCell ref="DA13:DE13"/>
     <mergeCell ref="DH13:DL13"/>
     <mergeCell ref="DO13:DS13"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BD14:BH14"/>
-    <mergeCell ref="BI14:BJ14"/>
-    <mergeCell ref="CR14:CS14"/>
-    <mergeCell ref="CT14:CX14"/>
-    <mergeCell ref="CY14:CZ14"/>
-    <mergeCell ref="DA14:DE14"/>
-    <mergeCell ref="BP14:BQ14"/>
-    <mergeCell ref="BR14:BV14"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BY14:CC14"/>
-    <mergeCell ref="CD14:CE14"/>
-    <mergeCell ref="CF14:CJ14"/>
-    <mergeCell ref="A69:EP69"/>
-    <mergeCell ref="EA14:EB14"/>
-    <mergeCell ref="EC14:EG14"/>
-    <mergeCell ref="EH14:EI14"/>
-    <mergeCell ref="EJ14:EN14"/>
-    <mergeCell ref="EO14:EP14"/>
-    <mergeCell ref="A67:AM67"/>
-    <mergeCell ref="BR67:EP67"/>
-    <mergeCell ref="DF14:DG14"/>
-    <mergeCell ref="DH14:DL14"/>
-    <mergeCell ref="DM14:DN14"/>
-    <mergeCell ref="DO14:DS14"/>
-    <mergeCell ref="DT14:DU14"/>
-    <mergeCell ref="DV14:DZ14"/>
-    <mergeCell ref="CK14:CL14"/>
-    <mergeCell ref="CM14:CQ14"/>
+    <mergeCell ref="DV13:DZ13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="BD13:BH13"/>
+    <mergeCell ref="BK13:BO13"/>
+    <mergeCell ref="BR13:BV13"/>
+    <mergeCell ref="BY13:CC13"/>
+    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="BY11:EP11"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AI13:AM13"/>
+    <mergeCell ref="AP13:AT13"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H40:H44 H29:H31 H33:H37 H46:H65">
     <cfRule type="expression" dxfId="109" priority="112">

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="0" windowWidth="27300" windowHeight="12420"/>
+    <workbookView xWindow="21000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -2093,6 +2093,27 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2118,27 +2139,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3349,10 +3349,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="V25" sqref="V25"/>
+      <selection pane="topRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7935,10 +7935,10 @@
       <c r="G7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="235">
+      <c r="H7" s="242">
         <v>42088</v>
       </c>
-      <c r="I7" s="235"/>
+      <c r="I7" s="242"/>
       <c r="K7" s="27"/>
       <c r="L7" s="217"/>
       <c r="M7" s="217"/>
@@ -10200,17 +10200,17 @@
       <c r="ACA9" s="34"/>
     </row>
     <row r="10" spans="1:755" s="22" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
-      <c r="B10" s="236"/>
+      <c r="A10" s="243"/>
+      <c r="B10" s="243"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="237"/>
-      <c r="G10" s="237"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
       <c r="L10" s="220"/>
       <c r="M10" s="220"/>
       <c r="N10" s="201"/>
@@ -10957,19 +10957,19 @@
       <c r="ACA10" s="34"/>
     </row>
     <row r="11" spans="1:755" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="238" t="s">
+      <c r="A11" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="239"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="239"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
+      <c r="B11" s="246"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="246"/>
       <c r="L11" s="221"/>
       <c r="M11" s="221"/>
       <c r="N11" s="202"/>
@@ -11035,78 +11035,78 @@
       <c r="BV11" s="36"/>
       <c r="BW11" s="36"/>
       <c r="BX11" s="36"/>
-      <c r="BY11" s="240" t="s">
+      <c r="BY11" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="BZ11" s="240"/>
-      <c r="CA11" s="240"/>
-      <c r="CB11" s="240"/>
-      <c r="CC11" s="240"/>
-      <c r="CD11" s="240"/>
-      <c r="CE11" s="240"/>
-      <c r="CF11" s="240"/>
-      <c r="CG11" s="240"/>
-      <c r="CH11" s="240"/>
-      <c r="CI11" s="240"/>
-      <c r="CJ11" s="240"/>
-      <c r="CK11" s="240"/>
-      <c r="CL11" s="240"/>
-      <c r="CM11" s="240"/>
-      <c r="CN11" s="240"/>
-      <c r="CO11" s="240"/>
-      <c r="CP11" s="240"/>
-      <c r="CQ11" s="240"/>
-      <c r="CR11" s="240"/>
-      <c r="CS11" s="240"/>
-      <c r="CT11" s="240"/>
-      <c r="CU11" s="240"/>
-      <c r="CV11" s="240"/>
-      <c r="CW11" s="240"/>
-      <c r="CX11" s="240"/>
-      <c r="CY11" s="240"/>
-      <c r="CZ11" s="240"/>
-      <c r="DA11" s="240"/>
-      <c r="DB11" s="240"/>
-      <c r="DC11" s="240"/>
-      <c r="DD11" s="240"/>
-      <c r="DE11" s="240"/>
-      <c r="DF11" s="240"/>
-      <c r="DG11" s="240"/>
-      <c r="DH11" s="240"/>
-      <c r="DI11" s="240"/>
-      <c r="DJ11" s="240"/>
-      <c r="DK11" s="240"/>
-      <c r="DL11" s="240"/>
-      <c r="DM11" s="240"/>
-      <c r="DN11" s="240"/>
-      <c r="DO11" s="240"/>
-      <c r="DP11" s="240"/>
-      <c r="DQ11" s="240"/>
-      <c r="DR11" s="240"/>
-      <c r="DS11" s="240"/>
-      <c r="DT11" s="240"/>
-      <c r="DU11" s="240"/>
-      <c r="DV11" s="240"/>
-      <c r="DW11" s="240"/>
-      <c r="DX11" s="240"/>
-      <c r="DY11" s="240"/>
-      <c r="DZ11" s="240"/>
-      <c r="EA11" s="240"/>
-      <c r="EB11" s="240"/>
-      <c r="EC11" s="240"/>
-      <c r="ED11" s="240"/>
-      <c r="EE11" s="240"/>
-      <c r="EF11" s="240"/>
-      <c r="EG11" s="240"/>
-      <c r="EH11" s="240"/>
-      <c r="EI11" s="240"/>
-      <c r="EJ11" s="240"/>
-      <c r="EK11" s="240"/>
-      <c r="EL11" s="240"/>
-      <c r="EM11" s="240"/>
-      <c r="EN11" s="240"/>
-      <c r="EO11" s="240"/>
-      <c r="EP11" s="241"/>
+      <c r="BZ11" s="247"/>
+      <c r="CA11" s="247"/>
+      <c r="CB11" s="247"/>
+      <c r="CC11" s="247"/>
+      <c r="CD11" s="247"/>
+      <c r="CE11" s="247"/>
+      <c r="CF11" s="247"/>
+      <c r="CG11" s="247"/>
+      <c r="CH11" s="247"/>
+      <c r="CI11" s="247"/>
+      <c r="CJ11" s="247"/>
+      <c r="CK11" s="247"/>
+      <c r="CL11" s="247"/>
+      <c r="CM11" s="247"/>
+      <c r="CN11" s="247"/>
+      <c r="CO11" s="247"/>
+      <c r="CP11" s="247"/>
+      <c r="CQ11" s="247"/>
+      <c r="CR11" s="247"/>
+      <c r="CS11" s="247"/>
+      <c r="CT11" s="247"/>
+      <c r="CU11" s="247"/>
+      <c r="CV11" s="247"/>
+      <c r="CW11" s="247"/>
+      <c r="CX11" s="247"/>
+      <c r="CY11" s="247"/>
+      <c r="CZ11" s="247"/>
+      <c r="DA11" s="247"/>
+      <c r="DB11" s="247"/>
+      <c r="DC11" s="247"/>
+      <c r="DD11" s="247"/>
+      <c r="DE11" s="247"/>
+      <c r="DF11" s="247"/>
+      <c r="DG11" s="247"/>
+      <c r="DH11" s="247"/>
+      <c r="DI11" s="247"/>
+      <c r="DJ11" s="247"/>
+      <c r="DK11" s="247"/>
+      <c r="DL11" s="247"/>
+      <c r="DM11" s="247"/>
+      <c r="DN11" s="247"/>
+      <c r="DO11" s="247"/>
+      <c r="DP11" s="247"/>
+      <c r="DQ11" s="247"/>
+      <c r="DR11" s="247"/>
+      <c r="DS11" s="247"/>
+      <c r="DT11" s="247"/>
+      <c r="DU11" s="247"/>
+      <c r="DV11" s="247"/>
+      <c r="DW11" s="247"/>
+      <c r="DX11" s="247"/>
+      <c r="DY11" s="247"/>
+      <c r="DZ11" s="247"/>
+      <c r="EA11" s="247"/>
+      <c r="EB11" s="247"/>
+      <c r="EC11" s="247"/>
+      <c r="ED11" s="247"/>
+      <c r="EE11" s="247"/>
+      <c r="EF11" s="247"/>
+      <c r="EG11" s="247"/>
+      <c r="EH11" s="247"/>
+      <c r="EI11" s="247"/>
+      <c r="EJ11" s="247"/>
+      <c r="EK11" s="247"/>
+      <c r="EL11" s="247"/>
+      <c r="EM11" s="247"/>
+      <c r="EN11" s="247"/>
+      <c r="EO11" s="247"/>
+      <c r="EP11" s="248"/>
     </row>
     <row r="12" spans="1:755" s="37" customFormat="1" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -11669,194 +11669,194 @@
       <c r="K13" s="44"/>
       <c r="L13" s="223"/>
       <c r="M13" s="223"/>
-      <c r="N13" s="234" t="str">
+      <c r="N13" s="241" t="str">
         <f>"KW " &amp; TRUNC((N12-DATE(YEAR(N12+3-MOD(N12-2,7)),1,MOD(N12-2,7)-9))/7)</f>
         <v>KW 13</v>
       </c>
-      <c r="O13" s="234"/>
-      <c r="P13" s="234"/>
-      <c r="Q13" s="234"/>
-      <c r="R13" s="234"/>
+      <c r="O13" s="241"/>
+      <c r="P13" s="241"/>
+      <c r="Q13" s="241"/>
+      <c r="R13" s="241"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="234" t="str">
+      <c r="U13" s="241" t="str">
         <f t="shared" ref="U13" si="3">"KW " &amp; TRUNC((U12-DATE(YEAR(U12+3-MOD(U12-2,7)),1,MOD(U12-2,7)-9))/7)</f>
         <v>KW 14</v>
       </c>
-      <c r="V13" s="234"/>
-      <c r="W13" s="234"/>
-      <c r="X13" s="234"/>
-      <c r="Y13" s="234"/>
+      <c r="V13" s="241"/>
+      <c r="W13" s="241"/>
+      <c r="X13" s="241"/>
+      <c r="Y13" s="241"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="46"/>
-      <c r="AB13" s="234" t="str">
+      <c r="AB13" s="241" t="str">
         <f t="shared" ref="AB13" si="4">"KW " &amp; TRUNC((AB12-DATE(YEAR(AB12+3-MOD(AB12-2,7)),1,MOD(AB12-2,7)-9))/7)</f>
         <v>KW 15</v>
       </c>
-      <c r="AC13" s="234"/>
-      <c r="AD13" s="234"/>
-      <c r="AE13" s="234"/>
-      <c r="AF13" s="234"/>
+      <c r="AC13" s="241"/>
+      <c r="AD13" s="241"/>
+      <c r="AE13" s="241"/>
+      <c r="AF13" s="241"/>
       <c r="AG13" s="46"/>
       <c r="AH13" s="46"/>
-      <c r="AI13" s="234" t="str">
+      <c r="AI13" s="241" t="str">
         <f t="shared" ref="AI13" si="5">"KW " &amp; TRUNC((AI12-DATE(YEAR(AI12+3-MOD(AI12-2,7)),1,MOD(AI12-2,7)-9))/7)</f>
         <v>KW 16</v>
       </c>
-      <c r="AJ13" s="234"/>
-      <c r="AK13" s="234"/>
-      <c r="AL13" s="234"/>
-      <c r="AM13" s="234"/>
+      <c r="AJ13" s="241"/>
+      <c r="AK13" s="241"/>
+      <c r="AL13" s="241"/>
+      <c r="AM13" s="241"/>
       <c r="AN13" s="46"/>
       <c r="AO13" s="46"/>
-      <c r="AP13" s="234" t="str">
+      <c r="AP13" s="241" t="str">
         <f t="shared" ref="AP13" si="6">"KW " &amp; TRUNC((AP12-DATE(YEAR(AP12+3-MOD(AP12-2,7)),1,MOD(AP12-2,7)-9))/7)</f>
         <v>KW 17</v>
       </c>
-      <c r="AQ13" s="234"/>
-      <c r="AR13" s="234"/>
-      <c r="AS13" s="234"/>
-      <c r="AT13" s="234"/>
+      <c r="AQ13" s="241"/>
+      <c r="AR13" s="241"/>
+      <c r="AS13" s="241"/>
+      <c r="AT13" s="241"/>
       <c r="AU13" s="46"/>
       <c r="AV13" s="46"/>
-      <c r="AW13" s="234" t="str">
+      <c r="AW13" s="241" t="str">
         <f t="shared" ref="AW13" si="7">"KW " &amp; TRUNC((AW12-DATE(YEAR(AW12+3-MOD(AW12-2,7)),1,MOD(AW12-2,7)-9))/7)</f>
         <v>KW 18</v>
       </c>
-      <c r="AX13" s="234"/>
-      <c r="AY13" s="234"/>
-      <c r="AZ13" s="234"/>
-      <c r="BA13" s="234"/>
+      <c r="AX13" s="241"/>
+      <c r="AY13" s="241"/>
+      <c r="AZ13" s="241"/>
+      <c r="BA13" s="241"/>
       <c r="BB13" s="46"/>
       <c r="BC13" s="46"/>
-      <c r="BD13" s="234" t="str">
+      <c r="BD13" s="241" t="str">
         <f t="shared" ref="BD13" si="8">"KW " &amp; TRUNC((BD12-DATE(YEAR(BD12+3-MOD(BD12-2,7)),1,MOD(BD12-2,7)-9))/7)</f>
         <v>KW 19</v>
       </c>
-      <c r="BE13" s="234"/>
-      <c r="BF13" s="234"/>
-      <c r="BG13" s="234"/>
-      <c r="BH13" s="234"/>
+      <c r="BE13" s="241"/>
+      <c r="BF13" s="241"/>
+      <c r="BG13" s="241"/>
+      <c r="BH13" s="241"/>
       <c r="BI13" s="46"/>
       <c r="BJ13" s="46"/>
-      <c r="BK13" s="234" t="str">
+      <c r="BK13" s="241" t="str">
         <f t="shared" ref="BK13" si="9">"KW " &amp; TRUNC((BK12-DATE(YEAR(BK12+3-MOD(BK12-2,7)),1,MOD(BK12-2,7)-9))/7)</f>
         <v>KW 20</v>
       </c>
-      <c r="BL13" s="234"/>
-      <c r="BM13" s="234"/>
-      <c r="BN13" s="234"/>
-      <c r="BO13" s="234"/>
+      <c r="BL13" s="241"/>
+      <c r="BM13" s="241"/>
+      <c r="BN13" s="241"/>
+      <c r="BO13" s="241"/>
       <c r="BP13" s="46"/>
       <c r="BQ13" s="46"/>
-      <c r="BR13" s="234" t="str">
+      <c r="BR13" s="241" t="str">
         <f t="shared" ref="BR13" si="10">"KW " &amp; TRUNC((BR12-DATE(YEAR(BR12+3-MOD(BR12-2,7)),1,MOD(BR12-2,7)-9))/7)</f>
         <v>KW 21</v>
       </c>
-      <c r="BS13" s="234"/>
-      <c r="BT13" s="234"/>
-      <c r="BU13" s="234"/>
-      <c r="BV13" s="234"/>
+      <c r="BS13" s="241"/>
+      <c r="BT13" s="241"/>
+      <c r="BU13" s="241"/>
+      <c r="BV13" s="241"/>
       <c r="BW13" s="46"/>
       <c r="BX13" s="46"/>
-      <c r="BY13" s="234" t="str">
+      <c r="BY13" s="241" t="str">
         <f t="shared" ref="BY13" si="11">"KW " &amp; TRUNC((BY12-DATE(YEAR(BY12+3-MOD(BY12-2,7)),1,MOD(BY12-2,7)-9))/7)</f>
         <v>KW 22</v>
       </c>
-      <c r="BZ13" s="234"/>
-      <c r="CA13" s="234"/>
-      <c r="CB13" s="234"/>
-      <c r="CC13" s="234"/>
+      <c r="BZ13" s="241"/>
+      <c r="CA13" s="241"/>
+      <c r="CB13" s="241"/>
+      <c r="CC13" s="241"/>
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
-      <c r="CF13" s="234" t="str">
+      <c r="CF13" s="241" t="str">
         <f t="shared" ref="CF13" si="12">"KW " &amp; TRUNC((CF12-DATE(YEAR(CF12+3-MOD(CF12-2,7)),1,MOD(CF12-2,7)-9))/7)</f>
         <v>KW 23</v>
       </c>
-      <c r="CG13" s="234"/>
-      <c r="CH13" s="234"/>
-      <c r="CI13" s="234"/>
-      <c r="CJ13" s="234"/>
+      <c r="CG13" s="241"/>
+      <c r="CH13" s="241"/>
+      <c r="CI13" s="241"/>
+      <c r="CJ13" s="241"/>
       <c r="CK13" s="46"/>
       <c r="CL13" s="46"/>
-      <c r="CM13" s="234" t="str">
+      <c r="CM13" s="241" t="str">
         <f t="shared" ref="CM13" si="13">"KW " &amp; TRUNC((CM12-DATE(YEAR(CM12+3-MOD(CM12-2,7)),1,MOD(CM12-2,7)-9))/7)</f>
         <v>KW 24</v>
       </c>
-      <c r="CN13" s="234"/>
-      <c r="CO13" s="234"/>
-      <c r="CP13" s="234"/>
-      <c r="CQ13" s="234"/>
+      <c r="CN13" s="241"/>
+      <c r="CO13" s="241"/>
+      <c r="CP13" s="241"/>
+      <c r="CQ13" s="241"/>
       <c r="CR13" s="46"/>
       <c r="CS13" s="46"/>
-      <c r="CT13" s="234" t="str">
+      <c r="CT13" s="241" t="str">
         <f t="shared" ref="CT13" si="14">"KW " &amp; TRUNC((CT12-DATE(YEAR(CT12+3-MOD(CT12-2,7)),1,MOD(CT12-2,7)-9))/7)</f>
         <v>KW 25</v>
       </c>
-      <c r="CU13" s="234"/>
-      <c r="CV13" s="234"/>
-      <c r="CW13" s="234"/>
-      <c r="CX13" s="234"/>
+      <c r="CU13" s="241"/>
+      <c r="CV13" s="241"/>
+      <c r="CW13" s="241"/>
+      <c r="CX13" s="241"/>
       <c r="CY13" s="46"/>
       <c r="CZ13" s="46"/>
-      <c r="DA13" s="234" t="str">
+      <c r="DA13" s="241" t="str">
         <f t="shared" ref="DA13" si="15">"KW " &amp; TRUNC((DA12-DATE(YEAR(DA12+3-MOD(DA12-2,7)),1,MOD(DA12-2,7)-9))/7)</f>
         <v>KW 26</v>
       </c>
-      <c r="DB13" s="234"/>
-      <c r="DC13" s="234"/>
-      <c r="DD13" s="234"/>
-      <c r="DE13" s="234"/>
+      <c r="DB13" s="241"/>
+      <c r="DC13" s="241"/>
+      <c r="DD13" s="241"/>
+      <c r="DE13" s="241"/>
       <c r="DF13" s="46"/>
       <c r="DG13" s="46"/>
-      <c r="DH13" s="234" t="str">
+      <c r="DH13" s="241" t="str">
         <f t="shared" ref="DH13" si="16">"KW " &amp; TRUNC((DH12-DATE(YEAR(DH12+3-MOD(DH12-2,7)),1,MOD(DH12-2,7)-9))/7)</f>
         <v>KW 27</v>
       </c>
-      <c r="DI13" s="234"/>
-      <c r="DJ13" s="234"/>
-      <c r="DK13" s="234"/>
-      <c r="DL13" s="234"/>
+      <c r="DI13" s="241"/>
+      <c r="DJ13" s="241"/>
+      <c r="DK13" s="241"/>
+      <c r="DL13" s="241"/>
       <c r="DM13" s="46"/>
       <c r="DN13" s="46"/>
-      <c r="DO13" s="234" t="str">
+      <c r="DO13" s="241" t="str">
         <f t="shared" ref="DO13" si="17">"KW " &amp; TRUNC((DO12-DATE(YEAR(DO12+3-MOD(DO12-2,7)),1,MOD(DO12-2,7)-9))/7)</f>
         <v>KW 28</v>
       </c>
-      <c r="DP13" s="234"/>
-      <c r="DQ13" s="234"/>
-      <c r="DR13" s="234"/>
-      <c r="DS13" s="234"/>
+      <c r="DP13" s="241"/>
+      <c r="DQ13" s="241"/>
+      <c r="DR13" s="241"/>
+      <c r="DS13" s="241"/>
       <c r="DT13" s="46"/>
       <c r="DU13" s="46"/>
-      <c r="DV13" s="234" t="str">
+      <c r="DV13" s="241" t="str">
         <f t="shared" ref="DV13" si="18">"KW " &amp; TRUNC((DV12-DATE(YEAR(DV12+3-MOD(DV12-2,7)),1,MOD(DV12-2,7)-9))/7)</f>
         <v>KW 29</v>
       </c>
-      <c r="DW13" s="234"/>
-      <c r="DX13" s="234"/>
-      <c r="DY13" s="234"/>
-      <c r="DZ13" s="234"/>
+      <c r="DW13" s="241"/>
+      <c r="DX13" s="241"/>
+      <c r="DY13" s="241"/>
+      <c r="DZ13" s="241"/>
       <c r="EA13" s="46"/>
       <c r="EB13" s="46"/>
-      <c r="EC13" s="234" t="str">
+      <c r="EC13" s="241" t="str">
         <f t="shared" ref="EC13" si="19">"KW " &amp; TRUNC((EC12-DATE(YEAR(EC12+3-MOD(EC12-2,7)),1,MOD(EC12-2,7)-9))/7)</f>
         <v>KW 30</v>
       </c>
-      <c r="ED13" s="234"/>
-      <c r="EE13" s="234"/>
-      <c r="EF13" s="234"/>
-      <c r="EG13" s="234"/>
+      <c r="ED13" s="241"/>
+      <c r="EE13" s="241"/>
+      <c r="EF13" s="241"/>
+      <c r="EG13" s="241"/>
       <c r="EH13" s="46"/>
       <c r="EI13" s="46"/>
-      <c r="EJ13" s="234" t="str">
+      <c r="EJ13" s="241" t="str">
         <f t="shared" ref="EJ13" si="20">"KW " &amp; TRUNC((EJ12-DATE(YEAR(EJ12+3-MOD(EJ12-2,7)),1,MOD(EJ12-2,7)-9))/7)</f>
         <v>KW 31</v>
       </c>
-      <c r="EK13" s="234"/>
-      <c r="EL13" s="234"/>
-      <c r="EM13" s="234"/>
-      <c r="EN13" s="234"/>
+      <c r="EK13" s="241"/>
+      <c r="EL13" s="241"/>
+      <c r="EM13" s="241"/>
+      <c r="EN13" s="241"/>
       <c r="EO13" s="46"/>
       <c r="EP13" s="47"/>
     </row>
@@ -11898,196 +11898,196 @@
       <c r="M14" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="242">
+      <c r="N14" s="235">
         <f>N12</f>
         <v>42086</v>
       </c>
-      <c r="O14" s="242"/>
-      <c r="P14" s="242"/>
-      <c r="Q14" s="242"/>
-      <c r="R14" s="242"/>
+      <c r="O14" s="235"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="235"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
-      <c r="U14" s="242">
+      <c r="U14" s="235">
         <f>U12</f>
         <v>42093</v>
       </c>
-      <c r="V14" s="242"/>
-      <c r="W14" s="242"/>
-      <c r="X14" s="242"/>
-      <c r="Y14" s="242"/>
-      <c r="Z14" s="242"/>
-      <c r="AA14" s="242"/>
-      <c r="AB14" s="242">
+      <c r="V14" s="235"/>
+      <c r="W14" s="235"/>
+      <c r="X14" s="235"/>
+      <c r="Y14" s="235"/>
+      <c r="Z14" s="235"/>
+      <c r="AA14" s="235"/>
+      <c r="AB14" s="235">
         <f>AB12</f>
         <v>42100</v>
       </c>
-      <c r="AC14" s="242"/>
-      <c r="AD14" s="242"/>
-      <c r="AE14" s="242"/>
-      <c r="AF14" s="242"/>
-      <c r="AG14" s="242"/>
-      <c r="AH14" s="242"/>
-      <c r="AI14" s="242">
+      <c r="AC14" s="235"/>
+      <c r="AD14" s="235"/>
+      <c r="AE14" s="235"/>
+      <c r="AF14" s="235"/>
+      <c r="AG14" s="235"/>
+      <c r="AH14" s="235"/>
+      <c r="AI14" s="235">
         <f>AI12</f>
         <v>42107</v>
       </c>
-      <c r="AJ14" s="242"/>
-      <c r="AK14" s="242"/>
-      <c r="AL14" s="242"/>
-      <c r="AM14" s="242"/>
-      <c r="AN14" s="242"/>
-      <c r="AO14" s="242"/>
-      <c r="AP14" s="242">
+      <c r="AJ14" s="235"/>
+      <c r="AK14" s="235"/>
+      <c r="AL14" s="235"/>
+      <c r="AM14" s="235"/>
+      <c r="AN14" s="235"/>
+      <c r="AO14" s="235"/>
+      <c r="AP14" s="235">
         <f>AP12</f>
         <v>42114</v>
       </c>
-      <c r="AQ14" s="242"/>
-      <c r="AR14" s="242"/>
-      <c r="AS14" s="242"/>
-      <c r="AT14" s="242"/>
-      <c r="AU14" s="242"/>
-      <c r="AV14" s="242"/>
-      <c r="AW14" s="242">
+      <c r="AQ14" s="235"/>
+      <c r="AR14" s="235"/>
+      <c r="AS14" s="235"/>
+      <c r="AT14" s="235"/>
+      <c r="AU14" s="235"/>
+      <c r="AV14" s="235"/>
+      <c r="AW14" s="235">
         <f>AW12</f>
         <v>42121</v>
       </c>
-      <c r="AX14" s="242"/>
-      <c r="AY14" s="242"/>
-      <c r="AZ14" s="242"/>
-      <c r="BA14" s="242"/>
-      <c r="BB14" s="242"/>
-      <c r="BC14" s="242"/>
-      <c r="BD14" s="242">
+      <c r="AX14" s="235"/>
+      <c r="AY14" s="235"/>
+      <c r="AZ14" s="235"/>
+      <c r="BA14" s="235"/>
+      <c r="BB14" s="235"/>
+      <c r="BC14" s="235"/>
+      <c r="BD14" s="235">
         <f>BD12</f>
         <v>42128</v>
       </c>
-      <c r="BE14" s="242"/>
-      <c r="BF14" s="242"/>
-      <c r="BG14" s="242"/>
-      <c r="BH14" s="242"/>
-      <c r="BI14" s="242"/>
-      <c r="BJ14" s="242"/>
-      <c r="BK14" s="242">
+      <c r="BE14" s="235"/>
+      <c r="BF14" s="235"/>
+      <c r="BG14" s="235"/>
+      <c r="BH14" s="235"/>
+      <c r="BI14" s="235"/>
+      <c r="BJ14" s="235"/>
+      <c r="BK14" s="235">
         <f>BK12</f>
         <v>42135</v>
       </c>
-      <c r="BL14" s="242"/>
-      <c r="BM14" s="242"/>
-      <c r="BN14" s="242"/>
-      <c r="BO14" s="242"/>
-      <c r="BP14" s="242"/>
-      <c r="BQ14" s="242"/>
-      <c r="BR14" s="242">
+      <c r="BL14" s="235"/>
+      <c r="BM14" s="235"/>
+      <c r="BN14" s="235"/>
+      <c r="BO14" s="235"/>
+      <c r="BP14" s="235"/>
+      <c r="BQ14" s="235"/>
+      <c r="BR14" s="235">
         <f>BR12</f>
         <v>42142</v>
       </c>
-      <c r="BS14" s="242"/>
-      <c r="BT14" s="242"/>
-      <c r="BU14" s="242"/>
-      <c r="BV14" s="242"/>
-      <c r="BW14" s="242"/>
-      <c r="BX14" s="242"/>
-      <c r="BY14" s="242">
+      <c r="BS14" s="235"/>
+      <c r="BT14" s="235"/>
+      <c r="BU14" s="235"/>
+      <c r="BV14" s="235"/>
+      <c r="BW14" s="235"/>
+      <c r="BX14" s="235"/>
+      <c r="BY14" s="235">
         <f>BY12</f>
         <v>42149</v>
       </c>
-      <c r="BZ14" s="242"/>
-      <c r="CA14" s="242"/>
-      <c r="CB14" s="242"/>
-      <c r="CC14" s="242"/>
-      <c r="CD14" s="242"/>
-      <c r="CE14" s="242"/>
-      <c r="CF14" s="242">
+      <c r="BZ14" s="235"/>
+      <c r="CA14" s="235"/>
+      <c r="CB14" s="235"/>
+      <c r="CC14" s="235"/>
+      <c r="CD14" s="235"/>
+      <c r="CE14" s="235"/>
+      <c r="CF14" s="235">
         <f>CF12</f>
         <v>42156</v>
       </c>
-      <c r="CG14" s="242"/>
-      <c r="CH14" s="242"/>
-      <c r="CI14" s="242"/>
-      <c r="CJ14" s="242"/>
-      <c r="CK14" s="242"/>
-      <c r="CL14" s="242"/>
-      <c r="CM14" s="242">
+      <c r="CG14" s="235"/>
+      <c r="CH14" s="235"/>
+      <c r="CI14" s="235"/>
+      <c r="CJ14" s="235"/>
+      <c r="CK14" s="235"/>
+      <c r="CL14" s="235"/>
+      <c r="CM14" s="235">
         <f>CM12</f>
         <v>42163</v>
       </c>
-      <c r="CN14" s="242"/>
-      <c r="CO14" s="242"/>
-      <c r="CP14" s="242"/>
-      <c r="CQ14" s="242"/>
-      <c r="CR14" s="242"/>
-      <c r="CS14" s="242"/>
-      <c r="CT14" s="242">
+      <c r="CN14" s="235"/>
+      <c r="CO14" s="235"/>
+      <c r="CP14" s="235"/>
+      <c r="CQ14" s="235"/>
+      <c r="CR14" s="235"/>
+      <c r="CS14" s="235"/>
+      <c r="CT14" s="235">
         <f>CT12</f>
         <v>42170</v>
       </c>
-      <c r="CU14" s="242"/>
-      <c r="CV14" s="242"/>
-      <c r="CW14" s="242"/>
-      <c r="CX14" s="242"/>
-      <c r="CY14" s="242"/>
-      <c r="CZ14" s="242"/>
-      <c r="DA14" s="242">
+      <c r="CU14" s="235"/>
+      <c r="CV14" s="235"/>
+      <c r="CW14" s="235"/>
+      <c r="CX14" s="235"/>
+      <c r="CY14" s="235"/>
+      <c r="CZ14" s="235"/>
+      <c r="DA14" s="235">
         <f>DA12</f>
         <v>42177</v>
       </c>
-      <c r="DB14" s="242"/>
-      <c r="DC14" s="242"/>
-      <c r="DD14" s="242"/>
-      <c r="DE14" s="242"/>
-      <c r="DF14" s="242"/>
-      <c r="DG14" s="242"/>
-      <c r="DH14" s="242">
+      <c r="DB14" s="235"/>
+      <c r="DC14" s="235"/>
+      <c r="DD14" s="235"/>
+      <c r="DE14" s="235"/>
+      <c r="DF14" s="235"/>
+      <c r="DG14" s="235"/>
+      <c r="DH14" s="235">
         <f>DH12</f>
         <v>42184</v>
       </c>
-      <c r="DI14" s="242"/>
-      <c r="DJ14" s="242"/>
-      <c r="DK14" s="242"/>
-      <c r="DL14" s="242"/>
-      <c r="DM14" s="242"/>
-      <c r="DN14" s="242"/>
-      <c r="DO14" s="242">
+      <c r="DI14" s="235"/>
+      <c r="DJ14" s="235"/>
+      <c r="DK14" s="235"/>
+      <c r="DL14" s="235"/>
+      <c r="DM14" s="235"/>
+      <c r="DN14" s="235"/>
+      <c r="DO14" s="235">
         <f>DO12</f>
         <v>42191</v>
       </c>
-      <c r="DP14" s="242"/>
-      <c r="DQ14" s="242"/>
-      <c r="DR14" s="242"/>
-      <c r="DS14" s="242"/>
-      <c r="DT14" s="242"/>
-      <c r="DU14" s="242"/>
-      <c r="DV14" s="242">
+      <c r="DP14" s="235"/>
+      <c r="DQ14" s="235"/>
+      <c r="DR14" s="235"/>
+      <c r="DS14" s="235"/>
+      <c r="DT14" s="235"/>
+      <c r="DU14" s="235"/>
+      <c r="DV14" s="235">
         <f>DV12</f>
         <v>42198</v>
       </c>
-      <c r="DW14" s="242"/>
-      <c r="DX14" s="242"/>
-      <c r="DY14" s="242"/>
-      <c r="DZ14" s="242"/>
-      <c r="EA14" s="242"/>
-      <c r="EB14" s="242"/>
-      <c r="EC14" s="242">
+      <c r="DW14" s="235"/>
+      <c r="DX14" s="235"/>
+      <c r="DY14" s="235"/>
+      <c r="DZ14" s="235"/>
+      <c r="EA14" s="235"/>
+      <c r="EB14" s="235"/>
+      <c r="EC14" s="235">
         <f>EC12</f>
         <v>42205</v>
       </c>
-      <c r="ED14" s="242"/>
-      <c r="EE14" s="242"/>
-      <c r="EF14" s="242"/>
-      <c r="EG14" s="242"/>
-      <c r="EH14" s="242"/>
-      <c r="EI14" s="242"/>
-      <c r="EJ14" s="242">
+      <c r="ED14" s="235"/>
+      <c r="EE14" s="235"/>
+      <c r="EF14" s="235"/>
+      <c r="EG14" s="235"/>
+      <c r="EH14" s="235"/>
+      <c r="EI14" s="235"/>
+      <c r="EJ14" s="235">
         <f>EJ12</f>
         <v>42212</v>
       </c>
-      <c r="EK14" s="242"/>
-      <c r="EL14" s="242"/>
-      <c r="EM14" s="242"/>
-      <c r="EN14" s="242"/>
-      <c r="EO14" s="242"/>
-      <c r="EP14" s="244"/>
+      <c r="EK14" s="235"/>
+      <c r="EL14" s="235"/>
+      <c r="EM14" s="235"/>
+      <c r="EN14" s="235"/>
+      <c r="EO14" s="235"/>
+      <c r="EP14" s="236"/>
       <c r="EQ14" s="48"/>
     </row>
     <row r="15" spans="1:755" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13713,19 +13713,19 @@
       </c>
       <c r="J23" s="80">
         <f>AVERAGE(J24:J28)</f>
-        <v>0.17499999999999999</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M23" s="229">
         <f t="shared" si="24"/>
-        <v>42100</v>
+        <v>42103</v>
       </c>
       <c r="N23" s="206"/>
       <c r="O23" s="83"/>
@@ -13886,19 +13886,19 @@
         <v>42103</v>
       </c>
       <c r="J24" s="80">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K24" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="L24" s="228">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M24" s="229">
         <f t="shared" si="24"/>
-        <v>42097</v>
+        <v>42100</v>
       </c>
       <c r="N24" s="206"/>
       <c r="O24" s="83"/>
@@ -14059,19 +14059,19 @@
         <v>42107</v>
       </c>
       <c r="J25" s="80">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K25" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="L25" s="228">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" s="229">
         <f t="shared" si="24"/>
-        <v>42104</v>
+        <v>42105</v>
       </c>
       <c r="N25" s="206"/>
       <c r="O25" s="83"/>
@@ -14236,7 +14236,7 @@
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="K27" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L27" s="228">
         <f t="shared" si="22"/>
@@ -14747,7 +14747,7 @@
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="K30" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L30" s="228">
         <f t="shared" si="22"/>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
@@ -15266,7 +15266,7 @@
       </c>
       <c r="K32" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L32" s="228">
         <f t="shared" si="22"/>
@@ -15768,7 +15768,7 @@
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
@@ -15941,7 +15941,7 @@
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
@@ -16114,7 +16114,7 @@
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
@@ -16287,7 +16287,7 @@
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L38" s="228">
         <f t="shared" si="22"/>
@@ -16458,7 +16458,7 @@
       <c r="J39" s="80"/>
       <c r="K39" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L39" s="228">
         <f t="shared" si="22"/>
@@ -16630,7 +16630,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L40" s="228" t="str">
         <f t="shared" si="22"/>
@@ -16967,7 +16967,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17140,7 +17140,7 @@
       </c>
       <c r="K43" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L43" s="228">
         <f t="shared" si="22"/>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="K44" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L44" s="228">
         <f t="shared" si="22"/>
@@ -17486,7 +17486,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L48" s="228">
         <f t="shared" si="22"/>
@@ -18161,7 +18161,7 @@
       </c>
       <c r="K49" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L49" s="228">
         <f t="shared" si="22"/>
@@ -18334,7 +18334,7 @@
       </c>
       <c r="K50" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L50" s="228">
         <f t="shared" si="22"/>
@@ -18507,7 +18507,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -18679,7 +18679,7 @@
       </c>
       <c r="K52" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L52" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19180,7 +19180,7 @@
       </c>
       <c r="K55" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L55" s="228">
         <f t="shared" si="22"/>
@@ -21120,45 +21120,45 @@
       <c r="EQ66" s="37"/>
     </row>
     <row r="67" spans="1:147" s="3" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="245"/>
-      <c r="B67" s="246"/>
-      <c r="C67" s="246"/>
-      <c r="D67" s="246"/>
-      <c r="E67" s="246"/>
-      <c r="F67" s="246"/>
-      <c r="G67" s="246"/>
-      <c r="H67" s="246"/>
-      <c r="I67" s="246"/>
-      <c r="J67" s="246"/>
-      <c r="K67" s="246"/>
-      <c r="L67" s="246"/>
-      <c r="M67" s="246"/>
-      <c r="N67" s="246"/>
-      <c r="O67" s="246"/>
-      <c r="P67" s="246"/>
-      <c r="Q67" s="246"/>
-      <c r="R67" s="246"/>
-      <c r="S67" s="246"/>
-      <c r="T67" s="246"/>
-      <c r="U67" s="246"/>
-      <c r="V67" s="246"/>
-      <c r="W67" s="246"/>
-      <c r="X67" s="246"/>
-      <c r="Y67" s="246"/>
-      <c r="Z67" s="246"/>
-      <c r="AA67" s="246"/>
-      <c r="AB67" s="246"/>
-      <c r="AC67" s="246"/>
-      <c r="AD67" s="246"/>
-      <c r="AE67" s="246"/>
-      <c r="AF67" s="246"/>
-      <c r="AG67" s="246"/>
-      <c r="AH67" s="246"/>
-      <c r="AI67" s="246"/>
-      <c r="AJ67" s="246"/>
-      <c r="AK67" s="246"/>
-      <c r="AL67" s="246"/>
-      <c r="AM67" s="246"/>
+      <c r="A67" s="237"/>
+      <c r="B67" s="238"/>
+      <c r="C67" s="238"/>
+      <c r="D67" s="238"/>
+      <c r="E67" s="238"/>
+      <c r="F67" s="238"/>
+      <c r="G67" s="238"/>
+      <c r="H67" s="238"/>
+      <c r="I67" s="238"/>
+      <c r="J67" s="238"/>
+      <c r="K67" s="238"/>
+      <c r="L67" s="238"/>
+      <c r="M67" s="238"/>
+      <c r="N67" s="238"/>
+      <c r="O67" s="238"/>
+      <c r="P67" s="238"/>
+      <c r="Q67" s="238"/>
+      <c r="R67" s="238"/>
+      <c r="S67" s="238"/>
+      <c r="T67" s="238"/>
+      <c r="U67" s="238"/>
+      <c r="V67" s="238"/>
+      <c r="W67" s="238"/>
+      <c r="X67" s="238"/>
+      <c r="Y67" s="238"/>
+      <c r="Z67" s="238"/>
+      <c r="AA67" s="238"/>
+      <c r="AB67" s="238"/>
+      <c r="AC67" s="238"/>
+      <c r="AD67" s="238"/>
+      <c r="AE67" s="238"/>
+      <c r="AF67" s="238"/>
+      <c r="AG67" s="238"/>
+      <c r="AH67" s="238"/>
+      <c r="AI67" s="238"/>
+      <c r="AJ67" s="238"/>
+      <c r="AK67" s="238"/>
+      <c r="AL67" s="238"/>
+      <c r="AM67" s="238"/>
       <c r="AN67" s="100"/>
       <c r="AO67" s="100"/>
       <c r="AP67" s="100"/>
@@ -21189,85 +21189,85 @@
       <c r="BO67" s="100"/>
       <c r="BP67" s="100"/>
       <c r="BQ67" s="100"/>
-      <c r="BR67" s="247" t="s">
+      <c r="BR67" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="BS67" s="247"/>
-      <c r="BT67" s="247"/>
-      <c r="BU67" s="247"/>
-      <c r="BV67" s="247"/>
-      <c r="BW67" s="247"/>
-      <c r="BX67" s="247"/>
-      <c r="BY67" s="247"/>
-      <c r="BZ67" s="247"/>
-      <c r="CA67" s="247"/>
-      <c r="CB67" s="247"/>
-      <c r="CC67" s="247"/>
-      <c r="CD67" s="247"/>
-      <c r="CE67" s="247"/>
-      <c r="CF67" s="247"/>
-      <c r="CG67" s="247"/>
-      <c r="CH67" s="247"/>
-      <c r="CI67" s="247"/>
-      <c r="CJ67" s="247"/>
-      <c r="CK67" s="247"/>
-      <c r="CL67" s="247"/>
-      <c r="CM67" s="247"/>
-      <c r="CN67" s="247"/>
-      <c r="CO67" s="247"/>
-      <c r="CP67" s="247"/>
-      <c r="CQ67" s="247"/>
-      <c r="CR67" s="247"/>
-      <c r="CS67" s="247"/>
-      <c r="CT67" s="247"/>
-      <c r="CU67" s="247"/>
-      <c r="CV67" s="247"/>
-      <c r="CW67" s="247"/>
-      <c r="CX67" s="247"/>
-      <c r="CY67" s="247"/>
-      <c r="CZ67" s="247"/>
-      <c r="DA67" s="247"/>
-      <c r="DB67" s="247"/>
-      <c r="DC67" s="247"/>
-      <c r="DD67" s="247"/>
-      <c r="DE67" s="247"/>
-      <c r="DF67" s="247"/>
-      <c r="DG67" s="247"/>
-      <c r="DH67" s="247"/>
-      <c r="DI67" s="247"/>
-      <c r="DJ67" s="247"/>
-      <c r="DK67" s="247"/>
-      <c r="DL67" s="247"/>
-      <c r="DM67" s="247"/>
-      <c r="DN67" s="247"/>
-      <c r="DO67" s="247"/>
-      <c r="DP67" s="247"/>
-      <c r="DQ67" s="247"/>
-      <c r="DR67" s="247"/>
-      <c r="DS67" s="247"/>
-      <c r="DT67" s="247"/>
-      <c r="DU67" s="247"/>
-      <c r="DV67" s="247"/>
-      <c r="DW67" s="247"/>
-      <c r="DX67" s="247"/>
-      <c r="DY67" s="247"/>
-      <c r="DZ67" s="247"/>
-      <c r="EA67" s="247"/>
-      <c r="EB67" s="247"/>
-      <c r="EC67" s="247"/>
-      <c r="ED67" s="247"/>
-      <c r="EE67" s="247"/>
-      <c r="EF67" s="247"/>
-      <c r="EG67" s="247"/>
-      <c r="EH67" s="247"/>
-      <c r="EI67" s="247"/>
-      <c r="EJ67" s="247"/>
-      <c r="EK67" s="247"/>
-      <c r="EL67" s="247"/>
-      <c r="EM67" s="247"/>
-      <c r="EN67" s="247"/>
-      <c r="EO67" s="247"/>
-      <c r="EP67" s="248"/>
+      <c r="BS67" s="239"/>
+      <c r="BT67" s="239"/>
+      <c r="BU67" s="239"/>
+      <c r="BV67" s="239"/>
+      <c r="BW67" s="239"/>
+      <c r="BX67" s="239"/>
+      <c r="BY67" s="239"/>
+      <c r="BZ67" s="239"/>
+      <c r="CA67" s="239"/>
+      <c r="CB67" s="239"/>
+      <c r="CC67" s="239"/>
+      <c r="CD67" s="239"/>
+      <c r="CE67" s="239"/>
+      <c r="CF67" s="239"/>
+      <c r="CG67" s="239"/>
+      <c r="CH67" s="239"/>
+      <c r="CI67" s="239"/>
+      <c r="CJ67" s="239"/>
+      <c r="CK67" s="239"/>
+      <c r="CL67" s="239"/>
+      <c r="CM67" s="239"/>
+      <c r="CN67" s="239"/>
+      <c r="CO67" s="239"/>
+      <c r="CP67" s="239"/>
+      <c r="CQ67" s="239"/>
+      <c r="CR67" s="239"/>
+      <c r="CS67" s="239"/>
+      <c r="CT67" s="239"/>
+      <c r="CU67" s="239"/>
+      <c r="CV67" s="239"/>
+      <c r="CW67" s="239"/>
+      <c r="CX67" s="239"/>
+      <c r="CY67" s="239"/>
+      <c r="CZ67" s="239"/>
+      <c r="DA67" s="239"/>
+      <c r="DB67" s="239"/>
+      <c r="DC67" s="239"/>
+      <c r="DD67" s="239"/>
+      <c r="DE67" s="239"/>
+      <c r="DF67" s="239"/>
+      <c r="DG67" s="239"/>
+      <c r="DH67" s="239"/>
+      <c r="DI67" s="239"/>
+      <c r="DJ67" s="239"/>
+      <c r="DK67" s="239"/>
+      <c r="DL67" s="239"/>
+      <c r="DM67" s="239"/>
+      <c r="DN67" s="239"/>
+      <c r="DO67" s="239"/>
+      <c r="DP67" s="239"/>
+      <c r="DQ67" s="239"/>
+      <c r="DR67" s="239"/>
+      <c r="DS67" s="239"/>
+      <c r="DT67" s="239"/>
+      <c r="DU67" s="239"/>
+      <c r="DV67" s="239"/>
+      <c r="DW67" s="239"/>
+      <c r="DX67" s="239"/>
+      <c r="DY67" s="239"/>
+      <c r="DZ67" s="239"/>
+      <c r="EA67" s="239"/>
+      <c r="EB67" s="239"/>
+      <c r="EC67" s="239"/>
+      <c r="ED67" s="239"/>
+      <c r="EE67" s="239"/>
+      <c r="EF67" s="239"/>
+      <c r="EG67" s="239"/>
+      <c r="EH67" s="239"/>
+      <c r="EI67" s="239"/>
+      <c r="EJ67" s="239"/>
+      <c r="EK67" s="239"/>
+      <c r="EL67" s="239"/>
+      <c r="EM67" s="239"/>
+      <c r="EN67" s="239"/>
+      <c r="EO67" s="239"/>
+      <c r="EP67" s="240"/>
       <c r="EQ67" s="48"/>
     </row>
     <row r="68" spans="1:147" x14ac:dyDescent="0.25">
@@ -21419,155 +21419,203 @@
       <c r="EQ68" s="37"/>
     </row>
     <row r="69" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A69" s="243"/>
-      <c r="B69" s="243"/>
-      <c r="C69" s="243"/>
-      <c r="D69" s="243"/>
-      <c r="E69" s="243"/>
-      <c r="F69" s="243"/>
-      <c r="G69" s="243"/>
-      <c r="H69" s="243"/>
-      <c r="I69" s="243"/>
-      <c r="J69" s="243"/>
-      <c r="K69" s="243"/>
-      <c r="L69" s="243"/>
-      <c r="M69" s="243"/>
-      <c r="N69" s="243"/>
-      <c r="O69" s="243"/>
-      <c r="P69" s="243"/>
-      <c r="Q69" s="243"/>
-      <c r="R69" s="243"/>
-      <c r="S69" s="243"/>
-      <c r="T69" s="243"/>
-      <c r="U69" s="243"/>
-      <c r="V69" s="243"/>
-      <c r="W69" s="243"/>
-      <c r="X69" s="243"/>
-      <c r="Y69" s="243"/>
-      <c r="Z69" s="243"/>
-      <c r="AA69" s="243"/>
-      <c r="AB69" s="243"/>
-      <c r="AC69" s="243"/>
-      <c r="AD69" s="243"/>
-      <c r="AE69" s="243"/>
-      <c r="AF69" s="243"/>
-      <c r="AG69" s="243"/>
-      <c r="AH69" s="243"/>
-      <c r="AI69" s="243"/>
-      <c r="AJ69" s="243"/>
-      <c r="AK69" s="243"/>
-      <c r="AL69" s="243"/>
-      <c r="AM69" s="243"/>
-      <c r="AN69" s="243"/>
-      <c r="AO69" s="243"/>
-      <c r="AP69" s="243"/>
-      <c r="AQ69" s="243"/>
-      <c r="AR69" s="243"/>
-      <c r="AS69" s="243"/>
-      <c r="AT69" s="243"/>
-      <c r="AU69" s="243"/>
-      <c r="AV69" s="243"/>
-      <c r="AW69" s="243"/>
-      <c r="AX69" s="243"/>
-      <c r="AY69" s="243"/>
-      <c r="AZ69" s="243"/>
-      <c r="BA69" s="243"/>
-      <c r="BB69" s="243"/>
-      <c r="BC69" s="243"/>
-      <c r="BD69" s="243"/>
-      <c r="BE69" s="243"/>
-      <c r="BF69" s="243"/>
-      <c r="BG69" s="243"/>
-      <c r="BH69" s="243"/>
-      <c r="BI69" s="243"/>
-      <c r="BJ69" s="243"/>
-      <c r="BK69" s="243"/>
-      <c r="BL69" s="243"/>
-      <c r="BM69" s="243"/>
-      <c r="BN69" s="243"/>
-      <c r="BO69" s="243"/>
-      <c r="BP69" s="243"/>
-      <c r="BQ69" s="243"/>
-      <c r="BR69" s="243"/>
-      <c r="BS69" s="243"/>
-      <c r="BT69" s="243"/>
-      <c r="BU69" s="243"/>
-      <c r="BV69" s="243"/>
-      <c r="BW69" s="243"/>
-      <c r="BX69" s="243"/>
-      <c r="BY69" s="243"/>
-      <c r="BZ69" s="243"/>
-      <c r="CA69" s="243"/>
-      <c r="CB69" s="243"/>
-      <c r="CC69" s="243"/>
-      <c r="CD69" s="243"/>
-      <c r="CE69" s="243"/>
-      <c r="CF69" s="243"/>
-      <c r="CG69" s="243"/>
-      <c r="CH69" s="243"/>
-      <c r="CI69" s="243"/>
-      <c r="CJ69" s="243"/>
-      <c r="CK69" s="243"/>
-      <c r="CL69" s="243"/>
-      <c r="CM69" s="243"/>
-      <c r="CN69" s="243"/>
-      <c r="CO69" s="243"/>
-      <c r="CP69" s="243"/>
-      <c r="CQ69" s="243"/>
-      <c r="CR69" s="243"/>
-      <c r="CS69" s="243"/>
-      <c r="CT69" s="243"/>
-      <c r="CU69" s="243"/>
-      <c r="CV69" s="243"/>
-      <c r="CW69" s="243"/>
-      <c r="CX69" s="243"/>
-      <c r="CY69" s="243"/>
-      <c r="CZ69" s="243"/>
-      <c r="DA69" s="243"/>
-      <c r="DB69" s="243"/>
-      <c r="DC69" s="243"/>
-      <c r="DD69" s="243"/>
-      <c r="DE69" s="243"/>
-      <c r="DF69" s="243"/>
-      <c r="DG69" s="243"/>
-      <c r="DH69" s="243"/>
-      <c r="DI69" s="243"/>
-      <c r="DJ69" s="243"/>
-      <c r="DK69" s="243"/>
-      <c r="DL69" s="243"/>
-      <c r="DM69" s="243"/>
-      <c r="DN69" s="243"/>
-      <c r="DO69" s="243"/>
-      <c r="DP69" s="243"/>
-      <c r="DQ69" s="243"/>
-      <c r="DR69" s="243"/>
-      <c r="DS69" s="243"/>
-      <c r="DT69" s="243"/>
-      <c r="DU69" s="243"/>
-      <c r="DV69" s="243"/>
-      <c r="DW69" s="243"/>
-      <c r="DX69" s="243"/>
-      <c r="DY69" s="243"/>
-      <c r="DZ69" s="243"/>
-      <c r="EA69" s="243"/>
-      <c r="EB69" s="243"/>
-      <c r="EC69" s="243"/>
-      <c r="ED69" s="243"/>
-      <c r="EE69" s="243"/>
-      <c r="EF69" s="243"/>
-      <c r="EG69" s="243"/>
-      <c r="EH69" s="243"/>
-      <c r="EI69" s="243"/>
-      <c r="EJ69" s="243"/>
-      <c r="EK69" s="243"/>
-      <c r="EL69" s="243"/>
-      <c r="EM69" s="243"/>
-      <c r="EN69" s="243"/>
-      <c r="EO69" s="243"/>
-      <c r="EP69" s="243"/>
+      <c r="A69" s="234"/>
+      <c r="B69" s="234"/>
+      <c r="C69" s="234"/>
+      <c r="D69" s="234"/>
+      <c r="E69" s="234"/>
+      <c r="F69" s="234"/>
+      <c r="G69" s="234"/>
+      <c r="H69" s="234"/>
+      <c r="I69" s="234"/>
+      <c r="J69" s="234"/>
+      <c r="K69" s="234"/>
+      <c r="L69" s="234"/>
+      <c r="M69" s="234"/>
+      <c r="N69" s="234"/>
+      <c r="O69" s="234"/>
+      <c r="P69" s="234"/>
+      <c r="Q69" s="234"/>
+      <c r="R69" s="234"/>
+      <c r="S69" s="234"/>
+      <c r="T69" s="234"/>
+      <c r="U69" s="234"/>
+      <c r="V69" s="234"/>
+      <c r="W69" s="234"/>
+      <c r="X69" s="234"/>
+      <c r="Y69" s="234"/>
+      <c r="Z69" s="234"/>
+      <c r="AA69" s="234"/>
+      <c r="AB69" s="234"/>
+      <c r="AC69" s="234"/>
+      <c r="AD69" s="234"/>
+      <c r="AE69" s="234"/>
+      <c r="AF69" s="234"/>
+      <c r="AG69" s="234"/>
+      <c r="AH69" s="234"/>
+      <c r="AI69" s="234"/>
+      <c r="AJ69" s="234"/>
+      <c r="AK69" s="234"/>
+      <c r="AL69" s="234"/>
+      <c r="AM69" s="234"/>
+      <c r="AN69" s="234"/>
+      <c r="AO69" s="234"/>
+      <c r="AP69" s="234"/>
+      <c r="AQ69" s="234"/>
+      <c r="AR69" s="234"/>
+      <c r="AS69" s="234"/>
+      <c r="AT69" s="234"/>
+      <c r="AU69" s="234"/>
+      <c r="AV69" s="234"/>
+      <c r="AW69" s="234"/>
+      <c r="AX69" s="234"/>
+      <c r="AY69" s="234"/>
+      <c r="AZ69" s="234"/>
+      <c r="BA69" s="234"/>
+      <c r="BB69" s="234"/>
+      <c r="BC69" s="234"/>
+      <c r="BD69" s="234"/>
+      <c r="BE69" s="234"/>
+      <c r="BF69" s="234"/>
+      <c r="BG69" s="234"/>
+      <c r="BH69" s="234"/>
+      <c r="BI69" s="234"/>
+      <c r="BJ69" s="234"/>
+      <c r="BK69" s="234"/>
+      <c r="BL69" s="234"/>
+      <c r="BM69" s="234"/>
+      <c r="BN69" s="234"/>
+      <c r="BO69" s="234"/>
+      <c r="BP69" s="234"/>
+      <c r="BQ69" s="234"/>
+      <c r="BR69" s="234"/>
+      <c r="BS69" s="234"/>
+      <c r="BT69" s="234"/>
+      <c r="BU69" s="234"/>
+      <c r="BV69" s="234"/>
+      <c r="BW69" s="234"/>
+      <c r="BX69" s="234"/>
+      <c r="BY69" s="234"/>
+      <c r="BZ69" s="234"/>
+      <c r="CA69" s="234"/>
+      <c r="CB69" s="234"/>
+      <c r="CC69" s="234"/>
+      <c r="CD69" s="234"/>
+      <c r="CE69" s="234"/>
+      <c r="CF69" s="234"/>
+      <c r="CG69" s="234"/>
+      <c r="CH69" s="234"/>
+      <c r="CI69" s="234"/>
+      <c r="CJ69" s="234"/>
+      <c r="CK69" s="234"/>
+      <c r="CL69" s="234"/>
+      <c r="CM69" s="234"/>
+      <c r="CN69" s="234"/>
+      <c r="CO69" s="234"/>
+      <c r="CP69" s="234"/>
+      <c r="CQ69" s="234"/>
+      <c r="CR69" s="234"/>
+      <c r="CS69" s="234"/>
+      <c r="CT69" s="234"/>
+      <c r="CU69" s="234"/>
+      <c r="CV69" s="234"/>
+      <c r="CW69" s="234"/>
+      <c r="CX69" s="234"/>
+      <c r="CY69" s="234"/>
+      <c r="CZ69" s="234"/>
+      <c r="DA69" s="234"/>
+      <c r="DB69" s="234"/>
+      <c r="DC69" s="234"/>
+      <c r="DD69" s="234"/>
+      <c r="DE69" s="234"/>
+      <c r="DF69" s="234"/>
+      <c r="DG69" s="234"/>
+      <c r="DH69" s="234"/>
+      <c r="DI69" s="234"/>
+      <c r="DJ69" s="234"/>
+      <c r="DK69" s="234"/>
+      <c r="DL69" s="234"/>
+      <c r="DM69" s="234"/>
+      <c r="DN69" s="234"/>
+      <c r="DO69" s="234"/>
+      <c r="DP69" s="234"/>
+      <c r="DQ69" s="234"/>
+      <c r="DR69" s="234"/>
+      <c r="DS69" s="234"/>
+      <c r="DT69" s="234"/>
+      <c r="DU69" s="234"/>
+      <c r="DV69" s="234"/>
+      <c r="DW69" s="234"/>
+      <c r="DX69" s="234"/>
+      <c r="DY69" s="234"/>
+      <c r="DZ69" s="234"/>
+      <c r="EA69" s="234"/>
+      <c r="EB69" s="234"/>
+      <c r="EC69" s="234"/>
+      <c r="ED69" s="234"/>
+      <c r="EE69" s="234"/>
+      <c r="EF69" s="234"/>
+      <c r="EG69" s="234"/>
+      <c r="EH69" s="234"/>
+      <c r="EI69" s="234"/>
+      <c r="EJ69" s="234"/>
+      <c r="EK69" s="234"/>
+      <c r="EL69" s="234"/>
+      <c r="EM69" s="234"/>
+      <c r="EN69" s="234"/>
+      <c r="EO69" s="234"/>
+      <c r="EP69" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AI13:AM13"/>
+    <mergeCell ref="AP13:AT13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="BY11:EP11"/>
+    <mergeCell ref="DV13:DZ13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="BD13:BH13"/>
+    <mergeCell ref="BK13:BO13"/>
+    <mergeCell ref="BR13:BV13"/>
+    <mergeCell ref="BY13:CC13"/>
+    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="BK14:BO14"/>
+    <mergeCell ref="EC13:EG13"/>
+    <mergeCell ref="EJ13:EN13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AT14"/>
+    <mergeCell ref="CM13:CQ13"/>
+    <mergeCell ref="CT13:CX13"/>
+    <mergeCell ref="DA13:DE13"/>
+    <mergeCell ref="DH13:DL13"/>
+    <mergeCell ref="DO13:DS13"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BD14:BH14"/>
+    <mergeCell ref="BI14:BJ14"/>
+    <mergeCell ref="CR14:CS14"/>
+    <mergeCell ref="CT14:CX14"/>
+    <mergeCell ref="CY14:CZ14"/>
+    <mergeCell ref="DA14:DE14"/>
+    <mergeCell ref="BP14:BQ14"/>
+    <mergeCell ref="BR14:BV14"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BY14:CC14"/>
+    <mergeCell ref="CD14:CE14"/>
+    <mergeCell ref="CF14:CJ14"/>
     <mergeCell ref="A69:EP69"/>
     <mergeCell ref="EA14:EB14"/>
     <mergeCell ref="EC14:EG14"/>
@@ -21584,54 +21632,6 @@
     <mergeCell ref="DV14:DZ14"/>
     <mergeCell ref="CK14:CL14"/>
     <mergeCell ref="CM14:CQ14"/>
-    <mergeCell ref="CR14:CS14"/>
-    <mergeCell ref="CT14:CX14"/>
-    <mergeCell ref="CY14:CZ14"/>
-    <mergeCell ref="DA14:DE14"/>
-    <mergeCell ref="BP14:BQ14"/>
-    <mergeCell ref="BR14:BV14"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BY14:CC14"/>
-    <mergeCell ref="CD14:CE14"/>
-    <mergeCell ref="CF14:CJ14"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BD14:BH14"/>
-    <mergeCell ref="BI14:BJ14"/>
-    <mergeCell ref="BK14:BO14"/>
-    <mergeCell ref="EC13:EG13"/>
-    <mergeCell ref="EJ13:EN13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AT14"/>
-    <mergeCell ref="CM13:CQ13"/>
-    <mergeCell ref="CT13:CX13"/>
-    <mergeCell ref="DA13:DE13"/>
-    <mergeCell ref="DH13:DL13"/>
-    <mergeCell ref="DO13:DS13"/>
-    <mergeCell ref="DV13:DZ13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="BD13:BH13"/>
-    <mergeCell ref="BK13:BO13"/>
-    <mergeCell ref="BR13:BV13"/>
-    <mergeCell ref="BY13:CC13"/>
-    <mergeCell ref="CF13:CJ13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="BY11:EP11"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AI13:AM13"/>
-    <mergeCell ref="AP13:AT13"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H40:H44 H29:H31 H33:H37 H46:H65">
     <cfRule type="expression" dxfId="109" priority="112">

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -13713,19 +13713,19 @@
       </c>
       <c r="J23" s="80">
         <f>AVERAGE(J24:J28)</f>
-        <v>0.32500000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M23" s="229">
         <f t="shared" si="24"/>
-        <v>42103</v>
+        <v>42105</v>
       </c>
       <c r="N23" s="206"/>
       <c r="O23" s="83"/>
@@ -13886,19 +13886,19 @@
         <v>42103</v>
       </c>
       <c r="J24" s="80">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K24" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="L24" s="228">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" s="229">
         <f t="shared" si="24"/>
-        <v>42100</v>
+        <v>42101</v>
       </c>
       <c r="N24" s="206"/>
       <c r="O24" s="83"/>
@@ -14059,19 +14059,19 @@
         <v>42107</v>
       </c>
       <c r="J25" s="80">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K25" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="L25" s="228">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25" s="229">
         <f t="shared" si="24"/>
-        <v>42105</v>
+        <v>42106</v>
       </c>
       <c r="N25" s="206"/>
       <c r="O25" s="83"/>

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
+    <workbookView xWindow="22500" yWindow="0" windowWidth="27300" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -2093,27 +2093,6 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2139,6 +2118,27 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3349,10 +3349,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="J27" sqref="J27"/>
+      <selection pane="topRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7935,10 +7935,10 @@
       <c r="G7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="242">
+      <c r="H7" s="235">
         <v>42088</v>
       </c>
-      <c r="I7" s="242"/>
+      <c r="I7" s="235"/>
       <c r="K7" s="27"/>
       <c r="L7" s="217"/>
       <c r="M7" s="217"/>
@@ -10200,17 +10200,17 @@
       <c r="ACA9" s="34"/>
     </row>
     <row r="10" spans="1:755" s="22" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="243"/>
-      <c r="B10" s="243"/>
+      <c r="A10" s="236"/>
+      <c r="B10" s="236"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
       <c r="L10" s="220"/>
       <c r="M10" s="220"/>
       <c r="N10" s="201"/>
@@ -10957,19 +10957,19 @@
       <c r="ACA10" s="34"/>
     </row>
     <row r="11" spans="1:755" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="245" t="s">
+      <c r="A11" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="246"/>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="246"/>
-      <c r="K11" s="246"/>
+      <c r="B11" s="239"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="239"/>
+      <c r="I11" s="239"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
       <c r="L11" s="221"/>
       <c r="M11" s="221"/>
       <c r="N11" s="202"/>
@@ -11035,78 +11035,78 @@
       <c r="BV11" s="36"/>
       <c r="BW11" s="36"/>
       <c r="BX11" s="36"/>
-      <c r="BY11" s="247" t="s">
+      <c r="BY11" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="BZ11" s="247"/>
-      <c r="CA11" s="247"/>
-      <c r="CB11" s="247"/>
-      <c r="CC11" s="247"/>
-      <c r="CD11" s="247"/>
-      <c r="CE11" s="247"/>
-      <c r="CF11" s="247"/>
-      <c r="CG11" s="247"/>
-      <c r="CH11" s="247"/>
-      <c r="CI11" s="247"/>
-      <c r="CJ11" s="247"/>
-      <c r="CK11" s="247"/>
-      <c r="CL11" s="247"/>
-      <c r="CM11" s="247"/>
-      <c r="CN11" s="247"/>
-      <c r="CO11" s="247"/>
-      <c r="CP11" s="247"/>
-      <c r="CQ11" s="247"/>
-      <c r="CR11" s="247"/>
-      <c r="CS11" s="247"/>
-      <c r="CT11" s="247"/>
-      <c r="CU11" s="247"/>
-      <c r="CV11" s="247"/>
-      <c r="CW11" s="247"/>
-      <c r="CX11" s="247"/>
-      <c r="CY11" s="247"/>
-      <c r="CZ11" s="247"/>
-      <c r="DA11" s="247"/>
-      <c r="DB11" s="247"/>
-      <c r="DC11" s="247"/>
-      <c r="DD11" s="247"/>
-      <c r="DE11" s="247"/>
-      <c r="DF11" s="247"/>
-      <c r="DG11" s="247"/>
-      <c r="DH11" s="247"/>
-      <c r="DI11" s="247"/>
-      <c r="DJ11" s="247"/>
-      <c r="DK11" s="247"/>
-      <c r="DL11" s="247"/>
-      <c r="DM11" s="247"/>
-      <c r="DN11" s="247"/>
-      <c r="DO11" s="247"/>
-      <c r="DP11" s="247"/>
-      <c r="DQ11" s="247"/>
-      <c r="DR11" s="247"/>
-      <c r="DS11" s="247"/>
-      <c r="DT11" s="247"/>
-      <c r="DU11" s="247"/>
-      <c r="DV11" s="247"/>
-      <c r="DW11" s="247"/>
-      <c r="DX11" s="247"/>
-      <c r="DY11" s="247"/>
-      <c r="DZ11" s="247"/>
-      <c r="EA11" s="247"/>
-      <c r="EB11" s="247"/>
-      <c r="EC11" s="247"/>
-      <c r="ED11" s="247"/>
-      <c r="EE11" s="247"/>
-      <c r="EF11" s="247"/>
-      <c r="EG11" s="247"/>
-      <c r="EH11" s="247"/>
-      <c r="EI11" s="247"/>
-      <c r="EJ11" s="247"/>
-      <c r="EK11" s="247"/>
-      <c r="EL11" s="247"/>
-      <c r="EM11" s="247"/>
-      <c r="EN11" s="247"/>
-      <c r="EO11" s="247"/>
-      <c r="EP11" s="248"/>
+      <c r="BZ11" s="240"/>
+      <c r="CA11" s="240"/>
+      <c r="CB11" s="240"/>
+      <c r="CC11" s="240"/>
+      <c r="CD11" s="240"/>
+      <c r="CE11" s="240"/>
+      <c r="CF11" s="240"/>
+      <c r="CG11" s="240"/>
+      <c r="CH11" s="240"/>
+      <c r="CI11" s="240"/>
+      <c r="CJ11" s="240"/>
+      <c r="CK11" s="240"/>
+      <c r="CL11" s="240"/>
+      <c r="CM11" s="240"/>
+      <c r="CN11" s="240"/>
+      <c r="CO11" s="240"/>
+      <c r="CP11" s="240"/>
+      <c r="CQ11" s="240"/>
+      <c r="CR11" s="240"/>
+      <c r="CS11" s="240"/>
+      <c r="CT11" s="240"/>
+      <c r="CU11" s="240"/>
+      <c r="CV11" s="240"/>
+      <c r="CW11" s="240"/>
+      <c r="CX11" s="240"/>
+      <c r="CY11" s="240"/>
+      <c r="CZ11" s="240"/>
+      <c r="DA11" s="240"/>
+      <c r="DB11" s="240"/>
+      <c r="DC11" s="240"/>
+      <c r="DD11" s="240"/>
+      <c r="DE11" s="240"/>
+      <c r="DF11" s="240"/>
+      <c r="DG11" s="240"/>
+      <c r="DH11" s="240"/>
+      <c r="DI11" s="240"/>
+      <c r="DJ11" s="240"/>
+      <c r="DK11" s="240"/>
+      <c r="DL11" s="240"/>
+      <c r="DM11" s="240"/>
+      <c r="DN11" s="240"/>
+      <c r="DO11" s="240"/>
+      <c r="DP11" s="240"/>
+      <c r="DQ11" s="240"/>
+      <c r="DR11" s="240"/>
+      <c r="DS11" s="240"/>
+      <c r="DT11" s="240"/>
+      <c r="DU11" s="240"/>
+      <c r="DV11" s="240"/>
+      <c r="DW11" s="240"/>
+      <c r="DX11" s="240"/>
+      <c r="DY11" s="240"/>
+      <c r="DZ11" s="240"/>
+      <c r="EA11" s="240"/>
+      <c r="EB11" s="240"/>
+      <c r="EC11" s="240"/>
+      <c r="ED11" s="240"/>
+      <c r="EE11" s="240"/>
+      <c r="EF11" s="240"/>
+      <c r="EG11" s="240"/>
+      <c r="EH11" s="240"/>
+      <c r="EI11" s="240"/>
+      <c r="EJ11" s="240"/>
+      <c r="EK11" s="240"/>
+      <c r="EL11" s="240"/>
+      <c r="EM11" s="240"/>
+      <c r="EN11" s="240"/>
+      <c r="EO11" s="240"/>
+      <c r="EP11" s="241"/>
     </row>
     <row r="12" spans="1:755" s="37" customFormat="1" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -11669,194 +11669,194 @@
       <c r="K13" s="44"/>
       <c r="L13" s="223"/>
       <c r="M13" s="223"/>
-      <c r="N13" s="241" t="str">
+      <c r="N13" s="234" t="str">
         <f>"KW " &amp; TRUNC((N12-DATE(YEAR(N12+3-MOD(N12-2,7)),1,MOD(N12-2,7)-9))/7)</f>
         <v>KW 13</v>
       </c>
-      <c r="O13" s="241"/>
-      <c r="P13" s="241"/>
-      <c r="Q13" s="241"/>
-      <c r="R13" s="241"/>
+      <c r="O13" s="234"/>
+      <c r="P13" s="234"/>
+      <c r="Q13" s="234"/>
+      <c r="R13" s="234"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="241" t="str">
+      <c r="U13" s="234" t="str">
         <f t="shared" ref="U13" si="3">"KW " &amp; TRUNC((U12-DATE(YEAR(U12+3-MOD(U12-2,7)),1,MOD(U12-2,7)-9))/7)</f>
         <v>KW 14</v>
       </c>
-      <c r="V13" s="241"/>
-      <c r="W13" s="241"/>
-      <c r="X13" s="241"/>
-      <c r="Y13" s="241"/>
+      <c r="V13" s="234"/>
+      <c r="W13" s="234"/>
+      <c r="X13" s="234"/>
+      <c r="Y13" s="234"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="46"/>
-      <c r="AB13" s="241" t="str">
+      <c r="AB13" s="234" t="str">
         <f t="shared" ref="AB13" si="4">"KW " &amp; TRUNC((AB12-DATE(YEAR(AB12+3-MOD(AB12-2,7)),1,MOD(AB12-2,7)-9))/7)</f>
         <v>KW 15</v>
       </c>
-      <c r="AC13" s="241"/>
-      <c r="AD13" s="241"/>
-      <c r="AE13" s="241"/>
-      <c r="AF13" s="241"/>
+      <c r="AC13" s="234"/>
+      <c r="AD13" s="234"/>
+      <c r="AE13" s="234"/>
+      <c r="AF13" s="234"/>
       <c r="AG13" s="46"/>
       <c r="AH13" s="46"/>
-      <c r="AI13" s="241" t="str">
+      <c r="AI13" s="234" t="str">
         <f t="shared" ref="AI13" si="5">"KW " &amp; TRUNC((AI12-DATE(YEAR(AI12+3-MOD(AI12-2,7)),1,MOD(AI12-2,7)-9))/7)</f>
         <v>KW 16</v>
       </c>
-      <c r="AJ13" s="241"/>
-      <c r="AK13" s="241"/>
-      <c r="AL13" s="241"/>
-      <c r="AM13" s="241"/>
+      <c r="AJ13" s="234"/>
+      <c r="AK13" s="234"/>
+      <c r="AL13" s="234"/>
+      <c r="AM13" s="234"/>
       <c r="AN13" s="46"/>
       <c r="AO13" s="46"/>
-      <c r="AP13" s="241" t="str">
+      <c r="AP13" s="234" t="str">
         <f t="shared" ref="AP13" si="6">"KW " &amp; TRUNC((AP12-DATE(YEAR(AP12+3-MOD(AP12-2,7)),1,MOD(AP12-2,7)-9))/7)</f>
         <v>KW 17</v>
       </c>
-      <c r="AQ13" s="241"/>
-      <c r="AR13" s="241"/>
-      <c r="AS13" s="241"/>
-      <c r="AT13" s="241"/>
+      <c r="AQ13" s="234"/>
+      <c r="AR13" s="234"/>
+      <c r="AS13" s="234"/>
+      <c r="AT13" s="234"/>
       <c r="AU13" s="46"/>
       <c r="AV13" s="46"/>
-      <c r="AW13" s="241" t="str">
+      <c r="AW13" s="234" t="str">
         <f t="shared" ref="AW13" si="7">"KW " &amp; TRUNC((AW12-DATE(YEAR(AW12+3-MOD(AW12-2,7)),1,MOD(AW12-2,7)-9))/7)</f>
         <v>KW 18</v>
       </c>
-      <c r="AX13" s="241"/>
-      <c r="AY13" s="241"/>
-      <c r="AZ13" s="241"/>
-      <c r="BA13" s="241"/>
+      <c r="AX13" s="234"/>
+      <c r="AY13" s="234"/>
+      <c r="AZ13" s="234"/>
+      <c r="BA13" s="234"/>
       <c r="BB13" s="46"/>
       <c r="BC13" s="46"/>
-      <c r="BD13" s="241" t="str">
+      <c r="BD13" s="234" t="str">
         <f t="shared" ref="BD13" si="8">"KW " &amp; TRUNC((BD12-DATE(YEAR(BD12+3-MOD(BD12-2,7)),1,MOD(BD12-2,7)-9))/7)</f>
         <v>KW 19</v>
       </c>
-      <c r="BE13" s="241"/>
-      <c r="BF13" s="241"/>
-      <c r="BG13" s="241"/>
-      <c r="BH13" s="241"/>
+      <c r="BE13" s="234"/>
+      <c r="BF13" s="234"/>
+      <c r="BG13" s="234"/>
+      <c r="BH13" s="234"/>
       <c r="BI13" s="46"/>
       <c r="BJ13" s="46"/>
-      <c r="BK13" s="241" t="str">
+      <c r="BK13" s="234" t="str">
         <f t="shared" ref="BK13" si="9">"KW " &amp; TRUNC((BK12-DATE(YEAR(BK12+3-MOD(BK12-2,7)),1,MOD(BK12-2,7)-9))/7)</f>
         <v>KW 20</v>
       </c>
-      <c r="BL13" s="241"/>
-      <c r="BM13" s="241"/>
-      <c r="BN13" s="241"/>
-      <c r="BO13" s="241"/>
+      <c r="BL13" s="234"/>
+      <c r="BM13" s="234"/>
+      <c r="BN13" s="234"/>
+      <c r="BO13" s="234"/>
       <c r="BP13" s="46"/>
       <c r="BQ13" s="46"/>
-      <c r="BR13" s="241" t="str">
+      <c r="BR13" s="234" t="str">
         <f t="shared" ref="BR13" si="10">"KW " &amp; TRUNC((BR12-DATE(YEAR(BR12+3-MOD(BR12-2,7)),1,MOD(BR12-2,7)-9))/7)</f>
         <v>KW 21</v>
       </c>
-      <c r="BS13" s="241"/>
-      <c r="BT13" s="241"/>
-      <c r="BU13" s="241"/>
-      <c r="BV13" s="241"/>
+      <c r="BS13" s="234"/>
+      <c r="BT13" s="234"/>
+      <c r="BU13" s="234"/>
+      <c r="BV13" s="234"/>
       <c r="BW13" s="46"/>
       <c r="BX13" s="46"/>
-      <c r="BY13" s="241" t="str">
+      <c r="BY13" s="234" t="str">
         <f t="shared" ref="BY13" si="11">"KW " &amp; TRUNC((BY12-DATE(YEAR(BY12+3-MOD(BY12-2,7)),1,MOD(BY12-2,7)-9))/7)</f>
         <v>KW 22</v>
       </c>
-      <c r="BZ13" s="241"/>
-      <c r="CA13" s="241"/>
-      <c r="CB13" s="241"/>
-      <c r="CC13" s="241"/>
+      <c r="BZ13" s="234"/>
+      <c r="CA13" s="234"/>
+      <c r="CB13" s="234"/>
+      <c r="CC13" s="234"/>
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
-      <c r="CF13" s="241" t="str">
+      <c r="CF13" s="234" t="str">
         <f t="shared" ref="CF13" si="12">"KW " &amp; TRUNC((CF12-DATE(YEAR(CF12+3-MOD(CF12-2,7)),1,MOD(CF12-2,7)-9))/7)</f>
         <v>KW 23</v>
       </c>
-      <c r="CG13" s="241"/>
-      <c r="CH13" s="241"/>
-      <c r="CI13" s="241"/>
-      <c r="CJ13" s="241"/>
+      <c r="CG13" s="234"/>
+      <c r="CH13" s="234"/>
+      <c r="CI13" s="234"/>
+      <c r="CJ13" s="234"/>
       <c r="CK13" s="46"/>
       <c r="CL13" s="46"/>
-      <c r="CM13" s="241" t="str">
+      <c r="CM13" s="234" t="str">
         <f t="shared" ref="CM13" si="13">"KW " &amp; TRUNC((CM12-DATE(YEAR(CM12+3-MOD(CM12-2,7)),1,MOD(CM12-2,7)-9))/7)</f>
         <v>KW 24</v>
       </c>
-      <c r="CN13" s="241"/>
-      <c r="CO13" s="241"/>
-      <c r="CP13" s="241"/>
-      <c r="CQ13" s="241"/>
+      <c r="CN13" s="234"/>
+      <c r="CO13" s="234"/>
+      <c r="CP13" s="234"/>
+      <c r="CQ13" s="234"/>
       <c r="CR13" s="46"/>
       <c r="CS13" s="46"/>
-      <c r="CT13" s="241" t="str">
+      <c r="CT13" s="234" t="str">
         <f t="shared" ref="CT13" si="14">"KW " &amp; TRUNC((CT12-DATE(YEAR(CT12+3-MOD(CT12-2,7)),1,MOD(CT12-2,7)-9))/7)</f>
         <v>KW 25</v>
       </c>
-      <c r="CU13" s="241"/>
-      <c r="CV13" s="241"/>
-      <c r="CW13" s="241"/>
-      <c r="CX13" s="241"/>
+      <c r="CU13" s="234"/>
+      <c r="CV13" s="234"/>
+      <c r="CW13" s="234"/>
+      <c r="CX13" s="234"/>
       <c r="CY13" s="46"/>
       <c r="CZ13" s="46"/>
-      <c r="DA13" s="241" t="str">
+      <c r="DA13" s="234" t="str">
         <f t="shared" ref="DA13" si="15">"KW " &amp; TRUNC((DA12-DATE(YEAR(DA12+3-MOD(DA12-2,7)),1,MOD(DA12-2,7)-9))/7)</f>
         <v>KW 26</v>
       </c>
-      <c r="DB13" s="241"/>
-      <c r="DC13" s="241"/>
-      <c r="DD13" s="241"/>
-      <c r="DE13" s="241"/>
+      <c r="DB13" s="234"/>
+      <c r="DC13" s="234"/>
+      <c r="DD13" s="234"/>
+      <c r="DE13" s="234"/>
       <c r="DF13" s="46"/>
       <c r="DG13" s="46"/>
-      <c r="DH13" s="241" t="str">
+      <c r="DH13" s="234" t="str">
         <f t="shared" ref="DH13" si="16">"KW " &amp; TRUNC((DH12-DATE(YEAR(DH12+3-MOD(DH12-2,7)),1,MOD(DH12-2,7)-9))/7)</f>
         <v>KW 27</v>
       </c>
-      <c r="DI13" s="241"/>
-      <c r="DJ13" s="241"/>
-      <c r="DK13" s="241"/>
-      <c r="DL13" s="241"/>
+      <c r="DI13" s="234"/>
+      <c r="DJ13" s="234"/>
+      <c r="DK13" s="234"/>
+      <c r="DL13" s="234"/>
       <c r="DM13" s="46"/>
       <c r="DN13" s="46"/>
-      <c r="DO13" s="241" t="str">
+      <c r="DO13" s="234" t="str">
         <f t="shared" ref="DO13" si="17">"KW " &amp; TRUNC((DO12-DATE(YEAR(DO12+3-MOD(DO12-2,7)),1,MOD(DO12-2,7)-9))/7)</f>
         <v>KW 28</v>
       </c>
-      <c r="DP13" s="241"/>
-      <c r="DQ13" s="241"/>
-      <c r="DR13" s="241"/>
-      <c r="DS13" s="241"/>
+      <c r="DP13" s="234"/>
+      <c r="DQ13" s="234"/>
+      <c r="DR13" s="234"/>
+      <c r="DS13" s="234"/>
       <c r="DT13" s="46"/>
       <c r="DU13" s="46"/>
-      <c r="DV13" s="241" t="str">
+      <c r="DV13" s="234" t="str">
         <f t="shared" ref="DV13" si="18">"KW " &amp; TRUNC((DV12-DATE(YEAR(DV12+3-MOD(DV12-2,7)),1,MOD(DV12-2,7)-9))/7)</f>
         <v>KW 29</v>
       </c>
-      <c r="DW13" s="241"/>
-      <c r="DX13" s="241"/>
-      <c r="DY13" s="241"/>
-      <c r="DZ13" s="241"/>
+      <c r="DW13" s="234"/>
+      <c r="DX13" s="234"/>
+      <c r="DY13" s="234"/>
+      <c r="DZ13" s="234"/>
       <c r="EA13" s="46"/>
       <c r="EB13" s="46"/>
-      <c r="EC13" s="241" t="str">
+      <c r="EC13" s="234" t="str">
         <f t="shared" ref="EC13" si="19">"KW " &amp; TRUNC((EC12-DATE(YEAR(EC12+3-MOD(EC12-2,7)),1,MOD(EC12-2,7)-9))/7)</f>
         <v>KW 30</v>
       </c>
-      <c r="ED13" s="241"/>
-      <c r="EE13" s="241"/>
-      <c r="EF13" s="241"/>
-      <c r="EG13" s="241"/>
+      <c r="ED13" s="234"/>
+      <c r="EE13" s="234"/>
+      <c r="EF13" s="234"/>
+      <c r="EG13" s="234"/>
       <c r="EH13" s="46"/>
       <c r="EI13" s="46"/>
-      <c r="EJ13" s="241" t="str">
+      <c r="EJ13" s="234" t="str">
         <f t="shared" ref="EJ13" si="20">"KW " &amp; TRUNC((EJ12-DATE(YEAR(EJ12+3-MOD(EJ12-2,7)),1,MOD(EJ12-2,7)-9))/7)</f>
         <v>KW 31</v>
       </c>
-      <c r="EK13" s="241"/>
-      <c r="EL13" s="241"/>
-      <c r="EM13" s="241"/>
-      <c r="EN13" s="241"/>
+      <c r="EK13" s="234"/>
+      <c r="EL13" s="234"/>
+      <c r="EM13" s="234"/>
+      <c r="EN13" s="234"/>
       <c r="EO13" s="46"/>
       <c r="EP13" s="47"/>
     </row>
@@ -11898,196 +11898,196 @@
       <c r="M14" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="235">
+      <c r="N14" s="242">
         <f>N12</f>
         <v>42086</v>
       </c>
-      <c r="O14" s="235"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
+      <c r="O14" s="242"/>
+      <c r="P14" s="242"/>
+      <c r="Q14" s="242"/>
+      <c r="R14" s="242"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
-      <c r="U14" s="235">
+      <c r="U14" s="242">
         <f>U12</f>
         <v>42093</v>
       </c>
-      <c r="V14" s="235"/>
-      <c r="W14" s="235"/>
-      <c r="X14" s="235"/>
-      <c r="Y14" s="235"/>
-      <c r="Z14" s="235"/>
-      <c r="AA14" s="235"/>
-      <c r="AB14" s="235">
+      <c r="V14" s="242"/>
+      <c r="W14" s="242"/>
+      <c r="X14" s="242"/>
+      <c r="Y14" s="242"/>
+      <c r="Z14" s="242"/>
+      <c r="AA14" s="242"/>
+      <c r="AB14" s="242">
         <f>AB12</f>
         <v>42100</v>
       </c>
-      <c r="AC14" s="235"/>
-      <c r="AD14" s="235"/>
-      <c r="AE14" s="235"/>
-      <c r="AF14" s="235"/>
-      <c r="AG14" s="235"/>
-      <c r="AH14" s="235"/>
-      <c r="AI14" s="235">
+      <c r="AC14" s="242"/>
+      <c r="AD14" s="242"/>
+      <c r="AE14" s="242"/>
+      <c r="AF14" s="242"/>
+      <c r="AG14" s="242"/>
+      <c r="AH14" s="242"/>
+      <c r="AI14" s="242">
         <f>AI12</f>
         <v>42107</v>
       </c>
-      <c r="AJ14" s="235"/>
-      <c r="AK14" s="235"/>
-      <c r="AL14" s="235"/>
-      <c r="AM14" s="235"/>
-      <c r="AN14" s="235"/>
-      <c r="AO14" s="235"/>
-      <c r="AP14" s="235">
+      <c r="AJ14" s="242"/>
+      <c r="AK14" s="242"/>
+      <c r="AL14" s="242"/>
+      <c r="AM14" s="242"/>
+      <c r="AN14" s="242"/>
+      <c r="AO14" s="242"/>
+      <c r="AP14" s="242">
         <f>AP12</f>
         <v>42114</v>
       </c>
-      <c r="AQ14" s="235"/>
-      <c r="AR14" s="235"/>
-      <c r="AS14" s="235"/>
-      <c r="AT14" s="235"/>
-      <c r="AU14" s="235"/>
-      <c r="AV14" s="235"/>
-      <c r="AW14" s="235">
+      <c r="AQ14" s="242"/>
+      <c r="AR14" s="242"/>
+      <c r="AS14" s="242"/>
+      <c r="AT14" s="242"/>
+      <c r="AU14" s="242"/>
+      <c r="AV14" s="242"/>
+      <c r="AW14" s="242">
         <f>AW12</f>
         <v>42121</v>
       </c>
-      <c r="AX14" s="235"/>
-      <c r="AY14" s="235"/>
-      <c r="AZ14" s="235"/>
-      <c r="BA14" s="235"/>
-      <c r="BB14" s="235"/>
-      <c r="BC14" s="235"/>
-      <c r="BD14" s="235">
+      <c r="AX14" s="242"/>
+      <c r="AY14" s="242"/>
+      <c r="AZ14" s="242"/>
+      <c r="BA14" s="242"/>
+      <c r="BB14" s="242"/>
+      <c r="BC14" s="242"/>
+      <c r="BD14" s="242">
         <f>BD12</f>
         <v>42128</v>
       </c>
-      <c r="BE14" s="235"/>
-      <c r="BF14" s="235"/>
-      <c r="BG14" s="235"/>
-      <c r="BH14" s="235"/>
-      <c r="BI14" s="235"/>
-      <c r="BJ14" s="235"/>
-      <c r="BK14" s="235">
+      <c r="BE14" s="242"/>
+      <c r="BF14" s="242"/>
+      <c r="BG14" s="242"/>
+      <c r="BH14" s="242"/>
+      <c r="BI14" s="242"/>
+      <c r="BJ14" s="242"/>
+      <c r="BK14" s="242">
         <f>BK12</f>
         <v>42135</v>
       </c>
-      <c r="BL14" s="235"/>
-      <c r="BM14" s="235"/>
-      <c r="BN14" s="235"/>
-      <c r="BO14" s="235"/>
-      <c r="BP14" s="235"/>
-      <c r="BQ14" s="235"/>
-      <c r="BR14" s="235">
+      <c r="BL14" s="242"/>
+      <c r="BM14" s="242"/>
+      <c r="BN14" s="242"/>
+      <c r="BO14" s="242"/>
+      <c r="BP14" s="242"/>
+      <c r="BQ14" s="242"/>
+      <c r="BR14" s="242">
         <f>BR12</f>
         <v>42142</v>
       </c>
-      <c r="BS14" s="235"/>
-      <c r="BT14" s="235"/>
-      <c r="BU14" s="235"/>
-      <c r="BV14" s="235"/>
-      <c r="BW14" s="235"/>
-      <c r="BX14" s="235"/>
-      <c r="BY14" s="235">
+      <c r="BS14" s="242"/>
+      <c r="BT14" s="242"/>
+      <c r="BU14" s="242"/>
+      <c r="BV14" s="242"/>
+      <c r="BW14" s="242"/>
+      <c r="BX14" s="242"/>
+      <c r="BY14" s="242">
         <f>BY12</f>
         <v>42149</v>
       </c>
-      <c r="BZ14" s="235"/>
-      <c r="CA14" s="235"/>
-      <c r="CB14" s="235"/>
-      <c r="CC14" s="235"/>
-      <c r="CD14" s="235"/>
-      <c r="CE14" s="235"/>
-      <c r="CF14" s="235">
+      <c r="BZ14" s="242"/>
+      <c r="CA14" s="242"/>
+      <c r="CB14" s="242"/>
+      <c r="CC14" s="242"/>
+      <c r="CD14" s="242"/>
+      <c r="CE14" s="242"/>
+      <c r="CF14" s="242">
         <f>CF12</f>
         <v>42156</v>
       </c>
-      <c r="CG14" s="235"/>
-      <c r="CH14" s="235"/>
-      <c r="CI14" s="235"/>
-      <c r="CJ14" s="235"/>
-      <c r="CK14" s="235"/>
-      <c r="CL14" s="235"/>
-      <c r="CM14" s="235">
+      <c r="CG14" s="242"/>
+      <c r="CH14" s="242"/>
+      <c r="CI14" s="242"/>
+      <c r="CJ14" s="242"/>
+      <c r="CK14" s="242"/>
+      <c r="CL14" s="242"/>
+      <c r="CM14" s="242">
         <f>CM12</f>
         <v>42163</v>
       </c>
-      <c r="CN14" s="235"/>
-      <c r="CO14" s="235"/>
-      <c r="CP14" s="235"/>
-      <c r="CQ14" s="235"/>
-      <c r="CR14" s="235"/>
-      <c r="CS14" s="235"/>
-      <c r="CT14" s="235">
+      <c r="CN14" s="242"/>
+      <c r="CO14" s="242"/>
+      <c r="CP14" s="242"/>
+      <c r="CQ14" s="242"/>
+      <c r="CR14" s="242"/>
+      <c r="CS14" s="242"/>
+      <c r="CT14" s="242">
         <f>CT12</f>
         <v>42170</v>
       </c>
-      <c r="CU14" s="235"/>
-      <c r="CV14" s="235"/>
-      <c r="CW14" s="235"/>
-      <c r="CX14" s="235"/>
-      <c r="CY14" s="235"/>
-      <c r="CZ14" s="235"/>
-      <c r="DA14" s="235">
+      <c r="CU14" s="242"/>
+      <c r="CV14" s="242"/>
+      <c r="CW14" s="242"/>
+      <c r="CX14" s="242"/>
+      <c r="CY14" s="242"/>
+      <c r="CZ14" s="242"/>
+      <c r="DA14" s="242">
         <f>DA12</f>
         <v>42177</v>
       </c>
-      <c r="DB14" s="235"/>
-      <c r="DC14" s="235"/>
-      <c r="DD14" s="235"/>
-      <c r="DE14" s="235"/>
-      <c r="DF14" s="235"/>
-      <c r="DG14" s="235"/>
-      <c r="DH14" s="235">
+      <c r="DB14" s="242"/>
+      <c r="DC14" s="242"/>
+      <c r="DD14" s="242"/>
+      <c r="DE14" s="242"/>
+      <c r="DF14" s="242"/>
+      <c r="DG14" s="242"/>
+      <c r="DH14" s="242">
         <f>DH12</f>
         <v>42184</v>
       </c>
-      <c r="DI14" s="235"/>
-      <c r="DJ14" s="235"/>
-      <c r="DK14" s="235"/>
-      <c r="DL14" s="235"/>
-      <c r="DM14" s="235"/>
-      <c r="DN14" s="235"/>
-      <c r="DO14" s="235">
+      <c r="DI14" s="242"/>
+      <c r="DJ14" s="242"/>
+      <c r="DK14" s="242"/>
+      <c r="DL14" s="242"/>
+      <c r="DM14" s="242"/>
+      <c r="DN14" s="242"/>
+      <c r="DO14" s="242">
         <f>DO12</f>
         <v>42191</v>
       </c>
-      <c r="DP14" s="235"/>
-      <c r="DQ14" s="235"/>
-      <c r="DR14" s="235"/>
-      <c r="DS14" s="235"/>
-      <c r="DT14" s="235"/>
-      <c r="DU14" s="235"/>
-      <c r="DV14" s="235">
+      <c r="DP14" s="242"/>
+      <c r="DQ14" s="242"/>
+      <c r="DR14" s="242"/>
+      <c r="DS14" s="242"/>
+      <c r="DT14" s="242"/>
+      <c r="DU14" s="242"/>
+      <c r="DV14" s="242">
         <f>DV12</f>
         <v>42198</v>
       </c>
-      <c r="DW14" s="235"/>
-      <c r="DX14" s="235"/>
-      <c r="DY14" s="235"/>
-      <c r="DZ14" s="235"/>
-      <c r="EA14" s="235"/>
-      <c r="EB14" s="235"/>
-      <c r="EC14" s="235">
+      <c r="DW14" s="242"/>
+      <c r="DX14" s="242"/>
+      <c r="DY14" s="242"/>
+      <c r="DZ14" s="242"/>
+      <c r="EA14" s="242"/>
+      <c r="EB14" s="242"/>
+      <c r="EC14" s="242">
         <f>EC12</f>
         <v>42205</v>
       </c>
-      <c r="ED14" s="235"/>
-      <c r="EE14" s="235"/>
-      <c r="EF14" s="235"/>
-      <c r="EG14" s="235"/>
-      <c r="EH14" s="235"/>
-      <c r="EI14" s="235"/>
-      <c r="EJ14" s="235">
+      <c r="ED14" s="242"/>
+      <c r="EE14" s="242"/>
+      <c r="EF14" s="242"/>
+      <c r="EG14" s="242"/>
+      <c r="EH14" s="242"/>
+      <c r="EI14" s="242"/>
+      <c r="EJ14" s="242">
         <f>EJ12</f>
         <v>42212</v>
       </c>
-      <c r="EK14" s="235"/>
-      <c r="EL14" s="235"/>
-      <c r="EM14" s="235"/>
-      <c r="EN14" s="235"/>
-      <c r="EO14" s="235"/>
-      <c r="EP14" s="236"/>
+      <c r="EK14" s="242"/>
+      <c r="EL14" s="242"/>
+      <c r="EM14" s="242"/>
+      <c r="EN14" s="242"/>
+      <c r="EO14" s="242"/>
+      <c r="EP14" s="244"/>
       <c r="EQ14" s="48"/>
     </row>
     <row r="15" spans="1:755" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="K24" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="L24" s="228">
         <f t="shared" si="22"/>
@@ -14063,7 +14063,7 @@
       </c>
       <c r="K25" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="L25" s="228">
         <f t="shared" si="22"/>
@@ -14236,7 +14236,7 @@
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="K27" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="L27" s="228">
         <f t="shared" si="22"/>
@@ -14747,7 +14747,7 @@
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="K30" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L30" s="228">
         <f t="shared" si="22"/>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
@@ -15266,7 +15266,7 @@
       </c>
       <c r="K32" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L32" s="228">
         <f t="shared" si="22"/>
@@ -15768,7 +15768,7 @@
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
@@ -15941,7 +15941,7 @@
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
@@ -16114,7 +16114,7 @@
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
@@ -16287,7 +16287,7 @@
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L38" s="228">
         <f t="shared" si="22"/>
@@ -16458,7 +16458,7 @@
       <c r="J39" s="80"/>
       <c r="K39" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L39" s="228">
         <f t="shared" si="22"/>
@@ -16630,7 +16630,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L40" s="228" t="str">
         <f t="shared" si="22"/>
@@ -16967,7 +16967,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17140,7 +17140,7 @@
       </c>
       <c r="K43" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L43" s="228">
         <f t="shared" si="22"/>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="K44" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L44" s="228">
         <f t="shared" si="22"/>
@@ -17486,7 +17486,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L48" s="228">
         <f t="shared" si="22"/>
@@ -18161,7 +18161,7 @@
       </c>
       <c r="K49" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L49" s="228">
         <f t="shared" si="22"/>
@@ -18334,7 +18334,7 @@
       </c>
       <c r="K50" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L50" s="228">
         <f t="shared" si="22"/>
@@ -18507,7 +18507,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -18679,7 +18679,7 @@
       </c>
       <c r="K52" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L52" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19180,7 +19180,7 @@
       </c>
       <c r="K55" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L55" s="228">
         <f t="shared" si="22"/>
@@ -21120,45 +21120,45 @@
       <c r="EQ66" s="37"/>
     </row>
     <row r="67" spans="1:147" s="3" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="237"/>
-      <c r="B67" s="238"/>
-      <c r="C67" s="238"/>
-      <c r="D67" s="238"/>
-      <c r="E67" s="238"/>
-      <c r="F67" s="238"/>
-      <c r="G67" s="238"/>
-      <c r="H67" s="238"/>
-      <c r="I67" s="238"/>
-      <c r="J67" s="238"/>
-      <c r="K67" s="238"/>
-      <c r="L67" s="238"/>
-      <c r="M67" s="238"/>
-      <c r="N67" s="238"/>
-      <c r="O67" s="238"/>
-      <c r="P67" s="238"/>
-      <c r="Q67" s="238"/>
-      <c r="R67" s="238"/>
-      <c r="S67" s="238"/>
-      <c r="T67" s="238"/>
-      <c r="U67" s="238"/>
-      <c r="V67" s="238"/>
-      <c r="W67" s="238"/>
-      <c r="X67" s="238"/>
-      <c r="Y67" s="238"/>
-      <c r="Z67" s="238"/>
-      <c r="AA67" s="238"/>
-      <c r="AB67" s="238"/>
-      <c r="AC67" s="238"/>
-      <c r="AD67" s="238"/>
-      <c r="AE67" s="238"/>
-      <c r="AF67" s="238"/>
-      <c r="AG67" s="238"/>
-      <c r="AH67" s="238"/>
-      <c r="AI67" s="238"/>
-      <c r="AJ67" s="238"/>
-      <c r="AK67" s="238"/>
-      <c r="AL67" s="238"/>
-      <c r="AM67" s="238"/>
+      <c r="A67" s="245"/>
+      <c r="B67" s="246"/>
+      <c r="C67" s="246"/>
+      <c r="D67" s="246"/>
+      <c r="E67" s="246"/>
+      <c r="F67" s="246"/>
+      <c r="G67" s="246"/>
+      <c r="H67" s="246"/>
+      <c r="I67" s="246"/>
+      <c r="J67" s="246"/>
+      <c r="K67" s="246"/>
+      <c r="L67" s="246"/>
+      <c r="M67" s="246"/>
+      <c r="N67" s="246"/>
+      <c r="O67" s="246"/>
+      <c r="P67" s="246"/>
+      <c r="Q67" s="246"/>
+      <c r="R67" s="246"/>
+      <c r="S67" s="246"/>
+      <c r="T67" s="246"/>
+      <c r="U67" s="246"/>
+      <c r="V67" s="246"/>
+      <c r="W67" s="246"/>
+      <c r="X67" s="246"/>
+      <c r="Y67" s="246"/>
+      <c r="Z67" s="246"/>
+      <c r="AA67" s="246"/>
+      <c r="AB67" s="246"/>
+      <c r="AC67" s="246"/>
+      <c r="AD67" s="246"/>
+      <c r="AE67" s="246"/>
+      <c r="AF67" s="246"/>
+      <c r="AG67" s="246"/>
+      <c r="AH67" s="246"/>
+      <c r="AI67" s="246"/>
+      <c r="AJ67" s="246"/>
+      <c r="AK67" s="246"/>
+      <c r="AL67" s="246"/>
+      <c r="AM67" s="246"/>
       <c r="AN67" s="100"/>
       <c r="AO67" s="100"/>
       <c r="AP67" s="100"/>
@@ -21189,85 +21189,85 @@
       <c r="BO67" s="100"/>
       <c r="BP67" s="100"/>
       <c r="BQ67" s="100"/>
-      <c r="BR67" s="239" t="s">
+      <c r="BR67" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="BS67" s="239"/>
-      <c r="BT67" s="239"/>
-      <c r="BU67" s="239"/>
-      <c r="BV67" s="239"/>
-      <c r="BW67" s="239"/>
-      <c r="BX67" s="239"/>
-      <c r="BY67" s="239"/>
-      <c r="BZ67" s="239"/>
-      <c r="CA67" s="239"/>
-      <c r="CB67" s="239"/>
-      <c r="CC67" s="239"/>
-      <c r="CD67" s="239"/>
-      <c r="CE67" s="239"/>
-      <c r="CF67" s="239"/>
-      <c r="CG67" s="239"/>
-      <c r="CH67" s="239"/>
-      <c r="CI67" s="239"/>
-      <c r="CJ67" s="239"/>
-      <c r="CK67" s="239"/>
-      <c r="CL67" s="239"/>
-      <c r="CM67" s="239"/>
-      <c r="CN67" s="239"/>
-      <c r="CO67" s="239"/>
-      <c r="CP67" s="239"/>
-      <c r="CQ67" s="239"/>
-      <c r="CR67" s="239"/>
-      <c r="CS67" s="239"/>
-      <c r="CT67" s="239"/>
-      <c r="CU67" s="239"/>
-      <c r="CV67" s="239"/>
-      <c r="CW67" s="239"/>
-      <c r="CX67" s="239"/>
-      <c r="CY67" s="239"/>
-      <c r="CZ67" s="239"/>
-      <c r="DA67" s="239"/>
-      <c r="DB67" s="239"/>
-      <c r="DC67" s="239"/>
-      <c r="DD67" s="239"/>
-      <c r="DE67" s="239"/>
-      <c r="DF67" s="239"/>
-      <c r="DG67" s="239"/>
-      <c r="DH67" s="239"/>
-      <c r="DI67" s="239"/>
-      <c r="DJ67" s="239"/>
-      <c r="DK67" s="239"/>
-      <c r="DL67" s="239"/>
-      <c r="DM67" s="239"/>
-      <c r="DN67" s="239"/>
-      <c r="DO67" s="239"/>
-      <c r="DP67" s="239"/>
-      <c r="DQ67" s="239"/>
-      <c r="DR67" s="239"/>
-      <c r="DS67" s="239"/>
-      <c r="DT67" s="239"/>
-      <c r="DU67" s="239"/>
-      <c r="DV67" s="239"/>
-      <c r="DW67" s="239"/>
-      <c r="DX67" s="239"/>
-      <c r="DY67" s="239"/>
-      <c r="DZ67" s="239"/>
-      <c r="EA67" s="239"/>
-      <c r="EB67" s="239"/>
-      <c r="EC67" s="239"/>
-      <c r="ED67" s="239"/>
-      <c r="EE67" s="239"/>
-      <c r="EF67" s="239"/>
-      <c r="EG67" s="239"/>
-      <c r="EH67" s="239"/>
-      <c r="EI67" s="239"/>
-      <c r="EJ67" s="239"/>
-      <c r="EK67" s="239"/>
-      <c r="EL67" s="239"/>
-      <c r="EM67" s="239"/>
-      <c r="EN67" s="239"/>
-      <c r="EO67" s="239"/>
-      <c r="EP67" s="240"/>
+      <c r="BS67" s="247"/>
+      <c r="BT67" s="247"/>
+      <c r="BU67" s="247"/>
+      <c r="BV67" s="247"/>
+      <c r="BW67" s="247"/>
+      <c r="BX67" s="247"/>
+      <c r="BY67" s="247"/>
+      <c r="BZ67" s="247"/>
+      <c r="CA67" s="247"/>
+      <c r="CB67" s="247"/>
+      <c r="CC67" s="247"/>
+      <c r="CD67" s="247"/>
+      <c r="CE67" s="247"/>
+      <c r="CF67" s="247"/>
+      <c r="CG67" s="247"/>
+      <c r="CH67" s="247"/>
+      <c r="CI67" s="247"/>
+      <c r="CJ67" s="247"/>
+      <c r="CK67" s="247"/>
+      <c r="CL67" s="247"/>
+      <c r="CM67" s="247"/>
+      <c r="CN67" s="247"/>
+      <c r="CO67" s="247"/>
+      <c r="CP67" s="247"/>
+      <c r="CQ67" s="247"/>
+      <c r="CR67" s="247"/>
+      <c r="CS67" s="247"/>
+      <c r="CT67" s="247"/>
+      <c r="CU67" s="247"/>
+      <c r="CV67" s="247"/>
+      <c r="CW67" s="247"/>
+      <c r="CX67" s="247"/>
+      <c r="CY67" s="247"/>
+      <c r="CZ67" s="247"/>
+      <c r="DA67" s="247"/>
+      <c r="DB67" s="247"/>
+      <c r="DC67" s="247"/>
+      <c r="DD67" s="247"/>
+      <c r="DE67" s="247"/>
+      <c r="DF67" s="247"/>
+      <c r="DG67" s="247"/>
+      <c r="DH67" s="247"/>
+      <c r="DI67" s="247"/>
+      <c r="DJ67" s="247"/>
+      <c r="DK67" s="247"/>
+      <c r="DL67" s="247"/>
+      <c r="DM67" s="247"/>
+      <c r="DN67" s="247"/>
+      <c r="DO67" s="247"/>
+      <c r="DP67" s="247"/>
+      <c r="DQ67" s="247"/>
+      <c r="DR67" s="247"/>
+      <c r="DS67" s="247"/>
+      <c r="DT67" s="247"/>
+      <c r="DU67" s="247"/>
+      <c r="DV67" s="247"/>
+      <c r="DW67" s="247"/>
+      <c r="DX67" s="247"/>
+      <c r="DY67" s="247"/>
+      <c r="DZ67" s="247"/>
+      <c r="EA67" s="247"/>
+      <c r="EB67" s="247"/>
+      <c r="EC67" s="247"/>
+      <c r="ED67" s="247"/>
+      <c r="EE67" s="247"/>
+      <c r="EF67" s="247"/>
+      <c r="EG67" s="247"/>
+      <c r="EH67" s="247"/>
+      <c r="EI67" s="247"/>
+      <c r="EJ67" s="247"/>
+      <c r="EK67" s="247"/>
+      <c r="EL67" s="247"/>
+      <c r="EM67" s="247"/>
+      <c r="EN67" s="247"/>
+      <c r="EO67" s="247"/>
+      <c r="EP67" s="248"/>
       <c r="EQ67" s="48"/>
     </row>
     <row r="68" spans="1:147" x14ac:dyDescent="0.25">
@@ -21419,172 +21419,186 @@
       <c r="EQ68" s="37"/>
     </row>
     <row r="69" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A69" s="234"/>
-      <c r="B69" s="234"/>
-      <c r="C69" s="234"/>
-      <c r="D69" s="234"/>
-      <c r="E69" s="234"/>
-      <c r="F69" s="234"/>
-      <c r="G69" s="234"/>
-      <c r="H69" s="234"/>
-      <c r="I69" s="234"/>
-      <c r="J69" s="234"/>
-      <c r="K69" s="234"/>
-      <c r="L69" s="234"/>
-      <c r="M69" s="234"/>
-      <c r="N69" s="234"/>
-      <c r="O69" s="234"/>
-      <c r="P69" s="234"/>
-      <c r="Q69" s="234"/>
-      <c r="R69" s="234"/>
-      <c r="S69" s="234"/>
-      <c r="T69" s="234"/>
-      <c r="U69" s="234"/>
-      <c r="V69" s="234"/>
-      <c r="W69" s="234"/>
-      <c r="X69" s="234"/>
-      <c r="Y69" s="234"/>
-      <c r="Z69" s="234"/>
-      <c r="AA69" s="234"/>
-      <c r="AB69" s="234"/>
-      <c r="AC69" s="234"/>
-      <c r="AD69" s="234"/>
-      <c r="AE69" s="234"/>
-      <c r="AF69" s="234"/>
-      <c r="AG69" s="234"/>
-      <c r="AH69" s="234"/>
-      <c r="AI69" s="234"/>
-      <c r="AJ69" s="234"/>
-      <c r="AK69" s="234"/>
-      <c r="AL69" s="234"/>
-      <c r="AM69" s="234"/>
-      <c r="AN69" s="234"/>
-      <c r="AO69" s="234"/>
-      <c r="AP69" s="234"/>
-      <c r="AQ69" s="234"/>
-      <c r="AR69" s="234"/>
-      <c r="AS69" s="234"/>
-      <c r="AT69" s="234"/>
-      <c r="AU69" s="234"/>
-      <c r="AV69" s="234"/>
-      <c r="AW69" s="234"/>
-      <c r="AX69" s="234"/>
-      <c r="AY69" s="234"/>
-      <c r="AZ69" s="234"/>
-      <c r="BA69" s="234"/>
-      <c r="BB69" s="234"/>
-      <c r="BC69" s="234"/>
-      <c r="BD69" s="234"/>
-      <c r="BE69" s="234"/>
-      <c r="BF69" s="234"/>
-      <c r="BG69" s="234"/>
-      <c r="BH69" s="234"/>
-      <c r="BI69" s="234"/>
-      <c r="BJ69" s="234"/>
-      <c r="BK69" s="234"/>
-      <c r="BL69" s="234"/>
-      <c r="BM69" s="234"/>
-      <c r="BN69" s="234"/>
-      <c r="BO69" s="234"/>
-      <c r="BP69" s="234"/>
-      <c r="BQ69" s="234"/>
-      <c r="BR69" s="234"/>
-      <c r="BS69" s="234"/>
-      <c r="BT69" s="234"/>
-      <c r="BU69" s="234"/>
-      <c r="BV69" s="234"/>
-      <c r="BW69" s="234"/>
-      <c r="BX69" s="234"/>
-      <c r="BY69" s="234"/>
-      <c r="BZ69" s="234"/>
-      <c r="CA69" s="234"/>
-      <c r="CB69" s="234"/>
-      <c r="CC69" s="234"/>
-      <c r="CD69" s="234"/>
-      <c r="CE69" s="234"/>
-      <c r="CF69" s="234"/>
-      <c r="CG69" s="234"/>
-      <c r="CH69" s="234"/>
-      <c r="CI69" s="234"/>
-      <c r="CJ69" s="234"/>
-      <c r="CK69" s="234"/>
-      <c r="CL69" s="234"/>
-      <c r="CM69" s="234"/>
-      <c r="CN69" s="234"/>
-      <c r="CO69" s="234"/>
-      <c r="CP69" s="234"/>
-      <c r="CQ69" s="234"/>
-      <c r="CR69" s="234"/>
-      <c r="CS69" s="234"/>
-      <c r="CT69" s="234"/>
-      <c r="CU69" s="234"/>
-      <c r="CV69" s="234"/>
-      <c r="CW69" s="234"/>
-      <c r="CX69" s="234"/>
-      <c r="CY69" s="234"/>
-      <c r="CZ69" s="234"/>
-      <c r="DA69" s="234"/>
-      <c r="DB69" s="234"/>
-      <c r="DC69" s="234"/>
-      <c r="DD69" s="234"/>
-      <c r="DE69" s="234"/>
-      <c r="DF69" s="234"/>
-      <c r="DG69" s="234"/>
-      <c r="DH69" s="234"/>
-      <c r="DI69" s="234"/>
-      <c r="DJ69" s="234"/>
-      <c r="DK69" s="234"/>
-      <c r="DL69" s="234"/>
-      <c r="DM69" s="234"/>
-      <c r="DN69" s="234"/>
-      <c r="DO69" s="234"/>
-      <c r="DP69" s="234"/>
-      <c r="DQ69" s="234"/>
-      <c r="DR69" s="234"/>
-      <c r="DS69" s="234"/>
-      <c r="DT69" s="234"/>
-      <c r="DU69" s="234"/>
-      <c r="DV69" s="234"/>
-      <c r="DW69" s="234"/>
-      <c r="DX69" s="234"/>
-      <c r="DY69" s="234"/>
-      <c r="DZ69" s="234"/>
-      <c r="EA69" s="234"/>
-      <c r="EB69" s="234"/>
-      <c r="EC69" s="234"/>
-      <c r="ED69" s="234"/>
-      <c r="EE69" s="234"/>
-      <c r="EF69" s="234"/>
-      <c r="EG69" s="234"/>
-      <c r="EH69" s="234"/>
-      <c r="EI69" s="234"/>
-      <c r="EJ69" s="234"/>
-      <c r="EK69" s="234"/>
-      <c r="EL69" s="234"/>
-      <c r="EM69" s="234"/>
-      <c r="EN69" s="234"/>
-      <c r="EO69" s="234"/>
-      <c r="EP69" s="234"/>
+      <c r="A69" s="243"/>
+      <c r="B69" s="243"/>
+      <c r="C69" s="243"/>
+      <c r="D69" s="243"/>
+      <c r="E69" s="243"/>
+      <c r="F69" s="243"/>
+      <c r="G69" s="243"/>
+      <c r="H69" s="243"/>
+      <c r="I69" s="243"/>
+      <c r="J69" s="243"/>
+      <c r="K69" s="243"/>
+      <c r="L69" s="243"/>
+      <c r="M69" s="243"/>
+      <c r="N69" s="243"/>
+      <c r="O69" s="243"/>
+      <c r="P69" s="243"/>
+      <c r="Q69" s="243"/>
+      <c r="R69" s="243"/>
+      <c r="S69" s="243"/>
+      <c r="T69" s="243"/>
+      <c r="U69" s="243"/>
+      <c r="V69" s="243"/>
+      <c r="W69" s="243"/>
+      <c r="X69" s="243"/>
+      <c r="Y69" s="243"/>
+      <c r="Z69" s="243"/>
+      <c r="AA69" s="243"/>
+      <c r="AB69" s="243"/>
+      <c r="AC69" s="243"/>
+      <c r="AD69" s="243"/>
+      <c r="AE69" s="243"/>
+      <c r="AF69" s="243"/>
+      <c r="AG69" s="243"/>
+      <c r="AH69" s="243"/>
+      <c r="AI69" s="243"/>
+      <c r="AJ69" s="243"/>
+      <c r="AK69" s="243"/>
+      <c r="AL69" s="243"/>
+      <c r="AM69" s="243"/>
+      <c r="AN69" s="243"/>
+      <c r="AO69" s="243"/>
+      <c r="AP69" s="243"/>
+      <c r="AQ69" s="243"/>
+      <c r="AR69" s="243"/>
+      <c r="AS69" s="243"/>
+      <c r="AT69" s="243"/>
+      <c r="AU69" s="243"/>
+      <c r="AV69" s="243"/>
+      <c r="AW69" s="243"/>
+      <c r="AX69" s="243"/>
+      <c r="AY69" s="243"/>
+      <c r="AZ69" s="243"/>
+      <c r="BA69" s="243"/>
+      <c r="BB69" s="243"/>
+      <c r="BC69" s="243"/>
+      <c r="BD69" s="243"/>
+      <c r="BE69" s="243"/>
+      <c r="BF69" s="243"/>
+      <c r="BG69" s="243"/>
+      <c r="BH69" s="243"/>
+      <c r="BI69" s="243"/>
+      <c r="BJ69" s="243"/>
+      <c r="BK69" s="243"/>
+      <c r="BL69" s="243"/>
+      <c r="BM69" s="243"/>
+      <c r="BN69" s="243"/>
+      <c r="BO69" s="243"/>
+      <c r="BP69" s="243"/>
+      <c r="BQ69" s="243"/>
+      <c r="BR69" s="243"/>
+      <c r="BS69" s="243"/>
+      <c r="BT69" s="243"/>
+      <c r="BU69" s="243"/>
+      <c r="BV69" s="243"/>
+      <c r="BW69" s="243"/>
+      <c r="BX69" s="243"/>
+      <c r="BY69" s="243"/>
+      <c r="BZ69" s="243"/>
+      <c r="CA69" s="243"/>
+      <c r="CB69" s="243"/>
+      <c r="CC69" s="243"/>
+      <c r="CD69" s="243"/>
+      <c r="CE69" s="243"/>
+      <c r="CF69" s="243"/>
+      <c r="CG69" s="243"/>
+      <c r="CH69" s="243"/>
+      <c r="CI69" s="243"/>
+      <c r="CJ69" s="243"/>
+      <c r="CK69" s="243"/>
+      <c r="CL69" s="243"/>
+      <c r="CM69" s="243"/>
+      <c r="CN69" s="243"/>
+      <c r="CO69" s="243"/>
+      <c r="CP69" s="243"/>
+      <c r="CQ69" s="243"/>
+      <c r="CR69" s="243"/>
+      <c r="CS69" s="243"/>
+      <c r="CT69" s="243"/>
+      <c r="CU69" s="243"/>
+      <c r="CV69" s="243"/>
+      <c r="CW69" s="243"/>
+      <c r="CX69" s="243"/>
+      <c r="CY69" s="243"/>
+      <c r="CZ69" s="243"/>
+      <c r="DA69" s="243"/>
+      <c r="DB69" s="243"/>
+      <c r="DC69" s="243"/>
+      <c r="DD69" s="243"/>
+      <c r="DE69" s="243"/>
+      <c r="DF69" s="243"/>
+      <c r="DG69" s="243"/>
+      <c r="DH69" s="243"/>
+      <c r="DI69" s="243"/>
+      <c r="DJ69" s="243"/>
+      <c r="DK69" s="243"/>
+      <c r="DL69" s="243"/>
+      <c r="DM69" s="243"/>
+      <c r="DN69" s="243"/>
+      <c r="DO69" s="243"/>
+      <c r="DP69" s="243"/>
+      <c r="DQ69" s="243"/>
+      <c r="DR69" s="243"/>
+      <c r="DS69" s="243"/>
+      <c r="DT69" s="243"/>
+      <c r="DU69" s="243"/>
+      <c r="DV69" s="243"/>
+      <c r="DW69" s="243"/>
+      <c r="DX69" s="243"/>
+      <c r="DY69" s="243"/>
+      <c r="DZ69" s="243"/>
+      <c r="EA69" s="243"/>
+      <c r="EB69" s="243"/>
+      <c r="EC69" s="243"/>
+      <c r="ED69" s="243"/>
+      <c r="EE69" s="243"/>
+      <c r="EF69" s="243"/>
+      <c r="EG69" s="243"/>
+      <c r="EH69" s="243"/>
+      <c r="EI69" s="243"/>
+      <c r="EJ69" s="243"/>
+      <c r="EK69" s="243"/>
+      <c r="EL69" s="243"/>
+      <c r="EM69" s="243"/>
+      <c r="EN69" s="243"/>
+      <c r="EO69" s="243"/>
+      <c r="EP69" s="243"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AI13:AM13"/>
-    <mergeCell ref="AP13:AT13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="BY11:EP11"/>
-    <mergeCell ref="DV13:DZ13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="BD13:BH13"/>
-    <mergeCell ref="BK13:BO13"/>
-    <mergeCell ref="BR13:BV13"/>
-    <mergeCell ref="BY13:CC13"/>
-    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="A69:EP69"/>
+    <mergeCell ref="EA14:EB14"/>
+    <mergeCell ref="EC14:EG14"/>
+    <mergeCell ref="EH14:EI14"/>
+    <mergeCell ref="EJ14:EN14"/>
+    <mergeCell ref="EO14:EP14"/>
+    <mergeCell ref="A67:AM67"/>
+    <mergeCell ref="BR67:EP67"/>
+    <mergeCell ref="DF14:DG14"/>
+    <mergeCell ref="DH14:DL14"/>
+    <mergeCell ref="DM14:DN14"/>
+    <mergeCell ref="DO14:DS14"/>
+    <mergeCell ref="DT14:DU14"/>
+    <mergeCell ref="DV14:DZ14"/>
+    <mergeCell ref="CK14:CL14"/>
+    <mergeCell ref="CM14:CQ14"/>
+    <mergeCell ref="CR14:CS14"/>
+    <mergeCell ref="CT14:CX14"/>
+    <mergeCell ref="CY14:CZ14"/>
+    <mergeCell ref="DA14:DE14"/>
+    <mergeCell ref="BP14:BQ14"/>
+    <mergeCell ref="BR14:BV14"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BY14:CC14"/>
+    <mergeCell ref="CD14:CE14"/>
+    <mergeCell ref="CF14:CJ14"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BD14:BH14"/>
+    <mergeCell ref="BI14:BJ14"/>
     <mergeCell ref="BK14:BO14"/>
     <mergeCell ref="EC13:EG13"/>
     <mergeCell ref="EJ13:EN13"/>
@@ -21601,37 +21615,23 @@
     <mergeCell ref="DA13:DE13"/>
     <mergeCell ref="DH13:DL13"/>
     <mergeCell ref="DO13:DS13"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BD14:BH14"/>
-    <mergeCell ref="BI14:BJ14"/>
-    <mergeCell ref="CR14:CS14"/>
-    <mergeCell ref="CT14:CX14"/>
-    <mergeCell ref="CY14:CZ14"/>
-    <mergeCell ref="DA14:DE14"/>
-    <mergeCell ref="BP14:BQ14"/>
-    <mergeCell ref="BR14:BV14"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BY14:CC14"/>
-    <mergeCell ref="CD14:CE14"/>
-    <mergeCell ref="CF14:CJ14"/>
-    <mergeCell ref="A69:EP69"/>
-    <mergeCell ref="EA14:EB14"/>
-    <mergeCell ref="EC14:EG14"/>
-    <mergeCell ref="EH14:EI14"/>
-    <mergeCell ref="EJ14:EN14"/>
-    <mergeCell ref="EO14:EP14"/>
-    <mergeCell ref="A67:AM67"/>
-    <mergeCell ref="BR67:EP67"/>
-    <mergeCell ref="DF14:DG14"/>
-    <mergeCell ref="DH14:DL14"/>
-    <mergeCell ref="DM14:DN14"/>
-    <mergeCell ref="DO14:DS14"/>
-    <mergeCell ref="DT14:DU14"/>
-    <mergeCell ref="DV14:DZ14"/>
-    <mergeCell ref="CK14:CL14"/>
-    <mergeCell ref="CM14:CQ14"/>
+    <mergeCell ref="DV13:DZ13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="BD13:BH13"/>
+    <mergeCell ref="BK13:BO13"/>
+    <mergeCell ref="BR13:BV13"/>
+    <mergeCell ref="BY13:CC13"/>
+    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="BY11:EP11"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AI13:AM13"/>
+    <mergeCell ref="AP13:AT13"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H40:H44 H29:H31 H33:H37 H46:H65">
     <cfRule type="expression" dxfId="109" priority="112">

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -3349,10 +3349,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="U4" sqref="U4"/>
+      <selection pane="topRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -13713,19 +13713,19 @@
       </c>
       <c r="J23" s="80">
         <f>AVERAGE(J24:J28)</f>
-        <v>0.42499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M23" s="229">
         <f t="shared" si="24"/>
-        <v>42105</v>
+        <v>42107</v>
       </c>
       <c r="N23" s="206"/>
       <c r="O23" s="83"/>
@@ -13886,19 +13886,19 @@
         <v>42103</v>
       </c>
       <c r="J24" s="80">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="K24" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="L24" s="228">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M24" s="229">
         <f t="shared" si="24"/>
-        <v>42101</v>
+        <v>42102</v>
       </c>
       <c r="N24" s="206"/>
       <c r="O24" s="83"/>
@@ -14232,19 +14232,19 @@
         <v>42113</v>
       </c>
       <c r="J26" s="80">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" s="229">
         <f t="shared" si="24"/>
-        <v>42108</v>
+        <v>42109</v>
       </c>
       <c r="N26" s="206"/>
       <c r="O26" s="83"/>

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22500" yWindow="0" windowWidth="27300" windowHeight="12420"/>
+    <workbookView xWindow="24000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -2093,6 +2093,27 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2118,27 +2139,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3349,10 +3349,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="J24" sqref="J24"/>
+      <selection pane="topRight" activeCell="BH37" sqref="BH37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7935,10 +7935,10 @@
       <c r="G7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="235">
+      <c r="H7" s="242">
         <v>42088</v>
       </c>
-      <c r="I7" s="235"/>
+      <c r="I7" s="242"/>
       <c r="K7" s="27"/>
       <c r="L7" s="217"/>
       <c r="M7" s="217"/>
@@ -10200,17 +10200,17 @@
       <c r="ACA9" s="34"/>
     </row>
     <row r="10" spans="1:755" s="22" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
-      <c r="B10" s="236"/>
+      <c r="A10" s="243"/>
+      <c r="B10" s="243"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="237"/>
-      <c r="G10" s="237"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
       <c r="L10" s="220"/>
       <c r="M10" s="220"/>
       <c r="N10" s="201"/>
@@ -10957,19 +10957,19 @@
       <c r="ACA10" s="34"/>
     </row>
     <row r="11" spans="1:755" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="238" t="s">
+      <c r="A11" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="239"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="239"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
+      <c r="B11" s="246"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="246"/>
       <c r="L11" s="221"/>
       <c r="M11" s="221"/>
       <c r="N11" s="202"/>
@@ -11035,78 +11035,78 @@
       <c r="BV11" s="36"/>
       <c r="BW11" s="36"/>
       <c r="BX11" s="36"/>
-      <c r="BY11" s="240" t="s">
+      <c r="BY11" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="BZ11" s="240"/>
-      <c r="CA11" s="240"/>
-      <c r="CB11" s="240"/>
-      <c r="CC11" s="240"/>
-      <c r="CD11" s="240"/>
-      <c r="CE11" s="240"/>
-      <c r="CF11" s="240"/>
-      <c r="CG11" s="240"/>
-      <c r="CH11" s="240"/>
-      <c r="CI11" s="240"/>
-      <c r="CJ11" s="240"/>
-      <c r="CK11" s="240"/>
-      <c r="CL11" s="240"/>
-      <c r="CM11" s="240"/>
-      <c r="CN11" s="240"/>
-      <c r="CO11" s="240"/>
-      <c r="CP11" s="240"/>
-      <c r="CQ11" s="240"/>
-      <c r="CR11" s="240"/>
-      <c r="CS11" s="240"/>
-      <c r="CT11" s="240"/>
-      <c r="CU11" s="240"/>
-      <c r="CV11" s="240"/>
-      <c r="CW11" s="240"/>
-      <c r="CX11" s="240"/>
-      <c r="CY11" s="240"/>
-      <c r="CZ11" s="240"/>
-      <c r="DA11" s="240"/>
-      <c r="DB11" s="240"/>
-      <c r="DC11" s="240"/>
-      <c r="DD11" s="240"/>
-      <c r="DE11" s="240"/>
-      <c r="DF11" s="240"/>
-      <c r="DG11" s="240"/>
-      <c r="DH11" s="240"/>
-      <c r="DI11" s="240"/>
-      <c r="DJ11" s="240"/>
-      <c r="DK11" s="240"/>
-      <c r="DL11" s="240"/>
-      <c r="DM11" s="240"/>
-      <c r="DN11" s="240"/>
-      <c r="DO11" s="240"/>
-      <c r="DP11" s="240"/>
-      <c r="DQ11" s="240"/>
-      <c r="DR11" s="240"/>
-      <c r="DS11" s="240"/>
-      <c r="DT11" s="240"/>
-      <c r="DU11" s="240"/>
-      <c r="DV11" s="240"/>
-      <c r="DW11" s="240"/>
-      <c r="DX11" s="240"/>
-      <c r="DY11" s="240"/>
-      <c r="DZ11" s="240"/>
-      <c r="EA11" s="240"/>
-      <c r="EB11" s="240"/>
-      <c r="EC11" s="240"/>
-      <c r="ED11" s="240"/>
-      <c r="EE11" s="240"/>
-      <c r="EF11" s="240"/>
-      <c r="EG11" s="240"/>
-      <c r="EH11" s="240"/>
-      <c r="EI11" s="240"/>
-      <c r="EJ11" s="240"/>
-      <c r="EK11" s="240"/>
-      <c r="EL11" s="240"/>
-      <c r="EM11" s="240"/>
-      <c r="EN11" s="240"/>
-      <c r="EO11" s="240"/>
-      <c r="EP11" s="241"/>
+      <c r="BZ11" s="247"/>
+      <c r="CA11" s="247"/>
+      <c r="CB11" s="247"/>
+      <c r="CC11" s="247"/>
+      <c r="CD11" s="247"/>
+      <c r="CE11" s="247"/>
+      <c r="CF11" s="247"/>
+      <c r="CG11" s="247"/>
+      <c r="CH11" s="247"/>
+      <c r="CI11" s="247"/>
+      <c r="CJ11" s="247"/>
+      <c r="CK11" s="247"/>
+      <c r="CL11" s="247"/>
+      <c r="CM11" s="247"/>
+      <c r="CN11" s="247"/>
+      <c r="CO11" s="247"/>
+      <c r="CP11" s="247"/>
+      <c r="CQ11" s="247"/>
+      <c r="CR11" s="247"/>
+      <c r="CS11" s="247"/>
+      <c r="CT11" s="247"/>
+      <c r="CU11" s="247"/>
+      <c r="CV11" s="247"/>
+      <c r="CW11" s="247"/>
+      <c r="CX11" s="247"/>
+      <c r="CY11" s="247"/>
+      <c r="CZ11" s="247"/>
+      <c r="DA11" s="247"/>
+      <c r="DB11" s="247"/>
+      <c r="DC11" s="247"/>
+      <c r="DD11" s="247"/>
+      <c r="DE11" s="247"/>
+      <c r="DF11" s="247"/>
+      <c r="DG11" s="247"/>
+      <c r="DH11" s="247"/>
+      <c r="DI11" s="247"/>
+      <c r="DJ11" s="247"/>
+      <c r="DK11" s="247"/>
+      <c r="DL11" s="247"/>
+      <c r="DM11" s="247"/>
+      <c r="DN11" s="247"/>
+      <c r="DO11" s="247"/>
+      <c r="DP11" s="247"/>
+      <c r="DQ11" s="247"/>
+      <c r="DR11" s="247"/>
+      <c r="DS11" s="247"/>
+      <c r="DT11" s="247"/>
+      <c r="DU11" s="247"/>
+      <c r="DV11" s="247"/>
+      <c r="DW11" s="247"/>
+      <c r="DX11" s="247"/>
+      <c r="DY11" s="247"/>
+      <c r="DZ11" s="247"/>
+      <c r="EA11" s="247"/>
+      <c r="EB11" s="247"/>
+      <c r="EC11" s="247"/>
+      <c r="ED11" s="247"/>
+      <c r="EE11" s="247"/>
+      <c r="EF11" s="247"/>
+      <c r="EG11" s="247"/>
+      <c r="EH11" s="247"/>
+      <c r="EI11" s="247"/>
+      <c r="EJ11" s="247"/>
+      <c r="EK11" s="247"/>
+      <c r="EL11" s="247"/>
+      <c r="EM11" s="247"/>
+      <c r="EN11" s="247"/>
+      <c r="EO11" s="247"/>
+      <c r="EP11" s="248"/>
     </row>
     <row r="12" spans="1:755" s="37" customFormat="1" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -11669,194 +11669,194 @@
       <c r="K13" s="44"/>
       <c r="L13" s="223"/>
       <c r="M13" s="223"/>
-      <c r="N13" s="234" t="str">
+      <c r="N13" s="241" t="str">
         <f>"KW " &amp; TRUNC((N12-DATE(YEAR(N12+3-MOD(N12-2,7)),1,MOD(N12-2,7)-9))/7)</f>
         <v>KW 13</v>
       </c>
-      <c r="O13" s="234"/>
-      <c r="P13" s="234"/>
-      <c r="Q13" s="234"/>
-      <c r="R13" s="234"/>
+      <c r="O13" s="241"/>
+      <c r="P13" s="241"/>
+      <c r="Q13" s="241"/>
+      <c r="R13" s="241"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="234" t="str">
+      <c r="U13" s="241" t="str">
         <f t="shared" ref="U13" si="3">"KW " &amp; TRUNC((U12-DATE(YEAR(U12+3-MOD(U12-2,7)),1,MOD(U12-2,7)-9))/7)</f>
         <v>KW 14</v>
       </c>
-      <c r="V13" s="234"/>
-      <c r="W13" s="234"/>
-      <c r="X13" s="234"/>
-      <c r="Y13" s="234"/>
+      <c r="V13" s="241"/>
+      <c r="W13" s="241"/>
+      <c r="X13" s="241"/>
+      <c r="Y13" s="241"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="46"/>
-      <c r="AB13" s="234" t="str">
+      <c r="AB13" s="241" t="str">
         <f t="shared" ref="AB13" si="4">"KW " &amp; TRUNC((AB12-DATE(YEAR(AB12+3-MOD(AB12-2,7)),1,MOD(AB12-2,7)-9))/7)</f>
         <v>KW 15</v>
       </c>
-      <c r="AC13" s="234"/>
-      <c r="AD13" s="234"/>
-      <c r="AE13" s="234"/>
-      <c r="AF13" s="234"/>
+      <c r="AC13" s="241"/>
+      <c r="AD13" s="241"/>
+      <c r="AE13" s="241"/>
+      <c r="AF13" s="241"/>
       <c r="AG13" s="46"/>
       <c r="AH13" s="46"/>
-      <c r="AI13" s="234" t="str">
+      <c r="AI13" s="241" t="str">
         <f t="shared" ref="AI13" si="5">"KW " &amp; TRUNC((AI12-DATE(YEAR(AI12+3-MOD(AI12-2,7)),1,MOD(AI12-2,7)-9))/7)</f>
         <v>KW 16</v>
       </c>
-      <c r="AJ13" s="234"/>
-      <c r="AK13" s="234"/>
-      <c r="AL13" s="234"/>
-      <c r="AM13" s="234"/>
+      <c r="AJ13" s="241"/>
+      <c r="AK13" s="241"/>
+      <c r="AL13" s="241"/>
+      <c r="AM13" s="241"/>
       <c r="AN13" s="46"/>
       <c r="AO13" s="46"/>
-      <c r="AP13" s="234" t="str">
+      <c r="AP13" s="241" t="str">
         <f t="shared" ref="AP13" si="6">"KW " &amp; TRUNC((AP12-DATE(YEAR(AP12+3-MOD(AP12-2,7)),1,MOD(AP12-2,7)-9))/7)</f>
         <v>KW 17</v>
       </c>
-      <c r="AQ13" s="234"/>
-      <c r="AR13" s="234"/>
-      <c r="AS13" s="234"/>
-      <c r="AT13" s="234"/>
+      <c r="AQ13" s="241"/>
+      <c r="AR13" s="241"/>
+      <c r="AS13" s="241"/>
+      <c r="AT13" s="241"/>
       <c r="AU13" s="46"/>
       <c r="AV13" s="46"/>
-      <c r="AW13" s="234" t="str">
+      <c r="AW13" s="241" t="str">
         <f t="shared" ref="AW13" si="7">"KW " &amp; TRUNC((AW12-DATE(YEAR(AW12+3-MOD(AW12-2,7)),1,MOD(AW12-2,7)-9))/7)</f>
         <v>KW 18</v>
       </c>
-      <c r="AX13" s="234"/>
-      <c r="AY13" s="234"/>
-      <c r="AZ13" s="234"/>
-      <c r="BA13" s="234"/>
+      <c r="AX13" s="241"/>
+      <c r="AY13" s="241"/>
+      <c r="AZ13" s="241"/>
+      <c r="BA13" s="241"/>
       <c r="BB13" s="46"/>
       <c r="BC13" s="46"/>
-      <c r="BD13" s="234" t="str">
+      <c r="BD13" s="241" t="str">
         <f t="shared" ref="BD13" si="8">"KW " &amp; TRUNC((BD12-DATE(YEAR(BD12+3-MOD(BD12-2,7)),1,MOD(BD12-2,7)-9))/7)</f>
         <v>KW 19</v>
       </c>
-      <c r="BE13" s="234"/>
-      <c r="BF13" s="234"/>
-      <c r="BG13" s="234"/>
-      <c r="BH13" s="234"/>
+      <c r="BE13" s="241"/>
+      <c r="BF13" s="241"/>
+      <c r="BG13" s="241"/>
+      <c r="BH13" s="241"/>
       <c r="BI13" s="46"/>
       <c r="BJ13" s="46"/>
-      <c r="BK13" s="234" t="str">
+      <c r="BK13" s="241" t="str">
         <f t="shared" ref="BK13" si="9">"KW " &amp; TRUNC((BK12-DATE(YEAR(BK12+3-MOD(BK12-2,7)),1,MOD(BK12-2,7)-9))/7)</f>
         <v>KW 20</v>
       </c>
-      <c r="BL13" s="234"/>
-      <c r="BM13" s="234"/>
-      <c r="BN13" s="234"/>
-      <c r="BO13" s="234"/>
+      <c r="BL13" s="241"/>
+      <c r="BM13" s="241"/>
+      <c r="BN13" s="241"/>
+      <c r="BO13" s="241"/>
       <c r="BP13" s="46"/>
       <c r="BQ13" s="46"/>
-      <c r="BR13" s="234" t="str">
+      <c r="BR13" s="241" t="str">
         <f t="shared" ref="BR13" si="10">"KW " &amp; TRUNC((BR12-DATE(YEAR(BR12+3-MOD(BR12-2,7)),1,MOD(BR12-2,7)-9))/7)</f>
         <v>KW 21</v>
       </c>
-      <c r="BS13" s="234"/>
-      <c r="BT13" s="234"/>
-      <c r="BU13" s="234"/>
-      <c r="BV13" s="234"/>
+      <c r="BS13" s="241"/>
+      <c r="BT13" s="241"/>
+      <c r="BU13" s="241"/>
+      <c r="BV13" s="241"/>
       <c r="BW13" s="46"/>
       <c r="BX13" s="46"/>
-      <c r="BY13" s="234" t="str">
+      <c r="BY13" s="241" t="str">
         <f t="shared" ref="BY13" si="11">"KW " &amp; TRUNC((BY12-DATE(YEAR(BY12+3-MOD(BY12-2,7)),1,MOD(BY12-2,7)-9))/7)</f>
         <v>KW 22</v>
       </c>
-      <c r="BZ13" s="234"/>
-      <c r="CA13" s="234"/>
-      <c r="CB13" s="234"/>
-      <c r="CC13" s="234"/>
+      <c r="BZ13" s="241"/>
+      <c r="CA13" s="241"/>
+      <c r="CB13" s="241"/>
+      <c r="CC13" s="241"/>
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
-      <c r="CF13" s="234" t="str">
+      <c r="CF13" s="241" t="str">
         <f t="shared" ref="CF13" si="12">"KW " &amp; TRUNC((CF12-DATE(YEAR(CF12+3-MOD(CF12-2,7)),1,MOD(CF12-2,7)-9))/7)</f>
         <v>KW 23</v>
       </c>
-      <c r="CG13" s="234"/>
-      <c r="CH13" s="234"/>
-      <c r="CI13" s="234"/>
-      <c r="CJ13" s="234"/>
+      <c r="CG13" s="241"/>
+      <c r="CH13" s="241"/>
+      <c r="CI13" s="241"/>
+      <c r="CJ13" s="241"/>
       <c r="CK13" s="46"/>
       <c r="CL13" s="46"/>
-      <c r="CM13" s="234" t="str">
+      <c r="CM13" s="241" t="str">
         <f t="shared" ref="CM13" si="13">"KW " &amp; TRUNC((CM12-DATE(YEAR(CM12+3-MOD(CM12-2,7)),1,MOD(CM12-2,7)-9))/7)</f>
         <v>KW 24</v>
       </c>
-      <c r="CN13" s="234"/>
-      <c r="CO13" s="234"/>
-      <c r="CP13" s="234"/>
-      <c r="CQ13" s="234"/>
+      <c r="CN13" s="241"/>
+      <c r="CO13" s="241"/>
+      <c r="CP13" s="241"/>
+      <c r="CQ13" s="241"/>
       <c r="CR13" s="46"/>
       <c r="CS13" s="46"/>
-      <c r="CT13" s="234" t="str">
+      <c r="CT13" s="241" t="str">
         <f t="shared" ref="CT13" si="14">"KW " &amp; TRUNC((CT12-DATE(YEAR(CT12+3-MOD(CT12-2,7)),1,MOD(CT12-2,7)-9))/7)</f>
         <v>KW 25</v>
       </c>
-      <c r="CU13" s="234"/>
-      <c r="CV13" s="234"/>
-      <c r="CW13" s="234"/>
-      <c r="CX13" s="234"/>
+      <c r="CU13" s="241"/>
+      <c r="CV13" s="241"/>
+      <c r="CW13" s="241"/>
+      <c r="CX13" s="241"/>
       <c r="CY13" s="46"/>
       <c r="CZ13" s="46"/>
-      <c r="DA13" s="234" t="str">
+      <c r="DA13" s="241" t="str">
         <f t="shared" ref="DA13" si="15">"KW " &amp; TRUNC((DA12-DATE(YEAR(DA12+3-MOD(DA12-2,7)),1,MOD(DA12-2,7)-9))/7)</f>
         <v>KW 26</v>
       </c>
-      <c r="DB13" s="234"/>
-      <c r="DC13" s="234"/>
-      <c r="DD13" s="234"/>
-      <c r="DE13" s="234"/>
+      <c r="DB13" s="241"/>
+      <c r="DC13" s="241"/>
+      <c r="DD13" s="241"/>
+      <c r="DE13" s="241"/>
       <c r="DF13" s="46"/>
       <c r="DG13" s="46"/>
-      <c r="DH13" s="234" t="str">
+      <c r="DH13" s="241" t="str">
         <f t="shared" ref="DH13" si="16">"KW " &amp; TRUNC((DH12-DATE(YEAR(DH12+3-MOD(DH12-2,7)),1,MOD(DH12-2,7)-9))/7)</f>
         <v>KW 27</v>
       </c>
-      <c r="DI13" s="234"/>
-      <c r="DJ13" s="234"/>
-      <c r="DK13" s="234"/>
-      <c r="DL13" s="234"/>
+      <c r="DI13" s="241"/>
+      <c r="DJ13" s="241"/>
+      <c r="DK13" s="241"/>
+      <c r="DL13" s="241"/>
       <c r="DM13" s="46"/>
       <c r="DN13" s="46"/>
-      <c r="DO13" s="234" t="str">
+      <c r="DO13" s="241" t="str">
         <f t="shared" ref="DO13" si="17">"KW " &amp; TRUNC((DO12-DATE(YEAR(DO12+3-MOD(DO12-2,7)),1,MOD(DO12-2,7)-9))/7)</f>
         <v>KW 28</v>
       </c>
-      <c r="DP13" s="234"/>
-      <c r="DQ13" s="234"/>
-      <c r="DR13" s="234"/>
-      <c r="DS13" s="234"/>
+      <c r="DP13" s="241"/>
+      <c r="DQ13" s="241"/>
+      <c r="DR13" s="241"/>
+      <c r="DS13" s="241"/>
       <c r="DT13" s="46"/>
       <c r="DU13" s="46"/>
-      <c r="DV13" s="234" t="str">
+      <c r="DV13" s="241" t="str">
         <f t="shared" ref="DV13" si="18">"KW " &amp; TRUNC((DV12-DATE(YEAR(DV12+3-MOD(DV12-2,7)),1,MOD(DV12-2,7)-9))/7)</f>
         <v>KW 29</v>
       </c>
-      <c r="DW13" s="234"/>
-      <c r="DX13" s="234"/>
-      <c r="DY13" s="234"/>
-      <c r="DZ13" s="234"/>
+      <c r="DW13" s="241"/>
+      <c r="DX13" s="241"/>
+      <c r="DY13" s="241"/>
+      <c r="DZ13" s="241"/>
       <c r="EA13" s="46"/>
       <c r="EB13" s="46"/>
-      <c r="EC13" s="234" t="str">
+      <c r="EC13" s="241" t="str">
         <f t="shared" ref="EC13" si="19">"KW " &amp; TRUNC((EC12-DATE(YEAR(EC12+3-MOD(EC12-2,7)),1,MOD(EC12-2,7)-9))/7)</f>
         <v>KW 30</v>
       </c>
-      <c r="ED13" s="234"/>
-      <c r="EE13" s="234"/>
-      <c r="EF13" s="234"/>
-      <c r="EG13" s="234"/>
+      <c r="ED13" s="241"/>
+      <c r="EE13" s="241"/>
+      <c r="EF13" s="241"/>
+      <c r="EG13" s="241"/>
       <c r="EH13" s="46"/>
       <c r="EI13" s="46"/>
-      <c r="EJ13" s="234" t="str">
+      <c r="EJ13" s="241" t="str">
         <f t="shared" ref="EJ13" si="20">"KW " &amp; TRUNC((EJ12-DATE(YEAR(EJ12+3-MOD(EJ12-2,7)),1,MOD(EJ12-2,7)-9))/7)</f>
         <v>KW 31</v>
       </c>
-      <c r="EK13" s="234"/>
-      <c r="EL13" s="234"/>
-      <c r="EM13" s="234"/>
-      <c r="EN13" s="234"/>
+      <c r="EK13" s="241"/>
+      <c r="EL13" s="241"/>
+      <c r="EM13" s="241"/>
+      <c r="EN13" s="241"/>
       <c r="EO13" s="46"/>
       <c r="EP13" s="47"/>
     </row>
@@ -11898,196 +11898,196 @@
       <c r="M14" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="242">
+      <c r="N14" s="235">
         <f>N12</f>
         <v>42086</v>
       </c>
-      <c r="O14" s="242"/>
-      <c r="P14" s="242"/>
-      <c r="Q14" s="242"/>
-      <c r="R14" s="242"/>
+      <c r="O14" s="235"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="235"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
-      <c r="U14" s="242">
+      <c r="U14" s="235">
         <f>U12</f>
         <v>42093</v>
       </c>
-      <c r="V14" s="242"/>
-      <c r="W14" s="242"/>
-      <c r="X14" s="242"/>
-      <c r="Y14" s="242"/>
-      <c r="Z14" s="242"/>
-      <c r="AA14" s="242"/>
-      <c r="AB14" s="242">
+      <c r="V14" s="235"/>
+      <c r="W14" s="235"/>
+      <c r="X14" s="235"/>
+      <c r="Y14" s="235"/>
+      <c r="Z14" s="235"/>
+      <c r="AA14" s="235"/>
+      <c r="AB14" s="235">
         <f>AB12</f>
         <v>42100</v>
       </c>
-      <c r="AC14" s="242"/>
-      <c r="AD14" s="242"/>
-      <c r="AE14" s="242"/>
-      <c r="AF14" s="242"/>
-      <c r="AG14" s="242"/>
-      <c r="AH14" s="242"/>
-      <c r="AI14" s="242">
+      <c r="AC14" s="235"/>
+      <c r="AD14" s="235"/>
+      <c r="AE14" s="235"/>
+      <c r="AF14" s="235"/>
+      <c r="AG14" s="235"/>
+      <c r="AH14" s="235"/>
+      <c r="AI14" s="235">
         <f>AI12</f>
         <v>42107</v>
       </c>
-      <c r="AJ14" s="242"/>
-      <c r="AK14" s="242"/>
-      <c r="AL14" s="242"/>
-      <c r="AM14" s="242"/>
-      <c r="AN14" s="242"/>
-      <c r="AO14" s="242"/>
-      <c r="AP14" s="242">
+      <c r="AJ14" s="235"/>
+      <c r="AK14" s="235"/>
+      <c r="AL14" s="235"/>
+      <c r="AM14" s="235"/>
+      <c r="AN14" s="235"/>
+      <c r="AO14" s="235"/>
+      <c r="AP14" s="235">
         <f>AP12</f>
         <v>42114</v>
       </c>
-      <c r="AQ14" s="242"/>
-      <c r="AR14" s="242"/>
-      <c r="AS14" s="242"/>
-      <c r="AT14" s="242"/>
-      <c r="AU14" s="242"/>
-      <c r="AV14" s="242"/>
-      <c r="AW14" s="242">
+      <c r="AQ14" s="235"/>
+      <c r="AR14" s="235"/>
+      <c r="AS14" s="235"/>
+      <c r="AT14" s="235"/>
+      <c r="AU14" s="235"/>
+      <c r="AV14" s="235"/>
+      <c r="AW14" s="235">
         <f>AW12</f>
         <v>42121</v>
       </c>
-      <c r="AX14" s="242"/>
-      <c r="AY14" s="242"/>
-      <c r="AZ14" s="242"/>
-      <c r="BA14" s="242"/>
-      <c r="BB14" s="242"/>
-      <c r="BC14" s="242"/>
-      <c r="BD14" s="242">
+      <c r="AX14" s="235"/>
+      <c r="AY14" s="235"/>
+      <c r="AZ14" s="235"/>
+      <c r="BA14" s="235"/>
+      <c r="BB14" s="235"/>
+      <c r="BC14" s="235"/>
+      <c r="BD14" s="235">
         <f>BD12</f>
         <v>42128</v>
       </c>
-      <c r="BE14" s="242"/>
-      <c r="BF14" s="242"/>
-      <c r="BG14" s="242"/>
-      <c r="BH14" s="242"/>
-      <c r="BI14" s="242"/>
-      <c r="BJ14" s="242"/>
-      <c r="BK14" s="242">
+      <c r="BE14" s="235"/>
+      <c r="BF14" s="235"/>
+      <c r="BG14" s="235"/>
+      <c r="BH14" s="235"/>
+      <c r="BI14" s="235"/>
+      <c r="BJ14" s="235"/>
+      <c r="BK14" s="235">
         <f>BK12</f>
         <v>42135</v>
       </c>
-      <c r="BL14" s="242"/>
-      <c r="BM14" s="242"/>
-      <c r="BN14" s="242"/>
-      <c r="BO14" s="242"/>
-      <c r="BP14" s="242"/>
-      <c r="BQ14" s="242"/>
-      <c r="BR14" s="242">
+      <c r="BL14" s="235"/>
+      <c r="BM14" s="235"/>
+      <c r="BN14" s="235"/>
+      <c r="BO14" s="235"/>
+      <c r="BP14" s="235"/>
+      <c r="BQ14" s="235"/>
+      <c r="BR14" s="235">
         <f>BR12</f>
         <v>42142</v>
       </c>
-      <c r="BS14" s="242"/>
-      <c r="BT14" s="242"/>
-      <c r="BU14" s="242"/>
-      <c r="BV14" s="242"/>
-      <c r="BW14" s="242"/>
-      <c r="BX14" s="242"/>
-      <c r="BY14" s="242">
+      <c r="BS14" s="235"/>
+      <c r="BT14" s="235"/>
+      <c r="BU14" s="235"/>
+      <c r="BV14" s="235"/>
+      <c r="BW14" s="235"/>
+      <c r="BX14" s="235"/>
+      <c r="BY14" s="235">
         <f>BY12</f>
         <v>42149</v>
       </c>
-      <c r="BZ14" s="242"/>
-      <c r="CA14" s="242"/>
-      <c r="CB14" s="242"/>
-      <c r="CC14" s="242"/>
-      <c r="CD14" s="242"/>
-      <c r="CE14" s="242"/>
-      <c r="CF14" s="242">
+      <c r="BZ14" s="235"/>
+      <c r="CA14" s="235"/>
+      <c r="CB14" s="235"/>
+      <c r="CC14" s="235"/>
+      <c r="CD14" s="235"/>
+      <c r="CE14" s="235"/>
+      <c r="CF14" s="235">
         <f>CF12</f>
         <v>42156</v>
       </c>
-      <c r="CG14" s="242"/>
-      <c r="CH14" s="242"/>
-      <c r="CI14" s="242"/>
-      <c r="CJ14" s="242"/>
-      <c r="CK14" s="242"/>
-      <c r="CL14" s="242"/>
-      <c r="CM14" s="242">
+      <c r="CG14" s="235"/>
+      <c r="CH14" s="235"/>
+      <c r="CI14" s="235"/>
+      <c r="CJ14" s="235"/>
+      <c r="CK14" s="235"/>
+      <c r="CL14" s="235"/>
+      <c r="CM14" s="235">
         <f>CM12</f>
         <v>42163</v>
       </c>
-      <c r="CN14" s="242"/>
-      <c r="CO14" s="242"/>
-      <c r="CP14" s="242"/>
-      <c r="CQ14" s="242"/>
-      <c r="CR14" s="242"/>
-      <c r="CS14" s="242"/>
-      <c r="CT14" s="242">
+      <c r="CN14" s="235"/>
+      <c r="CO14" s="235"/>
+      <c r="CP14" s="235"/>
+      <c r="CQ14" s="235"/>
+      <c r="CR14" s="235"/>
+      <c r="CS14" s="235"/>
+      <c r="CT14" s="235">
         <f>CT12</f>
         <v>42170</v>
       </c>
-      <c r="CU14" s="242"/>
-      <c r="CV14" s="242"/>
-      <c r="CW14" s="242"/>
-      <c r="CX14" s="242"/>
-      <c r="CY14" s="242"/>
-      <c r="CZ14" s="242"/>
-      <c r="DA14" s="242">
+      <c r="CU14" s="235"/>
+      <c r="CV14" s="235"/>
+      <c r="CW14" s="235"/>
+      <c r="CX14" s="235"/>
+      <c r="CY14" s="235"/>
+      <c r="CZ14" s="235"/>
+      <c r="DA14" s="235">
         <f>DA12</f>
         <v>42177</v>
       </c>
-      <c r="DB14" s="242"/>
-      <c r="DC14" s="242"/>
-      <c r="DD14" s="242"/>
-      <c r="DE14" s="242"/>
-      <c r="DF14" s="242"/>
-      <c r="DG14" s="242"/>
-      <c r="DH14" s="242">
+      <c r="DB14" s="235"/>
+      <c r="DC14" s="235"/>
+      <c r="DD14" s="235"/>
+      <c r="DE14" s="235"/>
+      <c r="DF14" s="235"/>
+      <c r="DG14" s="235"/>
+      <c r="DH14" s="235">
         <f>DH12</f>
         <v>42184</v>
       </c>
-      <c r="DI14" s="242"/>
-      <c r="DJ14" s="242"/>
-      <c r="DK14" s="242"/>
-      <c r="DL14" s="242"/>
-      <c r="DM14" s="242"/>
-      <c r="DN14" s="242"/>
-      <c r="DO14" s="242">
+      <c r="DI14" s="235"/>
+      <c r="DJ14" s="235"/>
+      <c r="DK14" s="235"/>
+      <c r="DL14" s="235"/>
+      <c r="DM14" s="235"/>
+      <c r="DN14" s="235"/>
+      <c r="DO14" s="235">
         <f>DO12</f>
         <v>42191</v>
       </c>
-      <c r="DP14" s="242"/>
-      <c r="DQ14" s="242"/>
-      <c r="DR14" s="242"/>
-      <c r="DS14" s="242"/>
-      <c r="DT14" s="242"/>
-      <c r="DU14" s="242"/>
-      <c r="DV14" s="242">
+      <c r="DP14" s="235"/>
+      <c r="DQ14" s="235"/>
+      <c r="DR14" s="235"/>
+      <c r="DS14" s="235"/>
+      <c r="DT14" s="235"/>
+      <c r="DU14" s="235"/>
+      <c r="DV14" s="235">
         <f>DV12</f>
         <v>42198</v>
       </c>
-      <c r="DW14" s="242"/>
-      <c r="DX14" s="242"/>
-      <c r="DY14" s="242"/>
-      <c r="DZ14" s="242"/>
-      <c r="EA14" s="242"/>
-      <c r="EB14" s="242"/>
-      <c r="EC14" s="242">
+      <c r="DW14" s="235"/>
+      <c r="DX14" s="235"/>
+      <c r="DY14" s="235"/>
+      <c r="DZ14" s="235"/>
+      <c r="EA14" s="235"/>
+      <c r="EB14" s="235"/>
+      <c r="EC14" s="235">
         <f>EC12</f>
         <v>42205</v>
       </c>
-      <c r="ED14" s="242"/>
-      <c r="EE14" s="242"/>
-      <c r="EF14" s="242"/>
-      <c r="EG14" s="242"/>
-      <c r="EH14" s="242"/>
-      <c r="EI14" s="242"/>
-      <c r="EJ14" s="242">
+      <c r="ED14" s="235"/>
+      <c r="EE14" s="235"/>
+      <c r="EF14" s="235"/>
+      <c r="EG14" s="235"/>
+      <c r="EH14" s="235"/>
+      <c r="EI14" s="235"/>
+      <c r="EJ14" s="235">
         <f>EJ12</f>
         <v>42212</v>
       </c>
-      <c r="EK14" s="242"/>
-      <c r="EL14" s="242"/>
-      <c r="EM14" s="242"/>
-      <c r="EN14" s="242"/>
-      <c r="EO14" s="242"/>
-      <c r="EP14" s="244"/>
+      <c r="EK14" s="235"/>
+      <c r="EL14" s="235"/>
+      <c r="EM14" s="235"/>
+      <c r="EN14" s="235"/>
+      <c r="EO14" s="235"/>
+      <c r="EP14" s="236"/>
       <c r="EQ14" s="48"/>
     </row>
     <row r="15" spans="1:755" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="K24" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="L24" s="228">
         <f t="shared" si="22"/>
@@ -14063,7 +14063,7 @@
       </c>
       <c r="K25" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="L25" s="228">
         <f t="shared" si="22"/>
@@ -14236,7 +14236,7 @@
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="K27" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="L27" s="228">
         <f t="shared" si="22"/>
@@ -14747,7 +14747,7 @@
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="K30" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30" s="228">
         <f t="shared" si="22"/>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
@@ -15266,7 +15266,7 @@
       </c>
       <c r="K32" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" s="228">
         <f t="shared" si="22"/>
@@ -15768,7 +15768,7 @@
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
@@ -15941,7 +15941,7 @@
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
@@ -16114,7 +16114,7 @@
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
@@ -16287,7 +16287,7 @@
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L38" s="228">
         <f t="shared" si="22"/>
@@ -16458,7 +16458,7 @@
       <c r="J39" s="80"/>
       <c r="K39" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L39" s="228">
         <f t="shared" si="22"/>
@@ -16630,7 +16630,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L40" s="228" t="str">
         <f t="shared" si="22"/>
@@ -16967,7 +16967,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17140,7 +17140,7 @@
       </c>
       <c r="K43" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L43" s="228">
         <f t="shared" si="22"/>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="K44" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L44" s="228">
         <f t="shared" si="22"/>
@@ -17486,7 +17486,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L48" s="228">
         <f t="shared" si="22"/>
@@ -18161,7 +18161,7 @@
       </c>
       <c r="K49" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L49" s="228">
         <f t="shared" si="22"/>
@@ -18334,7 +18334,7 @@
       </c>
       <c r="K50" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L50" s="228">
         <f t="shared" si="22"/>
@@ -18507,7 +18507,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -18679,7 +18679,7 @@
       </c>
       <c r="K52" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L52" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19180,7 +19180,7 @@
       </c>
       <c r="K55" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L55" s="228">
         <f t="shared" si="22"/>
@@ -21120,45 +21120,45 @@
       <c r="EQ66" s="37"/>
     </row>
     <row r="67" spans="1:147" s="3" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="245"/>
-      <c r="B67" s="246"/>
-      <c r="C67" s="246"/>
-      <c r="D67" s="246"/>
-      <c r="E67" s="246"/>
-      <c r="F67" s="246"/>
-      <c r="G67" s="246"/>
-      <c r="H67" s="246"/>
-      <c r="I67" s="246"/>
-      <c r="J67" s="246"/>
-      <c r="K67" s="246"/>
-      <c r="L67" s="246"/>
-      <c r="M67" s="246"/>
-      <c r="N67" s="246"/>
-      <c r="O67" s="246"/>
-      <c r="P67" s="246"/>
-      <c r="Q67" s="246"/>
-      <c r="R67" s="246"/>
-      <c r="S67" s="246"/>
-      <c r="T67" s="246"/>
-      <c r="U67" s="246"/>
-      <c r="V67" s="246"/>
-      <c r="W67" s="246"/>
-      <c r="X67" s="246"/>
-      <c r="Y67" s="246"/>
-      <c r="Z67" s="246"/>
-      <c r="AA67" s="246"/>
-      <c r="AB67" s="246"/>
-      <c r="AC67" s="246"/>
-      <c r="AD67" s="246"/>
-      <c r="AE67" s="246"/>
-      <c r="AF67" s="246"/>
-      <c r="AG67" s="246"/>
-      <c r="AH67" s="246"/>
-      <c r="AI67" s="246"/>
-      <c r="AJ67" s="246"/>
-      <c r="AK67" s="246"/>
-      <c r="AL67" s="246"/>
-      <c r="AM67" s="246"/>
+      <c r="A67" s="237"/>
+      <c r="B67" s="238"/>
+      <c r="C67" s="238"/>
+      <c r="D67" s="238"/>
+      <c r="E67" s="238"/>
+      <c r="F67" s="238"/>
+      <c r="G67" s="238"/>
+      <c r="H67" s="238"/>
+      <c r="I67" s="238"/>
+      <c r="J67" s="238"/>
+      <c r="K67" s="238"/>
+      <c r="L67" s="238"/>
+      <c r="M67" s="238"/>
+      <c r="N67" s="238"/>
+      <c r="O67" s="238"/>
+      <c r="P67" s="238"/>
+      <c r="Q67" s="238"/>
+      <c r="R67" s="238"/>
+      <c r="S67" s="238"/>
+      <c r="T67" s="238"/>
+      <c r="U67" s="238"/>
+      <c r="V67" s="238"/>
+      <c r="W67" s="238"/>
+      <c r="X67" s="238"/>
+      <c r="Y67" s="238"/>
+      <c r="Z67" s="238"/>
+      <c r="AA67" s="238"/>
+      <c r="AB67" s="238"/>
+      <c r="AC67" s="238"/>
+      <c r="AD67" s="238"/>
+      <c r="AE67" s="238"/>
+      <c r="AF67" s="238"/>
+      <c r="AG67" s="238"/>
+      <c r="AH67" s="238"/>
+      <c r="AI67" s="238"/>
+      <c r="AJ67" s="238"/>
+      <c r="AK67" s="238"/>
+      <c r="AL67" s="238"/>
+      <c r="AM67" s="238"/>
       <c r="AN67" s="100"/>
       <c r="AO67" s="100"/>
       <c r="AP67" s="100"/>
@@ -21189,85 +21189,85 @@
       <c r="BO67" s="100"/>
       <c r="BP67" s="100"/>
       <c r="BQ67" s="100"/>
-      <c r="BR67" s="247" t="s">
+      <c r="BR67" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="BS67" s="247"/>
-      <c r="BT67" s="247"/>
-      <c r="BU67" s="247"/>
-      <c r="BV67" s="247"/>
-      <c r="BW67" s="247"/>
-      <c r="BX67" s="247"/>
-      <c r="BY67" s="247"/>
-      <c r="BZ67" s="247"/>
-      <c r="CA67" s="247"/>
-      <c r="CB67" s="247"/>
-      <c r="CC67" s="247"/>
-      <c r="CD67" s="247"/>
-      <c r="CE67" s="247"/>
-      <c r="CF67" s="247"/>
-      <c r="CG67" s="247"/>
-      <c r="CH67" s="247"/>
-      <c r="CI67" s="247"/>
-      <c r="CJ67" s="247"/>
-      <c r="CK67" s="247"/>
-      <c r="CL67" s="247"/>
-      <c r="CM67" s="247"/>
-      <c r="CN67" s="247"/>
-      <c r="CO67" s="247"/>
-      <c r="CP67" s="247"/>
-      <c r="CQ67" s="247"/>
-      <c r="CR67" s="247"/>
-      <c r="CS67" s="247"/>
-      <c r="CT67" s="247"/>
-      <c r="CU67" s="247"/>
-      <c r="CV67" s="247"/>
-      <c r="CW67" s="247"/>
-      <c r="CX67" s="247"/>
-      <c r="CY67" s="247"/>
-      <c r="CZ67" s="247"/>
-      <c r="DA67" s="247"/>
-      <c r="DB67" s="247"/>
-      <c r="DC67" s="247"/>
-      <c r="DD67" s="247"/>
-      <c r="DE67" s="247"/>
-      <c r="DF67" s="247"/>
-      <c r="DG67" s="247"/>
-      <c r="DH67" s="247"/>
-      <c r="DI67" s="247"/>
-      <c r="DJ67" s="247"/>
-      <c r="DK67" s="247"/>
-      <c r="DL67" s="247"/>
-      <c r="DM67" s="247"/>
-      <c r="DN67" s="247"/>
-      <c r="DO67" s="247"/>
-      <c r="DP67" s="247"/>
-      <c r="DQ67" s="247"/>
-      <c r="DR67" s="247"/>
-      <c r="DS67" s="247"/>
-      <c r="DT67" s="247"/>
-      <c r="DU67" s="247"/>
-      <c r="DV67" s="247"/>
-      <c r="DW67" s="247"/>
-      <c r="DX67" s="247"/>
-      <c r="DY67" s="247"/>
-      <c r="DZ67" s="247"/>
-      <c r="EA67" s="247"/>
-      <c r="EB67" s="247"/>
-      <c r="EC67" s="247"/>
-      <c r="ED67" s="247"/>
-      <c r="EE67" s="247"/>
-      <c r="EF67" s="247"/>
-      <c r="EG67" s="247"/>
-      <c r="EH67" s="247"/>
-      <c r="EI67" s="247"/>
-      <c r="EJ67" s="247"/>
-      <c r="EK67" s="247"/>
-      <c r="EL67" s="247"/>
-      <c r="EM67" s="247"/>
-      <c r="EN67" s="247"/>
-      <c r="EO67" s="247"/>
-      <c r="EP67" s="248"/>
+      <c r="BS67" s="239"/>
+      <c r="BT67" s="239"/>
+      <c r="BU67" s="239"/>
+      <c r="BV67" s="239"/>
+      <c r="BW67" s="239"/>
+      <c r="BX67" s="239"/>
+      <c r="BY67" s="239"/>
+      <c r="BZ67" s="239"/>
+      <c r="CA67" s="239"/>
+      <c r="CB67" s="239"/>
+      <c r="CC67" s="239"/>
+      <c r="CD67" s="239"/>
+      <c r="CE67" s="239"/>
+      <c r="CF67" s="239"/>
+      <c r="CG67" s="239"/>
+      <c r="CH67" s="239"/>
+      <c r="CI67" s="239"/>
+      <c r="CJ67" s="239"/>
+      <c r="CK67" s="239"/>
+      <c r="CL67" s="239"/>
+      <c r="CM67" s="239"/>
+      <c r="CN67" s="239"/>
+      <c r="CO67" s="239"/>
+      <c r="CP67" s="239"/>
+      <c r="CQ67" s="239"/>
+      <c r="CR67" s="239"/>
+      <c r="CS67" s="239"/>
+      <c r="CT67" s="239"/>
+      <c r="CU67" s="239"/>
+      <c r="CV67" s="239"/>
+      <c r="CW67" s="239"/>
+      <c r="CX67" s="239"/>
+      <c r="CY67" s="239"/>
+      <c r="CZ67" s="239"/>
+      <c r="DA67" s="239"/>
+      <c r="DB67" s="239"/>
+      <c r="DC67" s="239"/>
+      <c r="DD67" s="239"/>
+      <c r="DE67" s="239"/>
+      <c r="DF67" s="239"/>
+      <c r="DG67" s="239"/>
+      <c r="DH67" s="239"/>
+      <c r="DI67" s="239"/>
+      <c r="DJ67" s="239"/>
+      <c r="DK67" s="239"/>
+      <c r="DL67" s="239"/>
+      <c r="DM67" s="239"/>
+      <c r="DN67" s="239"/>
+      <c r="DO67" s="239"/>
+      <c r="DP67" s="239"/>
+      <c r="DQ67" s="239"/>
+      <c r="DR67" s="239"/>
+      <c r="DS67" s="239"/>
+      <c r="DT67" s="239"/>
+      <c r="DU67" s="239"/>
+      <c r="DV67" s="239"/>
+      <c r="DW67" s="239"/>
+      <c r="DX67" s="239"/>
+      <c r="DY67" s="239"/>
+      <c r="DZ67" s="239"/>
+      <c r="EA67" s="239"/>
+      <c r="EB67" s="239"/>
+      <c r="EC67" s="239"/>
+      <c r="ED67" s="239"/>
+      <c r="EE67" s="239"/>
+      <c r="EF67" s="239"/>
+      <c r="EG67" s="239"/>
+      <c r="EH67" s="239"/>
+      <c r="EI67" s="239"/>
+      <c r="EJ67" s="239"/>
+      <c r="EK67" s="239"/>
+      <c r="EL67" s="239"/>
+      <c r="EM67" s="239"/>
+      <c r="EN67" s="239"/>
+      <c r="EO67" s="239"/>
+      <c r="EP67" s="240"/>
       <c r="EQ67" s="48"/>
     </row>
     <row r="68" spans="1:147" x14ac:dyDescent="0.25">
@@ -21419,155 +21419,203 @@
       <c r="EQ68" s="37"/>
     </row>
     <row r="69" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A69" s="243"/>
-      <c r="B69" s="243"/>
-      <c r="C69" s="243"/>
-      <c r="D69" s="243"/>
-      <c r="E69" s="243"/>
-      <c r="F69" s="243"/>
-      <c r="G69" s="243"/>
-      <c r="H69" s="243"/>
-      <c r="I69" s="243"/>
-      <c r="J69" s="243"/>
-      <c r="K69" s="243"/>
-      <c r="L69" s="243"/>
-      <c r="M69" s="243"/>
-      <c r="N69" s="243"/>
-      <c r="O69" s="243"/>
-      <c r="P69" s="243"/>
-      <c r="Q69" s="243"/>
-      <c r="R69" s="243"/>
-      <c r="S69" s="243"/>
-      <c r="T69" s="243"/>
-      <c r="U69" s="243"/>
-      <c r="V69" s="243"/>
-      <c r="W69" s="243"/>
-      <c r="X69" s="243"/>
-      <c r="Y69" s="243"/>
-      <c r="Z69" s="243"/>
-      <c r="AA69" s="243"/>
-      <c r="AB69" s="243"/>
-      <c r="AC69" s="243"/>
-      <c r="AD69" s="243"/>
-      <c r="AE69" s="243"/>
-      <c r="AF69" s="243"/>
-      <c r="AG69" s="243"/>
-      <c r="AH69" s="243"/>
-      <c r="AI69" s="243"/>
-      <c r="AJ69" s="243"/>
-      <c r="AK69" s="243"/>
-      <c r="AL69" s="243"/>
-      <c r="AM69" s="243"/>
-      <c r="AN69" s="243"/>
-      <c r="AO69" s="243"/>
-      <c r="AP69" s="243"/>
-      <c r="AQ69" s="243"/>
-      <c r="AR69" s="243"/>
-      <c r="AS69" s="243"/>
-      <c r="AT69" s="243"/>
-      <c r="AU69" s="243"/>
-      <c r="AV69" s="243"/>
-      <c r="AW69" s="243"/>
-      <c r="AX69" s="243"/>
-      <c r="AY69" s="243"/>
-      <c r="AZ69" s="243"/>
-      <c r="BA69" s="243"/>
-      <c r="BB69" s="243"/>
-      <c r="BC69" s="243"/>
-      <c r="BD69" s="243"/>
-      <c r="BE69" s="243"/>
-      <c r="BF69" s="243"/>
-      <c r="BG69" s="243"/>
-      <c r="BH69" s="243"/>
-      <c r="BI69" s="243"/>
-      <c r="BJ69" s="243"/>
-      <c r="BK69" s="243"/>
-      <c r="BL69" s="243"/>
-      <c r="BM69" s="243"/>
-      <c r="BN69" s="243"/>
-      <c r="BO69" s="243"/>
-      <c r="BP69" s="243"/>
-      <c r="BQ69" s="243"/>
-      <c r="BR69" s="243"/>
-      <c r="BS69" s="243"/>
-      <c r="BT69" s="243"/>
-      <c r="BU69" s="243"/>
-      <c r="BV69" s="243"/>
-      <c r="BW69" s="243"/>
-      <c r="BX69" s="243"/>
-      <c r="BY69" s="243"/>
-      <c r="BZ69" s="243"/>
-      <c r="CA69" s="243"/>
-      <c r="CB69" s="243"/>
-      <c r="CC69" s="243"/>
-      <c r="CD69" s="243"/>
-      <c r="CE69" s="243"/>
-      <c r="CF69" s="243"/>
-      <c r="CG69" s="243"/>
-      <c r="CH69" s="243"/>
-      <c r="CI69" s="243"/>
-      <c r="CJ69" s="243"/>
-      <c r="CK69" s="243"/>
-      <c r="CL69" s="243"/>
-      <c r="CM69" s="243"/>
-      <c r="CN69" s="243"/>
-      <c r="CO69" s="243"/>
-      <c r="CP69" s="243"/>
-      <c r="CQ69" s="243"/>
-      <c r="CR69" s="243"/>
-      <c r="CS69" s="243"/>
-      <c r="CT69" s="243"/>
-      <c r="CU69" s="243"/>
-      <c r="CV69" s="243"/>
-      <c r="CW69" s="243"/>
-      <c r="CX69" s="243"/>
-      <c r="CY69" s="243"/>
-      <c r="CZ69" s="243"/>
-      <c r="DA69" s="243"/>
-      <c r="DB69" s="243"/>
-      <c r="DC69" s="243"/>
-      <c r="DD69" s="243"/>
-      <c r="DE69" s="243"/>
-      <c r="DF69" s="243"/>
-      <c r="DG69" s="243"/>
-      <c r="DH69" s="243"/>
-      <c r="DI69" s="243"/>
-      <c r="DJ69" s="243"/>
-      <c r="DK69" s="243"/>
-      <c r="DL69" s="243"/>
-      <c r="DM69" s="243"/>
-      <c r="DN69" s="243"/>
-      <c r="DO69" s="243"/>
-      <c r="DP69" s="243"/>
-      <c r="DQ69" s="243"/>
-      <c r="DR69" s="243"/>
-      <c r="DS69" s="243"/>
-      <c r="DT69" s="243"/>
-      <c r="DU69" s="243"/>
-      <c r="DV69" s="243"/>
-      <c r="DW69" s="243"/>
-      <c r="DX69" s="243"/>
-      <c r="DY69" s="243"/>
-      <c r="DZ69" s="243"/>
-      <c r="EA69" s="243"/>
-      <c r="EB69" s="243"/>
-      <c r="EC69" s="243"/>
-      <c r="ED69" s="243"/>
-      <c r="EE69" s="243"/>
-      <c r="EF69" s="243"/>
-      <c r="EG69" s="243"/>
-      <c r="EH69" s="243"/>
-      <c r="EI69" s="243"/>
-      <c r="EJ69" s="243"/>
-      <c r="EK69" s="243"/>
-      <c r="EL69" s="243"/>
-      <c r="EM69" s="243"/>
-      <c r="EN69" s="243"/>
-      <c r="EO69" s="243"/>
-      <c r="EP69" s="243"/>
+      <c r="A69" s="234"/>
+      <c r="B69" s="234"/>
+      <c r="C69" s="234"/>
+      <c r="D69" s="234"/>
+      <c r="E69" s="234"/>
+      <c r="F69" s="234"/>
+      <c r="G69" s="234"/>
+      <c r="H69" s="234"/>
+      <c r="I69" s="234"/>
+      <c r="J69" s="234"/>
+      <c r="K69" s="234"/>
+      <c r="L69" s="234"/>
+      <c r="M69" s="234"/>
+      <c r="N69" s="234"/>
+      <c r="O69" s="234"/>
+      <c r="P69" s="234"/>
+      <c r="Q69" s="234"/>
+      <c r="R69" s="234"/>
+      <c r="S69" s="234"/>
+      <c r="T69" s="234"/>
+      <c r="U69" s="234"/>
+      <c r="V69" s="234"/>
+      <c r="W69" s="234"/>
+      <c r="X69" s="234"/>
+      <c r="Y69" s="234"/>
+      <c r="Z69" s="234"/>
+      <c r="AA69" s="234"/>
+      <c r="AB69" s="234"/>
+      <c r="AC69" s="234"/>
+      <c r="AD69" s="234"/>
+      <c r="AE69" s="234"/>
+      <c r="AF69" s="234"/>
+      <c r="AG69" s="234"/>
+      <c r="AH69" s="234"/>
+      <c r="AI69" s="234"/>
+      <c r="AJ69" s="234"/>
+      <c r="AK69" s="234"/>
+      <c r="AL69" s="234"/>
+      <c r="AM69" s="234"/>
+      <c r="AN69" s="234"/>
+      <c r="AO69" s="234"/>
+      <c r="AP69" s="234"/>
+      <c r="AQ69" s="234"/>
+      <c r="AR69" s="234"/>
+      <c r="AS69" s="234"/>
+      <c r="AT69" s="234"/>
+      <c r="AU69" s="234"/>
+      <c r="AV69" s="234"/>
+      <c r="AW69" s="234"/>
+      <c r="AX69" s="234"/>
+      <c r="AY69" s="234"/>
+      <c r="AZ69" s="234"/>
+      <c r="BA69" s="234"/>
+      <c r="BB69" s="234"/>
+      <c r="BC69" s="234"/>
+      <c r="BD69" s="234"/>
+      <c r="BE69" s="234"/>
+      <c r="BF69" s="234"/>
+      <c r="BG69" s="234"/>
+      <c r="BH69" s="234"/>
+      <c r="BI69" s="234"/>
+      <c r="BJ69" s="234"/>
+      <c r="BK69" s="234"/>
+      <c r="BL69" s="234"/>
+      <c r="BM69" s="234"/>
+      <c r="BN69" s="234"/>
+      <c r="BO69" s="234"/>
+      <c r="BP69" s="234"/>
+      <c r="BQ69" s="234"/>
+      <c r="BR69" s="234"/>
+      <c r="BS69" s="234"/>
+      <c r="BT69" s="234"/>
+      <c r="BU69" s="234"/>
+      <c r="BV69" s="234"/>
+      <c r="BW69" s="234"/>
+      <c r="BX69" s="234"/>
+      <c r="BY69" s="234"/>
+      <c r="BZ69" s="234"/>
+      <c r="CA69" s="234"/>
+      <c r="CB69" s="234"/>
+      <c r="CC69" s="234"/>
+      <c r="CD69" s="234"/>
+      <c r="CE69" s="234"/>
+      <c r="CF69" s="234"/>
+      <c r="CG69" s="234"/>
+      <c r="CH69" s="234"/>
+      <c r="CI69" s="234"/>
+      <c r="CJ69" s="234"/>
+      <c r="CK69" s="234"/>
+      <c r="CL69" s="234"/>
+      <c r="CM69" s="234"/>
+      <c r="CN69" s="234"/>
+      <c r="CO69" s="234"/>
+      <c r="CP69" s="234"/>
+      <c r="CQ69" s="234"/>
+      <c r="CR69" s="234"/>
+      <c r="CS69" s="234"/>
+      <c r="CT69" s="234"/>
+      <c r="CU69" s="234"/>
+      <c r="CV69" s="234"/>
+      <c r="CW69" s="234"/>
+      <c r="CX69" s="234"/>
+      <c r="CY69" s="234"/>
+      <c r="CZ69" s="234"/>
+      <c r="DA69" s="234"/>
+      <c r="DB69" s="234"/>
+      <c r="DC69" s="234"/>
+      <c r="DD69" s="234"/>
+      <c r="DE69" s="234"/>
+      <c r="DF69" s="234"/>
+      <c r="DG69" s="234"/>
+      <c r="DH69" s="234"/>
+      <c r="DI69" s="234"/>
+      <c r="DJ69" s="234"/>
+      <c r="DK69" s="234"/>
+      <c r="DL69" s="234"/>
+      <c r="DM69" s="234"/>
+      <c r="DN69" s="234"/>
+      <c r="DO69" s="234"/>
+      <c r="DP69" s="234"/>
+      <c r="DQ69" s="234"/>
+      <c r="DR69" s="234"/>
+      <c r="DS69" s="234"/>
+      <c r="DT69" s="234"/>
+      <c r="DU69" s="234"/>
+      <c r="DV69" s="234"/>
+      <c r="DW69" s="234"/>
+      <c r="DX69" s="234"/>
+      <c r="DY69" s="234"/>
+      <c r="DZ69" s="234"/>
+      <c r="EA69" s="234"/>
+      <c r="EB69" s="234"/>
+      <c r="EC69" s="234"/>
+      <c r="ED69" s="234"/>
+      <c r="EE69" s="234"/>
+      <c r="EF69" s="234"/>
+      <c r="EG69" s="234"/>
+      <c r="EH69" s="234"/>
+      <c r="EI69" s="234"/>
+      <c r="EJ69" s="234"/>
+      <c r="EK69" s="234"/>
+      <c r="EL69" s="234"/>
+      <c r="EM69" s="234"/>
+      <c r="EN69" s="234"/>
+      <c r="EO69" s="234"/>
+      <c r="EP69" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AI13:AM13"/>
+    <mergeCell ref="AP13:AT13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="BY11:EP11"/>
+    <mergeCell ref="DV13:DZ13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="BD13:BH13"/>
+    <mergeCell ref="BK13:BO13"/>
+    <mergeCell ref="BR13:BV13"/>
+    <mergeCell ref="BY13:CC13"/>
+    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="BK14:BO14"/>
+    <mergeCell ref="EC13:EG13"/>
+    <mergeCell ref="EJ13:EN13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AT14"/>
+    <mergeCell ref="CM13:CQ13"/>
+    <mergeCell ref="CT13:CX13"/>
+    <mergeCell ref="DA13:DE13"/>
+    <mergeCell ref="DH13:DL13"/>
+    <mergeCell ref="DO13:DS13"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BD14:BH14"/>
+    <mergeCell ref="BI14:BJ14"/>
+    <mergeCell ref="CR14:CS14"/>
+    <mergeCell ref="CT14:CX14"/>
+    <mergeCell ref="CY14:CZ14"/>
+    <mergeCell ref="DA14:DE14"/>
+    <mergeCell ref="BP14:BQ14"/>
+    <mergeCell ref="BR14:BV14"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BY14:CC14"/>
+    <mergeCell ref="CD14:CE14"/>
+    <mergeCell ref="CF14:CJ14"/>
     <mergeCell ref="A69:EP69"/>
     <mergeCell ref="EA14:EB14"/>
     <mergeCell ref="EC14:EG14"/>
@@ -21584,54 +21632,6 @@
     <mergeCell ref="DV14:DZ14"/>
     <mergeCell ref="CK14:CL14"/>
     <mergeCell ref="CM14:CQ14"/>
-    <mergeCell ref="CR14:CS14"/>
-    <mergeCell ref="CT14:CX14"/>
-    <mergeCell ref="CY14:CZ14"/>
-    <mergeCell ref="DA14:DE14"/>
-    <mergeCell ref="BP14:BQ14"/>
-    <mergeCell ref="BR14:BV14"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BY14:CC14"/>
-    <mergeCell ref="CD14:CE14"/>
-    <mergeCell ref="CF14:CJ14"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BD14:BH14"/>
-    <mergeCell ref="BI14:BJ14"/>
-    <mergeCell ref="BK14:BO14"/>
-    <mergeCell ref="EC13:EG13"/>
-    <mergeCell ref="EJ13:EN13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AT14"/>
-    <mergeCell ref="CM13:CQ13"/>
-    <mergeCell ref="CT13:CX13"/>
-    <mergeCell ref="DA13:DE13"/>
-    <mergeCell ref="DH13:DL13"/>
-    <mergeCell ref="DO13:DS13"/>
-    <mergeCell ref="DV13:DZ13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="BD13:BH13"/>
-    <mergeCell ref="BK13:BO13"/>
-    <mergeCell ref="BR13:BV13"/>
-    <mergeCell ref="BY13:CC13"/>
-    <mergeCell ref="CF13:CJ13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="BY11:EP11"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AI13:AM13"/>
-    <mergeCell ref="AP13:AT13"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H40:H44 H29:H31 H33:H37 H46:H65">
     <cfRule type="expression" dxfId="109" priority="112">

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
+    <workbookView xWindow="28500" yWindow="0" windowWidth="27300" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -2093,27 +2093,6 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2139,6 +2118,27 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3349,10 +3349,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="BH37" sqref="BH37"/>
+      <selection pane="topRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7935,10 +7935,10 @@
       <c r="G7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="242">
+      <c r="H7" s="235">
         <v>42088</v>
       </c>
-      <c r="I7" s="242"/>
+      <c r="I7" s="235"/>
       <c r="K7" s="27"/>
       <c r="L7" s="217"/>
       <c r="M7" s="217"/>
@@ -10200,17 +10200,17 @@
       <c r="ACA9" s="34"/>
     </row>
     <row r="10" spans="1:755" s="22" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="243"/>
-      <c r="B10" s="243"/>
+      <c r="A10" s="236"/>
+      <c r="B10" s="236"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
       <c r="L10" s="220"/>
       <c r="M10" s="220"/>
       <c r="N10" s="201"/>
@@ -10957,19 +10957,19 @@
       <c r="ACA10" s="34"/>
     </row>
     <row r="11" spans="1:755" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="245" t="s">
+      <c r="A11" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="246"/>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="246"/>
-      <c r="K11" s="246"/>
+      <c r="B11" s="239"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="239"/>
+      <c r="I11" s="239"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
       <c r="L11" s="221"/>
       <c r="M11" s="221"/>
       <c r="N11" s="202"/>
@@ -11035,78 +11035,78 @@
       <c r="BV11" s="36"/>
       <c r="BW11" s="36"/>
       <c r="BX11" s="36"/>
-      <c r="BY11" s="247" t="s">
+      <c r="BY11" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="BZ11" s="247"/>
-      <c r="CA11" s="247"/>
-      <c r="CB11" s="247"/>
-      <c r="CC11" s="247"/>
-      <c r="CD11" s="247"/>
-      <c r="CE11" s="247"/>
-      <c r="CF11" s="247"/>
-      <c r="CG11" s="247"/>
-      <c r="CH11" s="247"/>
-      <c r="CI11" s="247"/>
-      <c r="CJ11" s="247"/>
-      <c r="CK11" s="247"/>
-      <c r="CL11" s="247"/>
-      <c r="CM11" s="247"/>
-      <c r="CN11" s="247"/>
-      <c r="CO11" s="247"/>
-      <c r="CP11" s="247"/>
-      <c r="CQ11" s="247"/>
-      <c r="CR11" s="247"/>
-      <c r="CS11" s="247"/>
-      <c r="CT11" s="247"/>
-      <c r="CU11" s="247"/>
-      <c r="CV11" s="247"/>
-      <c r="CW11" s="247"/>
-      <c r="CX11" s="247"/>
-      <c r="CY11" s="247"/>
-      <c r="CZ11" s="247"/>
-      <c r="DA11" s="247"/>
-      <c r="DB11" s="247"/>
-      <c r="DC11" s="247"/>
-      <c r="DD11" s="247"/>
-      <c r="DE11" s="247"/>
-      <c r="DF11" s="247"/>
-      <c r="DG11" s="247"/>
-      <c r="DH11" s="247"/>
-      <c r="DI11" s="247"/>
-      <c r="DJ11" s="247"/>
-      <c r="DK11" s="247"/>
-      <c r="DL11" s="247"/>
-      <c r="DM11" s="247"/>
-      <c r="DN11" s="247"/>
-      <c r="DO11" s="247"/>
-      <c r="DP11" s="247"/>
-      <c r="DQ11" s="247"/>
-      <c r="DR11" s="247"/>
-      <c r="DS11" s="247"/>
-      <c r="DT11" s="247"/>
-      <c r="DU11" s="247"/>
-      <c r="DV11" s="247"/>
-      <c r="DW11" s="247"/>
-      <c r="DX11" s="247"/>
-      <c r="DY11" s="247"/>
-      <c r="DZ11" s="247"/>
-      <c r="EA11" s="247"/>
-      <c r="EB11" s="247"/>
-      <c r="EC11" s="247"/>
-      <c r="ED11" s="247"/>
-      <c r="EE11" s="247"/>
-      <c r="EF11" s="247"/>
-      <c r="EG11" s="247"/>
-      <c r="EH11" s="247"/>
-      <c r="EI11" s="247"/>
-      <c r="EJ11" s="247"/>
-      <c r="EK11" s="247"/>
-      <c r="EL11" s="247"/>
-      <c r="EM11" s="247"/>
-      <c r="EN11" s="247"/>
-      <c r="EO11" s="247"/>
-      <c r="EP11" s="248"/>
+      <c r="BZ11" s="240"/>
+      <c r="CA11" s="240"/>
+      <c r="CB11" s="240"/>
+      <c r="CC11" s="240"/>
+      <c r="CD11" s="240"/>
+      <c r="CE11" s="240"/>
+      <c r="CF11" s="240"/>
+      <c r="CG11" s="240"/>
+      <c r="CH11" s="240"/>
+      <c r="CI11" s="240"/>
+      <c r="CJ11" s="240"/>
+      <c r="CK11" s="240"/>
+      <c r="CL11" s="240"/>
+      <c r="CM11" s="240"/>
+      <c r="CN11" s="240"/>
+      <c r="CO11" s="240"/>
+      <c r="CP11" s="240"/>
+      <c r="CQ11" s="240"/>
+      <c r="CR11" s="240"/>
+      <c r="CS11" s="240"/>
+      <c r="CT11" s="240"/>
+      <c r="CU11" s="240"/>
+      <c r="CV11" s="240"/>
+      <c r="CW11" s="240"/>
+      <c r="CX11" s="240"/>
+      <c r="CY11" s="240"/>
+      <c r="CZ11" s="240"/>
+      <c r="DA11" s="240"/>
+      <c r="DB11" s="240"/>
+      <c r="DC11" s="240"/>
+      <c r="DD11" s="240"/>
+      <c r="DE11" s="240"/>
+      <c r="DF11" s="240"/>
+      <c r="DG11" s="240"/>
+      <c r="DH11" s="240"/>
+      <c r="DI11" s="240"/>
+      <c r="DJ11" s="240"/>
+      <c r="DK11" s="240"/>
+      <c r="DL11" s="240"/>
+      <c r="DM11" s="240"/>
+      <c r="DN11" s="240"/>
+      <c r="DO11" s="240"/>
+      <c r="DP11" s="240"/>
+      <c r="DQ11" s="240"/>
+      <c r="DR11" s="240"/>
+      <c r="DS11" s="240"/>
+      <c r="DT11" s="240"/>
+      <c r="DU11" s="240"/>
+      <c r="DV11" s="240"/>
+      <c r="DW11" s="240"/>
+      <c r="DX11" s="240"/>
+      <c r="DY11" s="240"/>
+      <c r="DZ11" s="240"/>
+      <c r="EA11" s="240"/>
+      <c r="EB11" s="240"/>
+      <c r="EC11" s="240"/>
+      <c r="ED11" s="240"/>
+      <c r="EE11" s="240"/>
+      <c r="EF11" s="240"/>
+      <c r="EG11" s="240"/>
+      <c r="EH11" s="240"/>
+      <c r="EI11" s="240"/>
+      <c r="EJ11" s="240"/>
+      <c r="EK11" s="240"/>
+      <c r="EL11" s="240"/>
+      <c r="EM11" s="240"/>
+      <c r="EN11" s="240"/>
+      <c r="EO11" s="240"/>
+      <c r="EP11" s="241"/>
     </row>
     <row r="12" spans="1:755" s="37" customFormat="1" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -11669,194 +11669,194 @@
       <c r="K13" s="44"/>
       <c r="L13" s="223"/>
       <c r="M13" s="223"/>
-      <c r="N13" s="241" t="str">
+      <c r="N13" s="234" t="str">
         <f>"KW " &amp; TRUNC((N12-DATE(YEAR(N12+3-MOD(N12-2,7)),1,MOD(N12-2,7)-9))/7)</f>
         <v>KW 13</v>
       </c>
-      <c r="O13" s="241"/>
-      <c r="P13" s="241"/>
-      <c r="Q13" s="241"/>
-      <c r="R13" s="241"/>
+      <c r="O13" s="234"/>
+      <c r="P13" s="234"/>
+      <c r="Q13" s="234"/>
+      <c r="R13" s="234"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="241" t="str">
+      <c r="U13" s="234" t="str">
         <f t="shared" ref="U13" si="3">"KW " &amp; TRUNC((U12-DATE(YEAR(U12+3-MOD(U12-2,7)),1,MOD(U12-2,7)-9))/7)</f>
         <v>KW 14</v>
       </c>
-      <c r="V13" s="241"/>
-      <c r="W13" s="241"/>
-      <c r="X13" s="241"/>
-      <c r="Y13" s="241"/>
+      <c r="V13" s="234"/>
+      <c r="W13" s="234"/>
+      <c r="X13" s="234"/>
+      <c r="Y13" s="234"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="46"/>
-      <c r="AB13" s="241" t="str">
+      <c r="AB13" s="234" t="str">
         <f t="shared" ref="AB13" si="4">"KW " &amp; TRUNC((AB12-DATE(YEAR(AB12+3-MOD(AB12-2,7)),1,MOD(AB12-2,7)-9))/7)</f>
         <v>KW 15</v>
       </c>
-      <c r="AC13" s="241"/>
-      <c r="AD13" s="241"/>
-      <c r="AE13" s="241"/>
-      <c r="AF13" s="241"/>
+      <c r="AC13" s="234"/>
+      <c r="AD13" s="234"/>
+      <c r="AE13" s="234"/>
+      <c r="AF13" s="234"/>
       <c r="AG13" s="46"/>
       <c r="AH13" s="46"/>
-      <c r="AI13" s="241" t="str">
+      <c r="AI13" s="234" t="str">
         <f t="shared" ref="AI13" si="5">"KW " &amp; TRUNC((AI12-DATE(YEAR(AI12+3-MOD(AI12-2,7)),1,MOD(AI12-2,7)-9))/7)</f>
         <v>KW 16</v>
       </c>
-      <c r="AJ13" s="241"/>
-      <c r="AK13" s="241"/>
-      <c r="AL13" s="241"/>
-      <c r="AM13" s="241"/>
+      <c r="AJ13" s="234"/>
+      <c r="AK13" s="234"/>
+      <c r="AL13" s="234"/>
+      <c r="AM13" s="234"/>
       <c r="AN13" s="46"/>
       <c r="AO13" s="46"/>
-      <c r="AP13" s="241" t="str">
+      <c r="AP13" s="234" t="str">
         <f t="shared" ref="AP13" si="6">"KW " &amp; TRUNC((AP12-DATE(YEAR(AP12+3-MOD(AP12-2,7)),1,MOD(AP12-2,7)-9))/7)</f>
         <v>KW 17</v>
       </c>
-      <c r="AQ13" s="241"/>
-      <c r="AR13" s="241"/>
-      <c r="AS13" s="241"/>
-      <c r="AT13" s="241"/>
+      <c r="AQ13" s="234"/>
+      <c r="AR13" s="234"/>
+      <c r="AS13" s="234"/>
+      <c r="AT13" s="234"/>
       <c r="AU13" s="46"/>
       <c r="AV13" s="46"/>
-      <c r="AW13" s="241" t="str">
+      <c r="AW13" s="234" t="str">
         <f t="shared" ref="AW13" si="7">"KW " &amp; TRUNC((AW12-DATE(YEAR(AW12+3-MOD(AW12-2,7)),1,MOD(AW12-2,7)-9))/7)</f>
         <v>KW 18</v>
       </c>
-      <c r="AX13" s="241"/>
-      <c r="AY13" s="241"/>
-      <c r="AZ13" s="241"/>
-      <c r="BA13" s="241"/>
+      <c r="AX13" s="234"/>
+      <c r="AY13" s="234"/>
+      <c r="AZ13" s="234"/>
+      <c r="BA13" s="234"/>
       <c r="BB13" s="46"/>
       <c r="BC13" s="46"/>
-      <c r="BD13" s="241" t="str">
+      <c r="BD13" s="234" t="str">
         <f t="shared" ref="BD13" si="8">"KW " &amp; TRUNC((BD12-DATE(YEAR(BD12+3-MOD(BD12-2,7)),1,MOD(BD12-2,7)-9))/7)</f>
         <v>KW 19</v>
       </c>
-      <c r="BE13" s="241"/>
-      <c r="BF13" s="241"/>
-      <c r="BG13" s="241"/>
-      <c r="BH13" s="241"/>
+      <c r="BE13" s="234"/>
+      <c r="BF13" s="234"/>
+      <c r="BG13" s="234"/>
+      <c r="BH13" s="234"/>
       <c r="BI13" s="46"/>
       <c r="BJ13" s="46"/>
-      <c r="BK13" s="241" t="str">
+      <c r="BK13" s="234" t="str">
         <f t="shared" ref="BK13" si="9">"KW " &amp; TRUNC((BK12-DATE(YEAR(BK12+3-MOD(BK12-2,7)),1,MOD(BK12-2,7)-9))/7)</f>
         <v>KW 20</v>
       </c>
-      <c r="BL13" s="241"/>
-      <c r="BM13" s="241"/>
-      <c r="BN13" s="241"/>
-      <c r="BO13" s="241"/>
+      <c r="BL13" s="234"/>
+      <c r="BM13" s="234"/>
+      <c r="BN13" s="234"/>
+      <c r="BO13" s="234"/>
       <c r="BP13" s="46"/>
       <c r="BQ13" s="46"/>
-      <c r="BR13" s="241" t="str">
+      <c r="BR13" s="234" t="str">
         <f t="shared" ref="BR13" si="10">"KW " &amp; TRUNC((BR12-DATE(YEAR(BR12+3-MOD(BR12-2,7)),1,MOD(BR12-2,7)-9))/7)</f>
         <v>KW 21</v>
       </c>
-      <c r="BS13" s="241"/>
-      <c r="BT13" s="241"/>
-      <c r="BU13" s="241"/>
-      <c r="BV13" s="241"/>
+      <c r="BS13" s="234"/>
+      <c r="BT13" s="234"/>
+      <c r="BU13" s="234"/>
+      <c r="BV13" s="234"/>
       <c r="BW13" s="46"/>
       <c r="BX13" s="46"/>
-      <c r="BY13" s="241" t="str">
+      <c r="BY13" s="234" t="str">
         <f t="shared" ref="BY13" si="11">"KW " &amp; TRUNC((BY12-DATE(YEAR(BY12+3-MOD(BY12-2,7)),1,MOD(BY12-2,7)-9))/7)</f>
         <v>KW 22</v>
       </c>
-      <c r="BZ13" s="241"/>
-      <c r="CA13" s="241"/>
-      <c r="CB13" s="241"/>
-      <c r="CC13" s="241"/>
+      <c r="BZ13" s="234"/>
+      <c r="CA13" s="234"/>
+      <c r="CB13" s="234"/>
+      <c r="CC13" s="234"/>
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
-      <c r="CF13" s="241" t="str">
+      <c r="CF13" s="234" t="str">
         <f t="shared" ref="CF13" si="12">"KW " &amp; TRUNC((CF12-DATE(YEAR(CF12+3-MOD(CF12-2,7)),1,MOD(CF12-2,7)-9))/7)</f>
         <v>KW 23</v>
       </c>
-      <c r="CG13" s="241"/>
-      <c r="CH13" s="241"/>
-      <c r="CI13" s="241"/>
-      <c r="CJ13" s="241"/>
+      <c r="CG13" s="234"/>
+      <c r="CH13" s="234"/>
+      <c r="CI13" s="234"/>
+      <c r="CJ13" s="234"/>
       <c r="CK13" s="46"/>
       <c r="CL13" s="46"/>
-      <c r="CM13" s="241" t="str">
+      <c r="CM13" s="234" t="str">
         <f t="shared" ref="CM13" si="13">"KW " &amp; TRUNC((CM12-DATE(YEAR(CM12+3-MOD(CM12-2,7)),1,MOD(CM12-2,7)-9))/7)</f>
         <v>KW 24</v>
       </c>
-      <c r="CN13" s="241"/>
-      <c r="CO13" s="241"/>
-      <c r="CP13" s="241"/>
-      <c r="CQ13" s="241"/>
+      <c r="CN13" s="234"/>
+      <c r="CO13" s="234"/>
+      <c r="CP13" s="234"/>
+      <c r="CQ13" s="234"/>
       <c r="CR13" s="46"/>
       <c r="CS13" s="46"/>
-      <c r="CT13" s="241" t="str">
+      <c r="CT13" s="234" t="str">
         <f t="shared" ref="CT13" si="14">"KW " &amp; TRUNC((CT12-DATE(YEAR(CT12+3-MOD(CT12-2,7)),1,MOD(CT12-2,7)-9))/7)</f>
         <v>KW 25</v>
       </c>
-      <c r="CU13" s="241"/>
-      <c r="CV13" s="241"/>
-      <c r="CW13" s="241"/>
-      <c r="CX13" s="241"/>
+      <c r="CU13" s="234"/>
+      <c r="CV13" s="234"/>
+      <c r="CW13" s="234"/>
+      <c r="CX13" s="234"/>
       <c r="CY13" s="46"/>
       <c r="CZ13" s="46"/>
-      <c r="DA13" s="241" t="str">
+      <c r="DA13" s="234" t="str">
         <f t="shared" ref="DA13" si="15">"KW " &amp; TRUNC((DA12-DATE(YEAR(DA12+3-MOD(DA12-2,7)),1,MOD(DA12-2,7)-9))/7)</f>
         <v>KW 26</v>
       </c>
-      <c r="DB13" s="241"/>
-      <c r="DC13" s="241"/>
-      <c r="DD13" s="241"/>
-      <c r="DE13" s="241"/>
+      <c r="DB13" s="234"/>
+      <c r="DC13" s="234"/>
+      <c r="DD13" s="234"/>
+      <c r="DE13" s="234"/>
       <c r="DF13" s="46"/>
       <c r="DG13" s="46"/>
-      <c r="DH13" s="241" t="str">
+      <c r="DH13" s="234" t="str">
         <f t="shared" ref="DH13" si="16">"KW " &amp; TRUNC((DH12-DATE(YEAR(DH12+3-MOD(DH12-2,7)),1,MOD(DH12-2,7)-9))/7)</f>
         <v>KW 27</v>
       </c>
-      <c r="DI13" s="241"/>
-      <c r="DJ13" s="241"/>
-      <c r="DK13" s="241"/>
-      <c r="DL13" s="241"/>
+      <c r="DI13" s="234"/>
+      <c r="DJ13" s="234"/>
+      <c r="DK13" s="234"/>
+      <c r="DL13" s="234"/>
       <c r="DM13" s="46"/>
       <c r="DN13" s="46"/>
-      <c r="DO13" s="241" t="str">
+      <c r="DO13" s="234" t="str">
         <f t="shared" ref="DO13" si="17">"KW " &amp; TRUNC((DO12-DATE(YEAR(DO12+3-MOD(DO12-2,7)),1,MOD(DO12-2,7)-9))/7)</f>
         <v>KW 28</v>
       </c>
-      <c r="DP13" s="241"/>
-      <c r="DQ13" s="241"/>
-      <c r="DR13" s="241"/>
-      <c r="DS13" s="241"/>
+      <c r="DP13" s="234"/>
+      <c r="DQ13" s="234"/>
+      <c r="DR13" s="234"/>
+      <c r="DS13" s="234"/>
       <c r="DT13" s="46"/>
       <c r="DU13" s="46"/>
-      <c r="DV13" s="241" t="str">
+      <c r="DV13" s="234" t="str">
         <f t="shared" ref="DV13" si="18">"KW " &amp; TRUNC((DV12-DATE(YEAR(DV12+3-MOD(DV12-2,7)),1,MOD(DV12-2,7)-9))/7)</f>
         <v>KW 29</v>
       </c>
-      <c r="DW13" s="241"/>
-      <c r="DX13" s="241"/>
-      <c r="DY13" s="241"/>
-      <c r="DZ13" s="241"/>
+      <c r="DW13" s="234"/>
+      <c r="DX13" s="234"/>
+      <c r="DY13" s="234"/>
+      <c r="DZ13" s="234"/>
       <c r="EA13" s="46"/>
       <c r="EB13" s="46"/>
-      <c r="EC13" s="241" t="str">
+      <c r="EC13" s="234" t="str">
         <f t="shared" ref="EC13" si="19">"KW " &amp; TRUNC((EC12-DATE(YEAR(EC12+3-MOD(EC12-2,7)),1,MOD(EC12-2,7)-9))/7)</f>
         <v>KW 30</v>
       </c>
-      <c r="ED13" s="241"/>
-      <c r="EE13" s="241"/>
-      <c r="EF13" s="241"/>
-      <c r="EG13" s="241"/>
+      <c r="ED13" s="234"/>
+      <c r="EE13" s="234"/>
+      <c r="EF13" s="234"/>
+      <c r="EG13" s="234"/>
       <c r="EH13" s="46"/>
       <c r="EI13" s="46"/>
-      <c r="EJ13" s="241" t="str">
+      <c r="EJ13" s="234" t="str">
         <f t="shared" ref="EJ13" si="20">"KW " &amp; TRUNC((EJ12-DATE(YEAR(EJ12+3-MOD(EJ12-2,7)),1,MOD(EJ12-2,7)-9))/7)</f>
         <v>KW 31</v>
       </c>
-      <c r="EK13" s="241"/>
-      <c r="EL13" s="241"/>
-      <c r="EM13" s="241"/>
-      <c r="EN13" s="241"/>
+      <c r="EK13" s="234"/>
+      <c r="EL13" s="234"/>
+      <c r="EM13" s="234"/>
+      <c r="EN13" s="234"/>
       <c r="EO13" s="46"/>
       <c r="EP13" s="47"/>
     </row>
@@ -11898,196 +11898,196 @@
       <c r="M14" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="235">
+      <c r="N14" s="242">
         <f>N12</f>
         <v>42086</v>
       </c>
-      <c r="O14" s="235"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
+      <c r="O14" s="242"/>
+      <c r="P14" s="242"/>
+      <c r="Q14" s="242"/>
+      <c r="R14" s="242"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
-      <c r="U14" s="235">
+      <c r="U14" s="242">
         <f>U12</f>
         <v>42093</v>
       </c>
-      <c r="V14" s="235"/>
-      <c r="W14" s="235"/>
-      <c r="X14" s="235"/>
-      <c r="Y14" s="235"/>
-      <c r="Z14" s="235"/>
-      <c r="AA14" s="235"/>
-      <c r="AB14" s="235">
+      <c r="V14" s="242"/>
+      <c r="W14" s="242"/>
+      <c r="X14" s="242"/>
+      <c r="Y14" s="242"/>
+      <c r="Z14" s="242"/>
+      <c r="AA14" s="242"/>
+      <c r="AB14" s="242">
         <f>AB12</f>
         <v>42100</v>
       </c>
-      <c r="AC14" s="235"/>
-      <c r="AD14" s="235"/>
-      <c r="AE14" s="235"/>
-      <c r="AF14" s="235"/>
-      <c r="AG14" s="235"/>
-      <c r="AH14" s="235"/>
-      <c r="AI14" s="235">
+      <c r="AC14" s="242"/>
+      <c r="AD14" s="242"/>
+      <c r="AE14" s="242"/>
+      <c r="AF14" s="242"/>
+      <c r="AG14" s="242"/>
+      <c r="AH14" s="242"/>
+      <c r="AI14" s="242">
         <f>AI12</f>
         <v>42107</v>
       </c>
-      <c r="AJ14" s="235"/>
-      <c r="AK14" s="235"/>
-      <c r="AL14" s="235"/>
-      <c r="AM14" s="235"/>
-      <c r="AN14" s="235"/>
-      <c r="AO14" s="235"/>
-      <c r="AP14" s="235">
+      <c r="AJ14" s="242"/>
+      <c r="AK14" s="242"/>
+      <c r="AL14" s="242"/>
+      <c r="AM14" s="242"/>
+      <c r="AN14" s="242"/>
+      <c r="AO14" s="242"/>
+      <c r="AP14" s="242">
         <f>AP12</f>
         <v>42114</v>
       </c>
-      <c r="AQ14" s="235"/>
-      <c r="AR14" s="235"/>
-      <c r="AS14" s="235"/>
-      <c r="AT14" s="235"/>
-      <c r="AU14" s="235"/>
-      <c r="AV14" s="235"/>
-      <c r="AW14" s="235">
+      <c r="AQ14" s="242"/>
+      <c r="AR14" s="242"/>
+      <c r="AS14" s="242"/>
+      <c r="AT14" s="242"/>
+      <c r="AU14" s="242"/>
+      <c r="AV14" s="242"/>
+      <c r="AW14" s="242">
         <f>AW12</f>
         <v>42121</v>
       </c>
-      <c r="AX14" s="235"/>
-      <c r="AY14" s="235"/>
-      <c r="AZ14" s="235"/>
-      <c r="BA14" s="235"/>
-      <c r="BB14" s="235"/>
-      <c r="BC14" s="235"/>
-      <c r="BD14" s="235">
+      <c r="AX14" s="242"/>
+      <c r="AY14" s="242"/>
+      <c r="AZ14" s="242"/>
+      <c r="BA14" s="242"/>
+      <c r="BB14" s="242"/>
+      <c r="BC14" s="242"/>
+      <c r="BD14" s="242">
         <f>BD12</f>
         <v>42128</v>
       </c>
-      <c r="BE14" s="235"/>
-      <c r="BF14" s="235"/>
-      <c r="BG14" s="235"/>
-      <c r="BH14" s="235"/>
-      <c r="BI14" s="235"/>
-      <c r="BJ14" s="235"/>
-      <c r="BK14" s="235">
+      <c r="BE14" s="242"/>
+      <c r="BF14" s="242"/>
+      <c r="BG14" s="242"/>
+      <c r="BH14" s="242"/>
+      <c r="BI14" s="242"/>
+      <c r="BJ14" s="242"/>
+      <c r="BK14" s="242">
         <f>BK12</f>
         <v>42135</v>
       </c>
-      <c r="BL14" s="235"/>
-      <c r="BM14" s="235"/>
-      <c r="BN14" s="235"/>
-      <c r="BO14" s="235"/>
-      <c r="BP14" s="235"/>
-      <c r="BQ14" s="235"/>
-      <c r="BR14" s="235">
+      <c r="BL14" s="242"/>
+      <c r="BM14" s="242"/>
+      <c r="BN14" s="242"/>
+      <c r="BO14" s="242"/>
+      <c r="BP14" s="242"/>
+      <c r="BQ14" s="242"/>
+      <c r="BR14" s="242">
         <f>BR12</f>
         <v>42142</v>
       </c>
-      <c r="BS14" s="235"/>
-      <c r="BT14" s="235"/>
-      <c r="BU14" s="235"/>
-      <c r="BV14" s="235"/>
-      <c r="BW14" s="235"/>
-      <c r="BX14" s="235"/>
-      <c r="BY14" s="235">
+      <c r="BS14" s="242"/>
+      <c r="BT14" s="242"/>
+      <c r="BU14" s="242"/>
+      <c r="BV14" s="242"/>
+      <c r="BW14" s="242"/>
+      <c r="BX14" s="242"/>
+      <c r="BY14" s="242">
         <f>BY12</f>
         <v>42149</v>
       </c>
-      <c r="BZ14" s="235"/>
-      <c r="CA14" s="235"/>
-      <c r="CB14" s="235"/>
-      <c r="CC14" s="235"/>
-      <c r="CD14" s="235"/>
-      <c r="CE14" s="235"/>
-      <c r="CF14" s="235">
+      <c r="BZ14" s="242"/>
+      <c r="CA14" s="242"/>
+      <c r="CB14" s="242"/>
+      <c r="CC14" s="242"/>
+      <c r="CD14" s="242"/>
+      <c r="CE14" s="242"/>
+      <c r="CF14" s="242">
         <f>CF12</f>
         <v>42156</v>
       </c>
-      <c r="CG14" s="235"/>
-      <c r="CH14" s="235"/>
-      <c r="CI14" s="235"/>
-      <c r="CJ14" s="235"/>
-      <c r="CK14" s="235"/>
-      <c r="CL14" s="235"/>
-      <c r="CM14" s="235">
+      <c r="CG14" s="242"/>
+      <c r="CH14" s="242"/>
+      <c r="CI14" s="242"/>
+      <c r="CJ14" s="242"/>
+      <c r="CK14" s="242"/>
+      <c r="CL14" s="242"/>
+      <c r="CM14" s="242">
         <f>CM12</f>
         <v>42163</v>
       </c>
-      <c r="CN14" s="235"/>
-      <c r="CO14" s="235"/>
-      <c r="CP14" s="235"/>
-      <c r="CQ14" s="235"/>
-      <c r="CR14" s="235"/>
-      <c r="CS14" s="235"/>
-      <c r="CT14" s="235">
+      <c r="CN14" s="242"/>
+      <c r="CO14" s="242"/>
+      <c r="CP14" s="242"/>
+      <c r="CQ14" s="242"/>
+      <c r="CR14" s="242"/>
+      <c r="CS14" s="242"/>
+      <c r="CT14" s="242">
         <f>CT12</f>
         <v>42170</v>
       </c>
-      <c r="CU14" s="235"/>
-      <c r="CV14" s="235"/>
-      <c r="CW14" s="235"/>
-      <c r="CX14" s="235"/>
-      <c r="CY14" s="235"/>
-      <c r="CZ14" s="235"/>
-      <c r="DA14" s="235">
+      <c r="CU14" s="242"/>
+      <c r="CV14" s="242"/>
+      <c r="CW14" s="242"/>
+      <c r="CX14" s="242"/>
+      <c r="CY14" s="242"/>
+      <c r="CZ14" s="242"/>
+      <c r="DA14" s="242">
         <f>DA12</f>
         <v>42177</v>
       </c>
-      <c r="DB14" s="235"/>
-      <c r="DC14" s="235"/>
-      <c r="DD14" s="235"/>
-      <c r="DE14" s="235"/>
-      <c r="DF14" s="235"/>
-      <c r="DG14" s="235"/>
-      <c r="DH14" s="235">
+      <c r="DB14" s="242"/>
+      <c r="DC14" s="242"/>
+      <c r="DD14" s="242"/>
+      <c r="DE14" s="242"/>
+      <c r="DF14" s="242"/>
+      <c r="DG14" s="242"/>
+      <c r="DH14" s="242">
         <f>DH12</f>
         <v>42184</v>
       </c>
-      <c r="DI14" s="235"/>
-      <c r="DJ14" s="235"/>
-      <c r="DK14" s="235"/>
-      <c r="DL14" s="235"/>
-      <c r="DM14" s="235"/>
-      <c r="DN14" s="235"/>
-      <c r="DO14" s="235">
+      <c r="DI14" s="242"/>
+      <c r="DJ14" s="242"/>
+      <c r="DK14" s="242"/>
+      <c r="DL14" s="242"/>
+      <c r="DM14" s="242"/>
+      <c r="DN14" s="242"/>
+      <c r="DO14" s="242">
         <f>DO12</f>
         <v>42191</v>
       </c>
-      <c r="DP14" s="235"/>
-      <c r="DQ14" s="235"/>
-      <c r="DR14" s="235"/>
-      <c r="DS14" s="235"/>
-      <c r="DT14" s="235"/>
-      <c r="DU14" s="235"/>
-      <c r="DV14" s="235">
+      <c r="DP14" s="242"/>
+      <c r="DQ14" s="242"/>
+      <c r="DR14" s="242"/>
+      <c r="DS14" s="242"/>
+      <c r="DT14" s="242"/>
+      <c r="DU14" s="242"/>
+      <c r="DV14" s="242">
         <f>DV12</f>
         <v>42198</v>
       </c>
-      <c r="DW14" s="235"/>
-      <c r="DX14" s="235"/>
-      <c r="DY14" s="235"/>
-      <c r="DZ14" s="235"/>
-      <c r="EA14" s="235"/>
-      <c r="EB14" s="235"/>
-      <c r="EC14" s="235">
+      <c r="DW14" s="242"/>
+      <c r="DX14" s="242"/>
+      <c r="DY14" s="242"/>
+      <c r="DZ14" s="242"/>
+      <c r="EA14" s="242"/>
+      <c r="EB14" s="242"/>
+      <c r="EC14" s="242">
         <f>EC12</f>
         <v>42205</v>
       </c>
-      <c r="ED14" s="235"/>
-      <c r="EE14" s="235"/>
-      <c r="EF14" s="235"/>
-      <c r="EG14" s="235"/>
-      <c r="EH14" s="235"/>
-      <c r="EI14" s="235"/>
-      <c r="EJ14" s="235">
+      <c r="ED14" s="242"/>
+      <c r="EE14" s="242"/>
+      <c r="EF14" s="242"/>
+      <c r="EG14" s="242"/>
+      <c r="EH14" s="242"/>
+      <c r="EI14" s="242"/>
+      <c r="EJ14" s="242">
         <f>EJ12</f>
         <v>42212</v>
       </c>
-      <c r="EK14" s="235"/>
-      <c r="EL14" s="235"/>
-      <c r="EM14" s="235"/>
-      <c r="EN14" s="235"/>
-      <c r="EO14" s="235"/>
-      <c r="EP14" s="236"/>
+      <c r="EK14" s="242"/>
+      <c r="EL14" s="242"/>
+      <c r="EM14" s="242"/>
+      <c r="EN14" s="242"/>
+      <c r="EO14" s="242"/>
+      <c r="EP14" s="244"/>
       <c r="EQ14" s="48"/>
     </row>
     <row r="15" spans="1:755" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13713,19 +13713,19 @@
       </c>
       <c r="J23" s="80">
         <f>AVERAGE(J24:J28)</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M23" s="229">
         <f t="shared" si="24"/>
-        <v>42107</v>
+        <v>42109</v>
       </c>
       <c r="N23" s="206"/>
       <c r="O23" s="83"/>
@@ -13886,19 +13886,19 @@
         <v>42103</v>
       </c>
       <c r="J24" s="80">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K24" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-15</v>
+        <v>999</v>
       </c>
       <c r="L24" s="228">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M24" s="229">
         <f t="shared" si="24"/>
-        <v>42102</v>
+        <v>42103</v>
       </c>
       <c r="N24" s="206"/>
       <c r="O24" s="83"/>
@@ -14059,19 +14059,19 @@
         <v>42107</v>
       </c>
       <c r="J25" s="80">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K25" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-11</v>
+        <v>999</v>
       </c>
       <c r="L25" s="228">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" s="229">
         <f t="shared" si="24"/>
-        <v>42106</v>
+        <v>42107</v>
       </c>
       <c r="N25" s="206"/>
       <c r="O25" s="83"/>
@@ -14236,7 +14236,7 @@
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
@@ -14405,11 +14405,11 @@
         <v>42115</v>
       </c>
       <c r="J27" s="80">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K27" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="L27" s="228">
         <f t="shared" si="22"/>
@@ -14743,19 +14743,19 @@
       </c>
       <c r="J29" s="80">
         <f>AVERAGE(J30:J34)</f>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="229">
         <f t="shared" si="24"/>
-        <v>42117</v>
+        <v>42120</v>
       </c>
       <c r="N29" s="206"/>
       <c r="O29" s="83"/>
@@ -14916,19 +14916,19 @@
         <v>42123</v>
       </c>
       <c r="J30" s="80">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K30" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="L30" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="229">
         <f t="shared" si="24"/>
-        <v>42117</v>
+        <v>42120</v>
       </c>
       <c r="N30" s="206"/>
       <c r="O30" s="83"/>
@@ -15089,19 +15089,19 @@
         <v>42128</v>
       </c>
       <c r="J31" s="80">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="229">
         <f t="shared" si="24"/>
-        <v>42123</v>
+        <v>42124</v>
       </c>
       <c r="N31" s="206"/>
       <c r="O31" s="83"/>
@@ -15266,7 +15266,7 @@
       </c>
       <c r="K32" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="L32" s="228">
         <f t="shared" si="22"/>
@@ -15768,7 +15768,7 @@
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
@@ -15941,7 +15941,7 @@
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
@@ -16114,7 +16114,7 @@
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
@@ -16287,7 +16287,7 @@
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L38" s="228">
         <f t="shared" si="22"/>
@@ -16458,7 +16458,7 @@
       <c r="J39" s="80"/>
       <c r="K39" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L39" s="228">
         <f t="shared" si="22"/>
@@ -16630,7 +16630,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L40" s="228" t="str">
         <f t="shared" si="22"/>
@@ -16967,7 +16967,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17140,7 +17140,7 @@
       </c>
       <c r="K43" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L43" s="228">
         <f t="shared" si="22"/>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="K44" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L44" s="228">
         <f t="shared" si="22"/>
@@ -17486,7 +17486,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L48" s="228">
         <f t="shared" si="22"/>
@@ -18161,7 +18161,7 @@
       </c>
       <c r="K49" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L49" s="228">
         <f t="shared" si="22"/>
@@ -18334,7 +18334,7 @@
       </c>
       <c r="K50" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L50" s="228">
         <f t="shared" si="22"/>
@@ -18507,7 +18507,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -18679,7 +18679,7 @@
       </c>
       <c r="K52" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L52" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19180,7 +19180,7 @@
       </c>
       <c r="K55" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L55" s="228">
         <f t="shared" si="22"/>
@@ -21120,45 +21120,45 @@
       <c r="EQ66" s="37"/>
     </row>
     <row r="67" spans="1:147" s="3" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="237"/>
-      <c r="B67" s="238"/>
-      <c r="C67" s="238"/>
-      <c r="D67" s="238"/>
-      <c r="E67" s="238"/>
-      <c r="F67" s="238"/>
-      <c r="G67" s="238"/>
-      <c r="H67" s="238"/>
-      <c r="I67" s="238"/>
-      <c r="J67" s="238"/>
-      <c r="K67" s="238"/>
-      <c r="L67" s="238"/>
-      <c r="M67" s="238"/>
-      <c r="N67" s="238"/>
-      <c r="O67" s="238"/>
-      <c r="P67" s="238"/>
-      <c r="Q67" s="238"/>
-      <c r="R67" s="238"/>
-      <c r="S67" s="238"/>
-      <c r="T67" s="238"/>
-      <c r="U67" s="238"/>
-      <c r="V67" s="238"/>
-      <c r="W67" s="238"/>
-      <c r="X67" s="238"/>
-      <c r="Y67" s="238"/>
-      <c r="Z67" s="238"/>
-      <c r="AA67" s="238"/>
-      <c r="AB67" s="238"/>
-      <c r="AC67" s="238"/>
-      <c r="AD67" s="238"/>
-      <c r="AE67" s="238"/>
-      <c r="AF67" s="238"/>
-      <c r="AG67" s="238"/>
-      <c r="AH67" s="238"/>
-      <c r="AI67" s="238"/>
-      <c r="AJ67" s="238"/>
-      <c r="AK67" s="238"/>
-      <c r="AL67" s="238"/>
-      <c r="AM67" s="238"/>
+      <c r="A67" s="245"/>
+      <c r="B67" s="246"/>
+      <c r="C67" s="246"/>
+      <c r="D67" s="246"/>
+      <c r="E67" s="246"/>
+      <c r="F67" s="246"/>
+      <c r="G67" s="246"/>
+      <c r="H67" s="246"/>
+      <c r="I67" s="246"/>
+      <c r="J67" s="246"/>
+      <c r="K67" s="246"/>
+      <c r="L67" s="246"/>
+      <c r="M67" s="246"/>
+      <c r="N67" s="246"/>
+      <c r="O67" s="246"/>
+      <c r="P67" s="246"/>
+      <c r="Q67" s="246"/>
+      <c r="R67" s="246"/>
+      <c r="S67" s="246"/>
+      <c r="T67" s="246"/>
+      <c r="U67" s="246"/>
+      <c r="V67" s="246"/>
+      <c r="W67" s="246"/>
+      <c r="X67" s="246"/>
+      <c r="Y67" s="246"/>
+      <c r="Z67" s="246"/>
+      <c r="AA67" s="246"/>
+      <c r="AB67" s="246"/>
+      <c r="AC67" s="246"/>
+      <c r="AD67" s="246"/>
+      <c r="AE67" s="246"/>
+      <c r="AF67" s="246"/>
+      <c r="AG67" s="246"/>
+      <c r="AH67" s="246"/>
+      <c r="AI67" s="246"/>
+      <c r="AJ67" s="246"/>
+      <c r="AK67" s="246"/>
+      <c r="AL67" s="246"/>
+      <c r="AM67" s="246"/>
       <c r="AN67" s="100"/>
       <c r="AO67" s="100"/>
       <c r="AP67" s="100"/>
@@ -21189,85 +21189,85 @@
       <c r="BO67" s="100"/>
       <c r="BP67" s="100"/>
       <c r="BQ67" s="100"/>
-      <c r="BR67" s="239" t="s">
+      <c r="BR67" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="BS67" s="239"/>
-      <c r="BT67" s="239"/>
-      <c r="BU67" s="239"/>
-      <c r="BV67" s="239"/>
-      <c r="BW67" s="239"/>
-      <c r="BX67" s="239"/>
-      <c r="BY67" s="239"/>
-      <c r="BZ67" s="239"/>
-      <c r="CA67" s="239"/>
-      <c r="CB67" s="239"/>
-      <c r="CC67" s="239"/>
-      <c r="CD67" s="239"/>
-      <c r="CE67" s="239"/>
-      <c r="CF67" s="239"/>
-      <c r="CG67" s="239"/>
-      <c r="CH67" s="239"/>
-      <c r="CI67" s="239"/>
-      <c r="CJ67" s="239"/>
-      <c r="CK67" s="239"/>
-      <c r="CL67" s="239"/>
-      <c r="CM67" s="239"/>
-      <c r="CN67" s="239"/>
-      <c r="CO67" s="239"/>
-      <c r="CP67" s="239"/>
-      <c r="CQ67" s="239"/>
-      <c r="CR67" s="239"/>
-      <c r="CS67" s="239"/>
-      <c r="CT67" s="239"/>
-      <c r="CU67" s="239"/>
-      <c r="CV67" s="239"/>
-      <c r="CW67" s="239"/>
-      <c r="CX67" s="239"/>
-      <c r="CY67" s="239"/>
-      <c r="CZ67" s="239"/>
-      <c r="DA67" s="239"/>
-      <c r="DB67" s="239"/>
-      <c r="DC67" s="239"/>
-      <c r="DD67" s="239"/>
-      <c r="DE67" s="239"/>
-      <c r="DF67" s="239"/>
-      <c r="DG67" s="239"/>
-      <c r="DH67" s="239"/>
-      <c r="DI67" s="239"/>
-      <c r="DJ67" s="239"/>
-      <c r="DK67" s="239"/>
-      <c r="DL67" s="239"/>
-      <c r="DM67" s="239"/>
-      <c r="DN67" s="239"/>
-      <c r="DO67" s="239"/>
-      <c r="DP67" s="239"/>
-      <c r="DQ67" s="239"/>
-      <c r="DR67" s="239"/>
-      <c r="DS67" s="239"/>
-      <c r="DT67" s="239"/>
-      <c r="DU67" s="239"/>
-      <c r="DV67" s="239"/>
-      <c r="DW67" s="239"/>
-      <c r="DX67" s="239"/>
-      <c r="DY67" s="239"/>
-      <c r="DZ67" s="239"/>
-      <c r="EA67" s="239"/>
-      <c r="EB67" s="239"/>
-      <c r="EC67" s="239"/>
-      <c r="ED67" s="239"/>
-      <c r="EE67" s="239"/>
-      <c r="EF67" s="239"/>
-      <c r="EG67" s="239"/>
-      <c r="EH67" s="239"/>
-      <c r="EI67" s="239"/>
-      <c r="EJ67" s="239"/>
-      <c r="EK67" s="239"/>
-      <c r="EL67" s="239"/>
-      <c r="EM67" s="239"/>
-      <c r="EN67" s="239"/>
-      <c r="EO67" s="239"/>
-      <c r="EP67" s="240"/>
+      <c r="BS67" s="247"/>
+      <c r="BT67" s="247"/>
+      <c r="BU67" s="247"/>
+      <c r="BV67" s="247"/>
+      <c r="BW67" s="247"/>
+      <c r="BX67" s="247"/>
+      <c r="BY67" s="247"/>
+      <c r="BZ67" s="247"/>
+      <c r="CA67" s="247"/>
+      <c r="CB67" s="247"/>
+      <c r="CC67" s="247"/>
+      <c r="CD67" s="247"/>
+      <c r="CE67" s="247"/>
+      <c r="CF67" s="247"/>
+      <c r="CG67" s="247"/>
+      <c r="CH67" s="247"/>
+      <c r="CI67" s="247"/>
+      <c r="CJ67" s="247"/>
+      <c r="CK67" s="247"/>
+      <c r="CL67" s="247"/>
+      <c r="CM67" s="247"/>
+      <c r="CN67" s="247"/>
+      <c r="CO67" s="247"/>
+      <c r="CP67" s="247"/>
+      <c r="CQ67" s="247"/>
+      <c r="CR67" s="247"/>
+      <c r="CS67" s="247"/>
+      <c r="CT67" s="247"/>
+      <c r="CU67" s="247"/>
+      <c r="CV67" s="247"/>
+      <c r="CW67" s="247"/>
+      <c r="CX67" s="247"/>
+      <c r="CY67" s="247"/>
+      <c r="CZ67" s="247"/>
+      <c r="DA67" s="247"/>
+      <c r="DB67" s="247"/>
+      <c r="DC67" s="247"/>
+      <c r="DD67" s="247"/>
+      <c r="DE67" s="247"/>
+      <c r="DF67" s="247"/>
+      <c r="DG67" s="247"/>
+      <c r="DH67" s="247"/>
+      <c r="DI67" s="247"/>
+      <c r="DJ67" s="247"/>
+      <c r="DK67" s="247"/>
+      <c r="DL67" s="247"/>
+      <c r="DM67" s="247"/>
+      <c r="DN67" s="247"/>
+      <c r="DO67" s="247"/>
+      <c r="DP67" s="247"/>
+      <c r="DQ67" s="247"/>
+      <c r="DR67" s="247"/>
+      <c r="DS67" s="247"/>
+      <c r="DT67" s="247"/>
+      <c r="DU67" s="247"/>
+      <c r="DV67" s="247"/>
+      <c r="DW67" s="247"/>
+      <c r="DX67" s="247"/>
+      <c r="DY67" s="247"/>
+      <c r="DZ67" s="247"/>
+      <c r="EA67" s="247"/>
+      <c r="EB67" s="247"/>
+      <c r="EC67" s="247"/>
+      <c r="ED67" s="247"/>
+      <c r="EE67" s="247"/>
+      <c r="EF67" s="247"/>
+      <c r="EG67" s="247"/>
+      <c r="EH67" s="247"/>
+      <c r="EI67" s="247"/>
+      <c r="EJ67" s="247"/>
+      <c r="EK67" s="247"/>
+      <c r="EL67" s="247"/>
+      <c r="EM67" s="247"/>
+      <c r="EN67" s="247"/>
+      <c r="EO67" s="247"/>
+      <c r="EP67" s="248"/>
       <c r="EQ67" s="48"/>
     </row>
     <row r="68" spans="1:147" x14ac:dyDescent="0.25">
@@ -21419,172 +21419,186 @@
       <c r="EQ68" s="37"/>
     </row>
     <row r="69" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A69" s="234"/>
-      <c r="B69" s="234"/>
-      <c r="C69" s="234"/>
-      <c r="D69" s="234"/>
-      <c r="E69" s="234"/>
-      <c r="F69" s="234"/>
-      <c r="G69" s="234"/>
-      <c r="H69" s="234"/>
-      <c r="I69" s="234"/>
-      <c r="J69" s="234"/>
-      <c r="K69" s="234"/>
-      <c r="L69" s="234"/>
-      <c r="M69" s="234"/>
-      <c r="N69" s="234"/>
-      <c r="O69" s="234"/>
-      <c r="P69" s="234"/>
-      <c r="Q69" s="234"/>
-      <c r="R69" s="234"/>
-      <c r="S69" s="234"/>
-      <c r="T69" s="234"/>
-      <c r="U69" s="234"/>
-      <c r="V69" s="234"/>
-      <c r="W69" s="234"/>
-      <c r="X69" s="234"/>
-      <c r="Y69" s="234"/>
-      <c r="Z69" s="234"/>
-      <c r="AA69" s="234"/>
-      <c r="AB69" s="234"/>
-      <c r="AC69" s="234"/>
-      <c r="AD69" s="234"/>
-      <c r="AE69" s="234"/>
-      <c r="AF69" s="234"/>
-      <c r="AG69" s="234"/>
-      <c r="AH69" s="234"/>
-      <c r="AI69" s="234"/>
-      <c r="AJ69" s="234"/>
-      <c r="AK69" s="234"/>
-      <c r="AL69" s="234"/>
-      <c r="AM69" s="234"/>
-      <c r="AN69" s="234"/>
-      <c r="AO69" s="234"/>
-      <c r="AP69" s="234"/>
-      <c r="AQ69" s="234"/>
-      <c r="AR69" s="234"/>
-      <c r="AS69" s="234"/>
-      <c r="AT69" s="234"/>
-      <c r="AU69" s="234"/>
-      <c r="AV69" s="234"/>
-      <c r="AW69" s="234"/>
-      <c r="AX69" s="234"/>
-      <c r="AY69" s="234"/>
-      <c r="AZ69" s="234"/>
-      <c r="BA69" s="234"/>
-      <c r="BB69" s="234"/>
-      <c r="BC69" s="234"/>
-      <c r="BD69" s="234"/>
-      <c r="BE69" s="234"/>
-      <c r="BF69" s="234"/>
-      <c r="BG69" s="234"/>
-      <c r="BH69" s="234"/>
-      <c r="BI69" s="234"/>
-      <c r="BJ69" s="234"/>
-      <c r="BK69" s="234"/>
-      <c r="BL69" s="234"/>
-      <c r="BM69" s="234"/>
-      <c r="BN69" s="234"/>
-      <c r="BO69" s="234"/>
-      <c r="BP69" s="234"/>
-      <c r="BQ69" s="234"/>
-      <c r="BR69" s="234"/>
-      <c r="BS69" s="234"/>
-      <c r="BT69" s="234"/>
-      <c r="BU69" s="234"/>
-      <c r="BV69" s="234"/>
-      <c r="BW69" s="234"/>
-      <c r="BX69" s="234"/>
-      <c r="BY69" s="234"/>
-      <c r="BZ69" s="234"/>
-      <c r="CA69" s="234"/>
-      <c r="CB69" s="234"/>
-      <c r="CC69" s="234"/>
-      <c r="CD69" s="234"/>
-      <c r="CE69" s="234"/>
-      <c r="CF69" s="234"/>
-      <c r="CG69" s="234"/>
-      <c r="CH69" s="234"/>
-      <c r="CI69" s="234"/>
-      <c r="CJ69" s="234"/>
-      <c r="CK69" s="234"/>
-      <c r="CL69" s="234"/>
-      <c r="CM69" s="234"/>
-      <c r="CN69" s="234"/>
-      <c r="CO69" s="234"/>
-      <c r="CP69" s="234"/>
-      <c r="CQ69" s="234"/>
-      <c r="CR69" s="234"/>
-      <c r="CS69" s="234"/>
-      <c r="CT69" s="234"/>
-      <c r="CU69" s="234"/>
-      <c r="CV69" s="234"/>
-      <c r="CW69" s="234"/>
-      <c r="CX69" s="234"/>
-      <c r="CY69" s="234"/>
-      <c r="CZ69" s="234"/>
-      <c r="DA69" s="234"/>
-      <c r="DB69" s="234"/>
-      <c r="DC69" s="234"/>
-      <c r="DD69" s="234"/>
-      <c r="DE69" s="234"/>
-      <c r="DF69" s="234"/>
-      <c r="DG69" s="234"/>
-      <c r="DH69" s="234"/>
-      <c r="DI69" s="234"/>
-      <c r="DJ69" s="234"/>
-      <c r="DK69" s="234"/>
-      <c r="DL69" s="234"/>
-      <c r="DM69" s="234"/>
-      <c r="DN69" s="234"/>
-      <c r="DO69" s="234"/>
-      <c r="DP69" s="234"/>
-      <c r="DQ69" s="234"/>
-      <c r="DR69" s="234"/>
-      <c r="DS69" s="234"/>
-      <c r="DT69" s="234"/>
-      <c r="DU69" s="234"/>
-      <c r="DV69" s="234"/>
-      <c r="DW69" s="234"/>
-      <c r="DX69" s="234"/>
-      <c r="DY69" s="234"/>
-      <c r="DZ69" s="234"/>
-      <c r="EA69" s="234"/>
-      <c r="EB69" s="234"/>
-      <c r="EC69" s="234"/>
-      <c r="ED69" s="234"/>
-      <c r="EE69" s="234"/>
-      <c r="EF69" s="234"/>
-      <c r="EG69" s="234"/>
-      <c r="EH69" s="234"/>
-      <c r="EI69" s="234"/>
-      <c r="EJ69" s="234"/>
-      <c r="EK69" s="234"/>
-      <c r="EL69" s="234"/>
-      <c r="EM69" s="234"/>
-      <c r="EN69" s="234"/>
-      <c r="EO69" s="234"/>
-      <c r="EP69" s="234"/>
+      <c r="A69" s="243"/>
+      <c r="B69" s="243"/>
+      <c r="C69" s="243"/>
+      <c r="D69" s="243"/>
+      <c r="E69" s="243"/>
+      <c r="F69" s="243"/>
+      <c r="G69" s="243"/>
+      <c r="H69" s="243"/>
+      <c r="I69" s="243"/>
+      <c r="J69" s="243"/>
+      <c r="K69" s="243"/>
+      <c r="L69" s="243"/>
+      <c r="M69" s="243"/>
+      <c r="N69" s="243"/>
+      <c r="O69" s="243"/>
+      <c r="P69" s="243"/>
+      <c r="Q69" s="243"/>
+      <c r="R69" s="243"/>
+      <c r="S69" s="243"/>
+      <c r="T69" s="243"/>
+      <c r="U69" s="243"/>
+      <c r="V69" s="243"/>
+      <c r="W69" s="243"/>
+      <c r="X69" s="243"/>
+      <c r="Y69" s="243"/>
+      <c r="Z69" s="243"/>
+      <c r="AA69" s="243"/>
+      <c r="AB69" s="243"/>
+      <c r="AC69" s="243"/>
+      <c r="AD69" s="243"/>
+      <c r="AE69" s="243"/>
+      <c r="AF69" s="243"/>
+      <c r="AG69" s="243"/>
+      <c r="AH69" s="243"/>
+      <c r="AI69" s="243"/>
+      <c r="AJ69" s="243"/>
+      <c r="AK69" s="243"/>
+      <c r="AL69" s="243"/>
+      <c r="AM69" s="243"/>
+      <c r="AN69" s="243"/>
+      <c r="AO69" s="243"/>
+      <c r="AP69" s="243"/>
+      <c r="AQ69" s="243"/>
+      <c r="AR69" s="243"/>
+      <c r="AS69" s="243"/>
+      <c r="AT69" s="243"/>
+      <c r="AU69" s="243"/>
+      <c r="AV69" s="243"/>
+      <c r="AW69" s="243"/>
+      <c r="AX69" s="243"/>
+      <c r="AY69" s="243"/>
+      <c r="AZ69" s="243"/>
+      <c r="BA69" s="243"/>
+      <c r="BB69" s="243"/>
+      <c r="BC69" s="243"/>
+      <c r="BD69" s="243"/>
+      <c r="BE69" s="243"/>
+      <c r="BF69" s="243"/>
+      <c r="BG69" s="243"/>
+      <c r="BH69" s="243"/>
+      <c r="BI69" s="243"/>
+      <c r="BJ69" s="243"/>
+      <c r="BK69" s="243"/>
+      <c r="BL69" s="243"/>
+      <c r="BM69" s="243"/>
+      <c r="BN69" s="243"/>
+      <c r="BO69" s="243"/>
+      <c r="BP69" s="243"/>
+      <c r="BQ69" s="243"/>
+      <c r="BR69" s="243"/>
+      <c r="BS69" s="243"/>
+      <c r="BT69" s="243"/>
+      <c r="BU69" s="243"/>
+      <c r="BV69" s="243"/>
+      <c r="BW69" s="243"/>
+      <c r="BX69" s="243"/>
+      <c r="BY69" s="243"/>
+      <c r="BZ69" s="243"/>
+      <c r="CA69" s="243"/>
+      <c r="CB69" s="243"/>
+      <c r="CC69" s="243"/>
+      <c r="CD69" s="243"/>
+      <c r="CE69" s="243"/>
+      <c r="CF69" s="243"/>
+      <c r="CG69" s="243"/>
+      <c r="CH69" s="243"/>
+      <c r="CI69" s="243"/>
+      <c r="CJ69" s="243"/>
+      <c r="CK69" s="243"/>
+      <c r="CL69" s="243"/>
+      <c r="CM69" s="243"/>
+      <c r="CN69" s="243"/>
+      <c r="CO69" s="243"/>
+      <c r="CP69" s="243"/>
+      <c r="CQ69" s="243"/>
+      <c r="CR69" s="243"/>
+      <c r="CS69" s="243"/>
+      <c r="CT69" s="243"/>
+      <c r="CU69" s="243"/>
+      <c r="CV69" s="243"/>
+      <c r="CW69" s="243"/>
+      <c r="CX69" s="243"/>
+      <c r="CY69" s="243"/>
+      <c r="CZ69" s="243"/>
+      <c r="DA69" s="243"/>
+      <c r="DB69" s="243"/>
+      <c r="DC69" s="243"/>
+      <c r="DD69" s="243"/>
+      <c r="DE69" s="243"/>
+      <c r="DF69" s="243"/>
+      <c r="DG69" s="243"/>
+      <c r="DH69" s="243"/>
+      <c r="DI69" s="243"/>
+      <c r="DJ69" s="243"/>
+      <c r="DK69" s="243"/>
+      <c r="DL69" s="243"/>
+      <c r="DM69" s="243"/>
+      <c r="DN69" s="243"/>
+      <c r="DO69" s="243"/>
+      <c r="DP69" s="243"/>
+      <c r="DQ69" s="243"/>
+      <c r="DR69" s="243"/>
+      <c r="DS69" s="243"/>
+      <c r="DT69" s="243"/>
+      <c r="DU69" s="243"/>
+      <c r="DV69" s="243"/>
+      <c r="DW69" s="243"/>
+      <c r="DX69" s="243"/>
+      <c r="DY69" s="243"/>
+      <c r="DZ69" s="243"/>
+      <c r="EA69" s="243"/>
+      <c r="EB69" s="243"/>
+      <c r="EC69" s="243"/>
+      <c r="ED69" s="243"/>
+      <c r="EE69" s="243"/>
+      <c r="EF69" s="243"/>
+      <c r="EG69" s="243"/>
+      <c r="EH69" s="243"/>
+      <c r="EI69" s="243"/>
+      <c r="EJ69" s="243"/>
+      <c r="EK69" s="243"/>
+      <c r="EL69" s="243"/>
+      <c r="EM69" s="243"/>
+      <c r="EN69" s="243"/>
+      <c r="EO69" s="243"/>
+      <c r="EP69" s="243"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AI13:AM13"/>
-    <mergeCell ref="AP13:AT13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="BY11:EP11"/>
-    <mergeCell ref="DV13:DZ13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="BD13:BH13"/>
-    <mergeCell ref="BK13:BO13"/>
-    <mergeCell ref="BR13:BV13"/>
-    <mergeCell ref="BY13:CC13"/>
-    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="A69:EP69"/>
+    <mergeCell ref="EA14:EB14"/>
+    <mergeCell ref="EC14:EG14"/>
+    <mergeCell ref="EH14:EI14"/>
+    <mergeCell ref="EJ14:EN14"/>
+    <mergeCell ref="EO14:EP14"/>
+    <mergeCell ref="A67:AM67"/>
+    <mergeCell ref="BR67:EP67"/>
+    <mergeCell ref="DF14:DG14"/>
+    <mergeCell ref="DH14:DL14"/>
+    <mergeCell ref="DM14:DN14"/>
+    <mergeCell ref="DO14:DS14"/>
+    <mergeCell ref="DT14:DU14"/>
+    <mergeCell ref="DV14:DZ14"/>
+    <mergeCell ref="CK14:CL14"/>
+    <mergeCell ref="CM14:CQ14"/>
+    <mergeCell ref="CR14:CS14"/>
+    <mergeCell ref="CT14:CX14"/>
+    <mergeCell ref="CY14:CZ14"/>
+    <mergeCell ref="DA14:DE14"/>
+    <mergeCell ref="BP14:BQ14"/>
+    <mergeCell ref="BR14:BV14"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BY14:CC14"/>
+    <mergeCell ref="CD14:CE14"/>
+    <mergeCell ref="CF14:CJ14"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BD14:BH14"/>
+    <mergeCell ref="BI14:BJ14"/>
     <mergeCell ref="BK14:BO14"/>
     <mergeCell ref="EC13:EG13"/>
     <mergeCell ref="EJ13:EN13"/>
@@ -21601,37 +21615,23 @@
     <mergeCell ref="DA13:DE13"/>
     <mergeCell ref="DH13:DL13"/>
     <mergeCell ref="DO13:DS13"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BD14:BH14"/>
-    <mergeCell ref="BI14:BJ14"/>
-    <mergeCell ref="CR14:CS14"/>
-    <mergeCell ref="CT14:CX14"/>
-    <mergeCell ref="CY14:CZ14"/>
-    <mergeCell ref="DA14:DE14"/>
-    <mergeCell ref="BP14:BQ14"/>
-    <mergeCell ref="BR14:BV14"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BY14:CC14"/>
-    <mergeCell ref="CD14:CE14"/>
-    <mergeCell ref="CF14:CJ14"/>
-    <mergeCell ref="A69:EP69"/>
-    <mergeCell ref="EA14:EB14"/>
-    <mergeCell ref="EC14:EG14"/>
-    <mergeCell ref="EH14:EI14"/>
-    <mergeCell ref="EJ14:EN14"/>
-    <mergeCell ref="EO14:EP14"/>
-    <mergeCell ref="A67:AM67"/>
-    <mergeCell ref="BR67:EP67"/>
-    <mergeCell ref="DF14:DG14"/>
-    <mergeCell ref="DH14:DL14"/>
-    <mergeCell ref="DM14:DN14"/>
-    <mergeCell ref="DO14:DS14"/>
-    <mergeCell ref="DT14:DU14"/>
-    <mergeCell ref="DV14:DZ14"/>
-    <mergeCell ref="CK14:CL14"/>
-    <mergeCell ref="CM14:CQ14"/>
+    <mergeCell ref="DV13:DZ13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="BD13:BH13"/>
+    <mergeCell ref="BK13:BO13"/>
+    <mergeCell ref="BR13:BV13"/>
+    <mergeCell ref="BY13:CC13"/>
+    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="BY11:EP11"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AI13:AM13"/>
+    <mergeCell ref="AP13:AT13"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H40:H44 H29:H31 H33:H37 H46:H65">
     <cfRule type="expression" dxfId="109" priority="112">

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28500" yWindow="0" windowWidth="27300" windowHeight="12420"/>
+    <workbookView xWindow="30000" yWindow="0" windowWidth="27300" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -3349,10 +3349,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="I33" sqref="I33"/>
+      <selection pane="topRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -13717,7 +13717,7 @@
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-18</v>
+        <v>-30</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
@@ -14236,7 +14236,7 @@
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-18</v>
+        <v>-30</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="K27" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-14</v>
+        <v>-26</v>
       </c>
       <c r="L27" s="228">
         <f t="shared" si="22"/>
@@ -14743,19 +14743,19 @@
       </c>
       <c r="J29" s="80">
         <f>AVERAGE(J30:J34)</f>
-        <v>0.23333333333333331</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-7</v>
+        <v>-15</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M29" s="229">
         <f t="shared" si="24"/>
-        <v>42120</v>
+        <v>42124</v>
       </c>
       <c r="N29" s="206"/>
       <c r="O29" s="83"/>
@@ -14916,19 +14916,19 @@
         <v>42123</v>
       </c>
       <c r="J30" s="80">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K30" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-7</v>
+        <v>-17</v>
       </c>
       <c r="L30" s="228">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M30" s="229">
         <f t="shared" si="24"/>
-        <v>42120</v>
+        <v>42122</v>
       </c>
       <c r="N30" s="206"/>
       <c r="O30" s="83"/>
@@ -15089,19 +15089,19 @@
         <v>42128</v>
       </c>
       <c r="J31" s="80">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31" s="229">
         <f t="shared" si="24"/>
-        <v>42124</v>
+        <v>42127</v>
       </c>
       <c r="N31" s="206"/>
       <c r="O31" s="83"/>
@@ -15266,7 +15266,7 @@
       </c>
       <c r="K32" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-10</v>
+        <v>-22</v>
       </c>
       <c r="L32" s="228">
         <f t="shared" si="22"/>
@@ -15764,19 +15764,19 @@
       </c>
       <c r="J35" s="80">
         <f>AVERAGE(J36:J41)</f>
-        <v>0</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M35" s="229">
         <f t="shared" si="24"/>
-        <v>42131</v>
+        <v>42134</v>
       </c>
       <c r="N35" s="206"/>
       <c r="O35" s="83"/>
@@ -15937,19 +15937,19 @@
         <v>42136</v>
       </c>
       <c r="J36" s="80">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" s="229">
         <f t="shared" si="24"/>
-        <v>42131</v>
+        <v>42134</v>
       </c>
       <c r="N36" s="206"/>
       <c r="O36" s="83"/>
@@ -16110,19 +16110,19 @@
         <v>42141</v>
       </c>
       <c r="J37" s="80">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="229">
         <f t="shared" si="24"/>
-        <v>42136</v>
+        <v>42137</v>
       </c>
       <c r="N37" s="206"/>
       <c r="O37" s="83"/>
@@ -16287,7 +16287,7 @@
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L38" s="228">
         <f t="shared" si="22"/>
@@ -16458,7 +16458,7 @@
       <c r="J39" s="80"/>
       <c r="K39" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="L39" s="228">
         <f t="shared" si="22"/>
@@ -16630,7 +16630,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L40" s="228" t="str">
         <f t="shared" si="22"/>
@@ -16967,7 +16967,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17140,7 +17140,7 @@
       </c>
       <c r="K43" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L43" s="228">
         <f t="shared" si="22"/>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="K44" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="L44" s="228">
         <f t="shared" si="22"/>
@@ -17486,7 +17486,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L48" s="228">
         <f t="shared" si="22"/>
@@ -18161,7 +18161,7 @@
       </c>
       <c r="K49" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L49" s="228">
         <f t="shared" si="22"/>
@@ -18334,7 +18334,7 @@
       </c>
       <c r="K50" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L50" s="228">
         <f t="shared" si="22"/>
@@ -18507,7 +18507,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -18679,7 +18679,7 @@
       </c>
       <c r="K52" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="L52" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19180,7 +19180,7 @@
       </c>
       <c r="K55" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="L55" s="228">
         <f t="shared" si="22"/>

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -3349,10 +3349,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="J37" sqref="J37"/>
+      <selection pane="topRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -13713,19 +13713,19 @@
       </c>
       <c r="J23" s="80">
         <f>AVERAGE(J24:J28)</f>
-        <v>0.625</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M23" s="229">
         <f t="shared" si="24"/>
-        <v>42109</v>
+        <v>42111</v>
       </c>
       <c r="N23" s="206"/>
       <c r="O23" s="83"/>
@@ -14232,19 +14232,19 @@
         <v>42113</v>
       </c>
       <c r="J26" s="80">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26" s="229">
         <f t="shared" si="24"/>
-        <v>42109</v>
+        <v>42111</v>
       </c>
       <c r="N26" s="206"/>
       <c r="O26" s="83"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="K27" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-26</v>
+        <v>-31</v>
       </c>
       <c r="L27" s="228">
         <f t="shared" si="22"/>
@@ -14743,19 +14743,19 @@
       </c>
       <c r="J29" s="80">
         <f>AVERAGE(J30:J34)</f>
-        <v>0.53333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M29" s="229">
         <f t="shared" si="24"/>
-        <v>42124</v>
+        <v>42125</v>
       </c>
       <c r="N29" s="206"/>
       <c r="O29" s="83"/>
@@ -14916,19 +14916,19 @@
         <v>42123</v>
       </c>
       <c r="J30" s="80">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K30" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-17</v>
+        <v>999</v>
       </c>
       <c r="L30" s="228">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M30" s="229">
         <f t="shared" si="24"/>
-        <v>42122</v>
+        <v>42123</v>
       </c>
       <c r="N30" s="206"/>
       <c r="O30" s="83"/>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
@@ -15266,7 +15266,7 @@
       </c>
       <c r="K32" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-22</v>
+        <v>-27</v>
       </c>
       <c r="L32" s="228">
         <f t="shared" si="22"/>
@@ -15764,19 +15764,19 @@
       </c>
       <c r="J35" s="80">
         <f>AVERAGE(J36:J41)</f>
-        <v>0.17499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M35" s="229">
         <f t="shared" si="24"/>
-        <v>42134</v>
+        <v>42136</v>
       </c>
       <c r="N35" s="206"/>
       <c r="O35" s="83"/>
@@ -15941,7 +15941,7 @@
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
@@ -16110,19 +16110,19 @@
         <v>42141</v>
       </c>
       <c r="J37" s="80">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" s="229">
         <f t="shared" si="24"/>
-        <v>42137</v>
+        <v>42138</v>
       </c>
       <c r="N37" s="206"/>
       <c r="O37" s="83"/>
@@ -16283,19 +16283,19 @@
         <v>42146</v>
       </c>
       <c r="J38" s="80">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L38" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38" s="229">
         <f t="shared" si="24"/>
-        <v>42141</v>
+        <v>42143</v>
       </c>
       <c r="N38" s="206"/>
       <c r="O38" s="83"/>
@@ -16458,7 +16458,7 @@
       <c r="J39" s="80"/>
       <c r="K39" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="L39" s="228">
         <f t="shared" si="22"/>
@@ -16630,7 +16630,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L40" s="228" t="str">
         <f t="shared" si="22"/>
@@ -16967,7 +16967,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17140,7 +17140,7 @@
       </c>
       <c r="K43" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L43" s="228">
         <f t="shared" si="22"/>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="K44" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L44" s="228">
         <f t="shared" si="22"/>
@@ -17486,7 +17486,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L48" s="228">
         <f t="shared" si="22"/>
@@ -18161,7 +18161,7 @@
       </c>
       <c r="K49" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L49" s="228">
         <f t="shared" si="22"/>
@@ -18334,7 +18334,7 @@
       </c>
       <c r="K50" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L50" s="228">
         <f t="shared" si="22"/>
@@ -18507,7 +18507,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -18679,7 +18679,7 @@
       </c>
       <c r="K52" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L52" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19180,7 +19180,7 @@
       </c>
       <c r="K55" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L55" s="228">
         <f t="shared" si="22"/>

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -286,7 +286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="98">
   <si>
     <t>Zeitfenster</t>
   </si>
@@ -574,6 +574,12 @@
   </si>
   <si>
     <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Abgabe</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2093,6 +2099,27 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2120,27 +2147,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2150,7 +2156,71 @@
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="110">
+  <dxfs count="118">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3349,10 +3419,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="J38" sqref="J38"/>
+      <selection pane="topRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7935,10 +8005,10 @@
       <c r="G7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="235">
+      <c r="H7" s="242">
         <v>42088</v>
       </c>
-      <c r="I7" s="235"/>
+      <c r="I7" s="242"/>
       <c r="K7" s="27"/>
       <c r="L7" s="217"/>
       <c r="M7" s="217"/>
@@ -10200,17 +10270,17 @@
       <c r="ACA9" s="34"/>
     </row>
     <row r="10" spans="1:755" s="22" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
-      <c r="B10" s="236"/>
+      <c r="A10" s="243"/>
+      <c r="B10" s="243"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="237"/>
-      <c r="G10" s="237"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
       <c r="L10" s="220"/>
       <c r="M10" s="220"/>
       <c r="N10" s="201"/>
@@ -10957,19 +11027,19 @@
       <c r="ACA10" s="34"/>
     </row>
     <row r="11" spans="1:755" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="238" t="s">
+      <c r="A11" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="239"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="239"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
+      <c r="B11" s="246"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="246"/>
       <c r="L11" s="221"/>
       <c r="M11" s="221"/>
       <c r="N11" s="202"/>
@@ -11035,78 +11105,78 @@
       <c r="BV11" s="36"/>
       <c r="BW11" s="36"/>
       <c r="BX11" s="36"/>
-      <c r="BY11" s="240" t="s">
+      <c r="BY11" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="BZ11" s="240"/>
-      <c r="CA11" s="240"/>
-      <c r="CB11" s="240"/>
-      <c r="CC11" s="240"/>
-      <c r="CD11" s="240"/>
-      <c r="CE11" s="240"/>
-      <c r="CF11" s="240"/>
-      <c r="CG11" s="240"/>
-      <c r="CH11" s="240"/>
-      <c r="CI11" s="240"/>
-      <c r="CJ11" s="240"/>
-      <c r="CK11" s="240"/>
-      <c r="CL11" s="240"/>
-      <c r="CM11" s="240"/>
-      <c r="CN11" s="240"/>
-      <c r="CO11" s="240"/>
-      <c r="CP11" s="240"/>
-      <c r="CQ11" s="240"/>
-      <c r="CR11" s="240"/>
-      <c r="CS11" s="240"/>
-      <c r="CT11" s="240"/>
-      <c r="CU11" s="240"/>
-      <c r="CV11" s="240"/>
-      <c r="CW11" s="240"/>
-      <c r="CX11" s="240"/>
-      <c r="CY11" s="240"/>
-      <c r="CZ11" s="240"/>
-      <c r="DA11" s="240"/>
-      <c r="DB11" s="240"/>
-      <c r="DC11" s="240"/>
-      <c r="DD11" s="240"/>
-      <c r="DE11" s="240"/>
-      <c r="DF11" s="240"/>
-      <c r="DG11" s="240"/>
-      <c r="DH11" s="240"/>
-      <c r="DI11" s="240"/>
-      <c r="DJ11" s="240"/>
-      <c r="DK11" s="240"/>
-      <c r="DL11" s="240"/>
-      <c r="DM11" s="240"/>
-      <c r="DN11" s="240"/>
-      <c r="DO11" s="240"/>
-      <c r="DP11" s="240"/>
-      <c r="DQ11" s="240"/>
-      <c r="DR11" s="240"/>
-      <c r="DS11" s="240"/>
-      <c r="DT11" s="240"/>
-      <c r="DU11" s="240"/>
-      <c r="DV11" s="240"/>
-      <c r="DW11" s="240"/>
-      <c r="DX11" s="240"/>
-      <c r="DY11" s="240"/>
-      <c r="DZ11" s="240"/>
-      <c r="EA11" s="240"/>
-      <c r="EB11" s="240"/>
-      <c r="EC11" s="240"/>
-      <c r="ED11" s="240"/>
-      <c r="EE11" s="240"/>
-      <c r="EF11" s="240"/>
-      <c r="EG11" s="240"/>
-      <c r="EH11" s="240"/>
-      <c r="EI11" s="240"/>
-      <c r="EJ11" s="240"/>
-      <c r="EK11" s="240"/>
-      <c r="EL11" s="240"/>
-      <c r="EM11" s="240"/>
-      <c r="EN11" s="240"/>
-      <c r="EO11" s="240"/>
-      <c r="EP11" s="241"/>
+      <c r="BZ11" s="247"/>
+      <c r="CA11" s="247"/>
+      <c r="CB11" s="247"/>
+      <c r="CC11" s="247"/>
+      <c r="CD11" s="247"/>
+      <c r="CE11" s="247"/>
+      <c r="CF11" s="247"/>
+      <c r="CG11" s="247"/>
+      <c r="CH11" s="247"/>
+      <c r="CI11" s="247"/>
+      <c r="CJ11" s="247"/>
+      <c r="CK11" s="247"/>
+      <c r="CL11" s="247"/>
+      <c r="CM11" s="247"/>
+      <c r="CN11" s="247"/>
+      <c r="CO11" s="247"/>
+      <c r="CP11" s="247"/>
+      <c r="CQ11" s="247"/>
+      <c r="CR11" s="247"/>
+      <c r="CS11" s="247"/>
+      <c r="CT11" s="247"/>
+      <c r="CU11" s="247"/>
+      <c r="CV11" s="247"/>
+      <c r="CW11" s="247"/>
+      <c r="CX11" s="247"/>
+      <c r="CY11" s="247"/>
+      <c r="CZ11" s="247"/>
+      <c r="DA11" s="247"/>
+      <c r="DB11" s="247"/>
+      <c r="DC11" s="247"/>
+      <c r="DD11" s="247"/>
+      <c r="DE11" s="247"/>
+      <c r="DF11" s="247"/>
+      <c r="DG11" s="247"/>
+      <c r="DH11" s="247"/>
+      <c r="DI11" s="247"/>
+      <c r="DJ11" s="247"/>
+      <c r="DK11" s="247"/>
+      <c r="DL11" s="247"/>
+      <c r="DM11" s="247"/>
+      <c r="DN11" s="247"/>
+      <c r="DO11" s="247"/>
+      <c r="DP11" s="247"/>
+      <c r="DQ11" s="247"/>
+      <c r="DR11" s="247"/>
+      <c r="DS11" s="247"/>
+      <c r="DT11" s="247"/>
+      <c r="DU11" s="247"/>
+      <c r="DV11" s="247"/>
+      <c r="DW11" s="247"/>
+      <c r="DX11" s="247"/>
+      <c r="DY11" s="247"/>
+      <c r="DZ11" s="247"/>
+      <c r="EA11" s="247"/>
+      <c r="EB11" s="247"/>
+      <c r="EC11" s="247"/>
+      <c r="ED11" s="247"/>
+      <c r="EE11" s="247"/>
+      <c r="EF11" s="247"/>
+      <c r="EG11" s="247"/>
+      <c r="EH11" s="247"/>
+      <c r="EI11" s="247"/>
+      <c r="EJ11" s="247"/>
+      <c r="EK11" s="247"/>
+      <c r="EL11" s="247"/>
+      <c r="EM11" s="247"/>
+      <c r="EN11" s="247"/>
+      <c r="EO11" s="247"/>
+      <c r="EP11" s="248"/>
     </row>
     <row r="12" spans="1:755" s="37" customFormat="1" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -11669,194 +11739,194 @@
       <c r="K13" s="44"/>
       <c r="L13" s="223"/>
       <c r="M13" s="223"/>
-      <c r="N13" s="234" t="str">
+      <c r="N13" s="241" t="str">
         <f>"KW " &amp; TRUNC((N12-DATE(YEAR(N12+3-MOD(N12-2,7)),1,MOD(N12-2,7)-9))/7)</f>
         <v>KW 13</v>
       </c>
-      <c r="O13" s="234"/>
-      <c r="P13" s="234"/>
-      <c r="Q13" s="234"/>
-      <c r="R13" s="234"/>
+      <c r="O13" s="241"/>
+      <c r="P13" s="241"/>
+      <c r="Q13" s="241"/>
+      <c r="R13" s="241"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="234" t="str">
+      <c r="U13" s="241" t="str">
         <f t="shared" ref="U13" si="3">"KW " &amp; TRUNC((U12-DATE(YEAR(U12+3-MOD(U12-2,7)),1,MOD(U12-2,7)-9))/7)</f>
         <v>KW 14</v>
       </c>
-      <c r="V13" s="234"/>
-      <c r="W13" s="234"/>
-      <c r="X13" s="234"/>
-      <c r="Y13" s="234"/>
+      <c r="V13" s="241"/>
+      <c r="W13" s="241"/>
+      <c r="X13" s="241"/>
+      <c r="Y13" s="241"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="46"/>
-      <c r="AB13" s="234" t="str">
+      <c r="AB13" s="241" t="str">
         <f t="shared" ref="AB13" si="4">"KW " &amp; TRUNC((AB12-DATE(YEAR(AB12+3-MOD(AB12-2,7)),1,MOD(AB12-2,7)-9))/7)</f>
         <v>KW 15</v>
       </c>
-      <c r="AC13" s="234"/>
-      <c r="AD13" s="234"/>
-      <c r="AE13" s="234"/>
-      <c r="AF13" s="234"/>
+      <c r="AC13" s="241"/>
+      <c r="AD13" s="241"/>
+      <c r="AE13" s="241"/>
+      <c r="AF13" s="241"/>
       <c r="AG13" s="46"/>
       <c r="AH13" s="46"/>
-      <c r="AI13" s="234" t="str">
+      <c r="AI13" s="241" t="str">
         <f t="shared" ref="AI13" si="5">"KW " &amp; TRUNC((AI12-DATE(YEAR(AI12+3-MOD(AI12-2,7)),1,MOD(AI12-2,7)-9))/7)</f>
         <v>KW 16</v>
       </c>
-      <c r="AJ13" s="234"/>
-      <c r="AK13" s="234"/>
-      <c r="AL13" s="234"/>
-      <c r="AM13" s="234"/>
+      <c r="AJ13" s="241"/>
+      <c r="AK13" s="241"/>
+      <c r="AL13" s="241"/>
+      <c r="AM13" s="241"/>
       <c r="AN13" s="46"/>
       <c r="AO13" s="46"/>
-      <c r="AP13" s="234" t="str">
+      <c r="AP13" s="241" t="str">
         <f t="shared" ref="AP13" si="6">"KW " &amp; TRUNC((AP12-DATE(YEAR(AP12+3-MOD(AP12-2,7)),1,MOD(AP12-2,7)-9))/7)</f>
         <v>KW 17</v>
       </c>
-      <c r="AQ13" s="234"/>
-      <c r="AR13" s="234"/>
-      <c r="AS13" s="234"/>
-      <c r="AT13" s="234"/>
+      <c r="AQ13" s="241"/>
+      <c r="AR13" s="241"/>
+      <c r="AS13" s="241"/>
+      <c r="AT13" s="241"/>
       <c r="AU13" s="46"/>
       <c r="AV13" s="46"/>
-      <c r="AW13" s="234" t="str">
+      <c r="AW13" s="241" t="str">
         <f t="shared" ref="AW13" si="7">"KW " &amp; TRUNC((AW12-DATE(YEAR(AW12+3-MOD(AW12-2,7)),1,MOD(AW12-2,7)-9))/7)</f>
         <v>KW 18</v>
       </c>
-      <c r="AX13" s="234"/>
-      <c r="AY13" s="234"/>
-      <c r="AZ13" s="234"/>
-      <c r="BA13" s="234"/>
+      <c r="AX13" s="241"/>
+      <c r="AY13" s="241"/>
+      <c r="AZ13" s="241"/>
+      <c r="BA13" s="241"/>
       <c r="BB13" s="46"/>
       <c r="BC13" s="46"/>
-      <c r="BD13" s="234" t="str">
+      <c r="BD13" s="241" t="str">
         <f t="shared" ref="BD13" si="8">"KW " &amp; TRUNC((BD12-DATE(YEAR(BD12+3-MOD(BD12-2,7)),1,MOD(BD12-2,7)-9))/7)</f>
         <v>KW 19</v>
       </c>
-      <c r="BE13" s="234"/>
-      <c r="BF13" s="234"/>
-      <c r="BG13" s="234"/>
-      <c r="BH13" s="234"/>
+      <c r="BE13" s="241"/>
+      <c r="BF13" s="241"/>
+      <c r="BG13" s="241"/>
+      <c r="BH13" s="241"/>
       <c r="BI13" s="46"/>
       <c r="BJ13" s="46"/>
-      <c r="BK13" s="234" t="str">
+      <c r="BK13" s="241" t="str">
         <f t="shared" ref="BK13" si="9">"KW " &amp; TRUNC((BK12-DATE(YEAR(BK12+3-MOD(BK12-2,7)),1,MOD(BK12-2,7)-9))/7)</f>
         <v>KW 20</v>
       </c>
-      <c r="BL13" s="234"/>
-      <c r="BM13" s="234"/>
-      <c r="BN13" s="234"/>
-      <c r="BO13" s="234"/>
+      <c r="BL13" s="241"/>
+      <c r="BM13" s="241"/>
+      <c r="BN13" s="241"/>
+      <c r="BO13" s="241"/>
       <c r="BP13" s="46"/>
       <c r="BQ13" s="46"/>
-      <c r="BR13" s="234" t="str">
+      <c r="BR13" s="241" t="str">
         <f t="shared" ref="BR13" si="10">"KW " &amp; TRUNC((BR12-DATE(YEAR(BR12+3-MOD(BR12-2,7)),1,MOD(BR12-2,7)-9))/7)</f>
         <v>KW 21</v>
       </c>
-      <c r="BS13" s="234"/>
-      <c r="BT13" s="234"/>
-      <c r="BU13" s="234"/>
-      <c r="BV13" s="234"/>
+      <c r="BS13" s="241"/>
+      <c r="BT13" s="241"/>
+      <c r="BU13" s="241"/>
+      <c r="BV13" s="241"/>
       <c r="BW13" s="46"/>
       <c r="BX13" s="46"/>
-      <c r="BY13" s="234" t="str">
+      <c r="BY13" s="241" t="str">
         <f t="shared" ref="BY13" si="11">"KW " &amp; TRUNC((BY12-DATE(YEAR(BY12+3-MOD(BY12-2,7)),1,MOD(BY12-2,7)-9))/7)</f>
         <v>KW 22</v>
       </c>
-      <c r="BZ13" s="234"/>
-      <c r="CA13" s="234"/>
-      <c r="CB13" s="234"/>
-      <c r="CC13" s="234"/>
+      <c r="BZ13" s="241"/>
+      <c r="CA13" s="241"/>
+      <c r="CB13" s="241"/>
+      <c r="CC13" s="241"/>
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
-      <c r="CF13" s="234" t="str">
+      <c r="CF13" s="241" t="str">
         <f t="shared" ref="CF13" si="12">"KW " &amp; TRUNC((CF12-DATE(YEAR(CF12+3-MOD(CF12-2,7)),1,MOD(CF12-2,7)-9))/7)</f>
         <v>KW 23</v>
       </c>
-      <c r="CG13" s="234"/>
-      <c r="CH13" s="234"/>
-      <c r="CI13" s="234"/>
-      <c r="CJ13" s="234"/>
+      <c r="CG13" s="241"/>
+      <c r="CH13" s="241"/>
+      <c r="CI13" s="241"/>
+      <c r="CJ13" s="241"/>
       <c r="CK13" s="46"/>
       <c r="CL13" s="46"/>
-      <c r="CM13" s="234" t="str">
+      <c r="CM13" s="241" t="str">
         <f t="shared" ref="CM13" si="13">"KW " &amp; TRUNC((CM12-DATE(YEAR(CM12+3-MOD(CM12-2,7)),1,MOD(CM12-2,7)-9))/7)</f>
         <v>KW 24</v>
       </c>
-      <c r="CN13" s="234"/>
-      <c r="CO13" s="234"/>
-      <c r="CP13" s="234"/>
-      <c r="CQ13" s="234"/>
+      <c r="CN13" s="241"/>
+      <c r="CO13" s="241"/>
+      <c r="CP13" s="241"/>
+      <c r="CQ13" s="241"/>
       <c r="CR13" s="46"/>
       <c r="CS13" s="46"/>
-      <c r="CT13" s="234" t="str">
+      <c r="CT13" s="241" t="str">
         <f t="shared" ref="CT13" si="14">"KW " &amp; TRUNC((CT12-DATE(YEAR(CT12+3-MOD(CT12-2,7)),1,MOD(CT12-2,7)-9))/7)</f>
         <v>KW 25</v>
       </c>
-      <c r="CU13" s="234"/>
-      <c r="CV13" s="234"/>
-      <c r="CW13" s="234"/>
-      <c r="CX13" s="234"/>
+      <c r="CU13" s="241"/>
+      <c r="CV13" s="241"/>
+      <c r="CW13" s="241"/>
+      <c r="CX13" s="241"/>
       <c r="CY13" s="46"/>
       <c r="CZ13" s="46"/>
-      <c r="DA13" s="234" t="str">
+      <c r="DA13" s="241" t="str">
         <f t="shared" ref="DA13" si="15">"KW " &amp; TRUNC((DA12-DATE(YEAR(DA12+3-MOD(DA12-2,7)),1,MOD(DA12-2,7)-9))/7)</f>
         <v>KW 26</v>
       </c>
-      <c r="DB13" s="234"/>
-      <c r="DC13" s="234"/>
-      <c r="DD13" s="234"/>
-      <c r="DE13" s="234"/>
+      <c r="DB13" s="241"/>
+      <c r="DC13" s="241"/>
+      <c r="DD13" s="241"/>
+      <c r="DE13" s="241"/>
       <c r="DF13" s="46"/>
       <c r="DG13" s="46"/>
-      <c r="DH13" s="234" t="str">
+      <c r="DH13" s="241" t="str">
         <f t="shared" ref="DH13" si="16">"KW " &amp; TRUNC((DH12-DATE(YEAR(DH12+3-MOD(DH12-2,7)),1,MOD(DH12-2,7)-9))/7)</f>
         <v>KW 27</v>
       </c>
-      <c r="DI13" s="234"/>
-      <c r="DJ13" s="234"/>
-      <c r="DK13" s="234"/>
-      <c r="DL13" s="234"/>
+      <c r="DI13" s="241"/>
+      <c r="DJ13" s="241"/>
+      <c r="DK13" s="241"/>
+      <c r="DL13" s="241"/>
       <c r="DM13" s="46"/>
       <c r="DN13" s="46"/>
-      <c r="DO13" s="234" t="str">
+      <c r="DO13" s="241" t="str">
         <f t="shared" ref="DO13" si="17">"KW " &amp; TRUNC((DO12-DATE(YEAR(DO12+3-MOD(DO12-2,7)),1,MOD(DO12-2,7)-9))/7)</f>
         <v>KW 28</v>
       </c>
-      <c r="DP13" s="234"/>
-      <c r="DQ13" s="234"/>
-      <c r="DR13" s="234"/>
-      <c r="DS13" s="234"/>
+      <c r="DP13" s="241"/>
+      <c r="DQ13" s="241"/>
+      <c r="DR13" s="241"/>
+      <c r="DS13" s="241"/>
       <c r="DT13" s="46"/>
       <c r="DU13" s="46"/>
-      <c r="DV13" s="234" t="str">
+      <c r="DV13" s="241" t="str">
         <f t="shared" ref="DV13" si="18">"KW " &amp; TRUNC((DV12-DATE(YEAR(DV12+3-MOD(DV12-2,7)),1,MOD(DV12-2,7)-9))/7)</f>
         <v>KW 29</v>
       </c>
-      <c r="DW13" s="234"/>
-      <c r="DX13" s="234"/>
-      <c r="DY13" s="234"/>
-      <c r="DZ13" s="234"/>
+      <c r="DW13" s="241"/>
+      <c r="DX13" s="241"/>
+      <c r="DY13" s="241"/>
+      <c r="DZ13" s="241"/>
       <c r="EA13" s="46"/>
       <c r="EB13" s="46"/>
-      <c r="EC13" s="234" t="str">
+      <c r="EC13" s="241" t="str">
         <f t="shared" ref="EC13" si="19">"KW " &amp; TRUNC((EC12-DATE(YEAR(EC12+3-MOD(EC12-2,7)),1,MOD(EC12-2,7)-9))/7)</f>
         <v>KW 30</v>
       </c>
-      <c r="ED13" s="234"/>
-      <c r="EE13" s="234"/>
-      <c r="EF13" s="234"/>
-      <c r="EG13" s="234"/>
+      <c r="ED13" s="241"/>
+      <c r="EE13" s="241"/>
+      <c r="EF13" s="241"/>
+      <c r="EG13" s="241"/>
       <c r="EH13" s="46"/>
       <c r="EI13" s="46"/>
-      <c r="EJ13" s="234" t="str">
+      <c r="EJ13" s="241" t="str">
         <f t="shared" ref="EJ13" si="20">"KW " &amp; TRUNC((EJ12-DATE(YEAR(EJ12+3-MOD(EJ12-2,7)),1,MOD(EJ12-2,7)-9))/7)</f>
         <v>KW 31</v>
       </c>
-      <c r="EK13" s="234"/>
-      <c r="EL13" s="234"/>
-      <c r="EM13" s="234"/>
-      <c r="EN13" s="234"/>
+      <c r="EK13" s="241"/>
+      <c r="EL13" s="241"/>
+      <c r="EM13" s="241"/>
+      <c r="EN13" s="241"/>
       <c r="EO13" s="46"/>
       <c r="EP13" s="47"/>
     </row>
@@ -11898,196 +11968,196 @@
       <c r="M14" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="242">
+      <c r="N14" s="235">
         <f>N12</f>
         <v>42086</v>
       </c>
-      <c r="O14" s="242"/>
-      <c r="P14" s="242"/>
-      <c r="Q14" s="242"/>
-      <c r="R14" s="242"/>
+      <c r="O14" s="235"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="235"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
-      <c r="U14" s="242">
+      <c r="U14" s="235">
         <f>U12</f>
         <v>42093</v>
       </c>
-      <c r="V14" s="242"/>
-      <c r="W14" s="242"/>
-      <c r="X14" s="242"/>
-      <c r="Y14" s="242"/>
-      <c r="Z14" s="242"/>
-      <c r="AA14" s="242"/>
-      <c r="AB14" s="242">
+      <c r="V14" s="235"/>
+      <c r="W14" s="235"/>
+      <c r="X14" s="235"/>
+      <c r="Y14" s="235"/>
+      <c r="Z14" s="235"/>
+      <c r="AA14" s="235"/>
+      <c r="AB14" s="235">
         <f>AB12</f>
         <v>42100</v>
       </c>
-      <c r="AC14" s="242"/>
-      <c r="AD14" s="242"/>
-      <c r="AE14" s="242"/>
-      <c r="AF14" s="242"/>
-      <c r="AG14" s="242"/>
-      <c r="AH14" s="242"/>
-      <c r="AI14" s="242">
+      <c r="AC14" s="235"/>
+      <c r="AD14" s="235"/>
+      <c r="AE14" s="235"/>
+      <c r="AF14" s="235"/>
+      <c r="AG14" s="235"/>
+      <c r="AH14" s="235"/>
+      <c r="AI14" s="235">
         <f>AI12</f>
         <v>42107</v>
       </c>
-      <c r="AJ14" s="242"/>
-      <c r="AK14" s="242"/>
-      <c r="AL14" s="242"/>
-      <c r="AM14" s="242"/>
-      <c r="AN14" s="242"/>
-      <c r="AO14" s="242"/>
-      <c r="AP14" s="242">
+      <c r="AJ14" s="235"/>
+      <c r="AK14" s="235"/>
+      <c r="AL14" s="235"/>
+      <c r="AM14" s="235"/>
+      <c r="AN14" s="235"/>
+      <c r="AO14" s="235"/>
+      <c r="AP14" s="235">
         <f>AP12</f>
         <v>42114</v>
       </c>
-      <c r="AQ14" s="242"/>
-      <c r="AR14" s="242"/>
-      <c r="AS14" s="242"/>
-      <c r="AT14" s="242"/>
-      <c r="AU14" s="242"/>
-      <c r="AV14" s="242"/>
-      <c r="AW14" s="242">
+      <c r="AQ14" s="235"/>
+      <c r="AR14" s="235"/>
+      <c r="AS14" s="235"/>
+      <c r="AT14" s="235"/>
+      <c r="AU14" s="235"/>
+      <c r="AV14" s="235"/>
+      <c r="AW14" s="235">
         <f>AW12</f>
         <v>42121</v>
       </c>
-      <c r="AX14" s="242"/>
-      <c r="AY14" s="242"/>
-      <c r="AZ14" s="242"/>
-      <c r="BA14" s="242"/>
-      <c r="BB14" s="242"/>
-      <c r="BC14" s="242"/>
-      <c r="BD14" s="242">
+      <c r="AX14" s="235"/>
+      <c r="AY14" s="235"/>
+      <c r="AZ14" s="235"/>
+      <c r="BA14" s="235"/>
+      <c r="BB14" s="235"/>
+      <c r="BC14" s="235"/>
+      <c r="BD14" s="235">
         <f>BD12</f>
         <v>42128</v>
       </c>
-      <c r="BE14" s="242"/>
-      <c r="BF14" s="242"/>
-      <c r="BG14" s="242"/>
-      <c r="BH14" s="242"/>
-      <c r="BI14" s="242"/>
-      <c r="BJ14" s="242"/>
-      <c r="BK14" s="242">
+      <c r="BE14" s="235"/>
+      <c r="BF14" s="235"/>
+      <c r="BG14" s="235"/>
+      <c r="BH14" s="235"/>
+      <c r="BI14" s="235"/>
+      <c r="BJ14" s="235"/>
+      <c r="BK14" s="235">
         <f>BK12</f>
         <v>42135</v>
       </c>
-      <c r="BL14" s="242"/>
-      <c r="BM14" s="242"/>
-      <c r="BN14" s="242"/>
-      <c r="BO14" s="242"/>
-      <c r="BP14" s="242"/>
-      <c r="BQ14" s="242"/>
-      <c r="BR14" s="242">
+      <c r="BL14" s="235"/>
+      <c r="BM14" s="235"/>
+      <c r="BN14" s="235"/>
+      <c r="BO14" s="235"/>
+      <c r="BP14" s="235"/>
+      <c r="BQ14" s="235"/>
+      <c r="BR14" s="235">
         <f>BR12</f>
         <v>42142</v>
       </c>
-      <c r="BS14" s="242"/>
-      <c r="BT14" s="242"/>
-      <c r="BU14" s="242"/>
-      <c r="BV14" s="242"/>
-      <c r="BW14" s="242"/>
-      <c r="BX14" s="242"/>
-      <c r="BY14" s="242">
+      <c r="BS14" s="235"/>
+      <c r="BT14" s="235"/>
+      <c r="BU14" s="235"/>
+      <c r="BV14" s="235"/>
+      <c r="BW14" s="235"/>
+      <c r="BX14" s="235"/>
+      <c r="BY14" s="235">
         <f>BY12</f>
         <v>42149</v>
       </c>
-      <c r="BZ14" s="242"/>
-      <c r="CA14" s="242"/>
-      <c r="CB14" s="242"/>
-      <c r="CC14" s="242"/>
-      <c r="CD14" s="242"/>
-      <c r="CE14" s="242"/>
-      <c r="CF14" s="242">
+      <c r="BZ14" s="235"/>
+      <c r="CA14" s="235"/>
+      <c r="CB14" s="235"/>
+      <c r="CC14" s="235"/>
+      <c r="CD14" s="235"/>
+      <c r="CE14" s="235"/>
+      <c r="CF14" s="235">
         <f>CF12</f>
         <v>42156</v>
       </c>
-      <c r="CG14" s="242"/>
-      <c r="CH14" s="242"/>
-      <c r="CI14" s="242"/>
-      <c r="CJ14" s="242"/>
-      <c r="CK14" s="242"/>
-      <c r="CL14" s="242"/>
-      <c r="CM14" s="242">
+      <c r="CG14" s="235"/>
+      <c r="CH14" s="235"/>
+      <c r="CI14" s="235"/>
+      <c r="CJ14" s="235"/>
+      <c r="CK14" s="235"/>
+      <c r="CL14" s="235"/>
+      <c r="CM14" s="235">
         <f>CM12</f>
         <v>42163</v>
       </c>
-      <c r="CN14" s="242"/>
-      <c r="CO14" s="242"/>
-      <c r="CP14" s="242"/>
-      <c r="CQ14" s="242"/>
-      <c r="CR14" s="242"/>
-      <c r="CS14" s="242"/>
-      <c r="CT14" s="242">
+      <c r="CN14" s="235"/>
+      <c r="CO14" s="235"/>
+      <c r="CP14" s="235"/>
+      <c r="CQ14" s="235"/>
+      <c r="CR14" s="235"/>
+      <c r="CS14" s="235"/>
+      <c r="CT14" s="235">
         <f>CT12</f>
         <v>42170</v>
       </c>
-      <c r="CU14" s="242"/>
-      <c r="CV14" s="242"/>
-      <c r="CW14" s="242"/>
-      <c r="CX14" s="242"/>
-      <c r="CY14" s="242"/>
-      <c r="CZ14" s="242"/>
-      <c r="DA14" s="242">
+      <c r="CU14" s="235"/>
+      <c r="CV14" s="235"/>
+      <c r="CW14" s="235"/>
+      <c r="CX14" s="235"/>
+      <c r="CY14" s="235"/>
+      <c r="CZ14" s="235"/>
+      <c r="DA14" s="235">
         <f>DA12</f>
         <v>42177</v>
       </c>
-      <c r="DB14" s="242"/>
-      <c r="DC14" s="242"/>
-      <c r="DD14" s="242"/>
-      <c r="DE14" s="242"/>
-      <c r="DF14" s="242"/>
-      <c r="DG14" s="242"/>
-      <c r="DH14" s="242">
+      <c r="DB14" s="235"/>
+      <c r="DC14" s="235"/>
+      <c r="DD14" s="235"/>
+      <c r="DE14" s="235"/>
+      <c r="DF14" s="235"/>
+      <c r="DG14" s="235"/>
+      <c r="DH14" s="235">
         <f>DH12</f>
         <v>42184</v>
       </c>
-      <c r="DI14" s="242"/>
-      <c r="DJ14" s="242"/>
-      <c r="DK14" s="242"/>
-      <c r="DL14" s="242"/>
-      <c r="DM14" s="242"/>
-      <c r="DN14" s="242"/>
-      <c r="DO14" s="242">
+      <c r="DI14" s="235"/>
+      <c r="DJ14" s="235"/>
+      <c r="DK14" s="235"/>
+      <c r="DL14" s="235"/>
+      <c r="DM14" s="235"/>
+      <c r="DN14" s="235"/>
+      <c r="DO14" s="235">
         <f>DO12</f>
         <v>42191</v>
       </c>
-      <c r="DP14" s="242"/>
-      <c r="DQ14" s="242"/>
-      <c r="DR14" s="242"/>
-      <c r="DS14" s="242"/>
-      <c r="DT14" s="242"/>
-      <c r="DU14" s="242"/>
-      <c r="DV14" s="242">
+      <c r="DP14" s="235"/>
+      <c r="DQ14" s="235"/>
+      <c r="DR14" s="235"/>
+      <c r="DS14" s="235"/>
+      <c r="DT14" s="235"/>
+      <c r="DU14" s="235"/>
+      <c r="DV14" s="235">
         <f>DV12</f>
         <v>42198</v>
       </c>
-      <c r="DW14" s="242"/>
-      <c r="DX14" s="242"/>
-      <c r="DY14" s="242"/>
-      <c r="DZ14" s="242"/>
-      <c r="EA14" s="242"/>
-      <c r="EB14" s="242"/>
-      <c r="EC14" s="242">
+      <c r="DW14" s="235"/>
+      <c r="DX14" s="235"/>
+      <c r="DY14" s="235"/>
+      <c r="DZ14" s="235"/>
+      <c r="EA14" s="235"/>
+      <c r="EB14" s="235"/>
+      <c r="EC14" s="235">
         <f>EC12</f>
         <v>42205</v>
       </c>
-      <c r="ED14" s="242"/>
-      <c r="EE14" s="242"/>
-      <c r="EF14" s="242"/>
-      <c r="EG14" s="242"/>
-      <c r="EH14" s="242"/>
-      <c r="EI14" s="242"/>
-      <c r="EJ14" s="242">
+      <c r="ED14" s="235"/>
+      <c r="EE14" s="235"/>
+      <c r="EF14" s="235"/>
+      <c r="EG14" s="235"/>
+      <c r="EH14" s="235"/>
+      <c r="EI14" s="235"/>
+      <c r="EJ14" s="235">
         <f>EJ12</f>
         <v>42212</v>
       </c>
-      <c r="EK14" s="242"/>
-      <c r="EL14" s="242"/>
-      <c r="EM14" s="242"/>
-      <c r="EN14" s="242"/>
-      <c r="EO14" s="242"/>
-      <c r="EP14" s="244"/>
+      <c r="EK14" s="235"/>
+      <c r="EL14" s="235"/>
+      <c r="EM14" s="235"/>
+      <c r="EN14" s="235"/>
+      <c r="EO14" s="235"/>
+      <c r="EP14" s="236"/>
       <c r="EQ14" s="48"/>
     </row>
     <row r="15" spans="1:755" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13717,7 +13787,7 @@
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-33</v>
+        <v>-45</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
@@ -14236,7 +14306,7 @@
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-33</v>
+        <v>-45</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
@@ -14409,7 +14479,7 @@
       </c>
       <c r="K27" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-31</v>
+        <v>-43</v>
       </c>
       <c r="L27" s="228">
         <f t="shared" si="22"/>
@@ -14747,7 +14817,7 @@
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-19</v>
+        <v>-31</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
@@ -15093,7 +15163,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-17</v>
+        <v>-29</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
@@ -15266,7 +15336,7 @@
       </c>
       <c r="K32" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-27</v>
+        <v>-39</v>
       </c>
       <c r="L32" s="228">
         <f t="shared" si="22"/>
@@ -15764,11 +15834,11 @@
       </c>
       <c r="J35" s="80">
         <f>AVERAGE(J36:J41)</f>
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-8</v>
+        <v>-20</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
@@ -15941,7 +16011,7 @@
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-10</v>
+        <v>-22</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
@@ -16110,19 +16180,19 @@
         <v>42141</v>
       </c>
       <c r="J37" s="80">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-6</v>
+        <v>-17</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M37" s="229">
         <f t="shared" si="24"/>
-        <v>42138</v>
+        <v>42139</v>
       </c>
       <c r="N37" s="206"/>
       <c r="O37" s="83"/>
@@ -16287,7 +16357,7 @@
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="L38" s="228">
         <f t="shared" si="22"/>
@@ -16458,7 +16528,7 @@
       <c r="J39" s="80"/>
       <c r="K39" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="L39" s="228">
         <f t="shared" si="22"/>
@@ -16630,7 +16700,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="L40" s="228" t="str">
         <f t="shared" si="22"/>
@@ -16967,7 +17037,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17140,7 +17210,7 @@
       </c>
       <c r="K43" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="L43" s="228">
         <f t="shared" si="22"/>
@@ -17313,7 +17383,7 @@
       </c>
       <c r="K44" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L44" s="228">
         <f t="shared" si="22"/>
@@ -17486,7 +17556,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -17988,7 +18058,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L48" s="228">
         <f t="shared" si="22"/>
@@ -18161,7 +18231,7 @@
       </c>
       <c r="K49" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L49" s="228">
         <f t="shared" si="22"/>
@@ -18334,7 +18404,7 @@
       </c>
       <c r="K50" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L50" s="228">
         <f t="shared" si="22"/>
@@ -18507,7 +18577,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -18679,7 +18749,7 @@
       </c>
       <c r="K52" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L52" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19180,7 +19250,7 @@
       </c>
       <c r="K55" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L55" s="228">
         <f t="shared" si="22"/>
@@ -19490,25 +19560,33 @@
       <c r="EQ56" s="85"/>
     </row>
     <row r="57" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="63" t="str">
+      <c r="A57" s="63">
         <f>IF(B57="","",IF(A56="",IF(MAX($A$16:A56)=0,1,ROUNDDOWN(MAX($A$16:A56)+1,0)),A56+0.01))</f>
-        <v/>
-      </c>
-      <c r="B57" s="76"/>
+        <v>9</v>
+      </c>
+      <c r="B57" s="76" t="s">
+        <v>96</v>
+      </c>
       <c r="C57" s="76"/>
       <c r="D57" s="76"/>
       <c r="E57" s="76"/>
       <c r="F57" s="77"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="79"/>
+      <c r="G57" s="78">
+        <v>42216</v>
+      </c>
+      <c r="H57" s="79" t="s">
+        <v>16</v>
+      </c>
       <c r="I57" s="68" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J57" s="80"/>
-      <c r="K57" s="70" t="str">
+      <c r="J57" s="80">
+        <v>0</v>
+      </c>
+      <c r="K57" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="L57" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19654,22 +19732,28 @@
       <c r="EQ57" s="85"/>
     </row>
     <row r="58" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="63" t="str">
+      <c r="A58" s="63">
         <f>IF(B58="","",IF(A57="",IF(MAX($A$16:A57)=0,1,ROUNDDOWN(MAX($A$16:A57)+1,0)),A57+0.01))</f>
-        <v/>
-      </c>
-      <c r="B58" s="76"/>
+        <v>9.01</v>
+      </c>
+      <c r="B58" s="76" t="s">
+        <v>97</v>
+      </c>
       <c r="C58" s="76"/>
       <c r="D58" s="76"/>
       <c r="E58" s="76"/>
       <c r="F58" s="77"/>
       <c r="G58" s="78"/>
-      <c r="H58" s="79"/>
+      <c r="H58" s="79" t="s">
+        <v>16</v>
+      </c>
       <c r="I58" s="68" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J58" s="80"/>
+      <c r="J58" s="80">
+        <v>0</v>
+      </c>
       <c r="K58" s="70" t="str">
         <f t="shared" ca="1" si="23"/>
         <v/>
@@ -21120,45 +21204,45 @@
       <c r="EQ66" s="37"/>
     </row>
     <row r="67" spans="1:147" s="3" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="245"/>
-      <c r="B67" s="246"/>
-      <c r="C67" s="246"/>
-      <c r="D67" s="246"/>
-      <c r="E67" s="246"/>
-      <c r="F67" s="246"/>
-      <c r="G67" s="246"/>
-      <c r="H67" s="246"/>
-      <c r="I67" s="246"/>
-      <c r="J67" s="246"/>
-      <c r="K67" s="246"/>
-      <c r="L67" s="246"/>
-      <c r="M67" s="246"/>
-      <c r="N67" s="246"/>
-      <c r="O67" s="246"/>
-      <c r="P67" s="246"/>
-      <c r="Q67" s="246"/>
-      <c r="R67" s="246"/>
-      <c r="S67" s="246"/>
-      <c r="T67" s="246"/>
-      <c r="U67" s="246"/>
-      <c r="V67" s="246"/>
-      <c r="W67" s="246"/>
-      <c r="X67" s="246"/>
-      <c r="Y67" s="246"/>
-      <c r="Z67" s="246"/>
-      <c r="AA67" s="246"/>
-      <c r="AB67" s="246"/>
-      <c r="AC67" s="246"/>
-      <c r="AD67" s="246"/>
-      <c r="AE67" s="246"/>
-      <c r="AF67" s="246"/>
-      <c r="AG67" s="246"/>
-      <c r="AH67" s="246"/>
-      <c r="AI67" s="246"/>
-      <c r="AJ67" s="246"/>
-      <c r="AK67" s="246"/>
-      <c r="AL67" s="246"/>
-      <c r="AM67" s="246"/>
+      <c r="A67" s="237"/>
+      <c r="B67" s="238"/>
+      <c r="C67" s="238"/>
+      <c r="D67" s="238"/>
+      <c r="E67" s="238"/>
+      <c r="F67" s="238"/>
+      <c r="G67" s="238"/>
+      <c r="H67" s="238"/>
+      <c r="I67" s="238"/>
+      <c r="J67" s="238"/>
+      <c r="K67" s="238"/>
+      <c r="L67" s="238"/>
+      <c r="M67" s="238"/>
+      <c r="N67" s="238"/>
+      <c r="O67" s="238"/>
+      <c r="P67" s="238"/>
+      <c r="Q67" s="238"/>
+      <c r="R67" s="238"/>
+      <c r="S67" s="238"/>
+      <c r="T67" s="238"/>
+      <c r="U67" s="238"/>
+      <c r="V67" s="238"/>
+      <c r="W67" s="238"/>
+      <c r="X67" s="238"/>
+      <c r="Y67" s="238"/>
+      <c r="Z67" s="238"/>
+      <c r="AA67" s="238"/>
+      <c r="AB67" s="238"/>
+      <c r="AC67" s="238"/>
+      <c r="AD67" s="238"/>
+      <c r="AE67" s="238"/>
+      <c r="AF67" s="238"/>
+      <c r="AG67" s="238"/>
+      <c r="AH67" s="238"/>
+      <c r="AI67" s="238"/>
+      <c r="AJ67" s="238"/>
+      <c r="AK67" s="238"/>
+      <c r="AL67" s="238"/>
+      <c r="AM67" s="238"/>
       <c r="AN67" s="100"/>
       <c r="AO67" s="100"/>
       <c r="AP67" s="100"/>
@@ -21189,85 +21273,85 @@
       <c r="BO67" s="100"/>
       <c r="BP67" s="100"/>
       <c r="BQ67" s="100"/>
-      <c r="BR67" s="247" t="s">
+      <c r="BR67" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="BS67" s="247"/>
-      <c r="BT67" s="247"/>
-      <c r="BU67" s="247"/>
-      <c r="BV67" s="247"/>
-      <c r="BW67" s="247"/>
-      <c r="BX67" s="247"/>
-      <c r="BY67" s="247"/>
-      <c r="BZ67" s="247"/>
-      <c r="CA67" s="247"/>
-      <c r="CB67" s="247"/>
-      <c r="CC67" s="247"/>
-      <c r="CD67" s="247"/>
-      <c r="CE67" s="247"/>
-      <c r="CF67" s="247"/>
-      <c r="CG67" s="247"/>
-      <c r="CH67" s="247"/>
-      <c r="CI67" s="247"/>
-      <c r="CJ67" s="247"/>
-      <c r="CK67" s="247"/>
-      <c r="CL67" s="247"/>
-      <c r="CM67" s="247"/>
-      <c r="CN67" s="247"/>
-      <c r="CO67" s="247"/>
-      <c r="CP67" s="247"/>
-      <c r="CQ67" s="247"/>
-      <c r="CR67" s="247"/>
-      <c r="CS67" s="247"/>
-      <c r="CT67" s="247"/>
-      <c r="CU67" s="247"/>
-      <c r="CV67" s="247"/>
-      <c r="CW67" s="247"/>
-      <c r="CX67" s="247"/>
-      <c r="CY67" s="247"/>
-      <c r="CZ67" s="247"/>
-      <c r="DA67" s="247"/>
-      <c r="DB67" s="247"/>
-      <c r="DC67" s="247"/>
-      <c r="DD67" s="247"/>
-      <c r="DE67" s="247"/>
-      <c r="DF67" s="247"/>
-      <c r="DG67" s="247"/>
-      <c r="DH67" s="247"/>
-      <c r="DI67" s="247"/>
-      <c r="DJ67" s="247"/>
-      <c r="DK67" s="247"/>
-      <c r="DL67" s="247"/>
-      <c r="DM67" s="247"/>
-      <c r="DN67" s="247"/>
-      <c r="DO67" s="247"/>
-      <c r="DP67" s="247"/>
-      <c r="DQ67" s="247"/>
-      <c r="DR67" s="247"/>
-      <c r="DS67" s="247"/>
-      <c r="DT67" s="247"/>
-      <c r="DU67" s="247"/>
-      <c r="DV67" s="247"/>
-      <c r="DW67" s="247"/>
-      <c r="DX67" s="247"/>
-      <c r="DY67" s="247"/>
-      <c r="DZ67" s="247"/>
-      <c r="EA67" s="247"/>
-      <c r="EB67" s="247"/>
-      <c r="EC67" s="247"/>
-      <c r="ED67" s="247"/>
-      <c r="EE67" s="247"/>
-      <c r="EF67" s="247"/>
-      <c r="EG67" s="247"/>
-      <c r="EH67" s="247"/>
-      <c r="EI67" s="247"/>
-      <c r="EJ67" s="247"/>
-      <c r="EK67" s="247"/>
-      <c r="EL67" s="247"/>
-      <c r="EM67" s="247"/>
-      <c r="EN67" s="247"/>
-      <c r="EO67" s="247"/>
-      <c r="EP67" s="248"/>
+      <c r="BS67" s="239"/>
+      <c r="BT67" s="239"/>
+      <c r="BU67" s="239"/>
+      <c r="BV67" s="239"/>
+      <c r="BW67" s="239"/>
+      <c r="BX67" s="239"/>
+      <c r="BY67" s="239"/>
+      <c r="BZ67" s="239"/>
+      <c r="CA67" s="239"/>
+      <c r="CB67" s="239"/>
+      <c r="CC67" s="239"/>
+      <c r="CD67" s="239"/>
+      <c r="CE67" s="239"/>
+      <c r="CF67" s="239"/>
+      <c r="CG67" s="239"/>
+      <c r="CH67" s="239"/>
+      <c r="CI67" s="239"/>
+      <c r="CJ67" s="239"/>
+      <c r="CK67" s="239"/>
+      <c r="CL67" s="239"/>
+      <c r="CM67" s="239"/>
+      <c r="CN67" s="239"/>
+      <c r="CO67" s="239"/>
+      <c r="CP67" s="239"/>
+      <c r="CQ67" s="239"/>
+      <c r="CR67" s="239"/>
+      <c r="CS67" s="239"/>
+      <c r="CT67" s="239"/>
+      <c r="CU67" s="239"/>
+      <c r="CV67" s="239"/>
+      <c r="CW67" s="239"/>
+      <c r="CX67" s="239"/>
+      <c r="CY67" s="239"/>
+      <c r="CZ67" s="239"/>
+      <c r="DA67" s="239"/>
+      <c r="DB67" s="239"/>
+      <c r="DC67" s="239"/>
+      <c r="DD67" s="239"/>
+      <c r="DE67" s="239"/>
+      <c r="DF67" s="239"/>
+      <c r="DG67" s="239"/>
+      <c r="DH67" s="239"/>
+      <c r="DI67" s="239"/>
+      <c r="DJ67" s="239"/>
+      <c r="DK67" s="239"/>
+      <c r="DL67" s="239"/>
+      <c r="DM67" s="239"/>
+      <c r="DN67" s="239"/>
+      <c r="DO67" s="239"/>
+      <c r="DP67" s="239"/>
+      <c r="DQ67" s="239"/>
+      <c r="DR67" s="239"/>
+      <c r="DS67" s="239"/>
+      <c r="DT67" s="239"/>
+      <c r="DU67" s="239"/>
+      <c r="DV67" s="239"/>
+      <c r="DW67" s="239"/>
+      <c r="DX67" s="239"/>
+      <c r="DY67" s="239"/>
+      <c r="DZ67" s="239"/>
+      <c r="EA67" s="239"/>
+      <c r="EB67" s="239"/>
+      <c r="EC67" s="239"/>
+      <c r="ED67" s="239"/>
+      <c r="EE67" s="239"/>
+      <c r="EF67" s="239"/>
+      <c r="EG67" s="239"/>
+      <c r="EH67" s="239"/>
+      <c r="EI67" s="239"/>
+      <c r="EJ67" s="239"/>
+      <c r="EK67" s="239"/>
+      <c r="EL67" s="239"/>
+      <c r="EM67" s="239"/>
+      <c r="EN67" s="239"/>
+      <c r="EO67" s="239"/>
+      <c r="EP67" s="240"/>
       <c r="EQ67" s="48"/>
     </row>
     <row r="68" spans="1:147" x14ac:dyDescent="0.25">
@@ -21419,155 +21503,203 @@
       <c r="EQ68" s="37"/>
     </row>
     <row r="69" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A69" s="243"/>
-      <c r="B69" s="243"/>
-      <c r="C69" s="243"/>
-      <c r="D69" s="243"/>
-      <c r="E69" s="243"/>
-      <c r="F69" s="243"/>
-      <c r="G69" s="243"/>
-      <c r="H69" s="243"/>
-      <c r="I69" s="243"/>
-      <c r="J69" s="243"/>
-      <c r="K69" s="243"/>
-      <c r="L69" s="243"/>
-      <c r="M69" s="243"/>
-      <c r="N69" s="243"/>
-      <c r="O69" s="243"/>
-      <c r="P69" s="243"/>
-      <c r="Q69" s="243"/>
-      <c r="R69" s="243"/>
-      <c r="S69" s="243"/>
-      <c r="T69" s="243"/>
-      <c r="U69" s="243"/>
-      <c r="V69" s="243"/>
-      <c r="W69" s="243"/>
-      <c r="X69" s="243"/>
-      <c r="Y69" s="243"/>
-      <c r="Z69" s="243"/>
-      <c r="AA69" s="243"/>
-      <c r="AB69" s="243"/>
-      <c r="AC69" s="243"/>
-      <c r="AD69" s="243"/>
-      <c r="AE69" s="243"/>
-      <c r="AF69" s="243"/>
-      <c r="AG69" s="243"/>
-      <c r="AH69" s="243"/>
-      <c r="AI69" s="243"/>
-      <c r="AJ69" s="243"/>
-      <c r="AK69" s="243"/>
-      <c r="AL69" s="243"/>
-      <c r="AM69" s="243"/>
-      <c r="AN69" s="243"/>
-      <c r="AO69" s="243"/>
-      <c r="AP69" s="243"/>
-      <c r="AQ69" s="243"/>
-      <c r="AR69" s="243"/>
-      <c r="AS69" s="243"/>
-      <c r="AT69" s="243"/>
-      <c r="AU69" s="243"/>
-      <c r="AV69" s="243"/>
-      <c r="AW69" s="243"/>
-      <c r="AX69" s="243"/>
-      <c r="AY69" s="243"/>
-      <c r="AZ69" s="243"/>
-      <c r="BA69" s="243"/>
-      <c r="BB69" s="243"/>
-      <c r="BC69" s="243"/>
-      <c r="BD69" s="243"/>
-      <c r="BE69" s="243"/>
-      <c r="BF69" s="243"/>
-      <c r="BG69" s="243"/>
-      <c r="BH69" s="243"/>
-      <c r="BI69" s="243"/>
-      <c r="BJ69" s="243"/>
-      <c r="BK69" s="243"/>
-      <c r="BL69" s="243"/>
-      <c r="BM69" s="243"/>
-      <c r="BN69" s="243"/>
-      <c r="BO69" s="243"/>
-      <c r="BP69" s="243"/>
-      <c r="BQ69" s="243"/>
-      <c r="BR69" s="243"/>
-      <c r="BS69" s="243"/>
-      <c r="BT69" s="243"/>
-      <c r="BU69" s="243"/>
-      <c r="BV69" s="243"/>
-      <c r="BW69" s="243"/>
-      <c r="BX69" s="243"/>
-      <c r="BY69" s="243"/>
-      <c r="BZ69" s="243"/>
-      <c r="CA69" s="243"/>
-      <c r="CB69" s="243"/>
-      <c r="CC69" s="243"/>
-      <c r="CD69" s="243"/>
-      <c r="CE69" s="243"/>
-      <c r="CF69" s="243"/>
-      <c r="CG69" s="243"/>
-      <c r="CH69" s="243"/>
-      <c r="CI69" s="243"/>
-      <c r="CJ69" s="243"/>
-      <c r="CK69" s="243"/>
-      <c r="CL69" s="243"/>
-      <c r="CM69" s="243"/>
-      <c r="CN69" s="243"/>
-      <c r="CO69" s="243"/>
-      <c r="CP69" s="243"/>
-      <c r="CQ69" s="243"/>
-      <c r="CR69" s="243"/>
-      <c r="CS69" s="243"/>
-      <c r="CT69" s="243"/>
-      <c r="CU69" s="243"/>
-      <c r="CV69" s="243"/>
-      <c r="CW69" s="243"/>
-      <c r="CX69" s="243"/>
-      <c r="CY69" s="243"/>
-      <c r="CZ69" s="243"/>
-      <c r="DA69" s="243"/>
-      <c r="DB69" s="243"/>
-      <c r="DC69" s="243"/>
-      <c r="DD69" s="243"/>
-      <c r="DE69" s="243"/>
-      <c r="DF69" s="243"/>
-      <c r="DG69" s="243"/>
-      <c r="DH69" s="243"/>
-      <c r="DI69" s="243"/>
-      <c r="DJ69" s="243"/>
-      <c r="DK69" s="243"/>
-      <c r="DL69" s="243"/>
-      <c r="DM69" s="243"/>
-      <c r="DN69" s="243"/>
-      <c r="DO69" s="243"/>
-      <c r="DP69" s="243"/>
-      <c r="DQ69" s="243"/>
-      <c r="DR69" s="243"/>
-      <c r="DS69" s="243"/>
-      <c r="DT69" s="243"/>
-      <c r="DU69" s="243"/>
-      <c r="DV69" s="243"/>
-      <c r="DW69" s="243"/>
-      <c r="DX69" s="243"/>
-      <c r="DY69" s="243"/>
-      <c r="DZ69" s="243"/>
-      <c r="EA69" s="243"/>
-      <c r="EB69" s="243"/>
-      <c r="EC69" s="243"/>
-      <c r="ED69" s="243"/>
-      <c r="EE69" s="243"/>
-      <c r="EF69" s="243"/>
-      <c r="EG69" s="243"/>
-      <c r="EH69" s="243"/>
-      <c r="EI69" s="243"/>
-      <c r="EJ69" s="243"/>
-      <c r="EK69" s="243"/>
-      <c r="EL69" s="243"/>
-      <c r="EM69" s="243"/>
-      <c r="EN69" s="243"/>
-      <c r="EO69" s="243"/>
-      <c r="EP69" s="243"/>
+      <c r="A69" s="234"/>
+      <c r="B69" s="234"/>
+      <c r="C69" s="234"/>
+      <c r="D69" s="234"/>
+      <c r="E69" s="234"/>
+      <c r="F69" s="234"/>
+      <c r="G69" s="234"/>
+      <c r="H69" s="234"/>
+      <c r="I69" s="234"/>
+      <c r="J69" s="234"/>
+      <c r="K69" s="234"/>
+      <c r="L69" s="234"/>
+      <c r="M69" s="234"/>
+      <c r="N69" s="234"/>
+      <c r="O69" s="234"/>
+      <c r="P69" s="234"/>
+      <c r="Q69" s="234"/>
+      <c r="R69" s="234"/>
+      <c r="S69" s="234"/>
+      <c r="T69" s="234"/>
+      <c r="U69" s="234"/>
+      <c r="V69" s="234"/>
+      <c r="W69" s="234"/>
+      <c r="X69" s="234"/>
+      <c r="Y69" s="234"/>
+      <c r="Z69" s="234"/>
+      <c r="AA69" s="234"/>
+      <c r="AB69" s="234"/>
+      <c r="AC69" s="234"/>
+      <c r="AD69" s="234"/>
+      <c r="AE69" s="234"/>
+      <c r="AF69" s="234"/>
+      <c r="AG69" s="234"/>
+      <c r="AH69" s="234"/>
+      <c r="AI69" s="234"/>
+      <c r="AJ69" s="234"/>
+      <c r="AK69" s="234"/>
+      <c r="AL69" s="234"/>
+      <c r="AM69" s="234"/>
+      <c r="AN69" s="234"/>
+      <c r="AO69" s="234"/>
+      <c r="AP69" s="234"/>
+      <c r="AQ69" s="234"/>
+      <c r="AR69" s="234"/>
+      <c r="AS69" s="234"/>
+      <c r="AT69" s="234"/>
+      <c r="AU69" s="234"/>
+      <c r="AV69" s="234"/>
+      <c r="AW69" s="234"/>
+      <c r="AX69" s="234"/>
+      <c r="AY69" s="234"/>
+      <c r="AZ69" s="234"/>
+      <c r="BA69" s="234"/>
+      <c r="BB69" s="234"/>
+      <c r="BC69" s="234"/>
+      <c r="BD69" s="234"/>
+      <c r="BE69" s="234"/>
+      <c r="BF69" s="234"/>
+      <c r="BG69" s="234"/>
+      <c r="BH69" s="234"/>
+      <c r="BI69" s="234"/>
+      <c r="BJ69" s="234"/>
+      <c r="BK69" s="234"/>
+      <c r="BL69" s="234"/>
+      <c r="BM69" s="234"/>
+      <c r="BN69" s="234"/>
+      <c r="BO69" s="234"/>
+      <c r="BP69" s="234"/>
+      <c r="BQ69" s="234"/>
+      <c r="BR69" s="234"/>
+      <c r="BS69" s="234"/>
+      <c r="BT69" s="234"/>
+      <c r="BU69" s="234"/>
+      <c r="BV69" s="234"/>
+      <c r="BW69" s="234"/>
+      <c r="BX69" s="234"/>
+      <c r="BY69" s="234"/>
+      <c r="BZ69" s="234"/>
+      <c r="CA69" s="234"/>
+      <c r="CB69" s="234"/>
+      <c r="CC69" s="234"/>
+      <c r="CD69" s="234"/>
+      <c r="CE69" s="234"/>
+      <c r="CF69" s="234"/>
+      <c r="CG69" s="234"/>
+      <c r="CH69" s="234"/>
+      <c r="CI69" s="234"/>
+      <c r="CJ69" s="234"/>
+      <c r="CK69" s="234"/>
+      <c r="CL69" s="234"/>
+      <c r="CM69" s="234"/>
+      <c r="CN69" s="234"/>
+      <c r="CO69" s="234"/>
+      <c r="CP69" s="234"/>
+      <c r="CQ69" s="234"/>
+      <c r="CR69" s="234"/>
+      <c r="CS69" s="234"/>
+      <c r="CT69" s="234"/>
+      <c r="CU69" s="234"/>
+      <c r="CV69" s="234"/>
+      <c r="CW69" s="234"/>
+      <c r="CX69" s="234"/>
+      <c r="CY69" s="234"/>
+      <c r="CZ69" s="234"/>
+      <c r="DA69" s="234"/>
+      <c r="DB69" s="234"/>
+      <c r="DC69" s="234"/>
+      <c r="DD69" s="234"/>
+      <c r="DE69" s="234"/>
+      <c r="DF69" s="234"/>
+      <c r="DG69" s="234"/>
+      <c r="DH69" s="234"/>
+      <c r="DI69" s="234"/>
+      <c r="DJ69" s="234"/>
+      <c r="DK69" s="234"/>
+      <c r="DL69" s="234"/>
+      <c r="DM69" s="234"/>
+      <c r="DN69" s="234"/>
+      <c r="DO69" s="234"/>
+      <c r="DP69" s="234"/>
+      <c r="DQ69" s="234"/>
+      <c r="DR69" s="234"/>
+      <c r="DS69" s="234"/>
+      <c r="DT69" s="234"/>
+      <c r="DU69" s="234"/>
+      <c r="DV69" s="234"/>
+      <c r="DW69" s="234"/>
+      <c r="DX69" s="234"/>
+      <c r="DY69" s="234"/>
+      <c r="DZ69" s="234"/>
+      <c r="EA69" s="234"/>
+      <c r="EB69" s="234"/>
+      <c r="EC69" s="234"/>
+      <c r="ED69" s="234"/>
+      <c r="EE69" s="234"/>
+      <c r="EF69" s="234"/>
+      <c r="EG69" s="234"/>
+      <c r="EH69" s="234"/>
+      <c r="EI69" s="234"/>
+      <c r="EJ69" s="234"/>
+      <c r="EK69" s="234"/>
+      <c r="EL69" s="234"/>
+      <c r="EM69" s="234"/>
+      <c r="EN69" s="234"/>
+      <c r="EO69" s="234"/>
+      <c r="EP69" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AI13:AM13"/>
+    <mergeCell ref="AP13:AT13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="BY11:EP11"/>
+    <mergeCell ref="DV13:DZ13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="BD13:BH13"/>
+    <mergeCell ref="BK13:BO13"/>
+    <mergeCell ref="BR13:BV13"/>
+    <mergeCell ref="BY13:CC13"/>
+    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="BK14:BO14"/>
+    <mergeCell ref="EC13:EG13"/>
+    <mergeCell ref="EJ13:EN13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AT14"/>
+    <mergeCell ref="CM13:CQ13"/>
+    <mergeCell ref="CT13:CX13"/>
+    <mergeCell ref="DA13:DE13"/>
+    <mergeCell ref="DH13:DL13"/>
+    <mergeCell ref="DO13:DS13"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BD14:BH14"/>
+    <mergeCell ref="BI14:BJ14"/>
+    <mergeCell ref="CR14:CS14"/>
+    <mergeCell ref="CT14:CX14"/>
+    <mergeCell ref="CY14:CZ14"/>
+    <mergeCell ref="DA14:DE14"/>
+    <mergeCell ref="BP14:BQ14"/>
+    <mergeCell ref="BR14:BV14"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BY14:CC14"/>
+    <mergeCell ref="CD14:CE14"/>
+    <mergeCell ref="CF14:CJ14"/>
     <mergeCell ref="A69:EP69"/>
     <mergeCell ref="EA14:EB14"/>
     <mergeCell ref="EC14:EG14"/>
@@ -21584,147 +21716,99 @@
     <mergeCell ref="DV14:DZ14"/>
     <mergeCell ref="CK14:CL14"/>
     <mergeCell ref="CM14:CQ14"/>
-    <mergeCell ref="CR14:CS14"/>
-    <mergeCell ref="CT14:CX14"/>
-    <mergeCell ref="CY14:CZ14"/>
-    <mergeCell ref="DA14:DE14"/>
-    <mergeCell ref="BP14:BQ14"/>
-    <mergeCell ref="BR14:BV14"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BY14:CC14"/>
-    <mergeCell ref="CD14:CE14"/>
-    <mergeCell ref="CF14:CJ14"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BD14:BH14"/>
-    <mergeCell ref="BI14:BJ14"/>
-    <mergeCell ref="BK14:BO14"/>
-    <mergeCell ref="EC13:EG13"/>
-    <mergeCell ref="EJ13:EN13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AT14"/>
-    <mergeCell ref="CM13:CQ13"/>
-    <mergeCell ref="CT13:CX13"/>
-    <mergeCell ref="DA13:DE13"/>
-    <mergeCell ref="DH13:DL13"/>
-    <mergeCell ref="DO13:DS13"/>
-    <mergeCell ref="DV13:DZ13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="BD13:BH13"/>
-    <mergeCell ref="BK13:BO13"/>
-    <mergeCell ref="BR13:BV13"/>
-    <mergeCell ref="BY13:CC13"/>
-    <mergeCell ref="CF13:CJ13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="BY11:EP11"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AI13:AM13"/>
-    <mergeCell ref="AP13:AT13"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H40:H44 H29:H31 H33:H37 H46:H65">
-    <cfRule type="expression" dxfId="109" priority="112">
+    <cfRule type="expression" dxfId="117" priority="112">
       <formula>$H16="M"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:K65 A16:EP21 A22:H27 J22:EP27 B29:H31 J41:EP41 A41:H41 K48:K65 A33:H34 G32 J34:EP34 J29:J31 N29:EP31 J33 L33:EP33 B35:H37 B40:H40 A35:A40 J35:J37 N35:EP37 J40 N40:EP40 K35:M40 A47:H47 J47:EP47 B46:H46 B42:H44 A42:A46 J46 N46:EP46 J42:J44 N42:EP44 K42:M46 A53:H64 C51:H51 B52:H52 B48:H50 A48:A52 J48:K64 L48:L66 M48:EP65">
-    <cfRule type="expression" dxfId="108" priority="110">
+  <conditionalFormatting sqref="A65:K65 A16:EP21 A22:H27 J22:EP27 B29:H31 J41:EP41 A41:H41 K48:K65 A33:H34 G32 J34:EP34 J29:J31 N29:EP31 J33 L33:EP33 B35:H37 B40:H40 A35:A40 J35:J37 N35:EP37 J40 N40:EP40 K35:M40 A47:H47 J47:EP47 B46:H46 B42:H44 A42:A46 J46 N46:EP46 J42:J44 N42:EP44 K42:M46 A53:H64 C51:H51 B52:H52 B48:H50 A48:A52 M48:EP65 J48:K64 L48:L66">
+    <cfRule type="expression" dxfId="116" priority="110">
       <formula>AND($A16&gt;=0,MOD($A16,1)=0,$A16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="111">
+    <cfRule type="expression" dxfId="115" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:EP27 S29:EP31 S35:EP37 S40:EP44 S33:EP33 S46:EP65">
-    <cfRule type="expression" dxfId="106" priority="108">
+    <cfRule type="expression" dxfId="114" priority="108">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="109">
+    <cfRule type="expression" dxfId="113" priority="109">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:EP27 N29:EP31 N40:EP44 N33:EP37 N46:EP65">
-    <cfRule type="expression" dxfId="104" priority="103">
+    <cfRule type="expression" dxfId="112" priority="103">
       <formula>AND($H16="M",$G16=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="104">
+    <cfRule type="expression" dxfId="111" priority="104">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$M16,$M16&lt;&gt;"",$J16&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="105">
+    <cfRule type="expression" dxfId="110" priority="105">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$I16,$M16&lt;&gt;"",$A16&gt;=0,MOD($A16,1)=0,$A16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="106">
+    <cfRule type="expression" dxfId="109" priority="106">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$I16,$M16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="107">
+    <cfRule type="expression" dxfId="108" priority="107">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I27 I34:I64">
-    <cfRule type="expression" dxfId="99" priority="100">
+    <cfRule type="expression" dxfId="107" priority="100">
       <formula>AND($A22&gt;=0,MOD($A22,1)=0,$A22&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="101">
+    <cfRule type="expression" dxfId="106" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34:EP34">
-    <cfRule type="expression" dxfId="97" priority="94">
+    <cfRule type="expression" dxfId="105" priority="94">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="95">
+    <cfRule type="expression" dxfId="104" priority="95">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 K28:EP28 A29:A32 K29:K33 L29:M32">
-    <cfRule type="expression" dxfId="95" priority="83">
+    <cfRule type="expression" dxfId="103" priority="83">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="84">
+    <cfRule type="expression" dxfId="102" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:EP28">
-    <cfRule type="expression" dxfId="93" priority="81">
+    <cfRule type="expression" dxfId="101" priority="81">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="82">
+    <cfRule type="expression" dxfId="100" priority="82">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:EP28">
-    <cfRule type="expression" dxfId="91" priority="76">
+    <cfRule type="expression" dxfId="99" priority="76">
       <formula>AND($H28="M",$G28=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="77">
+    <cfRule type="expression" dxfId="98" priority="77">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$M28,$M28&lt;&gt;"",$J28&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="78">
+    <cfRule type="expression" dxfId="97" priority="78">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$I28,$M28&lt;&gt;"",$A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="79">
+    <cfRule type="expression" dxfId="96" priority="79">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$I28,$M28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="80">
+    <cfRule type="expression" dxfId="95" priority="80">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I33">
-    <cfRule type="expression" dxfId="86" priority="74">
+    <cfRule type="expression" dxfId="94" priority="74">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="75">
+    <cfRule type="expression" dxfId="93" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21747,223 +21831,223 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:G38 N38:EP38">
-    <cfRule type="expression" dxfId="84" priority="70">
+    <cfRule type="expression" dxfId="92" priority="70">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="71">
+    <cfRule type="expression" dxfId="91" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S38:EP38">
-    <cfRule type="expression" dxfId="82" priority="68">
+    <cfRule type="expression" dxfId="90" priority="68">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="69">
+    <cfRule type="expression" dxfId="89" priority="69">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:EP38">
-    <cfRule type="expression" dxfId="80" priority="63">
+    <cfRule type="expression" dxfId="88" priority="63">
       <formula>AND($H38="M",$G38=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="64">
+    <cfRule type="expression" dxfId="87" priority="64">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$M38,$M38&lt;&gt;"",$J38&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="65">
+    <cfRule type="expression" dxfId="86" priority="65">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$I38,$M38&lt;&gt;"",$A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="66">
+    <cfRule type="expression" dxfId="85" priority="66">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$I38,$M38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="67">
+    <cfRule type="expression" dxfId="84" priority="67">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="expression" dxfId="75" priority="59">
+    <cfRule type="expression" dxfId="83" priority="59">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="60">
+    <cfRule type="expression" dxfId="82" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="73" priority="57">
+    <cfRule type="expression" dxfId="81" priority="57">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="58">
+    <cfRule type="expression" dxfId="80" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="71" priority="50">
+    <cfRule type="expression" dxfId="79" priority="50">
       <formula>$H28="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="70" priority="48">
+    <cfRule type="expression" dxfId="78" priority="48">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="49">
+    <cfRule type="expression" dxfId="77" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="68" priority="53">
+    <cfRule type="expression" dxfId="76" priority="53">
       <formula>$H38="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="67" priority="51">
+    <cfRule type="expression" dxfId="75" priority="51">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="52">
+    <cfRule type="expression" dxfId="74" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="65" priority="46">
+    <cfRule type="expression" dxfId="73" priority="46">
       <formula>$H32="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:F32 H32 J32 N32:EP32">
-    <cfRule type="expression" dxfId="64" priority="44">
+    <cfRule type="expression" dxfId="72" priority="44">
       <formula>AND($A32&gt;=0,MOD($A32,1)=0,$A32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="45">
+    <cfRule type="expression" dxfId="71" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:EP32">
-    <cfRule type="expression" dxfId="62" priority="42">
+    <cfRule type="expression" dxfId="70" priority="42">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="43">
+    <cfRule type="expression" dxfId="69" priority="43">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:EP32">
-    <cfRule type="expression" dxfId="60" priority="37">
+    <cfRule type="expression" dxfId="68" priority="37">
       <formula>AND($H32="M",$G32=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="38">
+    <cfRule type="expression" dxfId="67" priority="38">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$M32,$M32&lt;&gt;"",$J32&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="39">
+    <cfRule type="expression" dxfId="66" priority="39">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$I32,$M32&lt;&gt;"",$A32&gt;=0,MOD($A32,1)=0,$A32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="40">
+    <cfRule type="expression" dxfId="65" priority="40">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$I32,$M32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="41">
+    <cfRule type="expression" dxfId="64" priority="41">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="55" priority="18">
+    <cfRule type="expression" dxfId="63" priority="18">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="19">
+    <cfRule type="expression" dxfId="62" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:G39 N39:EP39">
-    <cfRule type="expression" dxfId="53" priority="32">
+    <cfRule type="expression" dxfId="61" priority="32">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="33">
+    <cfRule type="expression" dxfId="60" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S39:EP39">
-    <cfRule type="expression" dxfId="51" priority="30">
+    <cfRule type="expression" dxfId="59" priority="30">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="31">
+    <cfRule type="expression" dxfId="58" priority="31">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:EP39">
-    <cfRule type="expression" dxfId="49" priority="25">
+    <cfRule type="expression" dxfId="57" priority="25">
       <formula>AND($H39="M",$G39=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="26">
+    <cfRule type="expression" dxfId="56" priority="26">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$M39,$M39&lt;&gt;"",$J39&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="27">
+    <cfRule type="expression" dxfId="55" priority="27">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$I39,$M39&lt;&gt;"",$A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="28">
+    <cfRule type="expression" dxfId="54" priority="28">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$I39,$M39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="29">
+    <cfRule type="expression" dxfId="53" priority="29">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="44" priority="21">
+    <cfRule type="expression" dxfId="52" priority="21">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="22">
+    <cfRule type="expression" dxfId="51" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="42" priority="20">
+    <cfRule type="expression" dxfId="50" priority="20">
       <formula>$H39="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="41" priority="16">
+    <cfRule type="expression" dxfId="49" priority="16">
       <formula>$H45="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45 C45:H45 N45:EP45">
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="48" priority="14">
       <formula>AND($A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="15">
+    <cfRule type="expression" dxfId="47" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S45:EP45">
-    <cfRule type="expression" dxfId="38" priority="12">
+    <cfRule type="expression" dxfId="46" priority="12">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="13">
+    <cfRule type="expression" dxfId="45" priority="13">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45:EP45">
-    <cfRule type="expression" dxfId="36" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>AND($H45="M",$G45=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="8">
+    <cfRule type="expression" dxfId="43" priority="8">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$M45,$M45&lt;&gt;"",$J45&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="9">
+    <cfRule type="expression" dxfId="42" priority="9">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$I45,$M45&lt;&gt;"",$A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="10">
+    <cfRule type="expression" dxfId="41" priority="10">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$I45,$M45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="11">
+    <cfRule type="expression" dxfId="40" priority="11">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>AND($A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>AND($A51&gt;=0,MOD($A51,1)=0,$A51&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25809,15 +25893,15 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="AW2">
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="35" priority="32">
       <formula>$H2="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AW2 AY2:BB2">
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="33" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25831,23 +25915,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX2">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="28">
+    <cfRule type="expression" dxfId="31" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW7">
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>$H7="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ7:AW7 AY7:BB7">
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="29" priority="24">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="28" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25861,23 +25945,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX7">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW12">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>$H12="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ12:AW12 AY12:BB12">
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25891,23 +25975,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX12">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="22" priority="15">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="21" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW17">
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>$H17="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ17:AW17 AY17:BB17">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="18" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25921,42 +26005,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX17">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP7">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -286,7 +286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="99">
   <si>
     <t>Zeitfenster</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Draft Abgabe</t>
   </si>
 </sst>
 </file>
@@ -977,7 +980,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -999,6 +1002,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,7 +1428,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2099,27 +2108,6 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2147,80 +2135,38 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="118">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="110">
     <dxf>
       <fill>
         <patternFill>
@@ -3419,10 +3365,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="12" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="J37" sqref="J37"/>
+      <selection pane="topRight" activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -8005,10 +7951,10 @@
       <c r="G7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="242">
+      <c r="H7" s="235">
         <v>42088</v>
       </c>
-      <c r="I7" s="242"/>
+      <c r="I7" s="235"/>
       <c r="K7" s="27"/>
       <c r="L7" s="217"/>
       <c r="M7" s="217"/>
@@ -10270,17 +10216,17 @@
       <c r="ACA9" s="34"/>
     </row>
     <row r="10" spans="1:755" s="22" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="243"/>
-      <c r="B10" s="243"/>
+      <c r="A10" s="236"/>
+      <c r="B10" s="236"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
       <c r="L10" s="220"/>
       <c r="M10" s="220"/>
       <c r="N10" s="201"/>
@@ -11027,19 +10973,19 @@
       <c r="ACA10" s="34"/>
     </row>
     <row r="11" spans="1:755" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="245" t="s">
+      <c r="A11" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="246"/>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="246"/>
-      <c r="K11" s="246"/>
+      <c r="B11" s="239"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="239"/>
+      <c r="I11" s="239"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
       <c r="L11" s="221"/>
       <c r="M11" s="221"/>
       <c r="N11" s="202"/>
@@ -11105,78 +11051,78 @@
       <c r="BV11" s="36"/>
       <c r="BW11" s="36"/>
       <c r="BX11" s="36"/>
-      <c r="BY11" s="247" t="s">
+      <c r="BY11" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="BZ11" s="247"/>
-      <c r="CA11" s="247"/>
-      <c r="CB11" s="247"/>
-      <c r="CC11" s="247"/>
-      <c r="CD11" s="247"/>
-      <c r="CE11" s="247"/>
-      <c r="CF11" s="247"/>
-      <c r="CG11" s="247"/>
-      <c r="CH11" s="247"/>
-      <c r="CI11" s="247"/>
-      <c r="CJ11" s="247"/>
-      <c r="CK11" s="247"/>
-      <c r="CL11" s="247"/>
-      <c r="CM11" s="247"/>
-      <c r="CN11" s="247"/>
-      <c r="CO11" s="247"/>
-      <c r="CP11" s="247"/>
-      <c r="CQ11" s="247"/>
-      <c r="CR11" s="247"/>
-      <c r="CS11" s="247"/>
-      <c r="CT11" s="247"/>
-      <c r="CU11" s="247"/>
-      <c r="CV11" s="247"/>
-      <c r="CW11" s="247"/>
-      <c r="CX11" s="247"/>
-      <c r="CY11" s="247"/>
-      <c r="CZ11" s="247"/>
-      <c r="DA11" s="247"/>
-      <c r="DB11" s="247"/>
-      <c r="DC11" s="247"/>
-      <c r="DD11" s="247"/>
-      <c r="DE11" s="247"/>
-      <c r="DF11" s="247"/>
-      <c r="DG11" s="247"/>
-      <c r="DH11" s="247"/>
-      <c r="DI11" s="247"/>
-      <c r="DJ11" s="247"/>
-      <c r="DK11" s="247"/>
-      <c r="DL11" s="247"/>
-      <c r="DM11" s="247"/>
-      <c r="DN11" s="247"/>
-      <c r="DO11" s="247"/>
-      <c r="DP11" s="247"/>
-      <c r="DQ11" s="247"/>
-      <c r="DR11" s="247"/>
-      <c r="DS11" s="247"/>
-      <c r="DT11" s="247"/>
-      <c r="DU11" s="247"/>
-      <c r="DV11" s="247"/>
-      <c r="DW11" s="247"/>
-      <c r="DX11" s="247"/>
-      <c r="DY11" s="247"/>
-      <c r="DZ11" s="247"/>
-      <c r="EA11" s="247"/>
-      <c r="EB11" s="247"/>
-      <c r="EC11" s="247"/>
-      <c r="ED11" s="247"/>
-      <c r="EE11" s="247"/>
-      <c r="EF11" s="247"/>
-      <c r="EG11" s="247"/>
-      <c r="EH11" s="247"/>
-      <c r="EI11" s="247"/>
-      <c r="EJ11" s="247"/>
-      <c r="EK11" s="247"/>
-      <c r="EL11" s="247"/>
-      <c r="EM11" s="247"/>
-      <c r="EN11" s="247"/>
-      <c r="EO11" s="247"/>
-      <c r="EP11" s="248"/>
+      <c r="BZ11" s="240"/>
+      <c r="CA11" s="240"/>
+      <c r="CB11" s="240"/>
+      <c r="CC11" s="240"/>
+      <c r="CD11" s="240"/>
+      <c r="CE11" s="240"/>
+      <c r="CF11" s="240"/>
+      <c r="CG11" s="240"/>
+      <c r="CH11" s="240"/>
+      <c r="CI11" s="240"/>
+      <c r="CJ11" s="240"/>
+      <c r="CK11" s="240"/>
+      <c r="CL11" s="240"/>
+      <c r="CM11" s="240"/>
+      <c r="CN11" s="240"/>
+      <c r="CO11" s="240"/>
+      <c r="CP11" s="240"/>
+      <c r="CQ11" s="240"/>
+      <c r="CR11" s="240"/>
+      <c r="CS11" s="240"/>
+      <c r="CT11" s="240"/>
+      <c r="CU11" s="240"/>
+      <c r="CV11" s="240"/>
+      <c r="CW11" s="240"/>
+      <c r="CX11" s="240"/>
+      <c r="CY11" s="240"/>
+      <c r="CZ11" s="240"/>
+      <c r="DA11" s="240"/>
+      <c r="DB11" s="240"/>
+      <c r="DC11" s="240"/>
+      <c r="DD11" s="240"/>
+      <c r="DE11" s="240"/>
+      <c r="DF11" s="240"/>
+      <c r="DG11" s="240"/>
+      <c r="DH11" s="240"/>
+      <c r="DI11" s="240"/>
+      <c r="DJ11" s="240"/>
+      <c r="DK11" s="240"/>
+      <c r="DL11" s="240"/>
+      <c r="DM11" s="240"/>
+      <c r="DN11" s="240"/>
+      <c r="DO11" s="240"/>
+      <c r="DP11" s="240"/>
+      <c r="DQ11" s="240"/>
+      <c r="DR11" s="240"/>
+      <c r="DS11" s="240"/>
+      <c r="DT11" s="240"/>
+      <c r="DU11" s="240"/>
+      <c r="DV11" s="240"/>
+      <c r="DW11" s="240"/>
+      <c r="DX11" s="240"/>
+      <c r="DY11" s="240"/>
+      <c r="DZ11" s="240"/>
+      <c r="EA11" s="240"/>
+      <c r="EB11" s="240"/>
+      <c r="EC11" s="240"/>
+      <c r="ED11" s="240"/>
+      <c r="EE11" s="240"/>
+      <c r="EF11" s="240"/>
+      <c r="EG11" s="240"/>
+      <c r="EH11" s="240"/>
+      <c r="EI11" s="240"/>
+      <c r="EJ11" s="240"/>
+      <c r="EK11" s="240"/>
+      <c r="EL11" s="240"/>
+      <c r="EM11" s="240"/>
+      <c r="EN11" s="240"/>
+      <c r="EO11" s="240"/>
+      <c r="EP11" s="241"/>
     </row>
     <row r="12" spans="1:755" s="37" customFormat="1" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -11739,194 +11685,194 @@
       <c r="K13" s="44"/>
       <c r="L13" s="223"/>
       <c r="M13" s="223"/>
-      <c r="N13" s="241" t="str">
+      <c r="N13" s="234" t="str">
         <f>"KW " &amp; TRUNC((N12-DATE(YEAR(N12+3-MOD(N12-2,7)),1,MOD(N12-2,7)-9))/7)</f>
         <v>KW 13</v>
       </c>
-      <c r="O13" s="241"/>
-      <c r="P13" s="241"/>
-      <c r="Q13" s="241"/>
-      <c r="R13" s="241"/>
+      <c r="O13" s="234"/>
+      <c r="P13" s="234"/>
+      <c r="Q13" s="234"/>
+      <c r="R13" s="234"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="241" t="str">
+      <c r="U13" s="234" t="str">
         <f t="shared" ref="U13" si="3">"KW " &amp; TRUNC((U12-DATE(YEAR(U12+3-MOD(U12-2,7)),1,MOD(U12-2,7)-9))/7)</f>
         <v>KW 14</v>
       </c>
-      <c r="V13" s="241"/>
-      <c r="W13" s="241"/>
-      <c r="X13" s="241"/>
-      <c r="Y13" s="241"/>
+      <c r="V13" s="234"/>
+      <c r="W13" s="234"/>
+      <c r="X13" s="234"/>
+      <c r="Y13" s="234"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="46"/>
-      <c r="AB13" s="241" t="str">
+      <c r="AB13" s="234" t="str">
         <f t="shared" ref="AB13" si="4">"KW " &amp; TRUNC((AB12-DATE(YEAR(AB12+3-MOD(AB12-2,7)),1,MOD(AB12-2,7)-9))/7)</f>
         <v>KW 15</v>
       </c>
-      <c r="AC13" s="241"/>
-      <c r="AD13" s="241"/>
-      <c r="AE13" s="241"/>
-      <c r="AF13" s="241"/>
+      <c r="AC13" s="234"/>
+      <c r="AD13" s="234"/>
+      <c r="AE13" s="234"/>
+      <c r="AF13" s="234"/>
       <c r="AG13" s="46"/>
       <c r="AH13" s="46"/>
-      <c r="AI13" s="241" t="str">
+      <c r="AI13" s="234" t="str">
         <f t="shared" ref="AI13" si="5">"KW " &amp; TRUNC((AI12-DATE(YEAR(AI12+3-MOD(AI12-2,7)),1,MOD(AI12-2,7)-9))/7)</f>
         <v>KW 16</v>
       </c>
-      <c r="AJ13" s="241"/>
-      <c r="AK13" s="241"/>
-      <c r="AL13" s="241"/>
-      <c r="AM13" s="241"/>
+      <c r="AJ13" s="234"/>
+      <c r="AK13" s="234"/>
+      <c r="AL13" s="234"/>
+      <c r="AM13" s="234"/>
       <c r="AN13" s="46"/>
       <c r="AO13" s="46"/>
-      <c r="AP13" s="241" t="str">
+      <c r="AP13" s="234" t="str">
         <f t="shared" ref="AP13" si="6">"KW " &amp; TRUNC((AP12-DATE(YEAR(AP12+3-MOD(AP12-2,7)),1,MOD(AP12-2,7)-9))/7)</f>
         <v>KW 17</v>
       </c>
-      <c r="AQ13" s="241"/>
-      <c r="AR13" s="241"/>
-      <c r="AS13" s="241"/>
-      <c r="AT13" s="241"/>
+      <c r="AQ13" s="234"/>
+      <c r="AR13" s="234"/>
+      <c r="AS13" s="234"/>
+      <c r="AT13" s="234"/>
       <c r="AU13" s="46"/>
       <c r="AV13" s="46"/>
-      <c r="AW13" s="241" t="str">
+      <c r="AW13" s="234" t="str">
         <f t="shared" ref="AW13" si="7">"KW " &amp; TRUNC((AW12-DATE(YEAR(AW12+3-MOD(AW12-2,7)),1,MOD(AW12-2,7)-9))/7)</f>
         <v>KW 18</v>
       </c>
-      <c r="AX13" s="241"/>
-      <c r="AY13" s="241"/>
-      <c r="AZ13" s="241"/>
-      <c r="BA13" s="241"/>
+      <c r="AX13" s="234"/>
+      <c r="AY13" s="234"/>
+      <c r="AZ13" s="234"/>
+      <c r="BA13" s="234"/>
       <c r="BB13" s="46"/>
       <c r="BC13" s="46"/>
-      <c r="BD13" s="241" t="str">
+      <c r="BD13" s="234" t="str">
         <f t="shared" ref="BD13" si="8">"KW " &amp; TRUNC((BD12-DATE(YEAR(BD12+3-MOD(BD12-2,7)),1,MOD(BD12-2,7)-9))/7)</f>
         <v>KW 19</v>
       </c>
-      <c r="BE13" s="241"/>
-      <c r="BF13" s="241"/>
-      <c r="BG13" s="241"/>
-      <c r="BH13" s="241"/>
+      <c r="BE13" s="234"/>
+      <c r="BF13" s="234"/>
+      <c r="BG13" s="234"/>
+      <c r="BH13" s="234"/>
       <c r="BI13" s="46"/>
       <c r="BJ13" s="46"/>
-      <c r="BK13" s="241" t="str">
+      <c r="BK13" s="234" t="str">
         <f t="shared" ref="BK13" si="9">"KW " &amp; TRUNC((BK12-DATE(YEAR(BK12+3-MOD(BK12-2,7)),1,MOD(BK12-2,7)-9))/7)</f>
         <v>KW 20</v>
       </c>
-      <c r="BL13" s="241"/>
-      <c r="BM13" s="241"/>
-      <c r="BN13" s="241"/>
-      <c r="BO13" s="241"/>
+      <c r="BL13" s="234"/>
+      <c r="BM13" s="234"/>
+      <c r="BN13" s="234"/>
+      <c r="BO13" s="234"/>
       <c r="BP13" s="46"/>
       <c r="BQ13" s="46"/>
-      <c r="BR13" s="241" t="str">
+      <c r="BR13" s="234" t="str">
         <f t="shared" ref="BR13" si="10">"KW " &amp; TRUNC((BR12-DATE(YEAR(BR12+3-MOD(BR12-2,7)),1,MOD(BR12-2,7)-9))/7)</f>
         <v>KW 21</v>
       </c>
-      <c r="BS13" s="241"/>
-      <c r="BT13" s="241"/>
-      <c r="BU13" s="241"/>
-      <c r="BV13" s="241"/>
+      <c r="BS13" s="234"/>
+      <c r="BT13" s="234"/>
+      <c r="BU13" s="234"/>
+      <c r="BV13" s="234"/>
       <c r="BW13" s="46"/>
       <c r="BX13" s="46"/>
-      <c r="BY13" s="241" t="str">
+      <c r="BY13" s="234" t="str">
         <f t="shared" ref="BY13" si="11">"KW " &amp; TRUNC((BY12-DATE(YEAR(BY12+3-MOD(BY12-2,7)),1,MOD(BY12-2,7)-9))/7)</f>
         <v>KW 22</v>
       </c>
-      <c r="BZ13" s="241"/>
-      <c r="CA13" s="241"/>
-      <c r="CB13" s="241"/>
-      <c r="CC13" s="241"/>
+      <c r="BZ13" s="234"/>
+      <c r="CA13" s="234"/>
+      <c r="CB13" s="234"/>
+      <c r="CC13" s="234"/>
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
-      <c r="CF13" s="241" t="str">
+      <c r="CF13" s="234" t="str">
         <f t="shared" ref="CF13" si="12">"KW " &amp; TRUNC((CF12-DATE(YEAR(CF12+3-MOD(CF12-2,7)),1,MOD(CF12-2,7)-9))/7)</f>
         <v>KW 23</v>
       </c>
-      <c r="CG13" s="241"/>
-      <c r="CH13" s="241"/>
-      <c r="CI13" s="241"/>
-      <c r="CJ13" s="241"/>
+      <c r="CG13" s="234"/>
+      <c r="CH13" s="234"/>
+      <c r="CI13" s="234"/>
+      <c r="CJ13" s="234"/>
       <c r="CK13" s="46"/>
       <c r="CL13" s="46"/>
-      <c r="CM13" s="241" t="str">
+      <c r="CM13" s="234" t="str">
         <f t="shared" ref="CM13" si="13">"KW " &amp; TRUNC((CM12-DATE(YEAR(CM12+3-MOD(CM12-2,7)),1,MOD(CM12-2,7)-9))/7)</f>
         <v>KW 24</v>
       </c>
-      <c r="CN13" s="241"/>
-      <c r="CO13" s="241"/>
-      <c r="CP13" s="241"/>
-      <c r="CQ13" s="241"/>
+      <c r="CN13" s="234"/>
+      <c r="CO13" s="234"/>
+      <c r="CP13" s="234"/>
+      <c r="CQ13" s="234"/>
       <c r="CR13" s="46"/>
       <c r="CS13" s="46"/>
-      <c r="CT13" s="241" t="str">
+      <c r="CT13" s="234" t="str">
         <f t="shared" ref="CT13" si="14">"KW " &amp; TRUNC((CT12-DATE(YEAR(CT12+3-MOD(CT12-2,7)),1,MOD(CT12-2,7)-9))/7)</f>
         <v>KW 25</v>
       </c>
-      <c r="CU13" s="241"/>
-      <c r="CV13" s="241"/>
-      <c r="CW13" s="241"/>
-      <c r="CX13" s="241"/>
+      <c r="CU13" s="234"/>
+      <c r="CV13" s="234"/>
+      <c r="CW13" s="234"/>
+      <c r="CX13" s="234"/>
       <c r="CY13" s="46"/>
       <c r="CZ13" s="46"/>
-      <c r="DA13" s="241" t="str">
+      <c r="DA13" s="234" t="str">
         <f t="shared" ref="DA13" si="15">"KW " &amp; TRUNC((DA12-DATE(YEAR(DA12+3-MOD(DA12-2,7)),1,MOD(DA12-2,7)-9))/7)</f>
         <v>KW 26</v>
       </c>
-      <c r="DB13" s="241"/>
-      <c r="DC13" s="241"/>
-      <c r="DD13" s="241"/>
-      <c r="DE13" s="241"/>
+      <c r="DB13" s="234"/>
+      <c r="DC13" s="234"/>
+      <c r="DD13" s="234"/>
+      <c r="DE13" s="234"/>
       <c r="DF13" s="46"/>
       <c r="DG13" s="46"/>
-      <c r="DH13" s="241" t="str">
+      <c r="DH13" s="234" t="str">
         <f t="shared" ref="DH13" si="16">"KW " &amp; TRUNC((DH12-DATE(YEAR(DH12+3-MOD(DH12-2,7)),1,MOD(DH12-2,7)-9))/7)</f>
         <v>KW 27</v>
       </c>
-      <c r="DI13" s="241"/>
-      <c r="DJ13" s="241"/>
-      <c r="DK13" s="241"/>
-      <c r="DL13" s="241"/>
+      <c r="DI13" s="234"/>
+      <c r="DJ13" s="234"/>
+      <c r="DK13" s="234"/>
+      <c r="DL13" s="234"/>
       <c r="DM13" s="46"/>
       <c r="DN13" s="46"/>
-      <c r="DO13" s="241" t="str">
+      <c r="DO13" s="234" t="str">
         <f t="shared" ref="DO13" si="17">"KW " &amp; TRUNC((DO12-DATE(YEAR(DO12+3-MOD(DO12-2,7)),1,MOD(DO12-2,7)-9))/7)</f>
         <v>KW 28</v>
       </c>
-      <c r="DP13" s="241"/>
-      <c r="DQ13" s="241"/>
-      <c r="DR13" s="241"/>
-      <c r="DS13" s="241"/>
+      <c r="DP13" s="234"/>
+      <c r="DQ13" s="234"/>
+      <c r="DR13" s="234"/>
+      <c r="DS13" s="234"/>
       <c r="DT13" s="46"/>
       <c r="DU13" s="46"/>
-      <c r="DV13" s="241" t="str">
+      <c r="DV13" s="234" t="str">
         <f t="shared" ref="DV13" si="18">"KW " &amp; TRUNC((DV12-DATE(YEAR(DV12+3-MOD(DV12-2,7)),1,MOD(DV12-2,7)-9))/7)</f>
         <v>KW 29</v>
       </c>
-      <c r="DW13" s="241"/>
-      <c r="DX13" s="241"/>
-      <c r="DY13" s="241"/>
-      <c r="DZ13" s="241"/>
+      <c r="DW13" s="234"/>
+      <c r="DX13" s="234"/>
+      <c r="DY13" s="234"/>
+      <c r="DZ13" s="234"/>
       <c r="EA13" s="46"/>
       <c r="EB13" s="46"/>
-      <c r="EC13" s="241" t="str">
+      <c r="EC13" s="234" t="str">
         <f t="shared" ref="EC13" si="19">"KW " &amp; TRUNC((EC12-DATE(YEAR(EC12+3-MOD(EC12-2,7)),1,MOD(EC12-2,7)-9))/7)</f>
         <v>KW 30</v>
       </c>
-      <c r="ED13" s="241"/>
-      <c r="EE13" s="241"/>
-      <c r="EF13" s="241"/>
-      <c r="EG13" s="241"/>
+      <c r="ED13" s="234"/>
+      <c r="EE13" s="234"/>
+      <c r="EF13" s="234"/>
+      <c r="EG13" s="234"/>
       <c r="EH13" s="46"/>
       <c r="EI13" s="46"/>
-      <c r="EJ13" s="241" t="str">
+      <c r="EJ13" s="234" t="str">
         <f t="shared" ref="EJ13" si="20">"KW " &amp; TRUNC((EJ12-DATE(YEAR(EJ12+3-MOD(EJ12-2,7)),1,MOD(EJ12-2,7)-9))/7)</f>
         <v>KW 31</v>
       </c>
-      <c r="EK13" s="241"/>
-      <c r="EL13" s="241"/>
-      <c r="EM13" s="241"/>
-      <c r="EN13" s="241"/>
+      <c r="EK13" s="234"/>
+      <c r="EL13" s="234"/>
+      <c r="EM13" s="234"/>
+      <c r="EN13" s="234"/>
       <c r="EO13" s="46"/>
       <c r="EP13" s="47"/>
     </row>
@@ -11968,196 +11914,196 @@
       <c r="M14" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="235">
+      <c r="N14" s="242">
         <f>N12</f>
         <v>42086</v>
       </c>
-      <c r="O14" s="235"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
+      <c r="O14" s="242"/>
+      <c r="P14" s="242"/>
+      <c r="Q14" s="242"/>
+      <c r="R14" s="242"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
-      <c r="U14" s="235">
+      <c r="U14" s="242">
         <f>U12</f>
         <v>42093</v>
       </c>
-      <c r="V14" s="235"/>
-      <c r="W14" s="235"/>
-      <c r="X14" s="235"/>
-      <c r="Y14" s="235"/>
-      <c r="Z14" s="235"/>
-      <c r="AA14" s="235"/>
-      <c r="AB14" s="235">
+      <c r="V14" s="242"/>
+      <c r="W14" s="242"/>
+      <c r="X14" s="242"/>
+      <c r="Y14" s="242"/>
+      <c r="Z14" s="242"/>
+      <c r="AA14" s="242"/>
+      <c r="AB14" s="242">
         <f>AB12</f>
         <v>42100</v>
       </c>
-      <c r="AC14" s="235"/>
-      <c r="AD14" s="235"/>
-      <c r="AE14" s="235"/>
-      <c r="AF14" s="235"/>
-      <c r="AG14" s="235"/>
-      <c r="AH14" s="235"/>
-      <c r="AI14" s="235">
+      <c r="AC14" s="242"/>
+      <c r="AD14" s="242"/>
+      <c r="AE14" s="242"/>
+      <c r="AF14" s="242"/>
+      <c r="AG14" s="242"/>
+      <c r="AH14" s="242"/>
+      <c r="AI14" s="242">
         <f>AI12</f>
         <v>42107</v>
       </c>
-      <c r="AJ14" s="235"/>
-      <c r="AK14" s="235"/>
-      <c r="AL14" s="235"/>
-      <c r="AM14" s="235"/>
-      <c r="AN14" s="235"/>
-      <c r="AO14" s="235"/>
-      <c r="AP14" s="235">
+      <c r="AJ14" s="242"/>
+      <c r="AK14" s="242"/>
+      <c r="AL14" s="242"/>
+      <c r="AM14" s="242"/>
+      <c r="AN14" s="242"/>
+      <c r="AO14" s="242"/>
+      <c r="AP14" s="242">
         <f>AP12</f>
         <v>42114</v>
       </c>
-      <c r="AQ14" s="235"/>
-      <c r="AR14" s="235"/>
-      <c r="AS14" s="235"/>
-      <c r="AT14" s="235"/>
-      <c r="AU14" s="235"/>
-      <c r="AV14" s="235"/>
-      <c r="AW14" s="235">
+      <c r="AQ14" s="242"/>
+      <c r="AR14" s="242"/>
+      <c r="AS14" s="242"/>
+      <c r="AT14" s="242"/>
+      <c r="AU14" s="242"/>
+      <c r="AV14" s="242"/>
+      <c r="AW14" s="242">
         <f>AW12</f>
         <v>42121</v>
       </c>
-      <c r="AX14" s="235"/>
-      <c r="AY14" s="235"/>
-      <c r="AZ14" s="235"/>
-      <c r="BA14" s="235"/>
-      <c r="BB14" s="235"/>
-      <c r="BC14" s="235"/>
-      <c r="BD14" s="235">
+      <c r="AX14" s="242"/>
+      <c r="AY14" s="242"/>
+      <c r="AZ14" s="242"/>
+      <c r="BA14" s="242"/>
+      <c r="BB14" s="242"/>
+      <c r="BC14" s="242"/>
+      <c r="BD14" s="242">
         <f>BD12</f>
         <v>42128</v>
       </c>
-      <c r="BE14" s="235"/>
-      <c r="BF14" s="235"/>
-      <c r="BG14" s="235"/>
-      <c r="BH14" s="235"/>
-      <c r="BI14" s="235"/>
-      <c r="BJ14" s="235"/>
-      <c r="BK14" s="235">
+      <c r="BE14" s="242"/>
+      <c r="BF14" s="242"/>
+      <c r="BG14" s="242"/>
+      <c r="BH14" s="242"/>
+      <c r="BI14" s="242"/>
+      <c r="BJ14" s="242"/>
+      <c r="BK14" s="242">
         <f>BK12</f>
         <v>42135</v>
       </c>
-      <c r="BL14" s="235"/>
-      <c r="BM14" s="235"/>
-      <c r="BN14" s="235"/>
-      <c r="BO14" s="235"/>
-      <c r="BP14" s="235"/>
-      <c r="BQ14" s="235"/>
-      <c r="BR14" s="235">
+      <c r="BL14" s="242"/>
+      <c r="BM14" s="242"/>
+      <c r="BN14" s="242"/>
+      <c r="BO14" s="242"/>
+      <c r="BP14" s="242"/>
+      <c r="BQ14" s="242"/>
+      <c r="BR14" s="242">
         <f>BR12</f>
         <v>42142</v>
       </c>
-      <c r="BS14" s="235"/>
-      <c r="BT14" s="235"/>
-      <c r="BU14" s="235"/>
-      <c r="BV14" s="235"/>
-      <c r="BW14" s="235"/>
-      <c r="BX14" s="235"/>
-      <c r="BY14" s="235">
+      <c r="BS14" s="242"/>
+      <c r="BT14" s="242"/>
+      <c r="BU14" s="242"/>
+      <c r="BV14" s="242"/>
+      <c r="BW14" s="242"/>
+      <c r="BX14" s="242"/>
+      <c r="BY14" s="242">
         <f>BY12</f>
         <v>42149</v>
       </c>
-      <c r="BZ14" s="235"/>
-      <c r="CA14" s="235"/>
-      <c r="CB14" s="235"/>
-      <c r="CC14" s="235"/>
-      <c r="CD14" s="235"/>
-      <c r="CE14" s="235"/>
-      <c r="CF14" s="235">
+      <c r="BZ14" s="242"/>
+      <c r="CA14" s="242"/>
+      <c r="CB14" s="242"/>
+      <c r="CC14" s="242"/>
+      <c r="CD14" s="242"/>
+      <c r="CE14" s="242"/>
+      <c r="CF14" s="242">
         <f>CF12</f>
         <v>42156</v>
       </c>
-      <c r="CG14" s="235"/>
-      <c r="CH14" s="235"/>
-      <c r="CI14" s="235"/>
-      <c r="CJ14" s="235"/>
-      <c r="CK14" s="235"/>
-      <c r="CL14" s="235"/>
-      <c r="CM14" s="235">
+      <c r="CG14" s="242"/>
+      <c r="CH14" s="242"/>
+      <c r="CI14" s="242"/>
+      <c r="CJ14" s="242"/>
+      <c r="CK14" s="242"/>
+      <c r="CL14" s="242"/>
+      <c r="CM14" s="242">
         <f>CM12</f>
         <v>42163</v>
       </c>
-      <c r="CN14" s="235"/>
-      <c r="CO14" s="235"/>
-      <c r="CP14" s="235"/>
-      <c r="CQ14" s="235"/>
-      <c r="CR14" s="235"/>
-      <c r="CS14" s="235"/>
-      <c r="CT14" s="235">
+      <c r="CN14" s="242"/>
+      <c r="CO14" s="242"/>
+      <c r="CP14" s="242"/>
+      <c r="CQ14" s="242"/>
+      <c r="CR14" s="242"/>
+      <c r="CS14" s="242"/>
+      <c r="CT14" s="242">
         <f>CT12</f>
         <v>42170</v>
       </c>
-      <c r="CU14" s="235"/>
-      <c r="CV14" s="235"/>
-      <c r="CW14" s="235"/>
-      <c r="CX14" s="235"/>
-      <c r="CY14" s="235"/>
-      <c r="CZ14" s="235"/>
-      <c r="DA14" s="235">
+      <c r="CU14" s="242"/>
+      <c r="CV14" s="242"/>
+      <c r="CW14" s="242"/>
+      <c r="CX14" s="242"/>
+      <c r="CY14" s="242"/>
+      <c r="CZ14" s="242"/>
+      <c r="DA14" s="242">
         <f>DA12</f>
         <v>42177</v>
       </c>
-      <c r="DB14" s="235"/>
-      <c r="DC14" s="235"/>
-      <c r="DD14" s="235"/>
-      <c r="DE14" s="235"/>
-      <c r="DF14" s="235"/>
-      <c r="DG14" s="235"/>
-      <c r="DH14" s="235">
+      <c r="DB14" s="242"/>
+      <c r="DC14" s="242"/>
+      <c r="DD14" s="242"/>
+      <c r="DE14" s="242"/>
+      <c r="DF14" s="242"/>
+      <c r="DG14" s="242"/>
+      <c r="DH14" s="242">
         <f>DH12</f>
         <v>42184</v>
       </c>
-      <c r="DI14" s="235"/>
-      <c r="DJ14" s="235"/>
-      <c r="DK14" s="235"/>
-      <c r="DL14" s="235"/>
-      <c r="DM14" s="235"/>
-      <c r="DN14" s="235"/>
-      <c r="DO14" s="235">
+      <c r="DI14" s="242"/>
+      <c r="DJ14" s="242"/>
+      <c r="DK14" s="242"/>
+      <c r="DL14" s="242"/>
+      <c r="DM14" s="242"/>
+      <c r="DN14" s="242"/>
+      <c r="DO14" s="242">
         <f>DO12</f>
         <v>42191</v>
       </c>
-      <c r="DP14" s="235"/>
-      <c r="DQ14" s="235"/>
-      <c r="DR14" s="235"/>
-      <c r="DS14" s="235"/>
-      <c r="DT14" s="235"/>
-      <c r="DU14" s="235"/>
-      <c r="DV14" s="235">
+      <c r="DP14" s="242"/>
+      <c r="DQ14" s="242"/>
+      <c r="DR14" s="242"/>
+      <c r="DS14" s="242"/>
+      <c r="DT14" s="242"/>
+      <c r="DU14" s="242"/>
+      <c r="DV14" s="242">
         <f>DV12</f>
         <v>42198</v>
       </c>
-      <c r="DW14" s="235"/>
-      <c r="DX14" s="235"/>
-      <c r="DY14" s="235"/>
-      <c r="DZ14" s="235"/>
-      <c r="EA14" s="235"/>
-      <c r="EB14" s="235"/>
-      <c r="EC14" s="235">
+      <c r="DW14" s="242"/>
+      <c r="DX14" s="242"/>
+      <c r="DY14" s="242"/>
+      <c r="DZ14" s="242"/>
+      <c r="EA14" s="242"/>
+      <c r="EB14" s="242"/>
+      <c r="EC14" s="242">
         <f>EC12</f>
         <v>42205</v>
       </c>
-      <c r="ED14" s="235"/>
-      <c r="EE14" s="235"/>
-      <c r="EF14" s="235"/>
-      <c r="EG14" s="235"/>
-      <c r="EH14" s="235"/>
-      <c r="EI14" s="235"/>
-      <c r="EJ14" s="235">
+      <c r="ED14" s="242"/>
+      <c r="EE14" s="242"/>
+      <c r="EF14" s="242"/>
+      <c r="EG14" s="242"/>
+      <c r="EH14" s="242"/>
+      <c r="EI14" s="242"/>
+      <c r="EJ14" s="242">
         <f>EJ12</f>
         <v>42212</v>
       </c>
-      <c r="EK14" s="235"/>
-      <c r="EL14" s="235"/>
-      <c r="EM14" s="235"/>
-      <c r="EN14" s="235"/>
-      <c r="EO14" s="235"/>
-      <c r="EP14" s="236"/>
+      <c r="EK14" s="242"/>
+      <c r="EL14" s="242"/>
+      <c r="EM14" s="242"/>
+      <c r="EN14" s="242"/>
+      <c r="EO14" s="242"/>
+      <c r="EP14" s="244"/>
       <c r="EQ14" s="48"/>
     </row>
     <row r="15" spans="1:755" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13783,19 +13729,19 @@
       </c>
       <c r="J23" s="80">
         <f>AVERAGE(J24:J28)</f>
-        <v>0.70000000000000007</v>
+        <v>0.9</v>
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-45</v>
+        <v>-42</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M23" s="229">
         <f t="shared" si="24"/>
-        <v>42111</v>
+        <v>42115</v>
       </c>
       <c r="N23" s="206"/>
       <c r="O23" s="83"/>
@@ -14306,7 +14252,7 @@
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-45</v>
+        <v>-46</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
@@ -14475,19 +14421,19 @@
         <v>42115</v>
       </c>
       <c r="J27" s="80">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-43</v>
+        <v>999</v>
       </c>
       <c r="L27" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="229">
         <f t="shared" si="24"/>
-        <v>42113</v>
+        <v>42115</v>
       </c>
       <c r="N27" s="206"/>
       <c r="O27" s="83"/>
@@ -14817,7 +14763,7 @@
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
@@ -15163,7 +15109,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
@@ -15336,7 +15282,7 @@
       </c>
       <c r="K32" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-39</v>
+        <v>-40</v>
       </c>
       <c r="L32" s="228">
         <f t="shared" si="22"/>
@@ -15838,7 +15784,7 @@
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
@@ -16011,7 +15957,7 @@
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
@@ -16184,7 +16130,7 @@
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
@@ -16357,7 +16303,7 @@
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="L38" s="228">
         <f t="shared" si="22"/>
@@ -16528,7 +16474,7 @@
       <c r="J39" s="80"/>
       <c r="K39" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="L39" s="228">
         <f t="shared" si="22"/>
@@ -16700,7 +16646,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="L40" s="228" t="str">
         <f t="shared" si="22"/>
@@ -17037,7 +16983,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17210,7 +17156,7 @@
       </c>
       <c r="K43" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L43" s="228">
         <f t="shared" si="22"/>
@@ -17383,7 +17329,7 @@
       </c>
       <c r="K44" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L44" s="228">
         <f t="shared" si="22"/>
@@ -17556,7 +17502,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -18058,7 +18004,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L48" s="228">
         <f t="shared" si="22"/>
@@ -18231,7 +18177,7 @@
       </c>
       <c r="K49" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L49" s="228">
         <f t="shared" si="22"/>
@@ -18404,7 +18350,7 @@
       </c>
       <c r="K50" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L50" s="228">
         <f t="shared" si="22"/>
@@ -18577,7 +18523,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -18749,7 +18695,7 @@
       </c>
       <c r="K52" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L52" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19250,7 +19196,7 @@
       </c>
       <c r="K55" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L55" s="228">
         <f t="shared" si="22"/>
@@ -19349,8 +19295,8 @@
       <c r="CV55" s="83"/>
       <c r="CW55" s="83"/>
       <c r="CX55" s="83"/>
-      <c r="CY55" s="83"/>
-      <c r="CZ55" s="83"/>
+      <c r="CY55" s="250"/>
+      <c r="CZ55" s="250"/>
       <c r="DA55" s="83"/>
       <c r="DB55" s="83"/>
       <c r="DC55" s="83"/>
@@ -19396,25 +19342,33 @@
       <c r="EQ55" s="85"/>
     </row>
     <row r="56" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="63" t="str">
+      <c r="A56" s="63">
         <f>IF(B56="","",IF(A55="",IF(MAX($A$16:A55)=0,1,ROUNDDOWN(MAX($A$16:A55)+1,0)),A55+0.01))</f>
-        <v/>
-      </c>
-      <c r="B56" s="76"/>
+        <v>8.01</v>
+      </c>
+      <c r="B56" s="76" t="s">
+        <v>98</v>
+      </c>
       <c r="C56" s="76"/>
       <c r="D56" s="76"/>
       <c r="E56" s="76"/>
       <c r="F56" s="77"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="79"/>
+      <c r="G56" s="78">
+        <v>42195</v>
+      </c>
+      <c r="H56" s="79" t="s">
+        <v>16</v>
+      </c>
       <c r="I56" s="68" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J56" s="80"/>
-      <c r="K56" s="70" t="str">
+      <c r="J56" s="80">
+        <v>0</v>
+      </c>
+      <c r="K56" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v/>
+        <v>38</v>
       </c>
       <c r="L56" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19512,7 +19466,7 @@
       <c r="CU56" s="83"/>
       <c r="CV56" s="83"/>
       <c r="CW56" s="83"/>
-      <c r="CX56" s="83"/>
+      <c r="CX56" s="250"/>
       <c r="CY56" s="83"/>
       <c r="CZ56" s="83"/>
       <c r="DA56" s="83"/>
@@ -19562,7 +19516,7 @@
     <row r="57" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="63">
         <f>IF(B57="","",IF(A56="",IF(MAX($A$16:A56)=0,1,ROUNDDOWN(MAX($A$16:A56)+1,0)),A56+0.01))</f>
-        <v>9</v>
+        <v>8.02</v>
       </c>
       <c r="B57" s="76" t="s">
         <v>96</v>
@@ -19586,7 +19540,7 @@
       </c>
       <c r="K57" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L57" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19734,7 +19688,7 @@
     <row r="58" spans="1:147" s="86" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="63">
         <f>IF(B58="","",IF(A57="",IF(MAX($A$16:A57)=0,1,ROUNDDOWN(MAX($A$16:A57)+1,0)),A57+0.01))</f>
-        <v>9.01</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="B58" s="76" t="s">
         <v>97</v>
@@ -20512,7 +20466,7 @@
       <c r="CW62" s="83"/>
       <c r="CX62" s="83"/>
       <c r="CY62" s="83"/>
-      <c r="CZ62" s="83"/>
+      <c r="CZ62" s="250"/>
       <c r="DA62" s="83"/>
       <c r="DB62" s="83"/>
       <c r="DC62" s="83"/>
@@ -21204,45 +21158,45 @@
       <c r="EQ66" s="37"/>
     </row>
     <row r="67" spans="1:147" s="3" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="237"/>
-      <c r="B67" s="238"/>
-      <c r="C67" s="238"/>
-      <c r="D67" s="238"/>
-      <c r="E67" s="238"/>
-      <c r="F67" s="238"/>
-      <c r="G67" s="238"/>
-      <c r="H67" s="238"/>
-      <c r="I67" s="238"/>
-      <c r="J67" s="238"/>
-      <c r="K67" s="238"/>
-      <c r="L67" s="238"/>
-      <c r="M67" s="238"/>
-      <c r="N67" s="238"/>
-      <c r="O67" s="238"/>
-      <c r="P67" s="238"/>
-      <c r="Q67" s="238"/>
-      <c r="R67" s="238"/>
-      <c r="S67" s="238"/>
-      <c r="T67" s="238"/>
-      <c r="U67" s="238"/>
-      <c r="V67" s="238"/>
-      <c r="W67" s="238"/>
-      <c r="X67" s="238"/>
-      <c r="Y67" s="238"/>
-      <c r="Z67" s="238"/>
-      <c r="AA67" s="238"/>
-      <c r="AB67" s="238"/>
-      <c r="AC67" s="238"/>
-      <c r="AD67" s="238"/>
-      <c r="AE67" s="238"/>
-      <c r="AF67" s="238"/>
-      <c r="AG67" s="238"/>
-      <c r="AH67" s="238"/>
-      <c r="AI67" s="238"/>
-      <c r="AJ67" s="238"/>
-      <c r="AK67" s="238"/>
-      <c r="AL67" s="238"/>
-      <c r="AM67" s="238"/>
+      <c r="A67" s="245"/>
+      <c r="B67" s="246"/>
+      <c r="C67" s="246"/>
+      <c r="D67" s="246"/>
+      <c r="E67" s="246"/>
+      <c r="F67" s="246"/>
+      <c r="G67" s="246"/>
+      <c r="H67" s="246"/>
+      <c r="I67" s="246"/>
+      <c r="J67" s="246"/>
+      <c r="K67" s="246"/>
+      <c r="L67" s="246"/>
+      <c r="M67" s="246"/>
+      <c r="N67" s="246"/>
+      <c r="O67" s="246"/>
+      <c r="P67" s="246"/>
+      <c r="Q67" s="246"/>
+      <c r="R67" s="246"/>
+      <c r="S67" s="246"/>
+      <c r="T67" s="246"/>
+      <c r="U67" s="246"/>
+      <c r="V67" s="246"/>
+      <c r="W67" s="246"/>
+      <c r="X67" s="246"/>
+      <c r="Y67" s="246"/>
+      <c r="Z67" s="246"/>
+      <c r="AA67" s="246"/>
+      <c r="AB67" s="246"/>
+      <c r="AC67" s="246"/>
+      <c r="AD67" s="246"/>
+      <c r="AE67" s="246"/>
+      <c r="AF67" s="246"/>
+      <c r="AG67" s="246"/>
+      <c r="AH67" s="246"/>
+      <c r="AI67" s="246"/>
+      <c r="AJ67" s="246"/>
+      <c r="AK67" s="246"/>
+      <c r="AL67" s="246"/>
+      <c r="AM67" s="246"/>
       <c r="AN67" s="100"/>
       <c r="AO67" s="100"/>
       <c r="AP67" s="100"/>
@@ -21273,85 +21227,85 @@
       <c r="BO67" s="100"/>
       <c r="BP67" s="100"/>
       <c r="BQ67" s="100"/>
-      <c r="BR67" s="239" t="s">
+      <c r="BR67" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="BS67" s="239"/>
-      <c r="BT67" s="239"/>
-      <c r="BU67" s="239"/>
-      <c r="BV67" s="239"/>
-      <c r="BW67" s="239"/>
-      <c r="BX67" s="239"/>
-      <c r="BY67" s="239"/>
-      <c r="BZ67" s="239"/>
-      <c r="CA67" s="239"/>
-      <c r="CB67" s="239"/>
-      <c r="CC67" s="239"/>
-      <c r="CD67" s="239"/>
-      <c r="CE67" s="239"/>
-      <c r="CF67" s="239"/>
-      <c r="CG67" s="239"/>
-      <c r="CH67" s="239"/>
-      <c r="CI67" s="239"/>
-      <c r="CJ67" s="239"/>
-      <c r="CK67" s="239"/>
-      <c r="CL67" s="239"/>
-      <c r="CM67" s="239"/>
-      <c r="CN67" s="239"/>
-      <c r="CO67" s="239"/>
-      <c r="CP67" s="239"/>
-      <c r="CQ67" s="239"/>
-      <c r="CR67" s="239"/>
-      <c r="CS67" s="239"/>
-      <c r="CT67" s="239"/>
-      <c r="CU67" s="239"/>
-      <c r="CV67" s="239"/>
-      <c r="CW67" s="239"/>
-      <c r="CX67" s="239"/>
-      <c r="CY67" s="239"/>
-      <c r="CZ67" s="239"/>
-      <c r="DA67" s="239"/>
-      <c r="DB67" s="239"/>
-      <c r="DC67" s="239"/>
-      <c r="DD67" s="239"/>
-      <c r="DE67" s="239"/>
-      <c r="DF67" s="239"/>
-      <c r="DG67" s="239"/>
-      <c r="DH67" s="239"/>
-      <c r="DI67" s="239"/>
-      <c r="DJ67" s="239"/>
-      <c r="DK67" s="239"/>
-      <c r="DL67" s="239"/>
-      <c r="DM67" s="239"/>
-      <c r="DN67" s="239"/>
-      <c r="DO67" s="239"/>
-      <c r="DP67" s="239"/>
-      <c r="DQ67" s="239"/>
-      <c r="DR67" s="239"/>
-      <c r="DS67" s="239"/>
-      <c r="DT67" s="239"/>
-      <c r="DU67" s="239"/>
-      <c r="DV67" s="239"/>
-      <c r="DW67" s="239"/>
-      <c r="DX67" s="239"/>
-      <c r="DY67" s="239"/>
-      <c r="DZ67" s="239"/>
-      <c r="EA67" s="239"/>
-      <c r="EB67" s="239"/>
-      <c r="EC67" s="239"/>
-      <c r="ED67" s="239"/>
-      <c r="EE67" s="239"/>
-      <c r="EF67" s="239"/>
-      <c r="EG67" s="239"/>
-      <c r="EH67" s="239"/>
-      <c r="EI67" s="239"/>
-      <c r="EJ67" s="239"/>
-      <c r="EK67" s="239"/>
-      <c r="EL67" s="239"/>
-      <c r="EM67" s="239"/>
-      <c r="EN67" s="239"/>
-      <c r="EO67" s="239"/>
-      <c r="EP67" s="240"/>
+      <c r="BS67" s="247"/>
+      <c r="BT67" s="247"/>
+      <c r="BU67" s="247"/>
+      <c r="BV67" s="247"/>
+      <c r="BW67" s="247"/>
+      <c r="BX67" s="247"/>
+      <c r="BY67" s="247"/>
+      <c r="BZ67" s="247"/>
+      <c r="CA67" s="247"/>
+      <c r="CB67" s="247"/>
+      <c r="CC67" s="247"/>
+      <c r="CD67" s="247"/>
+      <c r="CE67" s="247"/>
+      <c r="CF67" s="247"/>
+      <c r="CG67" s="247"/>
+      <c r="CH67" s="247"/>
+      <c r="CI67" s="247"/>
+      <c r="CJ67" s="247"/>
+      <c r="CK67" s="247"/>
+      <c r="CL67" s="247"/>
+      <c r="CM67" s="247"/>
+      <c r="CN67" s="247"/>
+      <c r="CO67" s="247"/>
+      <c r="CP67" s="247"/>
+      <c r="CQ67" s="247"/>
+      <c r="CR67" s="247"/>
+      <c r="CS67" s="247"/>
+      <c r="CT67" s="247"/>
+      <c r="CU67" s="247"/>
+      <c r="CV67" s="247"/>
+      <c r="CW67" s="247"/>
+      <c r="CX67" s="247"/>
+      <c r="CY67" s="247"/>
+      <c r="CZ67" s="247"/>
+      <c r="DA67" s="247"/>
+      <c r="DB67" s="247"/>
+      <c r="DC67" s="247"/>
+      <c r="DD67" s="247"/>
+      <c r="DE67" s="247"/>
+      <c r="DF67" s="247"/>
+      <c r="DG67" s="247"/>
+      <c r="DH67" s="247"/>
+      <c r="DI67" s="247"/>
+      <c r="DJ67" s="247"/>
+      <c r="DK67" s="247"/>
+      <c r="DL67" s="247"/>
+      <c r="DM67" s="247"/>
+      <c r="DN67" s="247"/>
+      <c r="DO67" s="247"/>
+      <c r="DP67" s="247"/>
+      <c r="DQ67" s="247"/>
+      <c r="DR67" s="247"/>
+      <c r="DS67" s="247"/>
+      <c r="DT67" s="247"/>
+      <c r="DU67" s="247"/>
+      <c r="DV67" s="247"/>
+      <c r="DW67" s="247"/>
+      <c r="DX67" s="247"/>
+      <c r="DY67" s="247"/>
+      <c r="DZ67" s="247"/>
+      <c r="EA67" s="247"/>
+      <c r="EB67" s="247"/>
+      <c r="EC67" s="247"/>
+      <c r="ED67" s="247"/>
+      <c r="EE67" s="247"/>
+      <c r="EF67" s="247"/>
+      <c r="EG67" s="247"/>
+      <c r="EH67" s="247"/>
+      <c r="EI67" s="247"/>
+      <c r="EJ67" s="247"/>
+      <c r="EK67" s="247"/>
+      <c r="EL67" s="247"/>
+      <c r="EM67" s="247"/>
+      <c r="EN67" s="247"/>
+      <c r="EO67" s="247"/>
+      <c r="EP67" s="248"/>
       <c r="EQ67" s="48"/>
     </row>
     <row r="68" spans="1:147" x14ac:dyDescent="0.25">
@@ -21503,172 +21457,186 @@
       <c r="EQ68" s="37"/>
     </row>
     <row r="69" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A69" s="234"/>
-      <c r="B69" s="234"/>
-      <c r="C69" s="234"/>
-      <c r="D69" s="234"/>
-      <c r="E69" s="234"/>
-      <c r="F69" s="234"/>
-      <c r="G69" s="234"/>
-      <c r="H69" s="234"/>
-      <c r="I69" s="234"/>
-      <c r="J69" s="234"/>
-      <c r="K69" s="234"/>
-      <c r="L69" s="234"/>
-      <c r="M69" s="234"/>
-      <c r="N69" s="234"/>
-      <c r="O69" s="234"/>
-      <c r="P69" s="234"/>
-      <c r="Q69" s="234"/>
-      <c r="R69" s="234"/>
-      <c r="S69" s="234"/>
-      <c r="T69" s="234"/>
-      <c r="U69" s="234"/>
-      <c r="V69" s="234"/>
-      <c r="W69" s="234"/>
-      <c r="X69" s="234"/>
-      <c r="Y69" s="234"/>
-      <c r="Z69" s="234"/>
-      <c r="AA69" s="234"/>
-      <c r="AB69" s="234"/>
-      <c r="AC69" s="234"/>
-      <c r="AD69" s="234"/>
-      <c r="AE69" s="234"/>
-      <c r="AF69" s="234"/>
-      <c r="AG69" s="234"/>
-      <c r="AH69" s="234"/>
-      <c r="AI69" s="234"/>
-      <c r="AJ69" s="234"/>
-      <c r="AK69" s="234"/>
-      <c r="AL69" s="234"/>
-      <c r="AM69" s="234"/>
-      <c r="AN69" s="234"/>
-      <c r="AO69" s="234"/>
-      <c r="AP69" s="234"/>
-      <c r="AQ69" s="234"/>
-      <c r="AR69" s="234"/>
-      <c r="AS69" s="234"/>
-      <c r="AT69" s="234"/>
-      <c r="AU69" s="234"/>
-      <c r="AV69" s="234"/>
-      <c r="AW69" s="234"/>
-      <c r="AX69" s="234"/>
-      <c r="AY69" s="234"/>
-      <c r="AZ69" s="234"/>
-      <c r="BA69" s="234"/>
-      <c r="BB69" s="234"/>
-      <c r="BC69" s="234"/>
-      <c r="BD69" s="234"/>
-      <c r="BE69" s="234"/>
-      <c r="BF69" s="234"/>
-      <c r="BG69" s="234"/>
-      <c r="BH69" s="234"/>
-      <c r="BI69" s="234"/>
-      <c r="BJ69" s="234"/>
-      <c r="BK69" s="234"/>
-      <c r="BL69" s="234"/>
-      <c r="BM69" s="234"/>
-      <c r="BN69" s="234"/>
-      <c r="BO69" s="234"/>
-      <c r="BP69" s="234"/>
-      <c r="BQ69" s="234"/>
-      <c r="BR69" s="234"/>
-      <c r="BS69" s="234"/>
-      <c r="BT69" s="234"/>
-      <c r="BU69" s="234"/>
-      <c r="BV69" s="234"/>
-      <c r="BW69" s="234"/>
-      <c r="BX69" s="234"/>
-      <c r="BY69" s="234"/>
-      <c r="BZ69" s="234"/>
-      <c r="CA69" s="234"/>
-      <c r="CB69" s="234"/>
-      <c r="CC69" s="234"/>
-      <c r="CD69" s="234"/>
-      <c r="CE69" s="234"/>
-      <c r="CF69" s="234"/>
-      <c r="CG69" s="234"/>
-      <c r="CH69" s="234"/>
-      <c r="CI69" s="234"/>
-      <c r="CJ69" s="234"/>
-      <c r="CK69" s="234"/>
-      <c r="CL69" s="234"/>
-      <c r="CM69" s="234"/>
-      <c r="CN69" s="234"/>
-      <c r="CO69" s="234"/>
-      <c r="CP69" s="234"/>
-      <c r="CQ69" s="234"/>
-      <c r="CR69" s="234"/>
-      <c r="CS69" s="234"/>
-      <c r="CT69" s="234"/>
-      <c r="CU69" s="234"/>
-      <c r="CV69" s="234"/>
-      <c r="CW69" s="234"/>
-      <c r="CX69" s="234"/>
-      <c r="CY69" s="234"/>
-      <c r="CZ69" s="234"/>
-      <c r="DA69" s="234"/>
-      <c r="DB69" s="234"/>
-      <c r="DC69" s="234"/>
-      <c r="DD69" s="234"/>
-      <c r="DE69" s="234"/>
-      <c r="DF69" s="234"/>
-      <c r="DG69" s="234"/>
-      <c r="DH69" s="234"/>
-      <c r="DI69" s="234"/>
-      <c r="DJ69" s="234"/>
-      <c r="DK69" s="234"/>
-      <c r="DL69" s="234"/>
-      <c r="DM69" s="234"/>
-      <c r="DN69" s="234"/>
-      <c r="DO69" s="234"/>
-      <c r="DP69" s="234"/>
-      <c r="DQ69" s="234"/>
-      <c r="DR69" s="234"/>
-      <c r="DS69" s="234"/>
-      <c r="DT69" s="234"/>
-      <c r="DU69" s="234"/>
-      <c r="DV69" s="234"/>
-      <c r="DW69" s="234"/>
-      <c r="DX69" s="234"/>
-      <c r="DY69" s="234"/>
-      <c r="DZ69" s="234"/>
-      <c r="EA69" s="234"/>
-      <c r="EB69" s="234"/>
-      <c r="EC69" s="234"/>
-      <c r="ED69" s="234"/>
-      <c r="EE69" s="234"/>
-      <c r="EF69" s="234"/>
-      <c r="EG69" s="234"/>
-      <c r="EH69" s="234"/>
-      <c r="EI69" s="234"/>
-      <c r="EJ69" s="234"/>
-      <c r="EK69" s="234"/>
-      <c r="EL69" s="234"/>
-      <c r="EM69" s="234"/>
-      <c r="EN69" s="234"/>
-      <c r="EO69" s="234"/>
-      <c r="EP69" s="234"/>
+      <c r="A69" s="243"/>
+      <c r="B69" s="243"/>
+      <c r="C69" s="243"/>
+      <c r="D69" s="243"/>
+      <c r="E69" s="243"/>
+      <c r="F69" s="243"/>
+      <c r="G69" s="243"/>
+      <c r="H69" s="243"/>
+      <c r="I69" s="243"/>
+      <c r="J69" s="243"/>
+      <c r="K69" s="243"/>
+      <c r="L69" s="243"/>
+      <c r="M69" s="243"/>
+      <c r="N69" s="243"/>
+      <c r="O69" s="243"/>
+      <c r="P69" s="243"/>
+      <c r="Q69" s="243"/>
+      <c r="R69" s="243"/>
+      <c r="S69" s="243"/>
+      <c r="T69" s="243"/>
+      <c r="U69" s="243"/>
+      <c r="V69" s="243"/>
+      <c r="W69" s="243"/>
+      <c r="X69" s="243"/>
+      <c r="Y69" s="243"/>
+      <c r="Z69" s="243"/>
+      <c r="AA69" s="243"/>
+      <c r="AB69" s="243"/>
+      <c r="AC69" s="243"/>
+      <c r="AD69" s="243"/>
+      <c r="AE69" s="243"/>
+      <c r="AF69" s="243"/>
+      <c r="AG69" s="243"/>
+      <c r="AH69" s="243"/>
+      <c r="AI69" s="243"/>
+      <c r="AJ69" s="243"/>
+      <c r="AK69" s="243"/>
+      <c r="AL69" s="243"/>
+      <c r="AM69" s="243"/>
+      <c r="AN69" s="243"/>
+      <c r="AO69" s="243"/>
+      <c r="AP69" s="243"/>
+      <c r="AQ69" s="243"/>
+      <c r="AR69" s="243"/>
+      <c r="AS69" s="243"/>
+      <c r="AT69" s="243"/>
+      <c r="AU69" s="243"/>
+      <c r="AV69" s="243"/>
+      <c r="AW69" s="243"/>
+      <c r="AX69" s="243"/>
+      <c r="AY69" s="243"/>
+      <c r="AZ69" s="243"/>
+      <c r="BA69" s="243"/>
+      <c r="BB69" s="243"/>
+      <c r="BC69" s="243"/>
+      <c r="BD69" s="243"/>
+      <c r="BE69" s="243"/>
+      <c r="BF69" s="243"/>
+      <c r="BG69" s="243"/>
+      <c r="BH69" s="243"/>
+      <c r="BI69" s="243"/>
+      <c r="BJ69" s="243"/>
+      <c r="BK69" s="243"/>
+      <c r="BL69" s="243"/>
+      <c r="BM69" s="243"/>
+      <c r="BN69" s="243"/>
+      <c r="BO69" s="243"/>
+      <c r="BP69" s="243"/>
+      <c r="BQ69" s="243"/>
+      <c r="BR69" s="243"/>
+      <c r="BS69" s="243"/>
+      <c r="BT69" s="243"/>
+      <c r="BU69" s="243"/>
+      <c r="BV69" s="243"/>
+      <c r="BW69" s="243"/>
+      <c r="BX69" s="243"/>
+      <c r="BY69" s="243"/>
+      <c r="BZ69" s="243"/>
+      <c r="CA69" s="243"/>
+      <c r="CB69" s="243"/>
+      <c r="CC69" s="243"/>
+      <c r="CD69" s="243"/>
+      <c r="CE69" s="243"/>
+      <c r="CF69" s="243"/>
+      <c r="CG69" s="243"/>
+      <c r="CH69" s="243"/>
+      <c r="CI69" s="243"/>
+      <c r="CJ69" s="243"/>
+      <c r="CK69" s="243"/>
+      <c r="CL69" s="243"/>
+      <c r="CM69" s="243"/>
+      <c r="CN69" s="243"/>
+      <c r="CO69" s="243"/>
+      <c r="CP69" s="243"/>
+      <c r="CQ69" s="243"/>
+      <c r="CR69" s="243"/>
+      <c r="CS69" s="243"/>
+      <c r="CT69" s="243"/>
+      <c r="CU69" s="243"/>
+      <c r="CV69" s="243"/>
+      <c r="CW69" s="243"/>
+      <c r="CX69" s="243"/>
+      <c r="CY69" s="243"/>
+      <c r="CZ69" s="243"/>
+      <c r="DA69" s="243"/>
+      <c r="DB69" s="243"/>
+      <c r="DC69" s="243"/>
+      <c r="DD69" s="243"/>
+      <c r="DE69" s="243"/>
+      <c r="DF69" s="243"/>
+      <c r="DG69" s="243"/>
+      <c r="DH69" s="243"/>
+      <c r="DI69" s="243"/>
+      <c r="DJ69" s="243"/>
+      <c r="DK69" s="243"/>
+      <c r="DL69" s="243"/>
+      <c r="DM69" s="243"/>
+      <c r="DN69" s="243"/>
+      <c r="DO69" s="243"/>
+      <c r="DP69" s="243"/>
+      <c r="DQ69" s="243"/>
+      <c r="DR69" s="243"/>
+      <c r="DS69" s="243"/>
+      <c r="DT69" s="243"/>
+      <c r="DU69" s="243"/>
+      <c r="DV69" s="243"/>
+      <c r="DW69" s="243"/>
+      <c r="DX69" s="243"/>
+      <c r="DY69" s="243"/>
+      <c r="DZ69" s="243"/>
+      <c r="EA69" s="243"/>
+      <c r="EB69" s="243"/>
+      <c r="EC69" s="243"/>
+      <c r="ED69" s="243"/>
+      <c r="EE69" s="243"/>
+      <c r="EF69" s="243"/>
+      <c r="EG69" s="243"/>
+      <c r="EH69" s="243"/>
+      <c r="EI69" s="243"/>
+      <c r="EJ69" s="243"/>
+      <c r="EK69" s="243"/>
+      <c r="EL69" s="243"/>
+      <c r="EM69" s="243"/>
+      <c r="EN69" s="243"/>
+      <c r="EO69" s="243"/>
+      <c r="EP69" s="243"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AI13:AM13"/>
-    <mergeCell ref="AP13:AT13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="BY11:EP11"/>
-    <mergeCell ref="DV13:DZ13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="BD13:BH13"/>
-    <mergeCell ref="BK13:BO13"/>
-    <mergeCell ref="BR13:BV13"/>
-    <mergeCell ref="BY13:CC13"/>
-    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="A69:EP69"/>
+    <mergeCell ref="EA14:EB14"/>
+    <mergeCell ref="EC14:EG14"/>
+    <mergeCell ref="EH14:EI14"/>
+    <mergeCell ref="EJ14:EN14"/>
+    <mergeCell ref="EO14:EP14"/>
+    <mergeCell ref="A67:AM67"/>
+    <mergeCell ref="BR67:EP67"/>
+    <mergeCell ref="DF14:DG14"/>
+    <mergeCell ref="DH14:DL14"/>
+    <mergeCell ref="DM14:DN14"/>
+    <mergeCell ref="DO14:DS14"/>
+    <mergeCell ref="DT14:DU14"/>
+    <mergeCell ref="DV14:DZ14"/>
+    <mergeCell ref="CK14:CL14"/>
+    <mergeCell ref="CM14:CQ14"/>
+    <mergeCell ref="CR14:CS14"/>
+    <mergeCell ref="CT14:CX14"/>
+    <mergeCell ref="CY14:CZ14"/>
+    <mergeCell ref="DA14:DE14"/>
+    <mergeCell ref="BP14:BQ14"/>
+    <mergeCell ref="BR14:BV14"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BY14:CC14"/>
+    <mergeCell ref="CD14:CE14"/>
+    <mergeCell ref="CF14:CJ14"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BD14:BH14"/>
+    <mergeCell ref="BI14:BJ14"/>
     <mergeCell ref="BK14:BO14"/>
     <mergeCell ref="EC13:EG13"/>
     <mergeCell ref="EJ13:EN13"/>
@@ -21685,130 +21653,116 @@
     <mergeCell ref="DA13:DE13"/>
     <mergeCell ref="DH13:DL13"/>
     <mergeCell ref="DO13:DS13"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BD14:BH14"/>
-    <mergeCell ref="BI14:BJ14"/>
-    <mergeCell ref="CR14:CS14"/>
-    <mergeCell ref="CT14:CX14"/>
-    <mergeCell ref="CY14:CZ14"/>
-    <mergeCell ref="DA14:DE14"/>
-    <mergeCell ref="BP14:BQ14"/>
-    <mergeCell ref="BR14:BV14"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BY14:CC14"/>
-    <mergeCell ref="CD14:CE14"/>
-    <mergeCell ref="CF14:CJ14"/>
-    <mergeCell ref="A69:EP69"/>
-    <mergeCell ref="EA14:EB14"/>
-    <mergeCell ref="EC14:EG14"/>
-    <mergeCell ref="EH14:EI14"/>
-    <mergeCell ref="EJ14:EN14"/>
-    <mergeCell ref="EO14:EP14"/>
-    <mergeCell ref="A67:AM67"/>
-    <mergeCell ref="BR67:EP67"/>
-    <mergeCell ref="DF14:DG14"/>
-    <mergeCell ref="DH14:DL14"/>
-    <mergeCell ref="DM14:DN14"/>
-    <mergeCell ref="DO14:DS14"/>
-    <mergeCell ref="DT14:DU14"/>
-    <mergeCell ref="DV14:DZ14"/>
-    <mergeCell ref="CK14:CL14"/>
-    <mergeCell ref="CM14:CQ14"/>
+    <mergeCell ref="DV13:DZ13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="BD13:BH13"/>
+    <mergeCell ref="BK13:BO13"/>
+    <mergeCell ref="BR13:BV13"/>
+    <mergeCell ref="BY13:CC13"/>
+    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="BY11:EP11"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AI13:AM13"/>
+    <mergeCell ref="AP13:AT13"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H40:H44 H29:H31 H33:H37 H46:H65">
-    <cfRule type="expression" dxfId="117" priority="112">
+    <cfRule type="expression" dxfId="109" priority="112">
       <formula>$H16="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:K65 A16:EP21 A22:H27 J22:EP27 B29:H31 J41:EP41 A41:H41 K48:K65 A33:H34 G32 J34:EP34 J29:J31 N29:EP31 J33 L33:EP33 B35:H37 B40:H40 A35:A40 J35:J37 N35:EP37 J40 N40:EP40 K35:M40 A47:H47 J47:EP47 B46:H46 B42:H44 A42:A46 J46 N46:EP46 J42:J44 N42:EP44 K42:M46 A53:H64 C51:H51 B52:H52 B48:H50 A48:A52 M48:EP65 J48:K64 L48:L66">
-    <cfRule type="expression" dxfId="116" priority="110">
+    <cfRule type="expression" dxfId="108" priority="110">
       <formula>AND($A16&gt;=0,MOD($A16,1)=0,$A16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="111">
+    <cfRule type="expression" dxfId="107" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:EP27 S29:EP31 S35:EP37 S40:EP44 S33:EP33 S46:EP65">
-    <cfRule type="expression" dxfId="114" priority="108">
+    <cfRule type="expression" dxfId="106" priority="108">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="109">
+    <cfRule type="expression" dxfId="105" priority="109">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:EP27 N29:EP31 N40:EP44 N33:EP37 N46:EP65">
-    <cfRule type="expression" dxfId="112" priority="103">
+    <cfRule type="expression" dxfId="104" priority="103">
       <formula>AND($H16="M",$G16=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="104">
+    <cfRule type="expression" dxfId="103" priority="104">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$M16,$M16&lt;&gt;"",$J16&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="105">
+    <cfRule type="expression" dxfId="102" priority="105">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$I16,$M16&lt;&gt;"",$A16&gt;=0,MOD($A16,1)=0,$A16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="106">
+    <cfRule type="expression" dxfId="101" priority="106">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$I16,$M16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="107">
+    <cfRule type="expression" dxfId="100" priority="107">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I27 I34:I64">
-    <cfRule type="expression" dxfId="107" priority="100">
+    <cfRule type="expression" dxfId="99" priority="100">
       <formula>AND($A22&gt;=0,MOD($A22,1)=0,$A22&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="101">
+    <cfRule type="expression" dxfId="98" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34:EP34">
-    <cfRule type="expression" dxfId="105" priority="94">
+    <cfRule type="expression" dxfId="97" priority="94">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="95">
+    <cfRule type="expression" dxfId="96" priority="95">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 K28:EP28 A29:A32 K29:K33 L29:M32">
-    <cfRule type="expression" dxfId="103" priority="83">
+    <cfRule type="expression" dxfId="95" priority="83">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="84">
+    <cfRule type="expression" dxfId="94" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:EP28">
-    <cfRule type="expression" dxfId="101" priority="81">
+    <cfRule type="expression" dxfId="93" priority="81">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="82">
+    <cfRule type="expression" dxfId="92" priority="82">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:EP28">
-    <cfRule type="expression" dxfId="99" priority="76">
+    <cfRule type="expression" dxfId="91" priority="76">
       <formula>AND($H28="M",$G28=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="77">
+    <cfRule type="expression" dxfId="90" priority="77">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$M28,$M28&lt;&gt;"",$J28&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="78">
+    <cfRule type="expression" dxfId="89" priority="78">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$I28,$M28&lt;&gt;"",$A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="79">
+    <cfRule type="expression" dxfId="88" priority="79">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$I28,$M28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="80">
+    <cfRule type="expression" dxfId="87" priority="80">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I33">
-    <cfRule type="expression" dxfId="94" priority="74">
+    <cfRule type="expression" dxfId="86" priority="74">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="75">
+    <cfRule type="expression" dxfId="85" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21831,223 +21785,223 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:G38 N38:EP38">
-    <cfRule type="expression" dxfId="92" priority="70">
+    <cfRule type="expression" dxfId="84" priority="70">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="71">
+    <cfRule type="expression" dxfId="83" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S38:EP38">
-    <cfRule type="expression" dxfId="90" priority="68">
+    <cfRule type="expression" dxfId="82" priority="68">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="69">
+    <cfRule type="expression" dxfId="81" priority="69">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:EP38">
-    <cfRule type="expression" dxfId="88" priority="63">
+    <cfRule type="expression" dxfId="80" priority="63">
       <formula>AND($H38="M",$G38=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="64">
+    <cfRule type="expression" dxfId="79" priority="64">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$M38,$M38&lt;&gt;"",$J38&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="65">
+    <cfRule type="expression" dxfId="78" priority="65">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$I38,$M38&lt;&gt;"",$A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="66">
+    <cfRule type="expression" dxfId="77" priority="66">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$I38,$M38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="67">
+    <cfRule type="expression" dxfId="76" priority="67">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="expression" dxfId="83" priority="59">
+    <cfRule type="expression" dxfId="75" priority="59">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="60">
+    <cfRule type="expression" dxfId="74" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="81" priority="57">
+    <cfRule type="expression" dxfId="73" priority="57">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="58">
+    <cfRule type="expression" dxfId="72" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="79" priority="50">
+    <cfRule type="expression" dxfId="71" priority="50">
       <formula>$H28="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="78" priority="48">
+    <cfRule type="expression" dxfId="70" priority="48">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="49">
+    <cfRule type="expression" dxfId="69" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="76" priority="53">
+    <cfRule type="expression" dxfId="68" priority="53">
       <formula>$H38="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="75" priority="51">
+    <cfRule type="expression" dxfId="67" priority="51">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="52">
+    <cfRule type="expression" dxfId="66" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="73" priority="46">
+    <cfRule type="expression" dxfId="65" priority="46">
       <formula>$H32="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:F32 H32 J32 N32:EP32">
-    <cfRule type="expression" dxfId="72" priority="44">
+    <cfRule type="expression" dxfId="64" priority="44">
       <formula>AND($A32&gt;=0,MOD($A32,1)=0,$A32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="45">
+    <cfRule type="expression" dxfId="63" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:EP32">
-    <cfRule type="expression" dxfId="70" priority="42">
+    <cfRule type="expression" dxfId="62" priority="42">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="43">
+    <cfRule type="expression" dxfId="61" priority="43">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:EP32">
-    <cfRule type="expression" dxfId="68" priority="37">
+    <cfRule type="expression" dxfId="60" priority="37">
       <formula>AND($H32="M",$G32=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="38">
+    <cfRule type="expression" dxfId="59" priority="38">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$M32,$M32&lt;&gt;"",$J32&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="39">
+    <cfRule type="expression" dxfId="58" priority="39">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$I32,$M32&lt;&gt;"",$A32&gt;=0,MOD($A32,1)=0,$A32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="40">
+    <cfRule type="expression" dxfId="57" priority="40">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$I32,$M32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="41">
+    <cfRule type="expression" dxfId="56" priority="41">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="63" priority="18">
+    <cfRule type="expression" dxfId="55" priority="18">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="19">
+    <cfRule type="expression" dxfId="54" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:G39 N39:EP39">
-    <cfRule type="expression" dxfId="61" priority="32">
+    <cfRule type="expression" dxfId="53" priority="32">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="33">
+    <cfRule type="expression" dxfId="52" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S39:EP39">
-    <cfRule type="expression" dxfId="59" priority="30">
+    <cfRule type="expression" dxfId="51" priority="30">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="31">
+    <cfRule type="expression" dxfId="50" priority="31">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:EP39">
-    <cfRule type="expression" dxfId="57" priority="25">
+    <cfRule type="expression" dxfId="49" priority="25">
       <formula>AND($H39="M",$G39=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="26">
+    <cfRule type="expression" dxfId="48" priority="26">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$M39,$M39&lt;&gt;"",$J39&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="27">
+    <cfRule type="expression" dxfId="47" priority="27">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$I39,$M39&lt;&gt;"",$A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="28">
+    <cfRule type="expression" dxfId="46" priority="28">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$I39,$M39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="29">
+    <cfRule type="expression" dxfId="45" priority="29">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="52" priority="21">
+    <cfRule type="expression" dxfId="44" priority="21">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="22">
+    <cfRule type="expression" dxfId="43" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="50" priority="20">
+    <cfRule type="expression" dxfId="42" priority="20">
       <formula>$H39="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="49" priority="16">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>$H45="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45 C45:H45 N45:EP45">
-    <cfRule type="expression" dxfId="48" priority="14">
+    <cfRule type="expression" dxfId="40" priority="14">
       <formula>AND($A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="15">
+    <cfRule type="expression" dxfId="39" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S45:EP45">
-    <cfRule type="expression" dxfId="46" priority="12">
+    <cfRule type="expression" dxfId="38" priority="12">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="13">
+    <cfRule type="expression" dxfId="37" priority="13">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45:EP45">
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="36" priority="7">
       <formula>AND($H45="M",$G45=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="8">
+    <cfRule type="expression" dxfId="35" priority="8">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$M45,$M45&lt;&gt;"",$J45&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$I45,$M45&lt;&gt;"",$A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="10">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$I45,$M45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="11">
+    <cfRule type="expression" dxfId="32" priority="11">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>AND($A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>AND($A51&gt;=0,MOD($A51,1)=0,$A51&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25893,15 +25847,15 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="AW2">
-    <cfRule type="expression" dxfId="35" priority="32">
+    <cfRule type="expression" dxfId="27" priority="32">
       <formula>$H2="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AW2 AY2:BB2">
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="31">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25915,23 +25869,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX2">
-    <cfRule type="expression" dxfId="32" priority="27">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="23" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW7">
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$H7="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ7:AW7 AY7:BB7">
-    <cfRule type="expression" dxfId="29" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="25">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25945,23 +25899,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX7">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW12">
-    <cfRule type="expression" dxfId="25" priority="20">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>$H12="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ12:AW12 AY12:BB12">
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25975,23 +25929,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX12">
-    <cfRule type="expression" dxfId="22" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW17">
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$H17="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ17:AW17 AY17:BB17">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26005,42 +25959,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX17">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP7">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -2108,6 +2108,28 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2135,31 +2157,9 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -3365,10 +3365,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="12" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <pane xSplit="12" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="AD27" sqref="AD27"/>
+      <selection pane="topRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7951,10 +7951,10 @@
       <c r="G7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="235">
+      <c r="H7" s="243">
         <v>42088</v>
       </c>
-      <c r="I7" s="235"/>
+      <c r="I7" s="243"/>
       <c r="K7" s="27"/>
       <c r="L7" s="217"/>
       <c r="M7" s="217"/>
@@ -10216,17 +10216,17 @@
       <c r="ACA9" s="34"/>
     </row>
     <row r="10" spans="1:755" s="22" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
-      <c r="B10" s="236"/>
+      <c r="A10" s="244"/>
+      <c r="B10" s="244"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="237"/>
-      <c r="G10" s="237"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
+      <c r="F10" s="245"/>
+      <c r="G10" s="245"/>
+      <c r="H10" s="245"/>
+      <c r="I10" s="245"/>
+      <c r="J10" s="245"/>
+      <c r="K10" s="245"/>
       <c r="L10" s="220"/>
       <c r="M10" s="220"/>
       <c r="N10" s="201"/>
@@ -10973,19 +10973,19 @@
       <c r="ACA10" s="34"/>
     </row>
     <row r="11" spans="1:755" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="238" t="s">
+      <c r="A11" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="239"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="239"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
+      <c r="G11" s="247"/>
+      <c r="H11" s="247"/>
+      <c r="I11" s="247"/>
+      <c r="J11" s="247"/>
+      <c r="K11" s="247"/>
       <c r="L11" s="221"/>
       <c r="M11" s="221"/>
       <c r="N11" s="202"/>
@@ -11051,78 +11051,78 @@
       <c r="BV11" s="36"/>
       <c r="BW11" s="36"/>
       <c r="BX11" s="36"/>
-      <c r="BY11" s="240" t="s">
+      <c r="BY11" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="BZ11" s="240"/>
-      <c r="CA11" s="240"/>
-      <c r="CB11" s="240"/>
-      <c r="CC11" s="240"/>
-      <c r="CD11" s="240"/>
-      <c r="CE11" s="240"/>
-      <c r="CF11" s="240"/>
-      <c r="CG11" s="240"/>
-      <c r="CH11" s="240"/>
-      <c r="CI11" s="240"/>
-      <c r="CJ11" s="240"/>
-      <c r="CK11" s="240"/>
-      <c r="CL11" s="240"/>
-      <c r="CM11" s="240"/>
-      <c r="CN11" s="240"/>
-      <c r="CO11" s="240"/>
-      <c r="CP11" s="240"/>
-      <c r="CQ11" s="240"/>
-      <c r="CR11" s="240"/>
-      <c r="CS11" s="240"/>
-      <c r="CT11" s="240"/>
-      <c r="CU11" s="240"/>
-      <c r="CV11" s="240"/>
-      <c r="CW11" s="240"/>
-      <c r="CX11" s="240"/>
-      <c r="CY11" s="240"/>
-      <c r="CZ11" s="240"/>
-      <c r="DA11" s="240"/>
-      <c r="DB11" s="240"/>
-      <c r="DC11" s="240"/>
-      <c r="DD11" s="240"/>
-      <c r="DE11" s="240"/>
-      <c r="DF11" s="240"/>
-      <c r="DG11" s="240"/>
-      <c r="DH11" s="240"/>
-      <c r="DI11" s="240"/>
-      <c r="DJ11" s="240"/>
-      <c r="DK11" s="240"/>
-      <c r="DL11" s="240"/>
-      <c r="DM11" s="240"/>
-      <c r="DN11" s="240"/>
-      <c r="DO11" s="240"/>
-      <c r="DP11" s="240"/>
-      <c r="DQ11" s="240"/>
-      <c r="DR11" s="240"/>
-      <c r="DS11" s="240"/>
-      <c r="DT11" s="240"/>
-      <c r="DU11" s="240"/>
-      <c r="DV11" s="240"/>
-      <c r="DW11" s="240"/>
-      <c r="DX11" s="240"/>
-      <c r="DY11" s="240"/>
-      <c r="DZ11" s="240"/>
-      <c r="EA11" s="240"/>
-      <c r="EB11" s="240"/>
-      <c r="EC11" s="240"/>
-      <c r="ED11" s="240"/>
-      <c r="EE11" s="240"/>
-      <c r="EF11" s="240"/>
-      <c r="EG11" s="240"/>
-      <c r="EH11" s="240"/>
-      <c r="EI11" s="240"/>
-      <c r="EJ11" s="240"/>
-      <c r="EK11" s="240"/>
-      <c r="EL11" s="240"/>
-      <c r="EM11" s="240"/>
-      <c r="EN11" s="240"/>
-      <c r="EO11" s="240"/>
-      <c r="EP11" s="241"/>
+      <c r="BZ11" s="248"/>
+      <c r="CA11" s="248"/>
+      <c r="CB11" s="248"/>
+      <c r="CC11" s="248"/>
+      <c r="CD11" s="248"/>
+      <c r="CE11" s="248"/>
+      <c r="CF11" s="248"/>
+      <c r="CG11" s="248"/>
+      <c r="CH11" s="248"/>
+      <c r="CI11" s="248"/>
+      <c r="CJ11" s="248"/>
+      <c r="CK11" s="248"/>
+      <c r="CL11" s="248"/>
+      <c r="CM11" s="248"/>
+      <c r="CN11" s="248"/>
+      <c r="CO11" s="248"/>
+      <c r="CP11" s="248"/>
+      <c r="CQ11" s="248"/>
+      <c r="CR11" s="248"/>
+      <c r="CS11" s="248"/>
+      <c r="CT11" s="248"/>
+      <c r="CU11" s="248"/>
+      <c r="CV11" s="248"/>
+      <c r="CW11" s="248"/>
+      <c r="CX11" s="248"/>
+      <c r="CY11" s="248"/>
+      <c r="CZ11" s="248"/>
+      <c r="DA11" s="248"/>
+      <c r="DB11" s="248"/>
+      <c r="DC11" s="248"/>
+      <c r="DD11" s="248"/>
+      <c r="DE11" s="248"/>
+      <c r="DF11" s="248"/>
+      <c r="DG11" s="248"/>
+      <c r="DH11" s="248"/>
+      <c r="DI11" s="248"/>
+      <c r="DJ11" s="248"/>
+      <c r="DK11" s="248"/>
+      <c r="DL11" s="248"/>
+      <c r="DM11" s="248"/>
+      <c r="DN11" s="248"/>
+      <c r="DO11" s="248"/>
+      <c r="DP11" s="248"/>
+      <c r="DQ11" s="248"/>
+      <c r="DR11" s="248"/>
+      <c r="DS11" s="248"/>
+      <c r="DT11" s="248"/>
+      <c r="DU11" s="248"/>
+      <c r="DV11" s="248"/>
+      <c r="DW11" s="248"/>
+      <c r="DX11" s="248"/>
+      <c r="DY11" s="248"/>
+      <c r="DZ11" s="248"/>
+      <c r="EA11" s="248"/>
+      <c r="EB11" s="248"/>
+      <c r="EC11" s="248"/>
+      <c r="ED11" s="248"/>
+      <c r="EE11" s="248"/>
+      <c r="EF11" s="248"/>
+      <c r="EG11" s="248"/>
+      <c r="EH11" s="248"/>
+      <c r="EI11" s="248"/>
+      <c r="EJ11" s="248"/>
+      <c r="EK11" s="248"/>
+      <c r="EL11" s="248"/>
+      <c r="EM11" s="248"/>
+      <c r="EN11" s="248"/>
+      <c r="EO11" s="248"/>
+      <c r="EP11" s="249"/>
     </row>
     <row r="12" spans="1:755" s="37" customFormat="1" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -11685,194 +11685,194 @@
       <c r="K13" s="44"/>
       <c r="L13" s="223"/>
       <c r="M13" s="223"/>
-      <c r="N13" s="234" t="str">
+      <c r="N13" s="242" t="str">
         <f>"KW " &amp; TRUNC((N12-DATE(YEAR(N12+3-MOD(N12-2,7)),1,MOD(N12-2,7)-9))/7)</f>
         <v>KW 13</v>
       </c>
-      <c r="O13" s="234"/>
-      <c r="P13" s="234"/>
-      <c r="Q13" s="234"/>
-      <c r="R13" s="234"/>
+      <c r="O13" s="242"/>
+      <c r="P13" s="242"/>
+      <c r="Q13" s="242"/>
+      <c r="R13" s="242"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="234" t="str">
+      <c r="U13" s="242" t="str">
         <f t="shared" ref="U13" si="3">"KW " &amp; TRUNC((U12-DATE(YEAR(U12+3-MOD(U12-2,7)),1,MOD(U12-2,7)-9))/7)</f>
         <v>KW 14</v>
       </c>
-      <c r="V13" s="234"/>
-      <c r="W13" s="234"/>
-      <c r="X13" s="234"/>
-      <c r="Y13" s="234"/>
+      <c r="V13" s="242"/>
+      <c r="W13" s="242"/>
+      <c r="X13" s="242"/>
+      <c r="Y13" s="242"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="46"/>
-      <c r="AB13" s="234" t="str">
+      <c r="AB13" s="242" t="str">
         <f t="shared" ref="AB13" si="4">"KW " &amp; TRUNC((AB12-DATE(YEAR(AB12+3-MOD(AB12-2,7)),1,MOD(AB12-2,7)-9))/7)</f>
         <v>KW 15</v>
       </c>
-      <c r="AC13" s="234"/>
-      <c r="AD13" s="234"/>
-      <c r="AE13" s="234"/>
-      <c r="AF13" s="234"/>
+      <c r="AC13" s="242"/>
+      <c r="AD13" s="242"/>
+      <c r="AE13" s="242"/>
+      <c r="AF13" s="242"/>
       <c r="AG13" s="46"/>
       <c r="AH13" s="46"/>
-      <c r="AI13" s="234" t="str">
+      <c r="AI13" s="242" t="str">
         <f t="shared" ref="AI13" si="5">"KW " &amp; TRUNC((AI12-DATE(YEAR(AI12+3-MOD(AI12-2,7)),1,MOD(AI12-2,7)-9))/7)</f>
         <v>KW 16</v>
       </c>
-      <c r="AJ13" s="234"/>
-      <c r="AK13" s="234"/>
-      <c r="AL13" s="234"/>
-      <c r="AM13" s="234"/>
+      <c r="AJ13" s="242"/>
+      <c r="AK13" s="242"/>
+      <c r="AL13" s="242"/>
+      <c r="AM13" s="242"/>
       <c r="AN13" s="46"/>
       <c r="AO13" s="46"/>
-      <c r="AP13" s="234" t="str">
+      <c r="AP13" s="242" t="str">
         <f t="shared" ref="AP13" si="6">"KW " &amp; TRUNC((AP12-DATE(YEAR(AP12+3-MOD(AP12-2,7)),1,MOD(AP12-2,7)-9))/7)</f>
         <v>KW 17</v>
       </c>
-      <c r="AQ13" s="234"/>
-      <c r="AR13" s="234"/>
-      <c r="AS13" s="234"/>
-      <c r="AT13" s="234"/>
+      <c r="AQ13" s="242"/>
+      <c r="AR13" s="242"/>
+      <c r="AS13" s="242"/>
+      <c r="AT13" s="242"/>
       <c r="AU13" s="46"/>
       <c r="AV13" s="46"/>
-      <c r="AW13" s="234" t="str">
+      <c r="AW13" s="242" t="str">
         <f t="shared" ref="AW13" si="7">"KW " &amp; TRUNC((AW12-DATE(YEAR(AW12+3-MOD(AW12-2,7)),1,MOD(AW12-2,7)-9))/7)</f>
         <v>KW 18</v>
       </c>
-      <c r="AX13" s="234"/>
-      <c r="AY13" s="234"/>
-      <c r="AZ13" s="234"/>
-      <c r="BA13" s="234"/>
+      <c r="AX13" s="242"/>
+      <c r="AY13" s="242"/>
+      <c r="AZ13" s="242"/>
+      <c r="BA13" s="242"/>
       <c r="BB13" s="46"/>
       <c r="BC13" s="46"/>
-      <c r="BD13" s="234" t="str">
+      <c r="BD13" s="242" t="str">
         <f t="shared" ref="BD13" si="8">"KW " &amp; TRUNC((BD12-DATE(YEAR(BD12+3-MOD(BD12-2,7)),1,MOD(BD12-2,7)-9))/7)</f>
         <v>KW 19</v>
       </c>
-      <c r="BE13" s="234"/>
-      <c r="BF13" s="234"/>
-      <c r="BG13" s="234"/>
-      <c r="BH13" s="234"/>
+      <c r="BE13" s="242"/>
+      <c r="BF13" s="242"/>
+      <c r="BG13" s="242"/>
+      <c r="BH13" s="242"/>
       <c r="BI13" s="46"/>
       <c r="BJ13" s="46"/>
-      <c r="BK13" s="234" t="str">
+      <c r="BK13" s="242" t="str">
         <f t="shared" ref="BK13" si="9">"KW " &amp; TRUNC((BK12-DATE(YEAR(BK12+3-MOD(BK12-2,7)),1,MOD(BK12-2,7)-9))/7)</f>
         <v>KW 20</v>
       </c>
-      <c r="BL13" s="234"/>
-      <c r="BM13" s="234"/>
-      <c r="BN13" s="234"/>
-      <c r="BO13" s="234"/>
+      <c r="BL13" s="242"/>
+      <c r="BM13" s="242"/>
+      <c r="BN13" s="242"/>
+      <c r="BO13" s="242"/>
       <c r="BP13" s="46"/>
       <c r="BQ13" s="46"/>
-      <c r="BR13" s="234" t="str">
+      <c r="BR13" s="242" t="str">
         <f t="shared" ref="BR13" si="10">"KW " &amp; TRUNC((BR12-DATE(YEAR(BR12+3-MOD(BR12-2,7)),1,MOD(BR12-2,7)-9))/7)</f>
         <v>KW 21</v>
       </c>
-      <c r="BS13" s="234"/>
-      <c r="BT13" s="234"/>
-      <c r="BU13" s="234"/>
-      <c r="BV13" s="234"/>
+      <c r="BS13" s="242"/>
+      <c r="BT13" s="242"/>
+      <c r="BU13" s="242"/>
+      <c r="BV13" s="242"/>
       <c r="BW13" s="46"/>
       <c r="BX13" s="46"/>
-      <c r="BY13" s="234" t="str">
+      <c r="BY13" s="242" t="str">
         <f t="shared" ref="BY13" si="11">"KW " &amp; TRUNC((BY12-DATE(YEAR(BY12+3-MOD(BY12-2,7)),1,MOD(BY12-2,7)-9))/7)</f>
         <v>KW 22</v>
       </c>
-      <c r="BZ13" s="234"/>
-      <c r="CA13" s="234"/>
-      <c r="CB13" s="234"/>
-      <c r="CC13" s="234"/>
+      <c r="BZ13" s="242"/>
+      <c r="CA13" s="242"/>
+      <c r="CB13" s="242"/>
+      <c r="CC13" s="242"/>
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
-      <c r="CF13" s="234" t="str">
+      <c r="CF13" s="242" t="str">
         <f t="shared" ref="CF13" si="12">"KW " &amp; TRUNC((CF12-DATE(YEAR(CF12+3-MOD(CF12-2,7)),1,MOD(CF12-2,7)-9))/7)</f>
         <v>KW 23</v>
       </c>
-      <c r="CG13" s="234"/>
-      <c r="CH13" s="234"/>
-      <c r="CI13" s="234"/>
-      <c r="CJ13" s="234"/>
+      <c r="CG13" s="242"/>
+      <c r="CH13" s="242"/>
+      <c r="CI13" s="242"/>
+      <c r="CJ13" s="242"/>
       <c r="CK13" s="46"/>
       <c r="CL13" s="46"/>
-      <c r="CM13" s="234" t="str">
+      <c r="CM13" s="242" t="str">
         <f t="shared" ref="CM13" si="13">"KW " &amp; TRUNC((CM12-DATE(YEAR(CM12+3-MOD(CM12-2,7)),1,MOD(CM12-2,7)-9))/7)</f>
         <v>KW 24</v>
       </c>
-      <c r="CN13" s="234"/>
-      <c r="CO13" s="234"/>
-      <c r="CP13" s="234"/>
-      <c r="CQ13" s="234"/>
+      <c r="CN13" s="242"/>
+      <c r="CO13" s="242"/>
+      <c r="CP13" s="242"/>
+      <c r="CQ13" s="242"/>
       <c r="CR13" s="46"/>
       <c r="CS13" s="46"/>
-      <c r="CT13" s="234" t="str">
+      <c r="CT13" s="242" t="str">
         <f t="shared" ref="CT13" si="14">"KW " &amp; TRUNC((CT12-DATE(YEAR(CT12+3-MOD(CT12-2,7)),1,MOD(CT12-2,7)-9))/7)</f>
         <v>KW 25</v>
       </c>
-      <c r="CU13" s="234"/>
-      <c r="CV13" s="234"/>
-      <c r="CW13" s="234"/>
-      <c r="CX13" s="234"/>
+      <c r="CU13" s="242"/>
+      <c r="CV13" s="242"/>
+      <c r="CW13" s="242"/>
+      <c r="CX13" s="242"/>
       <c r="CY13" s="46"/>
       <c r="CZ13" s="46"/>
-      <c r="DA13" s="234" t="str">
+      <c r="DA13" s="242" t="str">
         <f t="shared" ref="DA13" si="15">"KW " &amp; TRUNC((DA12-DATE(YEAR(DA12+3-MOD(DA12-2,7)),1,MOD(DA12-2,7)-9))/7)</f>
         <v>KW 26</v>
       </c>
-      <c r="DB13" s="234"/>
-      <c r="DC13" s="234"/>
-      <c r="DD13" s="234"/>
-      <c r="DE13" s="234"/>
+      <c r="DB13" s="242"/>
+      <c r="DC13" s="242"/>
+      <c r="DD13" s="242"/>
+      <c r="DE13" s="242"/>
       <c r="DF13" s="46"/>
       <c r="DG13" s="46"/>
-      <c r="DH13" s="234" t="str">
+      <c r="DH13" s="242" t="str">
         <f t="shared" ref="DH13" si="16">"KW " &amp; TRUNC((DH12-DATE(YEAR(DH12+3-MOD(DH12-2,7)),1,MOD(DH12-2,7)-9))/7)</f>
         <v>KW 27</v>
       </c>
-      <c r="DI13" s="234"/>
-      <c r="DJ13" s="234"/>
-      <c r="DK13" s="234"/>
-      <c r="DL13" s="234"/>
+      <c r="DI13" s="242"/>
+      <c r="DJ13" s="242"/>
+      <c r="DK13" s="242"/>
+      <c r="DL13" s="242"/>
       <c r="DM13" s="46"/>
       <c r="DN13" s="46"/>
-      <c r="DO13" s="234" t="str">
+      <c r="DO13" s="242" t="str">
         <f t="shared" ref="DO13" si="17">"KW " &amp; TRUNC((DO12-DATE(YEAR(DO12+3-MOD(DO12-2,7)),1,MOD(DO12-2,7)-9))/7)</f>
         <v>KW 28</v>
       </c>
-      <c r="DP13" s="234"/>
-      <c r="DQ13" s="234"/>
-      <c r="DR13" s="234"/>
-      <c r="DS13" s="234"/>
+      <c r="DP13" s="242"/>
+      <c r="DQ13" s="242"/>
+      <c r="DR13" s="242"/>
+      <c r="DS13" s="242"/>
       <c r="DT13" s="46"/>
       <c r="DU13" s="46"/>
-      <c r="DV13" s="234" t="str">
+      <c r="DV13" s="242" t="str">
         <f t="shared" ref="DV13" si="18">"KW " &amp; TRUNC((DV12-DATE(YEAR(DV12+3-MOD(DV12-2,7)),1,MOD(DV12-2,7)-9))/7)</f>
         <v>KW 29</v>
       </c>
-      <c r="DW13" s="234"/>
-      <c r="DX13" s="234"/>
-      <c r="DY13" s="234"/>
-      <c r="DZ13" s="234"/>
+      <c r="DW13" s="242"/>
+      <c r="DX13" s="242"/>
+      <c r="DY13" s="242"/>
+      <c r="DZ13" s="242"/>
       <c r="EA13" s="46"/>
       <c r="EB13" s="46"/>
-      <c r="EC13" s="234" t="str">
+      <c r="EC13" s="242" t="str">
         <f t="shared" ref="EC13" si="19">"KW " &amp; TRUNC((EC12-DATE(YEAR(EC12+3-MOD(EC12-2,7)),1,MOD(EC12-2,7)-9))/7)</f>
         <v>KW 30</v>
       </c>
-      <c r="ED13" s="234"/>
-      <c r="EE13" s="234"/>
-      <c r="EF13" s="234"/>
-      <c r="EG13" s="234"/>
+      <c r="ED13" s="242"/>
+      <c r="EE13" s="242"/>
+      <c r="EF13" s="242"/>
+      <c r="EG13" s="242"/>
       <c r="EH13" s="46"/>
       <c r="EI13" s="46"/>
-      <c r="EJ13" s="234" t="str">
+      <c r="EJ13" s="242" t="str">
         <f t="shared" ref="EJ13" si="20">"KW " &amp; TRUNC((EJ12-DATE(YEAR(EJ12+3-MOD(EJ12-2,7)),1,MOD(EJ12-2,7)-9))/7)</f>
         <v>KW 31</v>
       </c>
-      <c r="EK13" s="234"/>
-      <c r="EL13" s="234"/>
-      <c r="EM13" s="234"/>
-      <c r="EN13" s="234"/>
+      <c r="EK13" s="242"/>
+      <c r="EL13" s="242"/>
+      <c r="EM13" s="242"/>
+      <c r="EN13" s="242"/>
       <c r="EO13" s="46"/>
       <c r="EP13" s="47"/>
     </row>
@@ -11914,196 +11914,196 @@
       <c r="M14" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="242">
+      <c r="N14" s="236">
         <f>N12</f>
         <v>42086</v>
       </c>
-      <c r="O14" s="242"/>
-      <c r="P14" s="242"/>
-      <c r="Q14" s="242"/>
-      <c r="R14" s="242"/>
+      <c r="O14" s="236"/>
+      <c r="P14" s="236"/>
+      <c r="Q14" s="236"/>
+      <c r="R14" s="236"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
-      <c r="U14" s="242">
+      <c r="U14" s="236">
         <f>U12</f>
         <v>42093</v>
       </c>
-      <c r="V14" s="242"/>
-      <c r="W14" s="242"/>
-      <c r="X14" s="242"/>
-      <c r="Y14" s="242"/>
-      <c r="Z14" s="242"/>
-      <c r="AA14" s="242"/>
-      <c r="AB14" s="242">
+      <c r="V14" s="236"/>
+      <c r="W14" s="236"/>
+      <c r="X14" s="236"/>
+      <c r="Y14" s="236"/>
+      <c r="Z14" s="236"/>
+      <c r="AA14" s="236"/>
+      <c r="AB14" s="236">
         <f>AB12</f>
         <v>42100</v>
       </c>
-      <c r="AC14" s="242"/>
-      <c r="AD14" s="242"/>
-      <c r="AE14" s="242"/>
-      <c r="AF14" s="242"/>
-      <c r="AG14" s="242"/>
-      <c r="AH14" s="242"/>
-      <c r="AI14" s="242">
+      <c r="AC14" s="236"/>
+      <c r="AD14" s="236"/>
+      <c r="AE14" s="236"/>
+      <c r="AF14" s="236"/>
+      <c r="AG14" s="236"/>
+      <c r="AH14" s="236"/>
+      <c r="AI14" s="236">
         <f>AI12</f>
         <v>42107</v>
       </c>
-      <c r="AJ14" s="242"/>
-      <c r="AK14" s="242"/>
-      <c r="AL14" s="242"/>
-      <c r="AM14" s="242"/>
-      <c r="AN14" s="242"/>
-      <c r="AO14" s="242"/>
-      <c r="AP14" s="242">
+      <c r="AJ14" s="236"/>
+      <c r="AK14" s="236"/>
+      <c r="AL14" s="236"/>
+      <c r="AM14" s="236"/>
+      <c r="AN14" s="236"/>
+      <c r="AO14" s="236"/>
+      <c r="AP14" s="236">
         <f>AP12</f>
         <v>42114</v>
       </c>
-      <c r="AQ14" s="242"/>
-      <c r="AR14" s="242"/>
-      <c r="AS14" s="242"/>
-      <c r="AT14" s="242"/>
-      <c r="AU14" s="242"/>
-      <c r="AV14" s="242"/>
-      <c r="AW14" s="242">
+      <c r="AQ14" s="236"/>
+      <c r="AR14" s="236"/>
+      <c r="AS14" s="236"/>
+      <c r="AT14" s="236"/>
+      <c r="AU14" s="236"/>
+      <c r="AV14" s="236"/>
+      <c r="AW14" s="236">
         <f>AW12</f>
         <v>42121</v>
       </c>
-      <c r="AX14" s="242"/>
-      <c r="AY14" s="242"/>
-      <c r="AZ14" s="242"/>
-      <c r="BA14" s="242"/>
-      <c r="BB14" s="242"/>
-      <c r="BC14" s="242"/>
-      <c r="BD14" s="242">
+      <c r="AX14" s="236"/>
+      <c r="AY14" s="236"/>
+      <c r="AZ14" s="236"/>
+      <c r="BA14" s="236"/>
+      <c r="BB14" s="236"/>
+      <c r="BC14" s="236"/>
+      <c r="BD14" s="236">
         <f>BD12</f>
         <v>42128</v>
       </c>
-      <c r="BE14" s="242"/>
-      <c r="BF14" s="242"/>
-      <c r="BG14" s="242"/>
-      <c r="BH14" s="242"/>
-      <c r="BI14" s="242"/>
-      <c r="BJ14" s="242"/>
-      <c r="BK14" s="242">
+      <c r="BE14" s="236"/>
+      <c r="BF14" s="236"/>
+      <c r="BG14" s="236"/>
+      <c r="BH14" s="236"/>
+      <c r="BI14" s="236"/>
+      <c r="BJ14" s="236"/>
+      <c r="BK14" s="236">
         <f>BK12</f>
         <v>42135</v>
       </c>
-      <c r="BL14" s="242"/>
-      <c r="BM14" s="242"/>
-      <c r="BN14" s="242"/>
-      <c r="BO14" s="242"/>
-      <c r="BP14" s="242"/>
-      <c r="BQ14" s="242"/>
-      <c r="BR14" s="242">
+      <c r="BL14" s="236"/>
+      <c r="BM14" s="236"/>
+      <c r="BN14" s="236"/>
+      <c r="BO14" s="236"/>
+      <c r="BP14" s="236"/>
+      <c r="BQ14" s="236"/>
+      <c r="BR14" s="236">
         <f>BR12</f>
         <v>42142</v>
       </c>
-      <c r="BS14" s="242"/>
-      <c r="BT14" s="242"/>
-      <c r="BU14" s="242"/>
-      <c r="BV14" s="242"/>
-      <c r="BW14" s="242"/>
-      <c r="BX14" s="242"/>
-      <c r="BY14" s="242">
+      <c r="BS14" s="236"/>
+      <c r="BT14" s="236"/>
+      <c r="BU14" s="236"/>
+      <c r="BV14" s="236"/>
+      <c r="BW14" s="236"/>
+      <c r="BX14" s="236"/>
+      <c r="BY14" s="236">
         <f>BY12</f>
         <v>42149</v>
       </c>
-      <c r="BZ14" s="242"/>
-      <c r="CA14" s="242"/>
-      <c r="CB14" s="242"/>
-      <c r="CC14" s="242"/>
-      <c r="CD14" s="242"/>
-      <c r="CE14" s="242"/>
-      <c r="CF14" s="242">
+      <c r="BZ14" s="236"/>
+      <c r="CA14" s="236"/>
+      <c r="CB14" s="236"/>
+      <c r="CC14" s="236"/>
+      <c r="CD14" s="236"/>
+      <c r="CE14" s="236"/>
+      <c r="CF14" s="236">
         <f>CF12</f>
         <v>42156</v>
       </c>
-      <c r="CG14" s="242"/>
-      <c r="CH14" s="242"/>
-      <c r="CI14" s="242"/>
-      <c r="CJ14" s="242"/>
-      <c r="CK14" s="242"/>
-      <c r="CL14" s="242"/>
-      <c r="CM14" s="242">
+      <c r="CG14" s="236"/>
+      <c r="CH14" s="236"/>
+      <c r="CI14" s="236"/>
+      <c r="CJ14" s="236"/>
+      <c r="CK14" s="236"/>
+      <c r="CL14" s="236"/>
+      <c r="CM14" s="236">
         <f>CM12</f>
         <v>42163</v>
       </c>
-      <c r="CN14" s="242"/>
-      <c r="CO14" s="242"/>
-      <c r="CP14" s="242"/>
-      <c r="CQ14" s="242"/>
-      <c r="CR14" s="242"/>
-      <c r="CS14" s="242"/>
-      <c r="CT14" s="242">
+      <c r="CN14" s="236"/>
+      <c r="CO14" s="236"/>
+      <c r="CP14" s="236"/>
+      <c r="CQ14" s="236"/>
+      <c r="CR14" s="236"/>
+      <c r="CS14" s="236"/>
+      <c r="CT14" s="236">
         <f>CT12</f>
         <v>42170</v>
       </c>
-      <c r="CU14" s="242"/>
-      <c r="CV14" s="242"/>
-      <c r="CW14" s="242"/>
-      <c r="CX14" s="242"/>
-      <c r="CY14" s="242"/>
-      <c r="CZ14" s="242"/>
-      <c r="DA14" s="242">
+      <c r="CU14" s="236"/>
+      <c r="CV14" s="236"/>
+      <c r="CW14" s="236"/>
+      <c r="CX14" s="236"/>
+      <c r="CY14" s="236"/>
+      <c r="CZ14" s="236"/>
+      <c r="DA14" s="236">
         <f>DA12</f>
         <v>42177</v>
       </c>
-      <c r="DB14" s="242"/>
-      <c r="DC14" s="242"/>
-      <c r="DD14" s="242"/>
-      <c r="DE14" s="242"/>
-      <c r="DF14" s="242"/>
-      <c r="DG14" s="242"/>
-      <c r="DH14" s="242">
+      <c r="DB14" s="236"/>
+      <c r="DC14" s="236"/>
+      <c r="DD14" s="236"/>
+      <c r="DE14" s="236"/>
+      <c r="DF14" s="236"/>
+      <c r="DG14" s="236"/>
+      <c r="DH14" s="236">
         <f>DH12</f>
         <v>42184</v>
       </c>
-      <c r="DI14" s="242"/>
-      <c r="DJ14" s="242"/>
-      <c r="DK14" s="242"/>
-      <c r="DL14" s="242"/>
-      <c r="DM14" s="242"/>
-      <c r="DN14" s="242"/>
-      <c r="DO14" s="242">
+      <c r="DI14" s="236"/>
+      <c r="DJ14" s="236"/>
+      <c r="DK14" s="236"/>
+      <c r="DL14" s="236"/>
+      <c r="DM14" s="236"/>
+      <c r="DN14" s="236"/>
+      <c r="DO14" s="236">
         <f>DO12</f>
         <v>42191</v>
       </c>
-      <c r="DP14" s="242"/>
-      <c r="DQ14" s="242"/>
-      <c r="DR14" s="242"/>
-      <c r="DS14" s="242"/>
-      <c r="DT14" s="242"/>
-      <c r="DU14" s="242"/>
-      <c r="DV14" s="242">
+      <c r="DP14" s="236"/>
+      <c r="DQ14" s="236"/>
+      <c r="DR14" s="236"/>
+      <c r="DS14" s="236"/>
+      <c r="DT14" s="236"/>
+      <c r="DU14" s="236"/>
+      <c r="DV14" s="236">
         <f>DV12</f>
         <v>42198</v>
       </c>
-      <c r="DW14" s="242"/>
-      <c r="DX14" s="242"/>
-      <c r="DY14" s="242"/>
-      <c r="DZ14" s="242"/>
-      <c r="EA14" s="242"/>
-      <c r="EB14" s="242"/>
-      <c r="EC14" s="242">
+      <c r="DW14" s="236"/>
+      <c r="DX14" s="236"/>
+      <c r="DY14" s="236"/>
+      <c r="DZ14" s="236"/>
+      <c r="EA14" s="236"/>
+      <c r="EB14" s="236"/>
+      <c r="EC14" s="236">
         <f>EC12</f>
         <v>42205</v>
       </c>
-      <c r="ED14" s="242"/>
-      <c r="EE14" s="242"/>
-      <c r="EF14" s="242"/>
-      <c r="EG14" s="242"/>
-      <c r="EH14" s="242"/>
-      <c r="EI14" s="242"/>
-      <c r="EJ14" s="242">
+      <c r="ED14" s="236"/>
+      <c r="EE14" s="236"/>
+      <c r="EF14" s="236"/>
+      <c r="EG14" s="236"/>
+      <c r="EH14" s="236"/>
+      <c r="EI14" s="236"/>
+      <c r="EJ14" s="236">
         <f>EJ12</f>
         <v>42212</v>
       </c>
-      <c r="EK14" s="242"/>
-      <c r="EL14" s="242"/>
-      <c r="EM14" s="242"/>
-      <c r="EN14" s="242"/>
-      <c r="EO14" s="242"/>
-      <c r="EP14" s="244"/>
+      <c r="EK14" s="236"/>
+      <c r="EL14" s="236"/>
+      <c r="EM14" s="236"/>
+      <c r="EN14" s="236"/>
+      <c r="EO14" s="236"/>
+      <c r="EP14" s="237"/>
       <c r="EQ14" s="48"/>
     </row>
     <row r="15" spans="1:755" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13733,7 +13733,7 @@
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-42</v>
+        <v>-48</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
@@ -14252,7 +14252,7 @@
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-46</v>
+        <v>-52</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
@@ -14759,19 +14759,19 @@
       </c>
       <c r="J29" s="80">
         <f>AVERAGE(J30:J34)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-32</v>
+        <v>-37</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M29" s="229">
         <f t="shared" si="24"/>
-        <v>42125</v>
+        <v>42126</v>
       </c>
       <c r="N29" s="206"/>
       <c r="O29" s="83"/>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-30</v>
+        <v>-36</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
@@ -15278,19 +15278,19 @@
         <v>42131</v>
       </c>
       <c r="J32" s="80">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K32" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-40</v>
+        <v>-43</v>
       </c>
       <c r="L32" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="229">
         <f t="shared" si="24"/>
-        <v>42117</v>
+        <v>42120</v>
       </c>
       <c r="N32" s="206"/>
       <c r="O32" s="83"/>
@@ -15780,19 +15780,19 @@
       </c>
       <c r="J35" s="80">
         <f>AVERAGE(J36:J41)</f>
-        <v>0.32500000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-21</v>
+        <v>-26</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M35" s="229">
         <f t="shared" si="24"/>
-        <v>42136</v>
+        <v>42137</v>
       </c>
       <c r="N35" s="206"/>
       <c r="O35" s="83"/>
@@ -15953,19 +15953,19 @@
         <v>42136</v>
       </c>
       <c r="J36" s="80">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-23</v>
+        <v>-28</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36" s="229">
         <f t="shared" si="24"/>
-        <v>42134</v>
+        <v>42135</v>
       </c>
       <c r="N36" s="206"/>
       <c r="O36" s="83"/>
@@ -16130,7 +16130,7 @@
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-18</v>
+        <v>-24</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
@@ -16299,19 +16299,19 @@
         <v>42146</v>
       </c>
       <c r="J38" s="80">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="L38" s="228">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M38" s="229">
         <f t="shared" si="24"/>
-        <v>42143</v>
+        <v>42144</v>
       </c>
       <c r="N38" s="206"/>
       <c r="O38" s="83"/>
@@ -16471,18 +16471,20 @@
         <f t="shared" si="21"/>
         <v>42146</v>
       </c>
-      <c r="J39" s="80"/>
+      <c r="J39" s="80">
+        <v>0.2</v>
+      </c>
       <c r="K39" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-26</v>
+        <v>-29</v>
       </c>
       <c r="L39" s="228">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M39" s="229">
         <f t="shared" si="24"/>
-        <v>42131</v>
+        <v>42134</v>
       </c>
       <c r="N39" s="206"/>
       <c r="O39" s="83"/>
@@ -16632,7 +16634,7 @@
       <c r="E40" s="76"/>
       <c r="F40" s="77"/>
       <c r="G40" s="78">
-        <v>42146</v>
+        <v>42163</v>
       </c>
       <c r="H40" s="79" t="s">
         <v>16</v>
@@ -16646,7 +16648,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="L40" s="228" t="str">
         <f t="shared" si="22"/>
@@ -16983,7 +16985,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17156,7 +17158,7 @@
       </c>
       <c r="K43" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="L43" s="228">
         <f t="shared" si="22"/>
@@ -17329,7 +17331,7 @@
       </c>
       <c r="K44" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="L44" s="228">
         <f t="shared" si="22"/>
@@ -17502,7 +17504,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -18004,7 +18006,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L48" s="228">
         <f t="shared" si="22"/>
@@ -18177,7 +18179,7 @@
       </c>
       <c r="K49" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L49" s="228">
         <f t="shared" si="22"/>
@@ -18350,7 +18352,7 @@
       </c>
       <c r="K50" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L50" s="228">
         <f t="shared" si="22"/>
@@ -18523,7 +18525,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -18695,7 +18697,7 @@
       </c>
       <c r="K52" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L52" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19196,7 +19198,7 @@
       </c>
       <c r="K55" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L55" s="228">
         <f t="shared" si="22"/>
@@ -19295,8 +19297,8 @@
       <c r="CV55" s="83"/>
       <c r="CW55" s="83"/>
       <c r="CX55" s="83"/>
-      <c r="CY55" s="250"/>
-      <c r="CZ55" s="250"/>
+      <c r="CY55" s="234"/>
+      <c r="CZ55" s="234"/>
       <c r="DA55" s="83"/>
       <c r="DB55" s="83"/>
       <c r="DC55" s="83"/>
@@ -19354,7 +19356,7 @@
       <c r="E56" s="76"/>
       <c r="F56" s="77"/>
       <c r="G56" s="78">
-        <v>42195</v>
+        <v>42193</v>
       </c>
       <c r="H56" s="79" t="s">
         <v>16</v>
@@ -19368,7 +19370,7 @@
       </c>
       <c r="K56" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L56" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19466,7 +19468,7 @@
       <c r="CU56" s="83"/>
       <c r="CV56" s="83"/>
       <c r="CW56" s="83"/>
-      <c r="CX56" s="250"/>
+      <c r="CX56" s="234"/>
       <c r="CY56" s="83"/>
       <c r="CZ56" s="83"/>
       <c r="DA56" s="83"/>
@@ -19540,7 +19542,7 @@
       </c>
       <c r="K57" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L57" s="228" t="str">
         <f t="shared" si="22"/>
@@ -20466,7 +20468,7 @@
       <c r="CW62" s="83"/>
       <c r="CX62" s="83"/>
       <c r="CY62" s="83"/>
-      <c r="CZ62" s="250"/>
+      <c r="CZ62" s="234"/>
       <c r="DA62" s="83"/>
       <c r="DB62" s="83"/>
       <c r="DC62" s="83"/>
@@ -21158,45 +21160,45 @@
       <c r="EQ66" s="37"/>
     </row>
     <row r="67" spans="1:147" s="3" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="245"/>
-      <c r="B67" s="246"/>
-      <c r="C67" s="246"/>
-      <c r="D67" s="246"/>
-      <c r="E67" s="246"/>
-      <c r="F67" s="246"/>
-      <c r="G67" s="246"/>
-      <c r="H67" s="246"/>
-      <c r="I67" s="246"/>
-      <c r="J67" s="246"/>
-      <c r="K67" s="246"/>
-      <c r="L67" s="246"/>
-      <c r="M67" s="246"/>
-      <c r="N67" s="246"/>
-      <c r="O67" s="246"/>
-      <c r="P67" s="246"/>
-      <c r="Q67" s="246"/>
-      <c r="R67" s="246"/>
-      <c r="S67" s="246"/>
-      <c r="T67" s="246"/>
-      <c r="U67" s="246"/>
-      <c r="V67" s="246"/>
-      <c r="W67" s="246"/>
-      <c r="X67" s="246"/>
-      <c r="Y67" s="246"/>
-      <c r="Z67" s="246"/>
-      <c r="AA67" s="246"/>
-      <c r="AB67" s="246"/>
-      <c r="AC67" s="246"/>
-      <c r="AD67" s="246"/>
-      <c r="AE67" s="246"/>
-      <c r="AF67" s="246"/>
-      <c r="AG67" s="246"/>
-      <c r="AH67" s="246"/>
-      <c r="AI67" s="246"/>
-      <c r="AJ67" s="246"/>
-      <c r="AK67" s="246"/>
-      <c r="AL67" s="246"/>
-      <c r="AM67" s="246"/>
+      <c r="A67" s="238"/>
+      <c r="B67" s="239"/>
+      <c r="C67" s="239"/>
+      <c r="D67" s="239"/>
+      <c r="E67" s="239"/>
+      <c r="F67" s="239"/>
+      <c r="G67" s="239"/>
+      <c r="H67" s="239"/>
+      <c r="I67" s="239"/>
+      <c r="J67" s="239"/>
+      <c r="K67" s="239"/>
+      <c r="L67" s="239"/>
+      <c r="M67" s="239"/>
+      <c r="N67" s="239"/>
+      <c r="O67" s="239"/>
+      <c r="P67" s="239"/>
+      <c r="Q67" s="239"/>
+      <c r="R67" s="239"/>
+      <c r="S67" s="239"/>
+      <c r="T67" s="239"/>
+      <c r="U67" s="239"/>
+      <c r="V67" s="239"/>
+      <c r="W67" s="239"/>
+      <c r="X67" s="239"/>
+      <c r="Y67" s="239"/>
+      <c r="Z67" s="239"/>
+      <c r="AA67" s="239"/>
+      <c r="AB67" s="239"/>
+      <c r="AC67" s="239"/>
+      <c r="AD67" s="239"/>
+      <c r="AE67" s="239"/>
+      <c r="AF67" s="239"/>
+      <c r="AG67" s="239"/>
+      <c r="AH67" s="239"/>
+      <c r="AI67" s="239"/>
+      <c r="AJ67" s="239"/>
+      <c r="AK67" s="239"/>
+      <c r="AL67" s="239"/>
+      <c r="AM67" s="239"/>
       <c r="AN67" s="100"/>
       <c r="AO67" s="100"/>
       <c r="AP67" s="100"/>
@@ -21227,85 +21229,85 @@
       <c r="BO67" s="100"/>
       <c r="BP67" s="100"/>
       <c r="BQ67" s="100"/>
-      <c r="BR67" s="247" t="s">
+      <c r="BR67" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="BS67" s="247"/>
-      <c r="BT67" s="247"/>
-      <c r="BU67" s="247"/>
-      <c r="BV67" s="247"/>
-      <c r="BW67" s="247"/>
-      <c r="BX67" s="247"/>
-      <c r="BY67" s="247"/>
-      <c r="BZ67" s="247"/>
-      <c r="CA67" s="247"/>
-      <c r="CB67" s="247"/>
-      <c r="CC67" s="247"/>
-      <c r="CD67" s="247"/>
-      <c r="CE67" s="247"/>
-      <c r="CF67" s="247"/>
-      <c r="CG67" s="247"/>
-      <c r="CH67" s="247"/>
-      <c r="CI67" s="247"/>
-      <c r="CJ67" s="247"/>
-      <c r="CK67" s="247"/>
-      <c r="CL67" s="247"/>
-      <c r="CM67" s="247"/>
-      <c r="CN67" s="247"/>
-      <c r="CO67" s="247"/>
-      <c r="CP67" s="247"/>
-      <c r="CQ67" s="247"/>
-      <c r="CR67" s="247"/>
-      <c r="CS67" s="247"/>
-      <c r="CT67" s="247"/>
-      <c r="CU67" s="247"/>
-      <c r="CV67" s="247"/>
-      <c r="CW67" s="247"/>
-      <c r="CX67" s="247"/>
-      <c r="CY67" s="247"/>
-      <c r="CZ67" s="247"/>
-      <c r="DA67" s="247"/>
-      <c r="DB67" s="247"/>
-      <c r="DC67" s="247"/>
-      <c r="DD67" s="247"/>
-      <c r="DE67" s="247"/>
-      <c r="DF67" s="247"/>
-      <c r="DG67" s="247"/>
-      <c r="DH67" s="247"/>
-      <c r="DI67" s="247"/>
-      <c r="DJ67" s="247"/>
-      <c r="DK67" s="247"/>
-      <c r="DL67" s="247"/>
-      <c r="DM67" s="247"/>
-      <c r="DN67" s="247"/>
-      <c r="DO67" s="247"/>
-      <c r="DP67" s="247"/>
-      <c r="DQ67" s="247"/>
-      <c r="DR67" s="247"/>
-      <c r="DS67" s="247"/>
-      <c r="DT67" s="247"/>
-      <c r="DU67" s="247"/>
-      <c r="DV67" s="247"/>
-      <c r="DW67" s="247"/>
-      <c r="DX67" s="247"/>
-      <c r="DY67" s="247"/>
-      <c r="DZ67" s="247"/>
-      <c r="EA67" s="247"/>
-      <c r="EB67" s="247"/>
-      <c r="EC67" s="247"/>
-      <c r="ED67" s="247"/>
-      <c r="EE67" s="247"/>
-      <c r="EF67" s="247"/>
-      <c r="EG67" s="247"/>
-      <c r="EH67" s="247"/>
-      <c r="EI67" s="247"/>
-      <c r="EJ67" s="247"/>
-      <c r="EK67" s="247"/>
-      <c r="EL67" s="247"/>
-      <c r="EM67" s="247"/>
-      <c r="EN67" s="247"/>
-      <c r="EO67" s="247"/>
-      <c r="EP67" s="248"/>
+      <c r="BS67" s="240"/>
+      <c r="BT67" s="240"/>
+      <c r="BU67" s="240"/>
+      <c r="BV67" s="240"/>
+      <c r="BW67" s="240"/>
+      <c r="BX67" s="240"/>
+      <c r="BY67" s="240"/>
+      <c r="BZ67" s="240"/>
+      <c r="CA67" s="240"/>
+      <c r="CB67" s="240"/>
+      <c r="CC67" s="240"/>
+      <c r="CD67" s="240"/>
+      <c r="CE67" s="240"/>
+      <c r="CF67" s="240"/>
+      <c r="CG67" s="240"/>
+      <c r="CH67" s="240"/>
+      <c r="CI67" s="240"/>
+      <c r="CJ67" s="240"/>
+      <c r="CK67" s="240"/>
+      <c r="CL67" s="240"/>
+      <c r="CM67" s="240"/>
+      <c r="CN67" s="240"/>
+      <c r="CO67" s="240"/>
+      <c r="CP67" s="240"/>
+      <c r="CQ67" s="240"/>
+      <c r="CR67" s="240"/>
+      <c r="CS67" s="240"/>
+      <c r="CT67" s="240"/>
+      <c r="CU67" s="240"/>
+      <c r="CV67" s="240"/>
+      <c r="CW67" s="240"/>
+      <c r="CX67" s="240"/>
+      <c r="CY67" s="240"/>
+      <c r="CZ67" s="240"/>
+      <c r="DA67" s="240"/>
+      <c r="DB67" s="240"/>
+      <c r="DC67" s="240"/>
+      <c r="DD67" s="240"/>
+      <c r="DE67" s="240"/>
+      <c r="DF67" s="240"/>
+      <c r="DG67" s="240"/>
+      <c r="DH67" s="240"/>
+      <c r="DI67" s="240"/>
+      <c r="DJ67" s="240"/>
+      <c r="DK67" s="240"/>
+      <c r="DL67" s="240"/>
+      <c r="DM67" s="240"/>
+      <c r="DN67" s="240"/>
+      <c r="DO67" s="240"/>
+      <c r="DP67" s="240"/>
+      <c r="DQ67" s="240"/>
+      <c r="DR67" s="240"/>
+      <c r="DS67" s="240"/>
+      <c r="DT67" s="240"/>
+      <c r="DU67" s="240"/>
+      <c r="DV67" s="240"/>
+      <c r="DW67" s="240"/>
+      <c r="DX67" s="240"/>
+      <c r="DY67" s="240"/>
+      <c r="DZ67" s="240"/>
+      <c r="EA67" s="240"/>
+      <c r="EB67" s="240"/>
+      <c r="EC67" s="240"/>
+      <c r="ED67" s="240"/>
+      <c r="EE67" s="240"/>
+      <c r="EF67" s="240"/>
+      <c r="EG67" s="240"/>
+      <c r="EH67" s="240"/>
+      <c r="EI67" s="240"/>
+      <c r="EJ67" s="240"/>
+      <c r="EK67" s="240"/>
+      <c r="EL67" s="240"/>
+      <c r="EM67" s="240"/>
+      <c r="EN67" s="240"/>
+      <c r="EO67" s="240"/>
+      <c r="EP67" s="241"/>
       <c r="EQ67" s="48"/>
     </row>
     <row r="68" spans="1:147" x14ac:dyDescent="0.25">
@@ -21457,155 +21459,203 @@
       <c r="EQ68" s="37"/>
     </row>
     <row r="69" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A69" s="243"/>
-      <c r="B69" s="243"/>
-      <c r="C69" s="243"/>
-      <c r="D69" s="243"/>
-      <c r="E69" s="243"/>
-      <c r="F69" s="243"/>
-      <c r="G69" s="243"/>
-      <c r="H69" s="243"/>
-      <c r="I69" s="243"/>
-      <c r="J69" s="243"/>
-      <c r="K69" s="243"/>
-      <c r="L69" s="243"/>
-      <c r="M69" s="243"/>
-      <c r="N69" s="243"/>
-      <c r="O69" s="243"/>
-      <c r="P69" s="243"/>
-      <c r="Q69" s="243"/>
-      <c r="R69" s="243"/>
-      <c r="S69" s="243"/>
-      <c r="T69" s="243"/>
-      <c r="U69" s="243"/>
-      <c r="V69" s="243"/>
-      <c r="W69" s="243"/>
-      <c r="X69" s="243"/>
-      <c r="Y69" s="243"/>
-      <c r="Z69" s="243"/>
-      <c r="AA69" s="243"/>
-      <c r="AB69" s="243"/>
-      <c r="AC69" s="243"/>
-      <c r="AD69" s="243"/>
-      <c r="AE69" s="243"/>
-      <c r="AF69" s="243"/>
-      <c r="AG69" s="243"/>
-      <c r="AH69" s="243"/>
-      <c r="AI69" s="243"/>
-      <c r="AJ69" s="243"/>
-      <c r="AK69" s="243"/>
-      <c r="AL69" s="243"/>
-      <c r="AM69" s="243"/>
-      <c r="AN69" s="243"/>
-      <c r="AO69" s="243"/>
-      <c r="AP69" s="243"/>
-      <c r="AQ69" s="243"/>
-      <c r="AR69" s="243"/>
-      <c r="AS69" s="243"/>
-      <c r="AT69" s="243"/>
-      <c r="AU69" s="243"/>
-      <c r="AV69" s="243"/>
-      <c r="AW69" s="243"/>
-      <c r="AX69" s="243"/>
-      <c r="AY69" s="243"/>
-      <c r="AZ69" s="243"/>
-      <c r="BA69" s="243"/>
-      <c r="BB69" s="243"/>
-      <c r="BC69" s="243"/>
-      <c r="BD69" s="243"/>
-      <c r="BE69" s="243"/>
-      <c r="BF69" s="243"/>
-      <c r="BG69" s="243"/>
-      <c r="BH69" s="243"/>
-      <c r="BI69" s="243"/>
-      <c r="BJ69" s="243"/>
-      <c r="BK69" s="243"/>
-      <c r="BL69" s="243"/>
-      <c r="BM69" s="243"/>
-      <c r="BN69" s="243"/>
-      <c r="BO69" s="243"/>
-      <c r="BP69" s="243"/>
-      <c r="BQ69" s="243"/>
-      <c r="BR69" s="243"/>
-      <c r="BS69" s="243"/>
-      <c r="BT69" s="243"/>
-      <c r="BU69" s="243"/>
-      <c r="BV69" s="243"/>
-      <c r="BW69" s="243"/>
-      <c r="BX69" s="243"/>
-      <c r="BY69" s="243"/>
-      <c r="BZ69" s="243"/>
-      <c r="CA69" s="243"/>
-      <c r="CB69" s="243"/>
-      <c r="CC69" s="243"/>
-      <c r="CD69" s="243"/>
-      <c r="CE69" s="243"/>
-      <c r="CF69" s="243"/>
-      <c r="CG69" s="243"/>
-      <c r="CH69" s="243"/>
-      <c r="CI69" s="243"/>
-      <c r="CJ69" s="243"/>
-      <c r="CK69" s="243"/>
-      <c r="CL69" s="243"/>
-      <c r="CM69" s="243"/>
-      <c r="CN69" s="243"/>
-      <c r="CO69" s="243"/>
-      <c r="CP69" s="243"/>
-      <c r="CQ69" s="243"/>
-      <c r="CR69" s="243"/>
-      <c r="CS69" s="243"/>
-      <c r="CT69" s="243"/>
-      <c r="CU69" s="243"/>
-      <c r="CV69" s="243"/>
-      <c r="CW69" s="243"/>
-      <c r="CX69" s="243"/>
-      <c r="CY69" s="243"/>
-      <c r="CZ69" s="243"/>
-      <c r="DA69" s="243"/>
-      <c r="DB69" s="243"/>
-      <c r="DC69" s="243"/>
-      <c r="DD69" s="243"/>
-      <c r="DE69" s="243"/>
-      <c r="DF69" s="243"/>
-      <c r="DG69" s="243"/>
-      <c r="DH69" s="243"/>
-      <c r="DI69" s="243"/>
-      <c r="DJ69" s="243"/>
-      <c r="DK69" s="243"/>
-      <c r="DL69" s="243"/>
-      <c r="DM69" s="243"/>
-      <c r="DN69" s="243"/>
-      <c r="DO69" s="243"/>
-      <c r="DP69" s="243"/>
-      <c r="DQ69" s="243"/>
-      <c r="DR69" s="243"/>
-      <c r="DS69" s="243"/>
-      <c r="DT69" s="243"/>
-      <c r="DU69" s="243"/>
-      <c r="DV69" s="243"/>
-      <c r="DW69" s="243"/>
-      <c r="DX69" s="243"/>
-      <c r="DY69" s="243"/>
-      <c r="DZ69" s="243"/>
-      <c r="EA69" s="243"/>
-      <c r="EB69" s="243"/>
-      <c r="EC69" s="243"/>
-      <c r="ED69" s="243"/>
-      <c r="EE69" s="243"/>
-      <c r="EF69" s="243"/>
-      <c r="EG69" s="243"/>
-      <c r="EH69" s="243"/>
-      <c r="EI69" s="243"/>
-      <c r="EJ69" s="243"/>
-      <c r="EK69" s="243"/>
-      <c r="EL69" s="243"/>
-      <c r="EM69" s="243"/>
-      <c r="EN69" s="243"/>
-      <c r="EO69" s="243"/>
-      <c r="EP69" s="243"/>
+      <c r="A69" s="235"/>
+      <c r="B69" s="235"/>
+      <c r="C69" s="235"/>
+      <c r="D69" s="235"/>
+      <c r="E69" s="235"/>
+      <c r="F69" s="235"/>
+      <c r="G69" s="235"/>
+      <c r="H69" s="235"/>
+      <c r="I69" s="235"/>
+      <c r="J69" s="235"/>
+      <c r="K69" s="235"/>
+      <c r="L69" s="235"/>
+      <c r="M69" s="235"/>
+      <c r="N69" s="235"/>
+      <c r="O69" s="235"/>
+      <c r="P69" s="235"/>
+      <c r="Q69" s="235"/>
+      <c r="R69" s="235"/>
+      <c r="S69" s="235"/>
+      <c r="T69" s="235"/>
+      <c r="U69" s="235"/>
+      <c r="V69" s="235"/>
+      <c r="W69" s="235"/>
+      <c r="X69" s="235"/>
+      <c r="Y69" s="235"/>
+      <c r="Z69" s="235"/>
+      <c r="AA69" s="235"/>
+      <c r="AB69" s="235"/>
+      <c r="AC69" s="235"/>
+      <c r="AD69" s="235"/>
+      <c r="AE69" s="235"/>
+      <c r="AF69" s="235"/>
+      <c r="AG69" s="235"/>
+      <c r="AH69" s="235"/>
+      <c r="AI69" s="235"/>
+      <c r="AJ69" s="235"/>
+      <c r="AK69" s="235"/>
+      <c r="AL69" s="235"/>
+      <c r="AM69" s="235"/>
+      <c r="AN69" s="235"/>
+      <c r="AO69" s="235"/>
+      <c r="AP69" s="235"/>
+      <c r="AQ69" s="235"/>
+      <c r="AR69" s="235"/>
+      <c r="AS69" s="235"/>
+      <c r="AT69" s="235"/>
+      <c r="AU69" s="235"/>
+      <c r="AV69" s="235"/>
+      <c r="AW69" s="235"/>
+      <c r="AX69" s="235"/>
+      <c r="AY69" s="235"/>
+      <c r="AZ69" s="235"/>
+      <c r="BA69" s="235"/>
+      <c r="BB69" s="235"/>
+      <c r="BC69" s="235"/>
+      <c r="BD69" s="235"/>
+      <c r="BE69" s="235"/>
+      <c r="BF69" s="235"/>
+      <c r="BG69" s="235"/>
+      <c r="BH69" s="235"/>
+      <c r="BI69" s="235"/>
+      <c r="BJ69" s="235"/>
+      <c r="BK69" s="235"/>
+      <c r="BL69" s="235"/>
+      <c r="BM69" s="235"/>
+      <c r="BN69" s="235"/>
+      <c r="BO69" s="235"/>
+      <c r="BP69" s="235"/>
+      <c r="BQ69" s="235"/>
+      <c r="BR69" s="235"/>
+      <c r="BS69" s="235"/>
+      <c r="BT69" s="235"/>
+      <c r="BU69" s="235"/>
+      <c r="BV69" s="235"/>
+      <c r="BW69" s="235"/>
+      <c r="BX69" s="235"/>
+      <c r="BY69" s="235"/>
+      <c r="BZ69" s="235"/>
+      <c r="CA69" s="235"/>
+      <c r="CB69" s="235"/>
+      <c r="CC69" s="235"/>
+      <c r="CD69" s="235"/>
+      <c r="CE69" s="235"/>
+      <c r="CF69" s="235"/>
+      <c r="CG69" s="235"/>
+      <c r="CH69" s="235"/>
+      <c r="CI69" s="235"/>
+      <c r="CJ69" s="235"/>
+      <c r="CK69" s="235"/>
+      <c r="CL69" s="235"/>
+      <c r="CM69" s="235"/>
+      <c r="CN69" s="235"/>
+      <c r="CO69" s="235"/>
+      <c r="CP69" s="235"/>
+      <c r="CQ69" s="235"/>
+      <c r="CR69" s="235"/>
+      <c r="CS69" s="235"/>
+      <c r="CT69" s="235"/>
+      <c r="CU69" s="235"/>
+      <c r="CV69" s="235"/>
+      <c r="CW69" s="235"/>
+      <c r="CX69" s="235"/>
+      <c r="CY69" s="235"/>
+      <c r="CZ69" s="235"/>
+      <c r="DA69" s="235"/>
+      <c r="DB69" s="235"/>
+      <c r="DC69" s="235"/>
+      <c r="DD69" s="235"/>
+      <c r="DE69" s="235"/>
+      <c r="DF69" s="235"/>
+      <c r="DG69" s="235"/>
+      <c r="DH69" s="235"/>
+      <c r="DI69" s="235"/>
+      <c r="DJ69" s="235"/>
+      <c r="DK69" s="235"/>
+      <c r="DL69" s="235"/>
+      <c r="DM69" s="235"/>
+      <c r="DN69" s="235"/>
+      <c r="DO69" s="235"/>
+      <c r="DP69" s="235"/>
+      <c r="DQ69" s="235"/>
+      <c r="DR69" s="235"/>
+      <c r="DS69" s="235"/>
+      <c r="DT69" s="235"/>
+      <c r="DU69" s="235"/>
+      <c r="DV69" s="235"/>
+      <c r="DW69" s="235"/>
+      <c r="DX69" s="235"/>
+      <c r="DY69" s="235"/>
+      <c r="DZ69" s="235"/>
+      <c r="EA69" s="235"/>
+      <c r="EB69" s="235"/>
+      <c r="EC69" s="235"/>
+      <c r="ED69" s="235"/>
+      <c r="EE69" s="235"/>
+      <c r="EF69" s="235"/>
+      <c r="EG69" s="235"/>
+      <c r="EH69" s="235"/>
+      <c r="EI69" s="235"/>
+      <c r="EJ69" s="235"/>
+      <c r="EK69" s="235"/>
+      <c r="EL69" s="235"/>
+      <c r="EM69" s="235"/>
+      <c r="EN69" s="235"/>
+      <c r="EO69" s="235"/>
+      <c r="EP69" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AI13:AM13"/>
+    <mergeCell ref="AP13:AT13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="BY11:EP11"/>
+    <mergeCell ref="DV13:DZ13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="BD13:BH13"/>
+    <mergeCell ref="BK13:BO13"/>
+    <mergeCell ref="BR13:BV13"/>
+    <mergeCell ref="BY13:CC13"/>
+    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="BK14:BO14"/>
+    <mergeCell ref="EC13:EG13"/>
+    <mergeCell ref="EJ13:EN13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AT14"/>
+    <mergeCell ref="CM13:CQ13"/>
+    <mergeCell ref="CT13:CX13"/>
+    <mergeCell ref="DA13:DE13"/>
+    <mergeCell ref="DH13:DL13"/>
+    <mergeCell ref="DO13:DS13"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BD14:BH14"/>
+    <mergeCell ref="BI14:BJ14"/>
+    <mergeCell ref="CR14:CS14"/>
+    <mergeCell ref="CT14:CX14"/>
+    <mergeCell ref="CY14:CZ14"/>
+    <mergeCell ref="DA14:DE14"/>
+    <mergeCell ref="BP14:BQ14"/>
+    <mergeCell ref="BR14:BV14"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BY14:CC14"/>
+    <mergeCell ref="CD14:CE14"/>
+    <mergeCell ref="CF14:CJ14"/>
     <mergeCell ref="A69:EP69"/>
     <mergeCell ref="EA14:EB14"/>
     <mergeCell ref="EC14:EG14"/>
@@ -21622,54 +21672,6 @@
     <mergeCell ref="DV14:DZ14"/>
     <mergeCell ref="CK14:CL14"/>
     <mergeCell ref="CM14:CQ14"/>
-    <mergeCell ref="CR14:CS14"/>
-    <mergeCell ref="CT14:CX14"/>
-    <mergeCell ref="CY14:CZ14"/>
-    <mergeCell ref="DA14:DE14"/>
-    <mergeCell ref="BP14:BQ14"/>
-    <mergeCell ref="BR14:BV14"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BY14:CC14"/>
-    <mergeCell ref="CD14:CE14"/>
-    <mergeCell ref="CF14:CJ14"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BD14:BH14"/>
-    <mergeCell ref="BI14:BJ14"/>
-    <mergeCell ref="BK14:BO14"/>
-    <mergeCell ref="EC13:EG13"/>
-    <mergeCell ref="EJ13:EN13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AT14"/>
-    <mergeCell ref="CM13:CQ13"/>
-    <mergeCell ref="CT13:CX13"/>
-    <mergeCell ref="DA13:DE13"/>
-    <mergeCell ref="DH13:DL13"/>
-    <mergeCell ref="DO13:DS13"/>
-    <mergeCell ref="DV13:DZ13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="BD13:BH13"/>
-    <mergeCell ref="BK13:BO13"/>
-    <mergeCell ref="BR13:BV13"/>
-    <mergeCell ref="BY13:CC13"/>
-    <mergeCell ref="CF13:CJ13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="BY11:EP11"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AI13:AM13"/>
-    <mergeCell ref="AP13:AT13"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H40:H44 H29:H31 H33:H37 H46:H65">
     <cfRule type="expression" dxfId="109" priority="112">
@@ -22088,10 +22090,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="107"/>
-      <c r="F1" s="249" t="s">
+      <c r="F1" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="249"/>
+      <c r="G1" s="250"/>
       <c r="H1" s="107"/>
       <c r="I1" s="108" t="s">
         <v>10</v>

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -2166,7 +2166,23 @@
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="110">
+  <dxfs count="112">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3365,10 +3381,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="12" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="G41" sqref="G41"/>
+      <selection pane="topRight" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -16634,7 +16650,7 @@
       <c r="E40" s="76"/>
       <c r="F40" s="77"/>
       <c r="G40" s="78">
-        <v>42163</v>
+        <v>42146</v>
       </c>
       <c r="H40" s="79" t="s">
         <v>16</v>
@@ -16648,7 +16664,7 @@
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="L40" s="228" t="str">
         <f t="shared" si="22"/>
@@ -21674,97 +21690,97 @@
     <mergeCell ref="CM14:CQ14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H40:H44 H29:H31 H33:H37 H46:H65">
-    <cfRule type="expression" dxfId="109" priority="112">
+    <cfRule type="expression" dxfId="111" priority="112">
       <formula>$H16="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:K65 A16:EP21 A22:H27 J22:EP27 B29:H31 J41:EP41 A41:H41 K48:K65 A33:H34 G32 J34:EP34 J29:J31 N29:EP31 J33 L33:EP33 B35:H37 B40:H40 A35:A40 J35:J37 N35:EP37 J40 N40:EP40 K35:M40 A47:H47 J47:EP47 B46:H46 B42:H44 A42:A46 J46 N46:EP46 J42:J44 N42:EP44 K42:M46 A53:H64 C51:H51 B52:H52 B48:H50 A48:A52 M48:EP65 J48:K64 L48:L66">
-    <cfRule type="expression" dxfId="108" priority="110">
+    <cfRule type="expression" dxfId="110" priority="110">
       <formula>AND($A16&gt;=0,MOD($A16,1)=0,$A16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="111">
+    <cfRule type="expression" dxfId="109" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:EP27 S29:EP31 S35:EP37 S40:EP44 S33:EP33 S46:EP65">
-    <cfRule type="expression" dxfId="106" priority="108">
+    <cfRule type="expression" dxfId="108" priority="108">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="109">
+    <cfRule type="expression" dxfId="107" priority="109">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:EP27 N29:EP31 N40:EP44 N33:EP37 N46:EP65">
-    <cfRule type="expression" dxfId="104" priority="103">
+    <cfRule type="expression" dxfId="106" priority="103">
       <formula>AND($H16="M",$G16=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="104">
+    <cfRule type="expression" dxfId="105" priority="104">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$M16,$M16&lt;&gt;"",$J16&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="105">
+    <cfRule type="expression" dxfId="104" priority="105">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$I16,$M16&lt;&gt;"",$A16&gt;=0,MOD($A16,1)=0,$A16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="106">
+    <cfRule type="expression" dxfId="103" priority="106">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$I16,$M16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="107">
+    <cfRule type="expression" dxfId="102" priority="107">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I27 I34:I64">
-    <cfRule type="expression" dxfId="99" priority="100">
+    <cfRule type="expression" dxfId="101" priority="100">
       <formula>AND($A22&gt;=0,MOD($A22,1)=0,$A22&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="101">
+    <cfRule type="expression" dxfId="100" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34:EP34">
-    <cfRule type="expression" dxfId="97" priority="94">
+    <cfRule type="expression" dxfId="99" priority="94">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="95">
+    <cfRule type="expression" dxfId="98" priority="95">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 K28:EP28 A29:A32 K29:K33 L29:M32">
-    <cfRule type="expression" dxfId="95" priority="83">
+    <cfRule type="expression" dxfId="97" priority="83">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="84">
+    <cfRule type="expression" dxfId="96" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:EP28">
-    <cfRule type="expression" dxfId="93" priority="81">
+    <cfRule type="expression" dxfId="95" priority="81">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="82">
+    <cfRule type="expression" dxfId="94" priority="82">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:EP28">
-    <cfRule type="expression" dxfId="91" priority="76">
+    <cfRule type="expression" dxfId="93" priority="76">
       <formula>AND($H28="M",$G28=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="77">
+    <cfRule type="expression" dxfId="92" priority="77">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$M28,$M28&lt;&gt;"",$J28&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="78">
+    <cfRule type="expression" dxfId="91" priority="78">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$I28,$M28&lt;&gt;"",$A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="79">
+    <cfRule type="expression" dxfId="90" priority="79">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$I28,$M28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="80">
+    <cfRule type="expression" dxfId="89" priority="80">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I33">
-    <cfRule type="expression" dxfId="86" priority="74">
+    <cfRule type="expression" dxfId="88" priority="74">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="75">
+    <cfRule type="expression" dxfId="87" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21787,223 +21803,223 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:G38 N38:EP38">
-    <cfRule type="expression" dxfId="84" priority="70">
+    <cfRule type="expression" dxfId="86" priority="70">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="71">
+    <cfRule type="expression" dxfId="85" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S38:EP38">
-    <cfRule type="expression" dxfId="82" priority="68">
+    <cfRule type="expression" dxfId="84" priority="68">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="69">
+    <cfRule type="expression" dxfId="83" priority="69">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:EP38">
-    <cfRule type="expression" dxfId="80" priority="63">
+    <cfRule type="expression" dxfId="82" priority="63">
       <formula>AND($H38="M",$G38=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="64">
+    <cfRule type="expression" dxfId="81" priority="64">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$M38,$M38&lt;&gt;"",$J38&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="65">
+    <cfRule type="expression" dxfId="80" priority="65">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$I38,$M38&lt;&gt;"",$A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="66">
+    <cfRule type="expression" dxfId="79" priority="66">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$I38,$M38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="67">
+    <cfRule type="expression" dxfId="78" priority="67">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="expression" dxfId="75" priority="59">
+    <cfRule type="expression" dxfId="77" priority="59">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="60">
+    <cfRule type="expression" dxfId="76" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="73" priority="57">
+    <cfRule type="expression" dxfId="75" priority="57">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="58">
+    <cfRule type="expression" dxfId="74" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="71" priority="50">
+    <cfRule type="expression" dxfId="73" priority="50">
       <formula>$H28="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="70" priority="48">
+    <cfRule type="expression" dxfId="72" priority="48">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="49">
+    <cfRule type="expression" dxfId="71" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="68" priority="53">
+    <cfRule type="expression" dxfId="70" priority="53">
       <formula>$H38="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="67" priority="51">
+    <cfRule type="expression" dxfId="69" priority="51">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="52">
+    <cfRule type="expression" dxfId="68" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="65" priority="46">
+    <cfRule type="expression" dxfId="67" priority="46">
       <formula>$H32="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:F32 H32 J32 N32:EP32">
-    <cfRule type="expression" dxfId="64" priority="44">
+    <cfRule type="expression" dxfId="66" priority="44">
       <formula>AND($A32&gt;=0,MOD($A32,1)=0,$A32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="45">
+    <cfRule type="expression" dxfId="65" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:EP32">
-    <cfRule type="expression" dxfId="62" priority="42">
+    <cfRule type="expression" dxfId="64" priority="42">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="43">
+    <cfRule type="expression" dxfId="63" priority="43">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:EP32">
-    <cfRule type="expression" dxfId="60" priority="37">
+    <cfRule type="expression" dxfId="62" priority="37">
       <formula>AND($H32="M",$G32=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="38">
+    <cfRule type="expression" dxfId="61" priority="38">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$M32,$M32&lt;&gt;"",$J32&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="39">
+    <cfRule type="expression" dxfId="60" priority="39">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$I32,$M32&lt;&gt;"",$A32&gt;=0,MOD($A32,1)=0,$A32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="40">
+    <cfRule type="expression" dxfId="59" priority="40">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$I32,$M32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="41">
+    <cfRule type="expression" dxfId="58" priority="41">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="55" priority="18">
+    <cfRule type="expression" dxfId="57" priority="18">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="19">
+    <cfRule type="expression" dxfId="56" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:G39 N39:EP39">
-    <cfRule type="expression" dxfId="53" priority="32">
+    <cfRule type="expression" dxfId="55" priority="32">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="33">
+    <cfRule type="expression" dxfId="54" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S39:EP39">
-    <cfRule type="expression" dxfId="51" priority="30">
+    <cfRule type="expression" dxfId="53" priority="30">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="31">
+    <cfRule type="expression" dxfId="52" priority="31">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:EP39">
-    <cfRule type="expression" dxfId="49" priority="25">
+    <cfRule type="expression" dxfId="51" priority="25">
       <formula>AND($H39="M",$G39=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="26">
+    <cfRule type="expression" dxfId="50" priority="26">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$M39,$M39&lt;&gt;"",$J39&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="27">
+    <cfRule type="expression" dxfId="49" priority="27">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$I39,$M39&lt;&gt;"",$A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="28">
+    <cfRule type="expression" dxfId="48" priority="28">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$I39,$M39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="29">
+    <cfRule type="expression" dxfId="47" priority="29">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="44" priority="21">
+    <cfRule type="expression" dxfId="46" priority="21">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="22">
+    <cfRule type="expression" dxfId="45" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="42" priority="20">
+    <cfRule type="expression" dxfId="44" priority="20">
       <formula>$H39="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="41" priority="16">
+    <cfRule type="expression" dxfId="43" priority="16">
       <formula>$H45="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45 C45:H45 N45:EP45">
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="42" priority="14">
       <formula>AND($A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="15">
+    <cfRule type="expression" dxfId="41" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S45:EP45">
-    <cfRule type="expression" dxfId="38" priority="12">
+    <cfRule type="expression" dxfId="40" priority="12">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="13">
+    <cfRule type="expression" dxfId="39" priority="13">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45:EP45">
-    <cfRule type="expression" dxfId="36" priority="7">
+    <cfRule type="expression" dxfId="38" priority="7">
       <formula>AND($H45="M",$G45=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="8">
+    <cfRule type="expression" dxfId="37" priority="8">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$M45,$M45&lt;&gt;"",$J45&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="9">
+    <cfRule type="expression" dxfId="36" priority="9">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$I45,$M45&lt;&gt;"",$A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="10">
+    <cfRule type="expression" dxfId="35" priority="10">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$I45,$M45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="11">
+    <cfRule type="expression" dxfId="34" priority="11">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>AND($A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>AND($A51&gt;=0,MOD($A51,1)=0,$A51&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25849,15 +25865,15 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="AW2">
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>$H2="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AW2 AY2:BB2">
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="28" priority="30">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25871,23 +25887,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX2">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="28">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW7">
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$H7="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ7:AW7 AY7:BB7">
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25901,23 +25917,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX7">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW12">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$H12="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ12:AW12 AY12:BB12">
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25931,23 +25947,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX12">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW17">
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$H17="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ17:AW17 AY17:BB17">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25961,42 +25977,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX17">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP7">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -2109,27 +2109,6 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2157,6 +2136,27 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2166,23 +2166,7 @@
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="112">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="110">
     <dxf>
       <fill>
         <patternFill>
@@ -3381,10 +3365,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <pane xSplit="12" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <pane xSplit="12" topLeftCell="AF1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="I41" sqref="I41"/>
+      <selection pane="topRight" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7967,10 +7951,10 @@
       <c r="G7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="243">
+      <c r="H7" s="236">
         <v>42088</v>
       </c>
-      <c r="I7" s="243"/>
+      <c r="I7" s="236"/>
       <c r="K7" s="27"/>
       <c r="L7" s="217"/>
       <c r="M7" s="217"/>
@@ -10232,17 +10216,17 @@
       <c r="ACA9" s="34"/>
     </row>
     <row r="10" spans="1:755" s="22" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="244"/>
-      <c r="B10" s="244"/>
+      <c r="A10" s="237"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="245"/>
-      <c r="G10" s="245"/>
-      <c r="H10" s="245"/>
-      <c r="I10" s="245"/>
-      <c r="J10" s="245"/>
-      <c r="K10" s="245"/>
+      <c r="F10" s="238"/>
+      <c r="G10" s="238"/>
+      <c r="H10" s="238"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="238"/>
       <c r="L10" s="220"/>
       <c r="M10" s="220"/>
       <c r="N10" s="201"/>
@@ -10989,19 +10973,19 @@
       <c r="ACA10" s="34"/>
     </row>
     <row r="11" spans="1:755" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="246" t="s">
+      <c r="A11" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="247"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="247"/>
-      <c r="E11" s="247"/>
-      <c r="F11" s="247"/>
-      <c r="G11" s="247"/>
-      <c r="H11" s="247"/>
-      <c r="I11" s="247"/>
-      <c r="J11" s="247"/>
-      <c r="K11" s="247"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="240"/>
+      <c r="K11" s="240"/>
       <c r="L11" s="221"/>
       <c r="M11" s="221"/>
       <c r="N11" s="202"/>
@@ -11067,78 +11051,78 @@
       <c r="BV11" s="36"/>
       <c r="BW11" s="36"/>
       <c r="BX11" s="36"/>
-      <c r="BY11" s="248" t="s">
+      <c r="BY11" s="241" t="s">
         <v>2</v>
       </c>
-      <c r="BZ11" s="248"/>
-      <c r="CA11" s="248"/>
-      <c r="CB11" s="248"/>
-      <c r="CC11" s="248"/>
-      <c r="CD11" s="248"/>
-      <c r="CE11" s="248"/>
-      <c r="CF11" s="248"/>
-      <c r="CG11" s="248"/>
-      <c r="CH11" s="248"/>
-      <c r="CI11" s="248"/>
-      <c r="CJ11" s="248"/>
-      <c r="CK11" s="248"/>
-      <c r="CL11" s="248"/>
-      <c r="CM11" s="248"/>
-      <c r="CN11" s="248"/>
-      <c r="CO11" s="248"/>
-      <c r="CP11" s="248"/>
-      <c r="CQ11" s="248"/>
-      <c r="CR11" s="248"/>
-      <c r="CS11" s="248"/>
-      <c r="CT11" s="248"/>
-      <c r="CU11" s="248"/>
-      <c r="CV11" s="248"/>
-      <c r="CW11" s="248"/>
-      <c r="CX11" s="248"/>
-      <c r="CY11" s="248"/>
-      <c r="CZ11" s="248"/>
-      <c r="DA11" s="248"/>
-      <c r="DB11" s="248"/>
-      <c r="DC11" s="248"/>
-      <c r="DD11" s="248"/>
-      <c r="DE11" s="248"/>
-      <c r="DF11" s="248"/>
-      <c r="DG11" s="248"/>
-      <c r="DH11" s="248"/>
-      <c r="DI11" s="248"/>
-      <c r="DJ11" s="248"/>
-      <c r="DK11" s="248"/>
-      <c r="DL11" s="248"/>
-      <c r="DM11" s="248"/>
-      <c r="DN11" s="248"/>
-      <c r="DO11" s="248"/>
-      <c r="DP11" s="248"/>
-      <c r="DQ11" s="248"/>
-      <c r="DR11" s="248"/>
-      <c r="DS11" s="248"/>
-      <c r="DT11" s="248"/>
-      <c r="DU11" s="248"/>
-      <c r="DV11" s="248"/>
-      <c r="DW11" s="248"/>
-      <c r="DX11" s="248"/>
-      <c r="DY11" s="248"/>
-      <c r="DZ11" s="248"/>
-      <c r="EA11" s="248"/>
-      <c r="EB11" s="248"/>
-      <c r="EC11" s="248"/>
-      <c r="ED11" s="248"/>
-      <c r="EE11" s="248"/>
-      <c r="EF11" s="248"/>
-      <c r="EG11" s="248"/>
-      <c r="EH11" s="248"/>
-      <c r="EI11" s="248"/>
-      <c r="EJ11" s="248"/>
-      <c r="EK11" s="248"/>
-      <c r="EL11" s="248"/>
-      <c r="EM11" s="248"/>
-      <c r="EN11" s="248"/>
-      <c r="EO11" s="248"/>
-      <c r="EP11" s="249"/>
+      <c r="BZ11" s="241"/>
+      <c r="CA11" s="241"/>
+      <c r="CB11" s="241"/>
+      <c r="CC11" s="241"/>
+      <c r="CD11" s="241"/>
+      <c r="CE11" s="241"/>
+      <c r="CF11" s="241"/>
+      <c r="CG11" s="241"/>
+      <c r="CH11" s="241"/>
+      <c r="CI11" s="241"/>
+      <c r="CJ11" s="241"/>
+      <c r="CK11" s="241"/>
+      <c r="CL11" s="241"/>
+      <c r="CM11" s="241"/>
+      <c r="CN11" s="241"/>
+      <c r="CO11" s="241"/>
+      <c r="CP11" s="241"/>
+      <c r="CQ11" s="241"/>
+      <c r="CR11" s="241"/>
+      <c r="CS11" s="241"/>
+      <c r="CT11" s="241"/>
+      <c r="CU11" s="241"/>
+      <c r="CV11" s="241"/>
+      <c r="CW11" s="241"/>
+      <c r="CX11" s="241"/>
+      <c r="CY11" s="241"/>
+      <c r="CZ11" s="241"/>
+      <c r="DA11" s="241"/>
+      <c r="DB11" s="241"/>
+      <c r="DC11" s="241"/>
+      <c r="DD11" s="241"/>
+      <c r="DE11" s="241"/>
+      <c r="DF11" s="241"/>
+      <c r="DG11" s="241"/>
+      <c r="DH11" s="241"/>
+      <c r="DI11" s="241"/>
+      <c r="DJ11" s="241"/>
+      <c r="DK11" s="241"/>
+      <c r="DL11" s="241"/>
+      <c r="DM11" s="241"/>
+      <c r="DN11" s="241"/>
+      <c r="DO11" s="241"/>
+      <c r="DP11" s="241"/>
+      <c r="DQ11" s="241"/>
+      <c r="DR11" s="241"/>
+      <c r="DS11" s="241"/>
+      <c r="DT11" s="241"/>
+      <c r="DU11" s="241"/>
+      <c r="DV11" s="241"/>
+      <c r="DW11" s="241"/>
+      <c r="DX11" s="241"/>
+      <c r="DY11" s="241"/>
+      <c r="DZ11" s="241"/>
+      <c r="EA11" s="241"/>
+      <c r="EB11" s="241"/>
+      <c r="EC11" s="241"/>
+      <c r="ED11" s="241"/>
+      <c r="EE11" s="241"/>
+      <c r="EF11" s="241"/>
+      <c r="EG11" s="241"/>
+      <c r="EH11" s="241"/>
+      <c r="EI11" s="241"/>
+      <c r="EJ11" s="241"/>
+      <c r="EK11" s="241"/>
+      <c r="EL11" s="241"/>
+      <c r="EM11" s="241"/>
+      <c r="EN11" s="241"/>
+      <c r="EO11" s="241"/>
+      <c r="EP11" s="242"/>
     </row>
     <row r="12" spans="1:755" s="37" customFormat="1" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -11701,194 +11685,194 @@
       <c r="K13" s="44"/>
       <c r="L13" s="223"/>
       <c r="M13" s="223"/>
-      <c r="N13" s="242" t="str">
+      <c r="N13" s="235" t="str">
         <f>"KW " &amp; TRUNC((N12-DATE(YEAR(N12+3-MOD(N12-2,7)),1,MOD(N12-2,7)-9))/7)</f>
         <v>KW 13</v>
       </c>
-      <c r="O13" s="242"/>
-      <c r="P13" s="242"/>
-      <c r="Q13" s="242"/>
-      <c r="R13" s="242"/>
+      <c r="O13" s="235"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="235"/>
+      <c r="R13" s="235"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="242" t="str">
+      <c r="U13" s="235" t="str">
         <f t="shared" ref="U13" si="3">"KW " &amp; TRUNC((U12-DATE(YEAR(U12+3-MOD(U12-2,7)),1,MOD(U12-2,7)-9))/7)</f>
         <v>KW 14</v>
       </c>
-      <c r="V13" s="242"/>
-      <c r="W13" s="242"/>
-      <c r="X13" s="242"/>
-      <c r="Y13" s="242"/>
+      <c r="V13" s="235"/>
+      <c r="W13" s="235"/>
+      <c r="X13" s="235"/>
+      <c r="Y13" s="235"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="46"/>
-      <c r="AB13" s="242" t="str">
+      <c r="AB13" s="235" t="str">
         <f t="shared" ref="AB13" si="4">"KW " &amp; TRUNC((AB12-DATE(YEAR(AB12+3-MOD(AB12-2,7)),1,MOD(AB12-2,7)-9))/7)</f>
         <v>KW 15</v>
       </c>
-      <c r="AC13" s="242"/>
-      <c r="AD13" s="242"/>
-      <c r="AE13" s="242"/>
-      <c r="AF13" s="242"/>
+      <c r="AC13" s="235"/>
+      <c r="AD13" s="235"/>
+      <c r="AE13" s="235"/>
+      <c r="AF13" s="235"/>
       <c r="AG13" s="46"/>
       <c r="AH13" s="46"/>
-      <c r="AI13" s="242" t="str">
+      <c r="AI13" s="235" t="str">
         <f t="shared" ref="AI13" si="5">"KW " &amp; TRUNC((AI12-DATE(YEAR(AI12+3-MOD(AI12-2,7)),1,MOD(AI12-2,7)-9))/7)</f>
         <v>KW 16</v>
       </c>
-      <c r="AJ13" s="242"/>
-      <c r="AK13" s="242"/>
-      <c r="AL13" s="242"/>
-      <c r="AM13" s="242"/>
+      <c r="AJ13" s="235"/>
+      <c r="AK13" s="235"/>
+      <c r="AL13" s="235"/>
+      <c r="AM13" s="235"/>
       <c r="AN13" s="46"/>
       <c r="AO13" s="46"/>
-      <c r="AP13" s="242" t="str">
+      <c r="AP13" s="235" t="str">
         <f t="shared" ref="AP13" si="6">"KW " &amp; TRUNC((AP12-DATE(YEAR(AP12+3-MOD(AP12-2,7)),1,MOD(AP12-2,7)-9))/7)</f>
         <v>KW 17</v>
       </c>
-      <c r="AQ13" s="242"/>
-      <c r="AR13" s="242"/>
-      <c r="AS13" s="242"/>
-      <c r="AT13" s="242"/>
+      <c r="AQ13" s="235"/>
+      <c r="AR13" s="235"/>
+      <c r="AS13" s="235"/>
+      <c r="AT13" s="235"/>
       <c r="AU13" s="46"/>
       <c r="AV13" s="46"/>
-      <c r="AW13" s="242" t="str">
+      <c r="AW13" s="235" t="str">
         <f t="shared" ref="AW13" si="7">"KW " &amp; TRUNC((AW12-DATE(YEAR(AW12+3-MOD(AW12-2,7)),1,MOD(AW12-2,7)-9))/7)</f>
         <v>KW 18</v>
       </c>
-      <c r="AX13" s="242"/>
-      <c r="AY13" s="242"/>
-      <c r="AZ13" s="242"/>
-      <c r="BA13" s="242"/>
+      <c r="AX13" s="235"/>
+      <c r="AY13" s="235"/>
+      <c r="AZ13" s="235"/>
+      <c r="BA13" s="235"/>
       <c r="BB13" s="46"/>
       <c r="BC13" s="46"/>
-      <c r="BD13" s="242" t="str">
+      <c r="BD13" s="235" t="str">
         <f t="shared" ref="BD13" si="8">"KW " &amp; TRUNC((BD12-DATE(YEAR(BD12+3-MOD(BD12-2,7)),1,MOD(BD12-2,7)-9))/7)</f>
         <v>KW 19</v>
       </c>
-      <c r="BE13" s="242"/>
-      <c r="BF13" s="242"/>
-      <c r="BG13" s="242"/>
-      <c r="BH13" s="242"/>
+      <c r="BE13" s="235"/>
+      <c r="BF13" s="235"/>
+      <c r="BG13" s="235"/>
+      <c r="BH13" s="235"/>
       <c r="BI13" s="46"/>
       <c r="BJ13" s="46"/>
-      <c r="BK13" s="242" t="str">
+      <c r="BK13" s="235" t="str">
         <f t="shared" ref="BK13" si="9">"KW " &amp; TRUNC((BK12-DATE(YEAR(BK12+3-MOD(BK12-2,7)),1,MOD(BK12-2,7)-9))/7)</f>
         <v>KW 20</v>
       </c>
-      <c r="BL13" s="242"/>
-      <c r="BM13" s="242"/>
-      <c r="BN13" s="242"/>
-      <c r="BO13" s="242"/>
+      <c r="BL13" s="235"/>
+      <c r="BM13" s="235"/>
+      <c r="BN13" s="235"/>
+      <c r="BO13" s="235"/>
       <c r="BP13" s="46"/>
       <c r="BQ13" s="46"/>
-      <c r="BR13" s="242" t="str">
+      <c r="BR13" s="235" t="str">
         <f t="shared" ref="BR13" si="10">"KW " &amp; TRUNC((BR12-DATE(YEAR(BR12+3-MOD(BR12-2,7)),1,MOD(BR12-2,7)-9))/7)</f>
         <v>KW 21</v>
       </c>
-      <c r="BS13" s="242"/>
-      <c r="BT13" s="242"/>
-      <c r="BU13" s="242"/>
-      <c r="BV13" s="242"/>
+      <c r="BS13" s="235"/>
+      <c r="BT13" s="235"/>
+      <c r="BU13" s="235"/>
+      <c r="BV13" s="235"/>
       <c r="BW13" s="46"/>
       <c r="BX13" s="46"/>
-      <c r="BY13" s="242" t="str">
+      <c r="BY13" s="235" t="str">
         <f t="shared" ref="BY13" si="11">"KW " &amp; TRUNC((BY12-DATE(YEAR(BY12+3-MOD(BY12-2,7)),1,MOD(BY12-2,7)-9))/7)</f>
         <v>KW 22</v>
       </c>
-      <c r="BZ13" s="242"/>
-      <c r="CA13" s="242"/>
-      <c r="CB13" s="242"/>
-      <c r="CC13" s="242"/>
+      <c r="BZ13" s="235"/>
+      <c r="CA13" s="235"/>
+      <c r="CB13" s="235"/>
+      <c r="CC13" s="235"/>
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
-      <c r="CF13" s="242" t="str">
+      <c r="CF13" s="235" t="str">
         <f t="shared" ref="CF13" si="12">"KW " &amp; TRUNC((CF12-DATE(YEAR(CF12+3-MOD(CF12-2,7)),1,MOD(CF12-2,7)-9))/7)</f>
         <v>KW 23</v>
       </c>
-      <c r="CG13" s="242"/>
-      <c r="CH13" s="242"/>
-      <c r="CI13" s="242"/>
-      <c r="CJ13" s="242"/>
+      <c r="CG13" s="235"/>
+      <c r="CH13" s="235"/>
+      <c r="CI13" s="235"/>
+      <c r="CJ13" s="235"/>
       <c r="CK13" s="46"/>
       <c r="CL13" s="46"/>
-      <c r="CM13" s="242" t="str">
+      <c r="CM13" s="235" t="str">
         <f t="shared" ref="CM13" si="13">"KW " &amp; TRUNC((CM12-DATE(YEAR(CM12+3-MOD(CM12-2,7)),1,MOD(CM12-2,7)-9))/7)</f>
         <v>KW 24</v>
       </c>
-      <c r="CN13" s="242"/>
-      <c r="CO13" s="242"/>
-      <c r="CP13" s="242"/>
-      <c r="CQ13" s="242"/>
+      <c r="CN13" s="235"/>
+      <c r="CO13" s="235"/>
+      <c r="CP13" s="235"/>
+      <c r="CQ13" s="235"/>
       <c r="CR13" s="46"/>
       <c r="CS13" s="46"/>
-      <c r="CT13" s="242" t="str">
+      <c r="CT13" s="235" t="str">
         <f t="shared" ref="CT13" si="14">"KW " &amp; TRUNC((CT12-DATE(YEAR(CT12+3-MOD(CT12-2,7)),1,MOD(CT12-2,7)-9))/7)</f>
         <v>KW 25</v>
       </c>
-      <c r="CU13" s="242"/>
-      <c r="CV13" s="242"/>
-      <c r="CW13" s="242"/>
-      <c r="CX13" s="242"/>
+      <c r="CU13" s="235"/>
+      <c r="CV13" s="235"/>
+      <c r="CW13" s="235"/>
+      <c r="CX13" s="235"/>
       <c r="CY13" s="46"/>
       <c r="CZ13" s="46"/>
-      <c r="DA13" s="242" t="str">
+      <c r="DA13" s="235" t="str">
         <f t="shared" ref="DA13" si="15">"KW " &amp; TRUNC((DA12-DATE(YEAR(DA12+3-MOD(DA12-2,7)),1,MOD(DA12-2,7)-9))/7)</f>
         <v>KW 26</v>
       </c>
-      <c r="DB13" s="242"/>
-      <c r="DC13" s="242"/>
-      <c r="DD13" s="242"/>
-      <c r="DE13" s="242"/>
+      <c r="DB13" s="235"/>
+      <c r="DC13" s="235"/>
+      <c r="DD13" s="235"/>
+      <c r="DE13" s="235"/>
       <c r="DF13" s="46"/>
       <c r="DG13" s="46"/>
-      <c r="DH13" s="242" t="str">
+      <c r="DH13" s="235" t="str">
         <f t="shared" ref="DH13" si="16">"KW " &amp; TRUNC((DH12-DATE(YEAR(DH12+3-MOD(DH12-2,7)),1,MOD(DH12-2,7)-9))/7)</f>
         <v>KW 27</v>
       </c>
-      <c r="DI13" s="242"/>
-      <c r="DJ13" s="242"/>
-      <c r="DK13" s="242"/>
-      <c r="DL13" s="242"/>
+      <c r="DI13" s="235"/>
+      <c r="DJ13" s="235"/>
+      <c r="DK13" s="235"/>
+      <c r="DL13" s="235"/>
       <c r="DM13" s="46"/>
       <c r="DN13" s="46"/>
-      <c r="DO13" s="242" t="str">
+      <c r="DO13" s="235" t="str">
         <f t="shared" ref="DO13" si="17">"KW " &amp; TRUNC((DO12-DATE(YEAR(DO12+3-MOD(DO12-2,7)),1,MOD(DO12-2,7)-9))/7)</f>
         <v>KW 28</v>
       </c>
-      <c r="DP13" s="242"/>
-      <c r="DQ13" s="242"/>
-      <c r="DR13" s="242"/>
-      <c r="DS13" s="242"/>
+      <c r="DP13" s="235"/>
+      <c r="DQ13" s="235"/>
+      <c r="DR13" s="235"/>
+      <c r="DS13" s="235"/>
       <c r="DT13" s="46"/>
       <c r="DU13" s="46"/>
-      <c r="DV13" s="242" t="str">
+      <c r="DV13" s="235" t="str">
         <f t="shared" ref="DV13" si="18">"KW " &amp; TRUNC((DV12-DATE(YEAR(DV12+3-MOD(DV12-2,7)),1,MOD(DV12-2,7)-9))/7)</f>
         <v>KW 29</v>
       </c>
-      <c r="DW13" s="242"/>
-      <c r="DX13" s="242"/>
-      <c r="DY13" s="242"/>
-      <c r="DZ13" s="242"/>
+      <c r="DW13" s="235"/>
+      <c r="DX13" s="235"/>
+      <c r="DY13" s="235"/>
+      <c r="DZ13" s="235"/>
       <c r="EA13" s="46"/>
       <c r="EB13" s="46"/>
-      <c r="EC13" s="242" t="str">
+      <c r="EC13" s="235" t="str">
         <f t="shared" ref="EC13" si="19">"KW " &amp; TRUNC((EC12-DATE(YEAR(EC12+3-MOD(EC12-2,7)),1,MOD(EC12-2,7)-9))/7)</f>
         <v>KW 30</v>
       </c>
-      <c r="ED13" s="242"/>
-      <c r="EE13" s="242"/>
-      <c r="EF13" s="242"/>
-      <c r="EG13" s="242"/>
+      <c r="ED13" s="235"/>
+      <c r="EE13" s="235"/>
+      <c r="EF13" s="235"/>
+      <c r="EG13" s="235"/>
       <c r="EH13" s="46"/>
       <c r="EI13" s="46"/>
-      <c r="EJ13" s="242" t="str">
+      <c r="EJ13" s="235" t="str">
         <f t="shared" ref="EJ13" si="20">"KW " &amp; TRUNC((EJ12-DATE(YEAR(EJ12+3-MOD(EJ12-2,7)),1,MOD(EJ12-2,7)-9))/7)</f>
         <v>KW 31</v>
       </c>
-      <c r="EK13" s="242"/>
-      <c r="EL13" s="242"/>
-      <c r="EM13" s="242"/>
-      <c r="EN13" s="242"/>
+      <c r="EK13" s="235"/>
+      <c r="EL13" s="235"/>
+      <c r="EM13" s="235"/>
+      <c r="EN13" s="235"/>
       <c r="EO13" s="46"/>
       <c r="EP13" s="47"/>
     </row>
@@ -11930,196 +11914,196 @@
       <c r="M14" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="236">
+      <c r="N14" s="243">
         <f>N12</f>
         <v>42086</v>
       </c>
-      <c r="O14" s="236"/>
-      <c r="P14" s="236"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="236"/>
+      <c r="O14" s="243"/>
+      <c r="P14" s="243"/>
+      <c r="Q14" s="243"/>
+      <c r="R14" s="243"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
-      <c r="U14" s="236">
+      <c r="U14" s="243">
         <f>U12</f>
         <v>42093</v>
       </c>
-      <c r="V14" s="236"/>
-      <c r="W14" s="236"/>
-      <c r="X14" s="236"/>
-      <c r="Y14" s="236"/>
-      <c r="Z14" s="236"/>
-      <c r="AA14" s="236"/>
-      <c r="AB14" s="236">
+      <c r="V14" s="243"/>
+      <c r="W14" s="243"/>
+      <c r="X14" s="243"/>
+      <c r="Y14" s="243"/>
+      <c r="Z14" s="243"/>
+      <c r="AA14" s="243"/>
+      <c r="AB14" s="243">
         <f>AB12</f>
         <v>42100</v>
       </c>
-      <c r="AC14" s="236"/>
-      <c r="AD14" s="236"/>
-      <c r="AE14" s="236"/>
-      <c r="AF14" s="236"/>
-      <c r="AG14" s="236"/>
-      <c r="AH14" s="236"/>
-      <c r="AI14" s="236">
+      <c r="AC14" s="243"/>
+      <c r="AD14" s="243"/>
+      <c r="AE14" s="243"/>
+      <c r="AF14" s="243"/>
+      <c r="AG14" s="243"/>
+      <c r="AH14" s="243"/>
+      <c r="AI14" s="243">
         <f>AI12</f>
         <v>42107</v>
       </c>
-      <c r="AJ14" s="236"/>
-      <c r="AK14" s="236"/>
-      <c r="AL14" s="236"/>
-      <c r="AM14" s="236"/>
-      <c r="AN14" s="236"/>
-      <c r="AO14" s="236"/>
-      <c r="AP14" s="236">
+      <c r="AJ14" s="243"/>
+      <c r="AK14" s="243"/>
+      <c r="AL14" s="243"/>
+      <c r="AM14" s="243"/>
+      <c r="AN14" s="243"/>
+      <c r="AO14" s="243"/>
+      <c r="AP14" s="243">
         <f>AP12</f>
         <v>42114</v>
       </c>
-      <c r="AQ14" s="236"/>
-      <c r="AR14" s="236"/>
-      <c r="AS14" s="236"/>
-      <c r="AT14" s="236"/>
-      <c r="AU14" s="236"/>
-      <c r="AV14" s="236"/>
-      <c r="AW14" s="236">
+      <c r="AQ14" s="243"/>
+      <c r="AR14" s="243"/>
+      <c r="AS14" s="243"/>
+      <c r="AT14" s="243"/>
+      <c r="AU14" s="243"/>
+      <c r="AV14" s="243"/>
+      <c r="AW14" s="243">
         <f>AW12</f>
         <v>42121</v>
       </c>
-      <c r="AX14" s="236"/>
-      <c r="AY14" s="236"/>
-      <c r="AZ14" s="236"/>
-      <c r="BA14" s="236"/>
-      <c r="BB14" s="236"/>
-      <c r="BC14" s="236"/>
-      <c r="BD14" s="236">
+      <c r="AX14" s="243"/>
+      <c r="AY14" s="243"/>
+      <c r="AZ14" s="243"/>
+      <c r="BA14" s="243"/>
+      <c r="BB14" s="243"/>
+      <c r="BC14" s="243"/>
+      <c r="BD14" s="243">
         <f>BD12</f>
         <v>42128</v>
       </c>
-      <c r="BE14" s="236"/>
-      <c r="BF14" s="236"/>
-      <c r="BG14" s="236"/>
-      <c r="BH14" s="236"/>
-      <c r="BI14" s="236"/>
-      <c r="BJ14" s="236"/>
-      <c r="BK14" s="236">
+      <c r="BE14" s="243"/>
+      <c r="BF14" s="243"/>
+      <c r="BG14" s="243"/>
+      <c r="BH14" s="243"/>
+      <c r="BI14" s="243"/>
+      <c r="BJ14" s="243"/>
+      <c r="BK14" s="243">
         <f>BK12</f>
         <v>42135</v>
       </c>
-      <c r="BL14" s="236"/>
-      <c r="BM14" s="236"/>
-      <c r="BN14" s="236"/>
-      <c r="BO14" s="236"/>
-      <c r="BP14" s="236"/>
-      <c r="BQ14" s="236"/>
-      <c r="BR14" s="236">
+      <c r="BL14" s="243"/>
+      <c r="BM14" s="243"/>
+      <c r="BN14" s="243"/>
+      <c r="BO14" s="243"/>
+      <c r="BP14" s="243"/>
+      <c r="BQ14" s="243"/>
+      <c r="BR14" s="243">
         <f>BR12</f>
         <v>42142</v>
       </c>
-      <c r="BS14" s="236"/>
-      <c r="BT14" s="236"/>
-      <c r="BU14" s="236"/>
-      <c r="BV14" s="236"/>
-      <c r="BW14" s="236"/>
-      <c r="BX14" s="236"/>
-      <c r="BY14" s="236">
+      <c r="BS14" s="243"/>
+      <c r="BT14" s="243"/>
+      <c r="BU14" s="243"/>
+      <c r="BV14" s="243"/>
+      <c r="BW14" s="243"/>
+      <c r="BX14" s="243"/>
+      <c r="BY14" s="243">
         <f>BY12</f>
         <v>42149</v>
       </c>
-      <c r="BZ14" s="236"/>
-      <c r="CA14" s="236"/>
-      <c r="CB14" s="236"/>
-      <c r="CC14" s="236"/>
-      <c r="CD14" s="236"/>
-      <c r="CE14" s="236"/>
-      <c r="CF14" s="236">
+      <c r="BZ14" s="243"/>
+      <c r="CA14" s="243"/>
+      <c r="CB14" s="243"/>
+      <c r="CC14" s="243"/>
+      <c r="CD14" s="243"/>
+      <c r="CE14" s="243"/>
+      <c r="CF14" s="243">
         <f>CF12</f>
         <v>42156</v>
       </c>
-      <c r="CG14" s="236"/>
-      <c r="CH14" s="236"/>
-      <c r="CI14" s="236"/>
-      <c r="CJ14" s="236"/>
-      <c r="CK14" s="236"/>
-      <c r="CL14" s="236"/>
-      <c r="CM14" s="236">
+      <c r="CG14" s="243"/>
+      <c r="CH14" s="243"/>
+      <c r="CI14" s="243"/>
+      <c r="CJ14" s="243"/>
+      <c r="CK14" s="243"/>
+      <c r="CL14" s="243"/>
+      <c r="CM14" s="243">
         <f>CM12</f>
         <v>42163</v>
       </c>
-      <c r="CN14" s="236"/>
-      <c r="CO14" s="236"/>
-      <c r="CP14" s="236"/>
-      <c r="CQ14" s="236"/>
-      <c r="CR14" s="236"/>
-      <c r="CS14" s="236"/>
-      <c r="CT14" s="236">
+      <c r="CN14" s="243"/>
+      <c r="CO14" s="243"/>
+      <c r="CP14" s="243"/>
+      <c r="CQ14" s="243"/>
+      <c r="CR14" s="243"/>
+      <c r="CS14" s="243"/>
+      <c r="CT14" s="243">
         <f>CT12</f>
         <v>42170</v>
       </c>
-      <c r="CU14" s="236"/>
-      <c r="CV14" s="236"/>
-      <c r="CW14" s="236"/>
-      <c r="CX14" s="236"/>
-      <c r="CY14" s="236"/>
-      <c r="CZ14" s="236"/>
-      <c r="DA14" s="236">
+      <c r="CU14" s="243"/>
+      <c r="CV14" s="243"/>
+      <c r="CW14" s="243"/>
+      <c r="CX14" s="243"/>
+      <c r="CY14" s="243"/>
+      <c r="CZ14" s="243"/>
+      <c r="DA14" s="243">
         <f>DA12</f>
         <v>42177</v>
       </c>
-      <c r="DB14" s="236"/>
-      <c r="DC14" s="236"/>
-      <c r="DD14" s="236"/>
-      <c r="DE14" s="236"/>
-      <c r="DF14" s="236"/>
-      <c r="DG14" s="236"/>
-      <c r="DH14" s="236">
+      <c r="DB14" s="243"/>
+      <c r="DC14" s="243"/>
+      <c r="DD14" s="243"/>
+      <c r="DE14" s="243"/>
+      <c r="DF14" s="243"/>
+      <c r="DG14" s="243"/>
+      <c r="DH14" s="243">
         <f>DH12</f>
         <v>42184</v>
       </c>
-      <c r="DI14" s="236"/>
-      <c r="DJ14" s="236"/>
-      <c r="DK14" s="236"/>
-      <c r="DL14" s="236"/>
-      <c r="DM14" s="236"/>
-      <c r="DN14" s="236"/>
-      <c r="DO14" s="236">
+      <c r="DI14" s="243"/>
+      <c r="DJ14" s="243"/>
+      <c r="DK14" s="243"/>
+      <c r="DL14" s="243"/>
+      <c r="DM14" s="243"/>
+      <c r="DN14" s="243"/>
+      <c r="DO14" s="243">
         <f>DO12</f>
         <v>42191</v>
       </c>
-      <c r="DP14" s="236"/>
-      <c r="DQ14" s="236"/>
-      <c r="DR14" s="236"/>
-      <c r="DS14" s="236"/>
-      <c r="DT14" s="236"/>
-      <c r="DU14" s="236"/>
-      <c r="DV14" s="236">
+      <c r="DP14" s="243"/>
+      <c r="DQ14" s="243"/>
+      <c r="DR14" s="243"/>
+      <c r="DS14" s="243"/>
+      <c r="DT14" s="243"/>
+      <c r="DU14" s="243"/>
+      <c r="DV14" s="243">
         <f>DV12</f>
         <v>42198</v>
       </c>
-      <c r="DW14" s="236"/>
-      <c r="DX14" s="236"/>
-      <c r="DY14" s="236"/>
-      <c r="DZ14" s="236"/>
-      <c r="EA14" s="236"/>
-      <c r="EB14" s="236"/>
-      <c r="EC14" s="236">
+      <c r="DW14" s="243"/>
+      <c r="DX14" s="243"/>
+      <c r="DY14" s="243"/>
+      <c r="DZ14" s="243"/>
+      <c r="EA14" s="243"/>
+      <c r="EB14" s="243"/>
+      <c r="EC14" s="243">
         <f>EC12</f>
         <v>42205</v>
       </c>
-      <c r="ED14" s="236"/>
-      <c r="EE14" s="236"/>
-      <c r="EF14" s="236"/>
-      <c r="EG14" s="236"/>
-      <c r="EH14" s="236"/>
-      <c r="EI14" s="236"/>
-      <c r="EJ14" s="236">
+      <c r="ED14" s="243"/>
+      <c r="EE14" s="243"/>
+      <c r="EF14" s="243"/>
+      <c r="EG14" s="243"/>
+      <c r="EH14" s="243"/>
+      <c r="EI14" s="243"/>
+      <c r="EJ14" s="243">
         <f>EJ12</f>
         <v>42212</v>
       </c>
-      <c r="EK14" s="236"/>
-      <c r="EL14" s="236"/>
-      <c r="EM14" s="236"/>
-      <c r="EN14" s="236"/>
-      <c r="EO14" s="236"/>
-      <c r="EP14" s="237"/>
+      <c r="EK14" s="243"/>
+      <c r="EL14" s="243"/>
+      <c r="EM14" s="243"/>
+      <c r="EN14" s="243"/>
+      <c r="EO14" s="243"/>
+      <c r="EP14" s="245"/>
       <c r="EQ14" s="48"/>
     </row>
     <row r="15" spans="1:755" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13749,7 +13733,7 @@
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-48</v>
+        <v>-58</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
@@ -14268,7 +14252,7 @@
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-52</v>
+        <v>-62</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
@@ -14779,7 +14763,7 @@
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-37</v>
+        <v>-47</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
@@ -15125,7 +15109,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-36</v>
+        <v>-46</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
@@ -15298,7 +15282,7 @@
       </c>
       <c r="K32" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-43</v>
+        <v>-53</v>
       </c>
       <c r="L32" s="228">
         <f t="shared" si="22"/>
@@ -15796,19 +15780,19 @@
       </c>
       <c r="J35" s="80">
         <f>AVERAGE(J36:J41)</f>
-        <v>0.38</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-26</v>
+        <v>-33</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M35" s="229">
         <f t="shared" si="24"/>
-        <v>42137</v>
+        <v>42140</v>
       </c>
       <c r="N35" s="206"/>
       <c r="O35" s="83"/>
@@ -15973,7 +15957,7 @@
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-28</v>
+        <v>-38</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
@@ -16146,7 +16130,7 @@
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
@@ -16319,7 +16303,7 @@
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-19</v>
+        <v>-29</v>
       </c>
       <c r="L38" s="228">
         <f t="shared" si="22"/>
@@ -16492,7 +16476,7 @@
       </c>
       <c r="K39" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-29</v>
+        <v>-39</v>
       </c>
       <c r="L39" s="228">
         <f t="shared" si="22"/>
@@ -16650,7 +16634,7 @@
       <c r="E40" s="76"/>
       <c r="F40" s="77"/>
       <c r="G40" s="78">
-        <v>42146</v>
+        <v>42163</v>
       </c>
       <c r="H40" s="79" t="s">
         <v>16</v>
@@ -16660,11 +16644,11 @@
         <v/>
       </c>
       <c r="J40" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-17</v>
+        <v>999</v>
       </c>
       <c r="L40" s="228" t="str">
         <f t="shared" si="22"/>
@@ -17001,7 +16985,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17174,7 +17158,7 @@
       </c>
       <c r="K43" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="L43" s="228">
         <f t="shared" si="22"/>
@@ -17347,7 +17331,7 @@
       </c>
       <c r="K44" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="L44" s="228">
         <f t="shared" si="22"/>
@@ -17520,7 +17504,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -18022,7 +18006,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="L48" s="228">
         <f t="shared" si="22"/>
@@ -18195,7 +18179,7 @@
       </c>
       <c r="K49" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="L49" s="228">
         <f t="shared" si="22"/>
@@ -18368,7 +18352,7 @@
       </c>
       <c r="K50" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L50" s="228">
         <f t="shared" si="22"/>
@@ -18541,7 +18525,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -18713,7 +18697,7 @@
       </c>
       <c r="K52" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L52" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19214,7 +19198,7 @@
       </c>
       <c r="K55" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L55" s="228">
         <f t="shared" si="22"/>
@@ -19386,7 +19370,7 @@
       </c>
       <c r="K56" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L56" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19544,7 +19528,7 @@
       <c r="E57" s="76"/>
       <c r="F57" s="77"/>
       <c r="G57" s="78">
-        <v>42216</v>
+        <v>42214</v>
       </c>
       <c r="H57" s="79" t="s">
         <v>16</v>
@@ -19558,7 +19542,7 @@
       </c>
       <c r="K57" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="L57" s="228" t="str">
         <f t="shared" si="22"/>
@@ -21176,45 +21160,45 @@
       <c r="EQ66" s="37"/>
     </row>
     <row r="67" spans="1:147" s="3" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="238"/>
-      <c r="B67" s="239"/>
-      <c r="C67" s="239"/>
-      <c r="D67" s="239"/>
-      <c r="E67" s="239"/>
-      <c r="F67" s="239"/>
-      <c r="G67" s="239"/>
-      <c r="H67" s="239"/>
-      <c r="I67" s="239"/>
-      <c r="J67" s="239"/>
-      <c r="K67" s="239"/>
-      <c r="L67" s="239"/>
-      <c r="M67" s="239"/>
-      <c r="N67" s="239"/>
-      <c r="O67" s="239"/>
-      <c r="P67" s="239"/>
-      <c r="Q67" s="239"/>
-      <c r="R67" s="239"/>
-      <c r="S67" s="239"/>
-      <c r="T67" s="239"/>
-      <c r="U67" s="239"/>
-      <c r="V67" s="239"/>
-      <c r="W67" s="239"/>
-      <c r="X67" s="239"/>
-      <c r="Y67" s="239"/>
-      <c r="Z67" s="239"/>
-      <c r="AA67" s="239"/>
-      <c r="AB67" s="239"/>
-      <c r="AC67" s="239"/>
-      <c r="AD67" s="239"/>
-      <c r="AE67" s="239"/>
-      <c r="AF67" s="239"/>
-      <c r="AG67" s="239"/>
-      <c r="AH67" s="239"/>
-      <c r="AI67" s="239"/>
-      <c r="AJ67" s="239"/>
-      <c r="AK67" s="239"/>
-      <c r="AL67" s="239"/>
-      <c r="AM67" s="239"/>
+      <c r="A67" s="246"/>
+      <c r="B67" s="247"/>
+      <c r="C67" s="247"/>
+      <c r="D67" s="247"/>
+      <c r="E67" s="247"/>
+      <c r="F67" s="247"/>
+      <c r="G67" s="247"/>
+      <c r="H67" s="247"/>
+      <c r="I67" s="247"/>
+      <c r="J67" s="247"/>
+      <c r="K67" s="247"/>
+      <c r="L67" s="247"/>
+      <c r="M67" s="247"/>
+      <c r="N67" s="247"/>
+      <c r="O67" s="247"/>
+      <c r="P67" s="247"/>
+      <c r="Q67" s="247"/>
+      <c r="R67" s="247"/>
+      <c r="S67" s="247"/>
+      <c r="T67" s="247"/>
+      <c r="U67" s="247"/>
+      <c r="V67" s="247"/>
+      <c r="W67" s="247"/>
+      <c r="X67" s="247"/>
+      <c r="Y67" s="247"/>
+      <c r="Z67" s="247"/>
+      <c r="AA67" s="247"/>
+      <c r="AB67" s="247"/>
+      <c r="AC67" s="247"/>
+      <c r="AD67" s="247"/>
+      <c r="AE67" s="247"/>
+      <c r="AF67" s="247"/>
+      <c r="AG67" s="247"/>
+      <c r="AH67" s="247"/>
+      <c r="AI67" s="247"/>
+      <c r="AJ67" s="247"/>
+      <c r="AK67" s="247"/>
+      <c r="AL67" s="247"/>
+      <c r="AM67" s="247"/>
       <c r="AN67" s="100"/>
       <c r="AO67" s="100"/>
       <c r="AP67" s="100"/>
@@ -21245,85 +21229,85 @@
       <c r="BO67" s="100"/>
       <c r="BP67" s="100"/>
       <c r="BQ67" s="100"/>
-      <c r="BR67" s="240" t="s">
+      <c r="BR67" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="BS67" s="240"/>
-      <c r="BT67" s="240"/>
-      <c r="BU67" s="240"/>
-      <c r="BV67" s="240"/>
-      <c r="BW67" s="240"/>
-      <c r="BX67" s="240"/>
-      <c r="BY67" s="240"/>
-      <c r="BZ67" s="240"/>
-      <c r="CA67" s="240"/>
-      <c r="CB67" s="240"/>
-      <c r="CC67" s="240"/>
-      <c r="CD67" s="240"/>
-      <c r="CE67" s="240"/>
-      <c r="CF67" s="240"/>
-      <c r="CG67" s="240"/>
-      <c r="CH67" s="240"/>
-      <c r="CI67" s="240"/>
-      <c r="CJ67" s="240"/>
-      <c r="CK67" s="240"/>
-      <c r="CL67" s="240"/>
-      <c r="CM67" s="240"/>
-      <c r="CN67" s="240"/>
-      <c r="CO67" s="240"/>
-      <c r="CP67" s="240"/>
-      <c r="CQ67" s="240"/>
-      <c r="CR67" s="240"/>
-      <c r="CS67" s="240"/>
-      <c r="CT67" s="240"/>
-      <c r="CU67" s="240"/>
-      <c r="CV67" s="240"/>
-      <c r="CW67" s="240"/>
-      <c r="CX67" s="240"/>
-      <c r="CY67" s="240"/>
-      <c r="CZ67" s="240"/>
-      <c r="DA67" s="240"/>
-      <c r="DB67" s="240"/>
-      <c r="DC67" s="240"/>
-      <c r="DD67" s="240"/>
-      <c r="DE67" s="240"/>
-      <c r="DF67" s="240"/>
-      <c r="DG67" s="240"/>
-      <c r="DH67" s="240"/>
-      <c r="DI67" s="240"/>
-      <c r="DJ67" s="240"/>
-      <c r="DK67" s="240"/>
-      <c r="DL67" s="240"/>
-      <c r="DM67" s="240"/>
-      <c r="DN67" s="240"/>
-      <c r="DO67" s="240"/>
-      <c r="DP67" s="240"/>
-      <c r="DQ67" s="240"/>
-      <c r="DR67" s="240"/>
-      <c r="DS67" s="240"/>
-      <c r="DT67" s="240"/>
-      <c r="DU67" s="240"/>
-      <c r="DV67" s="240"/>
-      <c r="DW67" s="240"/>
-      <c r="DX67" s="240"/>
-      <c r="DY67" s="240"/>
-      <c r="DZ67" s="240"/>
-      <c r="EA67" s="240"/>
-      <c r="EB67" s="240"/>
-      <c r="EC67" s="240"/>
-      <c r="ED67" s="240"/>
-      <c r="EE67" s="240"/>
-      <c r="EF67" s="240"/>
-      <c r="EG67" s="240"/>
-      <c r="EH67" s="240"/>
-      <c r="EI67" s="240"/>
-      <c r="EJ67" s="240"/>
-      <c r="EK67" s="240"/>
-      <c r="EL67" s="240"/>
-      <c r="EM67" s="240"/>
-      <c r="EN67" s="240"/>
-      <c r="EO67" s="240"/>
-      <c r="EP67" s="241"/>
+      <c r="BS67" s="248"/>
+      <c r="BT67" s="248"/>
+      <c r="BU67" s="248"/>
+      <c r="BV67" s="248"/>
+      <c r="BW67" s="248"/>
+      <c r="BX67" s="248"/>
+      <c r="BY67" s="248"/>
+      <c r="BZ67" s="248"/>
+      <c r="CA67" s="248"/>
+      <c r="CB67" s="248"/>
+      <c r="CC67" s="248"/>
+      <c r="CD67" s="248"/>
+      <c r="CE67" s="248"/>
+      <c r="CF67" s="248"/>
+      <c r="CG67" s="248"/>
+      <c r="CH67" s="248"/>
+      <c r="CI67" s="248"/>
+      <c r="CJ67" s="248"/>
+      <c r="CK67" s="248"/>
+      <c r="CL67" s="248"/>
+      <c r="CM67" s="248"/>
+      <c r="CN67" s="248"/>
+      <c r="CO67" s="248"/>
+      <c r="CP67" s="248"/>
+      <c r="CQ67" s="248"/>
+      <c r="CR67" s="248"/>
+      <c r="CS67" s="248"/>
+      <c r="CT67" s="248"/>
+      <c r="CU67" s="248"/>
+      <c r="CV67" s="248"/>
+      <c r="CW67" s="248"/>
+      <c r="CX67" s="248"/>
+      <c r="CY67" s="248"/>
+      <c r="CZ67" s="248"/>
+      <c r="DA67" s="248"/>
+      <c r="DB67" s="248"/>
+      <c r="DC67" s="248"/>
+      <c r="DD67" s="248"/>
+      <c r="DE67" s="248"/>
+      <c r="DF67" s="248"/>
+      <c r="DG67" s="248"/>
+      <c r="DH67" s="248"/>
+      <c r="DI67" s="248"/>
+      <c r="DJ67" s="248"/>
+      <c r="DK67" s="248"/>
+      <c r="DL67" s="248"/>
+      <c r="DM67" s="248"/>
+      <c r="DN67" s="248"/>
+      <c r="DO67" s="248"/>
+      <c r="DP67" s="248"/>
+      <c r="DQ67" s="248"/>
+      <c r="DR67" s="248"/>
+      <c r="DS67" s="248"/>
+      <c r="DT67" s="248"/>
+      <c r="DU67" s="248"/>
+      <c r="DV67" s="248"/>
+      <c r="DW67" s="248"/>
+      <c r="DX67" s="248"/>
+      <c r="DY67" s="248"/>
+      <c r="DZ67" s="248"/>
+      <c r="EA67" s="248"/>
+      <c r="EB67" s="248"/>
+      <c r="EC67" s="248"/>
+      <c r="ED67" s="248"/>
+      <c r="EE67" s="248"/>
+      <c r="EF67" s="248"/>
+      <c r="EG67" s="248"/>
+      <c r="EH67" s="248"/>
+      <c r="EI67" s="248"/>
+      <c r="EJ67" s="248"/>
+      <c r="EK67" s="248"/>
+      <c r="EL67" s="248"/>
+      <c r="EM67" s="248"/>
+      <c r="EN67" s="248"/>
+      <c r="EO67" s="248"/>
+      <c r="EP67" s="249"/>
       <c r="EQ67" s="48"/>
     </row>
     <row r="68" spans="1:147" x14ac:dyDescent="0.25">
@@ -21475,172 +21459,186 @@
       <c r="EQ68" s="37"/>
     </row>
     <row r="69" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A69" s="235"/>
-      <c r="B69" s="235"/>
-      <c r="C69" s="235"/>
-      <c r="D69" s="235"/>
-      <c r="E69" s="235"/>
-      <c r="F69" s="235"/>
-      <c r="G69" s="235"/>
-      <c r="H69" s="235"/>
-      <c r="I69" s="235"/>
-      <c r="J69" s="235"/>
-      <c r="K69" s="235"/>
-      <c r="L69" s="235"/>
-      <c r="M69" s="235"/>
-      <c r="N69" s="235"/>
-      <c r="O69" s="235"/>
-      <c r="P69" s="235"/>
-      <c r="Q69" s="235"/>
-      <c r="R69" s="235"/>
-      <c r="S69" s="235"/>
-      <c r="T69" s="235"/>
-      <c r="U69" s="235"/>
-      <c r="V69" s="235"/>
-      <c r="W69" s="235"/>
-      <c r="X69" s="235"/>
-      <c r="Y69" s="235"/>
-      <c r="Z69" s="235"/>
-      <c r="AA69" s="235"/>
-      <c r="AB69" s="235"/>
-      <c r="AC69" s="235"/>
-      <c r="AD69" s="235"/>
-      <c r="AE69" s="235"/>
-      <c r="AF69" s="235"/>
-      <c r="AG69" s="235"/>
-      <c r="AH69" s="235"/>
-      <c r="AI69" s="235"/>
-      <c r="AJ69" s="235"/>
-      <c r="AK69" s="235"/>
-      <c r="AL69" s="235"/>
-      <c r="AM69" s="235"/>
-      <c r="AN69" s="235"/>
-      <c r="AO69" s="235"/>
-      <c r="AP69" s="235"/>
-      <c r="AQ69" s="235"/>
-      <c r="AR69" s="235"/>
-      <c r="AS69" s="235"/>
-      <c r="AT69" s="235"/>
-      <c r="AU69" s="235"/>
-      <c r="AV69" s="235"/>
-      <c r="AW69" s="235"/>
-      <c r="AX69" s="235"/>
-      <c r="AY69" s="235"/>
-      <c r="AZ69" s="235"/>
-      <c r="BA69" s="235"/>
-      <c r="BB69" s="235"/>
-      <c r="BC69" s="235"/>
-      <c r="BD69" s="235"/>
-      <c r="BE69" s="235"/>
-      <c r="BF69" s="235"/>
-      <c r="BG69" s="235"/>
-      <c r="BH69" s="235"/>
-      <c r="BI69" s="235"/>
-      <c r="BJ69" s="235"/>
-      <c r="BK69" s="235"/>
-      <c r="BL69" s="235"/>
-      <c r="BM69" s="235"/>
-      <c r="BN69" s="235"/>
-      <c r="BO69" s="235"/>
-      <c r="BP69" s="235"/>
-      <c r="BQ69" s="235"/>
-      <c r="BR69" s="235"/>
-      <c r="BS69" s="235"/>
-      <c r="BT69" s="235"/>
-      <c r="BU69" s="235"/>
-      <c r="BV69" s="235"/>
-      <c r="BW69" s="235"/>
-      <c r="BX69" s="235"/>
-      <c r="BY69" s="235"/>
-      <c r="BZ69" s="235"/>
-      <c r="CA69" s="235"/>
-      <c r="CB69" s="235"/>
-      <c r="CC69" s="235"/>
-      <c r="CD69" s="235"/>
-      <c r="CE69" s="235"/>
-      <c r="CF69" s="235"/>
-      <c r="CG69" s="235"/>
-      <c r="CH69" s="235"/>
-      <c r="CI69" s="235"/>
-      <c r="CJ69" s="235"/>
-      <c r="CK69" s="235"/>
-      <c r="CL69" s="235"/>
-      <c r="CM69" s="235"/>
-      <c r="CN69" s="235"/>
-      <c r="CO69" s="235"/>
-      <c r="CP69" s="235"/>
-      <c r="CQ69" s="235"/>
-      <c r="CR69" s="235"/>
-      <c r="CS69" s="235"/>
-      <c r="CT69" s="235"/>
-      <c r="CU69" s="235"/>
-      <c r="CV69" s="235"/>
-      <c r="CW69" s="235"/>
-      <c r="CX69" s="235"/>
-      <c r="CY69" s="235"/>
-      <c r="CZ69" s="235"/>
-      <c r="DA69" s="235"/>
-      <c r="DB69" s="235"/>
-      <c r="DC69" s="235"/>
-      <c r="DD69" s="235"/>
-      <c r="DE69" s="235"/>
-      <c r="DF69" s="235"/>
-      <c r="DG69" s="235"/>
-      <c r="DH69" s="235"/>
-      <c r="DI69" s="235"/>
-      <c r="DJ69" s="235"/>
-      <c r="DK69" s="235"/>
-      <c r="DL69" s="235"/>
-      <c r="DM69" s="235"/>
-      <c r="DN69" s="235"/>
-      <c r="DO69" s="235"/>
-      <c r="DP69" s="235"/>
-      <c r="DQ69" s="235"/>
-      <c r="DR69" s="235"/>
-      <c r="DS69" s="235"/>
-      <c r="DT69" s="235"/>
-      <c r="DU69" s="235"/>
-      <c r="DV69" s="235"/>
-      <c r="DW69" s="235"/>
-      <c r="DX69" s="235"/>
-      <c r="DY69" s="235"/>
-      <c r="DZ69" s="235"/>
-      <c r="EA69" s="235"/>
-      <c r="EB69" s="235"/>
-      <c r="EC69" s="235"/>
-      <c r="ED69" s="235"/>
-      <c r="EE69" s="235"/>
-      <c r="EF69" s="235"/>
-      <c r="EG69" s="235"/>
-      <c r="EH69" s="235"/>
-      <c r="EI69" s="235"/>
-      <c r="EJ69" s="235"/>
-      <c r="EK69" s="235"/>
-      <c r="EL69" s="235"/>
-      <c r="EM69" s="235"/>
-      <c r="EN69" s="235"/>
-      <c r="EO69" s="235"/>
-      <c r="EP69" s="235"/>
+      <c r="A69" s="244"/>
+      <c r="B69" s="244"/>
+      <c r="C69" s="244"/>
+      <c r="D69" s="244"/>
+      <c r="E69" s="244"/>
+      <c r="F69" s="244"/>
+      <c r="G69" s="244"/>
+      <c r="H69" s="244"/>
+      <c r="I69" s="244"/>
+      <c r="J69" s="244"/>
+      <c r="K69" s="244"/>
+      <c r="L69" s="244"/>
+      <c r="M69" s="244"/>
+      <c r="N69" s="244"/>
+      <c r="O69" s="244"/>
+      <c r="P69" s="244"/>
+      <c r="Q69" s="244"/>
+      <c r="R69" s="244"/>
+      <c r="S69" s="244"/>
+      <c r="T69" s="244"/>
+      <c r="U69" s="244"/>
+      <c r="V69" s="244"/>
+      <c r="W69" s="244"/>
+      <c r="X69" s="244"/>
+      <c r="Y69" s="244"/>
+      <c r="Z69" s="244"/>
+      <c r="AA69" s="244"/>
+      <c r="AB69" s="244"/>
+      <c r="AC69" s="244"/>
+      <c r="AD69" s="244"/>
+      <c r="AE69" s="244"/>
+      <c r="AF69" s="244"/>
+      <c r="AG69" s="244"/>
+      <c r="AH69" s="244"/>
+      <c r="AI69" s="244"/>
+      <c r="AJ69" s="244"/>
+      <c r="AK69" s="244"/>
+      <c r="AL69" s="244"/>
+      <c r="AM69" s="244"/>
+      <c r="AN69" s="244"/>
+      <c r="AO69" s="244"/>
+      <c r="AP69" s="244"/>
+      <c r="AQ69" s="244"/>
+      <c r="AR69" s="244"/>
+      <c r="AS69" s="244"/>
+      <c r="AT69" s="244"/>
+      <c r="AU69" s="244"/>
+      <c r="AV69" s="244"/>
+      <c r="AW69" s="244"/>
+      <c r="AX69" s="244"/>
+      <c r="AY69" s="244"/>
+      <c r="AZ69" s="244"/>
+      <c r="BA69" s="244"/>
+      <c r="BB69" s="244"/>
+      <c r="BC69" s="244"/>
+      <c r="BD69" s="244"/>
+      <c r="BE69" s="244"/>
+      <c r="BF69" s="244"/>
+      <c r="BG69" s="244"/>
+      <c r="BH69" s="244"/>
+      <c r="BI69" s="244"/>
+      <c r="BJ69" s="244"/>
+      <c r="BK69" s="244"/>
+      <c r="BL69" s="244"/>
+      <c r="BM69" s="244"/>
+      <c r="BN69" s="244"/>
+      <c r="BO69" s="244"/>
+      <c r="BP69" s="244"/>
+      <c r="BQ69" s="244"/>
+      <c r="BR69" s="244"/>
+      <c r="BS69" s="244"/>
+      <c r="BT69" s="244"/>
+      <c r="BU69" s="244"/>
+      <c r="BV69" s="244"/>
+      <c r="BW69" s="244"/>
+      <c r="BX69" s="244"/>
+      <c r="BY69" s="244"/>
+      <c r="BZ69" s="244"/>
+      <c r="CA69" s="244"/>
+      <c r="CB69" s="244"/>
+      <c r="CC69" s="244"/>
+      <c r="CD69" s="244"/>
+      <c r="CE69" s="244"/>
+      <c r="CF69" s="244"/>
+      <c r="CG69" s="244"/>
+      <c r="CH69" s="244"/>
+      <c r="CI69" s="244"/>
+      <c r="CJ69" s="244"/>
+      <c r="CK69" s="244"/>
+      <c r="CL69" s="244"/>
+      <c r="CM69" s="244"/>
+      <c r="CN69" s="244"/>
+      <c r="CO69" s="244"/>
+      <c r="CP69" s="244"/>
+      <c r="CQ69" s="244"/>
+      <c r="CR69" s="244"/>
+      <c r="CS69" s="244"/>
+      <c r="CT69" s="244"/>
+      <c r="CU69" s="244"/>
+      <c r="CV69" s="244"/>
+      <c r="CW69" s="244"/>
+      <c r="CX69" s="244"/>
+      <c r="CY69" s="244"/>
+      <c r="CZ69" s="244"/>
+      <c r="DA69" s="244"/>
+      <c r="DB69" s="244"/>
+      <c r="DC69" s="244"/>
+      <c r="DD69" s="244"/>
+      <c r="DE69" s="244"/>
+      <c r="DF69" s="244"/>
+      <c r="DG69" s="244"/>
+      <c r="DH69" s="244"/>
+      <c r="DI69" s="244"/>
+      <c r="DJ69" s="244"/>
+      <c r="DK69" s="244"/>
+      <c r="DL69" s="244"/>
+      <c r="DM69" s="244"/>
+      <c r="DN69" s="244"/>
+      <c r="DO69" s="244"/>
+      <c r="DP69" s="244"/>
+      <c r="DQ69" s="244"/>
+      <c r="DR69" s="244"/>
+      <c r="DS69" s="244"/>
+      <c r="DT69" s="244"/>
+      <c r="DU69" s="244"/>
+      <c r="DV69" s="244"/>
+      <c r="DW69" s="244"/>
+      <c r="DX69" s="244"/>
+      <c r="DY69" s="244"/>
+      <c r="DZ69" s="244"/>
+      <c r="EA69" s="244"/>
+      <c r="EB69" s="244"/>
+      <c r="EC69" s="244"/>
+      <c r="ED69" s="244"/>
+      <c r="EE69" s="244"/>
+      <c r="EF69" s="244"/>
+      <c r="EG69" s="244"/>
+      <c r="EH69" s="244"/>
+      <c r="EI69" s="244"/>
+      <c r="EJ69" s="244"/>
+      <c r="EK69" s="244"/>
+      <c r="EL69" s="244"/>
+      <c r="EM69" s="244"/>
+      <c r="EN69" s="244"/>
+      <c r="EO69" s="244"/>
+      <c r="EP69" s="244"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AI13:AM13"/>
-    <mergeCell ref="AP13:AT13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="BY11:EP11"/>
-    <mergeCell ref="DV13:DZ13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="BD13:BH13"/>
-    <mergeCell ref="BK13:BO13"/>
-    <mergeCell ref="BR13:BV13"/>
-    <mergeCell ref="BY13:CC13"/>
-    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="A69:EP69"/>
+    <mergeCell ref="EA14:EB14"/>
+    <mergeCell ref="EC14:EG14"/>
+    <mergeCell ref="EH14:EI14"/>
+    <mergeCell ref="EJ14:EN14"/>
+    <mergeCell ref="EO14:EP14"/>
+    <mergeCell ref="A67:AM67"/>
+    <mergeCell ref="BR67:EP67"/>
+    <mergeCell ref="DF14:DG14"/>
+    <mergeCell ref="DH14:DL14"/>
+    <mergeCell ref="DM14:DN14"/>
+    <mergeCell ref="DO14:DS14"/>
+    <mergeCell ref="DT14:DU14"/>
+    <mergeCell ref="DV14:DZ14"/>
+    <mergeCell ref="CK14:CL14"/>
+    <mergeCell ref="CM14:CQ14"/>
+    <mergeCell ref="CR14:CS14"/>
+    <mergeCell ref="CT14:CX14"/>
+    <mergeCell ref="CY14:CZ14"/>
+    <mergeCell ref="DA14:DE14"/>
+    <mergeCell ref="BP14:BQ14"/>
+    <mergeCell ref="BR14:BV14"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BY14:CC14"/>
+    <mergeCell ref="CD14:CE14"/>
+    <mergeCell ref="CF14:CJ14"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BD14:BH14"/>
+    <mergeCell ref="BI14:BJ14"/>
     <mergeCell ref="BK14:BO14"/>
     <mergeCell ref="EC13:EG13"/>
     <mergeCell ref="EJ13:EN13"/>
@@ -21657,130 +21655,116 @@
     <mergeCell ref="DA13:DE13"/>
     <mergeCell ref="DH13:DL13"/>
     <mergeCell ref="DO13:DS13"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BD14:BH14"/>
-    <mergeCell ref="BI14:BJ14"/>
-    <mergeCell ref="CR14:CS14"/>
-    <mergeCell ref="CT14:CX14"/>
-    <mergeCell ref="CY14:CZ14"/>
-    <mergeCell ref="DA14:DE14"/>
-    <mergeCell ref="BP14:BQ14"/>
-    <mergeCell ref="BR14:BV14"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BY14:CC14"/>
-    <mergeCell ref="CD14:CE14"/>
-    <mergeCell ref="CF14:CJ14"/>
-    <mergeCell ref="A69:EP69"/>
-    <mergeCell ref="EA14:EB14"/>
-    <mergeCell ref="EC14:EG14"/>
-    <mergeCell ref="EH14:EI14"/>
-    <mergeCell ref="EJ14:EN14"/>
-    <mergeCell ref="EO14:EP14"/>
-    <mergeCell ref="A67:AM67"/>
-    <mergeCell ref="BR67:EP67"/>
-    <mergeCell ref="DF14:DG14"/>
-    <mergeCell ref="DH14:DL14"/>
-    <mergeCell ref="DM14:DN14"/>
-    <mergeCell ref="DO14:DS14"/>
-    <mergeCell ref="DT14:DU14"/>
-    <mergeCell ref="DV14:DZ14"/>
-    <mergeCell ref="CK14:CL14"/>
-    <mergeCell ref="CM14:CQ14"/>
+    <mergeCell ref="DV13:DZ13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="BD13:BH13"/>
+    <mergeCell ref="BK13:BO13"/>
+    <mergeCell ref="BR13:BV13"/>
+    <mergeCell ref="BY13:CC13"/>
+    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="BY11:EP11"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AI13:AM13"/>
+    <mergeCell ref="AP13:AT13"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H40:H44 H29:H31 H33:H37 H46:H65">
-    <cfRule type="expression" dxfId="111" priority="112">
+    <cfRule type="expression" dxfId="109" priority="112">
       <formula>$H16="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:K65 A16:EP21 A22:H27 J22:EP27 B29:H31 J41:EP41 A41:H41 K48:K65 A33:H34 G32 J34:EP34 J29:J31 N29:EP31 J33 L33:EP33 B35:H37 B40:H40 A35:A40 J35:J37 N35:EP37 J40 N40:EP40 K35:M40 A47:H47 J47:EP47 B46:H46 B42:H44 A42:A46 J46 N46:EP46 J42:J44 N42:EP44 K42:M46 A53:H64 C51:H51 B52:H52 B48:H50 A48:A52 M48:EP65 J48:K64 L48:L66">
-    <cfRule type="expression" dxfId="110" priority="110">
+    <cfRule type="expression" dxfId="108" priority="110">
       <formula>AND($A16&gt;=0,MOD($A16,1)=0,$A16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="111">
+    <cfRule type="expression" dxfId="107" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:EP27 S29:EP31 S35:EP37 S40:EP44 S33:EP33 S46:EP65">
-    <cfRule type="expression" dxfId="108" priority="108">
+    <cfRule type="expression" dxfId="106" priority="108">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="109">
+    <cfRule type="expression" dxfId="105" priority="109">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:EP27 N29:EP31 N40:EP44 N33:EP37 N46:EP65">
-    <cfRule type="expression" dxfId="106" priority="103">
+    <cfRule type="expression" dxfId="104" priority="103">
       <formula>AND($H16="M",$G16=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="104">
+    <cfRule type="expression" dxfId="103" priority="104">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$M16,$M16&lt;&gt;"",$J16&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="105">
+    <cfRule type="expression" dxfId="102" priority="105">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$I16,$M16&lt;&gt;"",$A16&gt;=0,MOD($A16,1)=0,$A16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="106">
+    <cfRule type="expression" dxfId="101" priority="106">
       <formula>AND(N$12&gt;=$G16,N$12&lt;=$I16,$M16&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="107">
+    <cfRule type="expression" dxfId="100" priority="107">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I27 I34:I64">
-    <cfRule type="expression" dxfId="101" priority="100">
+    <cfRule type="expression" dxfId="99" priority="100">
       <formula>AND($A22&gt;=0,MOD($A22,1)=0,$A22&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="101">
+    <cfRule type="expression" dxfId="98" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34:EP34">
-    <cfRule type="expression" dxfId="99" priority="94">
+    <cfRule type="expression" dxfId="97" priority="94">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="95">
+    <cfRule type="expression" dxfId="96" priority="95">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 K28:EP28 A29:A32 K29:K33 L29:M32">
-    <cfRule type="expression" dxfId="97" priority="83">
+    <cfRule type="expression" dxfId="95" priority="83">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="84">
+    <cfRule type="expression" dxfId="94" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:EP28">
-    <cfRule type="expression" dxfId="95" priority="81">
+    <cfRule type="expression" dxfId="93" priority="81">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="82">
+    <cfRule type="expression" dxfId="92" priority="82">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:EP28">
-    <cfRule type="expression" dxfId="93" priority="76">
+    <cfRule type="expression" dxfId="91" priority="76">
       <formula>AND($H28="M",$G28=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="77">
+    <cfRule type="expression" dxfId="90" priority="77">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$M28,$M28&lt;&gt;"",$J28&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="78">
+    <cfRule type="expression" dxfId="89" priority="78">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$I28,$M28&lt;&gt;"",$A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="79">
+    <cfRule type="expression" dxfId="88" priority="79">
       <formula>AND(N$12&gt;=$G28,N$12&lt;=$I28,$M28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="80">
+    <cfRule type="expression" dxfId="87" priority="80">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I33">
-    <cfRule type="expression" dxfId="88" priority="74">
+    <cfRule type="expression" dxfId="86" priority="74">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="75">
+    <cfRule type="expression" dxfId="85" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21803,223 +21787,223 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:G38 N38:EP38">
-    <cfRule type="expression" dxfId="86" priority="70">
+    <cfRule type="expression" dxfId="84" priority="70">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="71">
+    <cfRule type="expression" dxfId="83" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S38:EP38">
-    <cfRule type="expression" dxfId="84" priority="68">
+    <cfRule type="expression" dxfId="82" priority="68">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="69">
+    <cfRule type="expression" dxfId="81" priority="69">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:EP38">
-    <cfRule type="expression" dxfId="82" priority="63">
+    <cfRule type="expression" dxfId="80" priority="63">
       <formula>AND($H38="M",$G38=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="64">
+    <cfRule type="expression" dxfId="79" priority="64">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$M38,$M38&lt;&gt;"",$J38&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="65">
+    <cfRule type="expression" dxfId="78" priority="65">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$I38,$M38&lt;&gt;"",$A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="66">
+    <cfRule type="expression" dxfId="77" priority="66">
       <formula>AND(N$12&gt;=$G38,N$12&lt;=$I38,$M38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="67">
+    <cfRule type="expression" dxfId="76" priority="67">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="expression" dxfId="77" priority="59">
+    <cfRule type="expression" dxfId="75" priority="59">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="60">
+    <cfRule type="expression" dxfId="74" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="75" priority="57">
+    <cfRule type="expression" dxfId="73" priority="57">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="58">
+    <cfRule type="expression" dxfId="72" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="73" priority="50">
+    <cfRule type="expression" dxfId="71" priority="50">
       <formula>$H28="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="72" priority="48">
+    <cfRule type="expression" dxfId="70" priority="48">
       <formula>AND($A28&gt;=0,MOD($A28,1)=0,$A28&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="49">
+    <cfRule type="expression" dxfId="69" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="70" priority="53">
+    <cfRule type="expression" dxfId="68" priority="53">
       <formula>$H38="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="69" priority="51">
+    <cfRule type="expression" dxfId="67" priority="51">
       <formula>AND($A38&gt;=0,MOD($A38,1)=0,$A38&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="52">
+    <cfRule type="expression" dxfId="66" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="67" priority="46">
+    <cfRule type="expression" dxfId="65" priority="46">
       <formula>$H32="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:F32 H32 J32 N32:EP32">
-    <cfRule type="expression" dxfId="66" priority="44">
+    <cfRule type="expression" dxfId="64" priority="44">
       <formula>AND($A32&gt;=0,MOD($A32,1)=0,$A32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="45">
+    <cfRule type="expression" dxfId="63" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:EP32">
-    <cfRule type="expression" dxfId="64" priority="42">
+    <cfRule type="expression" dxfId="62" priority="42">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="43">
+    <cfRule type="expression" dxfId="61" priority="43">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:EP32">
-    <cfRule type="expression" dxfId="62" priority="37">
+    <cfRule type="expression" dxfId="60" priority="37">
       <formula>AND($H32="M",$G32=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="38">
+    <cfRule type="expression" dxfId="59" priority="38">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$M32,$M32&lt;&gt;"",$J32&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="39">
+    <cfRule type="expression" dxfId="58" priority="39">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$I32,$M32&lt;&gt;"",$A32&gt;=0,MOD($A32,1)=0,$A32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="40">
+    <cfRule type="expression" dxfId="57" priority="40">
       <formula>AND(N$12&gt;=$G32,N$12&lt;=$I32,$M32&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="41">
+    <cfRule type="expression" dxfId="56" priority="41">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="57" priority="18">
+    <cfRule type="expression" dxfId="55" priority="18">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="19">
+    <cfRule type="expression" dxfId="54" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:G39 N39:EP39">
-    <cfRule type="expression" dxfId="55" priority="32">
+    <cfRule type="expression" dxfId="53" priority="32">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="33">
+    <cfRule type="expression" dxfId="52" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S39:EP39">
-    <cfRule type="expression" dxfId="53" priority="30">
+    <cfRule type="expression" dxfId="51" priority="30">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="31">
+    <cfRule type="expression" dxfId="50" priority="31">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:EP39">
-    <cfRule type="expression" dxfId="51" priority="25">
+    <cfRule type="expression" dxfId="49" priority="25">
       <formula>AND($H39="M",$G39=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="26">
+    <cfRule type="expression" dxfId="48" priority="26">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$M39,$M39&lt;&gt;"",$J39&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="27">
+    <cfRule type="expression" dxfId="47" priority="27">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$I39,$M39&lt;&gt;"",$A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="28">
+    <cfRule type="expression" dxfId="46" priority="28">
       <formula>AND(N$12&gt;=$G39,N$12&lt;=$I39,$M39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="29">
+    <cfRule type="expression" dxfId="45" priority="29">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="46" priority="21">
+    <cfRule type="expression" dxfId="44" priority="21">
       <formula>AND($A39&gt;=0,MOD($A39,1)=0,$A39&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="22">
+    <cfRule type="expression" dxfId="43" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="44" priority="20">
+    <cfRule type="expression" dxfId="42" priority="20">
       <formula>$H39="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="43" priority="16">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>$H45="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45 C45:H45 N45:EP45">
-    <cfRule type="expression" dxfId="42" priority="14">
+    <cfRule type="expression" dxfId="40" priority="14">
       <formula>AND($A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="15">
+    <cfRule type="expression" dxfId="39" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S45:EP45">
-    <cfRule type="expression" dxfId="40" priority="12">
+    <cfRule type="expression" dxfId="38" priority="12">
       <formula>WEEKDAY(S$12,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="13">
+    <cfRule type="expression" dxfId="37" priority="13">
       <formula>WEEKDAY(S$12,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45:EP45">
-    <cfRule type="expression" dxfId="38" priority="7">
+    <cfRule type="expression" dxfId="36" priority="7">
       <formula>AND($H45="M",$G45=N$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="8">
+    <cfRule type="expression" dxfId="35" priority="8">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$M45,$M45&lt;&gt;"",$J45&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="9">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$I45,$M45&lt;&gt;"",$A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="10">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>AND(N$12&gt;=$G45,N$12&lt;=$I45,$M45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="32" priority="11">
       <formula>N$12=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>AND($A45&gt;=0,MOD($A45,1)=0,$A45&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>AND($A51&gt;=0,MOD($A51,1)=0,$A51&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25865,15 +25849,15 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="AW2">
-    <cfRule type="expression" dxfId="29" priority="32">
+    <cfRule type="expression" dxfId="27" priority="32">
       <formula>$H2="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AW2 AY2:BB2">
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="31">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25887,23 +25871,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX2">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="28">
+    <cfRule type="expression" dxfId="23" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW7">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$H7="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ7:AW7 AY7:BB7">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25917,23 +25901,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX7">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW12">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>$H12="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ12:AW12 AY12:BB12">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25947,23 +25931,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX12">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW17">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$H17="M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ17:AW17 AY17:BB17">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25977,42 +25961,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX17">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>AND($A2&gt;=0,MOD($A2,1)=0,$A2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP7">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND($A7&gt;=0,MOD($A7,1)=0,$A7&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND($A12&gt;=0,MOD($A12,1)=0,$A12&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND($A17&gt;=0,MOD($A17,1)=0,$A17&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ProjectManagement/ProjektPlan.xlsx
+++ b/ProjectManagement/ProjektPlan.xlsx
@@ -2109,6 +2109,27 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2134,27 +2155,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7951,10 +7951,10 @@
       <c r="G7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="236">
+      <c r="H7" s="243">
         <v>42088</v>
       </c>
-      <c r="I7" s="236"/>
+      <c r="I7" s="243"/>
       <c r="K7" s="27"/>
       <c r="L7" s="217"/>
       <c r="M7" s="217"/>
@@ -10216,17 +10216,17 @@
       <c r="ACA9" s="34"/>
     </row>
     <row r="10" spans="1:755" s="22" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="237"/>
-      <c r="B10" s="237"/>
+      <c r="A10" s="244"/>
+      <c r="B10" s="244"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="238"/>
-      <c r="G10" s="238"/>
-      <c r="H10" s="238"/>
-      <c r="I10" s="238"/>
-      <c r="J10" s="238"/>
-      <c r="K10" s="238"/>
+      <c r="F10" s="245"/>
+      <c r="G10" s="245"/>
+      <c r="H10" s="245"/>
+      <c r="I10" s="245"/>
+      <c r="J10" s="245"/>
+      <c r="K10" s="245"/>
       <c r="L10" s="220"/>
       <c r="M10" s="220"/>
       <c r="N10" s="201"/>
@@ -10973,19 +10973,19 @@
       <c r="ACA10" s="34"/>
     </row>
     <row r="11" spans="1:755" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="239" t="s">
+      <c r="A11" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="240"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="240"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="240"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="240"/>
-      <c r="K11" s="240"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
+      <c r="G11" s="247"/>
+      <c r="H11" s="247"/>
+      <c r="I11" s="247"/>
+      <c r="J11" s="247"/>
+      <c r="K11" s="247"/>
       <c r="L11" s="221"/>
       <c r="M11" s="221"/>
       <c r="N11" s="202"/>
@@ -11051,78 +11051,78 @@
       <c r="BV11" s="36"/>
       <c r="BW11" s="36"/>
       <c r="BX11" s="36"/>
-      <c r="BY11" s="241" t="s">
+      <c r="BY11" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="BZ11" s="241"/>
-      <c r="CA11" s="241"/>
-      <c r="CB11" s="241"/>
-      <c r="CC11" s="241"/>
-      <c r="CD11" s="241"/>
-      <c r="CE11" s="241"/>
-      <c r="CF11" s="241"/>
-      <c r="CG11" s="241"/>
-      <c r="CH11" s="241"/>
-      <c r="CI11" s="241"/>
-      <c r="CJ11" s="241"/>
-      <c r="CK11" s="241"/>
-      <c r="CL11" s="241"/>
-      <c r="CM11" s="241"/>
-      <c r="CN11" s="241"/>
-      <c r="CO11" s="241"/>
-      <c r="CP11" s="241"/>
-      <c r="CQ11" s="241"/>
-      <c r="CR11" s="241"/>
-      <c r="CS11" s="241"/>
-      <c r="CT11" s="241"/>
-      <c r="CU11" s="241"/>
-      <c r="CV11" s="241"/>
-      <c r="CW11" s="241"/>
-      <c r="CX11" s="241"/>
-      <c r="CY11" s="241"/>
-      <c r="CZ11" s="241"/>
-      <c r="DA11" s="241"/>
-      <c r="DB11" s="241"/>
-      <c r="DC11" s="241"/>
-      <c r="DD11" s="241"/>
-      <c r="DE11" s="241"/>
-      <c r="DF11" s="241"/>
-      <c r="DG11" s="241"/>
-      <c r="DH11" s="241"/>
-      <c r="DI11" s="241"/>
-      <c r="DJ11" s="241"/>
-      <c r="DK11" s="241"/>
-      <c r="DL11" s="241"/>
-      <c r="DM11" s="241"/>
-      <c r="DN11" s="241"/>
-      <c r="DO11" s="241"/>
-      <c r="DP11" s="241"/>
-      <c r="DQ11" s="241"/>
-      <c r="DR11" s="241"/>
-      <c r="DS11" s="241"/>
-      <c r="DT11" s="241"/>
-      <c r="DU11" s="241"/>
-      <c r="DV11" s="241"/>
-      <c r="DW11" s="241"/>
-      <c r="DX11" s="241"/>
-      <c r="DY11" s="241"/>
-      <c r="DZ11" s="241"/>
-      <c r="EA11" s="241"/>
-      <c r="EB11" s="241"/>
-      <c r="EC11" s="241"/>
-      <c r="ED11" s="241"/>
-      <c r="EE11" s="241"/>
-      <c r="EF11" s="241"/>
-      <c r="EG11" s="241"/>
-      <c r="EH11" s="241"/>
-      <c r="EI11" s="241"/>
-      <c r="EJ11" s="241"/>
-      <c r="EK11" s="241"/>
-      <c r="EL11" s="241"/>
-      <c r="EM11" s="241"/>
-      <c r="EN11" s="241"/>
-      <c r="EO11" s="241"/>
-      <c r="EP11" s="242"/>
+      <c r="BZ11" s="248"/>
+      <c r="CA11" s="248"/>
+      <c r="CB11" s="248"/>
+      <c r="CC11" s="248"/>
+      <c r="CD11" s="248"/>
+      <c r="CE11" s="248"/>
+      <c r="CF11" s="248"/>
+      <c r="CG11" s="248"/>
+      <c r="CH11" s="248"/>
+      <c r="CI11" s="248"/>
+      <c r="CJ11" s="248"/>
+      <c r="CK11" s="248"/>
+      <c r="CL11" s="248"/>
+      <c r="CM11" s="248"/>
+      <c r="CN11" s="248"/>
+      <c r="CO11" s="248"/>
+      <c r="CP11" s="248"/>
+      <c r="CQ11" s="248"/>
+      <c r="CR11" s="248"/>
+      <c r="CS11" s="248"/>
+      <c r="CT11" s="248"/>
+      <c r="CU11" s="248"/>
+      <c r="CV11" s="248"/>
+      <c r="CW11" s="248"/>
+      <c r="CX11" s="248"/>
+      <c r="CY11" s="248"/>
+      <c r="CZ11" s="248"/>
+      <c r="DA11" s="248"/>
+      <c r="DB11" s="248"/>
+      <c r="DC11" s="248"/>
+      <c r="DD11" s="248"/>
+      <c r="DE11" s="248"/>
+      <c r="DF11" s="248"/>
+      <c r="DG11" s="248"/>
+      <c r="DH11" s="248"/>
+      <c r="DI11" s="248"/>
+      <c r="DJ11" s="248"/>
+      <c r="DK11" s="248"/>
+      <c r="DL11" s="248"/>
+      <c r="DM11" s="248"/>
+      <c r="DN11" s="248"/>
+      <c r="DO11" s="248"/>
+      <c r="DP11" s="248"/>
+      <c r="DQ11" s="248"/>
+      <c r="DR11" s="248"/>
+      <c r="DS11" s="248"/>
+      <c r="DT11" s="248"/>
+      <c r="DU11" s="248"/>
+      <c r="DV11" s="248"/>
+      <c r="DW11" s="248"/>
+      <c r="DX11" s="248"/>
+      <c r="DY11" s="248"/>
+      <c r="DZ11" s="248"/>
+      <c r="EA11" s="248"/>
+      <c r="EB11" s="248"/>
+      <c r="EC11" s="248"/>
+      <c r="ED11" s="248"/>
+      <c r="EE11" s="248"/>
+      <c r="EF11" s="248"/>
+      <c r="EG11" s="248"/>
+      <c r="EH11" s="248"/>
+      <c r="EI11" s="248"/>
+      <c r="EJ11" s="248"/>
+      <c r="EK11" s="248"/>
+      <c r="EL11" s="248"/>
+      <c r="EM11" s="248"/>
+      <c r="EN11" s="248"/>
+      <c r="EO11" s="248"/>
+      <c r="EP11" s="249"/>
     </row>
     <row r="12" spans="1:755" s="37" customFormat="1" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -11685,194 +11685,194 @@
       <c r="K13" s="44"/>
       <c r="L13" s="223"/>
       <c r="M13" s="223"/>
-      <c r="N13" s="235" t="str">
+      <c r="N13" s="242" t="str">
         <f>"KW " &amp; TRUNC((N12-DATE(YEAR(N12+3-MOD(N12-2,7)),1,MOD(N12-2,7)-9))/7)</f>
         <v>KW 13</v>
       </c>
-      <c r="O13" s="235"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="235"/>
-      <c r="R13" s="235"/>
+      <c r="O13" s="242"/>
+      <c r="P13" s="242"/>
+      <c r="Q13" s="242"/>
+      <c r="R13" s="242"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="235" t="str">
+      <c r="U13" s="242" t="str">
         <f t="shared" ref="U13" si="3">"KW " &amp; TRUNC((U12-DATE(YEAR(U12+3-MOD(U12-2,7)),1,MOD(U12-2,7)-9))/7)</f>
         <v>KW 14</v>
       </c>
-      <c r="V13" s="235"/>
-      <c r="W13" s="235"/>
-      <c r="X13" s="235"/>
-      <c r="Y13" s="235"/>
+      <c r="V13" s="242"/>
+      <c r="W13" s="242"/>
+      <c r="X13" s="242"/>
+      <c r="Y13" s="242"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="46"/>
-      <c r="AB13" s="235" t="str">
+      <c r="AB13" s="242" t="str">
         <f t="shared" ref="AB13" si="4">"KW " &amp; TRUNC((AB12-DATE(YEAR(AB12+3-MOD(AB12-2,7)),1,MOD(AB12-2,7)-9))/7)</f>
         <v>KW 15</v>
       </c>
-      <c r="AC13" s="235"/>
-      <c r="AD13" s="235"/>
-      <c r="AE13" s="235"/>
-      <c r="AF13" s="235"/>
+      <c r="AC13" s="242"/>
+      <c r="AD13" s="242"/>
+      <c r="AE13" s="242"/>
+      <c r="AF13" s="242"/>
       <c r="AG13" s="46"/>
       <c r="AH13" s="46"/>
-      <c r="AI13" s="235" t="str">
+      <c r="AI13" s="242" t="str">
         <f t="shared" ref="AI13" si="5">"KW " &amp; TRUNC((AI12-DATE(YEAR(AI12+3-MOD(AI12-2,7)),1,MOD(AI12-2,7)-9))/7)</f>
         <v>KW 16</v>
       </c>
-      <c r="AJ13" s="235"/>
-      <c r="AK13" s="235"/>
-      <c r="AL13" s="235"/>
-      <c r="AM13" s="235"/>
+      <c r="AJ13" s="242"/>
+      <c r="AK13" s="242"/>
+      <c r="AL13" s="242"/>
+      <c r="AM13" s="242"/>
       <c r="AN13" s="46"/>
       <c r="AO13" s="46"/>
-      <c r="AP13" s="235" t="str">
+      <c r="AP13" s="242" t="str">
         <f t="shared" ref="AP13" si="6">"KW " &amp; TRUNC((AP12-DATE(YEAR(AP12+3-MOD(AP12-2,7)),1,MOD(AP12-2,7)-9))/7)</f>
         <v>KW 17</v>
       </c>
-      <c r="AQ13" s="235"/>
-      <c r="AR13" s="235"/>
-      <c r="AS13" s="235"/>
-      <c r="AT13" s="235"/>
+      <c r="AQ13" s="242"/>
+      <c r="AR13" s="242"/>
+      <c r="AS13" s="242"/>
+      <c r="AT13" s="242"/>
       <c r="AU13" s="46"/>
       <c r="AV13" s="46"/>
-      <c r="AW13" s="235" t="str">
+      <c r="AW13" s="242" t="str">
         <f t="shared" ref="AW13" si="7">"KW " &amp; TRUNC((AW12-DATE(YEAR(AW12+3-MOD(AW12-2,7)),1,MOD(AW12-2,7)-9))/7)</f>
         <v>KW 18</v>
       </c>
-      <c r="AX13" s="235"/>
-      <c r="AY13" s="235"/>
-      <c r="AZ13" s="235"/>
-      <c r="BA13" s="235"/>
+      <c r="AX13" s="242"/>
+      <c r="AY13" s="242"/>
+      <c r="AZ13" s="242"/>
+      <c r="BA13" s="242"/>
       <c r="BB13" s="46"/>
       <c r="BC13" s="46"/>
-      <c r="BD13" s="235" t="str">
+      <c r="BD13" s="242" t="str">
         <f t="shared" ref="BD13" si="8">"KW " &amp; TRUNC((BD12-DATE(YEAR(BD12+3-MOD(BD12-2,7)),1,MOD(BD12-2,7)-9))/7)</f>
         <v>KW 19</v>
       </c>
-      <c r="BE13" s="235"/>
-      <c r="BF13" s="235"/>
-      <c r="BG13" s="235"/>
-      <c r="BH13" s="235"/>
+      <c r="BE13" s="242"/>
+      <c r="BF13" s="242"/>
+      <c r="BG13" s="242"/>
+      <c r="BH13" s="242"/>
       <c r="BI13" s="46"/>
       <c r="BJ13" s="46"/>
-      <c r="BK13" s="235" t="str">
+      <c r="BK13" s="242" t="str">
         <f t="shared" ref="BK13" si="9">"KW " &amp; TRUNC((BK12-DATE(YEAR(BK12+3-MOD(BK12-2,7)),1,MOD(BK12-2,7)-9))/7)</f>
         <v>KW 20</v>
       </c>
-      <c r="BL13" s="235"/>
-      <c r="BM13" s="235"/>
-      <c r="BN13" s="235"/>
-      <c r="BO13" s="235"/>
+      <c r="BL13" s="242"/>
+      <c r="BM13" s="242"/>
+      <c r="BN13" s="242"/>
+      <c r="BO13" s="242"/>
       <c r="BP13" s="46"/>
       <c r="BQ13" s="46"/>
-      <c r="BR13" s="235" t="str">
+      <c r="BR13" s="242" t="str">
         <f t="shared" ref="BR13" si="10">"KW " &amp; TRUNC((BR12-DATE(YEAR(BR12+3-MOD(BR12-2,7)),1,MOD(BR12-2,7)-9))/7)</f>
         <v>KW 21</v>
       </c>
-      <c r="BS13" s="235"/>
-      <c r="BT13" s="235"/>
-      <c r="BU13" s="235"/>
-      <c r="BV13" s="235"/>
+      <c r="BS13" s="242"/>
+      <c r="BT13" s="242"/>
+      <c r="BU13" s="242"/>
+      <c r="BV13" s="242"/>
       <c r="BW13" s="46"/>
       <c r="BX13" s="46"/>
-      <c r="BY13" s="235" t="str">
+      <c r="BY13" s="242" t="str">
         <f t="shared" ref="BY13" si="11">"KW " &amp; TRUNC((BY12-DATE(YEAR(BY12+3-MOD(BY12-2,7)),1,MOD(BY12-2,7)-9))/7)</f>
         <v>KW 22</v>
       </c>
-      <c r="BZ13" s="235"/>
-      <c r="CA13" s="235"/>
-      <c r="CB13" s="235"/>
-      <c r="CC13" s="235"/>
+      <c r="BZ13" s="242"/>
+      <c r="CA13" s="242"/>
+      <c r="CB13" s="242"/>
+      <c r="CC13" s="242"/>
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
-      <c r="CF13" s="235" t="str">
+      <c r="CF13" s="242" t="str">
         <f t="shared" ref="CF13" si="12">"KW " &amp; TRUNC((CF12-DATE(YEAR(CF12+3-MOD(CF12-2,7)),1,MOD(CF12-2,7)-9))/7)</f>
         <v>KW 23</v>
       </c>
-      <c r="CG13" s="235"/>
-      <c r="CH13" s="235"/>
-      <c r="CI13" s="235"/>
-      <c r="CJ13" s="235"/>
+      <c r="CG13" s="242"/>
+      <c r="CH13" s="242"/>
+      <c r="CI13" s="242"/>
+      <c r="CJ13" s="242"/>
       <c r="CK13" s="46"/>
       <c r="CL13" s="46"/>
-      <c r="CM13" s="235" t="str">
+      <c r="CM13" s="242" t="str">
         <f t="shared" ref="CM13" si="13">"KW " &amp; TRUNC((CM12-DATE(YEAR(CM12+3-MOD(CM12-2,7)),1,MOD(CM12-2,7)-9))/7)</f>
         <v>KW 24</v>
       </c>
-      <c r="CN13" s="235"/>
-      <c r="CO13" s="235"/>
-      <c r="CP13" s="235"/>
-      <c r="CQ13" s="235"/>
+      <c r="CN13" s="242"/>
+      <c r="CO13" s="242"/>
+      <c r="CP13" s="242"/>
+      <c r="CQ13" s="242"/>
       <c r="CR13" s="46"/>
       <c r="CS13" s="46"/>
-      <c r="CT13" s="235" t="str">
+      <c r="CT13" s="242" t="str">
         <f t="shared" ref="CT13" si="14">"KW " &amp; TRUNC((CT12-DATE(YEAR(CT12+3-MOD(CT12-2,7)),1,MOD(CT12-2,7)-9))/7)</f>
         <v>KW 25</v>
       </c>
-      <c r="CU13" s="235"/>
-      <c r="CV13" s="235"/>
-      <c r="CW13" s="235"/>
-      <c r="CX13" s="235"/>
+      <c r="CU13" s="242"/>
+      <c r="CV13" s="242"/>
+      <c r="CW13" s="242"/>
+      <c r="CX13" s="242"/>
       <c r="CY13" s="46"/>
       <c r="CZ13" s="46"/>
-      <c r="DA13" s="235" t="str">
+      <c r="DA13" s="242" t="str">
         <f t="shared" ref="DA13" si="15">"KW " &amp; TRUNC((DA12-DATE(YEAR(DA12+3-MOD(DA12-2,7)),1,MOD(DA12-2,7)-9))/7)</f>
         <v>KW 26</v>
       </c>
-      <c r="DB13" s="235"/>
-      <c r="DC13" s="235"/>
-      <c r="DD13" s="235"/>
-      <c r="DE13" s="235"/>
+      <c r="DB13" s="242"/>
+      <c r="DC13" s="242"/>
+      <c r="DD13" s="242"/>
+      <c r="DE13" s="242"/>
       <c r="DF13" s="46"/>
       <c r="DG13" s="46"/>
-      <c r="DH13" s="235" t="str">
+      <c r="DH13" s="242" t="str">
         <f t="shared" ref="DH13" si="16">"KW " &amp; TRUNC((DH12-DATE(YEAR(DH12+3-MOD(DH12-2,7)),1,MOD(DH12-2,7)-9))/7)</f>
         <v>KW 27</v>
       </c>
-      <c r="DI13" s="235"/>
-      <c r="DJ13" s="235"/>
-      <c r="DK13" s="235"/>
-      <c r="DL13" s="235"/>
+      <c r="DI13" s="242"/>
+      <c r="DJ13" s="242"/>
+      <c r="DK13" s="242"/>
+      <c r="DL13" s="242"/>
       <c r="DM13" s="46"/>
       <c r="DN13" s="46"/>
-      <c r="DO13" s="235" t="str">
+      <c r="DO13" s="242" t="str">
         <f t="shared" ref="DO13" si="17">"KW " &amp; TRUNC((DO12-DATE(YEAR(DO12+3-MOD(DO12-2,7)),1,MOD(DO12-2,7)-9))/7)</f>
         <v>KW 28</v>
       </c>
-      <c r="DP13" s="235"/>
-      <c r="DQ13" s="235"/>
-      <c r="DR13" s="235"/>
-      <c r="DS13" s="235"/>
+      <c r="DP13" s="242"/>
+      <c r="DQ13" s="242"/>
+      <c r="DR13" s="242"/>
+      <c r="DS13" s="242"/>
       <c r="DT13" s="46"/>
       <c r="DU13" s="46"/>
-      <c r="DV13" s="235" t="str">
+      <c r="DV13" s="242" t="str">
         <f t="shared" ref="DV13" si="18">"KW " &amp; TRUNC((DV12-DATE(YEAR(DV12+3-MOD(DV12-2,7)),1,MOD(DV12-2,7)-9))/7)</f>
         <v>KW 29</v>
       </c>
-      <c r="DW13" s="235"/>
-      <c r="DX13" s="235"/>
-      <c r="DY13" s="235"/>
-      <c r="DZ13" s="235"/>
+      <c r="DW13" s="242"/>
+      <c r="DX13" s="242"/>
+      <c r="DY13" s="242"/>
+      <c r="DZ13" s="242"/>
       <c r="EA13" s="46"/>
       <c r="EB13" s="46"/>
-      <c r="EC13" s="235" t="str">
+      <c r="EC13" s="242" t="str">
         <f t="shared" ref="EC13" si="19">"KW " &amp; TRUNC((EC12-DATE(YEAR(EC12+3-MOD(EC12-2,7)),1,MOD(EC12-2,7)-9))/7)</f>
         <v>KW 30</v>
       </c>
-      <c r="ED13" s="235"/>
-      <c r="EE13" s="235"/>
-      <c r="EF13" s="235"/>
-      <c r="EG13" s="235"/>
+      <c r="ED13" s="242"/>
+      <c r="EE13" s="242"/>
+      <c r="EF13" s="242"/>
+      <c r="EG13" s="242"/>
       <c r="EH13" s="46"/>
       <c r="EI13" s="46"/>
-      <c r="EJ13" s="235" t="str">
+      <c r="EJ13" s="242" t="str">
         <f t="shared" ref="EJ13" si="20">"KW " &amp; TRUNC((EJ12-DATE(YEAR(EJ12+3-MOD(EJ12-2,7)),1,MOD(EJ12-2,7)-9))/7)</f>
         <v>KW 31</v>
       </c>
-      <c r="EK13" s="235"/>
-      <c r="EL13" s="235"/>
-      <c r="EM13" s="235"/>
-      <c r="EN13" s="235"/>
+      <c r="EK13" s="242"/>
+      <c r="EL13" s="242"/>
+      <c r="EM13" s="242"/>
+      <c r="EN13" s="242"/>
       <c r="EO13" s="46"/>
       <c r="EP13" s="47"/>
     </row>
@@ -11914,196 +11914,196 @@
       <c r="M14" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="243">
+      <c r="N14" s="236">
         <f>N12</f>
         <v>42086</v>
       </c>
-      <c r="O14" s="243"/>
-      <c r="P14" s="243"/>
-      <c r="Q14" s="243"/>
-      <c r="R14" s="243"/>
+      <c r="O14" s="236"/>
+      <c r="P14" s="236"/>
+      <c r="Q14" s="236"/>
+      <c r="R14" s="236"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
-      <c r="U14" s="243">
+      <c r="U14" s="236">
         <f>U12</f>
         <v>42093</v>
       </c>
-      <c r="V14" s="243"/>
-      <c r="W14" s="243"/>
-      <c r="X14" s="243"/>
-      <c r="Y14" s="243"/>
-      <c r="Z14" s="243"/>
-      <c r="AA14" s="243"/>
-      <c r="AB14" s="243">
+      <c r="V14" s="236"/>
+      <c r="W14" s="236"/>
+      <c r="X14" s="236"/>
+      <c r="Y14" s="236"/>
+      <c r="Z14" s="236"/>
+      <c r="AA14" s="236"/>
+      <c r="AB14" s="236">
         <f>AB12</f>
         <v>42100</v>
       </c>
-      <c r="AC14" s="243"/>
-      <c r="AD14" s="243"/>
-      <c r="AE14" s="243"/>
-      <c r="AF14" s="243"/>
-      <c r="AG14" s="243"/>
-      <c r="AH14" s="243"/>
-      <c r="AI14" s="243">
+      <c r="AC14" s="236"/>
+      <c r="AD14" s="236"/>
+      <c r="AE14" s="236"/>
+      <c r="AF14" s="236"/>
+      <c r="AG14" s="236"/>
+      <c r="AH14" s="236"/>
+      <c r="AI14" s="236">
         <f>AI12</f>
         <v>42107</v>
       </c>
-      <c r="AJ14" s="243"/>
-      <c r="AK14" s="243"/>
-      <c r="AL14" s="243"/>
-      <c r="AM14" s="243"/>
-      <c r="AN14" s="243"/>
-      <c r="AO14" s="243"/>
-      <c r="AP14" s="243">
+      <c r="AJ14" s="236"/>
+      <c r="AK14" s="236"/>
+      <c r="AL14" s="236"/>
+      <c r="AM14" s="236"/>
+      <c r="AN14" s="236"/>
+      <c r="AO14" s="236"/>
+      <c r="AP14" s="236">
         <f>AP12</f>
         <v>42114</v>
       </c>
-      <c r="AQ14" s="243"/>
-      <c r="AR14" s="243"/>
-      <c r="AS14" s="243"/>
-      <c r="AT14" s="243"/>
-      <c r="AU14" s="243"/>
-      <c r="AV14" s="243"/>
-      <c r="AW14" s="243">
+      <c r="AQ14" s="236"/>
+      <c r="AR14" s="236"/>
+      <c r="AS14" s="236"/>
+      <c r="AT14" s="236"/>
+      <c r="AU14" s="236"/>
+      <c r="AV14" s="236"/>
+      <c r="AW14" s="236">
         <f>AW12</f>
         <v>42121</v>
       </c>
-      <c r="AX14" s="243"/>
-      <c r="AY14" s="243"/>
-      <c r="AZ14" s="243"/>
-      <c r="BA14" s="243"/>
-      <c r="BB14" s="243"/>
-      <c r="BC14" s="243"/>
-      <c r="BD14" s="243">
+      <c r="AX14" s="236"/>
+      <c r="AY14" s="236"/>
+      <c r="AZ14" s="236"/>
+      <c r="BA14" s="236"/>
+      <c r="BB14" s="236"/>
+      <c r="BC14" s="236"/>
+      <c r="BD14" s="236">
         <f>BD12</f>
         <v>42128</v>
       </c>
-      <c r="BE14" s="243"/>
-      <c r="BF14" s="243"/>
-      <c r="BG14" s="243"/>
-      <c r="BH14" s="243"/>
-      <c r="BI14" s="243"/>
-      <c r="BJ14" s="243"/>
-      <c r="BK14" s="243">
+      <c r="BE14" s="236"/>
+      <c r="BF14" s="236"/>
+      <c r="BG14" s="236"/>
+      <c r="BH14" s="236"/>
+      <c r="BI14" s="236"/>
+      <c r="BJ14" s="236"/>
+      <c r="BK14" s="236">
         <f>BK12</f>
         <v>42135</v>
       </c>
-      <c r="BL14" s="243"/>
-      <c r="BM14" s="243"/>
-      <c r="BN14" s="243"/>
-      <c r="BO14" s="243"/>
-      <c r="BP14" s="243"/>
-      <c r="BQ14" s="243"/>
-      <c r="BR14" s="243">
+      <c r="BL14" s="236"/>
+      <c r="BM14" s="236"/>
+      <c r="BN14" s="236"/>
+      <c r="BO14" s="236"/>
+      <c r="BP14" s="236"/>
+      <c r="BQ14" s="236"/>
+      <c r="BR14" s="236">
         <f>BR12</f>
         <v>42142</v>
       </c>
-      <c r="BS14" s="243"/>
-      <c r="BT14" s="243"/>
-      <c r="BU14" s="243"/>
-      <c r="BV14" s="243"/>
-      <c r="BW14" s="243"/>
-      <c r="BX14" s="243"/>
-      <c r="BY14" s="243">
+      <c r="BS14" s="236"/>
+      <c r="BT14" s="236"/>
+      <c r="BU14" s="236"/>
+      <c r="BV14" s="236"/>
+      <c r="BW14" s="236"/>
+      <c r="BX14" s="236"/>
+      <c r="BY14" s="236">
         <f>BY12</f>
         <v>42149</v>
       </c>
-      <c r="BZ14" s="243"/>
-      <c r="CA14" s="243"/>
-      <c r="CB14" s="243"/>
-      <c r="CC14" s="243"/>
-      <c r="CD14" s="243"/>
-      <c r="CE14" s="243"/>
-      <c r="CF14" s="243">
+      <c r="BZ14" s="236"/>
+      <c r="CA14" s="236"/>
+      <c r="CB14" s="236"/>
+      <c r="CC14" s="236"/>
+      <c r="CD14" s="236"/>
+      <c r="CE14" s="236"/>
+      <c r="CF14" s="236">
         <f>CF12</f>
         <v>42156</v>
       </c>
-      <c r="CG14" s="243"/>
-      <c r="CH14" s="243"/>
-      <c r="CI14" s="243"/>
-      <c r="CJ14" s="243"/>
-      <c r="CK14" s="243"/>
-      <c r="CL14" s="243"/>
-      <c r="CM14" s="243">
+      <c r="CG14" s="236"/>
+      <c r="CH14" s="236"/>
+      <c r="CI14" s="236"/>
+      <c r="CJ14" s="236"/>
+      <c r="CK14" s="236"/>
+      <c r="CL14" s="236"/>
+      <c r="CM14" s="236">
         <f>CM12</f>
         <v>42163</v>
       </c>
-      <c r="CN14" s="243"/>
-      <c r="CO14" s="243"/>
-      <c r="CP14" s="243"/>
-      <c r="CQ14" s="243"/>
-      <c r="CR14" s="243"/>
-      <c r="CS14" s="243"/>
-      <c r="CT14" s="243">
+      <c r="CN14" s="236"/>
+      <c r="CO14" s="236"/>
+      <c r="CP14" s="236"/>
+      <c r="CQ14" s="236"/>
+      <c r="CR14" s="236"/>
+      <c r="CS14" s="236"/>
+      <c r="CT14" s="236">
         <f>CT12</f>
         <v>42170</v>
       </c>
-      <c r="CU14" s="243"/>
-      <c r="CV14" s="243"/>
-      <c r="CW14" s="243"/>
-      <c r="CX14" s="243"/>
-      <c r="CY14" s="243"/>
-      <c r="CZ14" s="243"/>
-      <c r="DA14" s="243">
+      <c r="CU14" s="236"/>
+      <c r="CV14" s="236"/>
+      <c r="CW14" s="236"/>
+      <c r="CX14" s="236"/>
+      <c r="CY14" s="236"/>
+      <c r="CZ14" s="236"/>
+      <c r="DA14" s="236">
         <f>DA12</f>
         <v>42177</v>
       </c>
-      <c r="DB14" s="243"/>
-      <c r="DC14" s="243"/>
-      <c r="DD14" s="243"/>
-      <c r="DE14" s="243"/>
-      <c r="DF14" s="243"/>
-      <c r="DG14" s="243"/>
-      <c r="DH14" s="243">
+      <c r="DB14" s="236"/>
+      <c r="DC14" s="236"/>
+      <c r="DD14" s="236"/>
+      <c r="DE14" s="236"/>
+      <c r="DF14" s="236"/>
+      <c r="DG14" s="236"/>
+      <c r="DH14" s="236">
         <f>DH12</f>
         <v>42184</v>
       </c>
-      <c r="DI14" s="243"/>
-      <c r="DJ14" s="243"/>
-      <c r="DK14" s="243"/>
-      <c r="DL14" s="243"/>
-      <c r="DM14" s="243"/>
-      <c r="DN14" s="243"/>
-      <c r="DO14" s="243">
+      <c r="DI14" s="236"/>
+      <c r="DJ14" s="236"/>
+      <c r="DK14" s="236"/>
+      <c r="DL14" s="236"/>
+      <c r="DM14" s="236"/>
+      <c r="DN14" s="236"/>
+      <c r="DO14" s="236">
         <f>DO12</f>
         <v>42191</v>
       </c>
-      <c r="DP14" s="243"/>
-      <c r="DQ14" s="243"/>
-      <c r="DR14" s="243"/>
-      <c r="DS14" s="243"/>
-      <c r="DT14" s="243"/>
-      <c r="DU14" s="243"/>
-      <c r="DV14" s="243">
+      <c r="DP14" s="236"/>
+      <c r="DQ14" s="236"/>
+      <c r="DR14" s="236"/>
+      <c r="DS14" s="236"/>
+      <c r="DT14" s="236"/>
+      <c r="DU14" s="236"/>
+      <c r="DV14" s="236">
         <f>DV12</f>
         <v>42198</v>
       </c>
-      <c r="DW14" s="243"/>
-      <c r="DX14" s="243"/>
-      <c r="DY14" s="243"/>
-      <c r="DZ14" s="243"/>
-      <c r="EA14" s="243"/>
-      <c r="EB14" s="243"/>
-      <c r="EC14" s="243">
+      <c r="DW14" s="236"/>
+      <c r="DX14" s="236"/>
+      <c r="DY14" s="236"/>
+      <c r="DZ14" s="236"/>
+      <c r="EA14" s="236"/>
+      <c r="EB14" s="236"/>
+      <c r="EC14" s="236">
         <f>EC12</f>
         <v>42205</v>
       </c>
-      <c r="ED14" s="243"/>
-      <c r="EE14" s="243"/>
-      <c r="EF14" s="243"/>
-      <c r="EG14" s="243"/>
-      <c r="EH14" s="243"/>
-      <c r="EI14" s="243"/>
-      <c r="EJ14" s="243">
+      <c r="ED14" s="236"/>
+      <c r="EE14" s="236"/>
+      <c r="EF14" s="236"/>
+      <c r="EG14" s="236"/>
+      <c r="EH14" s="236"/>
+      <c r="EI14" s="236"/>
+      <c r="EJ14" s="236">
         <f>EJ12</f>
         <v>42212</v>
       </c>
-      <c r="EK14" s="243"/>
-      <c r="EL14" s="243"/>
-      <c r="EM14" s="243"/>
-      <c r="EN14" s="243"/>
-      <c r="EO14" s="243"/>
-      <c r="EP14" s="245"/>
+      <c r="EK14" s="236"/>
+      <c r="EL14" s="236"/>
+      <c r="EM14" s="236"/>
+      <c r="EN14" s="236"/>
+      <c r="EO14" s="236"/>
+      <c r="EP14" s="237"/>
       <c r="EQ14" s="48"/>
     </row>
     <row r="15" spans="1:755" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13733,7 +13733,7 @@
       </c>
       <c r="K23" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-58</v>
+        <v>-64</v>
       </c>
       <c r="L23" s="228">
         <f t="shared" si="22"/>
@@ -14252,7 +14252,7 @@
       </c>
       <c r="K26" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-62</v>
+        <v>-68</v>
       </c>
       <c r="L26" s="228">
         <f t="shared" si="22"/>
@@ -14763,7 +14763,7 @@
       </c>
       <c r="K29" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-47</v>
+        <v>-53</v>
       </c>
       <c r="L29" s="228">
         <f t="shared" si="22"/>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="K31" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-46</v>
+        <v>-52</v>
       </c>
       <c r="L31" s="228">
         <f t="shared" si="22"/>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="K32" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-53</v>
+        <v>-59</v>
       </c>
       <c r="L32" s="228">
         <f t="shared" si="22"/>
@@ -15784,7 +15784,7 @@
       </c>
       <c r="K35" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-33</v>
+        <v>-39</v>
       </c>
       <c r="L35" s="228">
         <f t="shared" si="22"/>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="K36" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-38</v>
+        <v>-44</v>
       </c>
       <c r="L36" s="228">
         <f t="shared" si="22"/>
@@ -16130,7 +16130,7 @@
       </c>
       <c r="K37" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-34</v>
+        <v>-40</v>
       </c>
       <c r="L37" s="228">
         <f t="shared" si="22"/>
@@ -16303,7 +16303,7 @@
       </c>
       <c r="K38" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-29</v>
+        <v>-35</v>
       </c>
       <c r="L38" s="228">
         <f t="shared" si="22"/>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="K39" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-39</v>
+        <v>-45</v>
       </c>
       <c r="L39" s="228">
         <f t="shared" si="22"/>
@@ -16985,7 +16985,7 @@
       </c>
       <c r="K42" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-18</v>
+        <v>-24</v>
       </c>
       <c r="L42" s="228">
         <f t="shared" si="22"/>
@@ -17158,7 +17158,7 @@
       </c>
       <c r="K43" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-18</v>
+        <v>-24</v>
       </c>
       <c r="L43" s="228">
         <f t="shared" si="22"/>
@@ -17331,7 +17331,7 @@
       </c>
       <c r="K44" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="L44" s="228">
         <f t="shared" si="22"/>
@@ -17504,7 +17504,7 @@
       </c>
       <c r="K45" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-18</v>
+        <v>-24</v>
       </c>
       <c r="L45" s="228">
         <f t="shared" si="22"/>
@@ -18006,7 +18006,7 @@
       </c>
       <c r="K48" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="L48" s="228">
         <f t="shared" si="22"/>
@@ -18179,7 +18179,7 @@
       </c>
       <c r="K49" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="L49" s="228">
         <f t="shared" si="22"/>
@@ -18352,7 +18352,7 @@
       </c>
       <c r="K50" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="L50" s="228">
         <f t="shared" si="22"/>
@@ -18525,7 +18525,7 @@
       </c>
       <c r="K51" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="L51" s="228">
         <f t="shared" si="22"/>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="K52" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L52" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19198,7 +19198,7 @@
       </c>
       <c r="K55" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L55" s="228">
         <f t="shared" si="22"/>
@@ -19370,7 +19370,7 @@
       </c>
       <c r="K56" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L56" s="228" t="str">
         <f t="shared" si="22"/>
@@ -19542,7 +19542,7 @@
       </c>
       <c r="K57" s="70">
         <f t="shared" ca="1" si="23"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L57" s="228" t="str">
         <f t="shared" si="22"/>
@@ -21160,45 +21160,45 @@
       <c r="EQ66" s="37"/>
     </row>
     <row r="67" spans="1:147" s="3" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="246"/>
-      <c r="B67" s="247"/>
-      <c r="C67" s="247"/>
-      <c r="D67" s="247"/>
-      <c r="E67" s="247"/>
-      <c r="F67" s="247"/>
-      <c r="G67" s="247"/>
-      <c r="H67" s="247"/>
-      <c r="I67" s="247"/>
-      <c r="J67" s="247"/>
-      <c r="K67" s="247"/>
-      <c r="L67" s="247"/>
-      <c r="M67" s="247"/>
-      <c r="N67" s="247"/>
-      <c r="O67" s="247"/>
-      <c r="P67" s="247"/>
-      <c r="Q67" s="247"/>
-      <c r="R67" s="247"/>
-      <c r="S67" s="247"/>
-      <c r="T67" s="247"/>
-      <c r="U67" s="247"/>
-      <c r="V67" s="247"/>
-      <c r="W67" s="247"/>
-      <c r="X67" s="247"/>
-      <c r="Y67" s="247"/>
-      <c r="Z67" s="247"/>
-      <c r="AA67" s="247"/>
-      <c r="AB67" s="247"/>
-      <c r="AC67" s="247"/>
-      <c r="AD67" s="247"/>
-      <c r="AE67" s="247"/>
-      <c r="AF67" s="247"/>
-      <c r="AG67" s="247"/>
-      <c r="AH67" s="247"/>
-      <c r="AI67" s="247"/>
-      <c r="AJ67" s="247"/>
-      <c r="AK67" s="247"/>
-      <c r="AL67" s="247"/>
-      <c r="AM67" s="247"/>
+      <c r="A67" s="238"/>
+      <c r="B67" s="239"/>
+      <c r="C67" s="239"/>
+      <c r="D67" s="239"/>
+      <c r="E67" s="239"/>
+      <c r="F67" s="239"/>
+      <c r="G67" s="239"/>
+      <c r="H67" s="239"/>
+      <c r="I67" s="239"/>
+      <c r="J67" s="239"/>
+      <c r="K67" s="239"/>
+      <c r="L67" s="239"/>
+      <c r="M67" s="239"/>
+      <c r="N67" s="239"/>
+      <c r="O67" s="239"/>
+      <c r="P67" s="239"/>
+      <c r="Q67" s="239"/>
+      <c r="R67" s="239"/>
+      <c r="S67" s="239"/>
+      <c r="T67" s="239"/>
+      <c r="U67" s="239"/>
+      <c r="V67" s="239"/>
+      <c r="W67" s="239"/>
+      <c r="X67" s="239"/>
+      <c r="Y67" s="239"/>
+      <c r="Z67" s="239"/>
+      <c r="AA67" s="239"/>
+      <c r="AB67" s="239"/>
+      <c r="AC67" s="239"/>
+      <c r="AD67" s="239"/>
+      <c r="AE67" s="239"/>
+      <c r="AF67" s="239"/>
+      <c r="AG67" s="239"/>
+      <c r="AH67" s="239"/>
+      <c r="AI67" s="239"/>
+      <c r="AJ67" s="239"/>
+      <c r="AK67" s="239"/>
+      <c r="AL67" s="239"/>
+      <c r="AM67" s="239"/>
       <c r="AN67" s="100"/>
       <c r="AO67" s="100"/>
       <c r="AP67" s="100"/>
@@ -21229,85 +21229,85 @@
       <c r="BO67" s="100"/>
       <c r="BP67" s="100"/>
       <c r="BQ67" s="100"/>
-      <c r="BR67" s="248" t="s">
+      <c r="BR67" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="BS67" s="248"/>
-      <c r="BT67" s="248"/>
-      <c r="BU67" s="248"/>
-      <c r="BV67" s="248"/>
-      <c r="BW67" s="248"/>
-      <c r="BX67" s="248"/>
-      <c r="BY67" s="248"/>
-      <c r="BZ67" s="248"/>
-      <c r="CA67" s="248"/>
-      <c r="CB67" s="248"/>
-      <c r="CC67" s="248"/>
-      <c r="CD67" s="248"/>
-      <c r="CE67" s="248"/>
-      <c r="CF67" s="248"/>
-      <c r="CG67" s="248"/>
-      <c r="CH67" s="248"/>
-      <c r="CI67" s="248"/>
-      <c r="CJ67" s="248"/>
-      <c r="CK67" s="248"/>
-      <c r="CL67" s="248"/>
-      <c r="CM67" s="248"/>
-      <c r="CN67" s="248"/>
-      <c r="CO67" s="248"/>
-      <c r="CP67" s="248"/>
-      <c r="CQ67" s="248"/>
-      <c r="CR67" s="248"/>
-      <c r="CS67" s="248"/>
-      <c r="CT67" s="248"/>
-      <c r="CU67" s="248"/>
-      <c r="CV67" s="248"/>
-      <c r="CW67" s="248"/>
-      <c r="CX67" s="248"/>
-      <c r="CY67" s="248"/>
-      <c r="CZ67" s="248"/>
-      <c r="DA67" s="248"/>
-      <c r="DB67" s="248"/>
-      <c r="DC67" s="248"/>
-      <c r="DD67" s="248"/>
-      <c r="DE67" s="248"/>
-      <c r="DF67" s="248"/>
-      <c r="DG67" s="248"/>
-      <c r="DH67" s="248"/>
-      <c r="DI67" s="248"/>
-      <c r="DJ67" s="248"/>
-      <c r="DK67" s="248"/>
-      <c r="DL67" s="248"/>
-      <c r="DM67" s="248"/>
-      <c r="DN67" s="248"/>
-      <c r="DO67" s="248"/>
-      <c r="DP67" s="248"/>
-      <c r="DQ67" s="248"/>
-      <c r="DR67" s="248"/>
-      <c r="DS67" s="248"/>
-      <c r="DT67" s="248"/>
-      <c r="DU67" s="248"/>
-      <c r="DV67" s="248"/>
-      <c r="DW67" s="248"/>
-      <c r="DX67" s="248"/>
-      <c r="DY67" s="248"/>
-      <c r="DZ67" s="248"/>
-      <c r="EA67" s="248"/>
-      <c r="EB67" s="248"/>
-      <c r="EC67" s="248"/>
-      <c r="ED67" s="248"/>
-      <c r="EE67" s="248"/>
-      <c r="EF67" s="248"/>
-      <c r="EG67" s="248"/>
-      <c r="EH67" s="248"/>
-      <c r="EI67" s="248"/>
-      <c r="EJ67" s="248"/>
-      <c r="EK67" s="248"/>
-      <c r="EL67" s="248"/>
-      <c r="EM67" s="248"/>
-      <c r="EN67" s="248"/>
-      <c r="EO67" s="248"/>
-      <c r="EP67" s="249"/>
+      <c r="BS67" s="240"/>
+      <c r="BT67" s="240"/>
+      <c r="BU67" s="240"/>
+      <c r="BV67" s="240"/>
+      <c r="BW67" s="240"/>
+      <c r="BX67" s="240"/>
+      <c r="BY67" s="240"/>
+      <c r="BZ67" s="240"/>
+      <c r="CA67" s="240"/>
+      <c r="CB67" s="240"/>
+      <c r="CC67" s="240"/>
+      <c r="CD67" s="240"/>
+      <c r="CE67" s="240"/>
+      <c r="CF67" s="240"/>
+      <c r="CG67" s="240"/>
+      <c r="CH67" s="240"/>
+      <c r="CI67" s="240"/>
+      <c r="CJ67" s="240"/>
+      <c r="CK67" s="240"/>
+      <c r="CL67" s="240"/>
+      <c r="CM67" s="240"/>
+      <c r="CN67" s="240"/>
+      <c r="CO67" s="240"/>
+      <c r="CP67" s="240"/>
+      <c r="CQ67" s="240"/>
+      <c r="CR67" s="240"/>
+      <c r="CS67" s="240"/>
+      <c r="CT67" s="240"/>
+      <c r="CU67" s="240"/>
+      <c r="CV67" s="240"/>
+      <c r="CW67" s="240"/>
+      <c r="CX67" s="240"/>
+      <c r="CY67" s="240"/>
+      <c r="CZ67" s="240"/>
+      <c r="DA67" s="240"/>
+      <c r="DB67" s="240"/>
+      <c r="DC67" s="240"/>
+      <c r="DD67" s="240"/>
+      <c r="DE67" s="240"/>
+      <c r="DF67" s="240"/>
+      <c r="DG67" s="240"/>
+      <c r="DH67" s="240"/>
+      <c r="DI67" s="240"/>
+      <c r="DJ67" s="240"/>
+      <c r="DK67" s="240"/>
+      <c r="DL67" s="240"/>
+      <c r="DM67" s="240"/>
+      <c r="DN67" s="240"/>
+      <c r="DO67" s="240"/>
+      <c r="DP67" s="240"/>
+      <c r="DQ67" s="240"/>
+      <c r="DR67" s="240"/>
+      <c r="DS67" s="240"/>
+      <c r="DT67" s="240"/>
+      <c r="DU67" s="240"/>
+      <c r="DV67" s="240"/>
+      <c r="DW67" s="240"/>
+      <c r="DX67" s="240"/>
+      <c r="DY67" s="240"/>
+      <c r="DZ67" s="240"/>
+      <c r="EA67" s="240"/>
+      <c r="EB67" s="240"/>
+      <c r="EC67" s="240"/>
+      <c r="ED67" s="240"/>
+      <c r="EE67" s="240"/>
+      <c r="EF67" s="240"/>
+      <c r="EG67" s="240"/>
+      <c r="EH67" s="240"/>
+      <c r="EI67" s="240"/>
+      <c r="EJ67" s="240"/>
+      <c r="EK67" s="240"/>
+      <c r="EL67" s="240"/>
+      <c r="EM67" s="240"/>
+      <c r="EN67" s="240"/>
+      <c r="EO67" s="240"/>
+      <c r="EP67" s="241"/>
       <c r="EQ67" s="48"/>
     </row>
     <row r="68" spans="1:147" x14ac:dyDescent="0.25">
@@ -21459,155 +21459,203 @@
       <c r="EQ68" s="37"/>
     </row>
     <row r="69" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="A69" s="244"/>
-      <c r="B69" s="244"/>
-      <c r="C69" s="244"/>
-      <c r="D69" s="244"/>
-      <c r="E69" s="244"/>
-      <c r="F69" s="244"/>
-      <c r="G69" s="244"/>
-      <c r="H69" s="244"/>
-      <c r="I69" s="244"/>
-      <c r="J69" s="244"/>
-      <c r="K69" s="244"/>
-      <c r="L69" s="244"/>
-      <c r="M69" s="244"/>
-      <c r="N69" s="244"/>
-      <c r="O69" s="244"/>
-      <c r="P69" s="244"/>
-      <c r="Q69" s="244"/>
-      <c r="R69" s="244"/>
-      <c r="S69" s="244"/>
-      <c r="T69" s="244"/>
-      <c r="U69" s="244"/>
-      <c r="V69" s="244"/>
-      <c r="W69" s="244"/>
-      <c r="X69" s="244"/>
-      <c r="Y69" s="244"/>
-      <c r="Z69" s="244"/>
-      <c r="AA69" s="244"/>
-      <c r="AB69" s="244"/>
-      <c r="AC69" s="244"/>
-      <c r="AD69" s="244"/>
-      <c r="AE69" s="244"/>
-      <c r="AF69" s="244"/>
-      <c r="AG69" s="244"/>
-      <c r="AH69" s="244"/>
-      <c r="AI69" s="244"/>
-      <c r="AJ69" s="244"/>
-      <c r="AK69" s="244"/>
-      <c r="AL69" s="244"/>
-      <c r="AM69" s="244"/>
-      <c r="AN69" s="244"/>
-      <c r="AO69" s="244"/>
-      <c r="AP69" s="244"/>
-      <c r="AQ69" s="244"/>
-      <c r="AR69" s="244"/>
-      <c r="AS69" s="244"/>
-      <c r="AT69" s="244"/>
-      <c r="AU69" s="244"/>
-      <c r="AV69" s="244"/>
-      <c r="AW69" s="244"/>
-      <c r="AX69" s="244"/>
-      <c r="AY69" s="244"/>
-      <c r="AZ69" s="244"/>
-      <c r="BA69" s="244"/>
-      <c r="BB69" s="244"/>
-      <c r="BC69" s="244"/>
-      <c r="BD69" s="244"/>
-      <c r="BE69" s="244"/>
-      <c r="BF69" s="244"/>
-      <c r="BG69" s="244"/>
-      <c r="BH69" s="244"/>
-      <c r="BI69" s="244"/>
-      <c r="BJ69" s="244"/>
-      <c r="BK69" s="244"/>
-      <c r="BL69" s="244"/>
-      <c r="BM69" s="244"/>
-      <c r="BN69" s="244"/>
-      <c r="BO69" s="244"/>
-      <c r="BP69" s="244"/>
-      <c r="BQ69" s="244"/>
-      <c r="BR69" s="244"/>
-      <c r="BS69" s="244"/>
-      <c r="BT69" s="244"/>
-      <c r="BU69" s="244"/>
-      <c r="BV69" s="244"/>
-      <c r="BW69" s="244"/>
-      <c r="BX69" s="244"/>
-      <c r="BY69" s="244"/>
-      <c r="BZ69" s="244"/>
-      <c r="CA69" s="244"/>
-      <c r="CB69" s="244"/>
-      <c r="CC69" s="244"/>
-      <c r="CD69" s="244"/>
-      <c r="CE69" s="244"/>
-      <c r="CF69" s="244"/>
-      <c r="CG69" s="244"/>
-      <c r="CH69" s="244"/>
-      <c r="CI69" s="244"/>
-      <c r="CJ69" s="244"/>
-      <c r="CK69" s="244"/>
-      <c r="CL69" s="244"/>
-      <c r="CM69" s="244"/>
-      <c r="CN69" s="244"/>
-      <c r="CO69" s="244"/>
-      <c r="CP69" s="244"/>
-      <c r="CQ69" s="244"/>
-      <c r="CR69" s="244"/>
-      <c r="CS69" s="244"/>
-      <c r="CT69" s="244"/>
-      <c r="CU69" s="244"/>
-      <c r="CV69" s="244"/>
-      <c r="CW69" s="244"/>
-      <c r="CX69" s="244"/>
-      <c r="CY69" s="244"/>
-      <c r="CZ69" s="244"/>
-      <c r="DA69" s="244"/>
-      <c r="DB69" s="244"/>
-      <c r="DC69" s="244"/>
-      <c r="DD69" s="244"/>
-      <c r="DE69" s="244"/>
-      <c r="DF69" s="244"/>
-      <c r="DG69" s="244"/>
-      <c r="DH69" s="244"/>
-      <c r="DI69" s="244"/>
-      <c r="DJ69" s="244"/>
-      <c r="DK69" s="244"/>
-      <c r="DL69" s="244"/>
-      <c r="DM69" s="244"/>
-      <c r="DN69" s="244"/>
-      <c r="DO69" s="244"/>
-      <c r="DP69" s="244"/>
-      <c r="DQ69" s="244"/>
-      <c r="DR69" s="244"/>
-      <c r="DS69" s="244"/>
-      <c r="DT69" s="244"/>
-      <c r="DU69" s="244"/>
-      <c r="DV69" s="244"/>
-      <c r="DW69" s="244"/>
-      <c r="DX69" s="244"/>
-      <c r="DY69" s="244"/>
-      <c r="DZ69" s="244"/>
-      <c r="EA69" s="244"/>
-      <c r="EB69" s="244"/>
-      <c r="EC69" s="244"/>
-      <c r="ED69" s="244"/>
-      <c r="EE69" s="244"/>
-      <c r="EF69" s="244"/>
-      <c r="EG69" s="244"/>
-      <c r="EH69" s="244"/>
-      <c r="EI69" s="244"/>
-      <c r="EJ69" s="244"/>
-      <c r="EK69" s="244"/>
-      <c r="EL69" s="244"/>
-      <c r="EM69" s="244"/>
-      <c r="EN69" s="244"/>
-      <c r="EO69" s="244"/>
-      <c r="EP69" s="244"/>
+      <c r="A69" s="235"/>
+      <c r="B69" s="235"/>
+      <c r="C69" s="235"/>
+      <c r="D69" s="235"/>
+      <c r="E69" s="235"/>
+      <c r="F69" s="235"/>
+      <c r="G69" s="235"/>
+      <c r="H69" s="235"/>
+      <c r="I69" s="235"/>
+      <c r="J69" s="235"/>
+      <c r="K69" s="235"/>
+      <c r="L69" s="235"/>
+      <c r="M69" s="235"/>
+      <c r="N69" s="235"/>
+      <c r="O69" s="235"/>
+      <c r="P69" s="235"/>
+      <c r="Q69" s="235"/>
+      <c r="R69" s="235"/>
+      <c r="S69" s="235"/>
+      <c r="T69" s="235"/>
+      <c r="U69" s="235"/>
+      <c r="V69" s="235"/>
+      <c r="W69" s="235"/>
+      <c r="X69" s="235"/>
+      <c r="Y69" s="235"/>
+      <c r="Z69" s="235"/>
+      <c r="AA69" s="235"/>
+      <c r="AB69" s="235"/>
+      <c r="AC69" s="235"/>
+      <c r="AD69" s="235"/>
+      <c r="AE69" s="235"/>
+      <c r="AF69" s="235"/>
+      <c r="AG69" s="235"/>
+      <c r="AH69" s="235"/>
+      <c r="AI69" s="235"/>
+      <c r="AJ69" s="235"/>
+      <c r="AK69" s="235"/>
+      <c r="AL69" s="235"/>
+      <c r="AM69" s="235"/>
+      <c r="AN69" s="235"/>
+      <c r="AO69" s="235"/>
+      <c r="AP69" s="235"/>
+      <c r="AQ69" s="235"/>
+      <c r="AR69" s="235"/>
+      <c r="AS69" s="235"/>
+      <c r="AT69" s="235"/>
+      <c r="AU69" s="235"/>
+      <c r="AV69" s="235"/>
+      <c r="AW69" s="235"/>
+      <c r="AX69" s="235"/>
+      <c r="AY69" s="235"/>
+      <c r="AZ69" s="235"/>
+      <c r="BA69" s="235"/>
+      <c r="BB69" s="235"/>
+      <c r="BC69" s="235"/>
+      <c r="BD69" s="235"/>
+      <c r="BE69" s="235"/>
+      <c r="BF69" s="235"/>
+      <c r="BG69" s="235"/>
+      <c r="BH69" s="235"/>
+      <c r="BI69" s="235"/>
+      <c r="BJ69" s="235"/>
+      <c r="BK69" s="235"/>
+      <c r="BL69" s="235"/>
+      <c r="BM69" s="235"/>
+      <c r="BN69" s="235"/>
+      <c r="BO69" s="235"/>
+      <c r="BP69" s="235"/>
+      <c r="BQ69" s="235"/>
+      <c r="BR69" s="235"/>
+      <c r="BS69" s="235"/>
+      <c r="BT69" s="235"/>
+      <c r="BU69" s="235"/>
+      <c r="BV69" s="235"/>
+      <c r="BW69" s="235"/>
+      <c r="BX69" s="235"/>
+      <c r="BY69" s="235"/>
+      <c r="BZ69" s="235"/>
+      <c r="CA69" s="235"/>
+      <c r="CB69" s="235"/>
+      <c r="CC69" s="235"/>
+      <c r="CD69" s="235"/>
+      <c r="CE69" s="235"/>
+      <c r="CF69" s="235"/>
+      <c r="CG69" s="235"/>
+      <c r="CH69" s="235"/>
+      <c r="CI69" s="235"/>
+      <c r="CJ69" s="235"/>
+      <c r="CK69" s="235"/>
+      <c r="CL69" s="235"/>
+      <c r="CM69" s="235"/>
+      <c r="CN69" s="235"/>
+      <c r="CO69" s="235"/>
+      <c r="CP69" s="235"/>
+      <c r="CQ69" s="235"/>
+      <c r="CR69" s="235"/>
+      <c r="CS69" s="235"/>
+      <c r="CT69" s="235"/>
+      <c r="CU69" s="235"/>
+      <c r="CV69" s="235"/>
+      <c r="CW69" s="235"/>
+      <c r="CX69" s="235"/>
+      <c r="CY69" s="235"/>
+      <c r="CZ69" s="235"/>
+      <c r="DA69" s="235"/>
+      <c r="DB69" s="235"/>
+      <c r="DC69" s="235"/>
+      <c r="DD69" s="235"/>
+      <c r="DE69" s="235"/>
+      <c r="DF69" s="235"/>
+      <c r="DG69" s="235"/>
+      <c r="DH69" s="235"/>
+      <c r="DI69" s="235"/>
+      <c r="DJ69" s="235"/>
+      <c r="DK69" s="235"/>
+      <c r="DL69" s="235"/>
+      <c r="DM69" s="235"/>
+      <c r="DN69" s="235"/>
+      <c r="DO69" s="235"/>
+      <c r="DP69" s="235"/>
+      <c r="DQ69" s="235"/>
+      <c r="DR69" s="235"/>
+      <c r="DS69" s="235"/>
+      <c r="DT69" s="235"/>
+      <c r="DU69" s="235"/>
+      <c r="DV69" s="235"/>
+      <c r="DW69" s="235"/>
+      <c r="DX69" s="235"/>
+      <c r="DY69" s="235"/>
+      <c r="DZ69" s="235"/>
+      <c r="EA69" s="235"/>
+      <c r="EB69" s="235"/>
+      <c r="EC69" s="235"/>
+      <c r="ED69" s="235"/>
+      <c r="EE69" s="235"/>
+      <c r="EF69" s="235"/>
+      <c r="EG69" s="235"/>
+      <c r="EH69" s="235"/>
+      <c r="EI69" s="235"/>
+      <c r="EJ69" s="235"/>
+      <c r="EK69" s="235"/>
+      <c r="EL69" s="235"/>
+      <c r="EM69" s="235"/>
+      <c r="EN69" s="235"/>
+      <c r="EO69" s="235"/>
+      <c r="EP69" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AI13:AM13"/>
+    <mergeCell ref="AP13:AT13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="BY11:EP11"/>
+    <mergeCell ref="DV13:DZ13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="BD13:BH13"/>
+    <mergeCell ref="BK13:BO13"/>
+    <mergeCell ref="BR13:BV13"/>
+    <mergeCell ref="BY13:CC13"/>
+    <mergeCell ref="CF13:CJ13"/>
+    <mergeCell ref="BK14:BO14"/>
+    <mergeCell ref="EC13:EG13"/>
+    <mergeCell ref="EJ13:EN13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AT14"/>
+    <mergeCell ref="CM13:CQ13"/>
+    <mergeCell ref="CT13:CX13"/>
+    <mergeCell ref="DA13:DE13"/>
+    <mergeCell ref="DH13:DL13"/>
+    <mergeCell ref="DO13:DS13"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BD14:BH14"/>
+    <mergeCell ref="BI14:BJ14"/>
+    <mergeCell ref="CR14:CS14"/>
+    <mergeCell ref="CT14:CX14"/>
+    <mergeCell ref="CY14:CZ14"/>
+    <mergeCell ref="DA14:DE14"/>
+    <mergeCell ref="BP14:BQ14"/>
+    <mergeCell ref="BR14:BV14"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BY14:CC14"/>
+    <mergeCell ref="CD14:CE14"/>
+    <mergeCell ref="CF14:CJ14"/>
     <mergeCell ref="A69:EP69"/>
     <mergeCell ref="EA14:EB14"/>
     <mergeCell ref="EC14:EG14"/>
@@ -21624,54 +21672,6 @@
     <mergeCell ref="DV14:DZ14"/>
     <mergeCell ref="CK14:CL14"/>
     <mergeCell ref="CM14:CQ14"/>
-    <mergeCell ref="CR14:CS14"/>
-    <mergeCell ref="CT14:CX14"/>
-    <mergeCell ref="CY14:CZ14"/>
-    <mergeCell ref="DA14:DE14"/>
-    <mergeCell ref="BP14:BQ14"/>
-    <mergeCell ref="BR14:BV14"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BY14:CC14"/>
-    <mergeCell ref="CD14:CE14"/>
-    <mergeCell ref="CF14:CJ14"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BD14:BH14"/>
-    <mergeCell ref="BI14:BJ14"/>
-    <mergeCell ref="BK14:BO14"/>
-    <mergeCell ref="EC13:EG13"/>
-    <mergeCell ref="EJ13:EN13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AT14"/>
-    <mergeCell ref="CM13:CQ13"/>
-    <mergeCell ref="CT13:CX13"/>
-    <mergeCell ref="DA13:DE13"/>
-    <mergeCell ref="DH13:DL13"/>
-    <mergeCell ref="DO13:DS13"/>
-    <mergeCell ref="DV13:DZ13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="BD13:BH13"/>
-    <mergeCell ref="BK13:BO13"/>
-    <mergeCell ref="BR13:BV13"/>
-    <mergeCell ref="BY13:CC13"/>
-    <mergeCell ref="CF13:CJ13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="BY11:EP11"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AI13:AM13"/>
-    <mergeCell ref="AP13:AT13"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:H27 H40:H44 H29:H31 H33:H37 H46:H65">
     <cfRule type="expression" dxfId="109" priority="112">
